--- a/1.Data/tempdata.xlsx
+++ b/1.Data/tempdata.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">year</t>
   </si>
@@ -41,10 +41,19 @@
     <t xml:space="preserve">gdp_less_1</t>
   </si>
   <si>
-    <t xml:space="preserve">model</t>
+    <t xml:space="preserve">err</t>
   </si>
   <si>
-    <t xml:space="preserve">err</t>
+    <t xml:space="preserve">Algorithm 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithm 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithm 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithm 1</t>
   </si>
 </sst>
 </file>
@@ -410,6 +419,15 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -440,10 +458,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0.192872274535415</v>
+      </c>
+      <c r="K2" t="n">
+        <v>405.333867241373</v>
+      </c>
+      <c r="L2" t="n">
+        <v>399.003871899436</v>
+      </c>
+      <c r="M2" t="n">
+        <v>381.556622489238</v>
+      </c>
+      <c r="N2" t="n">
         <v>428.989241494285</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.192872274535415</v>
       </c>
     </row>
     <row r="3">
@@ -475,10 +502,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0.217633260440822</v>
+      </c>
+      <c r="K3" t="n">
+        <v>437.320386195379</v>
+      </c>
+      <c r="L3" t="n">
+        <v>418.604749915531</v>
+      </c>
+      <c r="M3" t="n">
+        <v>400.478833417286</v>
+      </c>
+      <c r="N3" t="n">
         <v>458.099651878571</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.217633260440822</v>
       </c>
     </row>
     <row r="4">
@@ -510,10 +546,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>0.206090704486789</v>
+      </c>
+      <c r="K4" t="n">
+        <v>449.995702795078</v>
+      </c>
+      <c r="L4" t="n">
+        <v>433.234004644509</v>
+      </c>
+      <c r="M4" t="n">
+        <v>407.412185206578</v>
+      </c>
+      <c r="N4" t="n">
         <v>465.731020969545</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.206090704486789</v>
       </c>
     </row>
     <row r="5">
@@ -545,10 +590,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0.14203542046071</v>
+      </c>
+      <c r="K5" t="n">
+        <v>447.186398463372</v>
+      </c>
+      <c r="L5" t="n">
+        <v>442.789084890856</v>
+      </c>
+      <c r="M5" t="n">
+        <v>418.87571377923</v>
+      </c>
+      <c r="N5" t="n">
         <v>460.4426859485</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.14203542046071</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +634,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
+        <v>0.0972966841390561</v>
+      </c>
+      <c r="K6" t="n">
+        <v>433.799001208146</v>
+      </c>
+      <c r="L6" t="n">
+        <v>444.933992605201</v>
+      </c>
+      <c r="M6" t="n">
+        <v>413.875147542657</v>
+      </c>
+      <c r="N6" t="n">
         <v>443.034804970435</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.0972966841390561</v>
       </c>
     </row>
     <row r="7">
@@ -615,10 +678,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
+        <v>0.105939497284131</v>
+      </c>
+      <c r="K7" t="n">
+        <v>405.455594010189</v>
+      </c>
+      <c r="L7" t="n">
+        <v>438.26148130886</v>
+      </c>
+      <c r="M7" t="n">
+        <v>380.414994516049</v>
+      </c>
+      <c r="N7" t="n">
         <v>411.660120998571</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.105939497284131</v>
       </c>
     </row>
     <row r="8">
@@ -650,10 +722,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0.195095525206689</v>
+      </c>
+      <c r="K8" t="n">
+        <v>412.445830354208</v>
+      </c>
+      <c r="L8" t="n">
+        <v>434.834428605101</v>
+      </c>
+      <c r="M8" t="n">
+        <v>365.46307179293</v>
+      </c>
+      <c r="N8" t="n">
         <v>419.560363513636</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.195095525206689</v>
       </c>
     </row>
     <row r="9">
@@ -685,10 +766,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
+        <v>0.204243399088156</v>
+      </c>
+      <c r="K9" t="n">
+        <v>421.58711812997</v>
+      </c>
+      <c r="L9" t="n">
+        <v>435.135548458475</v>
+      </c>
+      <c r="M9" t="n">
+        <v>373.886651971657</v>
+      </c>
+      <c r="N9" t="n">
         <v>430.93917474</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.204243399088156</v>
       </c>
     </row>
     <row r="10">
@@ -720,10 +810,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0.176641892906687</v>
+      </c>
+      <c r="K10" t="n">
+        <v>444.797971176248</v>
+      </c>
+      <c r="L10" t="n">
+        <v>438.316753859564</v>
+      </c>
+      <c r="M10" t="n">
+        <v>396.141419925867</v>
+      </c>
+      <c r="N10" t="n">
         <v>449.6246142575</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.176641892906687</v>
       </c>
     </row>
     <row r="11">
@@ -755,10 +854,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>0.116644848801285</v>
+      </c>
+      <c r="K11" t="n">
+        <v>460.004755860796</v>
+      </c>
+      <c r="L11" t="n">
+        <v>440.679239067443</v>
+      </c>
+      <c r="M11" t="n">
+        <v>418.860442956491</v>
+      </c>
+      <c r="N11" t="n">
         <v>458.82117499087</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.116644848801285</v>
       </c>
     </row>
     <row r="12">
@@ -790,10 +898,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
+        <v>0.0884511474452869</v>
+      </c>
+      <c r="K12" t="n">
+        <v>466.06447209836</v>
+      </c>
+      <c r="L12" t="n">
+        <v>444.66487985013</v>
+      </c>
+      <c r="M12" t="n">
+        <v>433.803517843588</v>
+      </c>
+      <c r="N12" t="n">
         <v>464.798648557273</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.0884511474452869</v>
       </c>
     </row>
     <row r="13">
@@ -825,10 +942,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
+        <v>0.10400102287353</v>
+      </c>
+      <c r="K13" t="n">
+        <v>476.482669798385</v>
+      </c>
+      <c r="L13" t="n">
+        <v>451.841530051201</v>
+      </c>
+      <c r="M13" t="n">
+        <v>441.539802640819</v>
+      </c>
+      <c r="N13" t="n">
         <v>476.6155863915</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.10400102287353</v>
       </c>
     </row>
     <row r="14">
@@ -860,10 +986,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
+        <v>0.115764073305545</v>
+      </c>
+      <c r="K14" t="n">
+        <v>471.05741190093</v>
+      </c>
+      <c r="L14" t="n">
+        <v>456.927465175358</v>
+      </c>
+      <c r="M14" t="n">
+        <v>434.768347267991</v>
+      </c>
+      <c r="N14" t="n">
         <v>473.072460764545</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.115764073305545</v>
       </c>
     </row>
     <row r="15">
@@ -895,10 +1030,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
+        <v>0.0503666300716994</v>
+      </c>
+      <c r="K15" t="n">
+        <v>463.901818068824</v>
+      </c>
+      <c r="L15" t="n">
+        <v>460.846467374375</v>
+      </c>
+      <c r="M15" t="n">
+        <v>452.559662533833</v>
+      </c>
+      <c r="N15" t="n">
         <v>469.0010552645</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.0503666300716994</v>
       </c>
     </row>
     <row r="16">
@@ -930,10 +1074,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
+        <v>0.0532470879602465</v>
+      </c>
+      <c r="K16" t="n">
+        <v>463.342863026497</v>
+      </c>
+      <c r="L16" t="n">
+        <v>461.944666011089</v>
+      </c>
+      <c r="M16" t="n">
+        <v>446.164370264788</v>
+      </c>
+      <c r="N16" t="n">
         <v>464.49479434</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.0532470879602465</v>
       </c>
     </row>
     <row r="17">
@@ -965,10 +1118,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
+        <v>0.0107240388527063</v>
+      </c>
+      <c r="K17" t="n">
+        <v>465.48805385514</v>
+      </c>
+      <c r="L17" t="n">
+        <v>461.612040133293</v>
+      </c>
+      <c r="M17" t="n">
+        <v>458.70869872202</v>
+      </c>
+      <c r="N17" t="n">
         <v>463.210228211819</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.0107240388527063</v>
       </c>
     </row>
     <row r="18">
@@ -1000,10 +1162,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
+        <v>0.000311079193366814</v>
+      </c>
+      <c r="K18" t="n">
+        <v>455.481109671395</v>
+      </c>
+      <c r="L18" t="n">
+        <v>459.774059305578</v>
+      </c>
+      <c r="M18" t="n">
+        <v>454.492669480659</v>
+      </c>
+      <c r="N18" t="n">
         <v>454.832317101739</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.000311079193366814</v>
       </c>
     </row>
     <row r="19">
@@ -1035,10 +1206,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
+        <v>0.000548676319542585</v>
+      </c>
+      <c r="K19" t="n">
+        <v>455.281030437977</v>
+      </c>
+      <c r="L19" t="n">
+        <v>456.627196705224</v>
+      </c>
+      <c r="M19" t="n">
+        <v>450.799130130747</v>
+      </c>
+      <c r="N19" t="n">
         <v>452.696997914932</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.000548676319542585</v>
       </c>
     </row>
     <row r="20">
@@ -1070,10 +1250,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
+        <v>0.0593523854185227</v>
+      </c>
+      <c r="K20" t="n">
+        <v>453.426805305791</v>
+      </c>
+      <c r="L20" t="n">
+        <v>452.242490482544</v>
+      </c>
+      <c r="M20" t="n">
+        <v>469.386464176504</v>
+      </c>
+      <c r="N20" t="n">
         <v>449.794637547258</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.0593523854185227</v>
       </c>
     </row>
     <row r="21">
@@ -1105,10 +1294,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
+        <v>0.0665388231166525</v>
+      </c>
+      <c r="K21" t="n">
+        <v>456.581680429644</v>
+      </c>
+      <c r="L21" t="n">
+        <v>449.37712651188</v>
+      </c>
+      <c r="M21" t="n">
+        <v>475.879833967917</v>
+      </c>
+      <c r="N21" t="n">
         <v>453.245621588182</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.0665388231166525</v>
       </c>
     </row>
     <row r="22">
@@ -1140,10 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
+        <v>0.067954068280191</v>
+      </c>
+      <c r="K22" t="n">
+        <v>466.481139832568</v>
+      </c>
+      <c r="L22" t="n">
+        <v>448.862789422667</v>
+      </c>
+      <c r="M22" t="n">
+        <v>485.54270251812</v>
+      </c>
+      <c r="N22" t="n">
         <v>461.810293007143</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.067954068280191</v>
       </c>
     </row>
     <row r="23">
@@ -1175,10 +1382,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
+        <v>0.0872760609217017</v>
+      </c>
+      <c r="K23" t="n">
+        <v>479.328246986678</v>
+      </c>
+      <c r="L23" t="n">
+        <v>450.916478600967</v>
+      </c>
+      <c r="M23" t="n">
+        <v>505.946477589003</v>
+      </c>
+      <c r="N23" t="n">
         <v>472.818484842174</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.0872760609217017</v>
       </c>
     </row>
     <row r="24">
@@ -1210,10 +1426,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
+        <v>0.0976463606330604</v>
+      </c>
+      <c r="K24" t="n">
+        <v>485.357733502365</v>
+      </c>
+      <c r="L24" t="n">
+        <v>454.288171481088</v>
+      </c>
+      <c r="M24" t="n">
+        <v>517.364869619763</v>
+      </c>
+      <c r="N24" t="n">
         <v>478.425837714285</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.0976463606330604</v>
       </c>
     </row>
     <row r="25">
@@ -1245,10 +1470,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
+        <v>0.0856530999262626</v>
+      </c>
+      <c r="K25" t="n">
+        <v>499.394501502267</v>
+      </c>
+      <c r="L25" t="n">
+        <v>460.011343979765</v>
+      </c>
+      <c r="M25" t="n">
+        <v>526.378599683</v>
+      </c>
+      <c r="N25" t="n">
         <v>491.649189447334</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.0856530999262626</v>
       </c>
     </row>
     <row r="26">
@@ -1280,10 +1514,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
+        <v>0.11270210632201</v>
+      </c>
+      <c r="K26" t="n">
+        <v>478.629878584809</v>
+      </c>
+      <c r="L26" t="n">
+        <v>460.177041560771</v>
+      </c>
+      <c r="M26" t="n">
+        <v>517.646500920238</v>
+      </c>
+      <c r="N26" t="n">
         <v>472.25971658</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.11270210632201</v>
       </c>
     </row>
     <row r="27">
@@ -1315,10 +1558,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
+        <v>0.184375301551563</v>
+      </c>
+      <c r="K27" t="n">
+        <v>444.577077581569</v>
+      </c>
+      <c r="L27" t="n">
+        <v>453.324844306887</v>
+      </c>
+      <c r="M27" t="n">
+        <v>518.37075418948</v>
+      </c>
+      <c r="N27" t="n">
         <v>442.01425321</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.184375301551563</v>
       </c>
     </row>
     <row r="28">
@@ -1350,10 +1602,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
+        <v>0.174266844514779</v>
+      </c>
+      <c r="K28" t="n">
+        <v>435.28256541332</v>
+      </c>
+      <c r="L28" t="n">
+        <v>445.342993928216</v>
+      </c>
+      <c r="M28" t="n">
+        <v>501.610311937055</v>
+      </c>
+      <c r="N28" t="n">
         <v>432.7232771</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.174266844514779</v>
       </c>
     </row>
     <row r="29">
@@ -1385,10 +1646,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
+        <v>0.133247118235038</v>
+      </c>
+      <c r="K29" t="n">
+        <v>403.992823302102</v>
+      </c>
+      <c r="L29" t="n">
+        <v>433.989696086981</v>
+      </c>
+      <c r="M29" t="n">
+        <v>452.852366822834</v>
+      </c>
+      <c r="N29" t="n">
         <v>406.55176099</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.133247118235038</v>
       </c>
     </row>
     <row r="30">
@@ -1420,10 +1690,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
+        <v>0.0250673245727422</v>
+      </c>
+      <c r="K30" t="n">
+        <v>385.887877305231</v>
+      </c>
+      <c r="L30" t="n">
+        <v>422.54000880632</v>
+      </c>
+      <c r="M30" t="n">
+        <v>397.316647919078</v>
+      </c>
+      <c r="N30" t="n">
         <v>392.20215624</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.0250673245727422</v>
       </c>
     </row>
     <row r="31">
@@ -1455,10 +1734,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
+        <v>0.00801668116988652</v>
+      </c>
+      <c r="K31" t="n">
+        <v>358.524268070312</v>
+      </c>
+      <c r="L31" t="n">
+        <v>408.560372884546</v>
+      </c>
+      <c r="M31" t="n">
+        <v>368.270972064444</v>
+      </c>
+      <c r="N31" t="n">
         <v>368.91876987</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.00801668116988652</v>
       </c>
     </row>
     <row r="32">
@@ -1490,10 +1778,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
+        <v>0.0385865756848155</v>
+      </c>
+      <c r="K32" t="n">
+        <v>340.481365555983</v>
+      </c>
+      <c r="L32" t="n">
+        <v>393.354160398142</v>
+      </c>
+      <c r="M32" t="n">
+        <v>359.058303726963</v>
+      </c>
+      <c r="N32" t="n">
         <v>351.35222534</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.0385865756848155</v>
       </c>
     </row>
     <row r="33">
@@ -1525,10 +1822,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
+        <v>0.0430558603373061</v>
+      </c>
+      <c r="K33" t="n">
+        <v>352.574017844779</v>
+      </c>
+      <c r="L33" t="n">
+        <v>382.747043617776</v>
+      </c>
+      <c r="M33" t="n">
+        <v>368.885876587974</v>
+      </c>
+      <c r="N33" t="n">
         <v>359.74595302</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.0430558603373061</v>
       </c>
     </row>
     <row r="34">
@@ -1560,10 +1866,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
+        <v>0.0465233097938552</v>
+      </c>
+      <c r="K34" t="n">
+        <v>389.867896348568</v>
+      </c>
+      <c r="L34" t="n">
+        <v>378.590543288056</v>
+      </c>
+      <c r="M34" t="n">
+        <v>397.479195848267</v>
+      </c>
+      <c r="N34" t="n">
         <v>387.57705334</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.0465233097938552</v>
       </c>
     </row>
     <row r="35">
@@ -1595,10 +1910,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
+        <v>0.0572496984865739</v>
+      </c>
+      <c r="K35" t="n">
+        <v>395.099321610278</v>
+      </c>
+      <c r="L35" t="n">
+        <v>374.555905386433</v>
+      </c>
+      <c r="M35" t="n">
+        <v>400.744767559433</v>
+      </c>
+      <c r="N35" t="n">
         <v>387.94870657</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.0572496984865739</v>
       </c>
     </row>
     <row r="36">
@@ -1630,10 +1954,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
+        <v>0.0212783996394559</v>
+      </c>
+      <c r="K36" t="n">
+        <v>388.878601407687</v>
+      </c>
+      <c r="L36" t="n">
+        <v>369.311644506379</v>
+      </c>
+      <c r="M36" t="n">
+        <v>379.939307367785</v>
+      </c>
+      <c r="N36" t="n">
         <v>379.65965184</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.0212783996394559</v>
       </c>
     </row>
     <row r="37">
@@ -1665,10 +1998,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
+        <v>0.0195696391392517</v>
+      </c>
+      <c r="K37" t="n">
+        <v>380.049402788686</v>
+      </c>
+      <c r="L37" t="n">
+        <v>362.574206839266</v>
+      </c>
+      <c r="M37" t="n">
+        <v>367.235701829456</v>
+      </c>
+      <c r="N37" t="n">
         <v>367.82873253</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.0195696391392517</v>
       </c>
     </row>
     <row r="38">
@@ -1700,10 +2042,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
+        <v>0.0119737815498605</v>
+      </c>
+      <c r="K38" t="n">
+        <v>323.387796734259</v>
+      </c>
+      <c r="L38" t="n">
+        <v>347.231372313176</v>
+      </c>
+      <c r="M38" t="n">
+        <v>313.414145624192</v>
+      </c>
+      <c r="N38" t="n">
         <v>316.23682307</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.0119737815498605</v>
       </c>
     </row>
     <row r="39">
@@ -1735,10 +2086,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
+        <v>0.00816844748119006</v>
+      </c>
+      <c r="K39" t="n">
+        <v>343.559469433644</v>
+      </c>
+      <c r="L39" t="n">
+        <v>338.468979257864</v>
+      </c>
+      <c r="M39" t="n">
+        <v>326.412036301202</v>
+      </c>
+      <c r="N39" t="n">
         <v>334.78952833</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.00816844748119006</v>
       </c>
     </row>
     <row r="40">
@@ -1770,10 +2130,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
+        <v>0.0399987755421851</v>
+      </c>
+      <c r="K40" t="n">
+        <v>330.939424998388</v>
+      </c>
+      <c r="L40" t="n">
+        <v>328.822915838192</v>
+      </c>
+      <c r="M40" t="n">
+        <v>326.840498756134</v>
+      </c>
+      <c r="N40" t="n">
         <v>322.53859539</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.0399987755421851</v>
       </c>
     </row>
     <row r="41">
@@ -1805,10 +2174,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
+        <v>0.067638066594083</v>
+      </c>
+      <c r="K41" t="n">
+        <v>328.368324933841</v>
+      </c>
+      <c r="L41" t="n">
+        <v>320.159223171843</v>
+      </c>
+      <c r="M41" t="n">
+        <v>331.719249435281</v>
+      </c>
+      <c r="N41" t="n">
         <v>320.129022175714</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.067638066594083</v>
       </c>
     </row>
     <row r="42">
@@ -1840,10 +2218,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
+        <v>0.0950310941605431</v>
+      </c>
+      <c r="K42" t="n">
+        <v>327.929800645496</v>
+      </c>
+      <c r="L42" t="n">
+        <v>314.4465468709</v>
+      </c>
+      <c r="M42" t="n">
+        <v>343.151390626351</v>
+      </c>
+      <c r="N42" t="n">
         <v>322.384677328421</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.0950310941605431</v>
       </c>
     </row>
     <row r="43">
@@ -1875,10 +2262,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
+        <v>0.0820266295479714</v>
+      </c>
+      <c r="K43" t="n">
+        <v>325.411920126019</v>
+      </c>
+      <c r="L43" t="n">
+        <v>308.79550163989</v>
+      </c>
+      <c r="M43" t="n">
+        <v>335.034186878297</v>
+      </c>
+      <c r="N43" t="n">
         <v>318.92782194</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.0820266295479714</v>
       </c>
     </row>
     <row r="44">
@@ -1910,10 +2306,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
+        <v>0.021850062560801</v>
+      </c>
+      <c r="K44" t="n">
+        <v>324.500253417169</v>
+      </c>
+      <c r="L44" t="n">
+        <v>303.728813053792</v>
+      </c>
+      <c r="M44" t="n">
+        <v>315.277340170777</v>
+      </c>
+      <c r="N44" t="n">
         <v>316.246507263913</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.021850062560801</v>
       </c>
     </row>
     <row r="45">
@@ -1945,10 +2350,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
+        <v>0.0146217374313501</v>
+      </c>
+      <c r="K45" t="n">
+        <v>312.511898546172</v>
+      </c>
+      <c r="L45" t="n">
+        <v>297.032818325366</v>
+      </c>
+      <c r="M45" t="n">
+        <v>300.607827731559</v>
+      </c>
+      <c r="N45" t="n">
         <v>303.71550519</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.0146217374313501</v>
       </c>
     </row>
     <row r="46">
@@ -1980,10 +2394,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
+        <v>0.0423946694555641</v>
+      </c>
+      <c r="K46" t="n">
+        <v>306.676056606673</v>
+      </c>
+      <c r="L46" t="n">
+        <v>289.498912701191</v>
+      </c>
+      <c r="M46" t="n">
+        <v>280.03892833304</v>
+      </c>
+      <c r="N46" t="n">
         <v>297.23106764</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.0423946694555641</v>
       </c>
     </row>
     <row r="47">
@@ -2015,10 +2438,19 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
+        <v>0.0674912218018002</v>
+      </c>
+      <c r="K47" t="n">
+        <v>298.506743702141</v>
+      </c>
+      <c r="L47" t="n">
+        <v>281.43580819418</v>
+      </c>
+      <c r="M47" t="n">
+        <v>266.856914398108</v>
+      </c>
+      <c r="N47" t="n">
         <v>289.4765798</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.0674912218018002</v>
       </c>
     </row>
     <row r="48">
@@ -2050,10 +2482,19 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
+        <v>0.120811538839081</v>
+      </c>
+      <c r="K48" t="n">
+        <v>280.278053045814</v>
+      </c>
+      <c r="L48" t="n">
+        <v>271.919780124286</v>
+      </c>
+      <c r="M48" t="n">
+        <v>241.748908252217</v>
+      </c>
+      <c r="N48" t="n">
         <v>272.933273048571</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.120811538839081</v>
       </c>
     </row>
     <row r="49">
@@ -2085,10 +2526,19 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
+        <v>0.102859666923828</v>
+      </c>
+      <c r="K49" t="n">
+        <v>268.211656206139</v>
+      </c>
+      <c r="L49" t="n">
+        <v>261.861614894288</v>
+      </c>
+      <c r="M49" t="n">
+        <v>233.778099708263</v>
+      </c>
+      <c r="N49" t="n">
         <v>260.96036382</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.102859666923828</v>
       </c>
     </row>
     <row r="50">
@@ -2120,10 +2570,19 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
+        <v>0.172686291928749</v>
+      </c>
+      <c r="K50" t="n">
+        <v>237.216934626237</v>
+      </c>
+      <c r="L50" t="n">
+        <v>247.796519556538</v>
+      </c>
+      <c r="M50" t="n">
+        <v>197.114051328394</v>
+      </c>
+      <c r="N50" t="n">
         <v>232.378005775</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.172686291928749</v>
       </c>
     </row>
     <row r="51">
@@ -2155,10 +2614,19 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
+        <v>0.357076273233716</v>
+      </c>
+      <c r="K51" t="n">
+        <v>225.290224055046</v>
+      </c>
+      <c r="L51" t="n">
+        <v>235.239176971568</v>
+      </c>
+      <c r="M51" t="n">
+        <v>169.166634478541</v>
+      </c>
+      <c r="N51" t="n">
         <v>223.5780446</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.357076273233716</v>
       </c>
     </row>
     <row r="52">
@@ -2190,10 +2658,19 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
+        <v>0.237538619464701</v>
+      </c>
+      <c r="K52" t="n">
+        <v>224.694717508937</v>
+      </c>
+      <c r="L52" t="n">
+        <v>226.01446353517</v>
+      </c>
+      <c r="M52" t="n">
+        <v>183.554901176787</v>
+      </c>
+      <c r="N52" t="n">
         <v>225.07320613</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.237538619464701</v>
       </c>
     </row>
     <row r="53">
@@ -2225,10 +2702,19 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
+        <v>0.13820186589575</v>
+      </c>
+      <c r="K53" t="n">
+        <v>226.992919232127</v>
+      </c>
+      <c r="L53" t="n">
+        <v>218.809991420133</v>
+      </c>
+      <c r="M53" t="n">
+        <v>197.878124208103</v>
+      </c>
+      <c r="N53" t="n">
         <v>227.30478005</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.13820186589575</v>
       </c>
     </row>
     <row r="54">
@@ -2260,10 +2746,19 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
+        <v>0.0545764280787733</v>
+      </c>
+      <c r="K54" t="n">
+        <v>240.684655651832</v>
+      </c>
+      <c r="L54" t="n">
+        <v>215.653883442158</v>
+      </c>
+      <c r="M54" t="n">
+        <v>222.576968108135</v>
+      </c>
+      <c r="N54" t="n">
         <v>239.92840343</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.0545764280787733</v>
       </c>
     </row>
     <row r="55">
@@ -2295,10 +2790,19 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
+        <v>0.111253446070276</v>
+      </c>
+      <c r="K55" t="n">
+        <v>256.030186655775</v>
+      </c>
+      <c r="L55" t="n">
+        <v>216.108633429785</v>
+      </c>
+      <c r="M55" t="n">
+        <v>226.006404096697</v>
+      </c>
+      <c r="N55" t="n">
         <v>253.47070192</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.111253446070276</v>
       </c>
     </row>
     <row r="56">
@@ -2330,10 +2834,19 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
+        <v>0.160799667420074</v>
+      </c>
+      <c r="K56" t="n">
+        <v>255.756666345269</v>
+      </c>
+      <c r="L56" t="n">
+        <v>219.21302921969</v>
+      </c>
+      <c r="M56" t="n">
+        <v>222.707133061825</v>
+      </c>
+      <c r="N56" t="n">
         <v>255.95676777</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.160799667420074</v>
       </c>
     </row>
     <row r="57">
@@ -2365,10 +2878,19 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
+        <v>0.127400979093156</v>
+      </c>
+      <c r="K57" t="n">
+        <v>240.972438400394</v>
+      </c>
+      <c r="L57" t="n">
+        <v>221.190421330319</v>
+      </c>
+      <c r="M57" t="n">
+        <v>220.499910750953</v>
+      </c>
+      <c r="N57" t="n">
         <v>246.162507705217</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.127400979093156</v>
       </c>
     </row>
     <row r="58">
@@ -2400,10 +2922,19 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
+        <v>0.0562268245158533</v>
+      </c>
+      <c r="K58" t="n">
+        <v>240.699476447214</v>
+      </c>
+      <c r="L58" t="n">
+        <v>224.556246842377</v>
+      </c>
+      <c r="M58" t="n">
+        <v>235.507496199191</v>
+      </c>
+      <c r="N58" t="n">
         <v>248.16584749</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.0562268245158533</v>
       </c>
     </row>
     <row r="59">
@@ -2435,10 +2966,19 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
+        <v>0.248055657375503</v>
+      </c>
+      <c r="K59" t="n">
+        <v>285.247438251147</v>
+      </c>
+      <c r="L59" t="n">
+        <v>241.123287524751</v>
+      </c>
+      <c r="M59" t="n">
+        <v>250.093494246859</v>
+      </c>
+      <c r="N59" t="n">
         <v>294.33011233</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.248055657375503</v>
       </c>
     </row>
     <row r="60">
@@ -2470,10 +3010,19 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
+        <v>0.146609791387543</v>
+      </c>
+      <c r="K60" t="n">
+        <v>299.187373451483</v>
+      </c>
+      <c r="L60" t="n">
+        <v>258.455718244085</v>
+      </c>
+      <c r="M60" t="n">
+        <v>280.034183324868</v>
+      </c>
+      <c r="N60" t="n">
         <v>307.57269464</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.146609791387543</v>
       </c>
     </row>
     <row r="61">
@@ -2505,10 +3054,19 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
+        <v>0.066542393717886</v>
+      </c>
+      <c r="K61" t="n">
+        <v>290.12803058834</v>
+      </c>
+      <c r="L61" t="n">
+        <v>266.630202820056</v>
+      </c>
+      <c r="M61" t="n">
+        <v>313.064039272931</v>
+      </c>
+      <c r="N61" t="n">
         <v>295.73664447</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.066542393717886</v>
       </c>
     </row>
     <row r="62">
@@ -2540,10 +3098,19 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
+        <v>0.102921926681212</v>
+      </c>
+      <c r="K62" t="n">
+        <v>314.726416816129</v>
+      </c>
+      <c r="L62" t="n">
+        <v>276.063610408331</v>
+      </c>
+      <c r="M62" t="n">
+        <v>343.395849326813</v>
+      </c>
+      <c r="N62" t="n">
         <v>315.10785709</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.102921926681212</v>
       </c>
     </row>
     <row r="63">
@@ -2575,10 +3142,19 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
+        <v>0.231686608190727</v>
+      </c>
+      <c r="K63" t="n">
+        <v>318.871097867055</v>
+      </c>
+      <c r="L63" t="n">
+        <v>283.071284628594</v>
+      </c>
+      <c r="M63" t="n">
+        <v>391.779859515208</v>
+      </c>
+      <c r="N63" t="n">
         <v>317.08266789</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.231686608190727</v>
       </c>
     </row>
     <row r="64">
@@ -2610,10 +3186,19 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
+        <v>0.295639622811152</v>
+      </c>
+      <c r="K64" t="n">
+        <v>278.977562826584</v>
+      </c>
+      <c r="L64" t="n">
+        <v>282.279854236746</v>
+      </c>
+      <c r="M64" t="n">
+        <v>376.819116525086</v>
+      </c>
+      <c r="N64" t="n">
         <v>283.08094587</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.295639622811152</v>
       </c>
     </row>
     <row r="65">
@@ -2645,10 +3230,19 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
+        <v>0.133227787916522</v>
+      </c>
+      <c r="K65" t="n">
+        <v>277.621598418856</v>
+      </c>
+      <c r="L65" t="n">
+        <v>282.854969461184</v>
+      </c>
+      <c r="M65" t="n">
+        <v>318.7936930075</v>
+      </c>
+      <c r="N65" t="n">
         <v>283.825698485263</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.133227787916522</v>
       </c>
     </row>
     <row r="66">
@@ -2680,10 +3274,19 @@
         <v>0</v>
       </c>
       <c r="J66" t="n">
+        <v>0.0837617589943362</v>
+      </c>
+      <c r="K66" t="n">
+        <v>280.773303107501</v>
+      </c>
+      <c r="L66" t="n">
+        <v>280.234284177985</v>
+      </c>
+      <c r="M66" t="n">
+        <v>299.783801920249</v>
+      </c>
+      <c r="N66" t="n">
         <v>281.67619047</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.0837617589943362</v>
       </c>
     </row>
     <row r="67">
@@ -2715,10 +3318,19 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
+        <v>0.0834261068024076</v>
+      </c>
+      <c r="K67" t="n">
+        <v>271.512662976207</v>
+      </c>
+      <c r="L67" t="n">
+        <v>278.621546416818</v>
+      </c>
+      <c r="M67" t="n">
+        <v>295.012047546525</v>
+      </c>
+      <c r="N67" t="n">
         <v>275.73800211</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.0834261068024076</v>
       </c>
     </row>
     <row r="68">
@@ -2750,10 +3362,19 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
+        <v>0.0524393456174695</v>
+      </c>
+      <c r="K68" t="n">
+        <v>275.924872434025</v>
+      </c>
+      <c r="L68" t="n">
+        <v>280.372582390887</v>
+      </c>
+      <c r="M68" t="n">
+        <v>296.114900803902</v>
+      </c>
+      <c r="N68" t="n">
         <v>282.759774509048</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.0524393456174695</v>
       </c>
     </row>
     <row r="69">
@@ -2785,10 +3406,19 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
+        <v>0.000125134696178142</v>
+      </c>
+      <c r="K69" t="n">
+        <v>297.53695142606</v>
+      </c>
+      <c r="L69" t="n">
+        <v>288.111373204185</v>
+      </c>
+      <c r="M69" t="n">
+        <v>307.75685575324</v>
+      </c>
+      <c r="N69" t="n">
         <v>305.02685703</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.000125134696178142</v>
       </c>
     </row>
     <row r="70">
@@ -2820,10 +3450,19 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
+        <v>0.000784198629073751</v>
+      </c>
+      <c r="K70" t="n">
+        <v>312.478449168285</v>
+      </c>
+      <c r="L70" t="n">
+        <v>297.120343819498</v>
+      </c>
+      <c r="M70" t="n">
+        <v>321.24932809965</v>
+      </c>
+      <c r="N70" t="n">
         <v>318.688864540952</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0.000784198629073751</v>
       </c>
     </row>
     <row r="71">
@@ -2855,10 +3494,19 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
+        <v>0.10285886545283</v>
+      </c>
+      <c r="K71" t="n">
+        <v>321.973339056664</v>
+      </c>
+      <c r="L71" t="n">
+        <v>305.923719785139</v>
+      </c>
+      <c r="M71" t="n">
+        <v>305.39669480651</v>
+      </c>
+      <c r="N71" t="n">
         <v>326.95125082</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.10285886545283</v>
       </c>
     </row>
     <row r="72">
@@ -2890,10 +3538,19 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
+        <v>0.0405342810442875</v>
+      </c>
+      <c r="K72" t="n">
+        <v>337.028211770118</v>
+      </c>
+      <c r="L72" t="n">
+        <v>315.343799059014</v>
+      </c>
+      <c r="M72" t="n">
+        <v>332.096996997861</v>
+      </c>
+      <c r="N72" t="n">
         <v>340.23478367</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.0405342810442875</v>
       </c>
     </row>
     <row r="73">
@@ -2925,10 +3582,19 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
+        <v>0.00502452179275692</v>
+      </c>
+      <c r="K73" t="n">
+        <v>369.033829312493</v>
+      </c>
+      <c r="L73" t="n">
+        <v>329.709468681721</v>
+      </c>
+      <c r="M73" t="n">
+        <v>371.255966927199</v>
+      </c>
+      <c r="N73" t="n">
         <v>369.410512976667</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.00502452179275692</v>
       </c>
     </row>
     <row r="74">
@@ -2960,10 +3626,19 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
+        <v>0.175263052632716</v>
+      </c>
+      <c r="K74" t="n">
+        <v>348.92482066583</v>
+      </c>
+      <c r="L74" t="n">
+        <v>339.956680838056</v>
+      </c>
+      <c r="M74" t="n">
+        <v>421.21251506788</v>
+      </c>
+      <c r="N74" t="n">
         <v>356.154485824783</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.175263052632716</v>
       </c>
     </row>
     <row r="75">
@@ -2995,10 +3670,19 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
+        <v>0.156116433388134</v>
+      </c>
+      <c r="K75" t="n">
+        <v>341.301017548558</v>
+      </c>
+      <c r="L75" t="n">
+        <v>345.966427316259</v>
+      </c>
+      <c r="M75" t="n">
+        <v>403.567645654752</v>
+      </c>
+      <c r="N75" t="n">
         <v>347.98026212</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.156116433388134</v>
       </c>
     </row>
     <row r="76">
@@ -3030,10 +3714,19 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
+        <v>0.106633951639987</v>
+      </c>
+      <c r="K76" t="n">
+        <v>346.254582082701</v>
+      </c>
+      <c r="L76" t="n">
+        <v>348.510709653008</v>
+      </c>
+      <c r="M76" t="n">
+        <v>383.431839588428</v>
+      </c>
+      <c r="N76" t="n">
         <v>348.28667811</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.106633951639987</v>
       </c>
     </row>
     <row r="77">
@@ -3065,10 +3758,19 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
+        <v>0.0948934764318616</v>
+      </c>
+      <c r="K77" t="n">
+        <v>350.375040432532</v>
+      </c>
+      <c r="L77" t="n">
+        <v>350.900427146589</v>
+      </c>
+      <c r="M77" t="n">
+        <v>383.112628161597</v>
+      </c>
+      <c r="N77" t="n">
         <v>352.08489333</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.0948934764318616</v>
       </c>
     </row>
     <row r="78">
@@ -3100,10 +3802,19 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
+        <v>0.0242224309834964</v>
+      </c>
+      <c r="K78" t="n">
+        <v>374.934567045424</v>
+      </c>
+      <c r="L78" t="n">
+        <v>360.590146464617</v>
+      </c>
+      <c r="M78" t="n">
+        <v>389.531190810064</v>
+      </c>
+      <c r="N78" t="n">
         <v>377.89570951</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.0242224309834964</v>
       </c>
     </row>
     <row r="79">
@@ -3135,10 +3846,19 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
+        <v>0.113752160903017</v>
+      </c>
+      <c r="K79" t="n">
+        <v>378.847562469259</v>
+      </c>
+      <c r="L79" t="n">
+        <v>371.87963741472</v>
+      </c>
+      <c r="M79" t="n">
+        <v>430.106671680424</v>
+      </c>
+      <c r="N79" t="n">
         <v>384.43289199</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.113752160903017</v>
       </c>
     </row>
     <row r="80">
@@ -3170,10 +3890,19 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
+        <v>0.0433581615871459</v>
+      </c>
+      <c r="K80" t="n">
+        <v>384.34897862091</v>
+      </c>
+      <c r="L80" t="n">
+        <v>383.241752411331</v>
+      </c>
+      <c r="M80" t="n">
+        <v>412.289897165309</v>
+      </c>
+      <c r="N80" t="n">
         <v>390.68325934</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.0433581615871459</v>
       </c>
     </row>
     <row r="81">
@@ -3205,10 +3934,19 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
+        <v>0.0284510647556838</v>
+      </c>
+      <c r="K81" t="n">
+        <v>393.603621842905</v>
+      </c>
+      <c r="L81" t="n">
+        <v>392.782377351132</v>
+      </c>
+      <c r="M81" t="n">
+        <v>412.75457482011</v>
+      </c>
+      <c r="N81" t="n">
         <v>396.72700423</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.0284510647556838</v>
       </c>
     </row>
     <row r="82">
@@ -3240,10 +3978,19 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
+        <v>0.023899482040749</v>
+      </c>
+      <c r="K82" t="n">
+        <v>447.145211418397</v>
+      </c>
+      <c r="L82" t="n">
+        <v>407.884492997543</v>
+      </c>
+      <c r="M82" t="n">
+        <v>438.099940300937</v>
+      </c>
+      <c r="N82" t="n">
         <v>441.05518406</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.023899482040749</v>
       </c>
     </row>
     <row r="83">
@@ -3275,10 +4022,19 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
+        <v>0.0197839363681291</v>
+      </c>
+      <c r="K83" t="n">
+        <v>433.000501571815</v>
+      </c>
+      <c r="L83" t="n">
+        <v>415.914621082354</v>
+      </c>
+      <c r="M83" t="n">
+        <v>424.613732747522</v>
+      </c>
+      <c r="N83" t="n">
         <v>427.10430207</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.0197839363681291</v>
       </c>
     </row>
     <row r="84">
@@ -3310,10 +4066,19 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
+        <v>0.01760521049527</v>
+      </c>
+      <c r="K84" t="n">
+        <v>396.987498492534</v>
+      </c>
+      <c r="L84" t="n">
+        <v>412.941933838518</v>
+      </c>
+      <c r="M84" t="n">
+        <v>386.658685342711</v>
+      </c>
+      <c r="N84" t="n">
         <v>389.61981803</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.01760521049527</v>
       </c>
     </row>
     <row r="85">
@@ -3345,10 +4110,19 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
+        <v>0.161088734119496</v>
+      </c>
+      <c r="K85" t="n">
+        <v>386.95745447996</v>
+      </c>
+      <c r="L85" t="n">
+        <v>408.617757727763</v>
+      </c>
+      <c r="M85" t="n">
+        <v>339.912580444385</v>
+      </c>
+      <c r="N85" t="n">
         <v>379.195615593333</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.161088734119496</v>
       </c>
     </row>
     <row r="86">
@@ -3380,10 +4154,19 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
+        <v>0.15540814232938</v>
+      </c>
+      <c r="K86" t="n">
+        <v>368.17050433094</v>
+      </c>
+      <c r="L86" t="n">
+        <v>401.490553091027</v>
+      </c>
+      <c r="M86" t="n">
+        <v>326.383481116375</v>
+      </c>
+      <c r="N86" t="n">
         <v>363.04716881</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.15540814232938</v>
       </c>
     </row>
     <row r="87">
@@ -3415,10 +4198,19 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
+        <v>0.0298642300313858</v>
+      </c>
+      <c r="K87" t="n">
+        <v>322.508363018435</v>
+      </c>
+      <c r="L87" t="n">
+        <v>388.008740893581</v>
+      </c>
+      <c r="M87" t="n">
+        <v>319.613079154369</v>
+      </c>
+      <c r="N87" t="n">
         <v>324.94677833</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.0298642300313858</v>
       </c>
     </row>
     <row r="88">
@@ -3450,10 +4242,19 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
+        <v>0.0424604322392041</v>
+      </c>
+      <c r="K88" t="n">
+        <v>299.264022460352</v>
+      </c>
+      <c r="L88" t="n">
+        <v>373.03287021944</v>
+      </c>
+      <c r="M88" t="n">
+        <v>317.84943222349</v>
+      </c>
+      <c r="N88" t="n">
         <v>305.11860441</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.0424604322392041</v>
       </c>
     </row>
     <row r="89">
@@ -3485,10 +4286,19 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
+        <v>0.0338070518014382</v>
+      </c>
+      <c r="K89" t="n">
+        <v>289.162188217023</v>
+      </c>
+      <c r="L89" t="n">
+        <v>357.677787267969</v>
+      </c>
+      <c r="M89" t="n">
+        <v>303.83333432955</v>
+      </c>
+      <c r="N89" t="n">
         <v>295.0324878</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.0338070518014382</v>
       </c>
     </row>
     <row r="90">
@@ -3520,10 +4330,19 @@
         <v>0</v>
       </c>
       <c r="J90" t="n">
+        <v>0.0574830680060513</v>
+      </c>
+      <c r="K90" t="n">
+        <v>272.507225929219</v>
+      </c>
+      <c r="L90" t="n">
+        <v>341.290809470113</v>
+      </c>
+      <c r="M90" t="n">
+        <v>292.189924306379</v>
+      </c>
+      <c r="N90" t="n">
         <v>278.94993139</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.0574830680060513</v>
       </c>
     </row>
     <row r="91">
@@ -3555,10 +4374,19 @@
         <v>0</v>
       </c>
       <c r="J91" t="n">
+        <v>0.12168337459006</v>
+      </c>
+      <c r="K91" t="n">
+        <v>239.579767619908</v>
+      </c>
+      <c r="L91" t="n">
+        <v>319.339232679913</v>
+      </c>
+      <c r="M91" t="n">
+        <v>270.226153088507</v>
+      </c>
+      <c r="N91" t="n">
         <v>245.542613</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.12168337459006</v>
       </c>
     </row>
     <row r="92">
@@ -3590,10 +4418,19 @@
         <v>0</v>
       </c>
       <c r="J92" t="n">
+        <v>0.00166512329088331</v>
+      </c>
+      <c r="K92" t="n">
+        <v>240.62639562057</v>
+      </c>
+      <c r="L92" t="n">
+        <v>301.889806987011</v>
+      </c>
+      <c r="M92" t="n">
+        <v>244.026236465756</v>
+      </c>
+      <c r="N92" t="n">
         <v>246.1997508</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.00166512329088331</v>
       </c>
     </row>
     <row r="93">
@@ -3625,10 +4462,19 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
+        <v>0.0193551294136753</v>
+      </c>
+      <c r="K93" t="n">
+        <v>236.734341432474</v>
+      </c>
+      <c r="L93" t="n">
+        <v>284.808947185175</v>
+      </c>
+      <c r="M93" t="n">
+        <v>230.922761269925</v>
+      </c>
+      <c r="N93" t="n">
         <v>238.69234491</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.0193551294136753</v>
       </c>
     </row>
     <row r="94">
@@ -3660,10 +4506,19 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
+        <v>0.0781472223369892</v>
+      </c>
+      <c r="K94" t="n">
+        <v>254.303409184915</v>
+      </c>
+      <c r="L94" t="n">
+        <v>274.202729332318</v>
+      </c>
+      <c r="M94" t="n">
+        <v>234.997088644343</v>
+      </c>
+      <c r="N94" t="n">
         <v>253.93741013</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.0781472223369892</v>
       </c>
     </row>
     <row r="95">
@@ -3695,10 +4550,19 @@
         <v>0</v>
       </c>
       <c r="J95" t="n">
+        <v>0.219750643026879</v>
+      </c>
+      <c r="K95" t="n">
+        <v>280.336574631707</v>
+      </c>
+      <c r="L95" t="n">
+        <v>270.629391934809</v>
+      </c>
+      <c r="M95" t="n">
+        <v>232.481171724159</v>
+      </c>
+      <c r="N95" t="n">
         <v>275.97364495</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.219750643026879</v>
       </c>
     </row>
     <row r="96">
@@ -3730,10 +4594,19 @@
         <v>0</v>
       </c>
       <c r="J96" t="n">
+        <v>0.227091322351608</v>
+      </c>
+      <c r="K96" t="n">
+        <v>288.009710663165</v>
+      </c>
+      <c r="L96" t="n">
+        <v>268.404835569035</v>
+      </c>
+      <c r="M96" t="n">
+        <v>235.992378081136</v>
+      </c>
+      <c r="N96" t="n">
         <v>282.09615294</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.227091322351608</v>
       </c>
     </row>
     <row r="97">
@@ -3765,10 +4638,19 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
+        <v>0.231368842835725</v>
+      </c>
+      <c r="K97" t="n">
+        <v>281.060445891629</v>
+      </c>
+      <c r="L97" t="n">
+        <v>265.471215974429</v>
+      </c>
+      <c r="M97" t="n">
+        <v>230.705778681778</v>
+      </c>
+      <c r="N97" t="n">
         <v>276.69853255</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.231368842835725</v>
       </c>
     </row>
     <row r="98">
@@ -3800,10 +4682,19 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
+        <v>0.0367514103808577</v>
+      </c>
+      <c r="K98" t="n">
+        <v>244.742878868814</v>
+      </c>
+      <c r="L98" t="n">
+        <v>258.560291399339</v>
+      </c>
+      <c r="M98" t="n">
+        <v>251.765318462415</v>
+      </c>
+      <c r="N98" t="n">
         <v>247.48803808</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.0367514103808577</v>
       </c>
     </row>
     <row r="99">
@@ -3835,10 +4726,19 @@
         <v>0.14240145404096</v>
       </c>
       <c r="J99" t="n">
+        <v>0.181572724132949</v>
+      </c>
+      <c r="K99" t="n">
+        <v>213.124559677219</v>
+      </c>
+      <c r="L99" t="n">
+        <v>246.894500858738</v>
+      </c>
+      <c r="M99" t="n">
+        <v>253.156446158533</v>
+      </c>
+      <c r="N99" t="n">
         <v>218.0543515</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.181572724132949</v>
       </c>
     </row>
     <row r="100">
@@ -3870,10 +4770,19 @@
         <v>-1.01473746893856</v>
       </c>
       <c r="J100" t="n">
+        <v>0.0825198923151099</v>
+      </c>
+      <c r="K100" t="n">
+        <v>199.383052758369</v>
+      </c>
+      <c r="L100" t="n">
+        <v>233.742714112083</v>
+      </c>
+      <c r="M100" t="n">
+        <v>211.446287735679</v>
+      </c>
+      <c r="N100" t="n">
         <v>200.80893998</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.0825198923151099</v>
       </c>
     </row>
     <row r="101">
@@ -3905,10 +4814,19 @@
         <v>-3.89216450359739</v>
       </c>
       <c r="J101" t="n">
+        <v>0.0492776588604642</v>
+      </c>
+      <c r="K101" t="n">
+        <v>173.102574790849</v>
+      </c>
+      <c r="L101" t="n">
+        <v>215.842208256213</v>
+      </c>
+      <c r="M101" t="n">
+        <v>161.159538589988</v>
+      </c>
+      <c r="N101" t="n">
         <v>173.14335258</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.0492776588604642</v>
       </c>
     </row>
     <row r="102">
@@ -3940,10 +4858,19 @@
         <v>-6.76959153825622</v>
       </c>
       <c r="J102" t="n">
+        <v>0.0259074697251723</v>
+      </c>
+      <c r="K102" t="n">
+        <v>154.235456685953</v>
+      </c>
+      <c r="L102" t="n">
+        <v>197.289967650107</v>
+      </c>
+      <c r="M102" t="n">
+        <v>154.096725428487</v>
+      </c>
+      <c r="N102" t="n">
         <v>157.36711272</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.0259074697251723</v>
       </c>
     </row>
     <row r="103">
@@ -3975,10 +4902,19 @@
         <v>-9.64701857291505</v>
       </c>
       <c r="J103" t="n">
+        <v>0.0507690829990736</v>
+      </c>
+      <c r="K103" t="n">
+        <v>159.209478374736</v>
+      </c>
+      <c r="L103" t="n">
+        <v>184.050984979016</v>
+      </c>
+      <c r="M103" t="n">
+        <v>165.100499865677</v>
+      </c>
+      <c r="N103" t="n">
         <v>164.66409573</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.0507690829990736</v>
       </c>
     </row>
     <row r="104">
@@ -4010,10 +4946,19 @@
         <v>-6.76959153825622</v>
       </c>
       <c r="J104" t="n">
+        <v>0.11361429376136</v>
+      </c>
+      <c r="K104" t="n">
+        <v>163.675663200106</v>
+      </c>
+      <c r="L104" t="n">
+        <v>174.332044870151</v>
+      </c>
+      <c r="M104" t="n">
+        <v>179.974588420542</v>
+      </c>
+      <c r="N104" t="n">
         <v>169.42652055</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.11361429376136</v>
       </c>
     </row>
     <row r="105">
@@ -4045,10 +4990,19 @@
         <v>-3.89216450359739</v>
       </c>
       <c r="J105" t="n">
+        <v>0.13730463210881</v>
+      </c>
+      <c r="K105" t="n">
+        <v>191.083352173552</v>
+      </c>
+      <c r="L105" t="n">
+        <v>170.572910018644</v>
+      </c>
+      <c r="M105" t="n">
+        <v>209.39798348267</v>
+      </c>
+      <c r="N105" t="n">
         <v>192.49439286</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.13730463210881</v>
       </c>
     </row>
     <row r="106">
@@ -4080,10 +5034,19 @@
         <v>-3</v>
       </c>
       <c r="J106" t="n">
+        <v>0.0746111917559629</v>
+      </c>
+      <c r="K106" t="n">
+        <v>226.974146137199</v>
+      </c>
+      <c r="L106" t="n">
+        <v>174.445345535436</v>
+      </c>
+      <c r="M106" t="n">
+        <v>230.857247584313</v>
+      </c>
+      <c r="N106" t="n">
         <v>223.460252056667</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.0746111917559629</v>
       </c>
     </row>
     <row r="107">
@@ -4112,10 +5075,19 @@
       <c r="I107" t="n">
         <v>-2</v>
       </c>
-      <c r="J107" t="n">
+      <c r="J107"/>
+      <c r="K107" t="n">
+        <v>229.163996408124</v>
+      </c>
+      <c r="L107" t="n">
+        <v>179.572898409062</v>
+      </c>
+      <c r="M107" t="n">
+        <v>224.454596507918</v>
+      </c>
+      <c r="N107" t="n">
         <v>223.460252056667</v>
       </c>
-      <c r="K107"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -4143,10 +5115,19 @@
       <c r="I108" t="n">
         <v>-2</v>
       </c>
-      <c r="J108" t="n">
+      <c r="J108"/>
+      <c r="K108" t="n">
+        <v>229.010591690114</v>
+      </c>
+      <c r="L108" t="n">
+        <v>183.663360993</v>
+      </c>
+      <c r="M108" t="n">
+        <v>219.371549355299</v>
+      </c>
+      <c r="N108" t="n">
         <v>223.460252056667</v>
       </c>
-      <c r="K108"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -4174,10 +5155,19 @@
       <c r="I109" t="n">
         <v>-2</v>
       </c>
-      <c r="J109" t="n">
+      <c r="J109"/>
+      <c r="K109" t="n">
+        <v>228.857444967703</v>
+      </c>
+      <c r="L109" t="n">
+        <v>186.928688984893</v>
+      </c>
+      <c r="M109" t="n">
+        <v>215.338369770789</v>
+      </c>
+      <c r="N109" t="n">
         <v>223.460252056667</v>
       </c>
-      <c r="K109"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -4205,10 +5195,19 @@
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
+      <c r="J110"/>
+      <c r="K110" t="n">
+        <v>227.612277443282</v>
+      </c>
+      <c r="L110" t="n">
+        <v>191.043830950561</v>
+      </c>
+      <c r="M110" t="n">
+        <v>213.646768802448</v>
+      </c>
+      <c r="N110" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K110"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -4236,10 +5235,19 @@
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
+      <c r="J111"/>
+      <c r="K111" t="n">
+        <v>227.612277443282</v>
+      </c>
+      <c r="L111" t="n">
+        <v>194.317866262773</v>
+      </c>
+      <c r="M111" t="n">
+        <v>212.300919412384</v>
+      </c>
+      <c r="N111" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K111"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -4267,10 +5275,19 @@
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
+      <c r="J112"/>
+      <c r="K112" t="n">
+        <v>227.612277443282</v>
+      </c>
+      <c r="L112" t="n">
+        <v>196.922711324022</v>
+      </c>
+      <c r="M112" t="n">
+        <v>211.23015236115</v>
+      </c>
+      <c r="N112" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K112"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -4298,10 +5315,19 @@
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
+      <c r="J113"/>
+      <c r="K113" t="n">
+        <v>227.612277443282</v>
+      </c>
+      <c r="L113" t="n">
+        <v>198.995144009096</v>
+      </c>
+      <c r="M113" t="n">
+        <v>210.378242714741</v>
+      </c>
+      <c r="N113" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K113"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -4329,10 +5355,19 @@
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
+      <c r="J114"/>
+      <c r="K114" t="n">
+        <v>227.612277443282</v>
+      </c>
+      <c r="L114" t="n">
+        <v>200.643985737941</v>
+      </c>
+      <c r="M114" t="n">
+        <v>209.700457528125</v>
+      </c>
+      <c r="N114" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K114"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -4360,10 +5395,19 @@
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
+      <c r="J115"/>
+      <c r="K115" t="n">
+        <v>227.612277443282</v>
+      </c>
+      <c r="L115" t="n">
+        <v>201.955815582336</v>
+      </c>
+      <c r="M115" t="n">
+        <v>209.161206961901</v>
+      </c>
+      <c r="N115" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K115"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -4391,10 +5435,19 @@
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
+      <c r="J116"/>
+      <c r="K116" t="n">
+        <v>227.612277443282</v>
+      </c>
+      <c r="L116" t="n">
+        <v>202.999516448551</v>
+      </c>
+      <c r="M116" t="n">
+        <v>208.732175494536</v>
+      </c>
+      <c r="N116" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K116"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -4422,10 +5475,19 @@
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J117"/>
+      <c r="K117" t="n">
+        <v>227.612277443282</v>
+      </c>
+      <c r="L117" t="n">
+        <v>203.829892051599</v>
+      </c>
+      <c r="M117" t="n">
+        <v>208.390835101927</v>
+      </c>
+      <c r="N117" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K117"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -4453,10 +5515,19 @@
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J118"/>
+      <c r="K118" t="n">
+        <v>227.612277443282</v>
+      </c>
+      <c r="L118" t="n">
+        <v>204.490544604892</v>
+      </c>
+      <c r="M118" t="n">
+        <v>208.119262332819</v>
+      </c>
+      <c r="N118" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K118"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -4484,10 +5555,19 @@
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
+      <c r="J119"/>
+      <c r="K119" t="n">
+        <v>227.76238883792</v>
+      </c>
+      <c r="L119" t="n">
+        <v>205.005453149507</v>
+      </c>
+      <c r="M119" t="n">
+        <v>207.892485985409</v>
+      </c>
+      <c r="N119" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K119"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -4515,10 +5595,19 @@
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
+      <c r="J120"/>
+      <c r="K120" t="n">
+        <v>227.912748137663</v>
+      </c>
+      <c r="L120" t="n">
+        <v>205.404389067014</v>
+      </c>
+      <c r="M120" t="n">
+        <v>207.70133229063</v>
+      </c>
+      <c r="N120" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K120"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -4546,10 +5635,19 @@
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
+      <c r="J121"/>
+      <c r="K121" t="n">
+        <v>228.063355801169</v>
+      </c>
+      <c r="L121" t="n">
+        <v>205.711038641066</v>
+      </c>
+      <c r="M121" t="n">
+        <v>207.538502501852</v>
+      </c>
+      <c r="N121" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K121"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -4577,10 +5675,19 @@
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
+      <c r="J122"/>
+      <c r="K122" t="n">
+        <v>269.726019718482</v>
+      </c>
+      <c r="L122" t="n">
+        <v>214.371215901152</v>
+      </c>
+      <c r="M122" t="n">
+        <v>215.825158744904</v>
+      </c>
+      <c r="N122" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K122"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -4608,10 +5715,19 @@
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
+      <c r="J123"/>
+      <c r="K123" t="n">
+        <v>269.877125256161</v>
+      </c>
+      <c r="L123" t="n">
+        <v>221.250530503641</v>
+      </c>
+      <c r="M123" t="n">
+        <v>222.407297451681</v>
+      </c>
+      <c r="N123" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K123"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -4639,10 +5755,19 @@
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
+      <c r="J124"/>
+      <c r="K124" t="n">
+        <v>270.028480380693</v>
+      </c>
+      <c r="L124" t="n">
+        <v>226.712960691601</v>
+      </c>
+      <c r="M124" t="n">
+        <v>227.633292448678</v>
+      </c>
+      <c r="N124" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K124"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -4670,10 +5795,19 @@
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
+      <c r="J125"/>
+      <c r="K125" t="n">
+        <v>270.180085474293</v>
+      </c>
+      <c r="L125" t="n">
+        <v>231.04809003673</v>
+      </c>
+      <c r="M125" t="n">
+        <v>231.780312326206</v>
+      </c>
+      <c r="N125" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K125"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -4701,10 +5835,19 @@
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
+      <c r="J126"/>
+      <c r="K126" t="n">
+        <v>270.331940919178</v>
+      </c>
+      <c r="L126" t="n">
+        <v>234.4863131974</v>
+      </c>
+      <c r="M126" t="n">
+        <v>235.068874297876</v>
+      </c>
+      <c r="N126" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K126"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -4732,10 +5875,19 @@
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
+      <c r="J127"/>
+      <c r="K127" t="n">
+        <v>270.484047174007</v>
+      </c>
+      <c r="L127" t="n">
+        <v>237.210933719122</v>
+      </c>
+      <c r="M127" t="n">
+        <v>237.674423346064</v>
+      </c>
+      <c r="N127" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K127"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -4763,10 +5915,19 @@
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
+      <c r="J128"/>
+      <c r="K128" t="n">
+        <v>270.636404697437</v>
+      </c>
+      <c r="L128" t="n">
+        <v>239.367789133426</v>
+      </c>
+      <c r="M128" t="n">
+        <v>239.736544675303</v>
+      </c>
+      <c r="N128" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K128"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -4794,10 +5955,19 @@
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
+      <c r="J129"/>
+      <c r="K129" t="n">
+        <v>270.789013795243</v>
+      </c>
+      <c r="L129" t="n">
+        <v>241.072908763791</v>
+      </c>
+      <c r="M129" t="n">
+        <v>241.366293214619</v>
+      </c>
+      <c r="N129" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K129"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -4825,10 +5995,19 @@
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
+      <c r="J130"/>
+      <c r="K130" t="n">
+        <v>270.941874926082</v>
+      </c>
+      <c r="L130" t="n">
+        <v>242.418606306999</v>
+      </c>
+      <c r="M130" t="n">
+        <v>242.652024998281</v>
+      </c>
+      <c r="N130" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K130"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -4856,10 +6035,19 @@
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
+      <c r="J131"/>
+      <c r="K131" t="n">
+        <v>271.094988548613</v>
+      </c>
+      <c r="L131" t="n">
+        <v>243.478327143773</v>
+      </c>
+      <c r="M131" t="n">
+        <v>243.664036663436</v>
+      </c>
+      <c r="N131" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K131"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -4887,10 +6075,19 @@
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
+      <c r="J132"/>
+      <c r="K132" t="n">
+        <v>271.248355045053</v>
+      </c>
+      <c r="L132" t="n">
+        <v>244.310504897977</v>
+      </c>
+      <c r="M132" t="n">
+        <v>244.458256671856</v>
+      </c>
+      <c r="N132" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K132"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -4918,10 +6115,19 @@
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
+      <c r="J133"/>
+      <c r="K133" t="n">
+        <v>271.40197487406</v>
+      </c>
+      <c r="L133" t="n">
+        <v>244.961629730794</v>
+      </c>
+      <c r="M133" t="n">
+        <v>245.079182060496</v>
+      </c>
+      <c r="N133" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K133"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -4949,10 +6155,19 @@
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
+      <c r="J134"/>
+      <c r="K134" t="n">
+        <v>278.091898234862</v>
+      </c>
+      <c r="L134" t="n">
+        <v>248.093567903955</v>
+      </c>
+      <c r="M134" t="n">
+        <v>248.187093347715</v>
+      </c>
+      <c r="N134" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K134"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -4980,10 +6195,19 @@
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
+      <c r="J135"/>
+      <c r="K135" t="n">
+        <v>278.24602587565</v>
+      </c>
+      <c r="L135" t="n">
+        <v>250.57436174274</v>
+      </c>
+      <c r="M135" t="n">
+        <v>250.648771230437</v>
+      </c>
+      <c r="N135" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K135"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -5011,10 +6235,19 @@
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
+      <c r="J136"/>
+      <c r="K136" t="n">
+        <v>278.400408072095</v>
+      </c>
+      <c r="L136" t="n">
+        <v>252.537082497184</v>
+      </c>
+      <c r="M136" t="n">
+        <v>252.596283198476</v>
+      </c>
+      <c r="N136" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K136"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -5042,10 +6275,19 @@
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
+      <c r="J137"/>
+      <c r="K137" t="n">
+        <v>278.555045282856</v>
+      </c>
+      <c r="L137" t="n">
+        <v>254.087602538302</v>
+      </c>
+      <c r="M137" t="n">
+        <v>254.134703024301</v>
+      </c>
+      <c r="N137" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K137"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -5073,10 +6315,19 @@
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
+      <c r="J138"/>
+      <c r="K138" t="n">
+        <v>278.709937813706</v>
+      </c>
+      <c r="L138" t="n">
+        <v>255.310154632399</v>
+      </c>
+      <c r="M138" t="n">
+        <v>255.347628103708</v>
+      </c>
+      <c r="N138" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K138"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -5104,10 +6355,19 @@
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
+      <c r="J139"/>
+      <c r="K139" t="n">
+        <v>278.865086276189</v>
+      </c>
+      <c r="L139" t="n">
+        <v>256.2717549053</v>
+      </c>
+      <c r="M139" t="n">
+        <v>256.301569057365</v>
+      </c>
+      <c r="N139" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K139"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -5135,10 +6395,19 @@
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
+      <c r="J140"/>
+      <c r="K140" t="n">
+        <v>279.020490899636</v>
+      </c>
+      <c r="L140" t="n">
+        <v>257.025721832267</v>
+      </c>
+      <c r="M140" t="n">
+        <v>257.049442177149</v>
+      </c>
+      <c r="N140" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K140"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -5166,10 +6435,19 @@
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
+      <c r="J141"/>
+      <c r="K141" t="n">
+        <v>279.176152142705</v>
+      </c>
+      <c r="L141" t="n">
+        <v>257.614475926997</v>
+      </c>
+      <c r="M141" t="n">
+        <v>257.633347996883</v>
+      </c>
+      <c r="N141" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K141"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -5197,10 +6475,19 @@
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
+      <c r="J142"/>
+      <c r="K142" t="n">
+        <v>279.332070540498</v>
+      </c>
+      <c r="L142" t="n">
+        <v>258.071767204399</v>
+      </c>
+      <c r="M142" t="n">
+        <v>258.086781953279</v>
+      </c>
+      <c r="N142" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K142"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -5228,10 +6515,19 @@
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
+      <c r="J143"/>
+      <c r="K143" t="n">
+        <v>279.488246475231</v>
+      </c>
+      <c r="L143" t="n">
+        <v>258.424447381687</v>
+      </c>
+      <c r="M143" t="n">
+        <v>258.436393219387</v>
+      </c>
+      <c r="N143" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K143"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -5259,10 +6555,19 @@
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
+      <c r="J144"/>
+      <c r="K144" t="n">
+        <v>279.644680329119</v>
+      </c>
+      <c r="L144" t="n">
+        <v>258.693879842883</v>
+      </c>
+      <c r="M144" t="n">
+        <v>258.703384033696</v>
+      </c>
+      <c r="N144" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K144"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -5290,10 +6595,19 @@
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
+      <c r="J145"/>
+      <c r="K145" t="n">
+        <v>279.801372484378</v>
+      </c>
+      <c r="L145" t="n">
+        <v>258.897061416294</v>
+      </c>
+      <c r="M145" t="n">
+        <v>258.904623016015</v>
+      </c>
+      <c r="N145" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K145"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -5321,10 +6635,19 @@
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
+      <c r="J146"/>
+      <c r="K146" t="n">
+        <v>288.045351132758</v>
+      </c>
+      <c r="L146" t="n">
+        <v>260.740487872349</v>
+      </c>
+      <c r="M146" t="n">
+        <v>260.746503933206</v>
+      </c>
+      <c r="N146" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K146"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -5352,10 +6675,19 @@
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
+      <c r="J147"/>
+      <c r="K147" t="n">
+        <v>288.202561343179</v>
+      </c>
+      <c r="L147" t="n">
+        <v>262.195912951332</v>
+      </c>
+      <c r="M147" t="n">
+        <v>262.200699370817</v>
+      </c>
+      <c r="N147" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K147"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -5383,10 +6715,19 @@
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
+      <c r="J148"/>
+      <c r="K148" t="n">
+        <v>288.360031230948</v>
+      </c>
+      <c r="L148" t="n">
+        <v>263.342622931104</v>
+      </c>
+      <c r="M148" t="n">
+        <v>263.346431039437</v>
+      </c>
+      <c r="N148" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K148"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -5414,10 +6755,19 @@
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
+      <c r="J149"/>
+      <c r="K149" t="n">
+        <v>288.517761101837</v>
+      </c>
+      <c r="L149" t="n">
+        <v>264.243698499008</v>
+      </c>
+      <c r="M149" t="n">
+        <v>264.246728256246</v>
+      </c>
+      <c r="N149" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K149"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -5445,10 +6795,19 @@
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
+      <c r="J150"/>
+      <c r="K150" t="n">
+        <v>288.675751567391</v>
+      </c>
+      <c r="L150" t="n">
+        <v>264.94932704105</v>
+      </c>
+      <c r="M150" t="n">
+        <v>264.951737536792</v>
+      </c>
+      <c r="N150" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K150"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -5476,10 +6835,19 @@
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
+      <c r="J151"/>
+      <c r="K151" t="n">
+        <v>288.834002933384</v>
+      </c>
+      <c r="L151" t="n">
+        <v>265.499437965646</v>
+      </c>
+      <c r="M151" t="n">
+        <v>265.501355772673</v>
+      </c>
+      <c r="N151" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K151"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -5507,10 +6875,19 @@
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
+      <c r="J152"/>
+      <c r="K152" t="n">
+        <v>288.992515658472</v>
+      </c>
+      <c r="L152" t="n">
+        <v>265.925799352623</v>
+      </c>
+      <c r="M152" t="n">
+        <v>265.927325173112</v>
+      </c>
+      <c r="N152" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K152"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -5538,10 +6915,19 @@
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
+      <c r="J153"/>
+      <c r="K153" t="n">
+        <v>289.151290201317</v>
+      </c>
+      <c r="L153" t="n">
+        <v>266.253686072531</v>
+      </c>
+      <c r="M153" t="n">
+        <v>266.254900025829</v>
+      </c>
+      <c r="N153" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K153"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -5569,10 +6955,19 @@
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
+      <c r="J154"/>
+      <c r="K154" t="n">
+        <v>289.310326944133</v>
+      </c>
+      <c r="L154" t="n">
+        <v>266.503206959317</v>
+      </c>
+      <c r="M154" t="n">
+        <v>266.504172788928</v>
+      </c>
+      <c r="N154" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K154"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -5600,10 +6995,19 @@
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
+      <c r="J155"/>
+      <c r="K155" t="n">
+        <v>289.469626345579</v>
+      </c>
+      <c r="L155" t="n">
+        <v>266.690360707147</v>
+      </c>
+      <c r="M155" t="n">
+        <v>266.691129127843</v>
+      </c>
+      <c r="N155" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K155"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -5631,10 +7035,19 @@
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
+      <c r="J156"/>
+      <c r="K156" t="n">
+        <v>289.629188864314</v>
+      </c>
+      <c r="L156" t="n">
+        <v>266.827875954645</v>
+      </c>
+      <c r="M156" t="n">
+        <v>266.828487315447</v>
+      </c>
+      <c r="N156" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K156"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -5662,10 +7075,19 @@
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
+      <c r="J157"/>
+      <c r="K157" t="n">
+        <v>289.789014882553</v>
+      </c>
+      <c r="L157" t="n">
+        <v>266.925879667161</v>
+      </c>
+      <c r="M157" t="n">
+        <v>266.926366070029</v>
+      </c>
+      <c r="N157" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K157"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -5693,10 +7115,19 @@
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
+      <c r="J158"/>
+      <c r="K158" t="n">
+        <v>255.299599399891</v>
+      </c>
+      <c r="L158" t="n">
+        <v>261.734300915537</v>
+      </c>
+      <c r="M158" t="n">
+        <v>261.734687901012</v>
+      </c>
+      <c r="N158" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K158"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -5724,10 +7155,19 @@
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
+      <c r="J159"/>
+      <c r="K159" t="n">
+        <v>255.459953793117</v>
+      </c>
+      <c r="L159" t="n">
+        <v>257.592403008519</v>
+      </c>
+      <c r="M159" t="n">
+        <v>257.59271089683</v>
+      </c>
+      <c r="N159" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K159"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -5755,10 +7195,19 @@
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
+      <c r="J160"/>
+      <c r="K160" t="n">
+        <v>255.620573061823</v>
+      </c>
+      <c r="L160" t="n">
+        <v>254.285619516418</v>
+      </c>
+      <c r="M160" t="n">
+        <v>254.28586447448</v>
+      </c>
+      <c r="N160" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K160"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -5786,10 +7235,19 @@
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
+      <c r="J161"/>
+      <c r="K161" t="n">
+        <v>255.781457588227</v>
+      </c>
+      <c r="L161" t="n">
+        <v>251.643239881563</v>
+      </c>
+      <c r="M161" t="n">
+        <v>251.643434771886</v>
+      </c>
+      <c r="N161" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K161"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -5817,10 +7275,19 @@
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
+      <c r="J162"/>
+      <c r="K162" t="n">
+        <v>255.942607830986</v>
+      </c>
+      <c r="L162" t="n">
+        <v>249.529445574894</v>
+      </c>
+      <c r="M162" t="n">
+        <v>249.529600630978</v>
+      </c>
+      <c r="N162" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K162"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -5848,10 +7315,19 @@
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
+      <c r="J163"/>
+      <c r="K163" t="n">
+        <v>256.104024172317</v>
+      </c>
+      <c r="L163" t="n">
+        <v>247.836178411262</v>
+      </c>
+      <c r="M163" t="n">
+        <v>247.836301774952</v>
+      </c>
+      <c r="N163" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K163"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -5879,10 +7355,19 @@
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
+      <c r="J164"/>
+      <c r="K164" t="n">
+        <v>256.265707147321</v>
+      </c>
+      <c r="L164" t="n">
+        <v>246.477466515575</v>
+      </c>
+      <c r="M164" t="n">
+        <v>246.477564664577</v>
+      </c>
+      <c r="N164" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K164"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -5910,10 +7395,19 @@
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
+      <c r="J165"/>
+      <c r="K165" t="n">
+        <v>256.427657214657</v>
+      </c>
+      <c r="L165" t="n">
+        <v>245.384910038702</v>
+      </c>
+      <c r="M165" t="n">
+        <v>245.384988126724</v>
+      </c>
+      <c r="N165" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K165"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -5941,10 +7435,19 @@
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
+      <c r="J166"/>
+      <c r="K166" t="n">
+        <v>256.589874680098</v>
+      </c>
+      <c r="L166" t="n">
+        <v>244.504089567401</v>
+      </c>
+      <c r="M166" t="n">
+        <v>244.50415169477</v>
+      </c>
+      <c r="N166" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K166"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -5972,10 +7475,19 @@
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
+      <c r="J167"/>
+      <c r="K167" t="n">
+        <v>256.752360078746</v>
+      </c>
+      <c r="L167" t="n">
+        <v>243.791708603219</v>
+      </c>
+      <c r="M167" t="n">
+        <v>243.791758032181</v>
+      </c>
+      <c r="N167" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K167"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -6003,10 +7515,19 @@
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
+      <c r="J168"/>
+      <c r="K168" t="n">
+        <v>256.91511386926</v>
+      </c>
+      <c r="L168" t="n">
+        <v>243.213320120828</v>
+      </c>
+      <c r="M168" t="n">
+        <v>243.213359446852</v>
+      </c>
+      <c r="N168" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K168"/>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -6034,10 +7555,19 @@
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
+      <c r="J169"/>
+      <c r="K169" t="n">
+        <v>257.078136433855</v>
+      </c>
+      <c r="L169" t="n">
+        <v>242.741517802176</v>
+      </c>
+      <c r="M169" t="n">
+        <v>242.741549090231</v>
+      </c>
+      <c r="N169" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K169"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -6065,10 +7595,19 @@
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
+      <c r="J170"/>
+      <c r="K170" t="n">
+        <v>260.761257896831</v>
+      </c>
+      <c r="L170" t="n">
+        <v>242.964306698474</v>
+      </c>
+      <c r="M170" t="n">
+        <v>242.964331591466</v>
+      </c>
+      <c r="N170" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K170"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -6096,10 +7635,19 @@
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
+      <c r="J171"/>
+      <c r="K171" t="n">
+        <v>260.924819385565</v>
+      </c>
+      <c r="L171" t="n">
+        <v>243.129888169693</v>
+      </c>
+      <c r="M171" t="n">
+        <v>243.129907974729</v>
+      </c>
+      <c r="N171" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K171"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -6127,10 +7675,19 @@
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
+      <c r="J172"/>
+      <c r="K172" t="n">
+        <v>261.088651024358</v>
+      </c>
+      <c r="L172" t="n">
+        <v>243.249935742682</v>
+      </c>
+      <c r="M172" t="n">
+        <v>243.249951499705</v>
+      </c>
+      <c r="N172" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K172"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -6158,10 +7715,19 @@
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
+      <c r="J173"/>
+      <c r="K173" t="n">
+        <v>261.252753271866</v>
+      </c>
+      <c r="L173" t="n">
+        <v>243.333736923136</v>
+      </c>
+      <c r="M173" t="n">
+        <v>243.333749459533</v>
+      </c>
+      <c r="N173" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K173"/>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -6189,10 +7755,19 @@
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
+      <c r="J174"/>
+      <c r="K174" t="n">
+        <v>261.417126510308</v>
+      </c>
+      <c r="L174" t="n">
+        <v>243.388680887331</v>
+      </c>
+      <c r="M174" t="n">
+        <v>243.388690861374</v>
+      </c>
+      <c r="N174" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K174"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -6220,10 +7795,19 @@
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
+      <c r="J175"/>
+      <c r="K175" t="n">
+        <v>261.58177119834</v>
+      </c>
+      <c r="L175" t="n">
+        <v>243.420646482113</v>
+      </c>
+      <c r="M175" t="n">
+        <v>243.42065441753</v>
+      </c>
+      <c r="N175" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K175"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -6251,10 +7835,19 @@
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
+      <c r="J176"/>
+      <c r="K176" t="n">
+        <v>261.746687871066</v>
+      </c>
+      <c r="L176" t="n">
+        <v>243.434310920372</v>
+      </c>
+      <c r="M176" t="n">
+        <v>243.434317233845</v>
+      </c>
+      <c r="N176" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K176"/>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -6282,10 +7875,19 @@
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
+      <c r="J177"/>
+      <c r="K177" t="n">
+        <v>261.911876910701</v>
+      </c>
+      <c r="L177" t="n">
+        <v>243.433395397652</v>
+      </c>
+      <c r="M177" t="n">
+        <v>243.433400420694</v>
+      </c>
+      <c r="N177" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K177"/>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -6313,10 +7915,19 @@
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
+      <c r="J178"/>
+      <c r="K178" t="n">
+        <v>262.07733869946</v>
+      </c>
+      <c r="L178" t="n">
+        <v>243.420860495499</v>
+      </c>
+      <c r="M178" t="n">
+        <v>243.420864491866</v>
+      </c>
+      <c r="N178" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K178"/>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -6344,10 +7955,19 @@
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
+      <c r="J179"/>
+      <c r="K179" t="n">
+        <v>262.243073848889</v>
+      </c>
+      <c r="L179" t="n">
+        <v>243.399061629363</v>
+      </c>
+      <c r="M179" t="n">
+        <v>243.399064808901</v>
+      </c>
+      <c r="N179" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K179"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -6375,10 +7995,19 @@
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
+      <c r="J180"/>
+      <c r="K180" t="n">
+        <v>262.409082664761</v>
+      </c>
+      <c r="L180" t="n">
+        <v>243.369872762194</v>
+      </c>
+      <c r="M180" t="n">
+        <v>243.369875291856</v>
+      </c>
+      <c r="N180" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K180"/>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -6406,10 +8035,19 @@
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
+      <c r="J181"/>
+      <c r="K181" t="n">
+        <v>262.575365682177</v>
+      </c>
+      <c r="L181" t="n">
+        <v>243.334784793648</v>
+      </c>
+      <c r="M181" t="n">
+        <v>243.334786806264</v>
+      </c>
+      <c r="N181" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K181"/>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -6437,10 +8075,19 @@
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
+      <c r="J182"/>
+      <c r="K182" t="n">
+        <v>266.33918926104</v>
+      </c>
+      <c r="L182" t="n">
+        <v>243.918209412175</v>
+      </c>
+      <c r="M182" t="n">
+        <v>243.918211013427</v>
+      </c>
+      <c r="N182" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K182"/>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -6468,10 +8115,19 @@
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
+      <c r="J183"/>
+      <c r="K183" t="n">
+        <v>266.506021981078</v>
+      </c>
+      <c r="L183" t="n">
+        <v>244.370481731429</v>
+      </c>
+      <c r="M183" t="n">
+        <v>244.370483005396</v>
+      </c>
+      <c r="N183" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K183"/>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -6499,10 +8155,19 @@
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
+      <c r="J184"/>
+      <c r="K184" t="n">
+        <v>266.673130202194</v>
+      </c>
+      <c r="L184" t="n">
+        <v>244.718388719044</v>
+      </c>
+      <c r="M184" t="n">
+        <v>244.718389732621</v>
+      </c>
+      <c r="N184" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K184"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -6530,10 +8195,19 @@
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
+      <c r="J185"/>
+      <c r="K185" t="n">
+        <v>266.840514459489</v>
+      </c>
+      <c r="L185" t="n">
+        <v>244.983242232924</v>
+      </c>
+      <c r="M185" t="n">
+        <v>244.983243039333</v>
+      </c>
+      <c r="N185" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K185"/>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -6561,10 +8235,19 @@
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
+      <c r="J186"/>
+      <c r="K186" t="n">
+        <v>267.008175211623</v>
+      </c>
+      <c r="L186" t="n">
+        <v>245.181998101383</v>
+      </c>
+      <c r="M186" t="n">
+        <v>245.181998742967</v>
+      </c>
+      <c r="N186" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K186"/>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -6592,10 +8275,19 @@
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
+      <c r="J187"/>
+      <c r="K187" t="n">
+        <v>267.176112840811</v>
+      </c>
+      <c r="L187" t="n">
+        <v>245.328146471028</v>
+      </c>
+      <c r="M187" t="n">
+        <v>245.328146981476</v>
+      </c>
+      <c r="N187" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K187"/>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -6623,10 +8315,19 @@
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
+      <c r="J188"/>
+      <c r="K188" t="n">
+        <v>267.344327805712</v>
+      </c>
+      <c r="L188" t="n">
+        <v>245.432420162753</v>
+      </c>
+      <c r="M188" t="n">
+        <v>245.432420568869</v>
+      </c>
+      <c r="N188" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K188"/>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -6654,10 +8355,19 @@
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
+      <c r="J189"/>
+      <c r="K189" t="n">
+        <v>267.512820564985</v>
+      </c>
+      <c r="L189" t="n">
+        <v>245.503358250112</v>
+      </c>
+      <c r="M189" t="n">
+        <v>245.503358573222</v>
+      </c>
+      <c r="N189" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K189"/>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -6685,10 +8395,19 @@
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
+      <c r="J190"/>
+      <c r="K190" t="n">
+        <v>267.681591653731</v>
+      </c>
+      <c r="L190" t="n">
+        <v>245.547754440702</v>
+      </c>
+      <c r="M190" t="n">
+        <v>245.54775469777</v>
+      </c>
+      <c r="N190" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K190"/>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -6716,10 +8435,19 @@
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
+      <c r="J191"/>
+      <c r="K191" t="n">
+        <v>267.850641454168</v>
+      </c>
+      <c r="L191" t="n">
+        <v>245.571013827837</v>
+      </c>
+      <c r="M191" t="n">
+        <v>245.571014032362</v>
+      </c>
+      <c r="N191" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K191"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -6747,10 +8475,19 @@
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
+      <c r="J192"/>
+      <c r="K192" t="n">
+        <v>268.019970501396</v>
+      </c>
+      <c r="L192" t="n">
+        <v>245.577436702835</v>
+      </c>
+      <c r="M192" t="n">
+        <v>245.577436865556</v>
+      </c>
+      <c r="N192" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K192"/>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -6778,10 +8515,19 @@
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
+      <c r="J193"/>
+      <c r="K193" t="n">
+        <v>268.189579177631</v>
+      </c>
+      <c r="L193" t="n">
+        <v>245.570444379832</v>
+      </c>
+      <c r="M193" t="n">
+        <v>245.570444509294</v>
+      </c>
+      <c r="N193" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K193"/>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -6809,10 +8555,19 @@
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
+      <c r="J194"/>
+      <c r="K194" t="n">
+        <v>272.035873683941</v>
+      </c>
+      <c r="L194" t="n">
+        <v>246.189695359039</v>
+      </c>
+      <c r="M194" t="n">
+        <v>246.18969546204</v>
+      </c>
+      <c r="N194" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K194"/>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -6840,10 +8595,19 @@
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
+      <c r="J195"/>
+      <c r="K195" t="n">
+        <v>272.206043070611</v>
+      </c>
+      <c r="L195" t="n">
+        <v>246.670233290344</v>
+      </c>
+      <c r="M195" t="n">
+        <v>246.670233372292</v>
+      </c>
+      <c r="N195" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K195"/>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -6871,10 +8635,19 @@
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
+      <c r="J196"/>
+      <c r="K196" t="n">
+        <v>272.376493538707</v>
+      </c>
+      <c r="L196" t="n">
+        <v>247.040390108102</v>
+      </c>
+      <c r="M196" t="n">
+        <v>247.040390173301</v>
+      </c>
+      <c r="N196" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K196"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -6902,10 +8675,19 @@
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
+      <c r="J197"/>
+      <c r="K197" t="n">
+        <v>272.547225470446</v>
+      </c>
+      <c r="L197" t="n">
+        <v>247.322706867299</v>
+      </c>
+      <c r="M197" t="n">
+        <v>247.322706919172</v>
+      </c>
+      <c r="N197" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K197"/>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -6933,10 +8715,19 @@
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
+      <c r="J198"/>
+      <c r="K198" t="n">
+        <v>272.71823940093</v>
+      </c>
+      <c r="L198" t="n">
+        <v>247.535117348465</v>
+      </c>
+      <c r="M198" t="n">
+        <v>247.535117389735</v>
+      </c>
+      <c r="N198" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K198"/>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -6964,10 +8755,19 @@
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
+      <c r="J199"/>
+      <c r="K199" t="n">
+        <v>272.889535788817</v>
+      </c>
+      <c r="L199" t="n">
+        <v>247.691889758273</v>
+      </c>
+      <c r="M199" t="n">
+        <v>247.691889791108</v>
+      </c>
+      <c r="N199" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K199"/>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -6995,10 +8795,19 @@
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
+      <c r="J200"/>
+      <c r="K200" t="n">
+        <v>273.061115016323</v>
+      </c>
+      <c r="L200" t="n">
+        <v>247.804375953029</v>
+      </c>
+      <c r="M200" t="n">
+        <v>247.804375979153</v>
+      </c>
+      <c r="N200" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K200"/>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -7026,10 +8835,19 @@
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
+      <c r="J201"/>
+      <c r="K201" t="n">
+        <v>273.232977694994</v>
+      </c>
+      <c r="L201" t="n">
+        <v>247.881607504214</v>
+      </c>
+      <c r="M201" t="n">
+        <v>247.881607524998</v>
+      </c>
+      <c r="N201" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K201"/>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -7057,10 +8875,19 @@
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
+      <c r="J202"/>
+      <c r="K202" t="n">
+        <v>273.405124207045</v>
+      </c>
+      <c r="L202" t="n">
+        <v>247.930769965079</v>
+      </c>
+      <c r="M202" t="n">
+        <v>247.930769981615</v>
+      </c>
+      <c r="N202" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K202"/>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -7088,10 +8915,19 @@
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
+      <c r="J203"/>
+      <c r="K203" t="n">
+        <v>273.577555011134</v>
+      </c>
+      <c r="L203" t="n">
+        <v>247.957580178591</v>
+      </c>
+      <c r="M203" t="n">
+        <v>247.957580191747</v>
+      </c>
+      <c r="N203" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K203"/>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -7119,10 +8955,19 @@
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
+      <c r="J204"/>
+      <c r="K204" t="n">
+        <v>273.750270565921</v>
+      </c>
+      <c r="L204" t="n">
+        <v>247.96658647169</v>
+      </c>
+      <c r="M204" t="n">
+        <v>247.966586482157</v>
+      </c>
+      <c r="N204" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K204"/>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -7150,10 +8995,19 @@
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
+      <c r="J205"/>
+      <c r="K205" t="n">
+        <v>273.923271406508</v>
+      </c>
+      <c r="L205" t="n">
+        <v>247.961407486458</v>
+      </c>
+      <c r="M205" t="n">
+        <v>247.961407494785</v>
+      </c>
+      <c r="N205" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K205"/>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -7181,10 +9035,19 @@
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
+      <c r="J206"/>
+      <c r="K206" t="n">
+        <v>277.85384467052</v>
+      </c>
+      <c r="L206" t="n">
+        <v>248.59587132365</v>
+      </c>
+      <c r="M206" t="n">
+        <v>248.595871330275</v>
+      </c>
+      <c r="N206" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K206"/>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -7212,10 +9075,19 @@
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
+      <c r="J207"/>
+      <c r="K207" t="n">
+        <v>278.027417458683</v>
+      </c>
+      <c r="L207" t="n">
+        <v>249.088269860322</v>
+      </c>
+      <c r="M207" t="n">
+        <v>249.088269865593</v>
+      </c>
+      <c r="N207" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K207"/>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -7243,10 +9115,19 @@
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
+      <c r="J208"/>
+      <c r="K208" t="n">
+        <v>278.201276908622</v>
+      </c>
+      <c r="L208" t="n">
+        <v>249.467619809974</v>
+      </c>
+      <c r="M208" t="n">
+        <v>249.467619814168</v>
+      </c>
+      <c r="N208" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K208"/>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -7274,10 +9155,19 @@
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
+      <c r="J209"/>
+      <c r="K209" t="n">
+        <v>278.375423478996</v>
+      </c>
+      <c r="L209" t="n">
+        <v>249.757007037143</v>
+      </c>
+      <c r="M209" t="n">
+        <v>249.75700704048</v>
+      </c>
+      <c r="N209" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K209"/>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -7305,10 +9195,19 @@
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
+      <c r="J210"/>
+      <c r="K210" t="n">
+        <v>278.549857704906</v>
+      </c>
+      <c r="L210" t="n">
+        <v>249.974798776594</v>
+      </c>
+      <c r="M210" t="n">
+        <v>249.974798779249</v>
+      </c>
+      <c r="N210" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K210"/>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -7336,10 +9235,19 @@
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
+      <c r="J211"/>
+      <c r="K211" t="n">
+        <v>278.72457996857</v>
+      </c>
+      <c r="L211" t="n">
+        <v>250.135608099634</v>
+      </c>
+      <c r="M211" t="n">
+        <v>250.135608101746</v>
+      </c>
+      <c r="N211" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K211"/>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -7367,10 +9275,19 @@
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
+      <c r="J212"/>
+      <c r="K212" t="n">
+        <v>278.899590881531</v>
+      </c>
+      <c r="L212" t="n">
+        <v>250.25106122288</v>
+      </c>
+      <c r="M212" t="n">
+        <v>250.25106122456</v>
+      </c>
+      <c r="N212" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K212"/>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -7398,10 +9315,19 @@
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
+      <c r="J213"/>
+      <c r="K213" t="n">
+        <v>279.074890749563</v>
+      </c>
+      <c r="L213" t="n">
+        <v>250.33040802259</v>
+      </c>
+      <c r="M213" t="n">
+        <v>250.330408023927</v>
+      </c>
+      <c r="N213" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K213"/>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -7429,10 +9355,19 @@
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
+      <c r="J214"/>
+      <c r="K214" t="n">
+        <v>279.25048018421</v>
+      </c>
+      <c r="L214" t="n">
+        <v>250.381007720435</v>
+      </c>
+      <c r="M214" t="n">
+        <v>250.381007721499</v>
+      </c>
+      <c r="N214" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K214"/>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -7460,10 +9395,19 @@
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
+      <c r="J215"/>
+      <c r="K215" t="n">
+        <v>279.426359644132</v>
+      </c>
+      <c r="L215" t="n">
+        <v>250.408715331173</v>
+      </c>
+      <c r="M215" t="n">
+        <v>250.40871533202</v>
+      </c>
+      <c r="N215" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K215"/>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -7491,10 +9435,19 @@
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
+      <c r="J216"/>
+      <c r="K216" t="n">
+        <v>279.602529511544</v>
+      </c>
+      <c r="L216" t="n">
+        <v>250.418189117631</v>
+      </c>
+      <c r="M216" t="n">
+        <v>250.418189118304</v>
+      </c>
+      <c r="N216" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K216"/>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -7522,10 +9475,19 @@
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
+      <c r="J217"/>
+      <c r="K217" t="n">
+        <v>279.778990397991</v>
+      </c>
+      <c r="L217" t="n">
+        <v>250.413135182182</v>
+      </c>
+      <c r="M217" t="n">
+        <v>250.413135182718</v>
+      </c>
+      <c r="N217" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K217"/>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -7553,10 +9515,19 @@
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
+      <c r="J218"/>
+      <c r="K218" t="n">
+        <v>283.795689677151</v>
+      </c>
+      <c r="L218" t="n">
+        <v>251.061772096345</v>
+      </c>
+      <c r="M218" t="n">
+        <v>251.061772096771</v>
+      </c>
+      <c r="N218" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K218"/>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -7584,10 +9555,19 @@
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
+      <c r="J219"/>
+      <c r="K219" t="n">
+        <v>283.972733901202</v>
+      </c>
+      <c r="L219" t="n">
+        <v>251.565199126857</v>
+      </c>
+      <c r="M219" t="n">
+        <v>251.565199127196</v>
+      </c>
+      <c r="N219" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K219"/>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -7615,10 +9595,19 @@
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
+      <c r="J220"/>
+      <c r="K220" t="n">
+        <v>284.150070520264</v>
+      </c>
+      <c r="L220" t="n">
+        <v>251.953075309241</v>
+      </c>
+      <c r="M220" t="n">
+        <v>251.953075309511</v>
+      </c>
+      <c r="N220" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K220"/>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -7646,10 +9635,19 @@
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
+      <c r="J221"/>
+      <c r="K221" t="n">
+        <v>284.32770006944</v>
+      </c>
+      <c r="L221" t="n">
+        <v>252.248997538408</v>
+      </c>
+      <c r="M221" t="n">
+        <v>252.248997538622</v>
+      </c>
+      <c r="N221" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K221"/>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -7677,10 +9675,19 @@
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
+      <c r="J222"/>
+      <c r="K222" t="n">
+        <v>284.505622930946</v>
+      </c>
+      <c r="L222" t="n">
+        <v>252.47173963932</v>
+      </c>
+      <c r="M222" t="n">
+        <v>252.471739639491</v>
+      </c>
+      <c r="N222" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K222"/>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -7708,10 +9715,19 @@
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
+      <c r="J223"/>
+      <c r="K223" t="n">
+        <v>284.683839639882</v>
+      </c>
+      <c r="L223" t="n">
+        <v>252.636238158339</v>
+      </c>
+      <c r="M223" t="n">
+        <v>252.636238158475</v>
+      </c>
+      <c r="N223" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K223"/>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -7739,10 +9755,19 @@
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
+      <c r="J224"/>
+      <c r="K224" t="n">
+        <v>284.862350731353</v>
+      </c>
+      <c r="L224" t="n">
+        <v>252.754376676519</v>
+      </c>
+      <c r="M224" t="n">
+        <v>252.754376676627</v>
+      </c>
+      <c r="N224" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K224"/>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -7770,10 +9795,19 @@
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
+      <c r="J225"/>
+      <c r="K225" t="n">
+        <v>285.041156664015</v>
+      </c>
+      <c r="L225" t="n">
+        <v>252.83560982013</v>
+      </c>
+      <c r="M225" t="n">
+        <v>252.835609820216</v>
+      </c>
+      <c r="N225" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K225"/>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -7801,10 +9835,19 @@
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
+      <c r="J226"/>
+      <c r="K226" t="n">
+        <v>285.220257896528</v>
+      </c>
+      <c r="L226" t="n">
+        <v>252.887459722271</v>
+      </c>
+      <c r="M226" t="n">
+        <v>252.88745972234</v>
+      </c>
+      <c r="N226" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K226"/>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -7832,10 +9875,19 @@
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
+      <c r="J227"/>
+      <c r="K227" t="n">
+        <v>285.399654887552</v>
+      </c>
+      <c r="L227" t="n">
+        <v>252.915911011158</v>
+      </c>
+      <c r="M227" t="n">
+        <v>252.915911011212</v>
+      </c>
+      <c r="N227" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K227"/>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -7863,10 +9915,19 @@
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
+      <c r="J228"/>
+      <c r="K228" t="n">
+        <v>285.579348172187</v>
+      </c>
+      <c r="L228" t="n">
+        <v>252.925725060066</v>
+      </c>
+      <c r="M228" t="n">
+        <v>252.925725060109</v>
+      </c>
+      <c r="N228" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K228"/>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -7894,10 +9955,19 @@
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
+      <c r="J229"/>
+      <c r="K229" t="n">
+        <v>285.759338285536</v>
+      </c>
+      <c r="L229" t="n">
+        <v>252.920690012208</v>
+      </c>
+      <c r="M229" t="n">
+        <v>252.920690012242</v>
+      </c>
+      <c r="N229" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K229"/>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -7925,10 +9995,19 @@
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="n">
+      <c r="J230"/>
+      <c r="K230" t="n">
+        <v>289.86405141166</v>
+      </c>
+      <c r="L230" t="n">
+        <v>253.583725647722</v>
+      </c>
+      <c r="M230" t="n">
+        <v>253.583725647749</v>
+      </c>
+      <c r="N230" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K230"/>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -7956,10 +10035,19 @@
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="n">
+      <c r="J231"/>
+      <c r="K231" t="n">
+        <v>290.044636558414</v>
+      </c>
+      <c r="L231" t="n">
+        <v>254.098355738074</v>
+      </c>
+      <c r="M231" t="n">
+        <v>254.098355738096</v>
+      </c>
+      <c r="N231" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K231"/>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -7987,10 +10075,19 @@
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="n">
+      <c r="J232"/>
+      <c r="K232" t="n">
+        <v>290.225519909857</v>
+      </c>
+      <c r="L232" t="n">
+        <v>254.494892075426</v>
+      </c>
+      <c r="M232" t="n">
+        <v>254.494892075443</v>
+      </c>
+      <c r="N232" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K232"/>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -8018,10 +10115,19 @@
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
+      <c r="J233"/>
+      <c r="K233" t="n">
+        <v>290.406702001093</v>
+      </c>
+      <c r="L233" t="n">
+        <v>254.797450892366</v>
+      </c>
+      <c r="M233" t="n">
+        <v>254.79745089238</v>
+      </c>
+      <c r="N233" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K233"/>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -8049,10 +10155,19 @@
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
+      <c r="J234"/>
+      <c r="K234" t="n">
+        <v>290.588183367224</v>
+      </c>
+      <c r="L234" t="n">
+        <v>255.025219191587</v>
+      </c>
+      <c r="M234" t="n">
+        <v>255.025219191598</v>
+      </c>
+      <c r="N234" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K234"/>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -8080,10 +10195,19 @@
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
+      <c r="J235"/>
+      <c r="K235" t="n">
+        <v>290.769964466907</v>
+      </c>
+      <c r="L235" t="n">
+        <v>255.193462251952</v>
+      </c>
+      <c r="M235" t="n">
+        <v>255.193462251961</v>
+      </c>
+      <c r="N235" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K235"/>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -8111,10 +10235,19 @@
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
+      <c r="J236"/>
+      <c r="K236" t="n">
+        <v>290.952045758803</v>
+      </c>
+      <c r="L236" t="n">
+        <v>255.314325201817</v>
+      </c>
+      <c r="M236" t="n">
+        <v>255.314325201824</v>
+      </c>
+      <c r="N236" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K236"/>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -8142,10 +10275,19 @@
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="n">
+      <c r="J237"/>
+      <c r="K237" t="n">
+        <v>291.134427778012</v>
+      </c>
+      <c r="L237" t="n">
+        <v>255.397470750831</v>
+      </c>
+      <c r="M237" t="n">
+        <v>255.397470750837</v>
+      </c>
+      <c r="N237" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K237"/>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -8173,10 +10315,19 @@
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
+      <c r="J238"/>
+      <c r="K238" t="n">
+        <v>291.317110983194</v>
+      </c>
+      <c r="L238" t="n">
+        <v>255.450586584666</v>
+      </c>
+      <c r="M238" t="n">
+        <v>255.45058658467</v>
+      </c>
+      <c r="N238" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K238"/>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -8204,10 +10355,19 @@
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="n">
+      <c r="J239"/>
+      <c r="K239" t="n">
+        <v>291.500095985895</v>
+      </c>
+      <c r="L239" t="n">
+        <v>255.479789035393</v>
+      </c>
+      <c r="M239" t="n">
+        <v>255.479789035396</v>
+      </c>
+      <c r="N239" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K239"/>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -8235,10 +10395,19 @@
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="n">
+      <c r="J240"/>
+      <c r="K240" t="n">
+        <v>291.683383091886</v>
+      </c>
+      <c r="L240" t="n">
+        <v>255.489944277149</v>
+      </c>
+      <c r="M240" t="n">
+        <v>255.489944277152</v>
+      </c>
+      <c r="N240" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K240"/>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -8266,10 +10435,19 @@
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="n">
+      <c r="J241"/>
+      <c r="K241" t="n">
+        <v>291.866972989155</v>
+      </c>
+      <c r="L241" t="n">
+        <v>255.484923822526</v>
+      </c>
+      <c r="M241" t="n">
+        <v>255.484923822529</v>
+      </c>
+      <c r="N241" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K241"/>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -8297,10 +10475,19 @@
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="n">
+      <c r="J242"/>
+      <c r="K242" t="n">
+        <v>296.061629333094</v>
+      </c>
+      <c r="L242" t="n">
+        <v>256.162671710323</v>
+      </c>
+      <c r="M242" t="n">
+        <v>256.162671710325</v>
+      </c>
+      <c r="N242" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K242"/>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -8328,10 +10515,19 @@
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="n">
+      <c r="J243"/>
+      <c r="K243" t="n">
+        <v>296.245826112454</v>
+      </c>
+      <c r="L243" t="n">
+        <v>256.68874926239</v>
+      </c>
+      <c r="M243" t="n">
+        <v>256.688749262392</v>
+      </c>
+      <c r="N243" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K243"/>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -8359,10 +10555,19 @@
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="n">
+      <c r="J244"/>
+      <c r="K244" t="n">
+        <v>296.430327135513</v>
+      </c>
+      <c r="L244" t="n">
+        <v>257.094135140664</v>
+      </c>
+      <c r="M244" t="n">
+        <v>257.094135140665</v>
+      </c>
+      <c r="N244" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K244"/>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -8390,10 +10595,19 @@
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="n">
+      <c r="J245"/>
+      <c r="K245" t="n">
+        <v>296.615132937373</v>
+      </c>
+      <c r="L245" t="n">
+        <v>257.403476143924</v>
+      </c>
+      <c r="M245" t="n">
+        <v>257.403476143925</v>
+      </c>
+      <c r="N245" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K245"/>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -8421,10 +10635,19 @@
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="n">
+      <c r="J246"/>
+      <c r="K246" t="n">
+        <v>296.800243900249</v>
+      </c>
+      <c r="L246" t="n">
+        <v>257.636381407892</v>
+      </c>
+      <c r="M246" t="n">
+        <v>257.636381407892</v>
+      </c>
+      <c r="N246" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K246"/>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -8452,10 +10675,19 @@
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="n">
+      <c r="J247"/>
+      <c r="K247" t="n">
+        <v>296.985660559242</v>
+      </c>
+      <c r="L247" t="n">
+        <v>257.808452057921</v>
+      </c>
+      <c r="M247" t="n">
+        <v>257.808452057921</v>
+      </c>
+      <c r="N247" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K247"/>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -8483,10 +10715,19 @@
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="n">
+      <c r="J248"/>
+      <c r="K248" t="n">
+        <v>297.171383525899</v>
+      </c>
+      <c r="L248" t="n">
+        <v>257.932100413241</v>
+      </c>
+      <c r="M248" t="n">
+        <v>257.932100413242</v>
+      </c>
+      <c r="N248" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K248"/>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -8514,10 +10755,19 @@
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="n">
+      <c r="J249"/>
+      <c r="K249" t="n">
+        <v>297.357413182435</v>
+      </c>
+      <c r="L249" t="n">
+        <v>258.017201773314</v>
+      </c>
+      <c r="M249" t="n">
+        <v>258.017201773314</v>
+      </c>
+      <c r="N249" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K249"/>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -8545,10 +10795,19 @@
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="n">
+      <c r="J250"/>
+      <c r="K250" t="n">
+        <v>297.543750063952</v>
+      </c>
+      <c r="L250" t="n">
+        <v>258.071612956273</v>
+      </c>
+      <c r="M250" t="n">
+        <v>258.071612956273</v>
+      </c>
+      <c r="N250" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K250"/>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -8576,10 +10835,19 @@
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="n">
+      <c r="J251"/>
+      <c r="K251" t="n">
+        <v>297.730394705552</v>
+      </c>
+      <c r="L251" t="n">
+        <v>258.101584862601</v>
+      </c>
+      <c r="M251" t="n">
+        <v>258.101584862601</v>
+      </c>
+      <c r="N251" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K251"/>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -8607,10 +10875,19 @@
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="n">
+      <c r="J252"/>
+      <c r="K252" t="n">
+        <v>297.917347642337</v>
+      </c>
+      <c r="L252" t="n">
+        <v>258.112090713622</v>
+      </c>
+      <c r="M252" t="n">
+        <v>258.112090713622</v>
+      </c>
+      <c r="N252" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K252"/>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -8638,10 +10915,19 @@
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="n">
+      <c r="J253"/>
+      <c r="K253" t="n">
+        <v>298.104609332965</v>
+      </c>
+      <c r="L253" t="n">
+        <v>258.107087205776</v>
+      </c>
+      <c r="M253" t="n">
+        <v>258.107087205776</v>
+      </c>
+      <c r="N253" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K253"/>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -8669,10 +10955,19 @@
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="n">
+      <c r="J254"/>
+      <c r="K254" t="n">
+        <v>302.391180280168</v>
+      </c>
+      <c r="L254" t="n">
+        <v>258.799873147409</v>
+      </c>
+      <c r="M254" t="n">
+        <v>258.799873147409</v>
+      </c>
+      <c r="N254" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K254"/>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -8700,10 +10995,19 @@
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="n">
+      <c r="J255"/>
+      <c r="K255" t="n">
+        <v>302.579061007347</v>
+      </c>
+      <c r="L255" t="n">
+        <v>259.337652211109</v>
+      </c>
+      <c r="M255" t="n">
+        <v>259.337652211109</v>
+      </c>
+      <c r="N255" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K255"/>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -8731,10 +11035,19 @@
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="n">
+      <c r="J256"/>
+      <c r="K256" t="n">
+        <v>302.767252017232</v>
+      </c>
+      <c r="L256" t="n">
+        <v>259.752084594127</v>
+      </c>
+      <c r="M256" t="n">
+        <v>259.752084594127</v>
+      </c>
+      <c r="N256" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K256"/>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -8762,10 +11075,19 @@
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="n">
+      <c r="J257"/>
+      <c r="K257" t="n">
+        <v>302.955753921369</v>
+      </c>
+      <c r="L257" t="n">
+        <v>260.068359323986</v>
+      </c>
+      <c r="M257" t="n">
+        <v>260.068359323986</v>
+      </c>
+      <c r="N257" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K257"/>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -8793,10 +11115,19 @@
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="n">
+      <c r="J258"/>
+      <c r="K258" t="n">
+        <v>303.144567101973</v>
+      </c>
+      <c r="L258" t="n">
+        <v>260.306516937327</v>
+      </c>
+      <c r="M258" t="n">
+        <v>260.306516937327</v>
+      </c>
+      <c r="N258" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K258"/>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -8824,10 +11155,19 @@
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="n">
+      <c r="J259"/>
+      <c r="K259" t="n">
+        <v>303.333692094147</v>
+      </c>
+      <c r="L259" t="n">
+        <v>260.482501785054</v>
+      </c>
+      <c r="M259" t="n">
+        <v>260.482501785054</v>
+      </c>
+      <c r="N259" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K259"/>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -8855,10 +11195,19 @@
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="n">
+      <c r="J260"/>
+      <c r="K260" t="n">
+        <v>303.523129509435</v>
+      </c>
+      <c r="L260" t="n">
+        <v>260.608999259009</v>
+      </c>
+      <c r="M260" t="n">
+        <v>260.608999259009</v>
+      </c>
+      <c r="N260" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K260"/>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -8886,10 +11235,19 @@
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="n">
+      <c r="J261"/>
+      <c r="K261" t="n">
+        <v>303.712879806497</v>
+      </c>
+      <c r="L261" t="n">
+        <v>260.696101911649</v>
+      </c>
+      <c r="M261" t="n">
+        <v>260.696101911649</v>
+      </c>
+      <c r="N261" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K261"/>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -8917,10 +11275,19 @@
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="n">
+      <c r="J262"/>
+      <c r="K262" t="n">
+        <v>303.90294344399</v>
+      </c>
+      <c r="L262" t="n">
+        <v>260.751839414547</v>
+      </c>
+      <c r="M262" t="n">
+        <v>260.751839414547</v>
+      </c>
+      <c r="N262" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K262"/>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -8948,10 +11315,19 @@
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="n">
+      <c r="J263"/>
+      <c r="K263" t="n">
+        <v>304.093320957018</v>
+      </c>
+      <c r="L263" t="n">
+        <v>260.782600191569</v>
+      </c>
+      <c r="M263" t="n">
+        <v>260.782600191569</v>
+      </c>
+      <c r="N263" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K263"/>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -8979,10 +11355,19 @@
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="n">
+      <c r="J264"/>
+      <c r="K264" t="n">
+        <v>304.284012957125</v>
+      </c>
+      <c r="L264" t="n">
+        <v>260.793466873141</v>
+      </c>
+      <c r="M264" t="n">
+        <v>260.793466873141</v>
+      </c>
+      <c r="N264" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K264"/>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -9010,10 +11395,19 @@
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="n">
+      <c r="J265"/>
+      <c r="K265" t="n">
+        <v>304.475019826527</v>
+      </c>
+      <c r="L265" t="n">
+        <v>260.788483207788</v>
+      </c>
+      <c r="M265" t="n">
+        <v>260.788483207788</v>
+      </c>
+      <c r="N265" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K265"/>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -9041,10 +11435,19 @@
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="n">
+      <c r="J266"/>
+      <c r="K266" t="n">
+        <v>308.855520231831</v>
+      </c>
+      <c r="L266" t="n">
+        <v>261.496640572941</v>
+      </c>
+      <c r="M266" t="n">
+        <v>261.496640572941</v>
+      </c>
+      <c r="N266" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K266"/>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -9072,10 +11475,19 @@
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="n">
+      <c r="J267"/>
+      <c r="K267" t="n">
+        <v>309.047158598015</v>
+      </c>
+      <c r="L267" t="n">
+        <v>262.046381121266</v>
+      </c>
+      <c r="M267" t="n">
+        <v>262.046381121266</v>
+      </c>
+      <c r="N267" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K267"/>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -9103,10 +11515,19 @@
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="n">
+      <c r="J268"/>
+      <c r="K268" t="n">
+        <v>309.2391134388</v>
+      </c>
+      <c r="L268" t="n">
+        <v>262.470061576199</v>
+      </c>
+      <c r="M268" t="n">
+        <v>262.470061576199</v>
+      </c>
+      <c r="N268" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K268"/>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -9134,10 +11555,19 @@
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="n">
+      <c r="J269"/>
+      <c r="K269" t="n">
+        <v>309.431385365731</v>
+      </c>
+      <c r="L269" t="n">
+        <v>262.793425126296</v>
+      </c>
+      <c r="M269" t="n">
+        <v>262.793425126296</v>
+      </c>
+      <c r="N269" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K269"/>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -9165,10 +11595,19 @@
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="n">
+      <c r="J270"/>
+      <c r="K270" t="n">
+        <v>309.623974837467</v>
+      </c>
+      <c r="L270" t="n">
+        <v>263.036953197081</v>
+      </c>
+      <c r="M270" t="n">
+        <v>263.036953197081</v>
+      </c>
+      <c r="N270" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K270"/>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -9196,10 +11635,19 @@
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="n">
+      <c r="J271"/>
+      <c r="K271" t="n">
+        <v>309.816882312667</v>
+      </c>
+      <c r="L271" t="n">
+        <v>263.216940919148</v>
+      </c>
+      <c r="M271" t="n">
+        <v>263.216940919148</v>
+      </c>
+      <c r="N271" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K271"/>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -9227,10 +11675,19 @@
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="n">
+      <c r="J272"/>
+      <c r="K272" t="n">
+        <v>310.010108479318</v>
+      </c>
+      <c r="L272" t="n">
+        <v>263.346352761622</v>
+      </c>
+      <c r="M272" t="n">
+        <v>263.346352761622</v>
+      </c>
+      <c r="N272" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K272"/>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -9258,10 +11715,19 @@
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="n">
+      <c r="J273"/>
+      <c r="K273" t="n">
+        <v>310.203653719638</v>
+      </c>
+      <c r="L273" t="n">
+        <v>263.435503318225</v>
+      </c>
+      <c r="M273" t="n">
+        <v>263.435503318225</v>
+      </c>
+      <c r="N273" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K273"/>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -9289,10 +11755,19 @@
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="n">
+      <c r="J274"/>
+      <c r="K274" t="n">
+        <v>310.39751864517</v>
+      </c>
+      <c r="L274" t="n">
+        <v>263.492598907183</v>
+      </c>
+      <c r="M274" t="n">
+        <v>263.492598907183</v>
+      </c>
+      <c r="N274" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K274"/>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -9320,10 +11795,19 @@
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="n">
+      <c r="J275"/>
+      <c r="K275" t="n">
+        <v>310.591703714574</v>
+      </c>
+      <c r="L275" t="n">
+        <v>263.524168499109</v>
+      </c>
+      <c r="M275" t="n">
+        <v>263.524168499109</v>
+      </c>
+      <c r="N275" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K275"/>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -9351,10 +11835,19 @@
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="n">
+      <c r="J276"/>
+      <c r="K276" t="n">
+        <v>310.786209539394</v>
+      </c>
+      <c r="L276" t="n">
+        <v>263.535406544391</v>
+      </c>
+      <c r="M276" t="n">
+        <v>263.535406544391</v>
+      </c>
+      <c r="N276" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K276"/>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -9382,10 +11875,19 @@
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="n">
+      <c r="J277"/>
+      <c r="K277" t="n">
+        <v>310.98103657829</v>
+      </c>
+      <c r="L277" t="n">
+        <v>263.530445750833</v>
+      </c>
+      <c r="M277" t="n">
+        <v>263.530445750833</v>
+      </c>
+      <c r="N277" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K277"/>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -9413,10 +11915,19 @@
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="n">
+      <c r="J278"/>
+      <c r="K278" t="n">
+        <v>315.457525316372</v>
+      </c>
+      <c r="L278" t="n">
+        <v>264.254315306822</v>
+      </c>
+      <c r="M278" t="n">
+        <v>264.254315306822</v>
+      </c>
+      <c r="N278" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K278"/>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -9444,10 +11955,19 @@
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="n">
+      <c r="J279"/>
+      <c r="K279" t="n">
+        <v>315.652996465168</v>
+      </c>
+      <c r="L279" t="n">
+        <v>264.816283094734</v>
+      </c>
+      <c r="M279" t="n">
+        <v>264.816283094734</v>
+      </c>
+      <c r="N279" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K279"/>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -9475,10 +11995,19 @@
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="n">
+      <c r="J280"/>
+      <c r="K280" t="n">
+        <v>315.848790433346</v>
+      </c>
+      <c r="L280" t="n">
+        <v>265.249417685289</v>
+      </c>
+      <c r="M280" t="n">
+        <v>265.249417685289</v>
+      </c>
+      <c r="N280" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K280"/>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -9506,10 +12035,19 @@
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="n">
+      <c r="J281"/>
+      <c r="K281" t="n">
+        <v>316.044907756007</v>
+      </c>
+      <c r="L281" t="n">
+        <v>265.580028623102</v>
+      </c>
+      <c r="M281" t="n">
+        <v>265.580028623102</v>
+      </c>
+      <c r="N281" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K281"/>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -9537,10 +12075,19 @@
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="n">
+      <c r="J282"/>
+      <c r="K282" t="n">
+        <v>316.241348968254</v>
+      </c>
+      <c r="L282" t="n">
+        <v>265.82904792503</v>
+      </c>
+      <c r="M282" t="n">
+        <v>265.82904792503</v>
+      </c>
+      <c r="N282" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K282"/>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -9568,10 +12115,19 @@
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="n">
+      <c r="J283"/>
+      <c r="K283" t="n">
+        <v>316.438114681632</v>
+      </c>
+      <c r="L283" t="n">
+        <v>266.013129204324</v>
+      </c>
+      <c r="M283" t="n">
+        <v>266.013129204324</v>
+      </c>
+      <c r="N283" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K283"/>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -9599,10 +12155,19 @@
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="n">
+      <c r="J284"/>
+      <c r="K284" t="n">
+        <v>316.635205354799</v>
+      </c>
+      <c r="L284" t="n">
+        <v>266.145522157747</v>
+      </c>
+      <c r="M284" t="n">
+        <v>266.145522157747</v>
+      </c>
+      <c r="N284" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K284"/>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -9630,10 +12195,19 @@
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="n">
+      <c r="J285"/>
+      <c r="K285" t="n">
+        <v>316.832621522858</v>
+      </c>
+      <c r="L285" t="n">
+        <v>266.236768297187</v>
+      </c>
+      <c r="M285" t="n">
+        <v>266.236768297187</v>
+      </c>
+      <c r="N285" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K285"/>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -9661,10 +12235,19 @@
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="n">
+      <c r="J286"/>
+      <c r="K286" t="n">
+        <v>317.03036372091</v>
+      </c>
+      <c r="L286" t="n">
+        <v>266.295254483981</v>
+      </c>
+      <c r="M286" t="n">
+        <v>266.295254483981</v>
+      </c>
+      <c r="N286" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K286"/>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -9692,10 +12275,19 @@
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="n">
+      <c r="J287"/>
+      <c r="K287" t="n">
+        <v>317.228432484058</v>
+      </c>
+      <c r="L287" t="n">
+        <v>266.327653324633</v>
+      </c>
+      <c r="M287" t="n">
+        <v>266.327653324633</v>
+      </c>
+      <c r="N287" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K287"/>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -9723,10 +12315,19 @@
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="n">
+      <c r="J288"/>
+      <c r="K288" t="n">
+        <v>317.426828423846</v>
+      </c>
+      <c r="L288" t="n">
+        <v>266.339273547233</v>
+      </c>
+      <c r="M288" t="n">
+        <v>266.339273547233</v>
+      </c>
+      <c r="N288" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K288"/>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -9754,10 +12355,19 @@
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="n">
+      <c r="J289"/>
+      <c r="K289" t="n">
+        <v>317.625552075376</v>
+      </c>
+      <c r="L289" t="n">
+        <v>266.334338774259</v>
+      </c>
+      <c r="M289" t="n">
+        <v>266.334338774259</v>
+      </c>
+      <c r="N289" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K289"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.Data/tempdata.xlsx
+++ b/1.Data/tempdata.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">year</t>
   </si>
@@ -41,19 +41,10 @@
     <t xml:space="preserve">gdp_less_1</t>
   </si>
   <si>
-    <t xml:space="preserve">err</t>
+    <t xml:space="preserve">model</t>
   </si>
   <si>
-    <t xml:space="preserve">Algorithm 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algorithm 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algorithm 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algorithm 1</t>
+    <t xml:space="preserve">err</t>
   </si>
 </sst>
 </file>
@@ -419,15 +410,6 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -458,19 +440,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>428.989241494285</v>
+      </c>
+      <c r="K2" t="n">
         <v>0.192872274535415</v>
-      </c>
-      <c r="K2" t="n">
-        <v>405.333867241373</v>
-      </c>
-      <c r="L2" t="n">
-        <v>399.003871899436</v>
-      </c>
-      <c r="M2" t="n">
-        <v>381.556622489238</v>
-      </c>
-      <c r="N2" t="n">
-        <v>428.989241494285</v>
       </c>
     </row>
     <row r="3">
@@ -502,19 +475,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>458.099651878571</v>
+      </c>
+      <c r="K3" t="n">
         <v>0.217633260440822</v>
-      </c>
-      <c r="K3" t="n">
-        <v>437.320386195379</v>
-      </c>
-      <c r="L3" t="n">
-        <v>418.604749915531</v>
-      </c>
-      <c r="M3" t="n">
-        <v>400.478833417286</v>
-      </c>
-      <c r="N3" t="n">
-        <v>458.099651878571</v>
       </c>
     </row>
     <row r="4">
@@ -546,19 +510,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>465.731020969545</v>
+      </c>
+      <c r="K4" t="n">
         <v>0.206090704486789</v>
-      </c>
-      <c r="K4" t="n">
-        <v>449.995702795078</v>
-      </c>
-      <c r="L4" t="n">
-        <v>433.234004644509</v>
-      </c>
-      <c r="M4" t="n">
-        <v>407.412185206578</v>
-      </c>
-      <c r="N4" t="n">
-        <v>465.731020969545</v>
       </c>
     </row>
     <row r="5">
@@ -590,19 +545,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>460.4426859485</v>
+      </c>
+      <c r="K5" t="n">
         <v>0.14203542046071</v>
-      </c>
-      <c r="K5" t="n">
-        <v>447.186398463372</v>
-      </c>
-      <c r="L5" t="n">
-        <v>442.789084890856</v>
-      </c>
-      <c r="M5" t="n">
-        <v>418.87571377923</v>
-      </c>
-      <c r="N5" t="n">
-        <v>460.4426859485</v>
       </c>
     </row>
     <row r="6">
@@ -634,19 +580,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
+        <v>443.034804970435</v>
+      </c>
+      <c r="K6" t="n">
         <v>0.0972966841390561</v>
-      </c>
-      <c r="K6" t="n">
-        <v>433.799001208146</v>
-      </c>
-      <c r="L6" t="n">
-        <v>444.933992605201</v>
-      </c>
-      <c r="M6" t="n">
-        <v>413.875147542657</v>
-      </c>
-      <c r="N6" t="n">
-        <v>443.034804970435</v>
       </c>
     </row>
     <row r="7">
@@ -678,19 +615,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
+        <v>411.660120998571</v>
+      </c>
+      <c r="K7" t="n">
         <v>0.105939497284131</v>
-      </c>
-      <c r="K7" t="n">
-        <v>405.455594010189</v>
-      </c>
-      <c r="L7" t="n">
-        <v>438.26148130886</v>
-      </c>
-      <c r="M7" t="n">
-        <v>380.414994516049</v>
-      </c>
-      <c r="N7" t="n">
-        <v>411.660120998571</v>
       </c>
     </row>
     <row r="8">
@@ -722,19 +650,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>419.560363513636</v>
+      </c>
+      <c r="K8" t="n">
         <v>0.195095525206689</v>
-      </c>
-      <c r="K8" t="n">
-        <v>412.445830354208</v>
-      </c>
-      <c r="L8" t="n">
-        <v>434.834428605101</v>
-      </c>
-      <c r="M8" t="n">
-        <v>365.46307179293</v>
-      </c>
-      <c r="N8" t="n">
-        <v>419.560363513636</v>
       </c>
     </row>
     <row r="9">
@@ -766,19 +685,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
+        <v>430.93917474</v>
+      </c>
+      <c r="K9" t="n">
         <v>0.204243399088156</v>
-      </c>
-      <c r="K9" t="n">
-        <v>421.58711812997</v>
-      </c>
-      <c r="L9" t="n">
-        <v>435.135548458475</v>
-      </c>
-      <c r="M9" t="n">
-        <v>373.886651971657</v>
-      </c>
-      <c r="N9" t="n">
-        <v>430.93917474</v>
       </c>
     </row>
     <row r="10">
@@ -810,19 +720,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>449.6246142575</v>
+      </c>
+      <c r="K10" t="n">
         <v>0.176641892906687</v>
-      </c>
-      <c r="K10" t="n">
-        <v>444.797971176248</v>
-      </c>
-      <c r="L10" t="n">
-        <v>438.316753859564</v>
-      </c>
-      <c r="M10" t="n">
-        <v>396.141419925867</v>
-      </c>
-      <c r="N10" t="n">
-        <v>449.6246142575</v>
       </c>
     </row>
     <row r="11">
@@ -854,19 +755,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>458.82117499087</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.116644848801285</v>
-      </c>
-      <c r="K11" t="n">
-        <v>460.004755860796</v>
-      </c>
-      <c r="L11" t="n">
-        <v>440.679239067443</v>
-      </c>
-      <c r="M11" t="n">
-        <v>418.860442956491</v>
-      </c>
-      <c r="N11" t="n">
-        <v>458.82117499087</v>
       </c>
     </row>
     <row r="12">
@@ -898,19 +790,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
+        <v>464.798648557273</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.0884511474452869</v>
-      </c>
-      <c r="K12" t="n">
-        <v>466.06447209836</v>
-      </c>
-      <c r="L12" t="n">
-        <v>444.66487985013</v>
-      </c>
-      <c r="M12" t="n">
-        <v>433.803517843588</v>
-      </c>
-      <c r="N12" t="n">
-        <v>464.798648557273</v>
       </c>
     </row>
     <row r="13">
@@ -942,19 +825,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
+        <v>476.6155863915</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.10400102287353</v>
-      </c>
-      <c r="K13" t="n">
-        <v>476.482669798385</v>
-      </c>
-      <c r="L13" t="n">
-        <v>451.841530051201</v>
-      </c>
-      <c r="M13" t="n">
-        <v>441.539802640819</v>
-      </c>
-      <c r="N13" t="n">
-        <v>476.6155863915</v>
       </c>
     </row>
     <row r="14">
@@ -986,19 +860,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
+        <v>473.072460764545</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.115764073305545</v>
-      </c>
-      <c r="K14" t="n">
-        <v>471.05741190093</v>
-      </c>
-      <c r="L14" t="n">
-        <v>456.927465175358</v>
-      </c>
-      <c r="M14" t="n">
-        <v>434.768347267991</v>
-      </c>
-      <c r="N14" t="n">
-        <v>473.072460764545</v>
       </c>
     </row>
     <row r="15">
@@ -1030,19 +895,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
+        <v>469.0010552645</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.0503666300716994</v>
-      </c>
-      <c r="K15" t="n">
-        <v>463.901818068824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>460.846467374375</v>
-      </c>
-      <c r="M15" t="n">
-        <v>452.559662533833</v>
-      </c>
-      <c r="N15" t="n">
-        <v>469.0010552645</v>
       </c>
     </row>
     <row r="16">
@@ -1074,19 +930,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
+        <v>464.49479434</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.0532470879602465</v>
-      </c>
-      <c r="K16" t="n">
-        <v>463.342863026497</v>
-      </c>
-      <c r="L16" t="n">
-        <v>461.944666011089</v>
-      </c>
-      <c r="M16" t="n">
-        <v>446.164370264788</v>
-      </c>
-      <c r="N16" t="n">
-        <v>464.49479434</v>
       </c>
     </row>
     <row r="17">
@@ -1118,19 +965,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
+        <v>463.210228211819</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.0107240388527063</v>
-      </c>
-      <c r="K17" t="n">
-        <v>465.48805385514</v>
-      </c>
-      <c r="L17" t="n">
-        <v>461.612040133293</v>
-      </c>
-      <c r="M17" t="n">
-        <v>458.70869872202</v>
-      </c>
-      <c r="N17" t="n">
-        <v>463.210228211819</v>
       </c>
     </row>
     <row r="18">
@@ -1162,19 +1000,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
+        <v>454.832317101739</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.000311079193366814</v>
-      </c>
-      <c r="K18" t="n">
-        <v>455.481109671395</v>
-      </c>
-      <c r="L18" t="n">
-        <v>459.774059305578</v>
-      </c>
-      <c r="M18" t="n">
-        <v>454.492669480659</v>
-      </c>
-      <c r="N18" t="n">
-        <v>454.832317101739</v>
       </c>
     </row>
     <row r="19">
@@ -1206,19 +1035,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
+        <v>452.696997914932</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.000548676319542585</v>
-      </c>
-      <c r="K19" t="n">
-        <v>455.281030437977</v>
-      </c>
-      <c r="L19" t="n">
-        <v>456.627196705224</v>
-      </c>
-      <c r="M19" t="n">
-        <v>450.799130130747</v>
-      </c>
-      <c r="N19" t="n">
-        <v>452.696997914932</v>
       </c>
     </row>
     <row r="20">
@@ -1250,19 +1070,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
+        <v>449.794637547258</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.0593523854185227</v>
-      </c>
-      <c r="K20" t="n">
-        <v>453.426805305791</v>
-      </c>
-      <c r="L20" t="n">
-        <v>452.242490482544</v>
-      </c>
-      <c r="M20" t="n">
-        <v>469.386464176504</v>
-      </c>
-      <c r="N20" t="n">
-        <v>449.794637547258</v>
       </c>
     </row>
     <row r="21">
@@ -1294,19 +1105,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
+        <v>453.245621588182</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.0665388231166525</v>
-      </c>
-      <c r="K21" t="n">
-        <v>456.581680429644</v>
-      </c>
-      <c r="L21" t="n">
-        <v>449.37712651188</v>
-      </c>
-      <c r="M21" t="n">
-        <v>475.879833967917</v>
-      </c>
-      <c r="N21" t="n">
-        <v>453.245621588182</v>
       </c>
     </row>
     <row r="22">
@@ -1338,19 +1140,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
+        <v>461.810293007143</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.067954068280191</v>
-      </c>
-      <c r="K22" t="n">
-        <v>466.481139832568</v>
-      </c>
-      <c r="L22" t="n">
-        <v>448.862789422667</v>
-      </c>
-      <c r="M22" t="n">
-        <v>485.54270251812</v>
-      </c>
-      <c r="N22" t="n">
-        <v>461.810293007143</v>
       </c>
     </row>
     <row r="23">
@@ -1382,19 +1175,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
+        <v>472.818484842174</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.0872760609217017</v>
-      </c>
-      <c r="K23" t="n">
-        <v>479.328246986678</v>
-      </c>
-      <c r="L23" t="n">
-        <v>450.916478600967</v>
-      </c>
-      <c r="M23" t="n">
-        <v>505.946477589003</v>
-      </c>
-      <c r="N23" t="n">
-        <v>472.818484842174</v>
       </c>
     </row>
     <row r="24">
@@ -1426,19 +1210,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
+        <v>478.425837714285</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.0976463606330604</v>
-      </c>
-      <c r="K24" t="n">
-        <v>485.357733502365</v>
-      </c>
-      <c r="L24" t="n">
-        <v>454.288171481088</v>
-      </c>
-      <c r="M24" t="n">
-        <v>517.364869619763</v>
-      </c>
-      <c r="N24" t="n">
-        <v>478.425837714285</v>
       </c>
     </row>
     <row r="25">
@@ -1470,19 +1245,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
+        <v>491.649189447334</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.0856530999262626</v>
-      </c>
-      <c r="K25" t="n">
-        <v>499.394501502267</v>
-      </c>
-      <c r="L25" t="n">
-        <v>460.011343979765</v>
-      </c>
-      <c r="M25" t="n">
-        <v>526.378599683</v>
-      </c>
-      <c r="N25" t="n">
-        <v>491.649189447334</v>
       </c>
     </row>
     <row r="26">
@@ -1514,19 +1280,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
+        <v>472.25971658</v>
+      </c>
+      <c r="K26" t="n">
         <v>0.11270210632201</v>
-      </c>
-      <c r="K26" t="n">
-        <v>478.629878584809</v>
-      </c>
-      <c r="L26" t="n">
-        <v>460.177041560771</v>
-      </c>
-      <c r="M26" t="n">
-        <v>517.646500920238</v>
-      </c>
-      <c r="N26" t="n">
-        <v>472.25971658</v>
       </c>
     </row>
     <row r="27">
@@ -1558,19 +1315,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
+        <v>442.01425321</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.184375301551563</v>
-      </c>
-      <c r="K27" t="n">
-        <v>444.577077581569</v>
-      </c>
-      <c r="L27" t="n">
-        <v>453.324844306887</v>
-      </c>
-      <c r="M27" t="n">
-        <v>518.37075418948</v>
-      </c>
-      <c r="N27" t="n">
-        <v>442.01425321</v>
       </c>
     </row>
     <row r="28">
@@ -1602,19 +1350,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
+        <v>432.7232771</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.174266844514779</v>
-      </c>
-      <c r="K28" t="n">
-        <v>435.28256541332</v>
-      </c>
-      <c r="L28" t="n">
-        <v>445.342993928216</v>
-      </c>
-      <c r="M28" t="n">
-        <v>501.610311937055</v>
-      </c>
-      <c r="N28" t="n">
-        <v>432.7232771</v>
       </c>
     </row>
     <row r="29">
@@ -1646,19 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
+        <v>406.55176099</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.133247118235038</v>
-      </c>
-      <c r="K29" t="n">
-        <v>403.992823302102</v>
-      </c>
-      <c r="L29" t="n">
-        <v>433.989696086981</v>
-      </c>
-      <c r="M29" t="n">
-        <v>452.852366822834</v>
-      </c>
-      <c r="N29" t="n">
-        <v>406.55176099</v>
       </c>
     </row>
     <row r="30">
@@ -1690,19 +1420,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
+        <v>392.20215624</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.0250673245727422</v>
-      </c>
-      <c r="K30" t="n">
-        <v>385.887877305231</v>
-      </c>
-      <c r="L30" t="n">
-        <v>422.54000880632</v>
-      </c>
-      <c r="M30" t="n">
-        <v>397.316647919078</v>
-      </c>
-      <c r="N30" t="n">
-        <v>392.20215624</v>
       </c>
     </row>
     <row r="31">
@@ -1734,19 +1455,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
+        <v>368.91876987</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.00801668116988652</v>
-      </c>
-      <c r="K31" t="n">
-        <v>358.524268070312</v>
-      </c>
-      <c r="L31" t="n">
-        <v>408.560372884546</v>
-      </c>
-      <c r="M31" t="n">
-        <v>368.270972064444</v>
-      </c>
-      <c r="N31" t="n">
-        <v>368.91876987</v>
       </c>
     </row>
     <row r="32">
@@ -1778,19 +1490,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
+        <v>351.35222534</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.0385865756848155</v>
-      </c>
-      <c r="K32" t="n">
-        <v>340.481365555983</v>
-      </c>
-      <c r="L32" t="n">
-        <v>393.354160398142</v>
-      </c>
-      <c r="M32" t="n">
-        <v>359.058303726963</v>
-      </c>
-      <c r="N32" t="n">
-        <v>351.35222534</v>
       </c>
     </row>
     <row r="33">
@@ -1822,19 +1525,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
+        <v>359.74595302</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.0430558603373061</v>
-      </c>
-      <c r="K33" t="n">
-        <v>352.574017844779</v>
-      </c>
-      <c r="L33" t="n">
-        <v>382.747043617776</v>
-      </c>
-      <c r="M33" t="n">
-        <v>368.885876587974</v>
-      </c>
-      <c r="N33" t="n">
-        <v>359.74595302</v>
       </c>
     </row>
     <row r="34">
@@ -1866,19 +1560,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
+        <v>387.57705334</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.0465233097938552</v>
-      </c>
-      <c r="K34" t="n">
-        <v>389.867896348568</v>
-      </c>
-      <c r="L34" t="n">
-        <v>378.590543288056</v>
-      </c>
-      <c r="M34" t="n">
-        <v>397.479195848267</v>
-      </c>
-      <c r="N34" t="n">
-        <v>387.57705334</v>
       </c>
     </row>
     <row r="35">
@@ -1910,19 +1595,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
+        <v>387.94870657</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.0572496984865739</v>
-      </c>
-      <c r="K35" t="n">
-        <v>395.099321610278</v>
-      </c>
-      <c r="L35" t="n">
-        <v>374.555905386433</v>
-      </c>
-      <c r="M35" t="n">
-        <v>400.744767559433</v>
-      </c>
-      <c r="N35" t="n">
-        <v>387.94870657</v>
       </c>
     </row>
     <row r="36">
@@ -1954,19 +1630,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
+        <v>379.65965184</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.0212783996394559</v>
-      </c>
-      <c r="K36" t="n">
-        <v>388.878601407687</v>
-      </c>
-      <c r="L36" t="n">
-        <v>369.311644506379</v>
-      </c>
-      <c r="M36" t="n">
-        <v>379.939307367785</v>
-      </c>
-      <c r="N36" t="n">
-        <v>379.65965184</v>
       </c>
     </row>
     <row r="37">
@@ -1998,19 +1665,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
+        <v>367.82873253</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.0195696391392517</v>
-      </c>
-      <c r="K37" t="n">
-        <v>380.049402788686</v>
-      </c>
-      <c r="L37" t="n">
-        <v>362.574206839266</v>
-      </c>
-      <c r="M37" t="n">
-        <v>367.235701829456</v>
-      </c>
-      <c r="N37" t="n">
-        <v>367.82873253</v>
       </c>
     </row>
     <row r="38">
@@ -2042,19 +1700,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
+        <v>316.23682307</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.0119737815498605</v>
-      </c>
-      <c r="K38" t="n">
-        <v>323.387796734259</v>
-      </c>
-      <c r="L38" t="n">
-        <v>347.231372313176</v>
-      </c>
-      <c r="M38" t="n">
-        <v>313.414145624192</v>
-      </c>
-      <c r="N38" t="n">
-        <v>316.23682307</v>
       </c>
     </row>
     <row r="39">
@@ -2086,19 +1735,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
+        <v>334.78952833</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.00816844748119006</v>
-      </c>
-      <c r="K39" t="n">
-        <v>343.559469433644</v>
-      </c>
-      <c r="L39" t="n">
-        <v>338.468979257864</v>
-      </c>
-      <c r="M39" t="n">
-        <v>326.412036301202</v>
-      </c>
-      <c r="N39" t="n">
-        <v>334.78952833</v>
       </c>
     </row>
     <row r="40">
@@ -2130,19 +1770,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
+        <v>322.53859539</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.0399987755421851</v>
-      </c>
-      <c r="K40" t="n">
-        <v>330.939424998388</v>
-      </c>
-      <c r="L40" t="n">
-        <v>328.822915838192</v>
-      </c>
-      <c r="M40" t="n">
-        <v>326.840498756134</v>
-      </c>
-      <c r="N40" t="n">
-        <v>322.53859539</v>
       </c>
     </row>
     <row r="41">
@@ -2174,19 +1805,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
+        <v>320.129022175714</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.067638066594083</v>
-      </c>
-      <c r="K41" t="n">
-        <v>328.368324933841</v>
-      </c>
-      <c r="L41" t="n">
-        <v>320.159223171843</v>
-      </c>
-      <c r="M41" t="n">
-        <v>331.719249435281</v>
-      </c>
-      <c r="N41" t="n">
-        <v>320.129022175714</v>
       </c>
     </row>
     <row r="42">
@@ -2218,19 +1840,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
+        <v>322.384677328421</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.0950310941605431</v>
-      </c>
-      <c r="K42" t="n">
-        <v>327.929800645496</v>
-      </c>
-      <c r="L42" t="n">
-        <v>314.4465468709</v>
-      </c>
-      <c r="M42" t="n">
-        <v>343.151390626351</v>
-      </c>
-      <c r="N42" t="n">
-        <v>322.384677328421</v>
       </c>
     </row>
     <row r="43">
@@ -2262,19 +1875,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
+        <v>318.92782194</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.0820266295479714</v>
-      </c>
-      <c r="K43" t="n">
-        <v>325.411920126019</v>
-      </c>
-      <c r="L43" t="n">
-        <v>308.79550163989</v>
-      </c>
-      <c r="M43" t="n">
-        <v>335.034186878297</v>
-      </c>
-      <c r="N43" t="n">
-        <v>318.92782194</v>
       </c>
     </row>
     <row r="44">
@@ -2306,19 +1910,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
+        <v>316.246507263913</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.021850062560801</v>
-      </c>
-      <c r="K44" t="n">
-        <v>324.500253417169</v>
-      </c>
-      <c r="L44" t="n">
-        <v>303.728813053792</v>
-      </c>
-      <c r="M44" t="n">
-        <v>315.277340170777</v>
-      </c>
-      <c r="N44" t="n">
-        <v>316.246507263913</v>
       </c>
     </row>
     <row r="45">
@@ -2350,19 +1945,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
+        <v>303.71550519</v>
+      </c>
+      <c r="K45" t="n">
         <v>0.0146217374313501</v>
-      </c>
-      <c r="K45" t="n">
-        <v>312.511898546172</v>
-      </c>
-      <c r="L45" t="n">
-        <v>297.032818325366</v>
-      </c>
-      <c r="M45" t="n">
-        <v>300.607827731559</v>
-      </c>
-      <c r="N45" t="n">
-        <v>303.71550519</v>
       </c>
     </row>
     <row r="46">
@@ -2394,19 +1980,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
+        <v>297.23106764</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.0423946694555641</v>
-      </c>
-      <c r="K46" t="n">
-        <v>306.676056606673</v>
-      </c>
-      <c r="L46" t="n">
-        <v>289.498912701191</v>
-      </c>
-      <c r="M46" t="n">
-        <v>280.03892833304</v>
-      </c>
-      <c r="N46" t="n">
-        <v>297.23106764</v>
       </c>
     </row>
     <row r="47">
@@ -2438,19 +2015,10 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
+        <v>289.4765798</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.0674912218018002</v>
-      </c>
-      <c r="K47" t="n">
-        <v>298.506743702141</v>
-      </c>
-      <c r="L47" t="n">
-        <v>281.43580819418</v>
-      </c>
-      <c r="M47" t="n">
-        <v>266.856914398108</v>
-      </c>
-      <c r="N47" t="n">
-        <v>289.4765798</v>
       </c>
     </row>
     <row r="48">
@@ -2482,19 +2050,10 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
+        <v>272.933273048571</v>
+      </c>
+      <c r="K48" t="n">
         <v>0.120811538839081</v>
-      </c>
-      <c r="K48" t="n">
-        <v>280.278053045814</v>
-      </c>
-      <c r="L48" t="n">
-        <v>271.919780124286</v>
-      </c>
-      <c r="M48" t="n">
-        <v>241.748908252217</v>
-      </c>
-      <c r="N48" t="n">
-        <v>272.933273048571</v>
       </c>
     </row>
     <row r="49">
@@ -2526,19 +2085,10 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
+        <v>260.96036382</v>
+      </c>
+      <c r="K49" t="n">
         <v>0.102859666923828</v>
-      </c>
-      <c r="K49" t="n">
-        <v>268.211656206139</v>
-      </c>
-      <c r="L49" t="n">
-        <v>261.861614894288</v>
-      </c>
-      <c r="M49" t="n">
-        <v>233.778099708263</v>
-      </c>
-      <c r="N49" t="n">
-        <v>260.96036382</v>
       </c>
     </row>
     <row r="50">
@@ -2570,19 +2120,10 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
+        <v>232.378005775</v>
+      </c>
+      <c r="K50" t="n">
         <v>0.172686291928749</v>
-      </c>
-      <c r="K50" t="n">
-        <v>237.216934626237</v>
-      </c>
-      <c r="L50" t="n">
-        <v>247.796519556538</v>
-      </c>
-      <c r="M50" t="n">
-        <v>197.114051328394</v>
-      </c>
-      <c r="N50" t="n">
-        <v>232.378005775</v>
       </c>
     </row>
     <row r="51">
@@ -2614,19 +2155,10 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
+        <v>223.5780446</v>
+      </c>
+      <c r="K51" t="n">
         <v>0.357076273233716</v>
-      </c>
-      <c r="K51" t="n">
-        <v>225.290224055046</v>
-      </c>
-      <c r="L51" t="n">
-        <v>235.239176971568</v>
-      </c>
-      <c r="M51" t="n">
-        <v>169.166634478541</v>
-      </c>
-      <c r="N51" t="n">
-        <v>223.5780446</v>
       </c>
     </row>
     <row r="52">
@@ -2658,19 +2190,10 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
+        <v>225.07320613</v>
+      </c>
+      <c r="K52" t="n">
         <v>0.237538619464701</v>
-      </c>
-      <c r="K52" t="n">
-        <v>224.694717508937</v>
-      </c>
-      <c r="L52" t="n">
-        <v>226.01446353517</v>
-      </c>
-      <c r="M52" t="n">
-        <v>183.554901176787</v>
-      </c>
-      <c r="N52" t="n">
-        <v>225.07320613</v>
       </c>
     </row>
     <row r="53">
@@ -2702,19 +2225,10 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
+        <v>227.30478005</v>
+      </c>
+      <c r="K53" t="n">
         <v>0.13820186589575</v>
-      </c>
-      <c r="K53" t="n">
-        <v>226.992919232127</v>
-      </c>
-      <c r="L53" t="n">
-        <v>218.809991420133</v>
-      </c>
-      <c r="M53" t="n">
-        <v>197.878124208103</v>
-      </c>
-      <c r="N53" t="n">
-        <v>227.30478005</v>
       </c>
     </row>
     <row r="54">
@@ -2746,19 +2260,10 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
+        <v>239.92840343</v>
+      </c>
+      <c r="K54" t="n">
         <v>0.0545764280787733</v>
-      </c>
-      <c r="K54" t="n">
-        <v>240.684655651832</v>
-      </c>
-      <c r="L54" t="n">
-        <v>215.653883442158</v>
-      </c>
-      <c r="M54" t="n">
-        <v>222.576968108135</v>
-      </c>
-      <c r="N54" t="n">
-        <v>239.92840343</v>
       </c>
     </row>
     <row r="55">
@@ -2790,19 +2295,10 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
+        <v>253.47070192</v>
+      </c>
+      <c r="K55" t="n">
         <v>0.111253446070276</v>
-      </c>
-      <c r="K55" t="n">
-        <v>256.030186655775</v>
-      </c>
-      <c r="L55" t="n">
-        <v>216.108633429785</v>
-      </c>
-      <c r="M55" t="n">
-        <v>226.006404096697</v>
-      </c>
-      <c r="N55" t="n">
-        <v>253.47070192</v>
       </c>
     </row>
     <row r="56">
@@ -2834,19 +2330,10 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
+        <v>255.95676777</v>
+      </c>
+      <c r="K56" t="n">
         <v>0.160799667420074</v>
-      </c>
-      <c r="K56" t="n">
-        <v>255.756666345269</v>
-      </c>
-      <c r="L56" t="n">
-        <v>219.21302921969</v>
-      </c>
-      <c r="M56" t="n">
-        <v>222.707133061825</v>
-      </c>
-      <c r="N56" t="n">
-        <v>255.95676777</v>
       </c>
     </row>
     <row r="57">
@@ -2878,19 +2365,10 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
+        <v>246.162507705217</v>
+      </c>
+      <c r="K57" t="n">
         <v>0.127400979093156</v>
-      </c>
-      <c r="K57" t="n">
-        <v>240.972438400394</v>
-      </c>
-      <c r="L57" t="n">
-        <v>221.190421330319</v>
-      </c>
-      <c r="M57" t="n">
-        <v>220.499910750953</v>
-      </c>
-      <c r="N57" t="n">
-        <v>246.162507705217</v>
       </c>
     </row>
     <row r="58">
@@ -2922,19 +2400,10 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
+        <v>248.16584749</v>
+      </c>
+      <c r="K58" t="n">
         <v>0.0562268245158533</v>
-      </c>
-      <c r="K58" t="n">
-        <v>240.699476447214</v>
-      </c>
-      <c r="L58" t="n">
-        <v>224.556246842377</v>
-      </c>
-      <c r="M58" t="n">
-        <v>235.507496199191</v>
-      </c>
-      <c r="N58" t="n">
-        <v>248.16584749</v>
       </c>
     </row>
     <row r="59">
@@ -2966,19 +2435,10 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
+        <v>294.33011233</v>
+      </c>
+      <c r="K59" t="n">
         <v>0.248055657375503</v>
-      </c>
-      <c r="K59" t="n">
-        <v>285.247438251147</v>
-      </c>
-      <c r="L59" t="n">
-        <v>241.123287524751</v>
-      </c>
-      <c r="M59" t="n">
-        <v>250.093494246859</v>
-      </c>
-      <c r="N59" t="n">
-        <v>294.33011233</v>
       </c>
     </row>
     <row r="60">
@@ -3010,19 +2470,10 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
+        <v>307.57269464</v>
+      </c>
+      <c r="K60" t="n">
         <v>0.146609791387543</v>
-      </c>
-      <c r="K60" t="n">
-        <v>299.187373451483</v>
-      </c>
-      <c r="L60" t="n">
-        <v>258.455718244085</v>
-      </c>
-      <c r="M60" t="n">
-        <v>280.034183324868</v>
-      </c>
-      <c r="N60" t="n">
-        <v>307.57269464</v>
       </c>
     </row>
     <row r="61">
@@ -3054,19 +2505,10 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
+        <v>295.73664447</v>
+      </c>
+      <c r="K61" t="n">
         <v>0.066542393717886</v>
-      </c>
-      <c r="K61" t="n">
-        <v>290.12803058834</v>
-      </c>
-      <c r="L61" t="n">
-        <v>266.630202820056</v>
-      </c>
-      <c r="M61" t="n">
-        <v>313.064039272931</v>
-      </c>
-      <c r="N61" t="n">
-        <v>295.73664447</v>
       </c>
     </row>
     <row r="62">
@@ -3098,19 +2540,10 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
+        <v>315.10785709</v>
+      </c>
+      <c r="K62" t="n">
         <v>0.102921926681212</v>
-      </c>
-      <c r="K62" t="n">
-        <v>314.726416816129</v>
-      </c>
-      <c r="L62" t="n">
-        <v>276.063610408331</v>
-      </c>
-      <c r="M62" t="n">
-        <v>343.395849326813</v>
-      </c>
-      <c r="N62" t="n">
-        <v>315.10785709</v>
       </c>
     </row>
     <row r="63">
@@ -3142,19 +2575,10 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
+        <v>317.08266789</v>
+      </c>
+      <c r="K63" t="n">
         <v>0.231686608190727</v>
-      </c>
-      <c r="K63" t="n">
-        <v>318.871097867055</v>
-      </c>
-      <c r="L63" t="n">
-        <v>283.071284628594</v>
-      </c>
-      <c r="M63" t="n">
-        <v>391.779859515208</v>
-      </c>
-      <c r="N63" t="n">
-        <v>317.08266789</v>
       </c>
     </row>
     <row r="64">
@@ -3186,19 +2610,10 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
+        <v>283.08094587</v>
+      </c>
+      <c r="K64" t="n">
         <v>0.295639622811152</v>
-      </c>
-      <c r="K64" t="n">
-        <v>278.977562826584</v>
-      </c>
-      <c r="L64" t="n">
-        <v>282.279854236746</v>
-      </c>
-      <c r="M64" t="n">
-        <v>376.819116525086</v>
-      </c>
-      <c r="N64" t="n">
-        <v>283.08094587</v>
       </c>
     </row>
     <row r="65">
@@ -3230,19 +2645,10 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
+        <v>283.825698485263</v>
+      </c>
+      <c r="K65" t="n">
         <v>0.133227787916522</v>
-      </c>
-      <c r="K65" t="n">
-        <v>277.621598418856</v>
-      </c>
-      <c r="L65" t="n">
-        <v>282.854969461184</v>
-      </c>
-      <c r="M65" t="n">
-        <v>318.7936930075</v>
-      </c>
-      <c r="N65" t="n">
-        <v>283.825698485263</v>
       </c>
     </row>
     <row r="66">
@@ -3274,19 +2680,10 @@
         <v>0</v>
       </c>
       <c r="J66" t="n">
+        <v>281.67619047</v>
+      </c>
+      <c r="K66" t="n">
         <v>0.0837617589943362</v>
-      </c>
-      <c r="K66" t="n">
-        <v>280.773303107501</v>
-      </c>
-      <c r="L66" t="n">
-        <v>280.234284177985</v>
-      </c>
-      <c r="M66" t="n">
-        <v>299.783801920249</v>
-      </c>
-      <c r="N66" t="n">
-        <v>281.67619047</v>
       </c>
     </row>
     <row r="67">
@@ -3318,19 +2715,10 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
+        <v>275.73800211</v>
+      </c>
+      <c r="K67" t="n">
         <v>0.0834261068024076</v>
-      </c>
-      <c r="K67" t="n">
-        <v>271.512662976207</v>
-      </c>
-      <c r="L67" t="n">
-        <v>278.621546416818</v>
-      </c>
-      <c r="M67" t="n">
-        <v>295.012047546525</v>
-      </c>
-      <c r="N67" t="n">
-        <v>275.73800211</v>
       </c>
     </row>
     <row r="68">
@@ -3362,19 +2750,10 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
+        <v>282.759774509048</v>
+      </c>
+      <c r="K68" t="n">
         <v>0.0524393456174695</v>
-      </c>
-      <c r="K68" t="n">
-        <v>275.924872434025</v>
-      </c>
-      <c r="L68" t="n">
-        <v>280.372582390887</v>
-      </c>
-      <c r="M68" t="n">
-        <v>296.114900803902</v>
-      </c>
-      <c r="N68" t="n">
-        <v>282.759774509048</v>
       </c>
     </row>
     <row r="69">
@@ -3406,19 +2785,10 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
+        <v>305.02685703</v>
+      </c>
+      <c r="K69" t="n">
         <v>0.000125134696178142</v>
-      </c>
-      <c r="K69" t="n">
-        <v>297.53695142606</v>
-      </c>
-      <c r="L69" t="n">
-        <v>288.111373204185</v>
-      </c>
-      <c r="M69" t="n">
-        <v>307.75685575324</v>
-      </c>
-      <c r="N69" t="n">
-        <v>305.02685703</v>
       </c>
     </row>
     <row r="70">
@@ -3450,19 +2820,10 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
+        <v>318.688864540952</v>
+      </c>
+      <c r="K70" t="n">
         <v>0.000784198629073751</v>
-      </c>
-      <c r="K70" t="n">
-        <v>312.478449168285</v>
-      </c>
-      <c r="L70" t="n">
-        <v>297.120343819498</v>
-      </c>
-      <c r="M70" t="n">
-        <v>321.24932809965</v>
-      </c>
-      <c r="N70" t="n">
-        <v>318.688864540952</v>
       </c>
     </row>
     <row r="71">
@@ -3494,19 +2855,10 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
+        <v>326.95125082</v>
+      </c>
+      <c r="K71" t="n">
         <v>0.10285886545283</v>
-      </c>
-      <c r="K71" t="n">
-        <v>321.973339056664</v>
-      </c>
-      <c r="L71" t="n">
-        <v>305.923719785139</v>
-      </c>
-      <c r="M71" t="n">
-        <v>305.39669480651</v>
-      </c>
-      <c r="N71" t="n">
-        <v>326.95125082</v>
       </c>
     </row>
     <row r="72">
@@ -3538,19 +2890,10 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
+        <v>340.23478367</v>
+      </c>
+      <c r="K72" t="n">
         <v>0.0405342810442875</v>
-      </c>
-      <c r="K72" t="n">
-        <v>337.028211770118</v>
-      </c>
-      <c r="L72" t="n">
-        <v>315.343799059014</v>
-      </c>
-      <c r="M72" t="n">
-        <v>332.096996997861</v>
-      </c>
-      <c r="N72" t="n">
-        <v>340.23478367</v>
       </c>
     </row>
     <row r="73">
@@ -3582,19 +2925,10 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
+        <v>369.410512976667</v>
+      </c>
+      <c r="K73" t="n">
         <v>0.00502452179275692</v>
-      </c>
-      <c r="K73" t="n">
-        <v>369.033829312493</v>
-      </c>
-      <c r="L73" t="n">
-        <v>329.709468681721</v>
-      </c>
-      <c r="M73" t="n">
-        <v>371.255966927199</v>
-      </c>
-      <c r="N73" t="n">
-        <v>369.410512976667</v>
       </c>
     </row>
     <row r="74">
@@ -3626,19 +2960,10 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
+        <v>356.154485824783</v>
+      </c>
+      <c r="K74" t="n">
         <v>0.175263052632716</v>
-      </c>
-      <c r="K74" t="n">
-        <v>348.92482066583</v>
-      </c>
-      <c r="L74" t="n">
-        <v>339.956680838056</v>
-      </c>
-      <c r="M74" t="n">
-        <v>421.21251506788</v>
-      </c>
-      <c r="N74" t="n">
-        <v>356.154485824783</v>
       </c>
     </row>
     <row r="75">
@@ -3670,19 +2995,10 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
+        <v>347.98026212</v>
+      </c>
+      <c r="K75" t="n">
         <v>0.156116433388134</v>
-      </c>
-      <c r="K75" t="n">
-        <v>341.301017548558</v>
-      </c>
-      <c r="L75" t="n">
-        <v>345.966427316259</v>
-      </c>
-      <c r="M75" t="n">
-        <v>403.567645654752</v>
-      </c>
-      <c r="N75" t="n">
-        <v>347.98026212</v>
       </c>
     </row>
     <row r="76">
@@ -3714,19 +3030,10 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
+        <v>348.28667811</v>
+      </c>
+      <c r="K76" t="n">
         <v>0.106633951639987</v>
-      </c>
-      <c r="K76" t="n">
-        <v>346.254582082701</v>
-      </c>
-      <c r="L76" t="n">
-        <v>348.510709653008</v>
-      </c>
-      <c r="M76" t="n">
-        <v>383.431839588428</v>
-      </c>
-      <c r="N76" t="n">
-        <v>348.28667811</v>
       </c>
     </row>
     <row r="77">
@@ -3758,19 +3065,10 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
+        <v>352.08489333</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.0948934764318616</v>
-      </c>
-      <c r="K77" t="n">
-        <v>350.375040432532</v>
-      </c>
-      <c r="L77" t="n">
-        <v>350.900427146589</v>
-      </c>
-      <c r="M77" t="n">
-        <v>383.112628161597</v>
-      </c>
-      <c r="N77" t="n">
-        <v>352.08489333</v>
       </c>
     </row>
     <row r="78">
@@ -3802,19 +3100,10 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
+        <v>377.89570951</v>
+      </c>
+      <c r="K78" t="n">
         <v>0.0242224309834964</v>
-      </c>
-      <c r="K78" t="n">
-        <v>374.934567045424</v>
-      </c>
-      <c r="L78" t="n">
-        <v>360.590146464617</v>
-      </c>
-      <c r="M78" t="n">
-        <v>389.531190810064</v>
-      </c>
-      <c r="N78" t="n">
-        <v>377.89570951</v>
       </c>
     </row>
     <row r="79">
@@ -3846,19 +3135,10 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
+        <v>384.43289199</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.113752160903017</v>
-      </c>
-      <c r="K79" t="n">
-        <v>378.847562469259</v>
-      </c>
-      <c r="L79" t="n">
-        <v>371.87963741472</v>
-      </c>
-      <c r="M79" t="n">
-        <v>430.106671680424</v>
-      </c>
-      <c r="N79" t="n">
-        <v>384.43289199</v>
       </c>
     </row>
     <row r="80">
@@ -3890,19 +3170,10 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
+        <v>390.68325934</v>
+      </c>
+      <c r="K80" t="n">
         <v>0.0433581615871459</v>
-      </c>
-      <c r="K80" t="n">
-        <v>384.34897862091</v>
-      </c>
-      <c r="L80" t="n">
-        <v>383.241752411331</v>
-      </c>
-      <c r="M80" t="n">
-        <v>412.289897165309</v>
-      </c>
-      <c r="N80" t="n">
-        <v>390.68325934</v>
       </c>
     </row>
     <row r="81">
@@ -3934,19 +3205,10 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
+        <v>396.72700423</v>
+      </c>
+      <c r="K81" t="n">
         <v>0.0284510647556838</v>
-      </c>
-      <c r="K81" t="n">
-        <v>393.603621842905</v>
-      </c>
-      <c r="L81" t="n">
-        <v>392.782377351132</v>
-      </c>
-      <c r="M81" t="n">
-        <v>412.75457482011</v>
-      </c>
-      <c r="N81" t="n">
-        <v>396.72700423</v>
       </c>
     </row>
     <row r="82">
@@ -3978,19 +3240,10 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
+        <v>441.05518406</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.023899482040749</v>
-      </c>
-      <c r="K82" t="n">
-        <v>447.145211418397</v>
-      </c>
-      <c r="L82" t="n">
-        <v>407.884492997543</v>
-      </c>
-      <c r="M82" t="n">
-        <v>438.099940300937</v>
-      </c>
-      <c r="N82" t="n">
-        <v>441.05518406</v>
       </c>
     </row>
     <row r="83">
@@ -4022,19 +3275,10 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
+        <v>427.10430207</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.0197839363681291</v>
-      </c>
-      <c r="K83" t="n">
-        <v>433.000501571815</v>
-      </c>
-      <c r="L83" t="n">
-        <v>415.914621082354</v>
-      </c>
-      <c r="M83" t="n">
-        <v>424.613732747522</v>
-      </c>
-      <c r="N83" t="n">
-        <v>427.10430207</v>
       </c>
     </row>
     <row r="84">
@@ -4066,19 +3310,10 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
+        <v>389.61981803</v>
+      </c>
+      <c r="K84" t="n">
         <v>0.01760521049527</v>
-      </c>
-      <c r="K84" t="n">
-        <v>396.987498492534</v>
-      </c>
-      <c r="L84" t="n">
-        <v>412.941933838518</v>
-      </c>
-      <c r="M84" t="n">
-        <v>386.658685342711</v>
-      </c>
-      <c r="N84" t="n">
-        <v>389.61981803</v>
       </c>
     </row>
     <row r="85">
@@ -4110,19 +3345,10 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
+        <v>379.195615593333</v>
+      </c>
+      <c r="K85" t="n">
         <v>0.161088734119496</v>
-      </c>
-      <c r="K85" t="n">
-        <v>386.95745447996</v>
-      </c>
-      <c r="L85" t="n">
-        <v>408.617757727763</v>
-      </c>
-      <c r="M85" t="n">
-        <v>339.912580444385</v>
-      </c>
-      <c r="N85" t="n">
-        <v>379.195615593333</v>
       </c>
     </row>
     <row r="86">
@@ -4154,19 +3380,10 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
+        <v>363.04716881</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.15540814232938</v>
-      </c>
-      <c r="K86" t="n">
-        <v>368.17050433094</v>
-      </c>
-      <c r="L86" t="n">
-        <v>401.490553091027</v>
-      </c>
-      <c r="M86" t="n">
-        <v>326.383481116375</v>
-      </c>
-      <c r="N86" t="n">
-        <v>363.04716881</v>
       </c>
     </row>
     <row r="87">
@@ -4198,19 +3415,10 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
+        <v>324.94677833</v>
+      </c>
+      <c r="K87" t="n">
         <v>0.0298642300313858</v>
-      </c>
-      <c r="K87" t="n">
-        <v>322.508363018435</v>
-      </c>
-      <c r="L87" t="n">
-        <v>388.008740893581</v>
-      </c>
-      <c r="M87" t="n">
-        <v>319.613079154369</v>
-      </c>
-      <c r="N87" t="n">
-        <v>324.94677833</v>
       </c>
     </row>
     <row r="88">
@@ -4242,19 +3450,10 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
+        <v>305.11860441</v>
+      </c>
+      <c r="K88" t="n">
         <v>0.0424604322392041</v>
-      </c>
-      <c r="K88" t="n">
-        <v>299.264022460352</v>
-      </c>
-      <c r="L88" t="n">
-        <v>373.03287021944</v>
-      </c>
-      <c r="M88" t="n">
-        <v>317.84943222349</v>
-      </c>
-      <c r="N88" t="n">
-        <v>305.11860441</v>
       </c>
     </row>
     <row r="89">
@@ -4286,19 +3485,10 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
+        <v>295.0324878</v>
+      </c>
+      <c r="K89" t="n">
         <v>0.0338070518014382</v>
-      </c>
-      <c r="K89" t="n">
-        <v>289.162188217023</v>
-      </c>
-      <c r="L89" t="n">
-        <v>357.677787267969</v>
-      </c>
-      <c r="M89" t="n">
-        <v>303.83333432955</v>
-      </c>
-      <c r="N89" t="n">
-        <v>295.0324878</v>
       </c>
     </row>
     <row r="90">
@@ -4330,19 +3520,10 @@
         <v>0</v>
       </c>
       <c r="J90" t="n">
+        <v>278.94993139</v>
+      </c>
+      <c r="K90" t="n">
         <v>0.0574830680060513</v>
-      </c>
-      <c r="K90" t="n">
-        <v>272.507225929219</v>
-      </c>
-      <c r="L90" t="n">
-        <v>341.290809470113</v>
-      </c>
-      <c r="M90" t="n">
-        <v>292.189924306379</v>
-      </c>
-      <c r="N90" t="n">
-        <v>278.94993139</v>
       </c>
     </row>
     <row r="91">
@@ -4374,19 +3555,10 @@
         <v>0</v>
       </c>
       <c r="J91" t="n">
+        <v>245.542613</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.12168337459006</v>
-      </c>
-      <c r="K91" t="n">
-        <v>239.579767619908</v>
-      </c>
-      <c r="L91" t="n">
-        <v>319.339232679913</v>
-      </c>
-      <c r="M91" t="n">
-        <v>270.226153088507</v>
-      </c>
-      <c r="N91" t="n">
-        <v>245.542613</v>
       </c>
     </row>
     <row r="92">
@@ -4418,19 +3590,10 @@
         <v>0</v>
       </c>
       <c r="J92" t="n">
+        <v>246.1997508</v>
+      </c>
+      <c r="K92" t="n">
         <v>0.00166512329088331</v>
-      </c>
-      <c r="K92" t="n">
-        <v>240.62639562057</v>
-      </c>
-      <c r="L92" t="n">
-        <v>301.889806987011</v>
-      </c>
-      <c r="M92" t="n">
-        <v>244.026236465756</v>
-      </c>
-      <c r="N92" t="n">
-        <v>246.1997508</v>
       </c>
     </row>
     <row r="93">
@@ -4462,19 +3625,10 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
+        <v>238.69234491</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.0193551294136753</v>
-      </c>
-      <c r="K93" t="n">
-        <v>236.734341432474</v>
-      </c>
-      <c r="L93" t="n">
-        <v>284.808947185175</v>
-      </c>
-      <c r="M93" t="n">
-        <v>230.922761269925</v>
-      </c>
-      <c r="N93" t="n">
-        <v>238.69234491</v>
       </c>
     </row>
     <row r="94">
@@ -4506,19 +3660,10 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
+        <v>253.93741013</v>
+      </c>
+      <c r="K94" t="n">
         <v>0.0781472223369892</v>
-      </c>
-      <c r="K94" t="n">
-        <v>254.303409184915</v>
-      </c>
-      <c r="L94" t="n">
-        <v>274.202729332318</v>
-      </c>
-      <c r="M94" t="n">
-        <v>234.997088644343</v>
-      </c>
-      <c r="N94" t="n">
-        <v>253.93741013</v>
       </c>
     </row>
     <row r="95">
@@ -4550,19 +3695,10 @@
         <v>0</v>
       </c>
       <c r="J95" t="n">
+        <v>275.97364495</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.219750643026879</v>
-      </c>
-      <c r="K95" t="n">
-        <v>280.336574631707</v>
-      </c>
-      <c r="L95" t="n">
-        <v>270.629391934809</v>
-      </c>
-      <c r="M95" t="n">
-        <v>232.481171724159</v>
-      </c>
-      <c r="N95" t="n">
-        <v>275.97364495</v>
       </c>
     </row>
     <row r="96">
@@ -4594,19 +3730,10 @@
         <v>0</v>
       </c>
       <c r="J96" t="n">
+        <v>282.09615294</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.227091322351608</v>
-      </c>
-      <c r="K96" t="n">
-        <v>288.009710663165</v>
-      </c>
-      <c r="L96" t="n">
-        <v>268.404835569035</v>
-      </c>
-      <c r="M96" t="n">
-        <v>235.992378081136</v>
-      </c>
-      <c r="N96" t="n">
-        <v>282.09615294</v>
       </c>
     </row>
     <row r="97">
@@ -4638,19 +3765,10 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
+        <v>276.69853255</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.231368842835725</v>
-      </c>
-      <c r="K97" t="n">
-        <v>281.060445891629</v>
-      </c>
-      <c r="L97" t="n">
-        <v>265.471215974429</v>
-      </c>
-      <c r="M97" t="n">
-        <v>230.705778681778</v>
-      </c>
-      <c r="N97" t="n">
-        <v>276.69853255</v>
       </c>
     </row>
     <row r="98">
@@ -4682,19 +3800,10 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
+        <v>247.48803808</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.0367514103808577</v>
-      </c>
-      <c r="K98" t="n">
-        <v>244.742878868814</v>
-      </c>
-      <c r="L98" t="n">
-        <v>258.560291399339</v>
-      </c>
-      <c r="M98" t="n">
-        <v>251.765318462415</v>
-      </c>
-      <c r="N98" t="n">
-        <v>247.48803808</v>
       </c>
     </row>
     <row r="99">
@@ -4726,19 +3835,10 @@
         <v>0.14240145404096</v>
       </c>
       <c r="J99" t="n">
+        <v>218.0543515</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.181572724132949</v>
-      </c>
-      <c r="K99" t="n">
-        <v>213.124559677219</v>
-      </c>
-      <c r="L99" t="n">
-        <v>246.894500858738</v>
-      </c>
-      <c r="M99" t="n">
-        <v>253.156446158533</v>
-      </c>
-      <c r="N99" t="n">
-        <v>218.0543515</v>
       </c>
     </row>
     <row r="100">
@@ -4770,19 +3870,10 @@
         <v>-1.01473746893856</v>
       </c>
       <c r="J100" t="n">
+        <v>200.80893998</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.0825198923151099</v>
-      </c>
-      <c r="K100" t="n">
-        <v>199.383052758369</v>
-      </c>
-      <c r="L100" t="n">
-        <v>233.742714112083</v>
-      </c>
-      <c r="M100" t="n">
-        <v>211.446287735679</v>
-      </c>
-      <c r="N100" t="n">
-        <v>200.80893998</v>
       </c>
     </row>
     <row r="101">
@@ -4814,19 +3905,10 @@
         <v>-3.89216450359739</v>
       </c>
       <c r="J101" t="n">
+        <v>173.14335258</v>
+      </c>
+      <c r="K101" t="n">
         <v>0.0492776588604642</v>
-      </c>
-      <c r="K101" t="n">
-        <v>173.102574790849</v>
-      </c>
-      <c r="L101" t="n">
-        <v>215.842208256213</v>
-      </c>
-      <c r="M101" t="n">
-        <v>161.159538589988</v>
-      </c>
-      <c r="N101" t="n">
-        <v>173.14335258</v>
       </c>
     </row>
     <row r="102">
@@ -4858,19 +3940,10 @@
         <v>-6.76959153825622</v>
       </c>
       <c r="J102" t="n">
+        <v>157.36711272</v>
+      </c>
+      <c r="K102" t="n">
         <v>0.0259074697251723</v>
-      </c>
-      <c r="K102" t="n">
-        <v>154.235456685953</v>
-      </c>
-      <c r="L102" t="n">
-        <v>197.289967650107</v>
-      </c>
-      <c r="M102" t="n">
-        <v>154.096725428487</v>
-      </c>
-      <c r="N102" t="n">
-        <v>157.36711272</v>
       </c>
     </row>
     <row r="103">
@@ -4902,19 +3975,10 @@
         <v>-9.64701857291505</v>
       </c>
       <c r="J103" t="n">
+        <v>164.66409573</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.0507690829990736</v>
-      </c>
-      <c r="K103" t="n">
-        <v>159.209478374736</v>
-      </c>
-      <c r="L103" t="n">
-        <v>184.050984979016</v>
-      </c>
-      <c r="M103" t="n">
-        <v>165.100499865677</v>
-      </c>
-      <c r="N103" t="n">
-        <v>164.66409573</v>
       </c>
     </row>
     <row r="104">
@@ -4946,19 +4010,10 @@
         <v>-6.76959153825622</v>
       </c>
       <c r="J104" t="n">
+        <v>169.42652055</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.11361429376136</v>
-      </c>
-      <c r="K104" t="n">
-        <v>163.675663200106</v>
-      </c>
-      <c r="L104" t="n">
-        <v>174.332044870151</v>
-      </c>
-      <c r="M104" t="n">
-        <v>179.974588420542</v>
-      </c>
-      <c r="N104" t="n">
-        <v>169.42652055</v>
       </c>
     </row>
     <row r="105">
@@ -4990,19 +4045,10 @@
         <v>-3.89216450359739</v>
       </c>
       <c r="J105" t="n">
+        <v>192.49439286</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.13730463210881</v>
-      </c>
-      <c r="K105" t="n">
-        <v>191.083352173552</v>
-      </c>
-      <c r="L105" t="n">
-        <v>170.572910018644</v>
-      </c>
-      <c r="M105" t="n">
-        <v>209.39798348267</v>
-      </c>
-      <c r="N105" t="n">
-        <v>192.49439286</v>
       </c>
     </row>
     <row r="106">
@@ -5034,19 +4080,10 @@
         <v>-3</v>
       </c>
       <c r="J106" t="n">
+        <v>223.460252056667</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.0746111917559629</v>
-      </c>
-      <c r="K106" t="n">
-        <v>226.974146137199</v>
-      </c>
-      <c r="L106" t="n">
-        <v>174.445345535436</v>
-      </c>
-      <c r="M106" t="n">
-        <v>230.857247584313</v>
-      </c>
-      <c r="N106" t="n">
-        <v>223.460252056667</v>
       </c>
     </row>
     <row r="107">
@@ -5075,19 +4112,10 @@
       <c r="I107" t="n">
         <v>-2</v>
       </c>
-      <c r="J107"/>
-      <c r="K107" t="n">
-        <v>229.163996408124</v>
-      </c>
-      <c r="L107" t="n">
-        <v>179.572898409062</v>
-      </c>
-      <c r="M107" t="n">
-        <v>224.454596507918</v>
-      </c>
-      <c r="N107" t="n">
+      <c r="J107" t="n">
         <v>223.460252056667</v>
       </c>
+      <c r="K107"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -5115,19 +4143,10 @@
       <c r="I108" t="n">
         <v>-2</v>
       </c>
-      <c r="J108"/>
-      <c r="K108" t="n">
-        <v>229.010591690114</v>
-      </c>
-      <c r="L108" t="n">
-        <v>183.663360993</v>
-      </c>
-      <c r="M108" t="n">
-        <v>219.371549355299</v>
-      </c>
-      <c r="N108" t="n">
+      <c r="J108" t="n">
         <v>223.460252056667</v>
       </c>
+      <c r="K108"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -5155,19 +4174,10 @@
       <c r="I109" t="n">
         <v>-2</v>
       </c>
-      <c r="J109"/>
-      <c r="K109" t="n">
-        <v>228.857444967703</v>
-      </c>
-      <c r="L109" t="n">
-        <v>186.928688984893</v>
-      </c>
-      <c r="M109" t="n">
-        <v>215.338369770789</v>
-      </c>
-      <c r="N109" t="n">
+      <c r="J109" t="n">
         <v>223.460252056667</v>
       </c>
+      <c r="K109"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -5195,19 +4205,10 @@
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110"/>
-      <c r="K110" t="n">
-        <v>227.612277443282</v>
-      </c>
-      <c r="L110" t="n">
-        <v>191.043830950561</v>
-      </c>
-      <c r="M110" t="n">
-        <v>213.646768802448</v>
-      </c>
-      <c r="N110" t="n">
+      <c r="J110" t="n">
         <v>229.462141119045</v>
       </c>
+      <c r="K110"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -5235,19 +4236,10 @@
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111"/>
-      <c r="K111" t="n">
-        <v>227.612277443282</v>
-      </c>
-      <c r="L111" t="n">
-        <v>194.317866262773</v>
-      </c>
-      <c r="M111" t="n">
-        <v>212.300919412384</v>
-      </c>
-      <c r="N111" t="n">
+      <c r="J111" t="n">
         <v>229.462141119045</v>
       </c>
+      <c r="K111"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -5275,19 +4267,10 @@
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112"/>
-      <c r="K112" t="n">
-        <v>227.612277443282</v>
-      </c>
-      <c r="L112" t="n">
-        <v>196.922711324022</v>
-      </c>
-      <c r="M112" t="n">
-        <v>211.23015236115</v>
-      </c>
-      <c r="N112" t="n">
+      <c r="J112" t="n">
         <v>229.462141119045</v>
       </c>
+      <c r="K112"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -5315,19 +4298,10 @@
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113"/>
-      <c r="K113" t="n">
-        <v>227.612277443282</v>
-      </c>
-      <c r="L113" t="n">
-        <v>198.995144009096</v>
-      </c>
-      <c r="M113" t="n">
-        <v>210.378242714741</v>
-      </c>
-      <c r="N113" t="n">
+      <c r="J113" t="n">
         <v>229.462141119045</v>
       </c>
+      <c r="K113"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -5355,19 +4329,10 @@
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114"/>
-      <c r="K114" t="n">
-        <v>227.612277443282</v>
-      </c>
-      <c r="L114" t="n">
-        <v>200.643985737941</v>
-      </c>
-      <c r="M114" t="n">
-        <v>209.700457528125</v>
-      </c>
-      <c r="N114" t="n">
+      <c r="J114" t="n">
         <v>229.462141119045</v>
       </c>
+      <c r="K114"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -5395,19 +4360,10 @@
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115"/>
-      <c r="K115" t="n">
-        <v>227.612277443282</v>
-      </c>
-      <c r="L115" t="n">
-        <v>201.955815582336</v>
-      </c>
-      <c r="M115" t="n">
-        <v>209.161206961901</v>
-      </c>
-      <c r="N115" t="n">
+      <c r="J115" t="n">
         <v>229.462141119045</v>
       </c>
+      <c r="K115"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -5435,19 +4391,10 @@
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116"/>
-      <c r="K116" t="n">
-        <v>227.612277443282</v>
-      </c>
-      <c r="L116" t="n">
-        <v>202.999516448551</v>
-      </c>
-      <c r="M116" t="n">
-        <v>208.732175494536</v>
-      </c>
-      <c r="N116" t="n">
+      <c r="J116" t="n">
         <v>229.462141119045</v>
       </c>
+      <c r="K116"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -5475,19 +4422,10 @@
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117"/>
-      <c r="K117" t="n">
-        <v>227.612277443282</v>
-      </c>
-      <c r="L117" t="n">
-        <v>203.829892051599</v>
-      </c>
-      <c r="M117" t="n">
-        <v>208.390835101927</v>
-      </c>
-      <c r="N117" t="n">
+      <c r="J117" t="n">
         <v>229.462141119045</v>
       </c>
+      <c r="K117"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -5515,19 +4453,10 @@
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118"/>
-      <c r="K118" t="n">
-        <v>227.612277443282</v>
-      </c>
-      <c r="L118" t="n">
-        <v>204.490544604892</v>
-      </c>
-      <c r="M118" t="n">
-        <v>208.119262332819</v>
-      </c>
-      <c r="N118" t="n">
+      <c r="J118" t="n">
         <v>229.462141119045</v>
       </c>
+      <c r="K118"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -5555,19 +4484,10 @@
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119"/>
-      <c r="K119" t="n">
-        <v>227.76238883792</v>
-      </c>
-      <c r="L119" t="n">
-        <v>205.005453149507</v>
-      </c>
-      <c r="M119" t="n">
-        <v>207.892485985409</v>
-      </c>
-      <c r="N119" t="n">
+      <c r="J119" t="n">
         <v>229.462141119045</v>
       </c>
+      <c r="K119"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -5595,19 +4515,10 @@
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120"/>
-      <c r="K120" t="n">
-        <v>227.912748137663</v>
-      </c>
-      <c r="L120" t="n">
-        <v>205.404389067014</v>
-      </c>
-      <c r="M120" t="n">
-        <v>207.70133229063</v>
-      </c>
-      <c r="N120" t="n">
+      <c r="J120" t="n">
         <v>229.462141119045</v>
       </c>
+      <c r="K120"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -5635,19 +4546,10 @@
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121"/>
-      <c r="K121" t="n">
-        <v>228.063355801169</v>
-      </c>
-      <c r="L121" t="n">
-        <v>205.711038641066</v>
-      </c>
-      <c r="M121" t="n">
-        <v>207.538502501852</v>
-      </c>
-      <c r="N121" t="n">
+      <c r="J121" t="n">
         <v>229.462141119045</v>
       </c>
+      <c r="K121"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -5675,19 +4577,10 @@
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122"/>
-      <c r="K122" t="n">
-        <v>269.726019718482</v>
-      </c>
-      <c r="L122" t="n">
-        <v>214.371215901152</v>
-      </c>
-      <c r="M122" t="n">
-        <v>215.825158744904</v>
-      </c>
-      <c r="N122" t="n">
+      <c r="J122" t="n">
         <v>266.543925775684</v>
       </c>
+      <c r="K122"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -5715,19 +4608,10 @@
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123"/>
-      <c r="K123" t="n">
-        <v>269.877125256161</v>
-      </c>
-      <c r="L123" t="n">
-        <v>221.250530503641</v>
-      </c>
-      <c r="M123" t="n">
-        <v>222.407297451681</v>
-      </c>
-      <c r="N123" t="n">
+      <c r="J123" t="n">
         <v>266.543925775684</v>
       </c>
+      <c r="K123"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -5755,19 +4639,10 @@
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124"/>
-      <c r="K124" t="n">
-        <v>270.028480380693</v>
-      </c>
-      <c r="L124" t="n">
-        <v>226.712960691601</v>
-      </c>
-      <c r="M124" t="n">
-        <v>227.633292448678</v>
-      </c>
-      <c r="N124" t="n">
+      <c r="J124" t="n">
         <v>266.543925775684</v>
       </c>
+      <c r="K124"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -5795,19 +4670,10 @@
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125"/>
-      <c r="K125" t="n">
-        <v>270.180085474293</v>
-      </c>
-      <c r="L125" t="n">
-        <v>231.04809003673</v>
-      </c>
-      <c r="M125" t="n">
-        <v>231.780312326206</v>
-      </c>
-      <c r="N125" t="n">
+      <c r="J125" t="n">
         <v>266.543925775684</v>
       </c>
+      <c r="K125"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -5835,19 +4701,10 @@
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126"/>
-      <c r="K126" t="n">
-        <v>270.331940919178</v>
-      </c>
-      <c r="L126" t="n">
-        <v>234.4863131974</v>
-      </c>
-      <c r="M126" t="n">
-        <v>235.068874297876</v>
-      </c>
-      <c r="N126" t="n">
+      <c r="J126" t="n">
         <v>266.543925775684</v>
       </c>
+      <c r="K126"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -5875,19 +4732,10 @@
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127"/>
-      <c r="K127" t="n">
-        <v>270.484047174007</v>
-      </c>
-      <c r="L127" t="n">
-        <v>237.210933719122</v>
-      </c>
-      <c r="M127" t="n">
-        <v>237.674423346064</v>
-      </c>
-      <c r="N127" t="n">
+      <c r="J127" t="n">
         <v>266.543925775684</v>
       </c>
+      <c r="K127"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -5915,19 +4763,10 @@
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128"/>
-      <c r="K128" t="n">
-        <v>270.636404697437</v>
-      </c>
-      <c r="L128" t="n">
-        <v>239.367789133426</v>
-      </c>
-      <c r="M128" t="n">
-        <v>239.736544675303</v>
-      </c>
-      <c r="N128" t="n">
+      <c r="J128" t="n">
         <v>266.543925775684</v>
       </c>
+      <c r="K128"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -5955,19 +4794,10 @@
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129"/>
-      <c r="K129" t="n">
-        <v>270.789013795243</v>
-      </c>
-      <c r="L129" t="n">
-        <v>241.072908763791</v>
-      </c>
-      <c r="M129" t="n">
-        <v>241.366293214619</v>
-      </c>
-      <c r="N129" t="n">
+      <c r="J129" t="n">
         <v>266.543925775684</v>
       </c>
+      <c r="K129"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -5995,19 +4825,10 @@
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130"/>
-      <c r="K130" t="n">
-        <v>270.941874926082</v>
-      </c>
-      <c r="L130" t="n">
-        <v>242.418606306999</v>
-      </c>
-      <c r="M130" t="n">
-        <v>242.652024998281</v>
-      </c>
-      <c r="N130" t="n">
+      <c r="J130" t="n">
         <v>266.543925775684</v>
       </c>
+      <c r="K130"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -6035,19 +4856,10 @@
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131"/>
-      <c r="K131" t="n">
-        <v>271.094988548613</v>
-      </c>
-      <c r="L131" t="n">
-        <v>243.478327143773</v>
-      </c>
-      <c r="M131" t="n">
-        <v>243.664036663436</v>
-      </c>
-      <c r="N131" t="n">
+      <c r="J131" t="n">
         <v>266.543925775684</v>
       </c>
+      <c r="K131"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -6075,19 +4887,10 @@
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132"/>
-      <c r="K132" t="n">
-        <v>271.248355045053</v>
-      </c>
-      <c r="L132" t="n">
-        <v>244.310504897977</v>
-      </c>
-      <c r="M132" t="n">
-        <v>244.458256671856</v>
-      </c>
-      <c r="N132" t="n">
+      <c r="J132" t="n">
         <v>266.543925775684</v>
       </c>
+      <c r="K132"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -6115,19 +4918,10 @@
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133"/>
-      <c r="K133" t="n">
-        <v>271.40197487406</v>
-      </c>
-      <c r="L133" t="n">
-        <v>244.961629730794</v>
-      </c>
-      <c r="M133" t="n">
-        <v>245.079182060496</v>
-      </c>
-      <c r="N133" t="n">
+      <c r="J133" t="n">
         <v>266.543925775684</v>
       </c>
+      <c r="K133"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -6155,19 +4949,10 @@
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134"/>
-      <c r="K134" t="n">
-        <v>278.091898234862</v>
-      </c>
-      <c r="L134" t="n">
-        <v>248.093567903955</v>
-      </c>
-      <c r="M134" t="n">
-        <v>248.187093347715</v>
-      </c>
-      <c r="N134" t="n">
+      <c r="J134" t="n">
         <v>274.146581578167</v>
       </c>
+      <c r="K134"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -6195,19 +4980,10 @@
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135"/>
-      <c r="K135" t="n">
-        <v>278.24602587565</v>
-      </c>
-      <c r="L135" t="n">
-        <v>250.57436174274</v>
-      </c>
-      <c r="M135" t="n">
-        <v>250.648771230437</v>
-      </c>
-      <c r="N135" t="n">
+      <c r="J135" t="n">
         <v>274.146581578167</v>
       </c>
+      <c r="K135"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -6235,19 +5011,10 @@
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136"/>
-      <c r="K136" t="n">
-        <v>278.400408072095</v>
-      </c>
-      <c r="L136" t="n">
-        <v>252.537082497184</v>
-      </c>
-      <c r="M136" t="n">
-        <v>252.596283198476</v>
-      </c>
-      <c r="N136" t="n">
+      <c r="J136" t="n">
         <v>274.146581578167</v>
       </c>
+      <c r="K136"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -6275,19 +5042,10 @@
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137"/>
-      <c r="K137" t="n">
-        <v>278.555045282856</v>
-      </c>
-      <c r="L137" t="n">
-        <v>254.087602538302</v>
-      </c>
-      <c r="M137" t="n">
-        <v>254.134703024301</v>
-      </c>
-      <c r="N137" t="n">
+      <c r="J137" t="n">
         <v>274.146581578167</v>
       </c>
+      <c r="K137"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -6315,19 +5073,10 @@
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138"/>
-      <c r="K138" t="n">
-        <v>278.709937813706</v>
-      </c>
-      <c r="L138" t="n">
-        <v>255.310154632399</v>
-      </c>
-      <c r="M138" t="n">
-        <v>255.347628103708</v>
-      </c>
-      <c r="N138" t="n">
+      <c r="J138" t="n">
         <v>274.146581578167</v>
       </c>
+      <c r="K138"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -6355,19 +5104,10 @@
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139"/>
-      <c r="K139" t="n">
-        <v>278.865086276189</v>
-      </c>
-      <c r="L139" t="n">
-        <v>256.2717549053</v>
-      </c>
-      <c r="M139" t="n">
-        <v>256.301569057365</v>
-      </c>
-      <c r="N139" t="n">
+      <c r="J139" t="n">
         <v>274.146581578167</v>
       </c>
+      <c r="K139"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -6395,19 +5135,10 @@
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140"/>
-      <c r="K140" t="n">
-        <v>279.020490899636</v>
-      </c>
-      <c r="L140" t="n">
-        <v>257.025721832267</v>
-      </c>
-      <c r="M140" t="n">
-        <v>257.049442177149</v>
-      </c>
-      <c r="N140" t="n">
+      <c r="J140" t="n">
         <v>274.146581578167</v>
       </c>
+      <c r="K140"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -6435,19 +5166,10 @@
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141"/>
-      <c r="K141" t="n">
-        <v>279.176152142705</v>
-      </c>
-      <c r="L141" t="n">
-        <v>257.614475926997</v>
-      </c>
-      <c r="M141" t="n">
-        <v>257.633347996883</v>
-      </c>
-      <c r="N141" t="n">
+      <c r="J141" t="n">
         <v>274.146581578167</v>
       </c>
+      <c r="K141"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -6475,19 +5197,10 @@
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142"/>
-      <c r="K142" t="n">
-        <v>279.332070540498</v>
-      </c>
-      <c r="L142" t="n">
-        <v>258.071767204399</v>
-      </c>
-      <c r="M142" t="n">
-        <v>258.086781953279</v>
-      </c>
-      <c r="N142" t="n">
+      <c r="J142" t="n">
         <v>274.146581578167</v>
       </c>
+      <c r="K142"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -6515,19 +5228,10 @@
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143"/>
-      <c r="K143" t="n">
-        <v>279.488246475231</v>
-      </c>
-      <c r="L143" t="n">
-        <v>258.424447381687</v>
-      </c>
-      <c r="M143" t="n">
-        <v>258.436393219387</v>
-      </c>
-      <c r="N143" t="n">
+      <c r="J143" t="n">
         <v>274.146581578167</v>
       </c>
+      <c r="K143"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -6555,19 +5259,10 @@
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144"/>
-      <c r="K144" t="n">
-        <v>279.644680329119</v>
-      </c>
-      <c r="L144" t="n">
-        <v>258.693879842883</v>
-      </c>
-      <c r="M144" t="n">
-        <v>258.703384033696</v>
-      </c>
-      <c r="N144" t="n">
+      <c r="J144" t="n">
         <v>274.146581578167</v>
       </c>
+      <c r="K144"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -6595,19 +5290,10 @@
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145"/>
-      <c r="K145" t="n">
-        <v>279.801372484378</v>
-      </c>
-      <c r="L145" t="n">
-        <v>258.897061416294</v>
-      </c>
-      <c r="M145" t="n">
-        <v>258.904623016015</v>
-      </c>
-      <c r="N145" t="n">
+      <c r="J145" t="n">
         <v>274.146581578167</v>
       </c>
+      <c r="K145"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -6635,19 +5321,10 @@
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146"/>
-      <c r="K146" t="n">
-        <v>288.045351132758</v>
-      </c>
-      <c r="L146" t="n">
-        <v>260.740487872349</v>
-      </c>
-      <c r="M146" t="n">
-        <v>260.746503933206</v>
-      </c>
-      <c r="N146" t="n">
+      <c r="J146" t="n">
         <v>281.40706346754</v>
       </c>
+      <c r="K146"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -6675,19 +5352,10 @@
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147"/>
-      <c r="K147" t="n">
-        <v>288.202561343179</v>
-      </c>
-      <c r="L147" t="n">
-        <v>262.195912951332</v>
-      </c>
-      <c r="M147" t="n">
-        <v>262.200699370817</v>
-      </c>
-      <c r="N147" t="n">
+      <c r="J147" t="n">
         <v>281.40706346754</v>
       </c>
+      <c r="K147"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -6715,19 +5383,10 @@
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148"/>
-      <c r="K148" t="n">
-        <v>288.360031230948</v>
-      </c>
-      <c r="L148" t="n">
-        <v>263.342622931104</v>
-      </c>
-      <c r="M148" t="n">
-        <v>263.346431039437</v>
-      </c>
-      <c r="N148" t="n">
+      <c r="J148" t="n">
         <v>281.40706346754</v>
       </c>
+      <c r="K148"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -6755,19 +5414,10 @@
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149"/>
-      <c r="K149" t="n">
-        <v>288.517761101837</v>
-      </c>
-      <c r="L149" t="n">
-        <v>264.243698499008</v>
-      </c>
-      <c r="M149" t="n">
-        <v>264.246728256246</v>
-      </c>
-      <c r="N149" t="n">
+      <c r="J149" t="n">
         <v>281.40706346754</v>
       </c>
+      <c r="K149"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -6795,19 +5445,10 @@
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150"/>
-      <c r="K150" t="n">
-        <v>288.675751567391</v>
-      </c>
-      <c r="L150" t="n">
-        <v>264.94932704105</v>
-      </c>
-      <c r="M150" t="n">
-        <v>264.951737536792</v>
-      </c>
-      <c r="N150" t="n">
+      <c r="J150" t="n">
         <v>281.40706346754</v>
       </c>
+      <c r="K150"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -6835,19 +5476,10 @@
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151"/>
-      <c r="K151" t="n">
-        <v>288.834002933384</v>
-      </c>
-      <c r="L151" t="n">
-        <v>265.499437965646</v>
-      </c>
-      <c r="M151" t="n">
-        <v>265.501355772673</v>
-      </c>
-      <c r="N151" t="n">
+      <c r="J151" t="n">
         <v>281.40706346754</v>
       </c>
+      <c r="K151"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -6875,19 +5507,10 @@
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152"/>
-      <c r="K152" t="n">
-        <v>288.992515658472</v>
-      </c>
-      <c r="L152" t="n">
-        <v>265.925799352623</v>
-      </c>
-      <c r="M152" t="n">
-        <v>265.927325173112</v>
-      </c>
-      <c r="N152" t="n">
+      <c r="J152" t="n">
         <v>281.40706346754</v>
       </c>
+      <c r="K152"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -6915,19 +5538,10 @@
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153"/>
-      <c r="K153" t="n">
-        <v>289.151290201317</v>
-      </c>
-      <c r="L153" t="n">
-        <v>266.253686072531</v>
-      </c>
-      <c r="M153" t="n">
-        <v>266.254900025829</v>
-      </c>
-      <c r="N153" t="n">
+      <c r="J153" t="n">
         <v>281.40706346754</v>
       </c>
+      <c r="K153"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -6955,19 +5569,10 @@
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154"/>
-      <c r="K154" t="n">
-        <v>289.310326944133</v>
-      </c>
-      <c r="L154" t="n">
-        <v>266.503206959317</v>
-      </c>
-      <c r="M154" t="n">
-        <v>266.504172788928</v>
-      </c>
-      <c r="N154" t="n">
+      <c r="J154" t="n">
         <v>281.40706346754</v>
       </c>
+      <c r="K154"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -6995,19 +5600,10 @@
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155"/>
-      <c r="K155" t="n">
-        <v>289.469626345579</v>
-      </c>
-      <c r="L155" t="n">
-        <v>266.690360707147</v>
-      </c>
-      <c r="M155" t="n">
-        <v>266.691129127843</v>
-      </c>
-      <c r="N155" t="n">
+      <c r="J155" t="n">
         <v>281.40706346754</v>
       </c>
+      <c r="K155"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -7035,19 +5631,10 @@
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156"/>
-      <c r="K156" t="n">
-        <v>289.629188864314</v>
-      </c>
-      <c r="L156" t="n">
-        <v>266.827875954645</v>
-      </c>
-      <c r="M156" t="n">
-        <v>266.828487315447</v>
-      </c>
-      <c r="N156" t="n">
+      <c r="J156" t="n">
         <v>281.40706346754</v>
       </c>
+      <c r="K156"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -7075,19 +5662,10 @@
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157"/>
-      <c r="K157" t="n">
-        <v>289.789014882553</v>
-      </c>
-      <c r="L157" t="n">
-        <v>266.925879667161</v>
-      </c>
-      <c r="M157" t="n">
-        <v>266.926366070029</v>
-      </c>
-      <c r="N157" t="n">
+      <c r="J157" t="n">
         <v>281.40706346754</v>
       </c>
+      <c r="K157"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -7115,19 +5693,10 @@
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158"/>
-      <c r="K158" t="n">
-        <v>255.299599399891</v>
-      </c>
-      <c r="L158" t="n">
-        <v>261.734300915537</v>
-      </c>
-      <c r="M158" t="n">
-        <v>261.734687901012</v>
-      </c>
-      <c r="N158" t="n">
+      <c r="J158" t="n">
         <v>253.000576098195</v>
       </c>
+      <c r="K158"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -7155,19 +5724,10 @@
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159"/>
-      <c r="K159" t="n">
-        <v>255.459953793117</v>
-      </c>
-      <c r="L159" t="n">
-        <v>257.592403008519</v>
-      </c>
-      <c r="M159" t="n">
-        <v>257.59271089683</v>
-      </c>
-      <c r="N159" t="n">
+      <c r="J159" t="n">
         <v>253.000576098195</v>
       </c>
+      <c r="K159"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -7195,19 +5755,10 @@
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160"/>
-      <c r="K160" t="n">
-        <v>255.620573061823</v>
-      </c>
-      <c r="L160" t="n">
-        <v>254.285619516418</v>
-      </c>
-      <c r="M160" t="n">
-        <v>254.28586447448</v>
-      </c>
-      <c r="N160" t="n">
+      <c r="J160" t="n">
         <v>253.000576098195</v>
       </c>
+      <c r="K160"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -7235,19 +5786,10 @@
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161"/>
-      <c r="K161" t="n">
-        <v>255.781457588227</v>
-      </c>
-      <c r="L161" t="n">
-        <v>251.643239881563</v>
-      </c>
-      <c r="M161" t="n">
-        <v>251.643434771886</v>
-      </c>
-      <c r="N161" t="n">
+      <c r="J161" t="n">
         <v>253.000576098195</v>
       </c>
+      <c r="K161"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -7275,19 +5817,10 @@
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162"/>
-      <c r="K162" t="n">
-        <v>255.942607830986</v>
-      </c>
-      <c r="L162" t="n">
-        <v>249.529445574894</v>
-      </c>
-      <c r="M162" t="n">
-        <v>249.529600630978</v>
-      </c>
-      <c r="N162" t="n">
+      <c r="J162" t="n">
         <v>253.000576098195</v>
       </c>
+      <c r="K162"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -7315,19 +5848,10 @@
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163"/>
-      <c r="K163" t="n">
-        <v>256.104024172317</v>
-      </c>
-      <c r="L163" t="n">
-        <v>247.836178411262</v>
-      </c>
-      <c r="M163" t="n">
-        <v>247.836301774952</v>
-      </c>
-      <c r="N163" t="n">
+      <c r="J163" t="n">
         <v>253.000576098195</v>
       </c>
+      <c r="K163"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -7355,19 +5879,10 @@
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164"/>
-      <c r="K164" t="n">
-        <v>256.265707147321</v>
-      </c>
-      <c r="L164" t="n">
-        <v>246.477466515575</v>
-      </c>
-      <c r="M164" t="n">
-        <v>246.477564664577</v>
-      </c>
-      <c r="N164" t="n">
+      <c r="J164" t="n">
         <v>253.000576098195</v>
       </c>
+      <c r="K164"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -7395,19 +5910,10 @@
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165"/>
-      <c r="K165" t="n">
-        <v>256.427657214657</v>
-      </c>
-      <c r="L165" t="n">
-        <v>245.384910038702</v>
-      </c>
-      <c r="M165" t="n">
-        <v>245.384988126724</v>
-      </c>
-      <c r="N165" t="n">
+      <c r="J165" t="n">
         <v>253.000576098195</v>
       </c>
+      <c r="K165"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -7435,19 +5941,10 @@
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166"/>
-      <c r="K166" t="n">
-        <v>256.589874680098</v>
-      </c>
-      <c r="L166" t="n">
-        <v>244.504089567401</v>
-      </c>
-      <c r="M166" t="n">
-        <v>244.50415169477</v>
-      </c>
-      <c r="N166" t="n">
+      <c r="J166" t="n">
         <v>253.000576098195</v>
       </c>
+      <c r="K166"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -7475,19 +5972,10 @@
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167"/>
-      <c r="K167" t="n">
-        <v>256.752360078746</v>
-      </c>
-      <c r="L167" t="n">
-        <v>243.791708603219</v>
-      </c>
-      <c r="M167" t="n">
-        <v>243.791758032181</v>
-      </c>
-      <c r="N167" t="n">
+      <c r="J167" t="n">
         <v>253.000576098195</v>
       </c>
+      <c r="K167"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -7515,19 +6003,10 @@
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168"/>
-      <c r="K168" t="n">
-        <v>256.91511386926</v>
-      </c>
-      <c r="L168" t="n">
-        <v>243.213320120828</v>
-      </c>
-      <c r="M168" t="n">
-        <v>243.213359446852</v>
-      </c>
-      <c r="N168" t="n">
+      <c r="J168" t="n">
         <v>253.000576098195</v>
       </c>
+      <c r="K168"/>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -7555,19 +6034,10 @@
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169"/>
-      <c r="K169" t="n">
-        <v>257.078136433855</v>
-      </c>
-      <c r="L169" t="n">
-        <v>242.741517802176</v>
-      </c>
-      <c r="M169" t="n">
-        <v>242.741549090231</v>
-      </c>
-      <c r="N169" t="n">
+      <c r="J169" t="n">
         <v>253.000576098195</v>
       </c>
+      <c r="K169"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -7595,19 +6065,10 @@
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170"/>
-      <c r="K170" t="n">
-        <v>260.761257896831</v>
-      </c>
-      <c r="L170" t="n">
-        <v>242.964306698474</v>
-      </c>
-      <c r="M170" t="n">
-        <v>242.964331591466</v>
-      </c>
-      <c r="N170" t="n">
+      <c r="J170" t="n">
         <v>256.173825740355</v>
       </c>
+      <c r="K170"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -7635,19 +6096,10 @@
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171"/>
-      <c r="K171" t="n">
-        <v>260.924819385565</v>
-      </c>
-      <c r="L171" t="n">
-        <v>243.129888169693</v>
-      </c>
-      <c r="M171" t="n">
-        <v>243.129907974729</v>
-      </c>
-      <c r="N171" t="n">
+      <c r="J171" t="n">
         <v>256.173825740355</v>
       </c>
+      <c r="K171"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -7675,19 +6127,10 @@
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172"/>
-      <c r="K172" t="n">
-        <v>261.088651024358</v>
-      </c>
-      <c r="L172" t="n">
-        <v>243.249935742682</v>
-      </c>
-      <c r="M172" t="n">
-        <v>243.249951499705</v>
-      </c>
-      <c r="N172" t="n">
+      <c r="J172" t="n">
         <v>256.173825740355</v>
       </c>
+      <c r="K172"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -7715,19 +6158,10 @@
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173"/>
-      <c r="K173" t="n">
-        <v>261.252753271866</v>
-      </c>
-      <c r="L173" t="n">
-        <v>243.333736923136</v>
-      </c>
-      <c r="M173" t="n">
-        <v>243.333749459533</v>
-      </c>
-      <c r="N173" t="n">
+      <c r="J173" t="n">
         <v>256.173825740355</v>
       </c>
+      <c r="K173"/>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -7755,19 +6189,10 @@
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174"/>
-      <c r="K174" t="n">
-        <v>261.417126510308</v>
-      </c>
-      <c r="L174" t="n">
-        <v>243.388680887331</v>
-      </c>
-      <c r="M174" t="n">
-        <v>243.388690861374</v>
-      </c>
-      <c r="N174" t="n">
+      <c r="J174" t="n">
         <v>256.173825740355</v>
       </c>
+      <c r="K174"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -7795,19 +6220,10 @@
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175"/>
-      <c r="K175" t="n">
-        <v>261.58177119834</v>
-      </c>
-      <c r="L175" t="n">
-        <v>243.420646482113</v>
-      </c>
-      <c r="M175" t="n">
-        <v>243.42065441753</v>
-      </c>
-      <c r="N175" t="n">
+      <c r="J175" t="n">
         <v>256.173825740355</v>
       </c>
+      <c r="K175"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -7835,19 +6251,10 @@
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176"/>
-      <c r="K176" t="n">
-        <v>261.746687871066</v>
-      </c>
-      <c r="L176" t="n">
-        <v>243.434310920372</v>
-      </c>
-      <c r="M176" t="n">
-        <v>243.434317233845</v>
-      </c>
-      <c r="N176" t="n">
+      <c r="J176" t="n">
         <v>256.173825740355</v>
       </c>
+      <c r="K176"/>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -7875,19 +6282,10 @@
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177"/>
-      <c r="K177" t="n">
-        <v>261.911876910701</v>
-      </c>
-      <c r="L177" t="n">
-        <v>243.433395397652</v>
-      </c>
-      <c r="M177" t="n">
-        <v>243.433400420694</v>
-      </c>
-      <c r="N177" t="n">
+      <c r="J177" t="n">
         <v>256.173825740355</v>
       </c>
+      <c r="K177"/>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -7915,19 +6313,10 @@
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178"/>
-      <c r="K178" t="n">
-        <v>262.07733869946</v>
-      </c>
-      <c r="L178" t="n">
-        <v>243.420860495499</v>
-      </c>
-      <c r="M178" t="n">
-        <v>243.420864491866</v>
-      </c>
-      <c r="N178" t="n">
+      <c r="J178" t="n">
         <v>256.173825740355</v>
       </c>
+      <c r="K178"/>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -7955,19 +6344,10 @@
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179"/>
-      <c r="K179" t="n">
-        <v>262.243073848889</v>
-      </c>
-      <c r="L179" t="n">
-        <v>243.399061629363</v>
-      </c>
-      <c r="M179" t="n">
-        <v>243.399064808901</v>
-      </c>
-      <c r="N179" t="n">
+      <c r="J179" t="n">
         <v>256.173825740355</v>
       </c>
+      <c r="K179"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -7995,19 +6375,10 @@
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180"/>
-      <c r="K180" t="n">
-        <v>262.409082664761</v>
-      </c>
-      <c r="L180" t="n">
-        <v>243.369872762194</v>
-      </c>
-      <c r="M180" t="n">
-        <v>243.369875291856</v>
-      </c>
-      <c r="N180" t="n">
+      <c r="J180" t="n">
         <v>256.173825740355</v>
       </c>
+      <c r="K180"/>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -8035,19 +6406,10 @@
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181"/>
-      <c r="K181" t="n">
-        <v>262.575365682177</v>
-      </c>
-      <c r="L181" t="n">
-        <v>243.334784793648</v>
-      </c>
-      <c r="M181" t="n">
-        <v>243.334786806264</v>
-      </c>
-      <c r="N181" t="n">
+      <c r="J181" t="n">
         <v>256.173825740355</v>
       </c>
+      <c r="K181"/>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -8075,19 +6437,10 @@
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182"/>
-      <c r="K182" t="n">
-        <v>266.33918926104</v>
-      </c>
-      <c r="L182" t="n">
-        <v>243.918209412175</v>
-      </c>
-      <c r="M182" t="n">
-        <v>243.918211013427</v>
-      </c>
-      <c r="N182" t="n">
+      <c r="J182" t="n">
         <v>259.416886874643</v>
       </c>
+      <c r="K182"/>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -8115,19 +6468,10 @@
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183"/>
-      <c r="K183" t="n">
-        <v>266.506021981078</v>
-      </c>
-      <c r="L183" t="n">
-        <v>244.370481731429</v>
-      </c>
-      <c r="M183" t="n">
-        <v>244.370483005396</v>
-      </c>
-      <c r="N183" t="n">
+      <c r="J183" t="n">
         <v>259.416886874643</v>
       </c>
+      <c r="K183"/>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -8155,19 +6499,10 @@
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184"/>
-      <c r="K184" t="n">
-        <v>266.673130202194</v>
-      </c>
-      <c r="L184" t="n">
-        <v>244.718388719044</v>
-      </c>
-      <c r="M184" t="n">
-        <v>244.718389732621</v>
-      </c>
-      <c r="N184" t="n">
+      <c r="J184" t="n">
         <v>259.416886874643</v>
       </c>
+      <c r="K184"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -8195,19 +6530,10 @@
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185"/>
-      <c r="K185" t="n">
-        <v>266.840514459489</v>
-      </c>
-      <c r="L185" t="n">
-        <v>244.983242232924</v>
-      </c>
-      <c r="M185" t="n">
-        <v>244.983243039333</v>
-      </c>
-      <c r="N185" t="n">
+      <c r="J185" t="n">
         <v>259.416886874643</v>
       </c>
+      <c r="K185"/>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -8235,19 +6561,10 @@
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186"/>
-      <c r="K186" t="n">
-        <v>267.008175211623</v>
-      </c>
-      <c r="L186" t="n">
-        <v>245.181998101383</v>
-      </c>
-      <c r="M186" t="n">
-        <v>245.181998742967</v>
-      </c>
-      <c r="N186" t="n">
+      <c r="J186" t="n">
         <v>259.416886874643</v>
       </c>
+      <c r="K186"/>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -8275,19 +6592,10 @@
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187"/>
-      <c r="K187" t="n">
-        <v>267.176112840811</v>
-      </c>
-      <c r="L187" t="n">
-        <v>245.328146471028</v>
-      </c>
-      <c r="M187" t="n">
-        <v>245.328146981476</v>
-      </c>
-      <c r="N187" t="n">
+      <c r="J187" t="n">
         <v>259.416886874643</v>
       </c>
+      <c r="K187"/>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -8315,19 +6623,10 @@
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188"/>
-      <c r="K188" t="n">
-        <v>267.344327805712</v>
-      </c>
-      <c r="L188" t="n">
-        <v>245.432420162753</v>
-      </c>
-      <c r="M188" t="n">
-        <v>245.432420568869</v>
-      </c>
-      <c r="N188" t="n">
+      <c r="J188" t="n">
         <v>259.416886874643</v>
       </c>
+      <c r="K188"/>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -8355,19 +6654,10 @@
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189"/>
-      <c r="K189" t="n">
-        <v>267.512820564985</v>
-      </c>
-      <c r="L189" t="n">
-        <v>245.503358250112</v>
-      </c>
-      <c r="M189" t="n">
-        <v>245.503358573222</v>
-      </c>
-      <c r="N189" t="n">
+      <c r="J189" t="n">
         <v>259.416886874643</v>
       </c>
+      <c r="K189"/>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -8395,19 +6685,10 @@
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190"/>
-      <c r="K190" t="n">
-        <v>267.681591653731</v>
-      </c>
-      <c r="L190" t="n">
-        <v>245.547754440702</v>
-      </c>
-      <c r="M190" t="n">
-        <v>245.54775469777</v>
-      </c>
-      <c r="N190" t="n">
+      <c r="J190" t="n">
         <v>259.416886874643</v>
       </c>
+      <c r="K190"/>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -8435,19 +6716,10 @@
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191"/>
-      <c r="K191" t="n">
-        <v>267.850641454168</v>
-      </c>
-      <c r="L191" t="n">
-        <v>245.571013827837</v>
-      </c>
-      <c r="M191" t="n">
-        <v>245.571014032362</v>
-      </c>
-      <c r="N191" t="n">
+      <c r="J191" t="n">
         <v>259.416886874643</v>
       </c>
+      <c r="K191"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -8475,19 +6747,10 @@
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192"/>
-      <c r="K192" t="n">
-        <v>268.019970501396</v>
-      </c>
-      <c r="L192" t="n">
-        <v>245.577436702835</v>
-      </c>
-      <c r="M192" t="n">
-        <v>245.577436865556</v>
-      </c>
-      <c r="N192" t="n">
+      <c r="J192" t="n">
         <v>259.416886874643</v>
       </c>
+      <c r="K192"/>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -8515,19 +6778,10 @@
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193"/>
-      <c r="K193" t="n">
-        <v>268.189579177631</v>
-      </c>
-      <c r="L193" t="n">
-        <v>245.570444379832</v>
-      </c>
-      <c r="M193" t="n">
-        <v>245.570444509294</v>
-      </c>
-      <c r="N193" t="n">
+      <c r="J193" t="n">
         <v>259.416886874643</v>
       </c>
+      <c r="K193"/>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -8555,19 +6809,10 @@
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194"/>
-      <c r="K194" t="n">
-        <v>272.035873683941</v>
-      </c>
-      <c r="L194" t="n">
-        <v>246.189695359039</v>
-      </c>
-      <c r="M194" t="n">
-        <v>246.18969546204</v>
-      </c>
-      <c r="N194" t="n">
+      <c r="J194" t="n">
         <v>262.731295353885</v>
       </c>
+      <c r="K194"/>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -8595,19 +6840,10 @@
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195"/>
-      <c r="K195" t="n">
-        <v>272.206043070611</v>
-      </c>
-      <c r="L195" t="n">
-        <v>246.670233290344</v>
-      </c>
-      <c r="M195" t="n">
-        <v>246.670233372292</v>
-      </c>
-      <c r="N195" t="n">
+      <c r="J195" t="n">
         <v>262.731295353885</v>
       </c>
+      <c r="K195"/>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -8635,19 +6871,10 @@
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196"/>
-      <c r="K196" t="n">
-        <v>272.376493538707</v>
-      </c>
-      <c r="L196" t="n">
-        <v>247.040390108102</v>
-      </c>
-      <c r="M196" t="n">
-        <v>247.040390173301</v>
-      </c>
-      <c r="N196" t="n">
+      <c r="J196" t="n">
         <v>262.731295353885</v>
       </c>
+      <c r="K196"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -8675,19 +6902,10 @@
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197"/>
-      <c r="K197" t="n">
-        <v>272.547225470446</v>
-      </c>
-      <c r="L197" t="n">
-        <v>247.322706867299</v>
-      </c>
-      <c r="M197" t="n">
-        <v>247.322706919172</v>
-      </c>
-      <c r="N197" t="n">
+      <c r="J197" t="n">
         <v>262.731295353885</v>
       </c>
+      <c r="K197"/>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -8715,19 +6933,10 @@
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198"/>
-      <c r="K198" t="n">
-        <v>272.71823940093</v>
-      </c>
-      <c r="L198" t="n">
-        <v>247.535117348465</v>
-      </c>
-      <c r="M198" t="n">
-        <v>247.535117389735</v>
-      </c>
-      <c r="N198" t="n">
+      <c r="J198" t="n">
         <v>262.731295353885</v>
       </c>
+      <c r="K198"/>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -8755,19 +6964,10 @@
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199"/>
-      <c r="K199" t="n">
-        <v>272.889535788817</v>
-      </c>
-      <c r="L199" t="n">
-        <v>247.691889758273</v>
-      </c>
-      <c r="M199" t="n">
-        <v>247.691889791108</v>
-      </c>
-      <c r="N199" t="n">
+      <c r="J199" t="n">
         <v>262.731295353885</v>
       </c>
+      <c r="K199"/>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -8795,19 +6995,10 @@
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200"/>
-      <c r="K200" t="n">
-        <v>273.061115016323</v>
-      </c>
-      <c r="L200" t="n">
-        <v>247.804375953029</v>
-      </c>
-      <c r="M200" t="n">
-        <v>247.804375979153</v>
-      </c>
-      <c r="N200" t="n">
+      <c r="J200" t="n">
         <v>262.731295353885</v>
       </c>
+      <c r="K200"/>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -8835,19 +7026,10 @@
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201"/>
-      <c r="K201" t="n">
-        <v>273.232977694994</v>
-      </c>
-      <c r="L201" t="n">
-        <v>247.881607504214</v>
-      </c>
-      <c r="M201" t="n">
-        <v>247.881607524998</v>
-      </c>
-      <c r="N201" t="n">
+      <c r="J201" t="n">
         <v>262.731295353885</v>
       </c>
+      <c r="K201"/>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -8875,19 +7057,10 @@
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202"/>
-      <c r="K202" t="n">
-        <v>273.405124207045</v>
-      </c>
-      <c r="L202" t="n">
-        <v>247.930769965079</v>
-      </c>
-      <c r="M202" t="n">
-        <v>247.930769981615</v>
-      </c>
-      <c r="N202" t="n">
+      <c r="J202" t="n">
         <v>262.731295353885</v>
       </c>
+      <c r="K202"/>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -8915,19 +7088,10 @@
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203"/>
-      <c r="K203" t="n">
-        <v>273.577555011134</v>
-      </c>
-      <c r="L203" t="n">
-        <v>247.957580178591</v>
-      </c>
-      <c r="M203" t="n">
-        <v>247.957580191747</v>
-      </c>
-      <c r="N203" t="n">
+      <c r="J203" t="n">
         <v>262.731295353885</v>
       </c>
+      <c r="K203"/>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -8955,19 +7119,10 @@
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204"/>
-      <c r="K204" t="n">
-        <v>273.750270565921</v>
-      </c>
-      <c r="L204" t="n">
-        <v>247.96658647169</v>
-      </c>
-      <c r="M204" t="n">
-        <v>247.966586482157</v>
-      </c>
-      <c r="N204" t="n">
+      <c r="J204" t="n">
         <v>262.731295353885</v>
       </c>
+      <c r="K204"/>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -8995,19 +7150,10 @@
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205"/>
-      <c r="K205" t="n">
-        <v>273.923271406508</v>
-      </c>
-      <c r="L205" t="n">
-        <v>247.961407486458</v>
-      </c>
-      <c r="M205" t="n">
-        <v>247.961407494785</v>
-      </c>
-      <c r="N205" t="n">
+      <c r="J205" t="n">
         <v>262.731295353885</v>
       </c>
+      <c r="K205"/>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -9035,19 +7181,10 @@
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206"/>
-      <c r="K206" t="n">
-        <v>277.85384467052</v>
-      </c>
-      <c r="L206" t="n">
-        <v>248.59587132365</v>
-      </c>
-      <c r="M206" t="n">
-        <v>248.595871330275</v>
-      </c>
-      <c r="N206" t="n">
+      <c r="J206" t="n">
         <v>266.11862081967</v>
       </c>
+      <c r="K206"/>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -9075,19 +7212,10 @@
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207"/>
-      <c r="K207" t="n">
-        <v>278.027417458683</v>
-      </c>
-      <c r="L207" t="n">
-        <v>249.088269860322</v>
-      </c>
-      <c r="M207" t="n">
-        <v>249.088269865593</v>
-      </c>
-      <c r="N207" t="n">
+      <c r="J207" t="n">
         <v>266.11862081967</v>
       </c>
+      <c r="K207"/>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -9115,19 +7243,10 @@
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208"/>
-      <c r="K208" t="n">
-        <v>278.201276908622</v>
-      </c>
-      <c r="L208" t="n">
-        <v>249.467619809974</v>
-      </c>
-      <c r="M208" t="n">
-        <v>249.467619814168</v>
-      </c>
-      <c r="N208" t="n">
+      <c r="J208" t="n">
         <v>266.11862081967</v>
       </c>
+      <c r="K208"/>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -9155,19 +7274,10 @@
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209"/>
-      <c r="K209" t="n">
-        <v>278.375423478996</v>
-      </c>
-      <c r="L209" t="n">
-        <v>249.757007037143</v>
-      </c>
-      <c r="M209" t="n">
-        <v>249.75700704048</v>
-      </c>
-      <c r="N209" t="n">
+      <c r="J209" t="n">
         <v>266.11862081967</v>
       </c>
+      <c r="K209"/>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -9195,19 +7305,10 @@
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210"/>
-      <c r="K210" t="n">
-        <v>278.549857704906</v>
-      </c>
-      <c r="L210" t="n">
-        <v>249.974798776594</v>
-      </c>
-      <c r="M210" t="n">
-        <v>249.974798779249</v>
-      </c>
-      <c r="N210" t="n">
+      <c r="J210" t="n">
         <v>266.11862081967</v>
       </c>
+      <c r="K210"/>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -9235,19 +7336,10 @@
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211"/>
-      <c r="K211" t="n">
-        <v>278.72457996857</v>
-      </c>
-      <c r="L211" t="n">
-        <v>250.135608099634</v>
-      </c>
-      <c r="M211" t="n">
-        <v>250.135608101746</v>
-      </c>
-      <c r="N211" t="n">
+      <c r="J211" t="n">
         <v>266.11862081967</v>
       </c>
+      <c r="K211"/>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -9275,19 +7367,10 @@
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212"/>
-      <c r="K212" t="n">
-        <v>278.899590881531</v>
-      </c>
-      <c r="L212" t="n">
-        <v>250.25106122288</v>
-      </c>
-      <c r="M212" t="n">
-        <v>250.25106122456</v>
-      </c>
-      <c r="N212" t="n">
+      <c r="J212" t="n">
         <v>266.11862081967</v>
       </c>
+      <c r="K212"/>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -9315,19 +7398,10 @@
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213"/>
-      <c r="K213" t="n">
-        <v>279.074890749563</v>
-      </c>
-      <c r="L213" t="n">
-        <v>250.33040802259</v>
-      </c>
-      <c r="M213" t="n">
-        <v>250.330408023927</v>
-      </c>
-      <c r="N213" t="n">
+      <c r="J213" t="n">
         <v>266.11862081967</v>
       </c>
+      <c r="K213"/>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -9355,19 +7429,10 @@
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214"/>
-      <c r="K214" t="n">
-        <v>279.25048018421</v>
-      </c>
-      <c r="L214" t="n">
-        <v>250.381007720435</v>
-      </c>
-      <c r="M214" t="n">
-        <v>250.381007721499</v>
-      </c>
-      <c r="N214" t="n">
+      <c r="J214" t="n">
         <v>266.11862081967</v>
       </c>
+      <c r="K214"/>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -9395,19 +7460,10 @@
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215"/>
-      <c r="K215" t="n">
-        <v>279.426359644132</v>
-      </c>
-      <c r="L215" t="n">
-        <v>250.408715331173</v>
-      </c>
-      <c r="M215" t="n">
-        <v>250.40871533202</v>
-      </c>
-      <c r="N215" t="n">
+      <c r="J215" t="n">
         <v>266.11862081967</v>
       </c>
+      <c r="K215"/>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -9435,19 +7491,10 @@
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216"/>
-      <c r="K216" t="n">
-        <v>279.602529511544</v>
-      </c>
-      <c r="L216" t="n">
-        <v>250.418189117631</v>
-      </c>
-      <c r="M216" t="n">
-        <v>250.418189118304</v>
-      </c>
-      <c r="N216" t="n">
+      <c r="J216" t="n">
         <v>266.11862081967</v>
       </c>
+      <c r="K216"/>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -9475,19 +7522,10 @@
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217"/>
-      <c r="K217" t="n">
-        <v>279.778990397991</v>
-      </c>
-      <c r="L217" t="n">
-        <v>250.413135182182</v>
-      </c>
-      <c r="M217" t="n">
-        <v>250.413135182718</v>
-      </c>
-      <c r="N217" t="n">
+      <c r="J217" t="n">
         <v>266.11862081967</v>
       </c>
+      <c r="K217"/>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -9515,19 +7553,10 @@
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218"/>
-      <c r="K218" t="n">
-        <v>283.795689677151</v>
-      </c>
-      <c r="L218" t="n">
-        <v>251.061772096345</v>
-      </c>
-      <c r="M218" t="n">
-        <v>251.061772096771</v>
-      </c>
-      <c r="N218" t="n">
+      <c r="J218" t="n">
         <v>269.580467445703</v>
       </c>
+      <c r="K218"/>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -9555,19 +7584,10 @@
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219"/>
-      <c r="K219" t="n">
-        <v>283.972733901202</v>
-      </c>
-      <c r="L219" t="n">
-        <v>251.565199126857</v>
-      </c>
-      <c r="M219" t="n">
-        <v>251.565199127196</v>
-      </c>
-      <c r="N219" t="n">
+      <c r="J219" t="n">
         <v>269.580467445703</v>
       </c>
+      <c r="K219"/>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -9595,19 +7615,10 @@
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220"/>
-      <c r="K220" t="n">
-        <v>284.150070520264</v>
-      </c>
-      <c r="L220" t="n">
-        <v>251.953075309241</v>
-      </c>
-      <c r="M220" t="n">
-        <v>251.953075309511</v>
-      </c>
-      <c r="N220" t="n">
+      <c r="J220" t="n">
         <v>269.580467445703</v>
       </c>
+      <c r="K220"/>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -9635,19 +7646,10 @@
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221"/>
-      <c r="K221" t="n">
-        <v>284.32770006944</v>
-      </c>
-      <c r="L221" t="n">
-        <v>252.248997538408</v>
-      </c>
-      <c r="M221" t="n">
-        <v>252.248997538622</v>
-      </c>
-      <c r="N221" t="n">
+      <c r="J221" t="n">
         <v>269.580467445703</v>
       </c>
+      <c r="K221"/>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -9675,19 +7677,10 @@
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222"/>
-      <c r="K222" t="n">
-        <v>284.505622930946</v>
-      </c>
-      <c r="L222" t="n">
-        <v>252.47173963932</v>
-      </c>
-      <c r="M222" t="n">
-        <v>252.471739639491</v>
-      </c>
-      <c r="N222" t="n">
+      <c r="J222" t="n">
         <v>269.580467445703</v>
       </c>
+      <c r="K222"/>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -9715,19 +7708,10 @@
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223"/>
-      <c r="K223" t="n">
-        <v>284.683839639882</v>
-      </c>
-      <c r="L223" t="n">
-        <v>252.636238158339</v>
-      </c>
-      <c r="M223" t="n">
-        <v>252.636238158475</v>
-      </c>
-      <c r="N223" t="n">
+      <c r="J223" t="n">
         <v>269.580467445703</v>
       </c>
+      <c r="K223"/>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -9755,19 +7739,10 @@
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224"/>
-      <c r="K224" t="n">
-        <v>284.862350731353</v>
-      </c>
-      <c r="L224" t="n">
-        <v>252.754376676519</v>
-      </c>
-      <c r="M224" t="n">
-        <v>252.754376676627</v>
-      </c>
-      <c r="N224" t="n">
+      <c r="J224" t="n">
         <v>269.580467445703</v>
       </c>
+      <c r="K224"/>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -9795,19 +7770,10 @@
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225"/>
-      <c r="K225" t="n">
-        <v>285.041156664015</v>
-      </c>
-      <c r="L225" t="n">
-        <v>252.83560982013</v>
-      </c>
-      <c r="M225" t="n">
-        <v>252.835609820216</v>
-      </c>
-      <c r="N225" t="n">
+      <c r="J225" t="n">
         <v>269.580467445703</v>
       </c>
+      <c r="K225"/>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -9835,19 +7801,10 @@
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226"/>
-      <c r="K226" t="n">
-        <v>285.220257896528</v>
-      </c>
-      <c r="L226" t="n">
-        <v>252.887459722271</v>
-      </c>
-      <c r="M226" t="n">
-        <v>252.88745972234</v>
-      </c>
-      <c r="N226" t="n">
+      <c r="J226" t="n">
         <v>269.580467445703</v>
       </c>
+      <c r="K226"/>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -9875,19 +7832,10 @@
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227"/>
-      <c r="K227" t="n">
-        <v>285.399654887552</v>
-      </c>
-      <c r="L227" t="n">
-        <v>252.915911011158</v>
-      </c>
-      <c r="M227" t="n">
-        <v>252.915911011212</v>
-      </c>
-      <c r="N227" t="n">
+      <c r="J227" t="n">
         <v>269.580467445703</v>
       </c>
+      <c r="K227"/>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -9915,19 +7863,10 @@
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228"/>
-      <c r="K228" t="n">
-        <v>285.579348172187</v>
-      </c>
-      <c r="L228" t="n">
-        <v>252.925725060066</v>
-      </c>
-      <c r="M228" t="n">
-        <v>252.925725060109</v>
-      </c>
-      <c r="N228" t="n">
+      <c r="J228" t="n">
         <v>269.580467445703</v>
       </c>
+      <c r="K228"/>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -9955,19 +7894,10 @@
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229"/>
-      <c r="K229" t="n">
-        <v>285.759338285536</v>
-      </c>
-      <c r="L229" t="n">
-        <v>252.920690012208</v>
-      </c>
-      <c r="M229" t="n">
-        <v>252.920690012242</v>
-      </c>
-      <c r="N229" t="n">
+      <c r="J229" t="n">
         <v>269.580467445703</v>
       </c>
+      <c r="K229"/>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -9995,19 +7925,10 @@
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230"/>
-      <c r="K230" t="n">
-        <v>289.86405141166</v>
-      </c>
-      <c r="L230" t="n">
-        <v>253.583725647722</v>
-      </c>
-      <c r="M230" t="n">
-        <v>253.583725647749</v>
-      </c>
-      <c r="N230" t="n">
+      <c r="J230" t="n">
         <v>273.118474697509</v>
       </c>
+      <c r="K230"/>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -10035,19 +7956,10 @@
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231"/>
-      <c r="K231" t="n">
-        <v>290.044636558414</v>
-      </c>
-      <c r="L231" t="n">
-        <v>254.098355738074</v>
-      </c>
-      <c r="M231" t="n">
-        <v>254.098355738096</v>
-      </c>
-      <c r="N231" t="n">
+      <c r="J231" t="n">
         <v>273.118474697509</v>
       </c>
+      <c r="K231"/>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -10075,19 +7987,10 @@
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232"/>
-      <c r="K232" t="n">
-        <v>290.225519909857</v>
-      </c>
-      <c r="L232" t="n">
-        <v>254.494892075426</v>
-      </c>
-      <c r="M232" t="n">
-        <v>254.494892075443</v>
-      </c>
-      <c r="N232" t="n">
+      <c r="J232" t="n">
         <v>273.118474697509</v>
       </c>
+      <c r="K232"/>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -10115,19 +8018,10 @@
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233"/>
-      <c r="K233" t="n">
-        <v>290.406702001093</v>
-      </c>
-      <c r="L233" t="n">
-        <v>254.797450892366</v>
-      </c>
-      <c r="M233" t="n">
-        <v>254.79745089238</v>
-      </c>
-      <c r="N233" t="n">
+      <c r="J233" t="n">
         <v>273.118474697509</v>
       </c>
+      <c r="K233"/>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -10155,19 +8049,10 @@
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234"/>
-      <c r="K234" t="n">
-        <v>290.588183367224</v>
-      </c>
-      <c r="L234" t="n">
-        <v>255.025219191587</v>
-      </c>
-      <c r="M234" t="n">
-        <v>255.025219191598</v>
-      </c>
-      <c r="N234" t="n">
+      <c r="J234" t="n">
         <v>273.118474697509</v>
       </c>
+      <c r="K234"/>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -10195,19 +8080,10 @@
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235"/>
-      <c r="K235" t="n">
-        <v>290.769964466907</v>
-      </c>
-      <c r="L235" t="n">
-        <v>255.193462251952</v>
-      </c>
-      <c r="M235" t="n">
-        <v>255.193462251961</v>
-      </c>
-      <c r="N235" t="n">
+      <c r="J235" t="n">
         <v>273.118474697509</v>
       </c>
+      <c r="K235"/>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -10235,19 +8111,10 @@
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236"/>
-      <c r="K236" t="n">
-        <v>290.952045758803</v>
-      </c>
-      <c r="L236" t="n">
-        <v>255.314325201817</v>
-      </c>
-      <c r="M236" t="n">
-        <v>255.314325201824</v>
-      </c>
-      <c r="N236" t="n">
+      <c r="J236" t="n">
         <v>273.118474697509</v>
       </c>
+      <c r="K236"/>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -10275,19 +8142,10 @@
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237"/>
-      <c r="K237" t="n">
-        <v>291.134427778012</v>
-      </c>
-      <c r="L237" t="n">
-        <v>255.397470750831</v>
-      </c>
-      <c r="M237" t="n">
-        <v>255.397470750837</v>
-      </c>
-      <c r="N237" t="n">
+      <c r="J237" t="n">
         <v>273.118474697509</v>
       </c>
+      <c r="K237"/>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -10315,19 +8173,10 @@
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238"/>
-      <c r="K238" t="n">
-        <v>291.317110983194</v>
-      </c>
-      <c r="L238" t="n">
-        <v>255.450586584666</v>
-      </c>
-      <c r="M238" t="n">
-        <v>255.45058658467</v>
-      </c>
-      <c r="N238" t="n">
+      <c r="J238" t="n">
         <v>273.118474697509</v>
       </c>
+      <c r="K238"/>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -10355,19 +8204,10 @@
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239"/>
-      <c r="K239" t="n">
-        <v>291.500095985895</v>
-      </c>
-      <c r="L239" t="n">
-        <v>255.479789035393</v>
-      </c>
-      <c r="M239" t="n">
-        <v>255.479789035396</v>
-      </c>
-      <c r="N239" t="n">
+      <c r="J239" t="n">
         <v>273.118474697509</v>
       </c>
+      <c r="K239"/>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -10395,19 +8235,10 @@
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240"/>
-      <c r="K240" t="n">
-        <v>291.683383091886</v>
-      </c>
-      <c r="L240" t="n">
-        <v>255.489944277149</v>
-      </c>
-      <c r="M240" t="n">
-        <v>255.489944277152</v>
-      </c>
-      <c r="N240" t="n">
+      <c r="J240" t="n">
         <v>273.118474697509</v>
       </c>
+      <c r="K240"/>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -10435,19 +8266,10 @@
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241"/>
-      <c r="K241" t="n">
-        <v>291.866972989155</v>
-      </c>
-      <c r="L241" t="n">
-        <v>255.484923822526</v>
-      </c>
-      <c r="M241" t="n">
-        <v>255.484923822529</v>
-      </c>
-      <c r="N241" t="n">
+      <c r="J241" t="n">
         <v>273.118474697509</v>
       </c>
+      <c r="K241"/>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -10475,19 +8297,10 @@
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242"/>
-      <c r="K242" t="n">
-        <v>296.061629333094</v>
-      </c>
-      <c r="L242" t="n">
-        <v>256.162671710323</v>
-      </c>
-      <c r="M242" t="n">
-        <v>256.162671710325</v>
-      </c>
-      <c r="N242" t="n">
+      <c r="J242" t="n">
         <v>276.734318108854</v>
       </c>
+      <c r="K242"/>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -10515,19 +8328,10 @@
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243"/>
-      <c r="K243" t="n">
-        <v>296.245826112454</v>
-      </c>
-      <c r="L243" t="n">
-        <v>256.68874926239</v>
-      </c>
-      <c r="M243" t="n">
-        <v>256.688749262392</v>
-      </c>
-      <c r="N243" t="n">
+      <c r="J243" t="n">
         <v>276.734318108854</v>
       </c>
+      <c r="K243"/>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -10555,19 +8359,10 @@
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244"/>
-      <c r="K244" t="n">
-        <v>296.430327135513</v>
-      </c>
-      <c r="L244" t="n">
-        <v>257.094135140664</v>
-      </c>
-      <c r="M244" t="n">
-        <v>257.094135140665</v>
-      </c>
-      <c r="N244" t="n">
+      <c r="J244" t="n">
         <v>276.734318108854</v>
       </c>
+      <c r="K244"/>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -10595,19 +8390,10 @@
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245"/>
-      <c r="K245" t="n">
-        <v>296.615132937373</v>
-      </c>
-      <c r="L245" t="n">
-        <v>257.403476143924</v>
-      </c>
-      <c r="M245" t="n">
-        <v>257.403476143925</v>
-      </c>
-      <c r="N245" t="n">
+      <c r="J245" t="n">
         <v>276.734318108854</v>
       </c>
+      <c r="K245"/>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -10635,19 +8421,10 @@
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246"/>
-      <c r="K246" t="n">
-        <v>296.800243900249</v>
-      </c>
-      <c r="L246" t="n">
-        <v>257.636381407892</v>
-      </c>
-      <c r="M246" t="n">
-        <v>257.636381407892</v>
-      </c>
-      <c r="N246" t="n">
+      <c r="J246" t="n">
         <v>276.734318108854</v>
       </c>
+      <c r="K246"/>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -10675,19 +8452,10 @@
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247"/>
-      <c r="K247" t="n">
-        <v>296.985660559242</v>
-      </c>
-      <c r="L247" t="n">
-        <v>257.808452057921</v>
-      </c>
-      <c r="M247" t="n">
-        <v>257.808452057921</v>
-      </c>
-      <c r="N247" t="n">
+      <c r="J247" t="n">
         <v>276.734318108854</v>
       </c>
+      <c r="K247"/>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -10715,19 +8483,10 @@
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248"/>
-      <c r="K248" t="n">
-        <v>297.171383525899</v>
-      </c>
-      <c r="L248" t="n">
-        <v>257.932100413241</v>
-      </c>
-      <c r="M248" t="n">
-        <v>257.932100413242</v>
-      </c>
-      <c r="N248" t="n">
+      <c r="J248" t="n">
         <v>276.734318108854</v>
       </c>
+      <c r="K248"/>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -10755,19 +8514,10 @@
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249"/>
-      <c r="K249" t="n">
-        <v>297.357413182435</v>
-      </c>
-      <c r="L249" t="n">
-        <v>258.017201773314</v>
-      </c>
-      <c r="M249" t="n">
-        <v>258.017201773314</v>
-      </c>
-      <c r="N249" t="n">
+      <c r="J249" t="n">
         <v>276.734318108854</v>
       </c>
+      <c r="K249"/>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -10795,19 +8545,10 @@
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250"/>
-      <c r="K250" t="n">
-        <v>297.543750063952</v>
-      </c>
-      <c r="L250" t="n">
-        <v>258.071612956273</v>
-      </c>
-      <c r="M250" t="n">
-        <v>258.071612956273</v>
-      </c>
-      <c r="N250" t="n">
+      <c r="J250" t="n">
         <v>276.734318108854</v>
       </c>
+      <c r="K250"/>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -10835,19 +8576,10 @@
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251"/>
-      <c r="K251" t="n">
-        <v>297.730394705552</v>
-      </c>
-      <c r="L251" t="n">
-        <v>258.101584862601</v>
-      </c>
-      <c r="M251" t="n">
-        <v>258.101584862601</v>
-      </c>
-      <c r="N251" t="n">
+      <c r="J251" t="n">
         <v>276.734318108854</v>
       </c>
+      <c r="K251"/>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -10875,19 +8607,10 @@
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252"/>
-      <c r="K252" t="n">
-        <v>297.917347642337</v>
-      </c>
-      <c r="L252" t="n">
-        <v>258.112090713622</v>
-      </c>
-      <c r="M252" t="n">
-        <v>258.112090713622</v>
-      </c>
-      <c r="N252" t="n">
+      <c r="J252" t="n">
         <v>276.734318108854</v>
       </c>
+      <c r="K252"/>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -10915,19 +8638,10 @@
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253"/>
-      <c r="K253" t="n">
-        <v>298.104609332965</v>
-      </c>
-      <c r="L253" t="n">
-        <v>258.107087205776</v>
-      </c>
-      <c r="M253" t="n">
-        <v>258.107087205776</v>
-      </c>
-      <c r="N253" t="n">
+      <c r="J253" t="n">
         <v>276.734318108854</v>
       </c>
+      <c r="K253"/>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -10955,19 +8669,10 @@
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254"/>
-      <c r="K254" t="n">
-        <v>302.391180280168</v>
-      </c>
-      <c r="L254" t="n">
-        <v>258.799873147409</v>
-      </c>
-      <c r="M254" t="n">
-        <v>258.799873147409</v>
-      </c>
-      <c r="N254" t="n">
+      <c r="J254" t="n">
         <v>280.429710075249</v>
       </c>
+      <c r="K254"/>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -10995,19 +8700,10 @@
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255"/>
-      <c r="K255" t="n">
-        <v>302.579061007347</v>
-      </c>
-      <c r="L255" t="n">
-        <v>259.337652211109</v>
-      </c>
-      <c r="M255" t="n">
-        <v>259.337652211109</v>
-      </c>
-      <c r="N255" t="n">
+      <c r="J255" t="n">
         <v>280.429710075249</v>
       </c>
+      <c r="K255"/>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -11035,19 +8731,10 @@
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256"/>
-      <c r="K256" t="n">
-        <v>302.767252017232</v>
-      </c>
-      <c r="L256" t="n">
-        <v>259.752084594127</v>
-      </c>
-      <c r="M256" t="n">
-        <v>259.752084594127</v>
-      </c>
-      <c r="N256" t="n">
+      <c r="J256" t="n">
         <v>280.429710075249</v>
       </c>
+      <c r="K256"/>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -11075,19 +8762,10 @@
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257"/>
-      <c r="K257" t="n">
-        <v>302.955753921369</v>
-      </c>
-      <c r="L257" t="n">
-        <v>260.068359323986</v>
-      </c>
-      <c r="M257" t="n">
-        <v>260.068359323986</v>
-      </c>
-      <c r="N257" t="n">
+      <c r="J257" t="n">
         <v>280.429710075249</v>
       </c>
+      <c r="K257"/>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -11115,19 +8793,10 @@
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258"/>
-      <c r="K258" t="n">
-        <v>303.144567101973</v>
-      </c>
-      <c r="L258" t="n">
-        <v>260.306516937327</v>
-      </c>
-      <c r="M258" t="n">
-        <v>260.306516937327</v>
-      </c>
-      <c r="N258" t="n">
+      <c r="J258" t="n">
         <v>280.429710075249</v>
       </c>
+      <c r="K258"/>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -11155,19 +8824,10 @@
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259"/>
-      <c r="K259" t="n">
-        <v>303.333692094147</v>
-      </c>
-      <c r="L259" t="n">
-        <v>260.482501785054</v>
-      </c>
-      <c r="M259" t="n">
-        <v>260.482501785054</v>
-      </c>
-      <c r="N259" t="n">
+      <c r="J259" t="n">
         <v>280.429710075249</v>
       </c>
+      <c r="K259"/>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -11195,19 +8855,10 @@
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260"/>
-      <c r="K260" t="n">
-        <v>303.523129509435</v>
-      </c>
-      <c r="L260" t="n">
-        <v>260.608999259009</v>
-      </c>
-      <c r="M260" t="n">
-        <v>260.608999259009</v>
-      </c>
-      <c r="N260" t="n">
+      <c r="J260" t="n">
         <v>280.429710075249</v>
       </c>
+      <c r="K260"/>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -11235,19 +8886,10 @@
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261"/>
-      <c r="K261" t="n">
-        <v>303.712879806497</v>
-      </c>
-      <c r="L261" t="n">
-        <v>260.696101911649</v>
-      </c>
-      <c r="M261" t="n">
-        <v>260.696101911649</v>
-      </c>
-      <c r="N261" t="n">
+      <c r="J261" t="n">
         <v>280.429710075249</v>
       </c>
+      <c r="K261"/>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -11275,19 +8917,10 @@
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262"/>
-      <c r="K262" t="n">
-        <v>303.90294344399</v>
-      </c>
-      <c r="L262" t="n">
-        <v>260.751839414547</v>
-      </c>
-      <c r="M262" t="n">
-        <v>260.751839414547</v>
-      </c>
-      <c r="N262" t="n">
+      <c r="J262" t="n">
         <v>280.429710075249</v>
       </c>
+      <c r="K262"/>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -11315,19 +8948,10 @@
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263"/>
-      <c r="K263" t="n">
-        <v>304.093320957018</v>
-      </c>
-      <c r="L263" t="n">
-        <v>260.782600191569</v>
-      </c>
-      <c r="M263" t="n">
-        <v>260.782600191569</v>
-      </c>
-      <c r="N263" t="n">
+      <c r="J263" t="n">
         <v>280.429710075249</v>
       </c>
+      <c r="K263"/>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -11355,19 +8979,10 @@
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264"/>
-      <c r="K264" t="n">
-        <v>304.284012957125</v>
-      </c>
-      <c r="L264" t="n">
-        <v>260.793466873141</v>
-      </c>
-      <c r="M264" t="n">
-        <v>260.793466873141</v>
-      </c>
-      <c r="N264" t="n">
+      <c r="J264" t="n">
         <v>280.429710075249</v>
       </c>
+      <c r="K264"/>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -11395,19 +9010,10 @@
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265"/>
-      <c r="K265" t="n">
-        <v>304.475019826527</v>
-      </c>
-      <c r="L265" t="n">
-        <v>260.788483207788</v>
-      </c>
-      <c r="M265" t="n">
-        <v>260.788483207788</v>
-      </c>
-      <c r="N265" t="n">
+      <c r="J265" t="n">
         <v>280.429710075249</v>
       </c>
+      <c r="K265"/>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -11435,19 +9041,10 @@
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266"/>
-      <c r="K266" t="n">
-        <v>308.855520231831</v>
-      </c>
-      <c r="L266" t="n">
-        <v>261.496640572941</v>
-      </c>
-      <c r="M266" t="n">
-        <v>261.496640572941</v>
-      </c>
-      <c r="N266" t="n">
+      <c r="J266" t="n">
         <v>284.206400664904</v>
       </c>
+      <c r="K266"/>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -11475,19 +9072,10 @@
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267"/>
-      <c r="K267" t="n">
-        <v>309.047158598015</v>
-      </c>
-      <c r="L267" t="n">
-        <v>262.046381121266</v>
-      </c>
-      <c r="M267" t="n">
-        <v>262.046381121266</v>
-      </c>
-      <c r="N267" t="n">
+      <c r="J267" t="n">
         <v>284.206400664904</v>
       </c>
+      <c r="K267"/>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -11515,19 +9103,10 @@
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268"/>
-      <c r="K268" t="n">
-        <v>309.2391134388</v>
-      </c>
-      <c r="L268" t="n">
-        <v>262.470061576199</v>
-      </c>
-      <c r="M268" t="n">
-        <v>262.470061576199</v>
-      </c>
-      <c r="N268" t="n">
+      <c r="J268" t="n">
         <v>284.206400664904</v>
       </c>
+      <c r="K268"/>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -11555,19 +9134,10 @@
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269"/>
-      <c r="K269" t="n">
-        <v>309.431385365731</v>
-      </c>
-      <c r="L269" t="n">
-        <v>262.793425126296</v>
-      </c>
-      <c r="M269" t="n">
-        <v>262.793425126296</v>
-      </c>
-      <c r="N269" t="n">
+      <c r="J269" t="n">
         <v>284.206400664904</v>
       </c>
+      <c r="K269"/>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -11595,19 +9165,10 @@
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270"/>
-      <c r="K270" t="n">
-        <v>309.623974837467</v>
-      </c>
-      <c r="L270" t="n">
-        <v>263.036953197081</v>
-      </c>
-      <c r="M270" t="n">
-        <v>263.036953197081</v>
-      </c>
-      <c r="N270" t="n">
+      <c r="J270" t="n">
         <v>284.206400664904</v>
       </c>
+      <c r="K270"/>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -11635,19 +9196,10 @@
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271"/>
-      <c r="K271" t="n">
-        <v>309.816882312667</v>
-      </c>
-      <c r="L271" t="n">
-        <v>263.216940919148</v>
-      </c>
-      <c r="M271" t="n">
-        <v>263.216940919148</v>
-      </c>
-      <c r="N271" t="n">
+      <c r="J271" t="n">
         <v>284.206400664904</v>
       </c>
+      <c r="K271"/>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -11675,19 +9227,10 @@
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272"/>
-      <c r="K272" t="n">
-        <v>310.010108479318</v>
-      </c>
-      <c r="L272" t="n">
-        <v>263.346352761622</v>
-      </c>
-      <c r="M272" t="n">
-        <v>263.346352761622</v>
-      </c>
-      <c r="N272" t="n">
+      <c r="J272" t="n">
         <v>284.206400664904</v>
       </c>
+      <c r="K272"/>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -11715,19 +9258,10 @@
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273"/>
-      <c r="K273" t="n">
-        <v>310.203653719638</v>
-      </c>
-      <c r="L273" t="n">
-        <v>263.435503318225</v>
-      </c>
-      <c r="M273" t="n">
-        <v>263.435503318225</v>
-      </c>
-      <c r="N273" t="n">
+      <c r="J273" t="n">
         <v>284.206400664904</v>
       </c>
+      <c r="K273"/>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -11755,19 +9289,10 @@
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274"/>
-      <c r="K274" t="n">
-        <v>310.39751864517</v>
-      </c>
-      <c r="L274" t="n">
-        <v>263.492598907183</v>
-      </c>
-      <c r="M274" t="n">
-        <v>263.492598907183</v>
-      </c>
-      <c r="N274" t="n">
+      <c r="J274" t="n">
         <v>284.206400664904</v>
       </c>
+      <c r="K274"/>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -11795,19 +9320,10 @@
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275"/>
-      <c r="K275" t="n">
-        <v>310.591703714574</v>
-      </c>
-      <c r="L275" t="n">
-        <v>263.524168499109</v>
-      </c>
-      <c r="M275" t="n">
-        <v>263.524168499109</v>
-      </c>
-      <c r="N275" t="n">
+      <c r="J275" t="n">
         <v>284.206400664904</v>
       </c>
+      <c r="K275"/>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -11835,19 +9351,10 @@
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276"/>
-      <c r="K276" t="n">
-        <v>310.786209539394</v>
-      </c>
-      <c r="L276" t="n">
-        <v>263.535406544391</v>
-      </c>
-      <c r="M276" t="n">
-        <v>263.535406544391</v>
-      </c>
-      <c r="N276" t="n">
+      <c r="J276" t="n">
         <v>284.206400664904</v>
       </c>
+      <c r="K276"/>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -11875,19 +9382,10 @@
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277"/>
-      <c r="K277" t="n">
-        <v>310.98103657829</v>
-      </c>
-      <c r="L277" t="n">
-        <v>263.530445750833</v>
-      </c>
-      <c r="M277" t="n">
-        <v>263.530445750833</v>
-      </c>
-      <c r="N277" t="n">
+      <c r="J277" t="n">
         <v>284.206400664904</v>
       </c>
+      <c r="K277"/>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -11915,19 +9413,10 @@
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278"/>
-      <c r="K278" t="n">
-        <v>315.457525316372</v>
-      </c>
-      <c r="L278" t="n">
-        <v>264.254315306822</v>
-      </c>
-      <c r="M278" t="n">
-        <v>264.254315306822</v>
-      </c>
-      <c r="N278" t="n">
+      <c r="J278" t="n">
         <v>288.066178447532</v>
       </c>
+      <c r="K278"/>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -11955,19 +9444,10 @@
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279"/>
-      <c r="K279" t="n">
-        <v>315.652996465168</v>
-      </c>
-      <c r="L279" t="n">
-        <v>264.816283094734</v>
-      </c>
-      <c r="M279" t="n">
-        <v>264.816283094734</v>
-      </c>
-      <c r="N279" t="n">
+      <c r="J279" t="n">
         <v>288.066178447532</v>
       </c>
+      <c r="K279"/>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -11995,19 +9475,10 @@
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280"/>
-      <c r="K280" t="n">
-        <v>315.848790433346</v>
-      </c>
-      <c r="L280" t="n">
-        <v>265.249417685289</v>
-      </c>
-      <c r="M280" t="n">
-        <v>265.249417685289</v>
-      </c>
-      <c r="N280" t="n">
+      <c r="J280" t="n">
         <v>288.066178447532</v>
       </c>
+      <c r="K280"/>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -12035,19 +9506,10 @@
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281"/>
-      <c r="K281" t="n">
-        <v>316.044907756007</v>
-      </c>
-      <c r="L281" t="n">
-        <v>265.580028623102</v>
-      </c>
-      <c r="M281" t="n">
-        <v>265.580028623102</v>
-      </c>
-      <c r="N281" t="n">
+      <c r="J281" t="n">
         <v>288.066178447532</v>
       </c>
+      <c r="K281"/>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -12075,19 +9537,10 @@
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282"/>
-      <c r="K282" t="n">
-        <v>316.241348968254</v>
-      </c>
-      <c r="L282" t="n">
-        <v>265.82904792503</v>
-      </c>
-      <c r="M282" t="n">
-        <v>265.82904792503</v>
-      </c>
-      <c r="N282" t="n">
+      <c r="J282" t="n">
         <v>288.066178447532</v>
       </c>
+      <c r="K282"/>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -12115,19 +9568,10 @@
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283"/>
-      <c r="K283" t="n">
-        <v>316.438114681632</v>
-      </c>
-      <c r="L283" t="n">
-        <v>266.013129204324</v>
-      </c>
-      <c r="M283" t="n">
-        <v>266.013129204324</v>
-      </c>
-      <c r="N283" t="n">
+      <c r="J283" t="n">
         <v>288.066178447532</v>
       </c>
+      <c r="K283"/>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -12155,19 +9599,10 @@
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284"/>
-      <c r="K284" t="n">
-        <v>316.635205354799</v>
-      </c>
-      <c r="L284" t="n">
-        <v>266.145522157747</v>
-      </c>
-      <c r="M284" t="n">
-        <v>266.145522157747</v>
-      </c>
-      <c r="N284" t="n">
+      <c r="J284" t="n">
         <v>288.066178447532</v>
       </c>
+      <c r="K284"/>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -12195,19 +9630,10 @@
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285"/>
-      <c r="K285" t="n">
-        <v>316.832621522858</v>
-      </c>
-      <c r="L285" t="n">
-        <v>266.236768297187</v>
-      </c>
-      <c r="M285" t="n">
-        <v>266.236768297187</v>
-      </c>
-      <c r="N285" t="n">
+      <c r="J285" t="n">
         <v>288.066178447532</v>
       </c>
+      <c r="K285"/>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -12235,19 +9661,10 @@
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286"/>
-      <c r="K286" t="n">
-        <v>317.03036372091</v>
-      </c>
-      <c r="L286" t="n">
-        <v>266.295254483981</v>
-      </c>
-      <c r="M286" t="n">
-        <v>266.295254483981</v>
-      </c>
-      <c r="N286" t="n">
+      <c r="J286" t="n">
         <v>288.066178447532</v>
       </c>
+      <c r="K286"/>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -12275,19 +9692,10 @@
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287"/>
-      <c r="K287" t="n">
-        <v>317.228432484058</v>
-      </c>
-      <c r="L287" t="n">
-        <v>266.327653324633</v>
-      </c>
-      <c r="M287" t="n">
-        <v>266.327653324633</v>
-      </c>
-      <c r="N287" t="n">
+      <c r="J287" t="n">
         <v>288.066178447532</v>
       </c>
+      <c r="K287"/>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -12315,19 +9723,10 @@
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288"/>
-      <c r="K288" t="n">
-        <v>317.426828423846</v>
-      </c>
-      <c r="L288" t="n">
-        <v>266.339273547233</v>
-      </c>
-      <c r="M288" t="n">
-        <v>266.339273547233</v>
-      </c>
-      <c r="N288" t="n">
+      <c r="J288" t="n">
         <v>288.066178447532</v>
       </c>
+      <c r="K288"/>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -12355,19 +9754,10 @@
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289"/>
-      <c r="K289" t="n">
-        <v>317.625552075376</v>
-      </c>
-      <c r="L289" t="n">
-        <v>266.334338774259</v>
-      </c>
-      <c r="M289" t="n">
-        <v>266.334338774259</v>
-      </c>
-      <c r="N289" t="n">
+      <c r="J289" t="n">
         <v>288.066178447532</v>
       </c>
+      <c r="K289"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.Data/tempdata.xlsx
+++ b/1.Data/tempdata.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">year</t>
   </si>
@@ -41,10 +41,19 @@
     <t xml:space="preserve">gdp_less_1</t>
   </si>
   <si>
-    <t xml:space="preserve">model</t>
+    <t xml:space="preserve">err</t>
   </si>
   <si>
-    <t xml:space="preserve">err</t>
+    <t xml:space="preserve">Algorithm 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithm 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithm 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithm 1</t>
   </si>
 </sst>
 </file>
@@ -410,6 +419,15 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -419,31 +437,40 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>111.15619047619</v>
+        <v>111.370873235031</v>
       </c>
       <c r="D2" t="n">
-        <v>1.28945340920919</v>
+        <v>1.37644289076506</v>
       </c>
       <c r="E2" t="n">
-        <v>116.46</v>
+        <v>123.069767808923</v>
       </c>
       <c r="F2" t="n">
-        <v>1.94361731025613</v>
+        <v>2.05403644639639</v>
       </c>
       <c r="G2" t="n">
-        <v>8.2425</v>
+        <v>8.21656081887824</v>
       </c>
       <c r="H2" t="n">
-        <v>359.6271375</v>
+        <v>376.745437902663</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>428.989241494285</v>
+        <v>0.148177402081191</v>
       </c>
       <c r="K2" t="n">
-        <v>0.192872274535415</v>
+        <v>405.333867241373</v>
+      </c>
+      <c r="L2" t="n">
+        <v>399.003871899436</v>
+      </c>
+      <c r="M2" t="n">
+        <v>381.556622489238</v>
+      </c>
+      <c r="N2" t="n">
+        <v>432.57059813702</v>
       </c>
     </row>
     <row r="3">
@@ -454,31 +481,40 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>119.702380952381</v>
+        <v>125.668559254674</v>
       </c>
       <c r="D3" t="n">
-        <v>1.32124992060122</v>
+        <v>1.28186950310027</v>
       </c>
       <c r="E3" t="n">
-        <v>117.02</v>
+        <v>122.864472490235</v>
       </c>
       <c r="F3" t="n">
-        <v>1.88481087516663</v>
+        <v>1.96257446540429</v>
       </c>
       <c r="G3" t="n">
-        <v>9.1</v>
+        <v>8.83052816250362</v>
       </c>
       <c r="H3" t="n">
-        <v>376.22136875</v>
+        <v>376.827087698649</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>458.099651878571</v>
+        <v>0.21577447058742</v>
       </c>
       <c r="K3" t="n">
-        <v>0.217633260440822</v>
+        <v>437.320386195379</v>
+      </c>
+      <c r="L3" t="n">
+        <v>418.604749915531</v>
+      </c>
+      <c r="M3" t="n">
+        <v>400.478833417286</v>
+      </c>
+      <c r="N3" t="n">
+        <v>458.136753049824</v>
       </c>
     </row>
     <row r="4">
@@ -489,31 +525,40 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>124.928636363636</v>
+        <v>118.398860087051</v>
       </c>
       <c r="D4" t="n">
-        <v>1.32179594236881</v>
+        <v>1.22039718368561</v>
       </c>
       <c r="E4" t="n">
-        <v>107.46</v>
+        <v>106.008016270199</v>
       </c>
       <c r="F4" t="n">
-        <v>1.82600444007713</v>
+        <v>1.89709927354809</v>
       </c>
       <c r="G4" t="n">
-        <v>9.48</v>
+        <v>9.46182370198891</v>
       </c>
       <c r="H4" t="n">
-        <v>386.14925</v>
+        <v>378.901320691738</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>465.731020969545</v>
+        <v>0.214686291783081</v>
       </c>
       <c r="K4" t="n">
-        <v>0.206090704486789</v>
+        <v>449.995702795078</v>
+      </c>
+      <c r="L4" t="n">
+        <v>433.234004644509</v>
+      </c>
+      <c r="M4" t="n">
+        <v>407.412185206578</v>
+      </c>
+      <c r="N4" t="n">
+        <v>460.246240182759</v>
       </c>
     </row>
     <row r="5">
@@ -524,31 +569,40 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>120.4635</v>
+        <v>121.322217430153</v>
       </c>
       <c r="D5" t="n">
-        <v>1.31618096674676</v>
+        <v>1.23622503909414</v>
       </c>
       <c r="E5" t="n">
-        <v>103.59</v>
+        <v>97.0997106329282</v>
       </c>
       <c r="F5" t="n">
-        <v>1.74378085286223</v>
+        <v>1.81673791471238</v>
       </c>
       <c r="G5" t="n">
-        <v>9.4775</v>
+        <v>10.3952170906577</v>
       </c>
       <c r="H5" t="n">
-        <v>403.1772375</v>
+        <v>405.961700639677</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>460.4426859485</v>
+        <v>0.187223533299493</v>
       </c>
       <c r="K5" t="n">
-        <v>0.14203542046071</v>
+        <v>447.186398463372</v>
+      </c>
+      <c r="L5" t="n">
+        <v>442.789084890856</v>
+      </c>
+      <c r="M5" t="n">
+        <v>418.87571377923</v>
+      </c>
+      <c r="N5" t="n">
+        <v>481.967284617708</v>
       </c>
     </row>
     <row r="6">
@@ -559,31 +613,40 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>110.521739130435</v>
+        <v>119.544369436967</v>
       </c>
       <c r="D6" t="n">
-        <v>1.28042617397904</v>
+        <v>1.39543544893587</v>
       </c>
       <c r="E6" t="n">
-        <v>95.83</v>
+        <v>93.9650173833598</v>
       </c>
       <c r="F6" t="n">
-        <v>1.66155726564733</v>
+        <v>1.63110889144954</v>
       </c>
       <c r="G6" t="n">
-        <v>9.246</v>
+        <v>8.80687358103544</v>
       </c>
       <c r="H6" t="n">
-        <v>403.75115625</v>
+        <v>440.62942093395</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>443.034804970435</v>
+        <v>0.0116466153726908</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0972966841390561</v>
+        <v>433.799001208146</v>
+      </c>
+      <c r="L6" t="n">
+        <v>444.933992605201</v>
+      </c>
+      <c r="M6" t="n">
+        <v>413.875147542657</v>
+      </c>
+      <c r="N6" t="n">
+        <v>435.497579546441</v>
       </c>
     </row>
     <row r="7">
@@ -594,31 +657,40 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>95.5890476190476</v>
+        <v>103.111743829611</v>
       </c>
       <c r="D7" t="n">
-        <v>1.25212240064324</v>
+        <v>1.33095483463274</v>
       </c>
       <c r="E7" t="n">
-        <v>87.19</v>
+        <v>88.9056631866414</v>
       </c>
       <c r="F7" t="n">
-        <v>1.57933367843243</v>
+        <v>1.55123636041482</v>
       </c>
       <c r="G7" t="n">
-        <v>8.6375</v>
+        <v>7.8713428494829</v>
       </c>
       <c r="H7" t="n">
-        <v>372.22662</v>
+        <v>348.696962356721</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>411.660120998571</v>
+        <v>0.137103568096055</v>
       </c>
       <c r="K7" t="n">
-        <v>0.105939497284131</v>
+        <v>405.455594010189</v>
+      </c>
+      <c r="L7" t="n">
+        <v>438.26148130886</v>
+      </c>
+      <c r="M7" t="n">
+        <v>380.414994516049</v>
+      </c>
+      <c r="N7" t="n">
+        <v>396.504560080083</v>
       </c>
     </row>
     <row r="8">
@@ -629,31 +701,40 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>103.140909090909</v>
+        <v>94.7483903348989</v>
       </c>
       <c r="D8" t="n">
-        <v>1.23035702971676</v>
+        <v>1.20178220605928</v>
       </c>
       <c r="E8" t="n">
-        <v>88.24</v>
+        <v>80.7015787023269</v>
       </c>
       <c r="F8" t="n">
-        <v>1.55752684787293</v>
+        <v>1.54848087970002</v>
       </c>
       <c r="G8" t="n">
-        <v>8.73</v>
+        <v>8.70999835627712</v>
       </c>
       <c r="H8" t="n">
-        <v>351.068475</v>
+        <v>369.252506658475</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>419.560363513636</v>
+        <v>0.107741302732789</v>
       </c>
       <c r="K8" t="n">
-        <v>0.195095525206689</v>
+        <v>412.445830354208</v>
+      </c>
+      <c r="L8" t="n">
+        <v>434.834428605101</v>
+      </c>
+      <c r="M8" t="n">
+        <v>365.46307179293</v>
+      </c>
+      <c r="N8" t="n">
+        <v>409.036252763207</v>
       </c>
     </row>
     <row r="9">
@@ -664,31 +745,40 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>113.34</v>
+        <v>104.571437823052</v>
       </c>
       <c r="D9" t="n">
-        <v>1.23815485795614</v>
+        <v>1.21741554436037</v>
       </c>
       <c r="E9" t="n">
-        <v>91</v>
+        <v>89.9695677244104</v>
       </c>
       <c r="F9" t="n">
-        <v>1.53572001731344</v>
+        <v>1.40975611684775</v>
       </c>
       <c r="G9" t="n">
-        <v>8.85</v>
+        <v>8.33443062588572</v>
       </c>
       <c r="H9" t="n">
-        <v>357.85056</v>
+        <v>345.666957670224</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>430.93917474</v>
+        <v>0.188238512794463</v>
       </c>
       <c r="K9" t="n">
-        <v>0.204243399088156</v>
+        <v>421.58711812997</v>
+      </c>
+      <c r="L9" t="n">
+        <v>435.135548458475</v>
+      </c>
+      <c r="M9" t="n">
+        <v>373.886651971657</v>
+      </c>
+      <c r="N9" t="n">
+        <v>410.734791704254</v>
       </c>
     </row>
     <row r="10">
@@ -699,31 +789,40 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>113.3825</v>
+        <v>116.348233962812</v>
       </c>
       <c r="D10" t="n">
-        <v>1.28417168834087</v>
+        <v>1.23725110578774</v>
       </c>
       <c r="E10" t="n">
-        <v>88.96</v>
+        <v>89.3274700337052</v>
       </c>
       <c r="F10" t="n">
-        <v>1.51391318675394</v>
+        <v>1.53938665220507</v>
       </c>
       <c r="G10" t="n">
-        <v>9.58</v>
+        <v>8.94076798828412</v>
       </c>
       <c r="H10" t="n">
-        <v>382.12528125</v>
+        <v>371.521726563412</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>449.6246142575</v>
+        <v>0.16882681839958</v>
       </c>
       <c r="K10" t="n">
-        <v>0.176641892906687</v>
+        <v>444.797971176248</v>
+      </c>
+      <c r="L10" t="n">
+        <v>438.316753859564</v>
+      </c>
+      <c r="M10" t="n">
+        <v>396.141419925867</v>
+      </c>
+      <c r="N10" t="n">
+        <v>434.244557625432</v>
       </c>
     </row>
     <row r="11">
@@ -734,31 +833,40 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>111.97347826087</v>
+        <v>111.015691746014</v>
       </c>
       <c r="D11" t="n">
-        <v>1.29644086060586</v>
+        <v>1.26709233384617</v>
       </c>
       <c r="E11" t="n">
-        <v>81.85</v>
+        <v>87.6665758427815</v>
       </c>
       <c r="F11" t="n">
-        <v>1.38704508985128</v>
+        <v>1.51182125115636</v>
       </c>
       <c r="G11" t="n">
-        <v>10.1125</v>
+        <v>9.44357603481039</v>
       </c>
       <c r="H11" t="n">
-        <v>410.8926625</v>
+        <v>389.724295284869</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>458.82117499087</v>
+        <v>0.13825976205849</v>
       </c>
       <c r="K11" t="n">
-        <v>0.116644848801285</v>
+        <v>460.004755860796</v>
+      </c>
+      <c r="L11" t="n">
+        <v>440.679239067443</v>
+      </c>
+      <c r="M11" t="n">
+        <v>418.860442956491</v>
+      </c>
+      <c r="N11" t="n">
+        <v>443.607483619368</v>
       </c>
     </row>
     <row r="12">
@@ -769,31 +877,40 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>109.711818181818</v>
+        <v>106.041745612469</v>
       </c>
       <c r="D12" t="n">
-        <v>1.28342852071292</v>
+        <v>1.35479657928551</v>
       </c>
       <c r="E12" t="n">
-        <v>85.89</v>
+        <v>89.978491292357</v>
       </c>
       <c r="F12" t="n">
-        <v>1.26017699294861</v>
+        <v>1.17914113190113</v>
       </c>
       <c r="G12" t="n">
-        <v>10.29</v>
+        <v>9.6599282190674</v>
       </c>
       <c r="H12" t="n">
-        <v>427.02757</v>
+        <v>454.856786950607</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>464.798648557273</v>
+        <v>0.0153670639356719</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0884511474452869</v>
+        <v>466.06447209836</v>
+      </c>
+      <c r="L12" t="n">
+        <v>444.66487985013</v>
+      </c>
+      <c r="M12" t="n">
+        <v>433.803517843588</v>
+      </c>
+      <c r="N12" t="n">
+        <v>447.866973623963</v>
       </c>
     </row>
     <row r="13">
@@ -804,31 +921,40 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>109.6765</v>
+        <v>113.694805145724</v>
       </c>
       <c r="D13" t="n">
-        <v>1.3110953849636</v>
+        <v>1.34237385324434</v>
       </c>
       <c r="E13" t="n">
-        <v>92.88</v>
+        <v>91.449509160284</v>
       </c>
       <c r="F13" t="n">
-        <v>1.13330889604595</v>
+        <v>1.0225951976864</v>
       </c>
       <c r="G13" t="n">
-        <v>10.5625</v>
+        <v>10.2143610463623</v>
       </c>
       <c r="H13" t="n">
-        <v>431.716616666667</v>
+        <v>406.157130153769</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>476.6155863915</v>
+        <v>0.154020917684248</v>
       </c>
       <c r="K13" t="n">
-        <v>0.10400102287353</v>
+        <v>476.482669798385</v>
+      </c>
+      <c r="L13" t="n">
+        <v>451.841530051201</v>
+      </c>
+      <c r="M13" t="n">
+        <v>441.539802640819</v>
+      </c>
+      <c r="N13" t="n">
+        <v>468.713824064053</v>
       </c>
     </row>
     <row r="14">
@@ -839,31 +965,40 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>112.973636363636</v>
+        <v>116.220838361996</v>
       </c>
       <c r="D14" t="n">
-        <v>1.33242974109691</v>
+        <v>1.37215041853538</v>
       </c>
       <c r="E14" t="n">
-        <v>92.77</v>
+        <v>96.3418589343033</v>
       </c>
       <c r="F14" t="n">
-        <v>1.14321460248121</v>
+        <v>1.21117368309197</v>
       </c>
       <c r="G14" t="n">
-        <v>10.36</v>
+        <v>9.41894401018321</v>
       </c>
       <c r="H14" t="n">
-        <v>423.9896875</v>
+        <v>419.094909761481</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>473.072460764545</v>
+        <v>0.0776505617886258</v>
       </c>
       <c r="K14" t="n">
-        <v>0.115764073305545</v>
+        <v>471.05741190093</v>
+      </c>
+      <c r="L14" t="n">
+        <v>456.927465175358</v>
+      </c>
+      <c r="M14" t="n">
+        <v>434.768347267991</v>
+      </c>
+      <c r="N14" t="n">
+        <v>451.637864947213</v>
       </c>
     </row>
     <row r="15">
@@ -874,31 +1009,40 @@
         <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>116.5195</v>
+        <v>124.281899567633</v>
       </c>
       <c r="D15" t="n">
-        <v>1.33865507742874</v>
+        <v>1.25092995770731</v>
       </c>
       <c r="E15" t="n">
-        <v>94.94</v>
+        <v>104.075591012143</v>
       </c>
       <c r="F15" t="n">
-        <v>1.15312030891647</v>
+        <v>1.19156442260057</v>
       </c>
       <c r="G15" t="n">
-        <v>10.08</v>
+        <v>10.2085712968558</v>
       </c>
       <c r="H15" t="n">
-        <v>446.5117625</v>
+        <v>434.135552723485</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>469.0010552645</v>
+        <v>0.112790598163414</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0503666300716994</v>
+        <v>463.901818068824</v>
+      </c>
+      <c r="L15" t="n">
+        <v>460.846467374375</v>
+      </c>
+      <c r="M15" t="n">
+        <v>452.559662533833</v>
+      </c>
+      <c r="N15" t="n">
+        <v>483.101961399171</v>
       </c>
     </row>
     <row r="16">
@@ -909,31 +1053,40 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>109.24</v>
+        <v>118.529676671486</v>
       </c>
       <c r="D16" t="n">
-        <v>1.2965747351266</v>
+        <v>1.17969748882147</v>
       </c>
       <c r="E16" t="n">
-        <v>90.98</v>
+        <v>86.7127679638471</v>
       </c>
       <c r="F16" t="n">
-        <v>1.16302601535173</v>
+        <v>1.0741066274455</v>
       </c>
       <c r="G16" t="n">
-        <v>10.1725</v>
+        <v>9.45417537085991</v>
       </c>
       <c r="H16" t="n">
-        <v>441.01218</v>
+        <v>402.048937614277</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>464.49479434</v>
+        <v>0.114259560759568</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0532470879602465</v>
+        <v>463.342863026497</v>
+      </c>
+      <c r="L16" t="n">
+        <v>461.944666011089</v>
+      </c>
+      <c r="M16" t="n">
+        <v>446.164370264788</v>
+      </c>
+      <c r="N16" t="n">
+        <v>447.986872629935</v>
       </c>
     </row>
     <row r="17">
@@ -944,31 +1097,40 @@
         <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>102.875454545455</v>
+        <v>107.037615480886</v>
       </c>
       <c r="D17" t="n">
-        <v>1.30080003462069</v>
+        <v>1.33014506310706</v>
       </c>
       <c r="E17" t="n">
-        <v>87.76</v>
+        <v>92.0904179349989</v>
       </c>
       <c r="F17" t="n">
-        <v>1.26114546310179</v>
+        <v>1.28417040849347</v>
       </c>
       <c r="G17" t="n">
-        <v>10.345</v>
+        <v>9.74977300747111</v>
       </c>
       <c r="H17" t="n">
-        <v>458.29545</v>
+        <v>499.18809497616</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>463.210228211819</v>
+        <v>0.093987380391332</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0107240388527063</v>
+        <v>465.48805385514</v>
+      </c>
+      <c r="L17" t="n">
+        <v>461.612040133293</v>
+      </c>
+      <c r="M17" t="n">
+        <v>458.70869872202</v>
+      </c>
+      <c r="N17" t="n">
+        <v>452.270713606811</v>
       </c>
     </row>
     <row r="18">
@@ -979,31 +1141,40 @@
         <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>103.026956521739</v>
+        <v>93.3559608814247</v>
       </c>
       <c r="D18" t="n">
-        <v>1.29599812388292</v>
+        <v>1.27507403429307</v>
       </c>
       <c r="E18" t="n">
-        <v>87.71</v>
+        <v>85.259365287614</v>
       </c>
       <c r="F18" t="n">
-        <v>1.35926491085185</v>
+        <v>1.43796124716444</v>
       </c>
       <c r="G18" t="n">
-        <v>10.036</v>
+        <v>10.9912576424653</v>
       </c>
       <c r="H18" t="n">
-        <v>454.97385</v>
+        <v>478.667950910275</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>454.832317101739</v>
+        <v>0.0111084674860672</v>
       </c>
       <c r="K18" t="n">
-        <v>0.000311079193366814</v>
+        <v>455.481109671395</v>
+      </c>
+      <c r="L18" t="n">
+        <v>459.774059305578</v>
+      </c>
+      <c r="M18" t="n">
+        <v>454.492669480659</v>
+      </c>
+      <c r="N18" t="n">
+        <v>473.350683540966</v>
       </c>
     </row>
     <row r="19">
@@ -1014,31 +1185,40 @@
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>103.11</v>
+        <v>95.2042173520261</v>
       </c>
       <c r="D19" t="n">
-        <v>1.3193602052329</v>
+        <v>1.32262921569386</v>
       </c>
       <c r="E19" t="n">
-        <v>82.7543194620071</v>
+        <v>90.1478279335203</v>
       </c>
       <c r="F19" t="n">
-        <v>1.45738435860191</v>
+        <v>1.58578929028086</v>
       </c>
       <c r="G19" t="n">
-        <v>10.07</v>
+        <v>9.97632119217562</v>
       </c>
       <c r="H19" t="n">
-        <v>452.44875</v>
+        <v>430.061626976912</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>452.696997914932</v>
+        <v>0.0460189416880215</v>
       </c>
       <c r="K19" t="n">
-        <v>0.000548676319542585</v>
+        <v>455.281030437977</v>
+      </c>
+      <c r="L19" t="n">
+        <v>456.627196705224</v>
+      </c>
+      <c r="M19" t="n">
+        <v>450.799130130747</v>
+      </c>
+      <c r="N19" t="n">
+        <v>449.852607911018</v>
       </c>
     </row>
     <row r="20">
@@ -1049,31 +1229,40 @@
         <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>107.716086956522</v>
+        <v>100.707484305537</v>
       </c>
       <c r="D20" t="n">
-        <v>1.30772257149181</v>
+        <v>1.30402678192316</v>
       </c>
       <c r="E20" t="n">
-        <v>77.2592108288309</v>
+        <v>75.7372286908652</v>
       </c>
       <c r="F20" t="n">
-        <v>1.59183744744634</v>
+        <v>1.66511578795511</v>
       </c>
       <c r="G20" t="n">
-        <v>9.985</v>
+        <v>10.0718301793165</v>
       </c>
       <c r="H20" t="n">
-        <v>478.17549375</v>
+        <v>440.488109604262</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>449.794637547258</v>
+        <v>0.014409881116096</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0593523854185227</v>
+        <v>453.426805305791</v>
+      </c>
+      <c r="L20" t="n">
+        <v>452.242490482544</v>
+      </c>
+      <c r="M20" t="n">
+        <v>469.386464176504</v>
+      </c>
+      <c r="N20" t="n">
+        <v>446.835490896713</v>
       </c>
     </row>
     <row r="21">
@@ -1084,31 +1273,40 @@
         <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>110.964545454545</v>
+        <v>117.087931608069</v>
       </c>
       <c r="D21" t="n">
-        <v>1.33140411733142</v>
+        <v>1.41627839527551</v>
       </c>
       <c r="E21" t="n">
-        <v>76.96</v>
+        <v>80.2846986846775</v>
       </c>
       <c r="F21" t="n">
-        <v>1.72629053629078</v>
+        <v>1.69373796781152</v>
       </c>
       <c r="G21" t="n">
-        <v>10.044</v>
+        <v>9.98871042247955</v>
       </c>
       <c r="H21" t="n">
-        <v>485.5538</v>
+        <v>462.52391548571</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>453.245621588182</v>
+        <v>0.0105433301765431</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0665388231166525</v>
+        <v>456.581680429644</v>
+      </c>
+      <c r="L21" t="n">
+        <v>449.37712651188</v>
+      </c>
+      <c r="M21" t="n">
+        <v>475.879833967917</v>
+      </c>
+      <c r="N21" t="n">
+        <v>457.647373130197</v>
       </c>
     </row>
     <row r="22">
@@ -1119,31 +1317,40 @@
         <v>9</v>
       </c>
       <c r="C22" t="n">
-        <v>111.621428571429</v>
+        <v>107.131214829431</v>
       </c>
       <c r="D22" t="n">
-        <v>1.33403484674122</v>
+        <v>1.40801094987813</v>
       </c>
       <c r="E22" t="n">
-        <v>77.6125</v>
+        <v>71.7031714751414</v>
       </c>
       <c r="F22" t="n">
-        <v>1.86074362513521</v>
+        <v>1.68870169603023</v>
       </c>
       <c r="G22" t="n">
-        <v>10.3275</v>
+        <v>10.6841016711979</v>
       </c>
       <c r="H22" t="n">
-        <v>495.4801875</v>
+        <v>464.644431392019</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>461.810293007143</v>
+        <v>0.000837831755456042</v>
       </c>
       <c r="K22" t="n">
-        <v>0.067954068280191</v>
+        <v>466.481139832568</v>
+      </c>
+      <c r="L22" t="n">
+        <v>448.862789422667</v>
+      </c>
+      <c r="M22" t="n">
+        <v>485.54270251812</v>
+      </c>
+      <c r="N22" t="n">
+        <v>465.033725251635</v>
       </c>
     </row>
     <row r="23">
@@ -1154,31 +1361,40 @@
         <v>10</v>
       </c>
       <c r="C23" t="n">
-        <v>109.478695652174</v>
+        <v>106.684920360375</v>
       </c>
       <c r="D23" t="n">
-        <v>1.36296071657827</v>
+        <v>1.32563792126991</v>
       </c>
       <c r="E23" t="n">
-        <v>79.4125</v>
+        <v>82.5920667318261</v>
       </c>
       <c r="F23" t="n">
-        <v>2.08044982554345</v>
+        <v>2.22606210740248</v>
       </c>
       <c r="G23" t="n">
-        <v>10.738</v>
+        <v>10.6523223561835</v>
       </c>
       <c r="H23" t="n">
-        <v>518.0301125</v>
+        <v>557.538147367645</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>472.818484842174</v>
+        <v>0.155692630552575</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0872760609217017</v>
+        <v>479.328246986678</v>
+      </c>
+      <c r="L23" t="n">
+        <v>450.916478600967</v>
+      </c>
+      <c r="M23" t="n">
+        <v>505.946477589003</v>
+      </c>
+      <c r="N23" t="n">
+        <v>470.733566570567</v>
       </c>
     </row>
     <row r="24">
@@ -1189,31 +1405,40 @@
         <v>11</v>
       </c>
       <c r="C24" t="n">
-        <v>108.07619047619</v>
+        <v>111.30587207353</v>
       </c>
       <c r="D24" t="n">
-        <v>1.35066091003443</v>
+        <v>1.41936134759957</v>
       </c>
       <c r="E24" t="n">
-        <v>82.25</v>
+        <v>78.9243327204487</v>
       </c>
       <c r="F24" t="n">
-        <v>2.30015602595169</v>
+        <v>2.20988844000371</v>
       </c>
       <c r="G24" t="n">
-        <v>10.91</v>
+        <v>11.6510116429203</v>
       </c>
       <c r="H24" t="n">
-        <v>530.197715</v>
+        <v>520.901897414127</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>478.425837714285</v>
+        <v>0.0428277064557331</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0976463606330604</v>
+        <v>485.357733502365</v>
+      </c>
+      <c r="L24" t="n">
+        <v>454.288171481088</v>
+      </c>
+      <c r="M24" t="n">
+        <v>517.364869619763</v>
+      </c>
+      <c r="N24" t="n">
+        <v>498.59286385944</v>
       </c>
     </row>
     <row r="25">
@@ -1224,31 +1449,40 @@
         <v>12</v>
       </c>
       <c r="C25" t="n">
-        <v>110.674</v>
+        <v>112.576742696324</v>
       </c>
       <c r="D25" t="n">
-        <v>1.36951377232217</v>
+        <v>1.24979793757064</v>
       </c>
       <c r="E25" t="n">
-        <v>84.3375</v>
+        <v>75.9263861884904</v>
       </c>
       <c r="F25" t="n">
-        <v>2.51986222635993</v>
+        <v>2.53835282094663</v>
       </c>
       <c r="G25" t="n">
-        <v>11.2866666666667</v>
+        <v>11.9027976013012</v>
       </c>
       <c r="H25" t="n">
-        <v>537.705316666667</v>
+        <v>492.982649492692</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>491.649189447334</v>
+        <v>0.0231174206760127</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0856530999262626</v>
+        <v>499.394501502267</v>
+      </c>
+      <c r="L25" t="n">
+        <v>460.011343979765</v>
+      </c>
+      <c r="M25" t="n">
+        <v>526.378599683</v>
+      </c>
+      <c r="N25" t="n">
+        <v>504.37913678699</v>
       </c>
     </row>
     <row r="26">
@@ -1259,31 +1493,40 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>107.42</v>
+        <v>114.184355004434</v>
       </c>
       <c r="D26" t="n">
-        <v>1.36332324021673</v>
+        <v>1.33852335158658</v>
       </c>
       <c r="E26" t="n">
-        <v>81.61</v>
+        <v>78.4315991644659</v>
       </c>
       <c r="F26" t="n">
-        <v>2.59157382160382</v>
+        <v>2.82369372427273</v>
       </c>
       <c r="G26" t="n">
-        <v>10.714</v>
+        <v>11.6036174321903</v>
       </c>
       <c r="H26" t="n">
-        <v>532.24483</v>
+        <v>580.764021240732</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>472.25971658</v>
+        <v>0.141157426600645</v>
       </c>
       <c r="K26" t="n">
-        <v>0.11270210632201</v>
+        <v>478.629878584809</v>
+      </c>
+      <c r="L26" t="n">
+        <v>460.177041560771</v>
+      </c>
+      <c r="M26" t="n">
+        <v>517.646500920238</v>
+      </c>
+      <c r="N26" t="n">
+        <v>498.784866540148</v>
       </c>
     </row>
     <row r="27">
@@ -1294,31 +1537,40 @@
         <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>108.81</v>
+        <v>111.47765318131</v>
       </c>
       <c r="D27" t="n">
-        <v>1.36301698520082</v>
+        <v>1.26173581544375</v>
       </c>
       <c r="E27" t="n">
-        <v>76.29</v>
+        <v>83.3005282362923</v>
       </c>
       <c r="F27" t="n">
-        <v>2.66328541684771</v>
+        <v>2.5514104617153</v>
       </c>
       <c r="G27" t="n">
-        <v>9.6975</v>
+        <v>8.78179310372332</v>
       </c>
       <c r="H27" t="n">
-        <v>541.933384375</v>
+        <v>580.713306057532</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>442.01425321</v>
+        <v>0.271460606860398</v>
       </c>
       <c r="K27" t="n">
-        <v>0.184375301551563</v>
+        <v>444.577077581569</v>
+      </c>
+      <c r="L27" t="n">
+        <v>453.324844306887</v>
+      </c>
+      <c r="M27" t="n">
+        <v>518.37075418948</v>
+      </c>
+      <c r="N27" t="n">
+        <v>423.072519583247</v>
       </c>
     </row>
     <row r="28">
@@ -1329,31 +1581,40 @@
         <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>107.4</v>
+        <v>110.541252662363</v>
       </c>
       <c r="D28" t="n">
-        <v>1.38211007087117</v>
+        <v>1.32086989692509</v>
       </c>
       <c r="E28" t="n">
-        <v>73.34</v>
+        <v>75.8582916510124</v>
       </c>
       <c r="F28" t="n">
-        <v>2.73499701209159</v>
+        <v>2.94190680009661</v>
       </c>
       <c r="G28" t="n">
-        <v>9.4575</v>
+        <v>8.61076802340976</v>
       </c>
       <c r="H28" t="n">
-        <v>524.04735625</v>
+        <v>542.213225305451</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>432.7232771</v>
+        <v>0.238054756694797</v>
       </c>
       <c r="K28" t="n">
-        <v>0.174266844514779</v>
+        <v>435.28256541332</v>
+      </c>
+      <c r="L28" t="n">
+        <v>445.342993928216</v>
+      </c>
+      <c r="M28" t="n">
+        <v>501.610311937055</v>
+      </c>
+      <c r="N28" t="n">
+        <v>413.136787878661</v>
       </c>
     </row>
     <row r="29">
@@ -1364,31 +1625,40 @@
         <v>4</v>
       </c>
       <c r="C29" t="n">
-        <v>107.79</v>
+        <v>101.226118124344</v>
       </c>
       <c r="D29" t="n">
-        <v>1.380527404527</v>
+        <v>1.33310148185806</v>
       </c>
       <c r="E29" t="n">
-        <v>72.82</v>
+        <v>73.1929500611983</v>
       </c>
       <c r="F29" t="n">
-        <v>2.78222737076019</v>
+        <v>2.59100045713935</v>
       </c>
       <c r="G29" t="n">
-        <v>8.5025</v>
+        <v>9.04957533496211</v>
       </c>
       <c r="H29" t="n">
-        <v>469.051525</v>
+        <v>449.012086248905</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>406.55176099</v>
+        <v>0.0698819314611704</v>
       </c>
       <c r="K29" t="n">
-        <v>0.133247118235038</v>
+        <v>403.992823302102</v>
+      </c>
+      <c r="L29" t="n">
+        <v>433.989696086981</v>
+      </c>
+      <c r="M29" t="n">
+        <v>452.852366822834</v>
+      </c>
+      <c r="N29" t="n">
+        <v>417.634254412422</v>
       </c>
     </row>
     <row r="30">
@@ -1399,31 +1669,40 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>109.68</v>
+        <v>120.195686869361</v>
       </c>
       <c r="D30" t="n">
-        <v>1.37171596763391</v>
+        <v>1.32915260317857</v>
       </c>
       <c r="E30" t="n">
-        <v>73.69</v>
+        <v>67.6778091547936</v>
       </c>
       <c r="F30" t="n">
-        <v>2.82945772942879</v>
+        <v>2.6769915984286</v>
       </c>
       <c r="G30" t="n">
-        <v>7.914</v>
+        <v>7.98490409018341</v>
       </c>
       <c r="H30" t="n">
-        <v>402.2864</v>
+        <v>398.094709841987</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>392.20215624</v>
+        <v>0.0029463310930179</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0250673245727422</v>
+        <v>385.887877305231</v>
+      </c>
+      <c r="L30" t="n">
+        <v>422.54000880632</v>
+      </c>
+      <c r="M30" t="n">
+        <v>397.316647919078</v>
+      </c>
+      <c r="N30" t="n">
+        <v>396.921791020414</v>
       </c>
     </row>
     <row r="31">
@@ -1434,31 +1713,40 @@
         <v>6</v>
       </c>
       <c r="C31" t="n">
-        <v>111.87</v>
+        <v>106.130183344508</v>
       </c>
       <c r="D31" t="n">
-        <v>1.3603501180353</v>
+        <v>1.30845874203917</v>
       </c>
       <c r="E31" t="n">
-        <v>71.48</v>
+        <v>69.5623162000198</v>
       </c>
       <c r="F31" t="n">
-        <v>2.87668808809739</v>
+        <v>2.89467348003955</v>
       </c>
       <c r="G31" t="n">
-        <v>7.0625</v>
+        <v>7.40745188685541</v>
       </c>
       <c r="H31" t="n">
-        <v>371.900175</v>
+        <v>335.173310126367</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>368.91876987</v>
+        <v>0.114509558150956</v>
       </c>
       <c r="K31" t="n">
-        <v>0.00801668116988652</v>
+        <v>358.524268070312</v>
+      </c>
+      <c r="L31" t="n">
+        <v>408.560372884546</v>
+      </c>
+      <c r="M31" t="n">
+        <v>368.270972064444</v>
+      </c>
+      <c r="N31" t="n">
+        <v>373.553857772931</v>
       </c>
     </row>
     <row r="32">
@@ -1469,31 +1757,40 @@
         <v>7</v>
       </c>
       <c r="C32" t="n">
-        <v>106.98</v>
+        <v>107.968795742235</v>
       </c>
       <c r="D32" t="n">
-        <v>1.35586095956524</v>
+        <v>1.40446453981644</v>
       </c>
       <c r="E32" t="n">
-        <v>68.75</v>
+        <v>66.0739673298667</v>
       </c>
       <c r="F32" t="n">
-        <v>2.93572125913781</v>
+        <v>2.80483450006397</v>
       </c>
       <c r="G32" t="n">
-        <v>6.594</v>
+        <v>6.38824295206564</v>
       </c>
       <c r="H32" t="n">
-        <v>365.4538375</v>
+        <v>367.219216555255</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>351.35222534</v>
+        <v>0.061416093877448</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0385865756848155</v>
+        <v>340.481365555983</v>
+      </c>
+      <c r="L32" t="n">
+        <v>393.354160398142</v>
+      </c>
+      <c r="M32" t="n">
+        <v>359.058303726963</v>
+      </c>
+      <c r="N32" t="n">
+        <v>344.666046677695</v>
       </c>
     </row>
     <row r="33">
@@ -1504,31 +1801,40 @@
         <v>8</v>
       </c>
       <c r="C33" t="n">
-        <v>101.92</v>
+        <v>96.2223967651725</v>
       </c>
       <c r="D33" t="n">
-        <v>1.33248659575698</v>
+        <v>1.25320596347076</v>
       </c>
       <c r="E33" t="n">
-        <v>68.94</v>
+        <v>70.8030936834086</v>
       </c>
       <c r="F33" t="n">
-        <v>2.99475443017823</v>
+        <v>2.83817070467087</v>
       </c>
       <c r="G33" t="n">
-        <v>7.0125</v>
+        <v>7.48802334453037</v>
       </c>
       <c r="H33" t="n">
-        <v>375.93203</v>
+        <v>347.788392437664</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>359.74595302</v>
+        <v>0.0648757932495045</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0430558603373061</v>
+        <v>352.574017844779</v>
+      </c>
+      <c r="L33" t="n">
+        <v>382.747043617776</v>
+      </c>
+      <c r="M33" t="n">
+        <v>368.885876587974</v>
+      </c>
+      <c r="N33" t="n">
+        <v>370.351440280027</v>
       </c>
     </row>
     <row r="34">
@@ -1539,31 +1845,40 @@
         <v>9</v>
       </c>
       <c r="C34" t="n">
-        <v>97.34</v>
+        <v>90.2452426451016</v>
       </c>
       <c r="D34" t="n">
-        <v>1.29240465259052</v>
+        <v>1.27229757145856</v>
       </c>
       <c r="E34" t="n">
-        <v>65.94</v>
+        <v>72.3445792614687</v>
       </c>
       <c r="F34" t="n">
-        <v>3.05378760121864</v>
+        <v>3.2800294799695</v>
       </c>
       <c r="G34" t="n">
-        <v>8.205</v>
+        <v>8.6509841539585</v>
       </c>
       <c r="H34" t="n">
-        <v>406.48823125</v>
+        <v>396.492279550554</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>387.57705334</v>
+        <v>0.00723054963767544</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0465233097938552</v>
+        <v>389.867896348568</v>
+      </c>
+      <c r="L34" t="n">
+        <v>378.590543288056</v>
+      </c>
+      <c r="M34" t="n">
+        <v>397.479195848267</v>
+      </c>
+      <c r="N34" t="n">
+        <v>399.359136658799</v>
       </c>
     </row>
     <row r="35">
@@ -1574,31 +1889,40 @@
         <v>10</v>
       </c>
       <c r="C35" t="n">
-        <v>87.27</v>
+        <v>93.5124215825088</v>
       </c>
       <c r="D35" t="n">
-        <v>1.26853045960041</v>
+        <v>1.14561351694903</v>
       </c>
       <c r="E35" t="n">
-        <v>63.71</v>
+        <v>63.6024343082551</v>
       </c>
       <c r="F35" t="n">
-        <v>3.06789932798895</v>
+        <v>2.87344186272498</v>
       </c>
       <c r="G35" t="n">
-        <v>8.5</v>
+        <v>8.70218992535956</v>
       </c>
       <c r="H35" t="n">
-        <v>411.50738</v>
+        <v>373.047890557975</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>387.94870657</v>
+        <v>0.065011539575573</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0572496984865739</v>
+        <v>395.099321610278</v>
+      </c>
+      <c r="L35" t="n">
+        <v>374.555905386433</v>
+      </c>
+      <c r="M35" t="n">
+        <v>400.744767559433</v>
+      </c>
+      <c r="N35" t="n">
+        <v>397.300308258569</v>
       </c>
     </row>
     <row r="36">
@@ -1609,31 +1933,40 @@
         <v>11</v>
       </c>
       <c r="C36" t="n">
-        <v>78.44</v>
+        <v>76.0557472702004</v>
       </c>
       <c r="D36" t="n">
-        <v>1.24813654669757</v>
+        <v>1.35917052099265</v>
       </c>
       <c r="E36" t="n">
-        <v>62.55</v>
+        <v>58.8726557369228</v>
       </c>
       <c r="F36" t="n">
-        <v>3.08201105475925</v>
+        <v>3.26804474644017</v>
       </c>
       <c r="G36" t="n">
-        <v>8.425</v>
+        <v>7.84983649956528</v>
       </c>
       <c r="H36" t="n">
-        <v>387.9138375</v>
+        <v>394.586367329821</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>379.65965184</v>
+        <v>0.0872782312216847</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0212783996394559</v>
+        <v>388.878601407687</v>
+      </c>
+      <c r="L36" t="n">
+        <v>369.311644506379</v>
+      </c>
+      <c r="M36" t="n">
+        <v>379.939307367785</v>
+      </c>
+      <c r="N36" t="n">
+        <v>360.147567125084</v>
       </c>
     </row>
     <row r="37">
@@ -1644,31 +1977,40 @@
         <v>12</v>
       </c>
       <c r="C37" t="n">
-        <v>62.33</v>
+        <v>60.7702781271567</v>
       </c>
       <c r="D37" t="n">
-        <v>1.23279999081493</v>
+        <v>1.25009331968815</v>
       </c>
       <c r="E37" t="n">
-        <v>62.44</v>
+        <v>67.3586185220592</v>
       </c>
       <c r="F37" t="n">
-        <v>3.09612278152956</v>
+        <v>3.21027131943203</v>
       </c>
       <c r="G37" t="n">
-        <v>8.3625</v>
+        <v>7.7017351335485</v>
       </c>
       <c r="H37" t="n">
-        <v>375.1706875</v>
+        <v>369.930036949854</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>367.82873253</v>
+        <v>0.0487453952234058</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0195696391392517</v>
+        <v>380.049402788686</v>
+      </c>
+      <c r="L37" t="n">
+        <v>362.574206839266</v>
+      </c>
+      <c r="M37" t="n">
+        <v>367.235701829456</v>
+      </c>
+      <c r="N37" t="n">
+        <v>351.897651093724</v>
       </c>
     </row>
     <row r="38">
@@ -1679,31 +2021,40 @@
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>48.07</v>
+        <v>50.1761184792262</v>
       </c>
       <c r="D38" t="n">
-        <v>1.15716241302786</v>
+        <v>1.20672947142261</v>
       </c>
       <c r="E38" t="n">
-        <v>62.1</v>
+        <v>57.8891421150835</v>
       </c>
       <c r="F38" t="n">
-        <v>3.20483027333727</v>
+        <v>3.05224299236885</v>
       </c>
       <c r="G38" t="n">
-        <v>6.8075</v>
+        <v>6.33948375178012</v>
       </c>
       <c r="H38" t="n">
-        <v>320.0692625</v>
+        <v>294.525276055759</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>316.23682307</v>
+        <v>0.025782057302103</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0119737815498605</v>
+        <v>323.387796734259</v>
+      </c>
+      <c r="L38" t="n">
+        <v>347.231372313176</v>
+      </c>
+      <c r="M38" t="n">
+        <v>313.414145624192</v>
+      </c>
+      <c r="N38" t="n">
+        <v>302.118743599946</v>
       </c>
     </row>
     <row r="39">
@@ -1714,31 +2065,40 @@
         <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>57.93</v>
+        <v>58.9301653079996</v>
       </c>
       <c r="D39" t="n">
-        <v>1.13603677322678</v>
+        <v>1.15603506353802</v>
       </c>
       <c r="E39" t="n">
-        <v>61.4</v>
+        <v>63.0466661153827</v>
       </c>
       <c r="F39" t="n">
-        <v>3.31353776514498</v>
+        <v>3.20354214531507</v>
       </c>
       <c r="G39" t="n">
-        <v>7.2775</v>
+        <v>7.52357755467272</v>
       </c>
       <c r="H39" t="n">
-        <v>332.076975</v>
+        <v>300.37385841296</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>334.78952833</v>
+        <v>0.142480446600843</v>
       </c>
       <c r="K39" t="n">
-        <v>0.00816844748119006</v>
+        <v>343.559469433644</v>
+      </c>
+      <c r="L39" t="n">
+        <v>338.468979257864</v>
+      </c>
+      <c r="M39" t="n">
+        <v>326.412036301202</v>
+      </c>
+      <c r="N39" t="n">
+        <v>343.171259906857</v>
       </c>
     </row>
     <row r="40">
@@ -1749,31 +2109,40 @@
         <v>3</v>
       </c>
       <c r="C40" t="n">
-        <v>55.79</v>
+        <v>53.4566583761936</v>
       </c>
       <c r="D40" t="n">
-        <v>1.08116510558968</v>
+        <v>1.00128915828963</v>
       </c>
       <c r="E40" t="n">
-        <v>60.115</v>
+        <v>63.0520380038039</v>
       </c>
       <c r="F40" t="n">
-        <v>3.42224525695269</v>
+        <v>3.11885314889673</v>
       </c>
       <c r="G40" t="n">
-        <v>6.9075</v>
+        <v>6.91350911979843</v>
       </c>
       <c r="H40" t="n">
-        <v>335.977275</v>
+        <v>351.094025308229</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>322.53859539</v>
+        <v>0.0797531358866844</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0399987755421851</v>
+        <v>330.939424998388</v>
+      </c>
+      <c r="L40" t="n">
+        <v>328.822915838192</v>
+      </c>
+      <c r="M40" t="n">
+        <v>326.840498756134</v>
+      </c>
+      <c r="N40" t="n">
+        <v>323.093175798819</v>
       </c>
     </row>
     <row r="41">
@@ -1784,31 +2153,40 @@
         <v>4</v>
       </c>
       <c r="C41" t="n">
-        <v>59.39</v>
+        <v>60.2410947331805</v>
       </c>
       <c r="D41" t="n">
-        <v>1.0775772178982</v>
+        <v>1.07033990666561</v>
       </c>
       <c r="E41" t="n">
-        <v>57.8142857142857</v>
+        <v>52.1118641924419</v>
       </c>
       <c r="F41" t="n">
-        <v>3.4125454996046</v>
+        <v>3.28511710830109</v>
       </c>
       <c r="G41" t="n">
-        <v>6.79</v>
+        <v>6.30110770662641</v>
       </c>
       <c r="H41" t="n">
-        <v>343.3527375</v>
+        <v>362.658404726578</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>320.129022175714</v>
+        <v>0.162518907230597</v>
       </c>
       <c r="K41" t="n">
-        <v>0.067638066594083</v>
+        <v>328.368324933841</v>
+      </c>
+      <c r="L41" t="n">
+        <v>320.159223171843</v>
+      </c>
+      <c r="M41" t="n">
+        <v>331.719249435281</v>
+      </c>
+      <c r="N41" t="n">
+        <v>303.719557092423</v>
       </c>
     </row>
     <row r="42">
@@ -1819,31 +2197,40 @@
         <v>5</v>
       </c>
       <c r="C42" t="n">
-        <v>64.56</v>
+        <v>67.1737257209569</v>
       </c>
       <c r="D42" t="n">
-        <v>1.11585237283569</v>
+        <v>1.0869088753992</v>
       </c>
       <c r="E42" t="n">
-        <v>60.3973684210526</v>
+        <v>61.6926914008747</v>
       </c>
       <c r="F42" t="n">
-        <v>3.4028457422565</v>
+        <v>3.08975257702715</v>
       </c>
       <c r="G42" t="n">
-        <v>6.695</v>
+        <v>6.14805870410567</v>
       </c>
       <c r="H42" t="n">
-        <v>356.2384025</v>
+        <v>321.384779926098</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>322.384677328421</v>
+        <v>0.0357681125906201</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0950310941605431</v>
+        <v>327.929800645496</v>
+      </c>
+      <c r="L42" t="n">
+        <v>314.4465468709</v>
+      </c>
+      <c r="M42" t="n">
+        <v>343.151390626351</v>
+      </c>
+      <c r="N42" t="n">
+        <v>309.88945293279</v>
       </c>
     </row>
     <row r="43">
@@ -1854,31 +2241,40 @@
         <v>6</v>
       </c>
       <c r="C43" t="n">
-        <v>62.34</v>
+        <v>59.1972867734833</v>
       </c>
       <c r="D43" t="n">
-        <v>1.12218492742573</v>
+        <v>1.12888130534415</v>
       </c>
       <c r="E43" t="n">
-        <v>58.8409090909091</v>
+        <v>52.9976652765424</v>
       </c>
       <c r="F43" t="n">
-        <v>3.39314598490841</v>
+        <v>3.2391550396</v>
       </c>
       <c r="G43" t="n">
-        <v>6.655</v>
+        <v>7.07412545087305</v>
       </c>
       <c r="H43" t="n">
-        <v>347.42600625</v>
+        <v>371.834428377458</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>318.92782194</v>
+        <v>0.126649530508997</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0820266295479714</v>
+        <v>325.411920126019</v>
+      </c>
+      <c r="L43" t="n">
+        <v>308.79550163989</v>
+      </c>
+      <c r="M43" t="n">
+        <v>335.034186878297</v>
+      </c>
+      <c r="N43" t="n">
+        <v>324.741772596372</v>
       </c>
     </row>
     <row r="44">
@@ -1889,31 +2285,40 @@
         <v>7</v>
       </c>
       <c r="C44" t="n">
-        <v>55.87</v>
+        <v>53.5491868939116</v>
       </c>
       <c r="D44" t="n">
-        <v>1.10162166009412</v>
+        <v>1.02646430842088</v>
       </c>
       <c r="E44" t="n">
-        <v>59.1304347826087</v>
+        <v>60.4890209086563</v>
       </c>
       <c r="F44" t="n">
-        <v>3.31252350373562</v>
+        <v>3.31943245090617</v>
       </c>
       <c r="G44" t="n">
-        <v>6.698</v>
+        <v>6.21351379060158</v>
       </c>
       <c r="H44" t="n">
-        <v>323.31087</v>
+        <v>341.70630112349</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>316.246507263913</v>
+        <v>0.114978389819172</v>
       </c>
       <c r="K44" t="n">
-        <v>0.021850062560801</v>
+        <v>324.500253417169</v>
+      </c>
+      <c r="L44" t="n">
+        <v>303.728813053792</v>
+      </c>
+      <c r="M44" t="n">
+        <v>315.277340170777</v>
+      </c>
+      <c r="N44" t="n">
+        <v>302.417460829246</v>
       </c>
     </row>
     <row r="45">
@@ -1924,31 +2329,40 @@
         <v>8</v>
       </c>
       <c r="C45" t="n">
-        <v>46.99</v>
+        <v>51.5608173541026</v>
       </c>
       <c r="D45" t="n">
-        <v>1.11267142857143</v>
+        <v>1.16522944228874</v>
       </c>
       <c r="E45" t="n">
-        <v>58.5725</v>
+        <v>55.8717450698548</v>
       </c>
       <c r="F45" t="n">
-        <v>3.23190102256283</v>
+        <v>3.16460215820541</v>
       </c>
       <c r="G45" t="n">
-        <v>6.455</v>
+        <v>6.93368893303443</v>
       </c>
       <c r="H45" t="n">
-        <v>308.22225</v>
+        <v>307.540316692786</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>303.71550519</v>
+        <v>0.033836928432583</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0146217374313501</v>
+        <v>312.511898546172</v>
+      </c>
+      <c r="L45" t="n">
+        <v>297.032818325366</v>
+      </c>
+      <c r="M45" t="n">
+        <v>300.607827731559</v>
+      </c>
+      <c r="N45" t="n">
+        <v>317.946536378854</v>
       </c>
     </row>
     <row r="46">
@@ -1959,31 +2373,40 @@
         <v>9</v>
       </c>
       <c r="C46" t="n">
-        <v>47.24</v>
+        <v>45.3546631662808</v>
       </c>
       <c r="D46" t="n">
-        <v>1.12366363636364</v>
+        <v>1.19963797540496</v>
       </c>
       <c r="E46" t="n">
-        <v>54.7454545454545</v>
+        <v>58.1168260125773</v>
       </c>
       <c r="F46" t="n">
-        <v>3.15127854139004</v>
+        <v>3.4232642995638</v>
       </c>
       <c r="G46" t="n">
-        <v>6.3</v>
+        <v>6.26872433199082</v>
       </c>
       <c r="H46" t="n">
-        <v>285.14254375</v>
+        <v>299.536942046434</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>297.23106764</v>
+        <v>0.00740180911714916</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0423946694555641</v>
+        <v>306.676056606673</v>
+      </c>
+      <c r="L46" t="n">
+        <v>289.498912701191</v>
+      </c>
+      <c r="M46" t="n">
+        <v>280.03892833304</v>
+      </c>
+      <c r="N46" t="n">
+        <v>297.319826777872</v>
       </c>
     </row>
     <row r="47">
@@ -1994,31 +2417,40 @@
         <v>10</v>
       </c>
       <c r="C47" t="n">
-        <v>48.12</v>
+        <v>48.3514836018495</v>
       </c>
       <c r="D47" t="n">
-        <v>1.1234347826087</v>
+        <v>1.04147464352519</v>
       </c>
       <c r="E47" t="n">
-        <v>52.3136363636364</v>
+        <v>55.5612019503377</v>
       </c>
       <c r="F47" t="n">
-        <v>3.10259243930964</v>
+        <v>3.30039091359426</v>
       </c>
       <c r="G47" t="n">
-        <v>6.052</v>
+        <v>5.90464670622796</v>
       </c>
       <c r="H47" t="n">
-        <v>271.17467</v>
+        <v>280.789497195933</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>289.4765798</v>
+        <v>0.0243891177633873</v>
       </c>
       <c r="K47" t="n">
-        <v>0.0674912218018002</v>
+        <v>298.506743702141</v>
+      </c>
+      <c r="L47" t="n">
+        <v>281.43580819418</v>
+      </c>
+      <c r="M47" t="n">
+        <v>266.856914398108</v>
+      </c>
+      <c r="N47" t="n">
+        <v>287.637705309767</v>
       </c>
     </row>
     <row r="48">
@@ -2029,31 +2461,40 @@
         <v>11</v>
       </c>
       <c r="C48" t="n">
-        <v>44.42</v>
+        <v>42.7916662903009</v>
       </c>
       <c r="D48" t="n">
-        <v>1.076025</v>
+        <v>1.05615479262235</v>
       </c>
       <c r="E48" t="n">
-        <v>52.5714285714286</v>
+        <v>52.5558147039797</v>
       </c>
       <c r="F48" t="n">
-        <v>3.05390633722925</v>
+        <v>2.94467848861614</v>
       </c>
       <c r="G48" t="n">
-        <v>5.525</v>
+        <v>5.89102142975549</v>
       </c>
       <c r="H48" t="n">
-        <v>243.513975</v>
+        <v>242.736392421372</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>272.933273048571</v>
+        <v>0.161366398845489</v>
       </c>
       <c r="K48" t="n">
-        <v>0.120811538839081</v>
+        <v>280.278053045814</v>
+      </c>
+      <c r="L48" t="n">
+        <v>271.919780124286</v>
+      </c>
+      <c r="M48" t="n">
+        <v>241.748908252217</v>
+      </c>
+      <c r="N48" t="n">
+        <v>281.905889935154</v>
       </c>
     </row>
     <row r="49">
@@ -2064,31 +2505,40 @@
         <v>12</v>
       </c>
       <c r="C49" t="n">
-        <v>37.72</v>
+        <v>34.9504866494183</v>
       </c>
       <c r="D49" t="n">
-        <v>1.08697826086957</v>
+        <v>1.00523459342575</v>
       </c>
       <c r="E49" t="n">
-        <v>52.1275</v>
+        <v>51.1777756731156</v>
       </c>
       <c r="F49" t="n">
-        <v>3.00522023514886</v>
+        <v>2.98350080743639</v>
       </c>
       <c r="G49" t="n">
-        <v>5.25</v>
+        <v>5.46895584646845</v>
       </c>
       <c r="H49" t="n">
-        <v>236.62155</v>
+        <v>218.089095952221</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>260.96036382</v>
+        <v>0.213338978079111</v>
       </c>
       <c r="K49" t="n">
-        <v>0.102859666923828</v>
+        <v>268.211656206139</v>
+      </c>
+      <c r="L49" t="n">
+        <v>261.861614894288</v>
+      </c>
+      <c r="M49" t="n">
+        <v>233.778099708263</v>
+      </c>
+      <c r="N49" t="n">
+        <v>264.616000812865</v>
       </c>
     </row>
     <row r="50">
@@ -2099,31 +2549,40 @@
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>30.8</v>
+        <v>27.7948773665912</v>
       </c>
       <c r="D50" t="n">
-        <v>1.08774375</v>
+        <v>1.09086653230613</v>
       </c>
       <c r="E50" t="n">
-        <v>49.815625</v>
+        <v>49.9917347310115</v>
       </c>
       <c r="F50" t="n">
-        <v>2.91231896905698</v>
+        <v>2.96800728540912</v>
       </c>
       <c r="G50" t="n">
-        <v>4.415</v>
+        <v>4.09100423798244</v>
       </c>
       <c r="H50" t="n">
-        <v>198.1587125</v>
+        <v>209.88233986988</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>232.378005775</v>
+        <v>0.0566040791477744</v>
       </c>
       <c r="K50" t="n">
-        <v>0.172686291928749</v>
+        <v>237.216934626237</v>
+      </c>
+      <c r="L50" t="n">
+        <v>247.796519556538</v>
+      </c>
+      <c r="M50" t="n">
+        <v>197.114051328394</v>
+      </c>
+      <c r="N50" t="n">
+        <v>221.762536447595</v>
       </c>
     </row>
     <row r="51">
@@ -2134,31 +2593,40 @@
         <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>33.2</v>
+        <v>31.482672838252</v>
       </c>
       <c r="D51" t="n">
-        <v>1.11146315789474</v>
+        <v>1.03879688775974</v>
       </c>
       <c r="E51" t="n">
-        <v>50.7075</v>
+        <v>52.0822784893925</v>
       </c>
       <c r="F51" t="n">
-        <v>2.8194177029651</v>
+        <v>2.82395041691959</v>
       </c>
       <c r="G51" t="n">
-        <v>4.0175</v>
+        <v>4.1894139706234</v>
       </c>
       <c r="H51" t="n">
-        <v>164.7498</v>
+        <v>158.723163971371</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>223.5780446</v>
+        <v>0.436884554460833</v>
       </c>
       <c r="K51" t="n">
-        <v>0.357076273233716</v>
+        <v>225.290224055046</v>
+      </c>
+      <c r="L51" t="n">
+        <v>235.239176971568</v>
+      </c>
+      <c r="M51" t="n">
+        <v>169.166634478541</v>
+      </c>
+      <c r="N51" t="n">
+        <v>228.066862745617</v>
       </c>
     </row>
     <row r="52">
@@ -2169,31 +2637,40 @@
         <v>3</v>
       </c>
       <c r="C52" t="n">
-        <v>39.07</v>
+        <v>35.891105809838</v>
       </c>
       <c r="D52" t="n">
-        <v>1.11022380952381</v>
+        <v>1.16948578939472</v>
       </c>
       <c r="E52" t="n">
-        <v>52.19</v>
+        <v>51.4514453602261</v>
       </c>
       <c r="F52" t="n">
-        <v>2.72651643687323</v>
+        <v>2.47086503282294</v>
       </c>
       <c r="G52" t="n">
-        <v>3.904</v>
+        <v>3.61745992614627</v>
       </c>
       <c r="H52" t="n">
-        <v>181.8716625</v>
+        <v>168.733017748838</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>225.07320613</v>
+        <v>0.273001387525879</v>
       </c>
       <c r="K52" t="n">
-        <v>0.237538619464701</v>
+        <v>224.694717508937</v>
+      </c>
+      <c r="L52" t="n">
+        <v>226.01446353517</v>
+      </c>
+      <c r="M52" t="n">
+        <v>183.554901176787</v>
+      </c>
+      <c r="N52" t="n">
+        <v>214.7973657157</v>
       </c>
     </row>
     <row r="53">
@@ -2204,31 +2681,40 @@
         <v>4</v>
       </c>
       <c r="C53" t="n">
-        <v>42.25</v>
+        <v>42.3872372215148</v>
       </c>
       <c r="D53" t="n">
-        <v>1.13380909090909</v>
+        <v>1.11506156515128</v>
       </c>
       <c r="E53" t="n">
-        <v>50.91</v>
+        <v>49.3460971960123</v>
       </c>
       <c r="F53" t="n">
-        <v>2.82657984635832</v>
+        <v>2.842016832005</v>
       </c>
       <c r="G53" t="n">
-        <v>3.9425</v>
+        <v>3.75308359955647</v>
       </c>
       <c r="H53" t="n">
-        <v>199.705155</v>
+        <v>207.051576478658</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>227.30478005</v>
+        <v>0.0684911570063473</v>
       </c>
       <c r="K53" t="n">
-        <v>0.13820186589575</v>
+        <v>226.992919232127</v>
+      </c>
+      <c r="L53" t="n">
+        <v>218.809991420133</v>
+      </c>
+      <c r="M53" t="n">
+        <v>197.878124208103</v>
+      </c>
+      <c r="N53" t="n">
+        <v>221.232778511669</v>
       </c>
     </row>
     <row r="54">
@@ -2239,31 +2725,40 @@
         <v>5</v>
       </c>
       <c r="C54" t="n">
-        <v>47.13</v>
+        <v>51.2366841626465</v>
       </c>
       <c r="D54" t="n">
-        <v>1.12945</v>
+        <v>1.20511587838196</v>
       </c>
       <c r="E54" t="n">
-        <v>51.48</v>
+        <v>55.2201928159632</v>
       </c>
       <c r="F54" t="n">
-        <v>2.92664325584342</v>
+        <v>2.75352200605064</v>
       </c>
       <c r="G54" t="n">
-        <v>4.28</v>
+        <v>4.42846579699032</v>
       </c>
       <c r="H54" t="n">
-        <v>227.51163125</v>
+        <v>224.752264495298</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>239.92840343</v>
+        <v>0.107436181751048</v>
       </c>
       <c r="K54" t="n">
-        <v>0.0545764280787733</v>
+        <v>240.684655651832</v>
+      </c>
+      <c r="L54" t="n">
+        <v>215.653883442158</v>
+      </c>
+      <c r="M54" t="n">
+        <v>222.576968108135</v>
+      </c>
+      <c r="N54" t="n">
+        <v>248.898789632574</v>
       </c>
     </row>
     <row r="55">
@@ -2274,31 +2769,40 @@
         <v>6</v>
       </c>
       <c r="C55" t="n">
-        <v>48.48</v>
+        <v>51.1862718372121</v>
       </c>
       <c r="D55" t="n">
-        <v>1.12375238095238</v>
+        <v>1.13711387631491</v>
       </c>
       <c r="E55" t="n">
-        <v>53.17</v>
+        <v>57.1602416382115</v>
       </c>
       <c r="F55" t="n">
-        <v>3.02670666532852</v>
+        <v>2.72521868226104</v>
       </c>
       <c r="G55" t="n">
-        <v>4.706</v>
+        <v>4.87510820174711</v>
       </c>
       <c r="H55" t="n">
-        <v>228.0944125</v>
+        <v>208.542452220878</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>253.47070192</v>
+        <v>0.257720846834233</v>
       </c>
       <c r="K55" t="n">
-        <v>0.111253446070276</v>
+        <v>256.030186655775</v>
+      </c>
+      <c r="L55" t="n">
+        <v>216.108633429785</v>
+      </c>
+      <c r="M55" t="n">
+        <v>226.006404096697</v>
+      </c>
+      <c r="N55" t="n">
+        <v>262.28818960813</v>
       </c>
     </row>
     <row r="56">
@@ -2309,31 +2813,40 @@
         <v>7</v>
       </c>
       <c r="C56" t="n">
-        <v>45.07</v>
+        <v>46.424867977235</v>
       </c>
       <c r="D56" t="n">
-        <v>1.1066</v>
+        <v>1.19115695076605</v>
       </c>
       <c r="E56" t="n">
-        <v>62.29</v>
+        <v>66.4375399116627</v>
       </c>
       <c r="F56" t="n">
-        <v>2.93841155121377</v>
+        <v>2.66462598305366</v>
       </c>
       <c r="G56" t="n">
-        <v>4.665</v>
+        <v>4.23821874457318</v>
       </c>
       <c r="H56" t="n">
-        <v>220.50038</v>
+        <v>203.279365082228</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>255.95676777</v>
+        <v>0.218774354646297</v>
       </c>
       <c r="K56" t="n">
-        <v>0.160799667420074</v>
+        <v>255.756666345269</v>
+      </c>
+      <c r="L56" t="n">
+        <v>219.21302921969</v>
+      </c>
+      <c r="M56" t="n">
+        <v>222.707133061825</v>
+      </c>
+      <c r="N56" t="n">
+        <v>247.751676991001</v>
       </c>
     </row>
     <row r="57">
@@ -2344,31 +2857,40 @@
         <v>8</v>
       </c>
       <c r="C57" t="n">
-        <v>46.14</v>
+        <v>44.6048139182953</v>
       </c>
       <c r="D57" t="n">
-        <v>1.12108181818182</v>
+        <v>1.09641842582332</v>
       </c>
       <c r="E57" t="n">
-        <v>67.3739130434783</v>
+        <v>60.9065308803709</v>
       </c>
       <c r="F57" t="n">
-        <v>2.85011643709902</v>
+        <v>2.61237176114273</v>
       </c>
       <c r="G57" t="n">
-        <v>4.165</v>
+        <v>4.54845016826643</v>
       </c>
       <c r="H57" t="n">
-        <v>218.345125</v>
+        <v>228.037195738149</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>246.162507705217</v>
+        <v>0.103384688782088</v>
       </c>
       <c r="K57" t="n">
-        <v>0.127400979093156</v>
+        <v>240.972438400394</v>
+      </c>
+      <c r="L57" t="n">
+        <v>221.190421330319</v>
+      </c>
+      <c r="M57" t="n">
+        <v>220.499910750953</v>
+      </c>
+      <c r="N57" t="n">
+        <v>251.612750250278</v>
       </c>
     </row>
     <row r="58">
@@ -2379,31 +2901,40 @@
         <v>9</v>
       </c>
       <c r="C58" t="n">
-        <v>46.19</v>
+        <v>46.0046477265973</v>
       </c>
       <c r="D58" t="n">
-        <v>1.12092272727273</v>
+        <v>1.13034598821604</v>
       </c>
       <c r="E58" t="n">
-        <v>72.9</v>
+        <v>66.5433226484573</v>
       </c>
       <c r="F58" t="n">
-        <v>2.76182132298427</v>
+        <v>2.608855834177</v>
       </c>
       <c r="G58" t="n">
-        <v>4.11</v>
+        <v>4.2053621001821</v>
       </c>
       <c r="H58" t="n">
-        <v>234.95507</v>
+        <v>233.045110933384</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>248.16584749</v>
+        <v>0.0584147036400358</v>
       </c>
       <c r="K58" t="n">
-        <v>0.0562268245158533</v>
+        <v>240.699476447214</v>
+      </c>
+      <c r="L58" t="n">
+        <v>224.556246842377</v>
+      </c>
+      <c r="M58" t="n">
+        <v>235.507496199191</v>
+      </c>
+      <c r="N58" t="n">
+        <v>246.658372023317</v>
       </c>
     </row>
     <row r="59">
@@ -2414,31 +2945,40 @@
         <v>10</v>
       </c>
       <c r="C59" t="n">
-        <v>49.73</v>
+        <v>52.0294817635044</v>
       </c>
       <c r="D59" t="n">
-        <v>1.10388571428571</v>
+        <v>0.995798048048381</v>
       </c>
       <c r="E59" t="n">
-        <v>93.17</v>
+        <v>93.81398149624</v>
       </c>
       <c r="F59" t="n">
-        <v>2.84000203845094</v>
+        <v>2.6010676470985</v>
       </c>
       <c r="G59" t="n">
-        <v>5.2525</v>
+        <v>5.57974305899325</v>
       </c>
       <c r="H59" t="n">
-        <v>235.83091875</v>
+        <v>258.294879486284</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>294.33011233</v>
+        <v>0.181244985522576</v>
       </c>
       <c r="K59" t="n">
-        <v>0.248055657375503</v>
+        <v>285.247438251147</v>
+      </c>
+      <c r="L59" t="n">
+        <v>241.123287524751</v>
+      </c>
+      <c r="M59" t="n">
+        <v>250.093494246859</v>
+      </c>
+      <c r="N59" t="n">
+        <v>305.109531179331</v>
       </c>
     </row>
     <row r="60">
@@ -2449,31 +2989,40 @@
         <v>11</v>
       </c>
       <c r="C60" t="n">
-        <v>46.44</v>
+        <v>43.9726989548374</v>
       </c>
       <c r="D60" t="n">
-        <v>1.08137619047619</v>
+        <v>1.08171172611141</v>
       </c>
       <c r="E60" t="n">
-        <v>100.01</v>
+        <v>98.8286167717218</v>
       </c>
       <c r="F60" t="n">
-        <v>2.9181827539176</v>
+        <v>2.72110480394643</v>
       </c>
       <c r="G60" t="n">
-        <v>5.655</v>
+        <v>5.17060054513835</v>
       </c>
       <c r="H60" t="n">
-        <v>268.24530625</v>
+        <v>283.508077765638</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>307.57269464</v>
+        <v>0.0301560524702047</v>
       </c>
       <c r="K60" t="n">
-        <v>0.146609791387543</v>
+        <v>299.187373451483</v>
+      </c>
+      <c r="L60" t="n">
+        <v>258.455718244085</v>
+      </c>
+      <c r="M60" t="n">
+        <v>280.034183324868</v>
+      </c>
+      <c r="N60" t="n">
+        <v>292.057562234465</v>
       </c>
     </row>
     <row r="61">
@@ -2484,31 +3033,40 @@
         <v>12</v>
       </c>
       <c r="C61" t="n">
-        <v>54.07</v>
+        <v>58.6199245509873</v>
       </c>
       <c r="D61" t="n">
-        <v>1.05502608695652</v>
+        <v>1.0961773304037</v>
       </c>
       <c r="E61" t="n">
-        <v>86.32</v>
+        <v>92.5585444716029</v>
       </c>
       <c r="F61" t="n">
-        <v>2.99636346938427</v>
+        <v>2.96289815007277</v>
       </c>
       <c r="G61" t="n">
-        <v>5.3625</v>
+        <v>5.80231812982704</v>
       </c>
       <c r="H61" t="n">
-        <v>316.81850625</v>
+        <v>310.379694631009</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>295.73664447</v>
+        <v>0.013318437071562</v>
       </c>
       <c r="K61" t="n">
-        <v>0.066542393717886</v>
+        <v>290.12803058834</v>
+      </c>
+      <c r="L61" t="n">
+        <v>266.630202820056</v>
+      </c>
+      <c r="M61" t="n">
+        <v>313.064039272931</v>
+      </c>
+      <c r="N61" t="n">
+        <v>314.513467062243</v>
       </c>
     </row>
     <row r="62">
@@ -2519,31 +3077,40 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>54.89</v>
+        <v>50.7776338823382</v>
       </c>
       <c r="D62" t="n">
-        <v>1.06598125</v>
+        <v>1.0912906179784</v>
       </c>
       <c r="E62" t="n">
-        <v>83.73</v>
+        <v>86.0252461062265</v>
       </c>
       <c r="F62" t="n">
-        <v>3.01905396279001</v>
+        <v>2.75248853407125</v>
       </c>
       <c r="G62" t="n">
-        <v>6.1125</v>
+        <v>5.92943654558156</v>
       </c>
       <c r="H62" t="n">
-        <v>351.2602375</v>
+        <v>320.779373172467</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>315.10785709</v>
+        <v>0.0367720601037886</v>
       </c>
       <c r="K62" t="n">
-        <v>0.102921926681212</v>
+        <v>314.726416816129</v>
+      </c>
+      <c r="L62" t="n">
+        <v>276.063610408331</v>
+      </c>
+      <c r="M62" t="n">
+        <v>343.395849326813</v>
+      </c>
+      <c r="N62" t="n">
+        <v>308.983654782113</v>
       </c>
     </row>
     <row r="63">
@@ -2554,31 +3121,40 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>55.49</v>
+        <v>53.324006136253</v>
       </c>
       <c r="D63" t="n">
-        <v>1.06586111111111</v>
+        <v>1.08828196939185</v>
       </c>
       <c r="E63" t="n">
-        <v>80.41</v>
+        <v>74.4793666116898</v>
       </c>
       <c r="F63" t="n">
-        <v>3.04174445619575</v>
+        <v>3.12664137042295</v>
       </c>
       <c r="G63" t="n">
-        <v>6.2475</v>
+        <v>6.76693639129819</v>
       </c>
       <c r="H63" t="n">
-        <v>412.69965</v>
+        <v>379.569851041436</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>317.08266789</v>
+        <v>0.140628609160303</v>
       </c>
       <c r="K63" t="n">
-        <v>0.231686608190727</v>
+        <v>318.871097867055</v>
+      </c>
+      <c r="L63" t="n">
+        <v>283.071284628594</v>
+      </c>
+      <c r="M63" t="n">
+        <v>391.779859515208</v>
+      </c>
+      <c r="N63" t="n">
+        <v>326.191470810296</v>
       </c>
     </row>
     <row r="64">
@@ -2589,31 +3165,40 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>51.97</v>
+        <v>51.2663501171251</v>
       </c>
       <c r="D64" t="n">
-        <v>1.06896363636364</v>
+        <v>1.15525998692029</v>
       </c>
       <c r="E64" t="n">
-        <v>80.55</v>
+        <v>80.9091786169913</v>
       </c>
       <c r="F64" t="n">
-        <v>3.06443494960149</v>
+        <v>3.15773607809287</v>
       </c>
       <c r="G64" t="n">
-        <v>5.08</v>
+        <v>5.42805432211794</v>
       </c>
       <c r="H64" t="n">
-        <v>401.897885</v>
+        <v>428.492133888839</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>283.08094587</v>
+        <v>0.317664228320815</v>
       </c>
       <c r="K64" t="n">
-        <v>0.295639622811152</v>
+        <v>278.977562826584</v>
+      </c>
+      <c r="L64" t="n">
+        <v>282.279854236746</v>
+      </c>
+      <c r="M64" t="n">
+        <v>376.819116525086</v>
+      </c>
+      <c r="N64" t="n">
+        <v>292.375510835502</v>
       </c>
     </row>
     <row r="65">
@@ -2624,31 +3209,40 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>52.98</v>
+        <v>55.2409463340947</v>
       </c>
       <c r="D65" t="n">
-        <v>1.0713380952381</v>
+        <v>1.04378503874453</v>
       </c>
       <c r="E65" t="n">
-        <v>84.6421052631579</v>
+        <v>78.3374950324872</v>
       </c>
       <c r="F65" t="n">
-        <v>3.01574387630643</v>
+        <v>2.83204024283003</v>
       </c>
       <c r="G65" t="n">
-        <v>4.99</v>
+        <v>4.63993922928674</v>
       </c>
       <c r="H65" t="n">
-        <v>327.4513125</v>
+        <v>322.965616970571</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>283.825698485263</v>
+        <v>0.158703017074588</v>
       </c>
       <c r="K65" t="n">
-        <v>0.133227787916522</v>
+        <v>277.621598418856</v>
+      </c>
+      <c r="L65" t="n">
+        <v>282.854969461184</v>
+      </c>
+      <c r="M65" t="n">
+        <v>318.7936930075</v>
+      </c>
+      <c r="N65" t="n">
+        <v>271.709999145986</v>
       </c>
     </row>
     <row r="66">
@@ -2659,31 +3253,40 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>50.87</v>
+        <v>48.7216141597168</v>
       </c>
       <c r="D66" t="n">
-        <v>1.10552631578947</v>
+        <v>1.13393343468749</v>
       </c>
       <c r="E66" t="n">
-        <v>74.52</v>
+        <v>72.1666495964695</v>
       </c>
       <c r="F66" t="n">
-        <v>2.96705280301138</v>
+        <v>2.78596477703719</v>
       </c>
       <c r="G66" t="n">
-        <v>5.1925</v>
+        <v>5.27011971288978</v>
       </c>
       <c r="H66" t="n">
-        <v>307.4268</v>
+        <v>322.85471277409</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>281.67619047</v>
+        <v>0.129713732388789</v>
       </c>
       <c r="K66" t="n">
-        <v>0.0837617589943362</v>
+        <v>280.773303107501</v>
+      </c>
+      <c r="L66" t="n">
+        <v>280.234284177985</v>
+      </c>
+      <c r="M66" t="n">
+        <v>299.783801920249</v>
+      </c>
+      <c r="N66" t="n">
+        <v>280.976022960852</v>
       </c>
     </row>
     <row r="67">
@@ -2694,31 +3297,40 @@
         <v>6</v>
       </c>
       <c r="C67" t="n">
-        <v>46.89</v>
+        <v>46.838127799626</v>
       </c>
       <c r="D67" t="n">
-        <v>1.12217619047619</v>
+        <v>1.21003910679679</v>
       </c>
       <c r="E67" t="n">
-        <v>80.9522727272727</v>
+        <v>82.1718972276918</v>
       </c>
       <c r="F67" t="n">
-        <v>2.91836172971633</v>
+        <v>3.0549115879135</v>
       </c>
       <c r="G67" t="n">
-        <v>4.918</v>
+        <v>4.92672306221891</v>
       </c>
       <c r="H67" t="n">
-        <v>300.83554</v>
+        <v>329.346716824666</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>275.73800211</v>
+        <v>0.159819257188718</v>
       </c>
       <c r="K67" t="n">
-        <v>0.0834261068024076</v>
+        <v>271.512662976207</v>
+      </c>
+      <c r="L67" t="n">
+        <v>278.621546416818</v>
+      </c>
+      <c r="M67" t="n">
+        <v>295.012047546525</v>
+      </c>
+      <c r="N67" t="n">
+        <v>276.710769184205</v>
       </c>
     </row>
     <row r="68">
@@ -2729,31 +3341,40 @@
         <v>7</v>
       </c>
       <c r="C68" t="n">
-        <v>48.69</v>
+        <v>47.2564372066394</v>
       </c>
       <c r="D68" t="n">
-        <v>1.1496</v>
+        <v>1.10686428075839</v>
       </c>
       <c r="E68" t="n">
-        <v>87.5309523809524</v>
+        <v>84.7717190372283</v>
       </c>
       <c r="F68" t="n">
-        <v>3.06588456875344</v>
+        <v>3.26014706728554</v>
       </c>
       <c r="G68" t="n">
-        <v>4.9825</v>
+        <v>5.26312846536154</v>
       </c>
       <c r="H68" t="n">
-        <v>298.4081</v>
+        <v>322.600799656586</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>282.759774509048</v>
+        <v>0.107887605707124</v>
       </c>
       <c r="K68" t="n">
-        <v>0.0524393456174695</v>
+        <v>275.924872434025</v>
+      </c>
+      <c r="L68" t="n">
+        <v>280.372582390887</v>
+      </c>
+      <c r="M68" t="n">
+        <v>296.114900803902</v>
+      </c>
+      <c r="N68" t="n">
+        <v>287.796171782433</v>
       </c>
     </row>
     <row r="69">
@@ -2764,31 +3385,40 @@
         <v>8</v>
       </c>
       <c r="C69" t="n">
-        <v>51.37</v>
+        <v>47.008254436553</v>
       </c>
       <c r="D69" t="n">
-        <v>1.18050869565217</v>
+        <v>1.18587741027581</v>
       </c>
       <c r="E69" t="n">
-        <v>95.89</v>
+        <v>93.1835466277837</v>
       </c>
       <c r="F69" t="n">
-        <v>3.21340740779054</v>
+        <v>2.98745051723486</v>
       </c>
       <c r="G69" t="n">
-        <v>5.544</v>
+        <v>5.30977865133136</v>
       </c>
       <c r="H69" t="n">
-        <v>305.06503125</v>
+        <v>308.028606051936</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>305.02685703</v>
+        <v>0.0448787955167167</v>
       </c>
       <c r="K69" t="n">
-        <v>0.000125134696178142</v>
+        <v>297.53695142606</v>
+      </c>
+      <c r="L69" t="n">
+        <v>288.111373204185</v>
+      </c>
+      <c r="M69" t="n">
+        <v>307.75685575324</v>
+      </c>
+      <c r="N69" t="n">
+        <v>294.204653227632</v>
       </c>
     </row>
     <row r="70">
@@ -2799,31 +3429,40 @@
         <v>9</v>
       </c>
       <c r="C70" t="n">
-        <v>55.16</v>
+        <v>57.4255633399039</v>
       </c>
       <c r="D70" t="n">
-        <v>1.19133636363636</v>
+        <v>1.23690575274889</v>
       </c>
       <c r="E70" t="n">
-        <v>96.8690476190476</v>
+        <v>92.6540540891633</v>
       </c>
       <c r="F70" t="n">
-        <v>3.36093024682764</v>
+        <v>3.22117989792373</v>
       </c>
       <c r="G70" t="n">
-        <v>5.935</v>
+        <v>5.35801946328604</v>
       </c>
       <c r="H70" t="n">
-        <v>318.439145</v>
+        <v>328.992959156169</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>318.688864540952</v>
+        <v>0.0829861733582574</v>
       </c>
       <c r="K70" t="n">
-        <v>0.000784198629073751</v>
+        <v>312.478449168285</v>
+      </c>
+      <c r="L70" t="n">
+        <v>297.120343819498</v>
+      </c>
+      <c r="M70" t="n">
+        <v>321.24932809965</v>
+      </c>
+      <c r="N70" t="n">
+        <v>301.691092413989</v>
       </c>
     </row>
     <row r="71">
@@ -2834,31 +3473,40 @@
         <v>10</v>
       </c>
       <c r="C71" t="n">
-        <v>57.62</v>
+        <v>58.5945432061022</v>
       </c>
       <c r="D71" t="n">
-        <v>1.17605238095238</v>
+        <v>1.19516431314448</v>
       </c>
       <c r="E71" t="n">
-        <v>97.1409090909091</v>
+        <v>93.6486126083005</v>
       </c>
       <c r="F71" t="n">
-        <v>3.36131575384284</v>
+        <v>3.5074025980663</v>
       </c>
       <c r="G71" t="n">
-        <v>6.175</v>
+        <v>5.95346835363307</v>
       </c>
       <c r="H71" t="n">
-        <v>296.457925</v>
+        <v>273.271991563444</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>326.95125082</v>
+        <v>0.168476954554508</v>
       </c>
       <c r="K71" t="n">
-        <v>0.10285886545283</v>
+        <v>321.973339056664</v>
+      </c>
+      <c r="L71" t="n">
+        <v>305.923719785139</v>
+      </c>
+      <c r="M71" t="n">
+        <v>305.39669480651</v>
+      </c>
+      <c r="N71" t="n">
+        <v>319.312024467098</v>
       </c>
     </row>
     <row r="72">
@@ -2869,31 +3517,40 @@
         <v>11</v>
       </c>
       <c r="C72" t="n">
-        <v>62.57</v>
+        <v>60.4819708168539</v>
       </c>
       <c r="D72" t="n">
-        <v>1.17319047619048</v>
+        <v>1.18776461182112</v>
       </c>
       <c r="E72" t="n">
-        <v>96.6272727272727</v>
+        <v>104.52002361094</v>
       </c>
       <c r="F72" t="n">
-        <v>3.36170126085804</v>
+        <v>3.42369890587663</v>
       </c>
       <c r="G72" t="n">
-        <v>6.56</v>
+        <v>6.06955562412739</v>
       </c>
       <c r="H72" t="n">
-        <v>326.98085</v>
+        <v>347.746700273023</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>340.23478367</v>
+        <v>0.0496051270874744</v>
       </c>
       <c r="K72" t="n">
-        <v>0.0405342810442875</v>
+        <v>337.028211770118</v>
+      </c>
+      <c r="L72" t="n">
+        <v>315.343799059014</v>
+      </c>
+      <c r="M72" t="n">
+        <v>332.096996997861</v>
+      </c>
+      <c r="N72" t="n">
+        <v>330.49668101173</v>
       </c>
     </row>
     <row r="73">
@@ -2904,31 +3561,40 @@
         <v>12</v>
       </c>
       <c r="C73" t="n">
-        <v>64.21</v>
+        <v>64.3689077621843</v>
       </c>
       <c r="D73" t="n">
-        <v>1.18380909090909</v>
+        <v>1.29312124870263</v>
       </c>
       <c r="E73" t="n">
-        <v>102.155</v>
+        <v>100.876382954359</v>
       </c>
       <c r="F73" t="n">
-        <v>3.36208676787324</v>
+        <v>3.1860259840624</v>
       </c>
       <c r="G73" t="n">
-        <v>7.46333333333333</v>
+        <v>7.00903347667586</v>
       </c>
       <c r="H73" t="n">
-        <v>367.56368125</v>
+        <v>359.01313341012</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>369.410512976667</v>
+        <v>0.0075696557258792</v>
       </c>
       <c r="K73" t="n">
-        <v>0.00502452179275692</v>
+        <v>369.033829312493</v>
+      </c>
+      <c r="L73" t="n">
+        <v>329.709468681721</v>
+      </c>
+      <c r="M73" t="n">
+        <v>371.255966927199</v>
+      </c>
+      <c r="N73" t="n">
+        <v>356.295527589136</v>
       </c>
     </row>
     <row r="74">
@@ -2939,31 +3605,40 @@
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>68.99</v>
+        <v>72.5333802026096</v>
       </c>
       <c r="D74" t="n">
-        <v>1.22171875</v>
+        <v>1.18919136543819</v>
       </c>
       <c r="E74" t="n">
-        <v>106.776086956522</v>
+        <v>112.740151621966</v>
       </c>
       <c r="F74" t="n">
-        <v>3.35272444524883</v>
+        <v>3.19443602667359</v>
       </c>
       <c r="G74" t="n">
-        <v>6.7625</v>
+        <v>7.24532767633849</v>
       </c>
       <c r="H74" t="n">
-        <v>431.8401</v>
+        <v>426.148754222649</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>356.154485824783</v>
+        <v>0.119308857576634</v>
       </c>
       <c r="K74" t="n">
-        <v>0.175263052632716</v>
+        <v>348.92482066583</v>
+      </c>
+      <c r="L74" t="n">
+        <v>339.956680838056</v>
+      </c>
+      <c r="M74" t="n">
+        <v>421.21251506788</v>
+      </c>
+      <c r="N74" t="n">
+        <v>375.305433198639</v>
       </c>
     </row>
     <row r="75">
@@ -2974,31 +3649,40 @@
         <v>2</v>
       </c>
       <c r="C75" t="n">
-        <v>65.42</v>
+        <v>63.8556863333629</v>
       </c>
       <c r="D75" t="n">
-        <v>1.23760526315789</v>
+        <v>1.31797049288671</v>
       </c>
       <c r="E75" t="n">
-        <v>104.705</v>
+        <v>99.9372619650443</v>
       </c>
       <c r="F75" t="n">
-        <v>3.34336212262442</v>
+        <v>3.6733775011357</v>
       </c>
       <c r="G75" t="n">
-        <v>6.5925</v>
+        <v>7.23967604961013</v>
       </c>
       <c r="H75" t="n">
-        <v>412.355775</v>
+        <v>424.554849501109</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>347.98026212</v>
+        <v>0.148083556975482</v>
       </c>
       <c r="K75" t="n">
-        <v>0.156116433388134</v>
+        <v>341.301017548558</v>
+      </c>
+      <c r="L75" t="n">
+        <v>345.966427316259</v>
+      </c>
+      <c r="M75" t="n">
+        <v>403.567645654752</v>
+      </c>
+      <c r="N75" t="n">
+        <v>361.685257255795</v>
       </c>
     </row>
     <row r="76">
@@ -3009,31 +3693,40 @@
         <v>3</v>
       </c>
       <c r="C76" t="n">
-        <v>66.45</v>
+        <v>65.373471398293</v>
       </c>
       <c r="D76" t="n">
-        <v>1.23292857142857</v>
+        <v>1.15424208784958</v>
       </c>
       <c r="E76" t="n">
-        <v>95.85</v>
+        <v>93.3764931200235</v>
       </c>
       <c r="F76" t="n">
-        <v>3.33399980000001</v>
+        <v>3.47241411996926</v>
       </c>
       <c r="G76" t="n">
-        <v>6.784</v>
+        <v>7.08662975150943</v>
       </c>
       <c r="H76" t="n">
-        <v>389.85887</v>
+        <v>412.674896671851</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>348.28667811</v>
+        <v>0.1413905352792</v>
       </c>
       <c r="K76" t="n">
-        <v>0.106633951639987</v>
+        <v>346.254582082701</v>
+      </c>
+      <c r="L76" t="n">
+        <v>348.510709653008</v>
+      </c>
+      <c r="M76" t="n">
+        <v>383.431839588428</v>
+      </c>
+      <c r="N76" t="n">
+        <v>354.326572135129</v>
       </c>
     </row>
     <row r="77">
@@ -3044,31 +3737,40 @@
         <v>4</v>
       </c>
       <c r="C77" t="n">
-        <v>71.63</v>
+        <v>67.2779141358836</v>
       </c>
       <c r="D77" t="n">
-        <v>1.2284</v>
+        <v>1.14578707043536</v>
       </c>
       <c r="E77" t="n">
-        <v>94.2075</v>
+        <v>92.3099650921348</v>
       </c>
       <c r="F77" t="n">
-        <v>3.28533936666667</v>
+        <v>3.20364603381958</v>
       </c>
       <c r="G77" t="n">
-        <v>6.8425</v>
+        <v>6.46477575362858</v>
       </c>
       <c r="H77" t="n">
-        <v>388.99829375</v>
+        <v>374.190632104746</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>352.08489333</v>
+        <v>0.0970986397273873</v>
       </c>
       <c r="K77" t="n">
-        <v>0.0948934764318616</v>
+        <v>350.375040432532</v>
+      </c>
+      <c r="L77" t="n">
+        <v>350.900427146589</v>
+      </c>
+      <c r="M77" t="n">
+        <v>383.112628161597</v>
+      </c>
+      <c r="N77" t="n">
+        <v>337.857230728644</v>
       </c>
     </row>
     <row r="78">
@@ -3079,31 +3781,40 @@
         <v>5</v>
       </c>
       <c r="C78" t="n">
-        <v>76.65</v>
+        <v>82.2792452439736</v>
       </c>
       <c r="D78" t="n">
-        <v>1.18135263157895</v>
+        <v>1.16988294403314</v>
       </c>
       <c r="E78" t="n">
-        <v>105.445454545455</v>
+        <v>105.247598625089</v>
       </c>
       <c r="F78" t="n">
-        <v>3.23667893333334</v>
+        <v>3.44739571359912</v>
       </c>
       <c r="G78" t="n">
-        <v>7.414</v>
+        <v>6.72908922933843</v>
       </c>
       <c r="H78" t="n">
-        <v>387.2764875</v>
+        <v>415.701674959321</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>377.89570951</v>
+        <v>0.127800705554757</v>
       </c>
       <c r="K78" t="n">
-        <v>0.0242224309834964</v>
+        <v>374.934567045424</v>
+      </c>
+      <c r="L78" t="n">
+        <v>360.590146464617</v>
+      </c>
+      <c r="M78" t="n">
+        <v>389.531190810064</v>
+      </c>
+      <c r="N78" t="n">
+        <v>362.574707599226</v>
       </c>
     </row>
     <row r="79">
@@ -3114,31 +3825,40 @@
         <v>6</v>
       </c>
       <c r="C79" t="n">
-        <v>75.19</v>
+        <v>77.1239900071029</v>
       </c>
       <c r="D79" t="n">
-        <v>1.16736666666667</v>
+        <v>1.07983374161137</v>
       </c>
       <c r="E79" t="n">
-        <v>114.75</v>
+        <v>116.998452922585</v>
       </c>
       <c r="F79" t="n">
-        <v>3.1880185</v>
+        <v>2.94118688518302</v>
       </c>
       <c r="G79" t="n">
-        <v>7.4725</v>
+        <v>6.87856452923908</v>
       </c>
       <c r="H79" t="n">
-        <v>433.77583</v>
+        <v>476.722019844141</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>384.43289199</v>
+        <v>0.222127444398568</v>
       </c>
       <c r="K79" t="n">
-        <v>0.113752160903017</v>
+        <v>378.847562469259</v>
+      </c>
+      <c r="L79" t="n">
+        <v>371.87963741472</v>
+      </c>
+      <c r="M79" t="n">
+        <v>430.106671680424</v>
+      </c>
+      <c r="N79" t="n">
+        <v>370.828975887639</v>
       </c>
     </row>
     <row r="80">
@@ -3149,31 +3869,40 @@
         <v>7</v>
       </c>
       <c r="C80" t="n">
-        <v>74.44</v>
+        <v>69.7856498772036</v>
       </c>
       <c r="D80" t="n">
-        <v>1.16839047619048</v>
+        <v>1.10292075336079</v>
       </c>
       <c r="E80" t="n">
-        <v>119.57</v>
+        <v>128.978417284873</v>
       </c>
       <c r="F80" t="n">
-        <v>3.101458</v>
+        <v>3.27240218329084</v>
       </c>
       <c r="G80" t="n">
-        <v>7.6075</v>
+        <v>8.25926126809313</v>
       </c>
       <c r="H80" t="n">
-        <v>408.3903125</v>
+        <v>424.866984502597</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>390.68325934</v>
+        <v>0.0314653793410081</v>
       </c>
       <c r="K80" t="n">
-        <v>0.0433581615871459</v>
+        <v>384.34897862091</v>
+      </c>
+      <c r="L80" t="n">
+        <v>383.241752411331</v>
+      </c>
+      <c r="M80" t="n">
+        <v>412.289897165309</v>
+      </c>
+      <c r="N80" t="n">
+        <v>411.498383665753</v>
       </c>
     </row>
     <row r="81">
@@ -3184,31 +3913,40 @@
         <v>8</v>
       </c>
       <c r="C81" t="n">
-        <v>73.13</v>
+        <v>74.0856755586872</v>
       </c>
       <c r="D81" t="n">
-        <v>1.15482173913043</v>
+        <v>1.21975711824709</v>
       </c>
       <c r="E81" t="n">
-        <v>117.34</v>
+        <v>125.928468557118</v>
       </c>
       <c r="F81" t="n">
-        <v>3.0148975</v>
+        <v>3.21314313303534</v>
       </c>
       <c r="G81" t="n">
-        <v>7.91</v>
+        <v>8.16513148011593</v>
       </c>
       <c r="H81" t="n">
-        <v>408.34485</v>
+        <v>369.261200638779</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>396.72700423</v>
+        <v>0.109493833941238</v>
       </c>
       <c r="K81" t="n">
-        <v>0.0284510647556838</v>
+        <v>393.603621842905</v>
+      </c>
+      <c r="L81" t="n">
+        <v>392.782377351132</v>
+      </c>
+      <c r="M81" t="n">
+        <v>412.75457482011</v>
+      </c>
+      <c r="N81" t="n">
+        <v>409.693025222463</v>
       </c>
     </row>
     <row r="82">
@@ -3219,31 +3957,40 @@
         <v>9</v>
       </c>
       <c r="C82" t="n">
-        <v>78.86</v>
+        <v>81.3062870516153</v>
       </c>
       <c r="D82" t="n">
-        <v>1.16611428571429</v>
+        <v>1.26566894641208</v>
       </c>
       <c r="E82" t="n">
-        <v>114.16</v>
+        <v>115.230512838457</v>
       </c>
       <c r="F82" t="n">
-        <v>2.928337</v>
+        <v>3.03241388175666</v>
       </c>
       <c r="G82" t="n">
-        <v>9.475</v>
+        <v>8.56438874974148</v>
       </c>
       <c r="H82" t="n">
-        <v>430.7602375</v>
+        <v>395.749952632202</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>441.05518406</v>
+        <v>0.057181802594418</v>
       </c>
       <c r="K82" t="n">
-        <v>0.023899482040749</v>
+        <v>447.145211418397</v>
+      </c>
+      <c r="L82" t="n">
+        <v>407.884492997543</v>
+      </c>
+      <c r="M82" t="n">
+        <v>438.099940300937</v>
+      </c>
+      <c r="N82" t="n">
+        <v>418.379648300367</v>
       </c>
     </row>
     <row r="83">
@@ -3254,31 +4001,40 @@
         <v>10</v>
       </c>
       <c r="C83" t="n">
-        <v>80.47</v>
+        <v>74.8192236289354</v>
       </c>
       <c r="D83" t="n">
-        <v>1.14980454545455</v>
+        <v>1.09625778127134</v>
       </c>
       <c r="E83" t="n">
-        <v>108.73</v>
+        <v>112.55801784057</v>
       </c>
       <c r="F83" t="n">
-        <v>2.8434903</v>
+        <v>2.64386123981133</v>
       </c>
       <c r="G83" t="n">
-        <v>9.0525</v>
+        <v>8.70786034717143</v>
       </c>
       <c r="H83" t="n">
-        <v>418.818425</v>
+        <v>397.595883162489</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>427.10430207</v>
+        <v>0.0477218412134246</v>
       </c>
       <c r="K83" t="n">
-        <v>0.0197839363681291</v>
+        <v>433.000501571815</v>
+      </c>
+      <c r="L83" t="n">
+        <v>415.914621082354</v>
+      </c>
+      <c r="M83" t="n">
+        <v>424.613732747522</v>
+      </c>
+      <c r="N83" t="n">
+        <v>416.569890765881</v>
       </c>
     </row>
     <row r="84">
@@ -3289,31 +4045,40 @@
         <v>11</v>
       </c>
       <c r="C84" t="n">
-        <v>65.17</v>
+        <v>65.6587031786232</v>
       </c>
       <c r="D84" t="n">
-        <v>1.13665238095238</v>
+        <v>1.07598167980487</v>
       </c>
       <c r="E84" t="n">
-        <v>100.73</v>
+        <v>101.477471195458</v>
       </c>
       <c r="F84" t="n">
-        <v>2.7586436</v>
+        <v>2.89936744555654</v>
       </c>
       <c r="G84" t="n">
-        <v>8.214</v>
+        <v>7.67810724662868</v>
       </c>
       <c r="H84" t="n">
-        <v>382.87915</v>
+        <v>407.100295454123</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>389.61981803</v>
+        <v>0.0769947939460305</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01760521049527</v>
+        <v>396.987498492534</v>
+      </c>
+      <c r="L84" t="n">
+        <v>412.941933838518</v>
+      </c>
+      <c r="M84" t="n">
+        <v>386.658685342711</v>
+      </c>
+      <c r="N84" t="n">
+        <v>375.755692090265</v>
       </c>
     </row>
     <row r="85">
@@ -3324,31 +4089,40 @@
         <v>12</v>
       </c>
       <c r="C85" t="n">
-        <v>56.46</v>
+        <v>61.4123403983396</v>
       </c>
       <c r="D85" t="n">
-        <v>1.13835909090909</v>
+        <v>1.18561667196894</v>
       </c>
       <c r="E85" t="n">
-        <v>101.37</v>
+        <v>99.3940983375195</v>
       </c>
       <c r="F85" t="n">
-        <v>2.6737969</v>
+        <v>2.79419575944114</v>
       </c>
       <c r="G85" t="n">
-        <v>8.01666666666667</v>
+        <v>7.2590217075528</v>
       </c>
       <c r="H85" t="n">
-        <v>326.58625</v>
+        <v>317.277646887728</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>379.195615593333</v>
+        <v>0.135747482163435</v>
       </c>
       <c r="K85" t="n">
-        <v>0.161088734119496</v>
+        <v>386.95745447996</v>
+      </c>
+      <c r="L85" t="n">
+        <v>408.617757727763</v>
+      </c>
+      <c r="M85" t="n">
+        <v>339.912580444385</v>
+      </c>
+      <c r="N85" t="n">
+        <v>360.347288599477</v>
       </c>
     </row>
     <row r="86">
@@ -3359,31 +4133,40 @@
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>59.27</v>
+        <v>64.1660495270183</v>
       </c>
       <c r="D86" t="n">
-        <v>1.14274166666667</v>
+        <v>1.22097444173925</v>
       </c>
       <c r="E86" t="n">
-        <v>98.56</v>
+        <v>91.5993996567726</v>
       </c>
       <c r="F86" t="n">
-        <v>2.65741756666667</v>
+        <v>2.69646259753338</v>
       </c>
       <c r="G86" t="n">
-        <v>7.426</v>
+        <v>7.65649928380232</v>
       </c>
       <c r="H86" t="n">
-        <v>314.21551875</v>
+        <v>329.473230750766</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>363.04716881</v>
+        <v>0.11700396272376</v>
       </c>
       <c r="K86" t="n">
-        <v>0.15540814232938</v>
+        <v>368.17050433094</v>
+      </c>
+      <c r="L86" t="n">
+        <v>401.490553091027</v>
+      </c>
+      <c r="M86" t="n">
+        <v>326.383481116375</v>
+      </c>
+      <c r="N86" t="n">
+        <v>368.022904360005</v>
       </c>
     </row>
     <row r="87">
@@ -3394,31 +4177,40 @@
         <v>2</v>
       </c>
       <c r="C87" t="n">
-        <v>64.13</v>
+        <v>67.2781029804055</v>
       </c>
       <c r="D87" t="n">
-        <v>1.135505</v>
+        <v>1.13232481962183</v>
       </c>
       <c r="E87" t="n">
-        <v>95.42</v>
+        <v>90.7459114849195</v>
       </c>
       <c r="F87" t="n">
-        <v>2.64103823333333</v>
+        <v>2.77019822325471</v>
       </c>
       <c r="G87" t="n">
-        <v>5.9925</v>
+        <v>5.79934547124908</v>
       </c>
       <c r="H87" t="n">
-        <v>315.5239</v>
+        <v>327.695308857986</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>324.94677833</v>
+        <v>0.027461770428944</v>
       </c>
       <c r="K87" t="n">
-        <v>0.0298642300313858</v>
+        <v>322.508363018435</v>
+      </c>
+      <c r="L87" t="n">
+        <v>388.008740893581</v>
+      </c>
+      <c r="M87" t="n">
+        <v>319.613079154369</v>
+      </c>
+      <c r="N87" t="n">
+        <v>318.696215515486</v>
       </c>
     </row>
     <row r="88">
@@ -3429,31 +4221,40 @@
         <v>3</v>
       </c>
       <c r="C88" t="n">
-        <v>66.41</v>
+        <v>72.896336543947</v>
       </c>
       <c r="D88" t="n">
-        <v>1.13176666666667</v>
+        <v>1.04693488500867</v>
       </c>
       <c r="E88" t="n">
-        <v>93.12</v>
+        <v>97.7682083355188</v>
       </c>
       <c r="F88" t="n">
-        <v>2.6246589</v>
+        <v>2.72746438529561</v>
       </c>
       <c r="G88" t="n">
-        <v>5.2675</v>
+        <v>5.01956995643955</v>
       </c>
       <c r="H88" t="n">
-        <v>318.64856</v>
+        <v>302.393893010965</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>305.11860441</v>
+        <v>0.00966536832672693</v>
       </c>
       <c r="K88" t="n">
-        <v>0.0424604322392041</v>
+        <v>299.264022460352</v>
+      </c>
+      <c r="L88" t="n">
+        <v>373.03287021944</v>
+      </c>
+      <c r="M88" t="n">
+        <v>317.84943222349</v>
+      </c>
+      <c r="N88" t="n">
+        <v>305.316641366669</v>
       </c>
     </row>
     <row r="89">
@@ -3464,31 +4265,40 @@
         <v>4</v>
       </c>
       <c r="C89" t="n">
-        <v>71.2</v>
+        <v>70.6328697813302</v>
       </c>
       <c r="D89" t="n">
-        <v>1.12415714285714</v>
+        <v>1.07301728225268</v>
       </c>
       <c r="E89" t="n">
-        <v>86.77</v>
+        <v>85.3426795423753</v>
       </c>
       <c r="F89" t="n">
-        <v>2.60485196666667</v>
+        <v>2.52642407757816</v>
       </c>
       <c r="G89" t="n">
-        <v>4.935</v>
+        <v>5.24628489649482</v>
       </c>
       <c r="H89" t="n">
-        <v>305.3556625</v>
+        <v>285.612848212375</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>295.0324878</v>
+        <v>0.0583716373372396</v>
       </c>
       <c r="K89" t="n">
-        <v>0.0338070518014382</v>
+        <v>289.162188217023</v>
+      </c>
+      <c r="L89" t="n">
+        <v>357.677787267969</v>
+      </c>
+      <c r="M89" t="n">
+        <v>303.83333432955</v>
+      </c>
+      <c r="N89" t="n">
+        <v>302.284537807084</v>
       </c>
     </row>
     <row r="90">
@@ -3499,31 +4309,40 @@
         <v>5</v>
       </c>
       <c r="C90" t="n">
-        <v>70.53</v>
+        <v>75.917902377611</v>
       </c>
       <c r="D90" t="n">
-        <v>1.11841111111111</v>
+        <v>1.17790371938399</v>
       </c>
       <c r="E90" t="n">
-        <v>82.32</v>
+        <v>90.0587376790568</v>
       </c>
       <c r="F90" t="n">
-        <v>2.58504503333333</v>
+        <v>2.53216834780135</v>
       </c>
       <c r="G90" t="n">
-        <v>4.464</v>
+        <v>4.49263863413483</v>
       </c>
       <c r="H90" t="n">
-        <v>295.96278</v>
+        <v>320.092753704257</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>278.94993139</v>
+        <v>0.100383515892192</v>
       </c>
       <c r="K90" t="n">
-        <v>0.0574830680060513</v>
+        <v>272.507225929219</v>
+      </c>
+      <c r="L90" t="n">
+        <v>341.290809470113</v>
+      </c>
+      <c r="M90" t="n">
+        <v>292.189924306379</v>
+      </c>
+      <c r="N90" t="n">
+        <v>287.96071767581</v>
       </c>
     </row>
     <row r="91">
@@ -3534,31 +4353,40 @@
         <v>6</v>
       </c>
       <c r="C91" t="n">
-        <v>63.3</v>
+        <v>60.3081637138221</v>
       </c>
       <c r="D91" t="n">
-        <v>1.12829</v>
+        <v>1.20383170085926</v>
       </c>
       <c r="E91" t="n">
-        <v>72.49</v>
+        <v>72.8499368026904</v>
       </c>
       <c r="F91" t="n">
-        <v>2.5652381</v>
+        <v>2.58402462911389</v>
       </c>
       <c r="G91" t="n">
-        <v>3.6325</v>
+        <v>3.6304364211699</v>
       </c>
       <c r="H91" t="n">
-        <v>279.560475</v>
+        <v>287.630922650644</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>245.542613</v>
+        <v>0.152228434264454</v>
       </c>
       <c r="K91" t="n">
-        <v>0.12168337459006</v>
+        <v>239.579767619908</v>
+      </c>
+      <c r="L91" t="n">
+        <v>319.339232679913</v>
+      </c>
+      <c r="M91" t="n">
+        <v>270.226153088507</v>
+      </c>
+      <c r="N91" t="n">
+        <v>243.845317649496</v>
       </c>
     </row>
     <row r="92">
@@ -3569,31 +4397,40 @@
         <v>7</v>
       </c>
       <c r="C92" t="n">
-        <v>64</v>
+        <v>62.7046469062567</v>
       </c>
       <c r="D92" t="n">
-        <v>1.12252272727273</v>
+        <v>1.0771419672523</v>
       </c>
       <c r="E92" t="n">
-        <v>72.08</v>
+        <v>74.7743100126646</v>
       </c>
       <c r="F92" t="n">
-        <v>2.5109587</v>
+        <v>2.63292189583239</v>
       </c>
       <c r="G92" t="n">
-        <v>3.65</v>
+        <v>3.4542306636367</v>
       </c>
       <c r="H92" t="n">
-        <v>246.6103875</v>
+        <v>263.969421605509</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>246.1997508</v>
+        <v>0.0842215676630034</v>
       </c>
       <c r="K92" t="n">
-        <v>0.00166512329088331</v>
+        <v>240.62639562057</v>
+      </c>
+      <c r="L92" t="n">
+        <v>301.889806987011</v>
+      </c>
+      <c r="M92" t="n">
+        <v>244.026236465756</v>
+      </c>
+      <c r="N92" t="n">
+        <v>241.737503102797</v>
       </c>
     </row>
     <row r="93">
@@ -3604,31 +4441,40 @@
         <v>8</v>
       </c>
       <c r="C93" t="n">
-        <v>59.25</v>
+        <v>57.450229835452</v>
       </c>
       <c r="D93" t="n">
-        <v>1.11258695652174</v>
+        <v>1.18893714519188</v>
       </c>
       <c r="E93" t="n">
-        <v>65.55</v>
+        <v>65.107541951146</v>
       </c>
       <c r="F93" t="n">
-        <v>2.4566793</v>
+        <v>2.60660993234001</v>
       </c>
       <c r="G93" t="n">
-        <v>3.634</v>
+        <v>3.44290038224794</v>
       </c>
       <c r="H93" t="n">
-        <v>234.160145</v>
+        <v>229.028010794479</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>238.69234491</v>
+        <v>0.0132846794720072</v>
       </c>
       <c r="K93" t="n">
-        <v>0.0193551294136753</v>
+        <v>236.734341432474</v>
+      </c>
+      <c r="L93" t="n">
+        <v>284.808947185175</v>
+      </c>
+      <c r="M93" t="n">
+        <v>230.922761269925</v>
+      </c>
+      <c r="N93" t="n">
+        <v>232.070574507995</v>
       </c>
     </row>
     <row r="94">
@@ -3639,31 +4485,40 @@
         <v>9</v>
       </c>
       <c r="C94" t="n">
-        <v>62.33</v>
+        <v>63.8993306314182</v>
       </c>
       <c r="D94" t="n">
-        <v>1.10152</v>
+        <v>1.14889547048461</v>
       </c>
       <c r="E94" t="n">
-        <v>65.95</v>
+        <v>63.1187734377361</v>
       </c>
       <c r="F94" t="n">
-        <v>2.4023999</v>
+        <v>2.6392296831611</v>
       </c>
       <c r="G94" t="n">
-        <v>4.1125</v>
+        <v>3.7912614487682</v>
       </c>
       <c r="H94" t="n">
-        <v>235.53129375</v>
+        <v>221.956026653186</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>253.93741013</v>
+        <v>0.100944802940574</v>
       </c>
       <c r="K94" t="n">
-        <v>0.0781472223369892</v>
+        <v>254.303409184915</v>
+      </c>
+      <c r="L94" t="n">
+        <v>274.202729332318</v>
+      </c>
+      <c r="M94" t="n">
+        <v>234.997088644343</v>
+      </c>
+      <c r="N94" t="n">
+        <v>244.361334025165</v>
       </c>
     </row>
     <row r="95">
@@ -3674,31 +4529,40 @@
         <v>10</v>
       </c>
       <c r="C95" t="n">
-        <v>59.37</v>
+        <v>65.0371867492888</v>
       </c>
       <c r="D95" t="n">
-        <v>1.10387826086957</v>
+        <v>1.16951791453445</v>
       </c>
       <c r="E95" t="n">
-        <v>69.2</v>
+        <v>70.2338976825587</v>
       </c>
       <c r="F95" t="n">
-        <v>2.42049303333333</v>
+        <v>2.43897581676617</v>
       </c>
       <c r="G95" t="n">
-        <v>4.912</v>
+        <v>4.64308930469677</v>
       </c>
       <c r="H95" t="n">
-        <v>226.25415</v>
+        <v>247.499372821374</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>275.97364495</v>
+        <v>0.102284708579454</v>
       </c>
       <c r="K95" t="n">
-        <v>0.219750643026879</v>
+        <v>280.336574631707</v>
+      </c>
+      <c r="L95" t="n">
+        <v>270.629391934809</v>
+      </c>
+      <c r="M95" t="n">
+        <v>232.481171724159</v>
+      </c>
+      <c r="N95" t="n">
+        <v>272.814774044006</v>
       </c>
     </row>
     <row r="96">
@@ -3709,31 +4573,40 @@
         <v>11</v>
       </c>
       <c r="C96" t="n">
-        <v>62.74</v>
+        <v>59.0449453943912</v>
       </c>
       <c r="D96" t="n">
-        <v>1.10502</v>
+        <v>1.08260011858957</v>
       </c>
       <c r="E96" t="n">
-        <v>66.99</v>
+        <v>62.8190672783735</v>
       </c>
       <c r="F96" t="n">
-        <v>2.43858616666667</v>
+        <v>2.24115163331267</v>
       </c>
       <c r="G96" t="n">
-        <v>5.11</v>
+        <v>5.15105426699901</v>
       </c>
       <c r="H96" t="n">
-        <v>229.890105</v>
+        <v>209.202111617016</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>282.09615294</v>
+        <v>0.33023993003993</v>
       </c>
       <c r="K96" t="n">
-        <v>0.227091322351608</v>
+        <v>288.009710663165</v>
+      </c>
+      <c r="L96" t="n">
+        <v>268.404835569035</v>
+      </c>
+      <c r="M96" t="n">
+        <v>235.992378081136</v>
+      </c>
+      <c r="N96" t="n">
+        <v>278.289002321625</v>
       </c>
     </row>
     <row r="97">
@@ -3744,31 +4617,40 @@
         <v>12</v>
       </c>
       <c r="C97" t="n">
-        <v>65.85</v>
+        <v>70.3967566039762</v>
       </c>
       <c r="D97" t="n">
-        <v>1.11061428571429</v>
+        <v>1.03313739674672</v>
       </c>
       <c r="E97" t="n">
-        <v>66.18</v>
+        <v>67.7623729150761</v>
       </c>
       <c r="F97" t="n">
-        <v>2.4566793</v>
+        <v>2.48832867890211</v>
       </c>
       <c r="G97" t="n">
-        <v>4.86</v>
+        <v>4.72935742692836</v>
       </c>
       <c r="H97" t="n">
-        <v>224.708083333333</v>
+        <v>208.600731570235</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>276.69853255</v>
+        <v>0.327715150121033</v>
       </c>
       <c r="K97" t="n">
-        <v>0.231368842835725</v>
+        <v>281.060445891629</v>
+      </c>
+      <c r="L97" t="n">
+        <v>265.471215974429</v>
+      </c>
+      <c r="M97" t="n">
+        <v>230.705778681778</v>
+      </c>
+      <c r="N97" t="n">
+        <v>276.962351632132</v>
       </c>
     </row>
     <row r="98">
@@ -3779,31 +4661,40 @@
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>63.6</v>
+        <v>68.6980096399784</v>
       </c>
       <c r="D98" t="n">
-        <v>1.11056842105263</v>
+        <v>1.21450731541067</v>
       </c>
       <c r="E98" t="n">
-        <v>69.66</v>
+        <v>74.4207408072464</v>
       </c>
       <c r="F98" t="n">
-        <v>1.29954037702048</v>
+        <v>1.18851241556498</v>
       </c>
       <c r="G98" t="n">
-        <v>3.762</v>
+        <v>3.92203652253142</v>
       </c>
       <c r="H98" t="n">
-        <v>256.9306</v>
+        <v>246.79149297848</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>247.48803808</v>
+        <v>0.0455582497798555</v>
       </c>
       <c r="K98" t="n">
-        <v>0.0367514103808577</v>
+        <v>244.742878868814</v>
+      </c>
+      <c r="L98" t="n">
+        <v>258.560291399339</v>
+      </c>
+      <c r="M98" t="n">
+        <v>251.765318462415</v>
+      </c>
+      <c r="N98" t="n">
+        <v>258.034881459137</v>
       </c>
     </row>
     <row r="99">
@@ -3814,31 +4705,40 @@
         <v>2</v>
       </c>
       <c r="C99" t="n">
-        <v>55</v>
+        <v>49.944587924052</v>
       </c>
       <c r="D99" t="n">
-        <v>1.09178947368421</v>
+        <v>1.09377688471144</v>
       </c>
       <c r="E99" t="n">
-        <v>67.64</v>
+        <v>66.6676132727936</v>
       </c>
       <c r="F99" t="n">
-        <v>0.14240145404096</v>
+        <v>0.153778161372486</v>
       </c>
       <c r="G99" t="n">
-        <v>2.9275</v>
+        <v>2.95095248481794</v>
       </c>
       <c r="H99" t="n">
-        <v>266.43094375</v>
+        <v>285.298982275948</v>
       </c>
       <c r="I99" t="n">
-        <v>0.14240145404096</v>
+        <v>0.153778161372486</v>
       </c>
       <c r="J99" t="n">
-        <v>218.0543515</v>
+        <v>0.246655313043655</v>
       </c>
       <c r="K99" t="n">
-        <v>0.181572724132949</v>
+        <v>213.124559677219</v>
+      </c>
+      <c r="L99" t="n">
+        <v>246.894500858738</v>
+      </c>
+      <c r="M99" t="n">
+        <v>253.156446158533</v>
+      </c>
+      <c r="N99" t="n">
+        <v>214.928472491638</v>
       </c>
     </row>
     <row r="100">
@@ -3849,31 +4749,40 @@
         <v>3</v>
       </c>
       <c r="C100" t="n">
-        <v>32.98</v>
+        <v>35.8204161269637</v>
       </c>
       <c r="D100" t="n">
-        <v>1.10631</v>
+        <v>1.18928785527261</v>
       </c>
       <c r="E100" t="n">
-        <v>66.74</v>
+        <v>70.2645528646177</v>
       </c>
       <c r="F100" t="n">
-        <v>-1.01473746893856</v>
+        <v>-0.98093070687356</v>
       </c>
       <c r="G100" t="n">
-        <v>2.82</v>
+        <v>2.63467661722004</v>
       </c>
       <c r="H100" t="n">
-        <v>218.870075</v>
+        <v>239.221057831732</v>
       </c>
       <c r="I100" t="n">
-        <v>-1.01473746893856</v>
+        <v>-0.98093070687356</v>
       </c>
       <c r="J100" t="n">
-        <v>200.80893998</v>
+        <v>0.165059918746559</v>
       </c>
       <c r="K100" t="n">
-        <v>0.0825198923151099</v>
+        <v>199.383052758369</v>
+      </c>
+      <c r="L100" t="n">
+        <v>233.742714112083</v>
+      </c>
+      <c r="M100" t="n">
+        <v>211.446287735679</v>
+      </c>
+      <c r="N100" t="n">
+        <v>199.73524946356</v>
       </c>
     </row>
     <row r="101">
@@ -3884,31 +4793,40 @@
         <v>4</v>
       </c>
       <c r="C101" t="n">
-        <v>23.34</v>
+        <v>25.5757164418632</v>
       </c>
       <c r="D101" t="n">
-        <v>1.08867142857143</v>
+        <v>0.987887656123235</v>
       </c>
       <c r="E101" t="n">
-        <v>58.55</v>
+        <v>60.447715083214</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.89216450359739</v>
+        <v>-3.68366897757253</v>
       </c>
       <c r="G101" t="n">
-        <v>2.216</v>
+        <v>2.37134135396816</v>
       </c>
       <c r="H101" t="n">
-        <v>165.01195</v>
+        <v>176.761493615955</v>
       </c>
       <c r="I101" t="n">
-        <v>-3.89216450359739</v>
+        <v>-3.68366897757253</v>
       </c>
       <c r="J101" t="n">
-        <v>173.14335258</v>
+        <v>0.018182119343652</v>
       </c>
       <c r="K101" t="n">
-        <v>0.0492776588604642</v>
+        <v>173.102574790849</v>
+      </c>
+      <c r="L101" t="n">
+        <v>215.842208256213</v>
+      </c>
+      <c r="M101" t="n">
+        <v>161.159538589988</v>
+      </c>
+      <c r="N101" t="n">
+        <v>179.975392188242</v>
       </c>
     </row>
     <row r="102">
@@ -3919,31 +4837,40 @@
         <v>5</v>
       </c>
       <c r="C102" t="n">
-        <v>31.02</v>
+        <v>28.6606166342441</v>
       </c>
       <c r="D102" t="n">
-        <v>1.08883181818182</v>
+        <v>1.07888230868088</v>
       </c>
       <c r="E102" t="n">
-        <v>52.49</v>
+        <v>57.3373941212641</v>
       </c>
       <c r="F102" t="n">
-        <v>-6.76959153825622</v>
+        <v>-7.12064038635344</v>
       </c>
       <c r="G102" t="n">
-        <v>1.6025</v>
+        <v>1.44276073642145</v>
       </c>
       <c r="H102" t="n">
-        <v>161.55253</v>
+        <v>148.819927323294</v>
       </c>
       <c r="I102" t="n">
-        <v>-6.76959153825622</v>
+        <v>-7.12064038635344</v>
       </c>
       <c r="J102" t="n">
-        <v>157.36711272</v>
+        <v>0.0386969683132403</v>
       </c>
       <c r="K102" t="n">
-        <v>0.0259074697251723</v>
+        <v>154.235456685953</v>
+      </c>
+      <c r="L102" t="n">
+        <v>197.289967650107</v>
+      </c>
+      <c r="M102" t="n">
+        <v>154.096725428487</v>
+      </c>
+      <c r="N102" t="n">
+        <v>154.578807335302</v>
       </c>
     </row>
     <row r="103">
@@ -3954,31 +4881,40 @@
         <v>6</v>
       </c>
       <c r="C103" t="n">
-        <v>39.93</v>
+        <v>41.3548821754209</v>
       </c>
       <c r="D103" t="n">
-        <v>1.12609047619048</v>
+        <v>1.05087643907143</v>
       </c>
       <c r="E103" t="n">
-        <v>52.21</v>
+        <v>53.2878981742756</v>
       </c>
       <c r="F103" t="n">
-        <v>-9.64701857291505</v>
+        <v>-8.91924180192224</v>
       </c>
       <c r="G103" t="n">
-        <v>1.6725</v>
+        <v>1.66435530511464</v>
       </c>
       <c r="H103" t="n">
-        <v>173.4710625</v>
+        <v>170.745321845679</v>
       </c>
       <c r="I103" t="n">
-        <v>-9.64701857291505</v>
+        <v>-8.91924180192224</v>
       </c>
       <c r="J103" t="n">
-        <v>164.66409573</v>
+        <v>0.0277412742788268</v>
       </c>
       <c r="K103" t="n">
-        <v>0.0507690829990736</v>
+        <v>159.209478374736</v>
+      </c>
+      <c r="L103" t="n">
+        <v>184.050984979016</v>
+      </c>
+      <c r="M103" t="n">
+        <v>165.100499865677</v>
+      </c>
+      <c r="N103" t="n">
+        <v>166.008629040531</v>
       </c>
     </row>
     <row r="104">
@@ -3989,31 +4925,40 @@
         <v>7</v>
       </c>
       <c r="C104" t="n">
-        <v>42.81</v>
+        <v>38.5511582200457</v>
       </c>
       <c r="D104" t="n">
-        <v>1.14287826086957</v>
+        <v>1.13573674703457</v>
       </c>
       <c r="E104" t="n">
-        <v>51.56</v>
+        <v>50.4213852595352</v>
       </c>
       <c r="F104" t="n">
-        <v>-6.76959153825622</v>
+        <v>-6.32022548974088</v>
       </c>
       <c r="G104" t="n">
-        <v>1.796</v>
+        <v>1.95956169957407</v>
       </c>
       <c r="H104" t="n">
-        <v>191.14311</v>
+        <v>181.38980780365</v>
       </c>
       <c r="I104" t="n">
-        <v>-6.76959153825622</v>
+        <v>-6.32022548974088</v>
       </c>
       <c r="J104" t="n">
-        <v>169.42652055</v>
+        <v>0.0599214398511658</v>
       </c>
       <c r="K104" t="n">
-        <v>0.11361429376136</v>
+        <v>163.675663200106</v>
+      </c>
+      <c r="L104" t="n">
+        <v>174.332044870151</v>
+      </c>
+      <c r="M104" t="n">
+        <v>179.974588420542</v>
+      </c>
+      <c r="N104" t="n">
+        <v>170.520669345729</v>
       </c>
     </row>
     <row r="105">
@@ -4024,31 +4969,40 @@
         <v>8</v>
       </c>
       <c r="C105" t="n">
-        <v>44.26</v>
+        <v>41.9518028020039</v>
       </c>
       <c r="D105" t="n">
-        <v>1.18269047619048</v>
+        <v>1.24063263366411</v>
       </c>
       <c r="E105" t="n">
-        <v>50.14</v>
+        <v>50.9588300813716</v>
       </c>
       <c r="F105" t="n">
-        <v>-3.89216450359739</v>
+        <v>-3.6492306852301</v>
       </c>
       <c r="G105" t="n">
-        <v>2.64</v>
+        <v>2.57713883810118</v>
       </c>
       <c r="H105" t="n">
-        <v>223.1313625</v>
+        <v>225.575739357192</v>
       </c>
       <c r="I105" t="n">
-        <v>-3.89216450359739</v>
+        <v>-3.6492306852301</v>
       </c>
       <c r="J105" t="n">
-        <v>192.49439286</v>
+        <v>0.158369263045473</v>
       </c>
       <c r="K105" t="n">
-        <v>0.13730463210881</v>
+        <v>191.083352173552</v>
+      </c>
+      <c r="L105" t="n">
+        <v>170.572910018644</v>
+      </c>
+      <c r="M105" t="n">
+        <v>209.39798348267</v>
+      </c>
+      <c r="N105" t="n">
+        <v>189.851475754256</v>
       </c>
     </row>
     <row r="106">
@@ -4059,31 +5013,40 @@
         <v>9</v>
       </c>
       <c r="C106" t="n">
-        <v>41.09</v>
+        <v>41.24238683978</v>
       </c>
       <c r="D106" t="n">
-        <v>1.18105652173913</v>
+        <v>1.24222622327331</v>
       </c>
       <c r="E106" t="n">
-        <v>54.6</v>
+        <v>51.083232963765</v>
       </c>
       <c r="F106" t="n">
         <v>-3</v>
       </c>
       <c r="G106" t="n">
-        <v>3.74333333333333</v>
+        <v>3.39622396475387</v>
       </c>
       <c r="H106" t="n">
-        <v>241.47715</v>
+        <v>238.1854048711</v>
       </c>
       <c r="I106" t="n">
         <v>-3</v>
       </c>
       <c r="J106" t="n">
-        <v>223.460252056667</v>
+        <v>0.110516086807056</v>
       </c>
       <c r="K106" t="n">
-        <v>0.0746111917559629</v>
+        <v>226.974146137199</v>
+      </c>
+      <c r="L106" t="n">
+        <v>174.445345535436</v>
+      </c>
+      <c r="M106" t="n">
+        <v>230.857247584313</v>
+      </c>
+      <c r="N106" t="n">
+        <v>211.862085990192</v>
       </c>
     </row>
     <row r="107">
@@ -4094,28 +5057,37 @@
         <v>10</v>
       </c>
       <c r="C107" t="n">
-        <v>41.09</v>
+        <v>41.24238683978</v>
       </c>
       <c r="D107" t="n">
-        <v>1.18105652173913</v>
+        <v>1.24222622327331</v>
       </c>
       <c r="E107" t="n">
-        <v>54.6</v>
+        <v>51.083232963765</v>
       </c>
       <c r="F107" t="n">
         <v>-2</v>
       </c>
       <c r="G107" t="n">
-        <v>3.74333333333333</v>
+        <v>3.39622396475387</v>
       </c>
       <c r="H107"/>
       <c r="I107" t="n">
         <v>-2</v>
       </c>
-      <c r="J107" t="n">
-        <v>223.460252056667</v>
-      </c>
-      <c r="K107"/>
+      <c r="J107"/>
+      <c r="K107" t="n">
+        <v>229.163996408124</v>
+      </c>
+      <c r="L107" t="n">
+        <v>179.572898409062</v>
+      </c>
+      <c r="M107" t="n">
+        <v>224.454596507918</v>
+      </c>
+      <c r="N107" t="n">
+        <v>211.862085990192</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -4125,28 +5097,37 @@
         <v>11</v>
       </c>
       <c r="C108" t="n">
-        <v>41.09</v>
+        <v>41.24238683978</v>
       </c>
       <c r="D108" t="n">
-        <v>1.18105652173913</v>
+        <v>1.24222622327331</v>
       </c>
       <c r="E108" t="n">
-        <v>54.6</v>
+        <v>51.083232963765</v>
       </c>
       <c r="F108" t="n">
         <v>-2</v>
       </c>
       <c r="G108" t="n">
-        <v>3.74333333333333</v>
+        <v>3.39622396475387</v>
       </c>
       <c r="H108"/>
       <c r="I108" t="n">
         <v>-2</v>
       </c>
-      <c r="J108" t="n">
-        <v>223.460252056667</v>
-      </c>
-      <c r="K108"/>
+      <c r="J108"/>
+      <c r="K108" t="n">
+        <v>229.010591690114</v>
+      </c>
+      <c r="L108" t="n">
+        <v>183.663360993</v>
+      </c>
+      <c r="M108" t="n">
+        <v>219.371549355299</v>
+      </c>
+      <c r="N108" t="n">
+        <v>211.862085990192</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -4156,28 +5137,37 @@
         <v>12</v>
       </c>
       <c r="C109" t="n">
-        <v>41.09</v>
+        <v>41.24238683978</v>
       </c>
       <c r="D109" t="n">
-        <v>1.18105652173913</v>
+        <v>1.24222622327331</v>
       </c>
       <c r="E109" t="n">
-        <v>54.6</v>
+        <v>51.083232963765</v>
       </c>
       <c r="F109" t="n">
         <v>-2</v>
       </c>
       <c r="G109" t="n">
-        <v>3.74333333333333</v>
+        <v>3.39622396475387</v>
       </c>
       <c r="H109"/>
       <c r="I109" t="n">
         <v>-2</v>
       </c>
-      <c r="J109" t="n">
-        <v>223.460252056667</v>
-      </c>
-      <c r="K109"/>
+      <c r="J109"/>
+      <c r="K109" t="n">
+        <v>228.857444967703</v>
+      </c>
+      <c r="L109" t="n">
+        <v>186.928688984893</v>
+      </c>
+      <c r="M109" t="n">
+        <v>215.338369770789</v>
+      </c>
+      <c r="N109" t="n">
+        <v>211.862085990192</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -4205,10 +5195,19 @@
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
+      <c r="J110"/>
+      <c r="K110" t="n">
+        <v>227.612277443282</v>
+      </c>
+      <c r="L110" t="n">
+        <v>191.043830950561</v>
+      </c>
+      <c r="M110" t="n">
+        <v>213.646768802448</v>
+      </c>
+      <c r="N110" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K110"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -4236,10 +5235,19 @@
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
+      <c r="J111"/>
+      <c r="K111" t="n">
+        <v>227.612277443282</v>
+      </c>
+      <c r="L111" t="n">
+        <v>194.317866262773</v>
+      </c>
+      <c r="M111" t="n">
+        <v>212.300919412384</v>
+      </c>
+      <c r="N111" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K111"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -4267,10 +5275,19 @@
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
+      <c r="J112"/>
+      <c r="K112" t="n">
+        <v>227.612277443282</v>
+      </c>
+      <c r="L112" t="n">
+        <v>196.922711324022</v>
+      </c>
+      <c r="M112" t="n">
+        <v>211.23015236115</v>
+      </c>
+      <c r="N112" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K112"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -4298,10 +5315,19 @@
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
+      <c r="J113"/>
+      <c r="K113" t="n">
+        <v>227.612277443282</v>
+      </c>
+      <c r="L113" t="n">
+        <v>198.995144009096</v>
+      </c>
+      <c r="M113" t="n">
+        <v>210.378242714741</v>
+      </c>
+      <c r="N113" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K113"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -4329,10 +5355,19 @@
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
+      <c r="J114"/>
+      <c r="K114" t="n">
+        <v>227.612277443282</v>
+      </c>
+      <c r="L114" t="n">
+        <v>200.643985737941</v>
+      </c>
+      <c r="M114" t="n">
+        <v>209.700457528125</v>
+      </c>
+      <c r="N114" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K114"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -4360,10 +5395,19 @@
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
+      <c r="J115"/>
+      <c r="K115" t="n">
+        <v>227.612277443282</v>
+      </c>
+      <c r="L115" t="n">
+        <v>201.955815582336</v>
+      </c>
+      <c r="M115" t="n">
+        <v>209.161206961901</v>
+      </c>
+      <c r="N115" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K115"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -4391,10 +5435,19 @@
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
+      <c r="J116"/>
+      <c r="K116" t="n">
+        <v>227.612277443282</v>
+      </c>
+      <c r="L116" t="n">
+        <v>202.999516448551</v>
+      </c>
+      <c r="M116" t="n">
+        <v>208.732175494536</v>
+      </c>
+      <c r="N116" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K116"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -4422,10 +5475,19 @@
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J117"/>
+      <c r="K117" t="n">
+        <v>227.612277443282</v>
+      </c>
+      <c r="L117" t="n">
+        <v>203.829892051599</v>
+      </c>
+      <c r="M117" t="n">
+        <v>208.390835101927</v>
+      </c>
+      <c r="N117" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K117"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -4453,10 +5515,19 @@
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J118"/>
+      <c r="K118" t="n">
+        <v>227.612277443282</v>
+      </c>
+      <c r="L118" t="n">
+        <v>204.490544604892</v>
+      </c>
+      <c r="M118" t="n">
+        <v>208.119262332819</v>
+      </c>
+      <c r="N118" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K118"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -4484,10 +5555,19 @@
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
+      <c r="J119"/>
+      <c r="K119" t="n">
+        <v>227.76238883792</v>
+      </c>
+      <c r="L119" t="n">
+        <v>205.005453149507</v>
+      </c>
+      <c r="M119" t="n">
+        <v>207.892485985409</v>
+      </c>
+      <c r="N119" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K119"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -4515,10 +5595,19 @@
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
+      <c r="J120"/>
+      <c r="K120" t="n">
+        <v>227.912748137663</v>
+      </c>
+      <c r="L120" t="n">
+        <v>205.404389067014</v>
+      </c>
+      <c r="M120" t="n">
+        <v>207.70133229063</v>
+      </c>
+      <c r="N120" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K120"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -4546,10 +5635,19 @@
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
+      <c r="J121"/>
+      <c r="K121" t="n">
+        <v>228.063355801169</v>
+      </c>
+      <c r="L121" t="n">
+        <v>205.711038641066</v>
+      </c>
+      <c r="M121" t="n">
+        <v>207.538502501852</v>
+      </c>
+      <c r="N121" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K121"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -4577,10 +5675,19 @@
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
+      <c r="J122"/>
+      <c r="K122" t="n">
+        <v>269.726019718482</v>
+      </c>
+      <c r="L122" t="n">
+        <v>214.371215901152</v>
+      </c>
+      <c r="M122" t="n">
+        <v>215.825158744904</v>
+      </c>
+      <c r="N122" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K122"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -4608,10 +5715,19 @@
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
+      <c r="J123"/>
+      <c r="K123" t="n">
+        <v>269.877125256161</v>
+      </c>
+      <c r="L123" t="n">
+        <v>221.250530503641</v>
+      </c>
+      <c r="M123" t="n">
+        <v>222.407297451681</v>
+      </c>
+      <c r="N123" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K123"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -4639,10 +5755,19 @@
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
+      <c r="J124"/>
+      <c r="K124" t="n">
+        <v>270.028480380693</v>
+      </c>
+      <c r="L124" t="n">
+        <v>226.712960691601</v>
+      </c>
+      <c r="M124" t="n">
+        <v>227.633292448678</v>
+      </c>
+      <c r="N124" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K124"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -4670,10 +5795,19 @@
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
+      <c r="J125"/>
+      <c r="K125" t="n">
+        <v>270.180085474293</v>
+      </c>
+      <c r="L125" t="n">
+        <v>231.04809003673</v>
+      </c>
+      <c r="M125" t="n">
+        <v>231.780312326206</v>
+      </c>
+      <c r="N125" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K125"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -4701,10 +5835,19 @@
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
+      <c r="J126"/>
+      <c r="K126" t="n">
+        <v>270.331940919178</v>
+      </c>
+      <c r="L126" t="n">
+        <v>234.4863131974</v>
+      </c>
+      <c r="M126" t="n">
+        <v>235.068874297876</v>
+      </c>
+      <c r="N126" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K126"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -4732,10 +5875,19 @@
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
+      <c r="J127"/>
+      <c r="K127" t="n">
+        <v>270.484047174007</v>
+      </c>
+      <c r="L127" t="n">
+        <v>237.210933719122</v>
+      </c>
+      <c r="M127" t="n">
+        <v>237.674423346064</v>
+      </c>
+      <c r="N127" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K127"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -4763,10 +5915,19 @@
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
+      <c r="J128"/>
+      <c r="K128" t="n">
+        <v>270.636404697437</v>
+      </c>
+      <c r="L128" t="n">
+        <v>239.367789133426</v>
+      </c>
+      <c r="M128" t="n">
+        <v>239.736544675303</v>
+      </c>
+      <c r="N128" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K128"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -4794,10 +5955,19 @@
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
+      <c r="J129"/>
+      <c r="K129" t="n">
+        <v>270.789013795243</v>
+      </c>
+      <c r="L129" t="n">
+        <v>241.072908763791</v>
+      </c>
+      <c r="M129" t="n">
+        <v>241.366293214619</v>
+      </c>
+      <c r="N129" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K129"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -4825,10 +5995,19 @@
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
+      <c r="J130"/>
+      <c r="K130" t="n">
+        <v>270.941874926082</v>
+      </c>
+      <c r="L130" t="n">
+        <v>242.418606306999</v>
+      </c>
+      <c r="M130" t="n">
+        <v>242.652024998281</v>
+      </c>
+      <c r="N130" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K130"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -4856,10 +6035,19 @@
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
+      <c r="J131"/>
+      <c r="K131" t="n">
+        <v>271.094988548613</v>
+      </c>
+      <c r="L131" t="n">
+        <v>243.478327143773</v>
+      </c>
+      <c r="M131" t="n">
+        <v>243.664036663436</v>
+      </c>
+      <c r="N131" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K131"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -4887,10 +6075,19 @@
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
+      <c r="J132"/>
+      <c r="K132" t="n">
+        <v>271.248355045053</v>
+      </c>
+      <c r="L132" t="n">
+        <v>244.310504897977</v>
+      </c>
+      <c r="M132" t="n">
+        <v>244.458256671856</v>
+      </c>
+      <c r="N132" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K132"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -4918,10 +6115,19 @@
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
+      <c r="J133"/>
+      <c r="K133" t="n">
+        <v>271.40197487406</v>
+      </c>
+      <c r="L133" t="n">
+        <v>244.961629730794</v>
+      </c>
+      <c r="M133" t="n">
+        <v>245.079182060496</v>
+      </c>
+      <c r="N133" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K133"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -4949,10 +6155,19 @@
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
+      <c r="J134"/>
+      <c r="K134" t="n">
+        <v>278.091898234862</v>
+      </c>
+      <c r="L134" t="n">
+        <v>248.093567903955</v>
+      </c>
+      <c r="M134" t="n">
+        <v>248.187093347715</v>
+      </c>
+      <c r="N134" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K134"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -4980,10 +6195,19 @@
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
+      <c r="J135"/>
+      <c r="K135" t="n">
+        <v>278.24602587565</v>
+      </c>
+      <c r="L135" t="n">
+        <v>250.57436174274</v>
+      </c>
+      <c r="M135" t="n">
+        <v>250.648771230437</v>
+      </c>
+      <c r="N135" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K135"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -5011,10 +6235,19 @@
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
+      <c r="J136"/>
+      <c r="K136" t="n">
+        <v>278.400408072095</v>
+      </c>
+      <c r="L136" t="n">
+        <v>252.537082497184</v>
+      </c>
+      <c r="M136" t="n">
+        <v>252.596283198476</v>
+      </c>
+      <c r="N136" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K136"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -5042,10 +6275,19 @@
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
+      <c r="J137"/>
+      <c r="K137" t="n">
+        <v>278.555045282856</v>
+      </c>
+      <c r="L137" t="n">
+        <v>254.087602538302</v>
+      </c>
+      <c r="M137" t="n">
+        <v>254.134703024301</v>
+      </c>
+      <c r="N137" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K137"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -5073,10 +6315,19 @@
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
+      <c r="J138"/>
+      <c r="K138" t="n">
+        <v>278.709937813706</v>
+      </c>
+      <c r="L138" t="n">
+        <v>255.310154632399</v>
+      </c>
+      <c r="M138" t="n">
+        <v>255.347628103708</v>
+      </c>
+      <c r="N138" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K138"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -5104,10 +6355,19 @@
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
+      <c r="J139"/>
+      <c r="K139" t="n">
+        <v>278.865086276189</v>
+      </c>
+      <c r="L139" t="n">
+        <v>256.2717549053</v>
+      </c>
+      <c r="M139" t="n">
+        <v>256.301569057365</v>
+      </c>
+      <c r="N139" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K139"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -5135,10 +6395,19 @@
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
+      <c r="J140"/>
+      <c r="K140" t="n">
+        <v>279.020490899636</v>
+      </c>
+      <c r="L140" t="n">
+        <v>257.025721832267</v>
+      </c>
+      <c r="M140" t="n">
+        <v>257.049442177149</v>
+      </c>
+      <c r="N140" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K140"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -5166,10 +6435,19 @@
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
+      <c r="J141"/>
+      <c r="K141" t="n">
+        <v>279.176152142705</v>
+      </c>
+      <c r="L141" t="n">
+        <v>257.614475926997</v>
+      </c>
+      <c r="M141" t="n">
+        <v>257.633347996883</v>
+      </c>
+      <c r="N141" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K141"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -5197,10 +6475,19 @@
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
+      <c r="J142"/>
+      <c r="K142" t="n">
+        <v>279.332070540498</v>
+      </c>
+      <c r="L142" t="n">
+        <v>258.071767204399</v>
+      </c>
+      <c r="M142" t="n">
+        <v>258.086781953279</v>
+      </c>
+      <c r="N142" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K142"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -5228,10 +6515,19 @@
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
+      <c r="J143"/>
+      <c r="K143" t="n">
+        <v>279.488246475231</v>
+      </c>
+      <c r="L143" t="n">
+        <v>258.424447381687</v>
+      </c>
+      <c r="M143" t="n">
+        <v>258.436393219387</v>
+      </c>
+      <c r="N143" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K143"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -5259,10 +6555,19 @@
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
+      <c r="J144"/>
+      <c r="K144" t="n">
+        <v>279.644680329119</v>
+      </c>
+      <c r="L144" t="n">
+        <v>258.693879842883</v>
+      </c>
+      <c r="M144" t="n">
+        <v>258.703384033696</v>
+      </c>
+      <c r="N144" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K144"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -5290,10 +6595,19 @@
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
+      <c r="J145"/>
+      <c r="K145" t="n">
+        <v>279.801372484378</v>
+      </c>
+      <c r="L145" t="n">
+        <v>258.897061416294</v>
+      </c>
+      <c r="M145" t="n">
+        <v>258.904623016015</v>
+      </c>
+      <c r="N145" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K145"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -5321,10 +6635,19 @@
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
+      <c r="J146"/>
+      <c r="K146" t="n">
+        <v>288.045351132758</v>
+      </c>
+      <c r="L146" t="n">
+        <v>260.740487872349</v>
+      </c>
+      <c r="M146" t="n">
+        <v>260.746503933206</v>
+      </c>
+      <c r="N146" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K146"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -5352,10 +6675,19 @@
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
+      <c r="J147"/>
+      <c r="K147" t="n">
+        <v>288.202561343179</v>
+      </c>
+      <c r="L147" t="n">
+        <v>262.195912951332</v>
+      </c>
+      <c r="M147" t="n">
+        <v>262.200699370817</v>
+      </c>
+      <c r="N147" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K147"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -5383,10 +6715,19 @@
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
+      <c r="J148"/>
+      <c r="K148" t="n">
+        <v>288.360031230948</v>
+      </c>
+      <c r="L148" t="n">
+        <v>263.342622931104</v>
+      </c>
+      <c r="M148" t="n">
+        <v>263.346431039437</v>
+      </c>
+      <c r="N148" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K148"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -5414,10 +6755,19 @@
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
+      <c r="J149"/>
+      <c r="K149" t="n">
+        <v>288.517761101837</v>
+      </c>
+      <c r="L149" t="n">
+        <v>264.243698499008</v>
+      </c>
+      <c r="M149" t="n">
+        <v>264.246728256246</v>
+      </c>
+      <c r="N149" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K149"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -5445,10 +6795,19 @@
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
+      <c r="J150"/>
+      <c r="K150" t="n">
+        <v>288.675751567391</v>
+      </c>
+      <c r="L150" t="n">
+        <v>264.94932704105</v>
+      </c>
+      <c r="M150" t="n">
+        <v>264.951737536792</v>
+      </c>
+      <c r="N150" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K150"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -5476,10 +6835,19 @@
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
+      <c r="J151"/>
+      <c r="K151" t="n">
+        <v>288.834002933384</v>
+      </c>
+      <c r="L151" t="n">
+        <v>265.499437965646</v>
+      </c>
+      <c r="M151" t="n">
+        <v>265.501355772673</v>
+      </c>
+      <c r="N151" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K151"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -5507,10 +6875,19 @@
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
+      <c r="J152"/>
+      <c r="K152" t="n">
+        <v>288.992515658472</v>
+      </c>
+      <c r="L152" t="n">
+        <v>265.925799352623</v>
+      </c>
+      <c r="M152" t="n">
+        <v>265.927325173112</v>
+      </c>
+      <c r="N152" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K152"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -5538,10 +6915,19 @@
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
+      <c r="J153"/>
+      <c r="K153" t="n">
+        <v>289.151290201317</v>
+      </c>
+      <c r="L153" t="n">
+        <v>266.253686072531</v>
+      </c>
+      <c r="M153" t="n">
+        <v>266.254900025829</v>
+      </c>
+      <c r="N153" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K153"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -5569,10 +6955,19 @@
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
+      <c r="J154"/>
+      <c r="K154" t="n">
+        <v>289.310326944133</v>
+      </c>
+      <c r="L154" t="n">
+        <v>266.503206959317</v>
+      </c>
+      <c r="M154" t="n">
+        <v>266.504172788928</v>
+      </c>
+      <c r="N154" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K154"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -5600,10 +6995,19 @@
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
+      <c r="J155"/>
+      <c r="K155" t="n">
+        <v>289.469626345579</v>
+      </c>
+      <c r="L155" t="n">
+        <v>266.690360707147</v>
+      </c>
+      <c r="M155" t="n">
+        <v>266.691129127843</v>
+      </c>
+      <c r="N155" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K155"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -5631,10 +7035,19 @@
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
+      <c r="J156"/>
+      <c r="K156" t="n">
+        <v>289.629188864314</v>
+      </c>
+      <c r="L156" t="n">
+        <v>266.827875954645</v>
+      </c>
+      <c r="M156" t="n">
+        <v>266.828487315447</v>
+      </c>
+      <c r="N156" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K156"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -5662,10 +7075,19 @@
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
+      <c r="J157"/>
+      <c r="K157" t="n">
+        <v>289.789014882553</v>
+      </c>
+      <c r="L157" t="n">
+        <v>266.925879667161</v>
+      </c>
+      <c r="M157" t="n">
+        <v>266.926366070029</v>
+      </c>
+      <c r="N157" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K157"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -5693,10 +7115,19 @@
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
+      <c r="J158"/>
+      <c r="K158" t="n">
+        <v>255.299599399891</v>
+      </c>
+      <c r="L158" t="n">
+        <v>261.734300915537</v>
+      </c>
+      <c r="M158" t="n">
+        <v>261.734687901012</v>
+      </c>
+      <c r="N158" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K158"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -5724,10 +7155,19 @@
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
+      <c r="J159"/>
+      <c r="K159" t="n">
+        <v>255.459953793117</v>
+      </c>
+      <c r="L159" t="n">
+        <v>257.592403008519</v>
+      </c>
+      <c r="M159" t="n">
+        <v>257.59271089683</v>
+      </c>
+      <c r="N159" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K159"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -5755,10 +7195,19 @@
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
+      <c r="J160"/>
+      <c r="K160" t="n">
+        <v>255.620573061823</v>
+      </c>
+      <c r="L160" t="n">
+        <v>254.285619516418</v>
+      </c>
+      <c r="M160" t="n">
+        <v>254.28586447448</v>
+      </c>
+      <c r="N160" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K160"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -5786,10 +7235,19 @@
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
+      <c r="J161"/>
+      <c r="K161" t="n">
+        <v>255.781457588227</v>
+      </c>
+      <c r="L161" t="n">
+        <v>251.643239881563</v>
+      </c>
+      <c r="M161" t="n">
+        <v>251.643434771886</v>
+      </c>
+      <c r="N161" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K161"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -5817,10 +7275,19 @@
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
+      <c r="J162"/>
+      <c r="K162" t="n">
+        <v>255.942607830986</v>
+      </c>
+      <c r="L162" t="n">
+        <v>249.529445574894</v>
+      </c>
+      <c r="M162" t="n">
+        <v>249.529600630978</v>
+      </c>
+      <c r="N162" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K162"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -5848,10 +7315,19 @@
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
+      <c r="J163"/>
+      <c r="K163" t="n">
+        <v>256.104024172317</v>
+      </c>
+      <c r="L163" t="n">
+        <v>247.836178411262</v>
+      </c>
+      <c r="M163" t="n">
+        <v>247.836301774952</v>
+      </c>
+      <c r="N163" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K163"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -5879,10 +7355,19 @@
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
+      <c r="J164"/>
+      <c r="K164" t="n">
+        <v>256.265707147321</v>
+      </c>
+      <c r="L164" t="n">
+        <v>246.477466515575</v>
+      </c>
+      <c r="M164" t="n">
+        <v>246.477564664577</v>
+      </c>
+      <c r="N164" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K164"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -5910,10 +7395,19 @@
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
+      <c r="J165"/>
+      <c r="K165" t="n">
+        <v>256.427657214657</v>
+      </c>
+      <c r="L165" t="n">
+        <v>245.384910038702</v>
+      </c>
+      <c r="M165" t="n">
+        <v>245.384988126724</v>
+      </c>
+      <c r="N165" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K165"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -5941,10 +7435,19 @@
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
+      <c r="J166"/>
+      <c r="K166" t="n">
+        <v>256.589874680098</v>
+      </c>
+      <c r="L166" t="n">
+        <v>244.504089567401</v>
+      </c>
+      <c r="M166" t="n">
+        <v>244.50415169477</v>
+      </c>
+      <c r="N166" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K166"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -5972,10 +7475,19 @@
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
+      <c r="J167"/>
+      <c r="K167" t="n">
+        <v>256.752360078746</v>
+      </c>
+      <c r="L167" t="n">
+        <v>243.791708603219</v>
+      </c>
+      <c r="M167" t="n">
+        <v>243.791758032181</v>
+      </c>
+      <c r="N167" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K167"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -6003,10 +7515,19 @@
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
+      <c r="J168"/>
+      <c r="K168" t="n">
+        <v>256.91511386926</v>
+      </c>
+      <c r="L168" t="n">
+        <v>243.213320120828</v>
+      </c>
+      <c r="M168" t="n">
+        <v>243.213359446852</v>
+      </c>
+      <c r="N168" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K168"/>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -6034,10 +7555,19 @@
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
+      <c r="J169"/>
+      <c r="K169" t="n">
+        <v>257.078136433855</v>
+      </c>
+      <c r="L169" t="n">
+        <v>242.741517802176</v>
+      </c>
+      <c r="M169" t="n">
+        <v>242.741549090231</v>
+      </c>
+      <c r="N169" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K169"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -6065,10 +7595,19 @@
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
+      <c r="J170"/>
+      <c r="K170" t="n">
+        <v>260.761257896831</v>
+      </c>
+      <c r="L170" t="n">
+        <v>242.964306698474</v>
+      </c>
+      <c r="M170" t="n">
+        <v>242.964331591466</v>
+      </c>
+      <c r="N170" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K170"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -6096,10 +7635,19 @@
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
+      <c r="J171"/>
+      <c r="K171" t="n">
+        <v>260.924819385565</v>
+      </c>
+      <c r="L171" t="n">
+        <v>243.129888169693</v>
+      </c>
+      <c r="M171" t="n">
+        <v>243.129907974729</v>
+      </c>
+      <c r="N171" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K171"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -6127,10 +7675,19 @@
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
+      <c r="J172"/>
+      <c r="K172" t="n">
+        <v>261.088651024358</v>
+      </c>
+      <c r="L172" t="n">
+        <v>243.249935742682</v>
+      </c>
+      <c r="M172" t="n">
+        <v>243.249951499705</v>
+      </c>
+      <c r="N172" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K172"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -6158,10 +7715,19 @@
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
+      <c r="J173"/>
+      <c r="K173" t="n">
+        <v>261.252753271866</v>
+      </c>
+      <c r="L173" t="n">
+        <v>243.333736923136</v>
+      </c>
+      <c r="M173" t="n">
+        <v>243.333749459533</v>
+      </c>
+      <c r="N173" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K173"/>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -6189,10 +7755,19 @@
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
+      <c r="J174"/>
+      <c r="K174" t="n">
+        <v>261.417126510308</v>
+      </c>
+      <c r="L174" t="n">
+        <v>243.388680887331</v>
+      </c>
+      <c r="M174" t="n">
+        <v>243.388690861374</v>
+      </c>
+      <c r="N174" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K174"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -6220,10 +7795,19 @@
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
+      <c r="J175"/>
+      <c r="K175" t="n">
+        <v>261.58177119834</v>
+      </c>
+      <c r="L175" t="n">
+        <v>243.420646482113</v>
+      </c>
+      <c r="M175" t="n">
+        <v>243.42065441753</v>
+      </c>
+      <c r="N175" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K175"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -6251,10 +7835,19 @@
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
+      <c r="J176"/>
+      <c r="K176" t="n">
+        <v>261.746687871066</v>
+      </c>
+      <c r="L176" t="n">
+        <v>243.434310920372</v>
+      </c>
+      <c r="M176" t="n">
+        <v>243.434317233845</v>
+      </c>
+      <c r="N176" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K176"/>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -6282,10 +7875,19 @@
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
+      <c r="J177"/>
+      <c r="K177" t="n">
+        <v>261.911876910701</v>
+      </c>
+      <c r="L177" t="n">
+        <v>243.433395397652</v>
+      </c>
+      <c r="M177" t="n">
+        <v>243.433400420694</v>
+      </c>
+      <c r="N177" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K177"/>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -6313,10 +7915,19 @@
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
+      <c r="J178"/>
+      <c r="K178" t="n">
+        <v>262.07733869946</v>
+      </c>
+      <c r="L178" t="n">
+        <v>243.420860495499</v>
+      </c>
+      <c r="M178" t="n">
+        <v>243.420864491866</v>
+      </c>
+      <c r="N178" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K178"/>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -6344,10 +7955,19 @@
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
+      <c r="J179"/>
+      <c r="K179" t="n">
+        <v>262.243073848889</v>
+      </c>
+      <c r="L179" t="n">
+        <v>243.399061629363</v>
+      </c>
+      <c r="M179" t="n">
+        <v>243.399064808901</v>
+      </c>
+      <c r="N179" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K179"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -6375,10 +7995,19 @@
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
+      <c r="J180"/>
+      <c r="K180" t="n">
+        <v>262.409082664761</v>
+      </c>
+      <c r="L180" t="n">
+        <v>243.369872762194</v>
+      </c>
+      <c r="M180" t="n">
+        <v>243.369875291856</v>
+      </c>
+      <c r="N180" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K180"/>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -6406,10 +8035,19 @@
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
+      <c r="J181"/>
+      <c r="K181" t="n">
+        <v>262.575365682177</v>
+      </c>
+      <c r="L181" t="n">
+        <v>243.334784793648</v>
+      </c>
+      <c r="M181" t="n">
+        <v>243.334786806264</v>
+      </c>
+      <c r="N181" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K181"/>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -6437,10 +8075,19 @@
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
+      <c r="J182"/>
+      <c r="K182" t="n">
+        <v>266.33918926104</v>
+      </c>
+      <c r="L182" t="n">
+        <v>243.918209412175</v>
+      </c>
+      <c r="M182" t="n">
+        <v>243.918211013427</v>
+      </c>
+      <c r="N182" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K182"/>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -6468,10 +8115,19 @@
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
+      <c r="J183"/>
+      <c r="K183" t="n">
+        <v>266.506021981078</v>
+      </c>
+      <c r="L183" t="n">
+        <v>244.370481731429</v>
+      </c>
+      <c r="M183" t="n">
+        <v>244.370483005396</v>
+      </c>
+      <c r="N183" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K183"/>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -6499,10 +8155,19 @@
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
+      <c r="J184"/>
+      <c r="K184" t="n">
+        <v>266.673130202194</v>
+      </c>
+      <c r="L184" t="n">
+        <v>244.718388719044</v>
+      </c>
+      <c r="M184" t="n">
+        <v>244.718389732621</v>
+      </c>
+      <c r="N184" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K184"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -6530,10 +8195,19 @@
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
+      <c r="J185"/>
+      <c r="K185" t="n">
+        <v>266.840514459489</v>
+      </c>
+      <c r="L185" t="n">
+        <v>244.983242232924</v>
+      </c>
+      <c r="M185" t="n">
+        <v>244.983243039333</v>
+      </c>
+      <c r="N185" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K185"/>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -6561,10 +8235,19 @@
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
+      <c r="J186"/>
+      <c r="K186" t="n">
+        <v>267.008175211623</v>
+      </c>
+      <c r="L186" t="n">
+        <v>245.181998101383</v>
+      </c>
+      <c r="M186" t="n">
+        <v>245.181998742967</v>
+      </c>
+      <c r="N186" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K186"/>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -6592,10 +8275,19 @@
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
+      <c r="J187"/>
+      <c r="K187" t="n">
+        <v>267.176112840811</v>
+      </c>
+      <c r="L187" t="n">
+        <v>245.328146471028</v>
+      </c>
+      <c r="M187" t="n">
+        <v>245.328146981476</v>
+      </c>
+      <c r="N187" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K187"/>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -6623,10 +8315,19 @@
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
+      <c r="J188"/>
+      <c r="K188" t="n">
+        <v>267.344327805712</v>
+      </c>
+      <c r="L188" t="n">
+        <v>245.432420162753</v>
+      </c>
+      <c r="M188" t="n">
+        <v>245.432420568869</v>
+      </c>
+      <c r="N188" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K188"/>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -6654,10 +8355,19 @@
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
+      <c r="J189"/>
+      <c r="K189" t="n">
+        <v>267.512820564985</v>
+      </c>
+      <c r="L189" t="n">
+        <v>245.503358250112</v>
+      </c>
+      <c r="M189" t="n">
+        <v>245.503358573222</v>
+      </c>
+      <c r="N189" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K189"/>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -6685,10 +8395,19 @@
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
+      <c r="J190"/>
+      <c r="K190" t="n">
+        <v>267.681591653731</v>
+      </c>
+      <c r="L190" t="n">
+        <v>245.547754440702</v>
+      </c>
+      <c r="M190" t="n">
+        <v>245.54775469777</v>
+      </c>
+      <c r="N190" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K190"/>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -6716,10 +8435,19 @@
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
+      <c r="J191"/>
+      <c r="K191" t="n">
+        <v>267.850641454168</v>
+      </c>
+      <c r="L191" t="n">
+        <v>245.571013827837</v>
+      </c>
+      <c r="M191" t="n">
+        <v>245.571014032362</v>
+      </c>
+      <c r="N191" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K191"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -6747,10 +8475,19 @@
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
+      <c r="J192"/>
+      <c r="K192" t="n">
+        <v>268.019970501396</v>
+      </c>
+      <c r="L192" t="n">
+        <v>245.577436702835</v>
+      </c>
+      <c r="M192" t="n">
+        <v>245.577436865556</v>
+      </c>
+      <c r="N192" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K192"/>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -6778,10 +8515,19 @@
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
+      <c r="J193"/>
+      <c r="K193" t="n">
+        <v>268.189579177631</v>
+      </c>
+      <c r="L193" t="n">
+        <v>245.570444379832</v>
+      </c>
+      <c r="M193" t="n">
+        <v>245.570444509294</v>
+      </c>
+      <c r="N193" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K193"/>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -6809,10 +8555,19 @@
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
+      <c r="J194"/>
+      <c r="K194" t="n">
+        <v>272.035873683941</v>
+      </c>
+      <c r="L194" t="n">
+        <v>246.189695359039</v>
+      </c>
+      <c r="M194" t="n">
+        <v>246.18969546204</v>
+      </c>
+      <c r="N194" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K194"/>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -6840,10 +8595,19 @@
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
+      <c r="J195"/>
+      <c r="K195" t="n">
+        <v>272.206043070611</v>
+      </c>
+      <c r="L195" t="n">
+        <v>246.670233290344</v>
+      </c>
+      <c r="M195" t="n">
+        <v>246.670233372292</v>
+      </c>
+      <c r="N195" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K195"/>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -6871,10 +8635,19 @@
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
+      <c r="J196"/>
+      <c r="K196" t="n">
+        <v>272.376493538707</v>
+      </c>
+      <c r="L196" t="n">
+        <v>247.040390108102</v>
+      </c>
+      <c r="M196" t="n">
+        <v>247.040390173301</v>
+      </c>
+      <c r="N196" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K196"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -6902,10 +8675,19 @@
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
+      <c r="J197"/>
+      <c r="K197" t="n">
+        <v>272.547225470446</v>
+      </c>
+      <c r="L197" t="n">
+        <v>247.322706867299</v>
+      </c>
+      <c r="M197" t="n">
+        <v>247.322706919172</v>
+      </c>
+      <c r="N197" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K197"/>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -6933,10 +8715,19 @@
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
+      <c r="J198"/>
+      <c r="K198" t="n">
+        <v>272.71823940093</v>
+      </c>
+      <c r="L198" t="n">
+        <v>247.535117348465</v>
+      </c>
+      <c r="M198" t="n">
+        <v>247.535117389735</v>
+      </c>
+      <c r="N198" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K198"/>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -6964,10 +8755,19 @@
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
+      <c r="J199"/>
+      <c r="K199" t="n">
+        <v>272.889535788817</v>
+      </c>
+      <c r="L199" t="n">
+        <v>247.691889758273</v>
+      </c>
+      <c r="M199" t="n">
+        <v>247.691889791108</v>
+      </c>
+      <c r="N199" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K199"/>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -6995,10 +8795,19 @@
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
+      <c r="J200"/>
+      <c r="K200" t="n">
+        <v>273.061115016323</v>
+      </c>
+      <c r="L200" t="n">
+        <v>247.804375953029</v>
+      </c>
+      <c r="M200" t="n">
+        <v>247.804375979153</v>
+      </c>
+      <c r="N200" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K200"/>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -7026,10 +8835,19 @@
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
+      <c r="J201"/>
+      <c r="K201" t="n">
+        <v>273.232977694994</v>
+      </c>
+      <c r="L201" t="n">
+        <v>247.881607504214</v>
+      </c>
+      <c r="M201" t="n">
+        <v>247.881607524998</v>
+      </c>
+      <c r="N201" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K201"/>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -7057,10 +8875,19 @@
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
+      <c r="J202"/>
+      <c r="K202" t="n">
+        <v>273.405124207045</v>
+      </c>
+      <c r="L202" t="n">
+        <v>247.930769965079</v>
+      </c>
+      <c r="M202" t="n">
+        <v>247.930769981615</v>
+      </c>
+      <c r="N202" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K202"/>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -7088,10 +8915,19 @@
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
+      <c r="J203"/>
+      <c r="K203" t="n">
+        <v>273.577555011134</v>
+      </c>
+      <c r="L203" t="n">
+        <v>247.957580178591</v>
+      </c>
+      <c r="M203" t="n">
+        <v>247.957580191747</v>
+      </c>
+      <c r="N203" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K203"/>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -7119,10 +8955,19 @@
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
+      <c r="J204"/>
+      <c r="K204" t="n">
+        <v>273.750270565921</v>
+      </c>
+      <c r="L204" t="n">
+        <v>247.96658647169</v>
+      </c>
+      <c r="M204" t="n">
+        <v>247.966586482157</v>
+      </c>
+      <c r="N204" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K204"/>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -7150,10 +8995,19 @@
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
+      <c r="J205"/>
+      <c r="K205" t="n">
+        <v>273.923271406508</v>
+      </c>
+      <c r="L205" t="n">
+        <v>247.961407486458</v>
+      </c>
+      <c r="M205" t="n">
+        <v>247.961407494785</v>
+      </c>
+      <c r="N205" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K205"/>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -7181,10 +9035,19 @@
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
+      <c r="J206"/>
+      <c r="K206" t="n">
+        <v>277.85384467052</v>
+      </c>
+      <c r="L206" t="n">
+        <v>248.59587132365</v>
+      </c>
+      <c r="M206" t="n">
+        <v>248.595871330275</v>
+      </c>
+      <c r="N206" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K206"/>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -7212,10 +9075,19 @@
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
+      <c r="J207"/>
+      <c r="K207" t="n">
+        <v>278.027417458683</v>
+      </c>
+      <c r="L207" t="n">
+        <v>249.088269860322</v>
+      </c>
+      <c r="M207" t="n">
+        <v>249.088269865593</v>
+      </c>
+      <c r="N207" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K207"/>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -7243,10 +9115,19 @@
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
+      <c r="J208"/>
+      <c r="K208" t="n">
+        <v>278.201276908622</v>
+      </c>
+      <c r="L208" t="n">
+        <v>249.467619809974</v>
+      </c>
+      <c r="M208" t="n">
+        <v>249.467619814168</v>
+      </c>
+      <c r="N208" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K208"/>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -7274,10 +9155,19 @@
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
+      <c r="J209"/>
+      <c r="K209" t="n">
+        <v>278.375423478996</v>
+      </c>
+      <c r="L209" t="n">
+        <v>249.757007037143</v>
+      </c>
+      <c r="M209" t="n">
+        <v>249.75700704048</v>
+      </c>
+      <c r="N209" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K209"/>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -7305,10 +9195,19 @@
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
+      <c r="J210"/>
+      <c r="K210" t="n">
+        <v>278.549857704906</v>
+      </c>
+      <c r="L210" t="n">
+        <v>249.974798776594</v>
+      </c>
+      <c r="M210" t="n">
+        <v>249.974798779249</v>
+      </c>
+      <c r="N210" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K210"/>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -7336,10 +9235,19 @@
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
+      <c r="J211"/>
+      <c r="K211" t="n">
+        <v>278.72457996857</v>
+      </c>
+      <c r="L211" t="n">
+        <v>250.135608099634</v>
+      </c>
+      <c r="M211" t="n">
+        <v>250.135608101746</v>
+      </c>
+      <c r="N211" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K211"/>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -7367,10 +9275,19 @@
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
+      <c r="J212"/>
+      <c r="K212" t="n">
+        <v>278.899590881531</v>
+      </c>
+      <c r="L212" t="n">
+        <v>250.25106122288</v>
+      </c>
+      <c r="M212" t="n">
+        <v>250.25106122456</v>
+      </c>
+      <c r="N212" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K212"/>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -7398,10 +9315,19 @@
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
+      <c r="J213"/>
+      <c r="K213" t="n">
+        <v>279.074890749563</v>
+      </c>
+      <c r="L213" t="n">
+        <v>250.33040802259</v>
+      </c>
+      <c r="M213" t="n">
+        <v>250.330408023927</v>
+      </c>
+      <c r="N213" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K213"/>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -7429,10 +9355,19 @@
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
+      <c r="J214"/>
+      <c r="K214" t="n">
+        <v>279.25048018421</v>
+      </c>
+      <c r="L214" t="n">
+        <v>250.381007720435</v>
+      </c>
+      <c r="M214" t="n">
+        <v>250.381007721499</v>
+      </c>
+      <c r="N214" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K214"/>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -7460,10 +9395,19 @@
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
+      <c r="J215"/>
+      <c r="K215" t="n">
+        <v>279.426359644132</v>
+      </c>
+      <c r="L215" t="n">
+        <v>250.408715331173</v>
+      </c>
+      <c r="M215" t="n">
+        <v>250.40871533202</v>
+      </c>
+      <c r="N215" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K215"/>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -7491,10 +9435,19 @@
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
+      <c r="J216"/>
+      <c r="K216" t="n">
+        <v>279.602529511544</v>
+      </c>
+      <c r="L216" t="n">
+        <v>250.418189117631</v>
+      </c>
+      <c r="M216" t="n">
+        <v>250.418189118304</v>
+      </c>
+      <c r="N216" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K216"/>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -7522,10 +9475,19 @@
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
+      <c r="J217"/>
+      <c r="K217" t="n">
+        <v>279.778990397991</v>
+      </c>
+      <c r="L217" t="n">
+        <v>250.413135182182</v>
+      </c>
+      <c r="M217" t="n">
+        <v>250.413135182718</v>
+      </c>
+      <c r="N217" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K217"/>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -7553,10 +9515,19 @@
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
+      <c r="J218"/>
+      <c r="K218" t="n">
+        <v>283.795689677151</v>
+      </c>
+      <c r="L218" t="n">
+        <v>251.061772096345</v>
+      </c>
+      <c r="M218" t="n">
+        <v>251.061772096771</v>
+      </c>
+      <c r="N218" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K218"/>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -7584,10 +9555,19 @@
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
+      <c r="J219"/>
+      <c r="K219" t="n">
+        <v>283.972733901202</v>
+      </c>
+      <c r="L219" t="n">
+        <v>251.565199126857</v>
+      </c>
+      <c r="M219" t="n">
+        <v>251.565199127196</v>
+      </c>
+      <c r="N219" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K219"/>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -7615,10 +9595,19 @@
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
+      <c r="J220"/>
+      <c r="K220" t="n">
+        <v>284.150070520264</v>
+      </c>
+      <c r="L220" t="n">
+        <v>251.953075309241</v>
+      </c>
+      <c r="M220" t="n">
+        <v>251.953075309511</v>
+      </c>
+      <c r="N220" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K220"/>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -7646,10 +9635,19 @@
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
+      <c r="J221"/>
+      <c r="K221" t="n">
+        <v>284.32770006944</v>
+      </c>
+      <c r="L221" t="n">
+        <v>252.248997538408</v>
+      </c>
+      <c r="M221" t="n">
+        <v>252.248997538622</v>
+      </c>
+      <c r="N221" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K221"/>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -7677,10 +9675,19 @@
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
+      <c r="J222"/>
+      <c r="K222" t="n">
+        <v>284.505622930946</v>
+      </c>
+      <c r="L222" t="n">
+        <v>252.47173963932</v>
+      </c>
+      <c r="M222" t="n">
+        <v>252.471739639491</v>
+      </c>
+      <c r="N222" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K222"/>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -7708,10 +9715,19 @@
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
+      <c r="J223"/>
+      <c r="K223" t="n">
+        <v>284.683839639882</v>
+      </c>
+      <c r="L223" t="n">
+        <v>252.636238158339</v>
+      </c>
+      <c r="M223" t="n">
+        <v>252.636238158475</v>
+      </c>
+      <c r="N223" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K223"/>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -7739,10 +9755,19 @@
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
+      <c r="J224"/>
+      <c r="K224" t="n">
+        <v>284.862350731353</v>
+      </c>
+      <c r="L224" t="n">
+        <v>252.754376676519</v>
+      </c>
+      <c r="M224" t="n">
+        <v>252.754376676627</v>
+      </c>
+      <c r="N224" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K224"/>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -7770,10 +9795,19 @@
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
+      <c r="J225"/>
+      <c r="K225" t="n">
+        <v>285.041156664015</v>
+      </c>
+      <c r="L225" t="n">
+        <v>252.83560982013</v>
+      </c>
+      <c r="M225" t="n">
+        <v>252.835609820216</v>
+      </c>
+      <c r="N225" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K225"/>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -7801,10 +9835,19 @@
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
+      <c r="J226"/>
+      <c r="K226" t="n">
+        <v>285.220257896528</v>
+      </c>
+      <c r="L226" t="n">
+        <v>252.887459722271</v>
+      </c>
+      <c r="M226" t="n">
+        <v>252.88745972234</v>
+      </c>
+      <c r="N226" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K226"/>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -7832,10 +9875,19 @@
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
+      <c r="J227"/>
+      <c r="K227" t="n">
+        <v>285.399654887552</v>
+      </c>
+      <c r="L227" t="n">
+        <v>252.915911011158</v>
+      </c>
+      <c r="M227" t="n">
+        <v>252.915911011212</v>
+      </c>
+      <c r="N227" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K227"/>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -7863,10 +9915,19 @@
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
+      <c r="J228"/>
+      <c r="K228" t="n">
+        <v>285.579348172187</v>
+      </c>
+      <c r="L228" t="n">
+        <v>252.925725060066</v>
+      </c>
+      <c r="M228" t="n">
+        <v>252.925725060109</v>
+      </c>
+      <c r="N228" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K228"/>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -7894,10 +9955,19 @@
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
+      <c r="J229"/>
+      <c r="K229" t="n">
+        <v>285.759338285536</v>
+      </c>
+      <c r="L229" t="n">
+        <v>252.920690012208</v>
+      </c>
+      <c r="M229" t="n">
+        <v>252.920690012242</v>
+      </c>
+      <c r="N229" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K229"/>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -7925,10 +9995,19 @@
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="n">
+      <c r="J230"/>
+      <c r="K230" t="n">
+        <v>289.86405141166</v>
+      </c>
+      <c r="L230" t="n">
+        <v>253.583725647722</v>
+      </c>
+      <c r="M230" t="n">
+        <v>253.583725647749</v>
+      </c>
+      <c r="N230" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K230"/>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -7956,10 +10035,19 @@
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="n">
+      <c r="J231"/>
+      <c r="K231" t="n">
+        <v>290.044636558414</v>
+      </c>
+      <c r="L231" t="n">
+        <v>254.098355738074</v>
+      </c>
+      <c r="M231" t="n">
+        <v>254.098355738096</v>
+      </c>
+      <c r="N231" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K231"/>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -7987,10 +10075,19 @@
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="n">
+      <c r="J232"/>
+      <c r="K232" t="n">
+        <v>290.225519909857</v>
+      </c>
+      <c r="L232" t="n">
+        <v>254.494892075426</v>
+      </c>
+      <c r="M232" t="n">
+        <v>254.494892075443</v>
+      </c>
+      <c r="N232" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K232"/>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -8018,10 +10115,19 @@
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
+      <c r="J233"/>
+      <c r="K233" t="n">
+        <v>290.406702001093</v>
+      </c>
+      <c r="L233" t="n">
+        <v>254.797450892366</v>
+      </c>
+      <c r="M233" t="n">
+        <v>254.79745089238</v>
+      </c>
+      <c r="N233" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K233"/>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -8049,10 +10155,19 @@
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
+      <c r="J234"/>
+      <c r="K234" t="n">
+        <v>290.588183367224</v>
+      </c>
+      <c r="L234" t="n">
+        <v>255.025219191587</v>
+      </c>
+      <c r="M234" t="n">
+        <v>255.025219191598</v>
+      </c>
+      <c r="N234" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K234"/>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -8080,10 +10195,19 @@
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
+      <c r="J235"/>
+      <c r="K235" t="n">
+        <v>290.769964466907</v>
+      </c>
+      <c r="L235" t="n">
+        <v>255.193462251952</v>
+      </c>
+      <c r="M235" t="n">
+        <v>255.193462251961</v>
+      </c>
+      <c r="N235" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K235"/>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -8111,10 +10235,19 @@
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
+      <c r="J236"/>
+      <c r="K236" t="n">
+        <v>290.952045758803</v>
+      </c>
+      <c r="L236" t="n">
+        <v>255.314325201817</v>
+      </c>
+      <c r="M236" t="n">
+        <v>255.314325201824</v>
+      </c>
+      <c r="N236" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K236"/>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -8142,10 +10275,19 @@
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="n">
+      <c r="J237"/>
+      <c r="K237" t="n">
+        <v>291.134427778012</v>
+      </c>
+      <c r="L237" t="n">
+        <v>255.397470750831</v>
+      </c>
+      <c r="M237" t="n">
+        <v>255.397470750837</v>
+      </c>
+      <c r="N237" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K237"/>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -8173,10 +10315,19 @@
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
+      <c r="J238"/>
+      <c r="K238" t="n">
+        <v>291.317110983194</v>
+      </c>
+      <c r="L238" t="n">
+        <v>255.450586584666</v>
+      </c>
+      <c r="M238" t="n">
+        <v>255.45058658467</v>
+      </c>
+      <c r="N238" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K238"/>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -8204,10 +10355,19 @@
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="n">
+      <c r="J239"/>
+      <c r="K239" t="n">
+        <v>291.500095985895</v>
+      </c>
+      <c r="L239" t="n">
+        <v>255.479789035393</v>
+      </c>
+      <c r="M239" t="n">
+        <v>255.479789035396</v>
+      </c>
+      <c r="N239" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K239"/>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -8235,10 +10395,19 @@
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="n">
+      <c r="J240"/>
+      <c r="K240" t="n">
+        <v>291.683383091886</v>
+      </c>
+      <c r="L240" t="n">
+        <v>255.489944277149</v>
+      </c>
+      <c r="M240" t="n">
+        <v>255.489944277152</v>
+      </c>
+      <c r="N240" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K240"/>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -8266,10 +10435,19 @@
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="n">
+      <c r="J241"/>
+      <c r="K241" t="n">
+        <v>291.866972989155</v>
+      </c>
+      <c r="L241" t="n">
+        <v>255.484923822526</v>
+      </c>
+      <c r="M241" t="n">
+        <v>255.484923822529</v>
+      </c>
+      <c r="N241" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K241"/>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -8297,10 +10475,19 @@
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="n">
+      <c r="J242"/>
+      <c r="K242" t="n">
+        <v>296.061629333094</v>
+      </c>
+      <c r="L242" t="n">
+        <v>256.162671710323</v>
+      </c>
+      <c r="M242" t="n">
+        <v>256.162671710325</v>
+      </c>
+      <c r="N242" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K242"/>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -8328,10 +10515,19 @@
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="n">
+      <c r="J243"/>
+      <c r="K243" t="n">
+        <v>296.245826112454</v>
+      </c>
+      <c r="L243" t="n">
+        <v>256.68874926239</v>
+      </c>
+      <c r="M243" t="n">
+        <v>256.688749262392</v>
+      </c>
+      <c r="N243" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K243"/>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -8359,10 +10555,19 @@
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="n">
+      <c r="J244"/>
+      <c r="K244" t="n">
+        <v>296.430327135513</v>
+      </c>
+      <c r="L244" t="n">
+        <v>257.094135140664</v>
+      </c>
+      <c r="M244" t="n">
+        <v>257.094135140665</v>
+      </c>
+      <c r="N244" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K244"/>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -8390,10 +10595,19 @@
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="n">
+      <c r="J245"/>
+      <c r="K245" t="n">
+        <v>296.615132937373</v>
+      </c>
+      <c r="L245" t="n">
+        <v>257.403476143924</v>
+      </c>
+      <c r="M245" t="n">
+        <v>257.403476143925</v>
+      </c>
+      <c r="N245" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K245"/>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -8421,10 +10635,19 @@
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="n">
+      <c r="J246"/>
+      <c r="K246" t="n">
+        <v>296.800243900249</v>
+      </c>
+      <c r="L246" t="n">
+        <v>257.636381407892</v>
+      </c>
+      <c r="M246" t="n">
+        <v>257.636381407892</v>
+      </c>
+      <c r="N246" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K246"/>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -8452,10 +10675,19 @@
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="n">
+      <c r="J247"/>
+      <c r="K247" t="n">
+        <v>296.985660559242</v>
+      </c>
+      <c r="L247" t="n">
+        <v>257.808452057921</v>
+      </c>
+      <c r="M247" t="n">
+        <v>257.808452057921</v>
+      </c>
+      <c r="N247" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K247"/>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -8483,10 +10715,19 @@
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="n">
+      <c r="J248"/>
+      <c r="K248" t="n">
+        <v>297.171383525899</v>
+      </c>
+      <c r="L248" t="n">
+        <v>257.932100413241</v>
+      </c>
+      <c r="M248" t="n">
+        <v>257.932100413242</v>
+      </c>
+      <c r="N248" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K248"/>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -8514,10 +10755,19 @@
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="n">
+      <c r="J249"/>
+      <c r="K249" t="n">
+        <v>297.357413182435</v>
+      </c>
+      <c r="L249" t="n">
+        <v>258.017201773314</v>
+      </c>
+      <c r="M249" t="n">
+        <v>258.017201773314</v>
+      </c>
+      <c r="N249" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K249"/>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -8545,10 +10795,19 @@
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="n">
+      <c r="J250"/>
+      <c r="K250" t="n">
+        <v>297.543750063952</v>
+      </c>
+      <c r="L250" t="n">
+        <v>258.071612956273</v>
+      </c>
+      <c r="M250" t="n">
+        <v>258.071612956273</v>
+      </c>
+      <c r="N250" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K250"/>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -8576,10 +10835,19 @@
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="n">
+      <c r="J251"/>
+      <c r="K251" t="n">
+        <v>297.730394705552</v>
+      </c>
+      <c r="L251" t="n">
+        <v>258.101584862601</v>
+      </c>
+      <c r="M251" t="n">
+        <v>258.101584862601</v>
+      </c>
+      <c r="N251" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K251"/>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -8607,10 +10875,19 @@
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="n">
+      <c r="J252"/>
+      <c r="K252" t="n">
+        <v>297.917347642337</v>
+      </c>
+      <c r="L252" t="n">
+        <v>258.112090713622</v>
+      </c>
+      <c r="M252" t="n">
+        <v>258.112090713622</v>
+      </c>
+      <c r="N252" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K252"/>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -8638,10 +10915,19 @@
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="n">
+      <c r="J253"/>
+      <c r="K253" t="n">
+        <v>298.104609332965</v>
+      </c>
+      <c r="L253" t="n">
+        <v>258.107087205776</v>
+      </c>
+      <c r="M253" t="n">
+        <v>258.107087205776</v>
+      </c>
+      <c r="N253" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K253"/>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -8669,10 +10955,19 @@
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="n">
+      <c r="J254"/>
+      <c r="K254" t="n">
+        <v>302.391180280168</v>
+      </c>
+      <c r="L254" t="n">
+        <v>258.799873147409</v>
+      </c>
+      <c r="M254" t="n">
+        <v>258.799873147409</v>
+      </c>
+      <c r="N254" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K254"/>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -8700,10 +10995,19 @@
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="n">
+      <c r="J255"/>
+      <c r="K255" t="n">
+        <v>302.579061007347</v>
+      </c>
+      <c r="L255" t="n">
+        <v>259.337652211109</v>
+      </c>
+      <c r="M255" t="n">
+        <v>259.337652211109</v>
+      </c>
+      <c r="N255" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K255"/>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -8731,10 +11035,19 @@
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="n">
+      <c r="J256"/>
+      <c r="K256" t="n">
+        <v>302.767252017232</v>
+      </c>
+      <c r="L256" t="n">
+        <v>259.752084594127</v>
+      </c>
+      <c r="M256" t="n">
+        <v>259.752084594127</v>
+      </c>
+      <c r="N256" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K256"/>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -8762,10 +11075,19 @@
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="n">
+      <c r="J257"/>
+      <c r="K257" t="n">
+        <v>302.955753921369</v>
+      </c>
+      <c r="L257" t="n">
+        <v>260.068359323986</v>
+      </c>
+      <c r="M257" t="n">
+        <v>260.068359323986</v>
+      </c>
+      <c r="N257" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K257"/>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -8793,10 +11115,19 @@
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="n">
+      <c r="J258"/>
+      <c r="K258" t="n">
+        <v>303.144567101973</v>
+      </c>
+      <c r="L258" t="n">
+        <v>260.306516937327</v>
+      </c>
+      <c r="M258" t="n">
+        <v>260.306516937327</v>
+      </c>
+      <c r="N258" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K258"/>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -8824,10 +11155,19 @@
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="n">
+      <c r="J259"/>
+      <c r="K259" t="n">
+        <v>303.333692094147</v>
+      </c>
+      <c r="L259" t="n">
+        <v>260.482501785054</v>
+      </c>
+      <c r="M259" t="n">
+        <v>260.482501785054</v>
+      </c>
+      <c r="N259" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K259"/>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -8855,10 +11195,19 @@
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="n">
+      <c r="J260"/>
+      <c r="K260" t="n">
+        <v>303.523129509435</v>
+      </c>
+      <c r="L260" t="n">
+        <v>260.608999259009</v>
+      </c>
+      <c r="M260" t="n">
+        <v>260.608999259009</v>
+      </c>
+      <c r="N260" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K260"/>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -8886,10 +11235,19 @@
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="n">
+      <c r="J261"/>
+      <c r="K261" t="n">
+        <v>303.712879806497</v>
+      </c>
+      <c r="L261" t="n">
+        <v>260.696101911649</v>
+      </c>
+      <c r="M261" t="n">
+        <v>260.696101911649</v>
+      </c>
+      <c r="N261" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K261"/>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -8917,10 +11275,19 @@
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="n">
+      <c r="J262"/>
+      <c r="K262" t="n">
+        <v>303.90294344399</v>
+      </c>
+      <c r="L262" t="n">
+        <v>260.751839414547</v>
+      </c>
+      <c r="M262" t="n">
+        <v>260.751839414547</v>
+      </c>
+      <c r="N262" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K262"/>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -8948,10 +11315,19 @@
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="n">
+      <c r="J263"/>
+      <c r="K263" t="n">
+        <v>304.093320957018</v>
+      </c>
+      <c r="L263" t="n">
+        <v>260.782600191569</v>
+      </c>
+      <c r="M263" t="n">
+        <v>260.782600191569</v>
+      </c>
+      <c r="N263" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K263"/>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -8979,10 +11355,19 @@
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="n">
+      <c r="J264"/>
+      <c r="K264" t="n">
+        <v>304.284012957125</v>
+      </c>
+      <c r="L264" t="n">
+        <v>260.793466873141</v>
+      </c>
+      <c r="M264" t="n">
+        <v>260.793466873141</v>
+      </c>
+      <c r="N264" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K264"/>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -9010,10 +11395,19 @@
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="n">
+      <c r="J265"/>
+      <c r="K265" t="n">
+        <v>304.475019826527</v>
+      </c>
+      <c r="L265" t="n">
+        <v>260.788483207788</v>
+      </c>
+      <c r="M265" t="n">
+        <v>260.788483207788</v>
+      </c>
+      <c r="N265" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K265"/>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -9041,10 +11435,19 @@
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="n">
+      <c r="J266"/>
+      <c r="K266" t="n">
+        <v>308.855520231831</v>
+      </c>
+      <c r="L266" t="n">
+        <v>261.496640572941</v>
+      </c>
+      <c r="M266" t="n">
+        <v>261.496640572941</v>
+      </c>
+      <c r="N266" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K266"/>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -9072,10 +11475,19 @@
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="n">
+      <c r="J267"/>
+      <c r="K267" t="n">
+        <v>309.047158598015</v>
+      </c>
+      <c r="L267" t="n">
+        <v>262.046381121266</v>
+      </c>
+      <c r="M267" t="n">
+        <v>262.046381121266</v>
+      </c>
+      <c r="N267" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K267"/>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -9103,10 +11515,19 @@
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="n">
+      <c r="J268"/>
+      <c r="K268" t="n">
+        <v>309.2391134388</v>
+      </c>
+      <c r="L268" t="n">
+        <v>262.470061576199</v>
+      </c>
+      <c r="M268" t="n">
+        <v>262.470061576199</v>
+      </c>
+      <c r="N268" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K268"/>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -9134,10 +11555,19 @@
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="n">
+      <c r="J269"/>
+      <c r="K269" t="n">
+        <v>309.431385365731</v>
+      </c>
+      <c r="L269" t="n">
+        <v>262.793425126296</v>
+      </c>
+      <c r="M269" t="n">
+        <v>262.793425126296</v>
+      </c>
+      <c r="N269" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K269"/>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -9165,10 +11595,19 @@
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="n">
+      <c r="J270"/>
+      <c r="K270" t="n">
+        <v>309.623974837467</v>
+      </c>
+      <c r="L270" t="n">
+        <v>263.036953197081</v>
+      </c>
+      <c r="M270" t="n">
+        <v>263.036953197081</v>
+      </c>
+      <c r="N270" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K270"/>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -9196,10 +11635,19 @@
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="n">
+      <c r="J271"/>
+      <c r="K271" t="n">
+        <v>309.816882312667</v>
+      </c>
+      <c r="L271" t="n">
+        <v>263.216940919148</v>
+      </c>
+      <c r="M271" t="n">
+        <v>263.216940919148</v>
+      </c>
+      <c r="N271" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K271"/>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -9227,10 +11675,19 @@
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="n">
+      <c r="J272"/>
+      <c r="K272" t="n">
+        <v>310.010108479318</v>
+      </c>
+      <c r="L272" t="n">
+        <v>263.346352761622</v>
+      </c>
+      <c r="M272" t="n">
+        <v>263.346352761622</v>
+      </c>
+      <c r="N272" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K272"/>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -9258,10 +11715,19 @@
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="n">
+      <c r="J273"/>
+      <c r="K273" t="n">
+        <v>310.203653719638</v>
+      </c>
+      <c r="L273" t="n">
+        <v>263.435503318225</v>
+      </c>
+      <c r="M273" t="n">
+        <v>263.435503318225</v>
+      </c>
+      <c r="N273" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K273"/>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -9289,10 +11755,19 @@
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="n">
+      <c r="J274"/>
+      <c r="K274" t="n">
+        <v>310.39751864517</v>
+      </c>
+      <c r="L274" t="n">
+        <v>263.492598907183</v>
+      </c>
+      <c r="M274" t="n">
+        <v>263.492598907183</v>
+      </c>
+      <c r="N274" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K274"/>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -9320,10 +11795,19 @@
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="n">
+      <c r="J275"/>
+      <c r="K275" t="n">
+        <v>310.591703714574</v>
+      </c>
+      <c r="L275" t="n">
+        <v>263.524168499109</v>
+      </c>
+      <c r="M275" t="n">
+        <v>263.524168499109</v>
+      </c>
+      <c r="N275" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K275"/>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -9351,10 +11835,19 @@
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="n">
+      <c r="J276"/>
+      <c r="K276" t="n">
+        <v>310.786209539394</v>
+      </c>
+      <c r="L276" t="n">
+        <v>263.535406544391</v>
+      </c>
+      <c r="M276" t="n">
+        <v>263.535406544391</v>
+      </c>
+      <c r="N276" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K276"/>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -9382,10 +11875,19 @@
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="n">
+      <c r="J277"/>
+      <c r="K277" t="n">
+        <v>310.98103657829</v>
+      </c>
+      <c r="L277" t="n">
+        <v>263.530445750833</v>
+      </c>
+      <c r="M277" t="n">
+        <v>263.530445750833</v>
+      </c>
+      <c r="N277" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K277"/>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -9413,10 +11915,19 @@
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="n">
+      <c r="J278"/>
+      <c r="K278" t="n">
+        <v>315.457525316372</v>
+      </c>
+      <c r="L278" t="n">
+        <v>264.254315306822</v>
+      </c>
+      <c r="M278" t="n">
+        <v>264.254315306822</v>
+      </c>
+      <c r="N278" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K278"/>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -9444,10 +11955,19 @@
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="n">
+      <c r="J279"/>
+      <c r="K279" t="n">
+        <v>315.652996465168</v>
+      </c>
+      <c r="L279" t="n">
+        <v>264.816283094734</v>
+      </c>
+      <c r="M279" t="n">
+        <v>264.816283094734</v>
+      </c>
+      <c r="N279" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K279"/>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -9475,10 +11995,19 @@
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="n">
+      <c r="J280"/>
+      <c r="K280" t="n">
+        <v>315.848790433346</v>
+      </c>
+      <c r="L280" t="n">
+        <v>265.249417685289</v>
+      </c>
+      <c r="M280" t="n">
+        <v>265.249417685289</v>
+      </c>
+      <c r="N280" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K280"/>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -9506,10 +12035,19 @@
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="n">
+      <c r="J281"/>
+      <c r="K281" t="n">
+        <v>316.044907756007</v>
+      </c>
+      <c r="L281" t="n">
+        <v>265.580028623102</v>
+      </c>
+      <c r="M281" t="n">
+        <v>265.580028623102</v>
+      </c>
+      <c r="N281" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K281"/>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -9537,10 +12075,19 @@
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="n">
+      <c r="J282"/>
+      <c r="K282" t="n">
+        <v>316.241348968254</v>
+      </c>
+      <c r="L282" t="n">
+        <v>265.82904792503</v>
+      </c>
+      <c r="M282" t="n">
+        <v>265.82904792503</v>
+      </c>
+      <c r="N282" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K282"/>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -9568,10 +12115,19 @@
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="n">
+      <c r="J283"/>
+      <c r="K283" t="n">
+        <v>316.438114681632</v>
+      </c>
+      <c r="L283" t="n">
+        <v>266.013129204324</v>
+      </c>
+      <c r="M283" t="n">
+        <v>266.013129204324</v>
+      </c>
+      <c r="N283" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K283"/>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -9599,10 +12155,19 @@
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="n">
+      <c r="J284"/>
+      <c r="K284" t="n">
+        <v>316.635205354799</v>
+      </c>
+      <c r="L284" t="n">
+        <v>266.145522157747</v>
+      </c>
+      <c r="M284" t="n">
+        <v>266.145522157747</v>
+      </c>
+      <c r="N284" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K284"/>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -9630,10 +12195,19 @@
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="n">
+      <c r="J285"/>
+      <c r="K285" t="n">
+        <v>316.832621522858</v>
+      </c>
+      <c r="L285" t="n">
+        <v>266.236768297187</v>
+      </c>
+      <c r="M285" t="n">
+        <v>266.236768297187</v>
+      </c>
+      <c r="N285" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K285"/>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -9661,10 +12235,19 @@
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="n">
+      <c r="J286"/>
+      <c r="K286" t="n">
+        <v>317.03036372091</v>
+      </c>
+      <c r="L286" t="n">
+        <v>266.295254483981</v>
+      </c>
+      <c r="M286" t="n">
+        <v>266.295254483981</v>
+      </c>
+      <c r="N286" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K286"/>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -9692,10 +12275,19 @@
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="n">
+      <c r="J287"/>
+      <c r="K287" t="n">
+        <v>317.228432484058</v>
+      </c>
+      <c r="L287" t="n">
+        <v>266.327653324633</v>
+      </c>
+      <c r="M287" t="n">
+        <v>266.327653324633</v>
+      </c>
+      <c r="N287" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K287"/>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -9723,10 +12315,19 @@
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="n">
+      <c r="J288"/>
+      <c r="K288" t="n">
+        <v>317.426828423846</v>
+      </c>
+      <c r="L288" t="n">
+        <v>266.339273547233</v>
+      </c>
+      <c r="M288" t="n">
+        <v>266.339273547233</v>
+      </c>
+      <c r="N288" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K288"/>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -9754,10 +12355,19 @@
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="n">
+      <c r="J289"/>
+      <c r="K289" t="n">
+        <v>317.625552075376</v>
+      </c>
+      <c r="L289" t="n">
+        <v>266.334338774259</v>
+      </c>
+      <c r="M289" t="n">
+        <v>266.334338774259</v>
+      </c>
+      <c r="N289" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K289"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.Data/tempdata.xlsx
+++ b/1.Data/tempdata.xlsx
@@ -437,28 +437,28 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>111.370873235031</v>
+        <v>111.15619047619</v>
       </c>
       <c r="D2" t="n">
-        <v>1.37644289076506</v>
+        <v>1.28945340920919</v>
       </c>
       <c r="E2" t="n">
-        <v>123.069767808923</v>
+        <v>116.46</v>
       </c>
       <c r="F2" t="n">
-        <v>2.05403644639639</v>
+        <v>1.94361731025613</v>
       </c>
       <c r="G2" t="n">
-        <v>8.21656081887824</v>
+        <v>8.2425</v>
       </c>
       <c r="H2" t="n">
-        <v>376.745437902663</v>
+        <v>359.6271375</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.148177402081191</v>
+        <v>0.192872274535415</v>
       </c>
       <c r="K2" t="n">
         <v>405.333867241373</v>
@@ -470,7 +470,7 @@
         <v>381.556622489238</v>
       </c>
       <c r="N2" t="n">
-        <v>432.57059813702</v>
+        <v>428.989241494285</v>
       </c>
     </row>
     <row r="3">
@@ -481,28 +481,28 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>125.668559254674</v>
+        <v>119.702380952381</v>
       </c>
       <c r="D3" t="n">
-        <v>1.28186950310027</v>
+        <v>1.32124992060122</v>
       </c>
       <c r="E3" t="n">
-        <v>122.864472490235</v>
+        <v>117.02</v>
       </c>
       <c r="F3" t="n">
-        <v>1.96257446540429</v>
+        <v>1.88481087516663</v>
       </c>
       <c r="G3" t="n">
-        <v>8.83052816250362</v>
+        <v>9.1</v>
       </c>
       <c r="H3" t="n">
-        <v>376.827087698649</v>
+        <v>376.22136875</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.21577447058742</v>
+        <v>0.217633260440822</v>
       </c>
       <c r="K3" t="n">
         <v>437.320386195379</v>
@@ -514,7 +514,7 @@
         <v>400.478833417286</v>
       </c>
       <c r="N3" t="n">
-        <v>458.136753049824</v>
+        <v>458.099651878571</v>
       </c>
     </row>
     <row r="4">
@@ -525,28 +525,28 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>118.398860087051</v>
+        <v>124.928636363636</v>
       </c>
       <c r="D4" t="n">
-        <v>1.22039718368561</v>
+        <v>1.32179594236881</v>
       </c>
       <c r="E4" t="n">
-        <v>106.008016270199</v>
+        <v>107.46</v>
       </c>
       <c r="F4" t="n">
-        <v>1.89709927354809</v>
+        <v>1.82600444007713</v>
       </c>
       <c r="G4" t="n">
-        <v>9.46182370198891</v>
+        <v>9.48</v>
       </c>
       <c r="H4" t="n">
-        <v>378.901320691738</v>
+        <v>386.14925</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.214686291783081</v>
+        <v>0.206090704486789</v>
       </c>
       <c r="K4" t="n">
         <v>449.995702795078</v>
@@ -558,7 +558,7 @@
         <v>407.412185206578</v>
       </c>
       <c r="N4" t="n">
-        <v>460.246240182759</v>
+        <v>465.731020969545</v>
       </c>
     </row>
     <row r="5">
@@ -569,28 +569,28 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>121.322217430153</v>
+        <v>120.4635</v>
       </c>
       <c r="D5" t="n">
-        <v>1.23622503909414</v>
+        <v>1.31618096674676</v>
       </c>
       <c r="E5" t="n">
-        <v>97.0997106329282</v>
+        <v>103.59</v>
       </c>
       <c r="F5" t="n">
-        <v>1.81673791471238</v>
+        <v>1.74378085286223</v>
       </c>
       <c r="G5" t="n">
-        <v>10.3952170906577</v>
+        <v>9.4775</v>
       </c>
       <c r="H5" t="n">
-        <v>405.961700639677</v>
+        <v>403.1772375</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.187223533299493</v>
+        <v>0.14203542046071</v>
       </c>
       <c r="K5" t="n">
         <v>447.186398463372</v>
@@ -602,7 +602,7 @@
         <v>418.87571377923</v>
       </c>
       <c r="N5" t="n">
-        <v>481.967284617708</v>
+        <v>460.4426859485</v>
       </c>
     </row>
     <row r="6">
@@ -613,28 +613,28 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>119.544369436967</v>
+        <v>110.521739130435</v>
       </c>
       <c r="D6" t="n">
-        <v>1.39543544893587</v>
+        <v>1.28042617397904</v>
       </c>
       <c r="E6" t="n">
-        <v>93.9650173833598</v>
+        <v>95.83</v>
       </c>
       <c r="F6" t="n">
-        <v>1.63110889144954</v>
+        <v>1.66155726564733</v>
       </c>
       <c r="G6" t="n">
-        <v>8.80687358103544</v>
+        <v>9.246</v>
       </c>
       <c r="H6" t="n">
-        <v>440.62942093395</v>
+        <v>403.75115625</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0116466153726908</v>
+        <v>0.0972966841390561</v>
       </c>
       <c r="K6" t="n">
         <v>433.799001208146</v>
@@ -646,7 +646,7 @@
         <v>413.875147542657</v>
       </c>
       <c r="N6" t="n">
-        <v>435.497579546441</v>
+        <v>443.034804970435</v>
       </c>
     </row>
     <row r="7">
@@ -657,28 +657,28 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>103.111743829611</v>
+        <v>95.5890476190476</v>
       </c>
       <c r="D7" t="n">
-        <v>1.33095483463274</v>
+        <v>1.25212240064324</v>
       </c>
       <c r="E7" t="n">
-        <v>88.9056631866414</v>
+        <v>87.19</v>
       </c>
       <c r="F7" t="n">
-        <v>1.55123636041482</v>
+        <v>1.57933367843243</v>
       </c>
       <c r="G7" t="n">
-        <v>7.8713428494829</v>
+        <v>8.6375</v>
       </c>
       <c r="H7" t="n">
-        <v>348.696962356721</v>
+        <v>372.22662</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.137103568096055</v>
+        <v>0.105939497284131</v>
       </c>
       <c r="K7" t="n">
         <v>405.455594010189</v>
@@ -690,7 +690,7 @@
         <v>380.414994516049</v>
       </c>
       <c r="N7" t="n">
-        <v>396.504560080083</v>
+        <v>411.660120998571</v>
       </c>
     </row>
     <row r="8">
@@ -701,28 +701,28 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>94.7483903348989</v>
+        <v>103.140909090909</v>
       </c>
       <c r="D8" t="n">
-        <v>1.20178220605928</v>
+        <v>1.23035702971676</v>
       </c>
       <c r="E8" t="n">
-        <v>80.7015787023269</v>
+        <v>88.24</v>
       </c>
       <c r="F8" t="n">
-        <v>1.54848087970002</v>
+        <v>1.55752684787293</v>
       </c>
       <c r="G8" t="n">
-        <v>8.70999835627712</v>
+        <v>8.73</v>
       </c>
       <c r="H8" t="n">
-        <v>369.252506658475</v>
+        <v>351.068475</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.107741302732789</v>
+        <v>0.195095525206689</v>
       </c>
       <c r="K8" t="n">
         <v>412.445830354208</v>
@@ -734,7 +734,7 @@
         <v>365.46307179293</v>
       </c>
       <c r="N8" t="n">
-        <v>409.036252763207</v>
+        <v>419.560363513636</v>
       </c>
     </row>
     <row r="9">
@@ -745,28 +745,28 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>104.571437823052</v>
+        <v>113.34</v>
       </c>
       <c r="D9" t="n">
-        <v>1.21741554436037</v>
+        <v>1.23815485795614</v>
       </c>
       <c r="E9" t="n">
-        <v>89.9695677244104</v>
+        <v>91</v>
       </c>
       <c r="F9" t="n">
-        <v>1.40975611684775</v>
+        <v>1.53572001731344</v>
       </c>
       <c r="G9" t="n">
-        <v>8.33443062588572</v>
+        <v>8.85</v>
       </c>
       <c r="H9" t="n">
-        <v>345.666957670224</v>
+        <v>357.85056</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.188238512794463</v>
+        <v>0.204243399088156</v>
       </c>
       <c r="K9" t="n">
         <v>421.58711812997</v>
@@ -778,7 +778,7 @@
         <v>373.886651971657</v>
       </c>
       <c r="N9" t="n">
-        <v>410.734791704254</v>
+        <v>430.93917474</v>
       </c>
     </row>
     <row r="10">
@@ -789,28 +789,28 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>116.348233962812</v>
+        <v>113.3825</v>
       </c>
       <c r="D10" t="n">
-        <v>1.23725110578774</v>
+        <v>1.28417168834087</v>
       </c>
       <c r="E10" t="n">
-        <v>89.3274700337052</v>
+        <v>88.96</v>
       </c>
       <c r="F10" t="n">
-        <v>1.53938665220507</v>
+        <v>1.51391318675394</v>
       </c>
       <c r="G10" t="n">
-        <v>8.94076798828412</v>
+        <v>9.58</v>
       </c>
       <c r="H10" t="n">
-        <v>371.521726563412</v>
+        <v>382.12528125</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.16882681839958</v>
+        <v>0.176641892906687</v>
       </c>
       <c r="K10" t="n">
         <v>444.797971176248</v>
@@ -822,7 +822,7 @@
         <v>396.141419925867</v>
       </c>
       <c r="N10" t="n">
-        <v>434.244557625432</v>
+        <v>449.6246142575</v>
       </c>
     </row>
     <row r="11">
@@ -833,28 +833,28 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>111.015691746014</v>
+        <v>111.97347826087</v>
       </c>
       <c r="D11" t="n">
-        <v>1.26709233384617</v>
+        <v>1.29644086060586</v>
       </c>
       <c r="E11" t="n">
-        <v>87.6665758427815</v>
+        <v>81.85</v>
       </c>
       <c r="F11" t="n">
-        <v>1.51182125115636</v>
+        <v>1.38704508985128</v>
       </c>
       <c r="G11" t="n">
-        <v>9.44357603481039</v>
+        <v>10.1125</v>
       </c>
       <c r="H11" t="n">
-        <v>389.724295284869</v>
+        <v>410.8926625</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.13825976205849</v>
+        <v>0.116644848801285</v>
       </c>
       <c r="K11" t="n">
         <v>460.004755860796</v>
@@ -866,7 +866,7 @@
         <v>418.860442956491</v>
       </c>
       <c r="N11" t="n">
-        <v>443.607483619368</v>
+        <v>458.82117499087</v>
       </c>
     </row>
     <row r="12">
@@ -877,28 +877,28 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>106.041745612469</v>
+        <v>109.711818181818</v>
       </c>
       <c r="D12" t="n">
-        <v>1.35479657928551</v>
+        <v>1.28342852071292</v>
       </c>
       <c r="E12" t="n">
-        <v>89.978491292357</v>
+        <v>85.89</v>
       </c>
       <c r="F12" t="n">
-        <v>1.17914113190113</v>
+        <v>1.26017699294861</v>
       </c>
       <c r="G12" t="n">
-        <v>9.6599282190674</v>
+        <v>10.29</v>
       </c>
       <c r="H12" t="n">
-        <v>454.856786950607</v>
+        <v>427.02757</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0153670639356719</v>
+        <v>0.0884511474452869</v>
       </c>
       <c r="K12" t="n">
         <v>466.06447209836</v>
@@ -910,7 +910,7 @@
         <v>433.803517843588</v>
       </c>
       <c r="N12" t="n">
-        <v>447.866973623963</v>
+        <v>464.798648557273</v>
       </c>
     </row>
     <row r="13">
@@ -921,28 +921,28 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>113.694805145724</v>
+        <v>109.6765</v>
       </c>
       <c r="D13" t="n">
-        <v>1.34237385324434</v>
+        <v>1.3110953849636</v>
       </c>
       <c r="E13" t="n">
-        <v>91.449509160284</v>
+        <v>92.88</v>
       </c>
       <c r="F13" t="n">
-        <v>1.0225951976864</v>
+        <v>1.13330889604595</v>
       </c>
       <c r="G13" t="n">
-        <v>10.2143610463623</v>
+        <v>10.5625</v>
       </c>
       <c r="H13" t="n">
-        <v>406.157130153769</v>
+        <v>431.716616666667</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.154020917684248</v>
+        <v>0.10400102287353</v>
       </c>
       <c r="K13" t="n">
         <v>476.482669798385</v>
@@ -954,7 +954,7 @@
         <v>441.539802640819</v>
       </c>
       <c r="N13" t="n">
-        <v>468.713824064053</v>
+        <v>476.6155863915</v>
       </c>
     </row>
     <row r="14">
@@ -965,28 +965,28 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>116.220838361996</v>
+        <v>112.973636363636</v>
       </c>
       <c r="D14" t="n">
-        <v>1.37215041853538</v>
+        <v>1.33242974109691</v>
       </c>
       <c r="E14" t="n">
-        <v>96.3418589343033</v>
+        <v>92.77</v>
       </c>
       <c r="F14" t="n">
-        <v>1.21117368309197</v>
+        <v>1.14321460248121</v>
       </c>
       <c r="G14" t="n">
-        <v>9.41894401018321</v>
+        <v>10.36</v>
       </c>
       <c r="H14" t="n">
-        <v>419.094909761481</v>
+        <v>423.9896875</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0776505617886258</v>
+        <v>0.115764073305545</v>
       </c>
       <c r="K14" t="n">
         <v>471.05741190093</v>
@@ -998,7 +998,7 @@
         <v>434.768347267991</v>
       </c>
       <c r="N14" t="n">
-        <v>451.637864947213</v>
+        <v>473.072460764545</v>
       </c>
     </row>
     <row r="15">
@@ -1009,28 +1009,28 @@
         <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>124.281899567633</v>
+        <v>116.5195</v>
       </c>
       <c r="D15" t="n">
-        <v>1.25092995770731</v>
+        <v>1.33865507742874</v>
       </c>
       <c r="E15" t="n">
-        <v>104.075591012143</v>
+        <v>94.94</v>
       </c>
       <c r="F15" t="n">
-        <v>1.19156442260057</v>
+        <v>1.15312030891647</v>
       </c>
       <c r="G15" t="n">
-        <v>10.2085712968558</v>
+        <v>10.08</v>
       </c>
       <c r="H15" t="n">
-        <v>434.135552723485</v>
+        <v>446.5117625</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.112790598163414</v>
+        <v>0.0503666300716994</v>
       </c>
       <c r="K15" t="n">
         <v>463.901818068824</v>
@@ -1042,7 +1042,7 @@
         <v>452.559662533833</v>
       </c>
       <c r="N15" t="n">
-        <v>483.101961399171</v>
+        <v>469.0010552645</v>
       </c>
     </row>
     <row r="16">
@@ -1053,28 +1053,28 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>118.529676671486</v>
+        <v>109.24</v>
       </c>
       <c r="D16" t="n">
-        <v>1.17969748882147</v>
+        <v>1.2965747351266</v>
       </c>
       <c r="E16" t="n">
-        <v>86.7127679638471</v>
+        <v>90.98</v>
       </c>
       <c r="F16" t="n">
-        <v>1.0741066274455</v>
+        <v>1.16302601535173</v>
       </c>
       <c r="G16" t="n">
-        <v>9.45417537085991</v>
+        <v>10.1725</v>
       </c>
       <c r="H16" t="n">
-        <v>402.048937614277</v>
+        <v>441.01218</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.114259560759568</v>
+        <v>0.0532470879602465</v>
       </c>
       <c r="K16" t="n">
         <v>463.342863026497</v>
@@ -1086,7 +1086,7 @@
         <v>446.164370264788</v>
       </c>
       <c r="N16" t="n">
-        <v>447.986872629935</v>
+        <v>464.49479434</v>
       </c>
     </row>
     <row r="17">
@@ -1097,28 +1097,28 @@
         <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>107.037615480886</v>
+        <v>102.875454545455</v>
       </c>
       <c r="D17" t="n">
-        <v>1.33014506310706</v>
+        <v>1.30080003462069</v>
       </c>
       <c r="E17" t="n">
-        <v>92.0904179349989</v>
+        <v>87.76</v>
       </c>
       <c r="F17" t="n">
-        <v>1.28417040849347</v>
+        <v>1.26114546310179</v>
       </c>
       <c r="G17" t="n">
-        <v>9.74977300747111</v>
+        <v>10.345</v>
       </c>
       <c r="H17" t="n">
-        <v>499.18809497616</v>
+        <v>458.29545</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.093987380391332</v>
+        <v>0.0107240388527063</v>
       </c>
       <c r="K17" t="n">
         <v>465.48805385514</v>
@@ -1130,7 +1130,7 @@
         <v>458.70869872202</v>
       </c>
       <c r="N17" t="n">
-        <v>452.270713606811</v>
+        <v>463.210228211819</v>
       </c>
     </row>
     <row r="18">
@@ -1141,28 +1141,28 @@
         <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>93.3559608814247</v>
+        <v>103.026956521739</v>
       </c>
       <c r="D18" t="n">
-        <v>1.27507403429307</v>
+        <v>1.29599812388292</v>
       </c>
       <c r="E18" t="n">
-        <v>85.259365287614</v>
+        <v>87.71</v>
       </c>
       <c r="F18" t="n">
-        <v>1.43796124716444</v>
+        <v>1.35926491085185</v>
       </c>
       <c r="G18" t="n">
-        <v>10.9912576424653</v>
+        <v>10.036</v>
       </c>
       <c r="H18" t="n">
-        <v>478.667950910275</v>
+        <v>454.97385</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0111084674860672</v>
+        <v>0.000311079193366814</v>
       </c>
       <c r="K18" t="n">
         <v>455.481109671395</v>
@@ -1174,7 +1174,7 @@
         <v>454.492669480659</v>
       </c>
       <c r="N18" t="n">
-        <v>473.350683540966</v>
+        <v>454.832317101739</v>
       </c>
     </row>
     <row r="19">
@@ -1185,28 +1185,28 @@
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>95.2042173520261</v>
+        <v>103.11</v>
       </c>
       <c r="D19" t="n">
-        <v>1.32262921569386</v>
+        <v>1.3193602052329</v>
       </c>
       <c r="E19" t="n">
-        <v>90.1478279335203</v>
+        <v>82.7543194620071</v>
       </c>
       <c r="F19" t="n">
-        <v>1.58578929028086</v>
+        <v>1.45738435860191</v>
       </c>
       <c r="G19" t="n">
-        <v>9.97632119217562</v>
+        <v>10.07</v>
       </c>
       <c r="H19" t="n">
-        <v>430.061626976912</v>
+        <v>452.44875</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0460189416880215</v>
+        <v>0.000548676319542585</v>
       </c>
       <c r="K19" t="n">
         <v>455.281030437977</v>
@@ -1218,7 +1218,7 @@
         <v>450.799130130747</v>
       </c>
       <c r="N19" t="n">
-        <v>449.852607911018</v>
+        <v>452.696997914932</v>
       </c>
     </row>
     <row r="20">
@@ -1229,28 +1229,28 @@
         <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>100.707484305537</v>
+        <v>107.716086956522</v>
       </c>
       <c r="D20" t="n">
-        <v>1.30402678192316</v>
+        <v>1.30772257149181</v>
       </c>
       <c r="E20" t="n">
-        <v>75.7372286908652</v>
+        <v>77.2592108288309</v>
       </c>
       <c r="F20" t="n">
-        <v>1.66511578795511</v>
+        <v>1.59183744744634</v>
       </c>
       <c r="G20" t="n">
-        <v>10.0718301793165</v>
+        <v>9.985</v>
       </c>
       <c r="H20" t="n">
-        <v>440.488109604262</v>
+        <v>478.17549375</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.014409881116096</v>
+        <v>0.0593523854185227</v>
       </c>
       <c r="K20" t="n">
         <v>453.426805305791</v>
@@ -1262,7 +1262,7 @@
         <v>469.386464176504</v>
       </c>
       <c r="N20" t="n">
-        <v>446.835490896713</v>
+        <v>449.794637547258</v>
       </c>
     </row>
     <row r="21">
@@ -1273,28 +1273,28 @@
         <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>117.087931608069</v>
+        <v>110.964545454545</v>
       </c>
       <c r="D21" t="n">
-        <v>1.41627839527551</v>
+        <v>1.33140411733142</v>
       </c>
       <c r="E21" t="n">
-        <v>80.2846986846775</v>
+        <v>76.96</v>
       </c>
       <c r="F21" t="n">
-        <v>1.69373796781152</v>
+        <v>1.72629053629078</v>
       </c>
       <c r="G21" t="n">
-        <v>9.98871042247955</v>
+        <v>10.044</v>
       </c>
       <c r="H21" t="n">
-        <v>462.52391548571</v>
+        <v>485.5538</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0105433301765431</v>
+        <v>0.0665388231166525</v>
       </c>
       <c r="K21" t="n">
         <v>456.581680429644</v>
@@ -1306,7 +1306,7 @@
         <v>475.879833967917</v>
       </c>
       <c r="N21" t="n">
-        <v>457.647373130197</v>
+        <v>453.245621588182</v>
       </c>
     </row>
     <row r="22">
@@ -1317,28 +1317,28 @@
         <v>9</v>
       </c>
       <c r="C22" t="n">
-        <v>107.131214829431</v>
+        <v>111.621428571429</v>
       </c>
       <c r="D22" t="n">
-        <v>1.40801094987813</v>
+        <v>1.33403484674122</v>
       </c>
       <c r="E22" t="n">
-        <v>71.7031714751414</v>
+        <v>77.6125</v>
       </c>
       <c r="F22" t="n">
-        <v>1.68870169603023</v>
+        <v>1.86074362513521</v>
       </c>
       <c r="G22" t="n">
-        <v>10.6841016711979</v>
+        <v>10.3275</v>
       </c>
       <c r="H22" t="n">
-        <v>464.644431392019</v>
+        <v>495.4801875</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.000837831755456042</v>
+        <v>0.067954068280191</v>
       </c>
       <c r="K22" t="n">
         <v>466.481139832568</v>
@@ -1350,7 +1350,7 @@
         <v>485.54270251812</v>
       </c>
       <c r="N22" t="n">
-        <v>465.033725251635</v>
+        <v>461.810293007143</v>
       </c>
     </row>
     <row r="23">
@@ -1361,28 +1361,28 @@
         <v>10</v>
       </c>
       <c r="C23" t="n">
-        <v>106.684920360375</v>
+        <v>109.478695652174</v>
       </c>
       <c r="D23" t="n">
-        <v>1.32563792126991</v>
+        <v>1.36296071657827</v>
       </c>
       <c r="E23" t="n">
-        <v>82.5920667318261</v>
+        <v>79.4125</v>
       </c>
       <c r="F23" t="n">
-        <v>2.22606210740248</v>
+        <v>2.08044982554345</v>
       </c>
       <c r="G23" t="n">
-        <v>10.6523223561835</v>
+        <v>10.738</v>
       </c>
       <c r="H23" t="n">
-        <v>557.538147367645</v>
+        <v>518.0301125</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.155692630552575</v>
+        <v>0.0872760609217017</v>
       </c>
       <c r="K23" t="n">
         <v>479.328246986678</v>
@@ -1394,7 +1394,7 @@
         <v>505.946477589003</v>
       </c>
       <c r="N23" t="n">
-        <v>470.733566570567</v>
+        <v>472.818484842174</v>
       </c>
     </row>
     <row r="24">
@@ -1405,28 +1405,28 @@
         <v>11</v>
       </c>
       <c r="C24" t="n">
-        <v>111.30587207353</v>
+        <v>108.07619047619</v>
       </c>
       <c r="D24" t="n">
-        <v>1.41936134759957</v>
+        <v>1.35066091003443</v>
       </c>
       <c r="E24" t="n">
-        <v>78.9243327204487</v>
+        <v>82.25</v>
       </c>
       <c r="F24" t="n">
-        <v>2.20988844000371</v>
+        <v>2.30015602595169</v>
       </c>
       <c r="G24" t="n">
-        <v>11.6510116429203</v>
+        <v>10.91</v>
       </c>
       <c r="H24" t="n">
-        <v>520.901897414127</v>
+        <v>530.197715</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0428277064557331</v>
+        <v>0.0976463606330604</v>
       </c>
       <c r="K24" t="n">
         <v>485.357733502365</v>
@@ -1438,7 +1438,7 @@
         <v>517.364869619763</v>
       </c>
       <c r="N24" t="n">
-        <v>498.59286385944</v>
+        <v>478.425837714285</v>
       </c>
     </row>
     <row r="25">
@@ -1449,28 +1449,28 @@
         <v>12</v>
       </c>
       <c r="C25" t="n">
-        <v>112.576742696324</v>
+        <v>110.674</v>
       </c>
       <c r="D25" t="n">
-        <v>1.24979793757064</v>
+        <v>1.36951377232217</v>
       </c>
       <c r="E25" t="n">
-        <v>75.9263861884904</v>
+        <v>84.3375</v>
       </c>
       <c r="F25" t="n">
-        <v>2.53835282094663</v>
+        <v>2.51986222635993</v>
       </c>
       <c r="G25" t="n">
-        <v>11.9027976013012</v>
+        <v>11.2866666666667</v>
       </c>
       <c r="H25" t="n">
-        <v>492.982649492692</v>
+        <v>537.705316666667</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0231174206760127</v>
+        <v>0.0856530999262626</v>
       </c>
       <c r="K25" t="n">
         <v>499.394501502267</v>
@@ -1482,7 +1482,7 @@
         <v>526.378599683</v>
       </c>
       <c r="N25" t="n">
-        <v>504.37913678699</v>
+        <v>491.649189447334</v>
       </c>
     </row>
     <row r="26">
@@ -1493,28 +1493,28 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>114.184355004434</v>
+        <v>107.42</v>
       </c>
       <c r="D26" t="n">
-        <v>1.33852335158658</v>
+        <v>1.36332324021673</v>
       </c>
       <c r="E26" t="n">
-        <v>78.4315991644659</v>
+        <v>81.61</v>
       </c>
       <c r="F26" t="n">
-        <v>2.82369372427273</v>
+        <v>2.59157382160382</v>
       </c>
       <c r="G26" t="n">
-        <v>11.6036174321903</v>
+        <v>10.714</v>
       </c>
       <c r="H26" t="n">
-        <v>580.764021240732</v>
+        <v>532.24483</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.141157426600645</v>
+        <v>0.11270210632201</v>
       </c>
       <c r="K26" t="n">
         <v>478.629878584809</v>
@@ -1526,7 +1526,7 @@
         <v>517.646500920238</v>
       </c>
       <c r="N26" t="n">
-        <v>498.784866540148</v>
+        <v>472.25971658</v>
       </c>
     </row>
     <row r="27">
@@ -1537,28 +1537,28 @@
         <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>111.47765318131</v>
+        <v>108.81</v>
       </c>
       <c r="D27" t="n">
-        <v>1.26173581544375</v>
+        <v>1.36301698520082</v>
       </c>
       <c r="E27" t="n">
-        <v>83.3005282362923</v>
+        <v>76.29</v>
       </c>
       <c r="F27" t="n">
-        <v>2.5514104617153</v>
+        <v>2.66328541684771</v>
       </c>
       <c r="G27" t="n">
-        <v>8.78179310372332</v>
+        <v>9.6975</v>
       </c>
       <c r="H27" t="n">
-        <v>580.713306057532</v>
+        <v>541.933384375</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.271460606860398</v>
+        <v>0.184375301551563</v>
       </c>
       <c r="K27" t="n">
         <v>444.577077581569</v>
@@ -1570,7 +1570,7 @@
         <v>518.37075418948</v>
       </c>
       <c r="N27" t="n">
-        <v>423.072519583247</v>
+        <v>442.01425321</v>
       </c>
     </row>
     <row r="28">
@@ -1581,28 +1581,28 @@
         <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>110.541252662363</v>
+        <v>107.4</v>
       </c>
       <c r="D28" t="n">
-        <v>1.32086989692509</v>
+        <v>1.38211007087117</v>
       </c>
       <c r="E28" t="n">
-        <v>75.8582916510124</v>
+        <v>73.34</v>
       </c>
       <c r="F28" t="n">
-        <v>2.94190680009661</v>
+        <v>2.73499701209159</v>
       </c>
       <c r="G28" t="n">
-        <v>8.61076802340976</v>
+        <v>9.4575</v>
       </c>
       <c r="H28" t="n">
-        <v>542.213225305451</v>
+        <v>524.04735625</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.238054756694797</v>
+        <v>0.174266844514779</v>
       </c>
       <c r="K28" t="n">
         <v>435.28256541332</v>
@@ -1614,7 +1614,7 @@
         <v>501.610311937055</v>
       </c>
       <c r="N28" t="n">
-        <v>413.136787878661</v>
+        <v>432.7232771</v>
       </c>
     </row>
     <row r="29">
@@ -1625,28 +1625,28 @@
         <v>4</v>
       </c>
       <c r="C29" t="n">
-        <v>101.226118124344</v>
+        <v>107.79</v>
       </c>
       <c r="D29" t="n">
-        <v>1.33310148185806</v>
+        <v>1.380527404527</v>
       </c>
       <c r="E29" t="n">
-        <v>73.1929500611983</v>
+        <v>72.82</v>
       </c>
       <c r="F29" t="n">
-        <v>2.59100045713935</v>
+        <v>2.78222737076019</v>
       </c>
       <c r="G29" t="n">
-        <v>9.04957533496211</v>
+        <v>8.5025</v>
       </c>
       <c r="H29" t="n">
-        <v>449.012086248905</v>
+        <v>469.051525</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0698819314611704</v>
+        <v>0.133247118235038</v>
       </c>
       <c r="K29" t="n">
         <v>403.992823302102</v>
@@ -1658,7 +1658,7 @@
         <v>452.852366822834</v>
       </c>
       <c r="N29" t="n">
-        <v>417.634254412422</v>
+        <v>406.55176099</v>
       </c>
     </row>
     <row r="30">
@@ -1669,28 +1669,28 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>120.195686869361</v>
+        <v>109.68</v>
       </c>
       <c r="D30" t="n">
-        <v>1.32915260317857</v>
+        <v>1.37171596763391</v>
       </c>
       <c r="E30" t="n">
-        <v>67.6778091547936</v>
+        <v>73.69</v>
       </c>
       <c r="F30" t="n">
-        <v>2.6769915984286</v>
+        <v>2.82945772942879</v>
       </c>
       <c r="G30" t="n">
-        <v>7.98490409018341</v>
+        <v>7.914</v>
       </c>
       <c r="H30" t="n">
-        <v>398.094709841987</v>
+        <v>402.2864</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0029463310930179</v>
+        <v>0.0250673245727422</v>
       </c>
       <c r="K30" t="n">
         <v>385.887877305231</v>
@@ -1702,7 +1702,7 @@
         <v>397.316647919078</v>
       </c>
       <c r="N30" t="n">
-        <v>396.921791020414</v>
+        <v>392.20215624</v>
       </c>
     </row>
     <row r="31">
@@ -1713,28 +1713,28 @@
         <v>6</v>
       </c>
       <c r="C31" t="n">
-        <v>106.130183344508</v>
+        <v>111.87</v>
       </c>
       <c r="D31" t="n">
-        <v>1.30845874203917</v>
+        <v>1.3603501180353</v>
       </c>
       <c r="E31" t="n">
-        <v>69.5623162000198</v>
+        <v>71.48</v>
       </c>
       <c r="F31" t="n">
-        <v>2.89467348003955</v>
+        <v>2.87668808809739</v>
       </c>
       <c r="G31" t="n">
-        <v>7.40745188685541</v>
+        <v>7.0625</v>
       </c>
       <c r="H31" t="n">
-        <v>335.173310126367</v>
+        <v>371.900175</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.114509558150956</v>
+        <v>0.00801668116988652</v>
       </c>
       <c r="K31" t="n">
         <v>358.524268070312</v>
@@ -1746,7 +1746,7 @@
         <v>368.270972064444</v>
       </c>
       <c r="N31" t="n">
-        <v>373.553857772931</v>
+        <v>368.91876987</v>
       </c>
     </row>
     <row r="32">
@@ -1757,28 +1757,28 @@
         <v>7</v>
       </c>
       <c r="C32" t="n">
-        <v>107.968795742235</v>
+        <v>106.98</v>
       </c>
       <c r="D32" t="n">
-        <v>1.40446453981644</v>
+        <v>1.35586095956524</v>
       </c>
       <c r="E32" t="n">
-        <v>66.0739673298667</v>
+        <v>68.75</v>
       </c>
       <c r="F32" t="n">
-        <v>2.80483450006397</v>
+        <v>2.93572125913781</v>
       </c>
       <c r="G32" t="n">
-        <v>6.38824295206564</v>
+        <v>6.594</v>
       </c>
       <c r="H32" t="n">
-        <v>367.219216555255</v>
+        <v>365.4538375</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.061416093877448</v>
+        <v>0.0385865756848155</v>
       </c>
       <c r="K32" t="n">
         <v>340.481365555983</v>
@@ -1790,7 +1790,7 @@
         <v>359.058303726963</v>
       </c>
       <c r="N32" t="n">
-        <v>344.666046677695</v>
+        <v>351.35222534</v>
       </c>
     </row>
     <row r="33">
@@ -1801,28 +1801,28 @@
         <v>8</v>
       </c>
       <c r="C33" t="n">
-        <v>96.2223967651725</v>
+        <v>101.92</v>
       </c>
       <c r="D33" t="n">
-        <v>1.25320596347076</v>
+        <v>1.33248659575698</v>
       </c>
       <c r="E33" t="n">
-        <v>70.8030936834086</v>
+        <v>68.94</v>
       </c>
       <c r="F33" t="n">
-        <v>2.83817070467087</v>
+        <v>2.99475443017823</v>
       </c>
       <c r="G33" t="n">
-        <v>7.48802334453037</v>
+        <v>7.0125</v>
       </c>
       <c r="H33" t="n">
-        <v>347.788392437664</v>
+        <v>375.93203</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0648757932495045</v>
+        <v>0.0430558603373061</v>
       </c>
       <c r="K33" t="n">
         <v>352.574017844779</v>
@@ -1834,7 +1834,7 @@
         <v>368.885876587974</v>
       </c>
       <c r="N33" t="n">
-        <v>370.351440280027</v>
+        <v>359.74595302</v>
       </c>
     </row>
     <row r="34">
@@ -1845,28 +1845,28 @@
         <v>9</v>
       </c>
       <c r="C34" t="n">
-        <v>90.2452426451016</v>
+        <v>97.34</v>
       </c>
       <c r="D34" t="n">
-        <v>1.27229757145856</v>
+        <v>1.29240465259052</v>
       </c>
       <c r="E34" t="n">
-        <v>72.3445792614687</v>
+        <v>65.94</v>
       </c>
       <c r="F34" t="n">
-        <v>3.2800294799695</v>
+        <v>3.05378760121864</v>
       </c>
       <c r="G34" t="n">
-        <v>8.6509841539585</v>
+        <v>8.205</v>
       </c>
       <c r="H34" t="n">
-        <v>396.492279550554</v>
+        <v>406.48823125</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.00723054963767544</v>
+        <v>0.0465233097938552</v>
       </c>
       <c r="K34" t="n">
         <v>389.867896348568</v>
@@ -1878,7 +1878,7 @@
         <v>397.479195848267</v>
       </c>
       <c r="N34" t="n">
-        <v>399.359136658799</v>
+        <v>387.57705334</v>
       </c>
     </row>
     <row r="35">
@@ -1889,28 +1889,28 @@
         <v>10</v>
       </c>
       <c r="C35" t="n">
-        <v>93.5124215825088</v>
+        <v>87.27</v>
       </c>
       <c r="D35" t="n">
-        <v>1.14561351694903</v>
+        <v>1.26853045960041</v>
       </c>
       <c r="E35" t="n">
-        <v>63.6024343082551</v>
+        <v>63.71</v>
       </c>
       <c r="F35" t="n">
-        <v>2.87344186272498</v>
+        <v>3.06789932798895</v>
       </c>
       <c r="G35" t="n">
-        <v>8.70218992535956</v>
+        <v>8.5</v>
       </c>
       <c r="H35" t="n">
-        <v>373.047890557975</v>
+        <v>411.50738</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.065011539575573</v>
+        <v>0.0572496984865739</v>
       </c>
       <c r="K35" t="n">
         <v>395.099321610278</v>
@@ -1922,7 +1922,7 @@
         <v>400.744767559433</v>
       </c>
       <c r="N35" t="n">
-        <v>397.300308258569</v>
+        <v>387.94870657</v>
       </c>
     </row>
     <row r="36">
@@ -1933,28 +1933,28 @@
         <v>11</v>
       </c>
       <c r="C36" t="n">
-        <v>76.0557472702004</v>
+        <v>78.44</v>
       </c>
       <c r="D36" t="n">
-        <v>1.35917052099265</v>
+        <v>1.24813654669757</v>
       </c>
       <c r="E36" t="n">
-        <v>58.8726557369228</v>
+        <v>62.55</v>
       </c>
       <c r="F36" t="n">
-        <v>3.26804474644017</v>
+        <v>3.08201105475925</v>
       </c>
       <c r="G36" t="n">
-        <v>7.84983649956528</v>
+        <v>8.425</v>
       </c>
       <c r="H36" t="n">
-        <v>394.586367329821</v>
+        <v>387.9138375</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0872782312216847</v>
+        <v>0.0212783996394559</v>
       </c>
       <c r="K36" t="n">
         <v>388.878601407687</v>
@@ -1966,7 +1966,7 @@
         <v>379.939307367785</v>
       </c>
       <c r="N36" t="n">
-        <v>360.147567125084</v>
+        <v>379.65965184</v>
       </c>
     </row>
     <row r="37">
@@ -1977,28 +1977,28 @@
         <v>12</v>
       </c>
       <c r="C37" t="n">
-        <v>60.7702781271567</v>
+        <v>62.33</v>
       </c>
       <c r="D37" t="n">
-        <v>1.25009331968815</v>
+        <v>1.23279999081493</v>
       </c>
       <c r="E37" t="n">
-        <v>67.3586185220592</v>
+        <v>62.44</v>
       </c>
       <c r="F37" t="n">
-        <v>3.21027131943203</v>
+        <v>3.09612278152956</v>
       </c>
       <c r="G37" t="n">
-        <v>7.7017351335485</v>
+        <v>8.3625</v>
       </c>
       <c r="H37" t="n">
-        <v>369.930036949854</v>
+        <v>375.1706875</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0487453952234058</v>
+        <v>0.0195696391392517</v>
       </c>
       <c r="K37" t="n">
         <v>380.049402788686</v>
@@ -2010,7 +2010,7 @@
         <v>367.235701829456</v>
       </c>
       <c r="N37" t="n">
-        <v>351.897651093724</v>
+        <v>367.82873253</v>
       </c>
     </row>
     <row r="38">
@@ -2021,28 +2021,28 @@
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>50.1761184792262</v>
+        <v>48.07</v>
       </c>
       <c r="D38" t="n">
-        <v>1.20672947142261</v>
+        <v>1.15716241302786</v>
       </c>
       <c r="E38" t="n">
-        <v>57.8891421150835</v>
+        <v>62.1</v>
       </c>
       <c r="F38" t="n">
-        <v>3.05224299236885</v>
+        <v>3.20483027333727</v>
       </c>
       <c r="G38" t="n">
-        <v>6.33948375178012</v>
+        <v>6.8075</v>
       </c>
       <c r="H38" t="n">
-        <v>294.525276055759</v>
+        <v>320.0692625</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.025782057302103</v>
+        <v>0.0119737815498605</v>
       </c>
       <c r="K38" t="n">
         <v>323.387796734259</v>
@@ -2054,7 +2054,7 @@
         <v>313.414145624192</v>
       </c>
       <c r="N38" t="n">
-        <v>302.118743599946</v>
+        <v>316.23682307</v>
       </c>
     </row>
     <row r="39">
@@ -2065,28 +2065,28 @@
         <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>58.9301653079996</v>
+        <v>57.93</v>
       </c>
       <c r="D39" t="n">
-        <v>1.15603506353802</v>
+        <v>1.13603677322678</v>
       </c>
       <c r="E39" t="n">
-        <v>63.0466661153827</v>
+        <v>61.4</v>
       </c>
       <c r="F39" t="n">
-        <v>3.20354214531507</v>
+        <v>3.31353776514498</v>
       </c>
       <c r="G39" t="n">
-        <v>7.52357755467272</v>
+        <v>7.2775</v>
       </c>
       <c r="H39" t="n">
-        <v>300.37385841296</v>
+        <v>332.076975</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.142480446600843</v>
+        <v>0.00816844748119006</v>
       </c>
       <c r="K39" t="n">
         <v>343.559469433644</v>
@@ -2098,7 +2098,7 @@
         <v>326.412036301202</v>
       </c>
       <c r="N39" t="n">
-        <v>343.171259906857</v>
+        <v>334.78952833</v>
       </c>
     </row>
     <row r="40">
@@ -2109,28 +2109,28 @@
         <v>3</v>
       </c>
       <c r="C40" t="n">
-        <v>53.4566583761936</v>
+        <v>55.79</v>
       </c>
       <c r="D40" t="n">
-        <v>1.00128915828963</v>
+        <v>1.08116510558968</v>
       </c>
       <c r="E40" t="n">
-        <v>63.0520380038039</v>
+        <v>60.115</v>
       </c>
       <c r="F40" t="n">
-        <v>3.11885314889673</v>
+        <v>3.42224525695269</v>
       </c>
       <c r="G40" t="n">
-        <v>6.91350911979843</v>
+        <v>6.9075</v>
       </c>
       <c r="H40" t="n">
-        <v>351.094025308229</v>
+        <v>335.977275</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.0797531358866844</v>
+        <v>0.0399987755421851</v>
       </c>
       <c r="K40" t="n">
         <v>330.939424998388</v>
@@ -2142,7 +2142,7 @@
         <v>326.840498756134</v>
       </c>
       <c r="N40" t="n">
-        <v>323.093175798819</v>
+        <v>322.53859539</v>
       </c>
     </row>
     <row r="41">
@@ -2153,28 +2153,28 @@
         <v>4</v>
       </c>
       <c r="C41" t="n">
-        <v>60.2410947331805</v>
+        <v>59.39</v>
       </c>
       <c r="D41" t="n">
-        <v>1.07033990666561</v>
+        <v>1.0775772178982</v>
       </c>
       <c r="E41" t="n">
-        <v>52.1118641924419</v>
+        <v>57.8142857142857</v>
       </c>
       <c r="F41" t="n">
-        <v>3.28511710830109</v>
+        <v>3.4125454996046</v>
       </c>
       <c r="G41" t="n">
-        <v>6.30110770662641</v>
+        <v>6.79</v>
       </c>
       <c r="H41" t="n">
-        <v>362.658404726578</v>
+        <v>343.3527375</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.162518907230597</v>
+        <v>0.067638066594083</v>
       </c>
       <c r="K41" t="n">
         <v>328.368324933841</v>
@@ -2186,7 +2186,7 @@
         <v>331.719249435281</v>
       </c>
       <c r="N41" t="n">
-        <v>303.719557092423</v>
+        <v>320.129022175714</v>
       </c>
     </row>
     <row r="42">
@@ -2197,28 +2197,28 @@
         <v>5</v>
       </c>
       <c r="C42" t="n">
-        <v>67.1737257209569</v>
+        <v>64.56</v>
       </c>
       <c r="D42" t="n">
-        <v>1.0869088753992</v>
+        <v>1.11585237283569</v>
       </c>
       <c r="E42" t="n">
-        <v>61.6926914008747</v>
+        <v>60.3973684210526</v>
       </c>
       <c r="F42" t="n">
-        <v>3.08975257702715</v>
+        <v>3.4028457422565</v>
       </c>
       <c r="G42" t="n">
-        <v>6.14805870410567</v>
+        <v>6.695</v>
       </c>
       <c r="H42" t="n">
-        <v>321.384779926098</v>
+        <v>356.2384025</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.0357681125906201</v>
+        <v>0.0950310941605431</v>
       </c>
       <c r="K42" t="n">
         <v>327.929800645496</v>
@@ -2230,7 +2230,7 @@
         <v>343.151390626351</v>
       </c>
       <c r="N42" t="n">
-        <v>309.88945293279</v>
+        <v>322.384677328421</v>
       </c>
     </row>
     <row r="43">
@@ -2241,28 +2241,28 @@
         <v>6</v>
       </c>
       <c r="C43" t="n">
-        <v>59.1972867734833</v>
+        <v>62.34</v>
       </c>
       <c r="D43" t="n">
-        <v>1.12888130534415</v>
+        <v>1.12218492742573</v>
       </c>
       <c r="E43" t="n">
-        <v>52.9976652765424</v>
+        <v>58.8409090909091</v>
       </c>
       <c r="F43" t="n">
-        <v>3.2391550396</v>
+        <v>3.39314598490841</v>
       </c>
       <c r="G43" t="n">
-        <v>7.07412545087305</v>
+        <v>6.655</v>
       </c>
       <c r="H43" t="n">
-        <v>371.834428377458</v>
+        <v>347.42600625</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.126649530508997</v>
+        <v>0.0820266295479714</v>
       </c>
       <c r="K43" t="n">
         <v>325.411920126019</v>
@@ -2274,7 +2274,7 @@
         <v>335.034186878297</v>
       </c>
       <c r="N43" t="n">
-        <v>324.741772596372</v>
+        <v>318.92782194</v>
       </c>
     </row>
     <row r="44">
@@ -2285,28 +2285,28 @@
         <v>7</v>
       </c>
       <c r="C44" t="n">
-        <v>53.5491868939116</v>
+        <v>55.87</v>
       </c>
       <c r="D44" t="n">
-        <v>1.02646430842088</v>
+        <v>1.10162166009412</v>
       </c>
       <c r="E44" t="n">
-        <v>60.4890209086563</v>
+        <v>59.1304347826087</v>
       </c>
       <c r="F44" t="n">
-        <v>3.31943245090617</v>
+        <v>3.31252350373562</v>
       </c>
       <c r="G44" t="n">
-        <v>6.21351379060158</v>
+        <v>6.698</v>
       </c>
       <c r="H44" t="n">
-        <v>341.70630112349</v>
+        <v>323.31087</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.114978389819172</v>
+        <v>0.021850062560801</v>
       </c>
       <c r="K44" t="n">
         <v>324.500253417169</v>
@@ -2318,7 +2318,7 @@
         <v>315.277340170777</v>
       </c>
       <c r="N44" t="n">
-        <v>302.417460829246</v>
+        <v>316.246507263913</v>
       </c>
     </row>
     <row r="45">
@@ -2329,28 +2329,28 @@
         <v>8</v>
       </c>
       <c r="C45" t="n">
-        <v>51.5608173541026</v>
+        <v>46.99</v>
       </c>
       <c r="D45" t="n">
-        <v>1.16522944228874</v>
+        <v>1.11267142857143</v>
       </c>
       <c r="E45" t="n">
-        <v>55.8717450698548</v>
+        <v>58.5725</v>
       </c>
       <c r="F45" t="n">
-        <v>3.16460215820541</v>
+        <v>3.23190102256283</v>
       </c>
       <c r="G45" t="n">
-        <v>6.93368893303443</v>
+        <v>6.455</v>
       </c>
       <c r="H45" t="n">
-        <v>307.540316692786</v>
+        <v>308.22225</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.033836928432583</v>
+        <v>0.0146217374313501</v>
       </c>
       <c r="K45" t="n">
         <v>312.511898546172</v>
@@ -2362,7 +2362,7 @@
         <v>300.607827731559</v>
       </c>
       <c r="N45" t="n">
-        <v>317.946536378854</v>
+        <v>303.71550519</v>
       </c>
     </row>
     <row r="46">
@@ -2373,28 +2373,28 @@
         <v>9</v>
       </c>
       <c r="C46" t="n">
-        <v>45.3546631662808</v>
+        <v>47.24</v>
       </c>
       <c r="D46" t="n">
-        <v>1.19963797540496</v>
+        <v>1.12366363636364</v>
       </c>
       <c r="E46" t="n">
-        <v>58.1168260125773</v>
+        <v>54.7454545454545</v>
       </c>
       <c r="F46" t="n">
-        <v>3.4232642995638</v>
+        <v>3.15127854139004</v>
       </c>
       <c r="G46" t="n">
-        <v>6.26872433199082</v>
+        <v>6.3</v>
       </c>
       <c r="H46" t="n">
-        <v>299.536942046434</v>
+        <v>285.14254375</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.00740180911714916</v>
+        <v>0.0423946694555641</v>
       </c>
       <c r="K46" t="n">
         <v>306.676056606673</v>
@@ -2406,7 +2406,7 @@
         <v>280.03892833304</v>
       </c>
       <c r="N46" t="n">
-        <v>297.319826777872</v>
+        <v>297.23106764</v>
       </c>
     </row>
     <row r="47">
@@ -2417,28 +2417,28 @@
         <v>10</v>
       </c>
       <c r="C47" t="n">
-        <v>48.3514836018495</v>
+        <v>48.12</v>
       </c>
       <c r="D47" t="n">
-        <v>1.04147464352519</v>
+        <v>1.1234347826087</v>
       </c>
       <c r="E47" t="n">
-        <v>55.5612019503377</v>
+        <v>52.3136363636364</v>
       </c>
       <c r="F47" t="n">
-        <v>3.30039091359426</v>
+        <v>3.10259243930964</v>
       </c>
       <c r="G47" t="n">
-        <v>5.90464670622796</v>
+        <v>6.052</v>
       </c>
       <c r="H47" t="n">
-        <v>280.789497195933</v>
+        <v>271.17467</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0.0243891177633873</v>
+        <v>0.0674912218018002</v>
       </c>
       <c r="K47" t="n">
         <v>298.506743702141</v>
@@ -2450,7 +2450,7 @@
         <v>266.856914398108</v>
       </c>
       <c r="N47" t="n">
-        <v>287.637705309767</v>
+        <v>289.4765798</v>
       </c>
     </row>
     <row r="48">
@@ -2461,28 +2461,28 @@
         <v>11</v>
       </c>
       <c r="C48" t="n">
-        <v>42.7916662903009</v>
+        <v>44.42</v>
       </c>
       <c r="D48" t="n">
-        <v>1.05615479262235</v>
+        <v>1.076025</v>
       </c>
       <c r="E48" t="n">
-        <v>52.5558147039797</v>
+        <v>52.5714285714286</v>
       </c>
       <c r="F48" t="n">
-        <v>2.94467848861614</v>
+        <v>3.05390633722925</v>
       </c>
       <c r="G48" t="n">
-        <v>5.89102142975549</v>
+        <v>5.525</v>
       </c>
       <c r="H48" t="n">
-        <v>242.736392421372</v>
+        <v>243.513975</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0.161366398845489</v>
+        <v>0.120811538839081</v>
       </c>
       <c r="K48" t="n">
         <v>280.278053045814</v>
@@ -2494,7 +2494,7 @@
         <v>241.748908252217</v>
       </c>
       <c r="N48" t="n">
-        <v>281.905889935154</v>
+        <v>272.933273048571</v>
       </c>
     </row>
     <row r="49">
@@ -2505,28 +2505,28 @@
         <v>12</v>
       </c>
       <c r="C49" t="n">
-        <v>34.9504866494183</v>
+        <v>37.72</v>
       </c>
       <c r="D49" t="n">
-        <v>1.00523459342575</v>
+        <v>1.08697826086957</v>
       </c>
       <c r="E49" t="n">
-        <v>51.1777756731156</v>
+        <v>52.1275</v>
       </c>
       <c r="F49" t="n">
-        <v>2.98350080743639</v>
+        <v>3.00522023514886</v>
       </c>
       <c r="G49" t="n">
-        <v>5.46895584646845</v>
+        <v>5.25</v>
       </c>
       <c r="H49" t="n">
-        <v>218.089095952221</v>
+        <v>236.62155</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.213338978079111</v>
+        <v>0.102859666923828</v>
       </c>
       <c r="K49" t="n">
         <v>268.211656206139</v>
@@ -2538,7 +2538,7 @@
         <v>233.778099708263</v>
       </c>
       <c r="N49" t="n">
-        <v>264.616000812865</v>
+        <v>260.96036382</v>
       </c>
     </row>
     <row r="50">
@@ -2549,28 +2549,28 @@
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>27.7948773665912</v>
+        <v>30.8</v>
       </c>
       <c r="D50" t="n">
-        <v>1.09086653230613</v>
+        <v>1.08774375</v>
       </c>
       <c r="E50" t="n">
-        <v>49.9917347310115</v>
+        <v>49.815625</v>
       </c>
       <c r="F50" t="n">
-        <v>2.96800728540912</v>
+        <v>2.91231896905698</v>
       </c>
       <c r="G50" t="n">
-        <v>4.09100423798244</v>
+        <v>4.415</v>
       </c>
       <c r="H50" t="n">
-        <v>209.88233986988</v>
+        <v>198.1587125</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0.0566040791477744</v>
+        <v>0.172686291928749</v>
       </c>
       <c r="K50" t="n">
         <v>237.216934626237</v>
@@ -2582,7 +2582,7 @@
         <v>197.114051328394</v>
       </c>
       <c r="N50" t="n">
-        <v>221.762536447595</v>
+        <v>232.378005775</v>
       </c>
     </row>
     <row r="51">
@@ -2593,28 +2593,28 @@
         <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>31.482672838252</v>
+        <v>33.2</v>
       </c>
       <c r="D51" t="n">
-        <v>1.03879688775974</v>
+        <v>1.11146315789474</v>
       </c>
       <c r="E51" t="n">
-        <v>52.0822784893925</v>
+        <v>50.7075</v>
       </c>
       <c r="F51" t="n">
-        <v>2.82395041691959</v>
+        <v>2.8194177029651</v>
       </c>
       <c r="G51" t="n">
-        <v>4.1894139706234</v>
+        <v>4.0175</v>
       </c>
       <c r="H51" t="n">
-        <v>158.723163971371</v>
+        <v>164.7498</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0.436884554460833</v>
+        <v>0.357076273233716</v>
       </c>
       <c r="K51" t="n">
         <v>225.290224055046</v>
@@ -2626,7 +2626,7 @@
         <v>169.166634478541</v>
       </c>
       <c r="N51" t="n">
-        <v>228.066862745617</v>
+        <v>223.5780446</v>
       </c>
     </row>
     <row r="52">
@@ -2637,28 +2637,28 @@
         <v>3</v>
       </c>
       <c r="C52" t="n">
-        <v>35.891105809838</v>
+        <v>39.07</v>
       </c>
       <c r="D52" t="n">
-        <v>1.16948578939472</v>
+        <v>1.11022380952381</v>
       </c>
       <c r="E52" t="n">
-        <v>51.4514453602261</v>
+        <v>52.19</v>
       </c>
       <c r="F52" t="n">
-        <v>2.47086503282294</v>
+        <v>2.72651643687323</v>
       </c>
       <c r="G52" t="n">
-        <v>3.61745992614627</v>
+        <v>3.904</v>
       </c>
       <c r="H52" t="n">
-        <v>168.733017748838</v>
+        <v>181.8716625</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0.273001387525879</v>
+        <v>0.237538619464701</v>
       </c>
       <c r="K52" t="n">
         <v>224.694717508937</v>
@@ -2670,7 +2670,7 @@
         <v>183.554901176787</v>
       </c>
       <c r="N52" t="n">
-        <v>214.7973657157</v>
+        <v>225.07320613</v>
       </c>
     </row>
     <row r="53">
@@ -2681,28 +2681,28 @@
         <v>4</v>
       </c>
       <c r="C53" t="n">
-        <v>42.3872372215148</v>
+        <v>42.25</v>
       </c>
       <c r="D53" t="n">
-        <v>1.11506156515128</v>
+        <v>1.13380909090909</v>
       </c>
       <c r="E53" t="n">
-        <v>49.3460971960123</v>
+        <v>50.91</v>
       </c>
       <c r="F53" t="n">
-        <v>2.842016832005</v>
+        <v>2.82657984635832</v>
       </c>
       <c r="G53" t="n">
-        <v>3.75308359955647</v>
+        <v>3.9425</v>
       </c>
       <c r="H53" t="n">
-        <v>207.051576478658</v>
+        <v>199.705155</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0.0684911570063473</v>
+        <v>0.13820186589575</v>
       </c>
       <c r="K53" t="n">
         <v>226.992919232127</v>
@@ -2714,7 +2714,7 @@
         <v>197.878124208103</v>
       </c>
       <c r="N53" t="n">
-        <v>221.232778511669</v>
+        <v>227.30478005</v>
       </c>
     </row>
     <row r="54">
@@ -2725,28 +2725,28 @@
         <v>5</v>
       </c>
       <c r="C54" t="n">
-        <v>51.2366841626465</v>
+        <v>47.13</v>
       </c>
       <c r="D54" t="n">
-        <v>1.20511587838196</v>
+        <v>1.12945</v>
       </c>
       <c r="E54" t="n">
-        <v>55.2201928159632</v>
+        <v>51.48</v>
       </c>
       <c r="F54" t="n">
-        <v>2.75352200605064</v>
+        <v>2.92664325584342</v>
       </c>
       <c r="G54" t="n">
-        <v>4.42846579699032</v>
+        <v>4.28</v>
       </c>
       <c r="H54" t="n">
-        <v>224.752264495298</v>
+        <v>227.51163125</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0.107436181751048</v>
+        <v>0.0545764280787733</v>
       </c>
       <c r="K54" t="n">
         <v>240.684655651832</v>
@@ -2758,7 +2758,7 @@
         <v>222.576968108135</v>
       </c>
       <c r="N54" t="n">
-        <v>248.898789632574</v>
+        <v>239.92840343</v>
       </c>
     </row>
     <row r="55">
@@ -2769,28 +2769,28 @@
         <v>6</v>
       </c>
       <c r="C55" t="n">
-        <v>51.1862718372121</v>
+        <v>48.48</v>
       </c>
       <c r="D55" t="n">
-        <v>1.13711387631491</v>
+        <v>1.12375238095238</v>
       </c>
       <c r="E55" t="n">
-        <v>57.1602416382115</v>
+        <v>53.17</v>
       </c>
       <c r="F55" t="n">
-        <v>2.72521868226104</v>
+        <v>3.02670666532852</v>
       </c>
       <c r="G55" t="n">
-        <v>4.87510820174711</v>
+        <v>4.706</v>
       </c>
       <c r="H55" t="n">
-        <v>208.542452220878</v>
+        <v>228.0944125</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>0.257720846834233</v>
+        <v>0.111253446070276</v>
       </c>
       <c r="K55" t="n">
         <v>256.030186655775</v>
@@ -2802,7 +2802,7 @@
         <v>226.006404096697</v>
       </c>
       <c r="N55" t="n">
-        <v>262.28818960813</v>
+        <v>253.47070192</v>
       </c>
     </row>
     <row r="56">
@@ -2813,28 +2813,28 @@
         <v>7</v>
       </c>
       <c r="C56" t="n">
-        <v>46.424867977235</v>
+        <v>45.07</v>
       </c>
       <c r="D56" t="n">
-        <v>1.19115695076605</v>
+        <v>1.1066</v>
       </c>
       <c r="E56" t="n">
-        <v>66.4375399116627</v>
+        <v>62.29</v>
       </c>
       <c r="F56" t="n">
-        <v>2.66462598305366</v>
+        <v>2.93841155121377</v>
       </c>
       <c r="G56" t="n">
-        <v>4.23821874457318</v>
+        <v>4.665</v>
       </c>
       <c r="H56" t="n">
-        <v>203.279365082228</v>
+        <v>220.50038</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0.218774354646297</v>
+        <v>0.160799667420074</v>
       </c>
       <c r="K56" t="n">
         <v>255.756666345269</v>
@@ -2846,7 +2846,7 @@
         <v>222.707133061825</v>
       </c>
       <c r="N56" t="n">
-        <v>247.751676991001</v>
+        <v>255.95676777</v>
       </c>
     </row>
     <row r="57">
@@ -2857,28 +2857,28 @@
         <v>8</v>
       </c>
       <c r="C57" t="n">
-        <v>44.6048139182953</v>
+        <v>46.14</v>
       </c>
       <c r="D57" t="n">
-        <v>1.09641842582332</v>
+        <v>1.12108181818182</v>
       </c>
       <c r="E57" t="n">
-        <v>60.9065308803709</v>
+        <v>67.3739130434783</v>
       </c>
       <c r="F57" t="n">
-        <v>2.61237176114273</v>
+        <v>2.85011643709902</v>
       </c>
       <c r="G57" t="n">
-        <v>4.54845016826643</v>
+        <v>4.165</v>
       </c>
       <c r="H57" t="n">
-        <v>228.037195738149</v>
+        <v>218.345125</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>0.103384688782088</v>
+        <v>0.127400979093156</v>
       </c>
       <c r="K57" t="n">
         <v>240.972438400394</v>
@@ -2890,7 +2890,7 @@
         <v>220.499910750953</v>
       </c>
       <c r="N57" t="n">
-        <v>251.612750250278</v>
+        <v>246.162507705217</v>
       </c>
     </row>
     <row r="58">
@@ -2901,28 +2901,28 @@
         <v>9</v>
       </c>
       <c r="C58" t="n">
-        <v>46.0046477265973</v>
+        <v>46.19</v>
       </c>
       <c r="D58" t="n">
-        <v>1.13034598821604</v>
+        <v>1.12092272727273</v>
       </c>
       <c r="E58" t="n">
-        <v>66.5433226484573</v>
+        <v>72.9</v>
       </c>
       <c r="F58" t="n">
-        <v>2.608855834177</v>
+        <v>2.76182132298427</v>
       </c>
       <c r="G58" t="n">
-        <v>4.2053621001821</v>
+        <v>4.11</v>
       </c>
       <c r="H58" t="n">
-        <v>233.045110933384</v>
+        <v>234.95507</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>0.0584147036400358</v>
+        <v>0.0562268245158533</v>
       </c>
       <c r="K58" t="n">
         <v>240.699476447214</v>
@@ -2934,7 +2934,7 @@
         <v>235.507496199191</v>
       </c>
       <c r="N58" t="n">
-        <v>246.658372023317</v>
+        <v>248.16584749</v>
       </c>
     </row>
     <row r="59">
@@ -2945,28 +2945,28 @@
         <v>10</v>
       </c>
       <c r="C59" t="n">
-        <v>52.0294817635044</v>
+        <v>49.73</v>
       </c>
       <c r="D59" t="n">
-        <v>0.995798048048381</v>
+        <v>1.10388571428571</v>
       </c>
       <c r="E59" t="n">
-        <v>93.81398149624</v>
+        <v>93.17</v>
       </c>
       <c r="F59" t="n">
-        <v>2.6010676470985</v>
+        <v>2.84000203845094</v>
       </c>
       <c r="G59" t="n">
-        <v>5.57974305899325</v>
+        <v>5.2525</v>
       </c>
       <c r="H59" t="n">
-        <v>258.294879486284</v>
+        <v>235.83091875</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0.181244985522576</v>
+        <v>0.248055657375503</v>
       </c>
       <c r="K59" t="n">
         <v>285.247438251147</v>
@@ -2978,7 +2978,7 @@
         <v>250.093494246859</v>
       </c>
       <c r="N59" t="n">
-        <v>305.109531179331</v>
+        <v>294.33011233</v>
       </c>
     </row>
     <row r="60">
@@ -2989,28 +2989,28 @@
         <v>11</v>
       </c>
       <c r="C60" t="n">
-        <v>43.9726989548374</v>
+        <v>46.44</v>
       </c>
       <c r="D60" t="n">
-        <v>1.08171172611141</v>
+        <v>1.08137619047619</v>
       </c>
       <c r="E60" t="n">
-        <v>98.8286167717218</v>
+        <v>100.01</v>
       </c>
       <c r="F60" t="n">
-        <v>2.72110480394643</v>
+        <v>2.9181827539176</v>
       </c>
       <c r="G60" t="n">
-        <v>5.17060054513835</v>
+        <v>5.655</v>
       </c>
       <c r="H60" t="n">
-        <v>283.508077765638</v>
+        <v>268.24530625</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>0.0301560524702047</v>
+        <v>0.146609791387543</v>
       </c>
       <c r="K60" t="n">
         <v>299.187373451483</v>
@@ -3022,7 +3022,7 @@
         <v>280.034183324868</v>
       </c>
       <c r="N60" t="n">
-        <v>292.057562234465</v>
+        <v>307.57269464</v>
       </c>
     </row>
     <row r="61">
@@ -3033,28 +3033,28 @@
         <v>12</v>
       </c>
       <c r="C61" t="n">
-        <v>58.6199245509873</v>
+        <v>54.07</v>
       </c>
       <c r="D61" t="n">
-        <v>1.0961773304037</v>
+        <v>1.05502608695652</v>
       </c>
       <c r="E61" t="n">
-        <v>92.5585444716029</v>
+        <v>86.32</v>
       </c>
       <c r="F61" t="n">
-        <v>2.96289815007277</v>
+        <v>2.99636346938427</v>
       </c>
       <c r="G61" t="n">
-        <v>5.80231812982704</v>
+        <v>5.3625</v>
       </c>
       <c r="H61" t="n">
-        <v>310.379694631009</v>
+        <v>316.81850625</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>0.013318437071562</v>
+        <v>0.066542393717886</v>
       </c>
       <c r="K61" t="n">
         <v>290.12803058834</v>
@@ -3066,7 +3066,7 @@
         <v>313.064039272931</v>
       </c>
       <c r="N61" t="n">
-        <v>314.513467062243</v>
+        <v>295.73664447</v>
       </c>
     </row>
     <row r="62">
@@ -3077,28 +3077,28 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>50.7776338823382</v>
+        <v>54.89</v>
       </c>
       <c r="D62" t="n">
-        <v>1.0912906179784</v>
+        <v>1.06598125</v>
       </c>
       <c r="E62" t="n">
-        <v>86.0252461062265</v>
+        <v>83.73</v>
       </c>
       <c r="F62" t="n">
-        <v>2.75248853407125</v>
+        <v>3.01905396279001</v>
       </c>
       <c r="G62" t="n">
-        <v>5.92943654558156</v>
+        <v>6.1125</v>
       </c>
       <c r="H62" t="n">
-        <v>320.779373172467</v>
+        <v>351.2602375</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>0.0367720601037886</v>
+        <v>0.102921926681212</v>
       </c>
       <c r="K62" t="n">
         <v>314.726416816129</v>
@@ -3110,7 +3110,7 @@
         <v>343.395849326813</v>
       </c>
       <c r="N62" t="n">
-        <v>308.983654782113</v>
+        <v>315.10785709</v>
       </c>
     </row>
     <row r="63">
@@ -3121,28 +3121,28 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>53.324006136253</v>
+        <v>55.49</v>
       </c>
       <c r="D63" t="n">
-        <v>1.08828196939185</v>
+        <v>1.06586111111111</v>
       </c>
       <c r="E63" t="n">
-        <v>74.4793666116898</v>
+        <v>80.41</v>
       </c>
       <c r="F63" t="n">
-        <v>3.12664137042295</v>
+        <v>3.04174445619575</v>
       </c>
       <c r="G63" t="n">
-        <v>6.76693639129819</v>
+        <v>6.2475</v>
       </c>
       <c r="H63" t="n">
-        <v>379.569851041436</v>
+        <v>412.69965</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0.140628609160303</v>
+        <v>0.231686608190727</v>
       </c>
       <c r="K63" t="n">
         <v>318.871097867055</v>
@@ -3154,7 +3154,7 @@
         <v>391.779859515208</v>
       </c>
       <c r="N63" t="n">
-        <v>326.191470810296</v>
+        <v>317.08266789</v>
       </c>
     </row>
     <row r="64">
@@ -3165,28 +3165,28 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>51.2663501171251</v>
+        <v>51.97</v>
       </c>
       <c r="D64" t="n">
-        <v>1.15525998692029</v>
+        <v>1.06896363636364</v>
       </c>
       <c r="E64" t="n">
-        <v>80.9091786169913</v>
+        <v>80.55</v>
       </c>
       <c r="F64" t="n">
-        <v>3.15773607809287</v>
+        <v>3.06443494960149</v>
       </c>
       <c r="G64" t="n">
-        <v>5.42805432211794</v>
+        <v>5.08</v>
       </c>
       <c r="H64" t="n">
-        <v>428.492133888839</v>
+        <v>401.897885</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0.317664228320815</v>
+        <v>0.295639622811152</v>
       </c>
       <c r="K64" t="n">
         <v>278.977562826584</v>
@@ -3198,7 +3198,7 @@
         <v>376.819116525086</v>
       </c>
       <c r="N64" t="n">
-        <v>292.375510835502</v>
+        <v>283.08094587</v>
       </c>
     </row>
     <row r="65">
@@ -3209,28 +3209,28 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>55.2409463340947</v>
+        <v>52.98</v>
       </c>
       <c r="D65" t="n">
-        <v>1.04378503874453</v>
+        <v>1.0713380952381</v>
       </c>
       <c r="E65" t="n">
-        <v>78.3374950324872</v>
+        <v>84.6421052631579</v>
       </c>
       <c r="F65" t="n">
-        <v>2.83204024283003</v>
+        <v>3.01574387630643</v>
       </c>
       <c r="G65" t="n">
-        <v>4.63993922928674</v>
+        <v>4.99</v>
       </c>
       <c r="H65" t="n">
-        <v>322.965616970571</v>
+        <v>327.4513125</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>0.158703017074588</v>
+        <v>0.133227787916522</v>
       </c>
       <c r="K65" t="n">
         <v>277.621598418856</v>
@@ -3242,7 +3242,7 @@
         <v>318.7936930075</v>
       </c>
       <c r="N65" t="n">
-        <v>271.709999145986</v>
+        <v>283.825698485263</v>
       </c>
     </row>
     <row r="66">
@@ -3253,28 +3253,28 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>48.7216141597168</v>
+        <v>50.87</v>
       </c>
       <c r="D66" t="n">
-        <v>1.13393343468749</v>
+        <v>1.10552631578947</v>
       </c>
       <c r="E66" t="n">
-        <v>72.1666495964695</v>
+        <v>74.52</v>
       </c>
       <c r="F66" t="n">
-        <v>2.78596477703719</v>
+        <v>2.96705280301138</v>
       </c>
       <c r="G66" t="n">
-        <v>5.27011971288978</v>
+        <v>5.1925</v>
       </c>
       <c r="H66" t="n">
-        <v>322.85471277409</v>
+        <v>307.4268</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0.129713732388789</v>
+        <v>0.0837617589943362</v>
       </c>
       <c r="K66" t="n">
         <v>280.773303107501</v>
@@ -3286,7 +3286,7 @@
         <v>299.783801920249</v>
       </c>
       <c r="N66" t="n">
-        <v>280.976022960852</v>
+        <v>281.67619047</v>
       </c>
     </row>
     <row r="67">
@@ -3297,28 +3297,28 @@
         <v>6</v>
       </c>
       <c r="C67" t="n">
-        <v>46.838127799626</v>
+        <v>46.89</v>
       </c>
       <c r="D67" t="n">
-        <v>1.21003910679679</v>
+        <v>1.12217619047619</v>
       </c>
       <c r="E67" t="n">
-        <v>82.1718972276918</v>
+        <v>80.9522727272727</v>
       </c>
       <c r="F67" t="n">
-        <v>3.0549115879135</v>
+        <v>2.91836172971633</v>
       </c>
       <c r="G67" t="n">
-        <v>4.92672306221891</v>
+        <v>4.918</v>
       </c>
       <c r="H67" t="n">
-        <v>329.346716824666</v>
+        <v>300.83554</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>0.159819257188718</v>
+        <v>0.0834261068024076</v>
       </c>
       <c r="K67" t="n">
         <v>271.512662976207</v>
@@ -3330,7 +3330,7 @@
         <v>295.012047546525</v>
       </c>
       <c r="N67" t="n">
-        <v>276.710769184205</v>
+        <v>275.73800211</v>
       </c>
     </row>
     <row r="68">
@@ -3341,28 +3341,28 @@
         <v>7</v>
       </c>
       <c r="C68" t="n">
-        <v>47.2564372066394</v>
+        <v>48.69</v>
       </c>
       <c r="D68" t="n">
-        <v>1.10686428075839</v>
+        <v>1.1496</v>
       </c>
       <c r="E68" t="n">
-        <v>84.7717190372283</v>
+        <v>87.5309523809524</v>
       </c>
       <c r="F68" t="n">
-        <v>3.26014706728554</v>
+        <v>3.06588456875344</v>
       </c>
       <c r="G68" t="n">
-        <v>5.26312846536154</v>
+        <v>4.9825</v>
       </c>
       <c r="H68" t="n">
-        <v>322.600799656586</v>
+        <v>298.4081</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>0.107887605707124</v>
+        <v>0.0524393456174695</v>
       </c>
       <c r="K68" t="n">
         <v>275.924872434025</v>
@@ -3374,7 +3374,7 @@
         <v>296.114900803902</v>
       </c>
       <c r="N68" t="n">
-        <v>287.796171782433</v>
+        <v>282.759774509048</v>
       </c>
     </row>
     <row r="69">
@@ -3385,28 +3385,28 @@
         <v>8</v>
       </c>
       <c r="C69" t="n">
-        <v>47.008254436553</v>
+        <v>51.37</v>
       </c>
       <c r="D69" t="n">
-        <v>1.18587741027581</v>
+        <v>1.18050869565217</v>
       </c>
       <c r="E69" t="n">
-        <v>93.1835466277837</v>
+        <v>95.89</v>
       </c>
       <c r="F69" t="n">
-        <v>2.98745051723486</v>
+        <v>3.21340740779054</v>
       </c>
       <c r="G69" t="n">
-        <v>5.30977865133136</v>
+        <v>5.544</v>
       </c>
       <c r="H69" t="n">
-        <v>308.028606051936</v>
+        <v>305.06503125</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>0.0448787955167167</v>
+        <v>0.000125134696178142</v>
       </c>
       <c r="K69" t="n">
         <v>297.53695142606</v>
@@ -3418,7 +3418,7 @@
         <v>307.75685575324</v>
       </c>
       <c r="N69" t="n">
-        <v>294.204653227632</v>
+        <v>305.02685703</v>
       </c>
     </row>
     <row r="70">
@@ -3429,28 +3429,28 @@
         <v>9</v>
       </c>
       <c r="C70" t="n">
-        <v>57.4255633399039</v>
+        <v>55.16</v>
       </c>
       <c r="D70" t="n">
-        <v>1.23690575274889</v>
+        <v>1.19133636363636</v>
       </c>
       <c r="E70" t="n">
-        <v>92.6540540891633</v>
+        <v>96.8690476190476</v>
       </c>
       <c r="F70" t="n">
-        <v>3.22117989792373</v>
+        <v>3.36093024682764</v>
       </c>
       <c r="G70" t="n">
-        <v>5.35801946328604</v>
+        <v>5.935</v>
       </c>
       <c r="H70" t="n">
-        <v>328.992959156169</v>
+        <v>318.439145</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0.0829861733582574</v>
+        <v>0.000784198629073751</v>
       </c>
       <c r="K70" t="n">
         <v>312.478449168285</v>
@@ -3462,7 +3462,7 @@
         <v>321.24932809965</v>
       </c>
       <c r="N70" t="n">
-        <v>301.691092413989</v>
+        <v>318.688864540952</v>
       </c>
     </row>
     <row r="71">
@@ -3473,28 +3473,28 @@
         <v>10</v>
       </c>
       <c r="C71" t="n">
-        <v>58.5945432061022</v>
+        <v>57.62</v>
       </c>
       <c r="D71" t="n">
-        <v>1.19516431314448</v>
+        <v>1.17605238095238</v>
       </c>
       <c r="E71" t="n">
-        <v>93.6486126083005</v>
+        <v>97.1409090909091</v>
       </c>
       <c r="F71" t="n">
-        <v>3.5074025980663</v>
+        <v>3.36131575384284</v>
       </c>
       <c r="G71" t="n">
-        <v>5.95346835363307</v>
+        <v>6.175</v>
       </c>
       <c r="H71" t="n">
-        <v>273.271991563444</v>
+        <v>296.457925</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0.168476954554508</v>
+        <v>0.10285886545283</v>
       </c>
       <c r="K71" t="n">
         <v>321.973339056664</v>
@@ -3506,7 +3506,7 @@
         <v>305.39669480651</v>
       </c>
       <c r="N71" t="n">
-        <v>319.312024467098</v>
+        <v>326.95125082</v>
       </c>
     </row>
     <row r="72">
@@ -3517,28 +3517,28 @@
         <v>11</v>
       </c>
       <c r="C72" t="n">
-        <v>60.4819708168539</v>
+        <v>62.57</v>
       </c>
       <c r="D72" t="n">
-        <v>1.18776461182112</v>
+        <v>1.17319047619048</v>
       </c>
       <c r="E72" t="n">
-        <v>104.52002361094</v>
+        <v>96.6272727272727</v>
       </c>
       <c r="F72" t="n">
-        <v>3.42369890587663</v>
+        <v>3.36170126085804</v>
       </c>
       <c r="G72" t="n">
-        <v>6.06955562412739</v>
+        <v>6.56</v>
       </c>
       <c r="H72" t="n">
-        <v>347.746700273023</v>
+        <v>326.98085</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>0.0496051270874744</v>
+        <v>0.0405342810442875</v>
       </c>
       <c r="K72" t="n">
         <v>337.028211770118</v>
@@ -3550,7 +3550,7 @@
         <v>332.096996997861</v>
       </c>
       <c r="N72" t="n">
-        <v>330.49668101173</v>
+        <v>340.23478367</v>
       </c>
     </row>
     <row r="73">
@@ -3561,28 +3561,28 @@
         <v>12</v>
       </c>
       <c r="C73" t="n">
-        <v>64.3689077621843</v>
+        <v>64.21</v>
       </c>
       <c r="D73" t="n">
-        <v>1.29312124870263</v>
+        <v>1.18380909090909</v>
       </c>
       <c r="E73" t="n">
-        <v>100.876382954359</v>
+        <v>102.155</v>
       </c>
       <c r="F73" t="n">
-        <v>3.1860259840624</v>
+        <v>3.36208676787324</v>
       </c>
       <c r="G73" t="n">
-        <v>7.00903347667586</v>
+        <v>7.46333333333333</v>
       </c>
       <c r="H73" t="n">
-        <v>359.01313341012</v>
+        <v>367.56368125</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>0.0075696557258792</v>
+        <v>0.00502452179275692</v>
       </c>
       <c r="K73" t="n">
         <v>369.033829312493</v>
@@ -3594,7 +3594,7 @@
         <v>371.255966927199</v>
       </c>
       <c r="N73" t="n">
-        <v>356.295527589136</v>
+        <v>369.410512976667</v>
       </c>
     </row>
     <row r="74">
@@ -3605,28 +3605,28 @@
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>72.5333802026096</v>
+        <v>68.99</v>
       </c>
       <c r="D74" t="n">
-        <v>1.18919136543819</v>
+        <v>1.22171875</v>
       </c>
       <c r="E74" t="n">
-        <v>112.740151621966</v>
+        <v>106.776086956522</v>
       </c>
       <c r="F74" t="n">
-        <v>3.19443602667359</v>
+        <v>3.35272444524883</v>
       </c>
       <c r="G74" t="n">
-        <v>7.24532767633849</v>
+        <v>6.7625</v>
       </c>
       <c r="H74" t="n">
-        <v>426.148754222649</v>
+        <v>431.8401</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>0.119308857576634</v>
+        <v>0.175263052632716</v>
       </c>
       <c r="K74" t="n">
         <v>348.92482066583</v>
@@ -3638,7 +3638,7 @@
         <v>421.21251506788</v>
       </c>
       <c r="N74" t="n">
-        <v>375.305433198639</v>
+        <v>356.154485824783</v>
       </c>
     </row>
     <row r="75">
@@ -3649,28 +3649,28 @@
         <v>2</v>
       </c>
       <c r="C75" t="n">
-        <v>63.8556863333629</v>
+        <v>65.42</v>
       </c>
       <c r="D75" t="n">
-        <v>1.31797049288671</v>
+        <v>1.23760526315789</v>
       </c>
       <c r="E75" t="n">
-        <v>99.9372619650443</v>
+        <v>104.705</v>
       </c>
       <c r="F75" t="n">
-        <v>3.6733775011357</v>
+        <v>3.34336212262442</v>
       </c>
       <c r="G75" t="n">
-        <v>7.23967604961013</v>
+        <v>6.5925</v>
       </c>
       <c r="H75" t="n">
-        <v>424.554849501109</v>
+        <v>412.355775</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>0.148083556975482</v>
+        <v>0.156116433388134</v>
       </c>
       <c r="K75" t="n">
         <v>341.301017548558</v>
@@ -3682,7 +3682,7 @@
         <v>403.567645654752</v>
       </c>
       <c r="N75" t="n">
-        <v>361.685257255795</v>
+        <v>347.98026212</v>
       </c>
     </row>
     <row r="76">
@@ -3693,28 +3693,28 @@
         <v>3</v>
       </c>
       <c r="C76" t="n">
-        <v>65.373471398293</v>
+        <v>66.45</v>
       </c>
       <c r="D76" t="n">
-        <v>1.15424208784958</v>
+        <v>1.23292857142857</v>
       </c>
       <c r="E76" t="n">
-        <v>93.3764931200235</v>
+        <v>95.85</v>
       </c>
       <c r="F76" t="n">
-        <v>3.47241411996926</v>
+        <v>3.33399980000001</v>
       </c>
       <c r="G76" t="n">
-        <v>7.08662975150943</v>
+        <v>6.784</v>
       </c>
       <c r="H76" t="n">
-        <v>412.674896671851</v>
+        <v>389.85887</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>0.1413905352792</v>
+        <v>0.106633951639987</v>
       </c>
       <c r="K76" t="n">
         <v>346.254582082701</v>
@@ -3726,7 +3726,7 @@
         <v>383.431839588428</v>
       </c>
       <c r="N76" t="n">
-        <v>354.326572135129</v>
+        <v>348.28667811</v>
       </c>
     </row>
     <row r="77">
@@ -3737,28 +3737,28 @@
         <v>4</v>
       </c>
       <c r="C77" t="n">
-        <v>67.2779141358836</v>
+        <v>71.63</v>
       </c>
       <c r="D77" t="n">
-        <v>1.14578707043536</v>
+        <v>1.2284</v>
       </c>
       <c r="E77" t="n">
-        <v>92.3099650921348</v>
+        <v>94.2075</v>
       </c>
       <c r="F77" t="n">
-        <v>3.20364603381958</v>
+        <v>3.28533936666667</v>
       </c>
       <c r="G77" t="n">
-        <v>6.46477575362858</v>
+        <v>6.8425</v>
       </c>
       <c r="H77" t="n">
-        <v>374.190632104746</v>
+        <v>388.99829375</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>0.0970986397273873</v>
+        <v>0.0948934764318616</v>
       </c>
       <c r="K77" t="n">
         <v>350.375040432532</v>
@@ -3770,7 +3770,7 @@
         <v>383.112628161597</v>
       </c>
       <c r="N77" t="n">
-        <v>337.857230728644</v>
+        <v>352.08489333</v>
       </c>
     </row>
     <row r="78">
@@ -3781,28 +3781,28 @@
         <v>5</v>
       </c>
       <c r="C78" t="n">
-        <v>82.2792452439736</v>
+        <v>76.65</v>
       </c>
       <c r="D78" t="n">
-        <v>1.16988294403314</v>
+        <v>1.18135263157895</v>
       </c>
       <c r="E78" t="n">
-        <v>105.247598625089</v>
+        <v>105.445454545455</v>
       </c>
       <c r="F78" t="n">
-        <v>3.44739571359912</v>
+        <v>3.23667893333334</v>
       </c>
       <c r="G78" t="n">
-        <v>6.72908922933843</v>
+        <v>7.414</v>
       </c>
       <c r="H78" t="n">
-        <v>415.701674959321</v>
+        <v>387.2764875</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>0.127800705554757</v>
+        <v>0.0242224309834964</v>
       </c>
       <c r="K78" t="n">
         <v>374.934567045424</v>
@@ -3814,7 +3814,7 @@
         <v>389.531190810064</v>
       </c>
       <c r="N78" t="n">
-        <v>362.574707599226</v>
+        <v>377.89570951</v>
       </c>
     </row>
     <row r="79">
@@ -3825,28 +3825,28 @@
         <v>6</v>
       </c>
       <c r="C79" t="n">
-        <v>77.1239900071029</v>
+        <v>75.19</v>
       </c>
       <c r="D79" t="n">
-        <v>1.07983374161137</v>
+        <v>1.16736666666667</v>
       </c>
       <c r="E79" t="n">
-        <v>116.998452922585</v>
+        <v>114.75</v>
       </c>
       <c r="F79" t="n">
-        <v>2.94118688518302</v>
+        <v>3.1880185</v>
       </c>
       <c r="G79" t="n">
-        <v>6.87856452923908</v>
+        <v>7.4725</v>
       </c>
       <c r="H79" t="n">
-        <v>476.722019844141</v>
+        <v>433.77583</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>0.222127444398568</v>
+        <v>0.113752160903017</v>
       </c>
       <c r="K79" t="n">
         <v>378.847562469259</v>
@@ -3858,7 +3858,7 @@
         <v>430.106671680424</v>
       </c>
       <c r="N79" t="n">
-        <v>370.828975887639</v>
+        <v>384.43289199</v>
       </c>
     </row>
     <row r="80">
@@ -3869,28 +3869,28 @@
         <v>7</v>
       </c>
       <c r="C80" t="n">
-        <v>69.7856498772036</v>
+        <v>74.44</v>
       </c>
       <c r="D80" t="n">
-        <v>1.10292075336079</v>
+        <v>1.16839047619048</v>
       </c>
       <c r="E80" t="n">
-        <v>128.978417284873</v>
+        <v>119.57</v>
       </c>
       <c r="F80" t="n">
-        <v>3.27240218329084</v>
+        <v>3.101458</v>
       </c>
       <c r="G80" t="n">
-        <v>8.25926126809313</v>
+        <v>7.6075</v>
       </c>
       <c r="H80" t="n">
-        <v>424.866984502597</v>
+        <v>408.3903125</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>0.0314653793410081</v>
+        <v>0.0433581615871459</v>
       </c>
       <c r="K80" t="n">
         <v>384.34897862091</v>
@@ -3902,7 +3902,7 @@
         <v>412.289897165309</v>
       </c>
       <c r="N80" t="n">
-        <v>411.498383665753</v>
+        <v>390.68325934</v>
       </c>
     </row>
     <row r="81">
@@ -3913,28 +3913,28 @@
         <v>8</v>
       </c>
       <c r="C81" t="n">
-        <v>74.0856755586872</v>
+        <v>73.13</v>
       </c>
       <c r="D81" t="n">
-        <v>1.21975711824709</v>
+        <v>1.15482173913043</v>
       </c>
       <c r="E81" t="n">
-        <v>125.928468557118</v>
+        <v>117.34</v>
       </c>
       <c r="F81" t="n">
-        <v>3.21314313303534</v>
+        <v>3.0148975</v>
       </c>
       <c r="G81" t="n">
-        <v>8.16513148011593</v>
+        <v>7.91</v>
       </c>
       <c r="H81" t="n">
-        <v>369.261200638779</v>
+        <v>408.34485</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>0.109493833941238</v>
+        <v>0.0284510647556838</v>
       </c>
       <c r="K81" t="n">
         <v>393.603621842905</v>
@@ -3946,7 +3946,7 @@
         <v>412.75457482011</v>
       </c>
       <c r="N81" t="n">
-        <v>409.693025222463</v>
+        <v>396.72700423</v>
       </c>
     </row>
     <row r="82">
@@ -3957,28 +3957,28 @@
         <v>9</v>
       </c>
       <c r="C82" t="n">
-        <v>81.3062870516153</v>
+        <v>78.86</v>
       </c>
       <c r="D82" t="n">
-        <v>1.26566894641208</v>
+        <v>1.16611428571429</v>
       </c>
       <c r="E82" t="n">
-        <v>115.230512838457</v>
+        <v>114.16</v>
       </c>
       <c r="F82" t="n">
-        <v>3.03241388175666</v>
+        <v>2.928337</v>
       </c>
       <c r="G82" t="n">
-        <v>8.56438874974148</v>
+        <v>9.475</v>
       </c>
       <c r="H82" t="n">
-        <v>395.749952632202</v>
+        <v>430.7602375</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>0.057181802594418</v>
+        <v>0.023899482040749</v>
       </c>
       <c r="K82" t="n">
         <v>447.145211418397</v>
@@ -3990,7 +3990,7 @@
         <v>438.099940300937</v>
       </c>
       <c r="N82" t="n">
-        <v>418.379648300367</v>
+        <v>441.05518406</v>
       </c>
     </row>
     <row r="83">
@@ -4001,28 +4001,28 @@
         <v>10</v>
       </c>
       <c r="C83" t="n">
-        <v>74.8192236289354</v>
+        <v>80.47</v>
       </c>
       <c r="D83" t="n">
-        <v>1.09625778127134</v>
+        <v>1.14980454545455</v>
       </c>
       <c r="E83" t="n">
-        <v>112.55801784057</v>
+        <v>108.73</v>
       </c>
       <c r="F83" t="n">
-        <v>2.64386123981133</v>
+        <v>2.8434903</v>
       </c>
       <c r="G83" t="n">
-        <v>8.70786034717143</v>
+        <v>9.0525</v>
       </c>
       <c r="H83" t="n">
-        <v>397.595883162489</v>
+        <v>418.818425</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>0.0477218412134246</v>
+        <v>0.0197839363681291</v>
       </c>
       <c r="K83" t="n">
         <v>433.000501571815</v>
@@ -4034,7 +4034,7 @@
         <v>424.613732747522</v>
       </c>
       <c r="N83" t="n">
-        <v>416.569890765881</v>
+        <v>427.10430207</v>
       </c>
     </row>
     <row r="84">
@@ -4045,28 +4045,28 @@
         <v>11</v>
       </c>
       <c r="C84" t="n">
-        <v>65.6587031786232</v>
+        <v>65.17</v>
       </c>
       <c r="D84" t="n">
-        <v>1.07598167980487</v>
+        <v>1.13665238095238</v>
       </c>
       <c r="E84" t="n">
-        <v>101.477471195458</v>
+        <v>100.73</v>
       </c>
       <c r="F84" t="n">
-        <v>2.89936744555654</v>
+        <v>2.7586436</v>
       </c>
       <c r="G84" t="n">
-        <v>7.67810724662868</v>
+        <v>8.214</v>
       </c>
       <c r="H84" t="n">
-        <v>407.100295454123</v>
+        <v>382.87915</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>0.0769947939460305</v>
+        <v>0.01760521049527</v>
       </c>
       <c r="K84" t="n">
         <v>396.987498492534</v>
@@ -4078,7 +4078,7 @@
         <v>386.658685342711</v>
       </c>
       <c r="N84" t="n">
-        <v>375.755692090265</v>
+        <v>389.61981803</v>
       </c>
     </row>
     <row r="85">
@@ -4089,28 +4089,28 @@
         <v>12</v>
       </c>
       <c r="C85" t="n">
-        <v>61.4123403983396</v>
+        <v>56.46</v>
       </c>
       <c r="D85" t="n">
-        <v>1.18561667196894</v>
+        <v>1.13835909090909</v>
       </c>
       <c r="E85" t="n">
-        <v>99.3940983375195</v>
+        <v>101.37</v>
       </c>
       <c r="F85" t="n">
-        <v>2.79419575944114</v>
+        <v>2.6737969</v>
       </c>
       <c r="G85" t="n">
-        <v>7.2590217075528</v>
+        <v>8.01666666666667</v>
       </c>
       <c r="H85" t="n">
-        <v>317.277646887728</v>
+        <v>326.58625</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>0.135747482163435</v>
+        <v>0.161088734119496</v>
       </c>
       <c r="K85" t="n">
         <v>386.95745447996</v>
@@ -4122,7 +4122,7 @@
         <v>339.912580444385</v>
       </c>
       <c r="N85" t="n">
-        <v>360.347288599477</v>
+        <v>379.195615593333</v>
       </c>
     </row>
     <row r="86">
@@ -4133,28 +4133,28 @@
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>64.1660495270183</v>
+        <v>59.27</v>
       </c>
       <c r="D86" t="n">
-        <v>1.22097444173925</v>
+        <v>1.14274166666667</v>
       </c>
       <c r="E86" t="n">
-        <v>91.5993996567726</v>
+        <v>98.56</v>
       </c>
       <c r="F86" t="n">
-        <v>2.69646259753338</v>
+        <v>2.65741756666667</v>
       </c>
       <c r="G86" t="n">
-        <v>7.65649928380232</v>
+        <v>7.426</v>
       </c>
       <c r="H86" t="n">
-        <v>329.473230750766</v>
+        <v>314.21551875</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>0.11700396272376</v>
+        <v>0.15540814232938</v>
       </c>
       <c r="K86" t="n">
         <v>368.17050433094</v>
@@ -4166,7 +4166,7 @@
         <v>326.383481116375</v>
       </c>
       <c r="N86" t="n">
-        <v>368.022904360005</v>
+        <v>363.04716881</v>
       </c>
     </row>
     <row r="87">
@@ -4177,28 +4177,28 @@
         <v>2</v>
       </c>
       <c r="C87" t="n">
-        <v>67.2781029804055</v>
+        <v>64.13</v>
       </c>
       <c r="D87" t="n">
-        <v>1.13232481962183</v>
+        <v>1.135505</v>
       </c>
       <c r="E87" t="n">
-        <v>90.7459114849195</v>
+        <v>95.42</v>
       </c>
       <c r="F87" t="n">
-        <v>2.77019822325471</v>
+        <v>2.64103823333333</v>
       </c>
       <c r="G87" t="n">
-        <v>5.79934547124908</v>
+        <v>5.9925</v>
       </c>
       <c r="H87" t="n">
-        <v>327.695308857986</v>
+        <v>315.5239</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0.027461770428944</v>
+        <v>0.0298642300313858</v>
       </c>
       <c r="K87" t="n">
         <v>322.508363018435</v>
@@ -4210,7 +4210,7 @@
         <v>319.613079154369</v>
       </c>
       <c r="N87" t="n">
-        <v>318.696215515486</v>
+        <v>324.94677833</v>
       </c>
     </row>
     <row r="88">
@@ -4221,28 +4221,28 @@
         <v>3</v>
       </c>
       <c r="C88" t="n">
-        <v>72.896336543947</v>
+        <v>66.41</v>
       </c>
       <c r="D88" t="n">
-        <v>1.04693488500867</v>
+        <v>1.13176666666667</v>
       </c>
       <c r="E88" t="n">
-        <v>97.7682083355188</v>
+        <v>93.12</v>
       </c>
       <c r="F88" t="n">
-        <v>2.72746438529561</v>
+        <v>2.6246589</v>
       </c>
       <c r="G88" t="n">
-        <v>5.01956995643955</v>
+        <v>5.2675</v>
       </c>
       <c r="H88" t="n">
-        <v>302.393893010965</v>
+        <v>318.64856</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>0.00966536832672693</v>
+        <v>0.0424604322392041</v>
       </c>
       <c r="K88" t="n">
         <v>299.264022460352</v>
@@ -4254,7 +4254,7 @@
         <v>317.84943222349</v>
       </c>
       <c r="N88" t="n">
-        <v>305.316641366669</v>
+        <v>305.11860441</v>
       </c>
     </row>
     <row r="89">
@@ -4265,28 +4265,28 @@
         <v>4</v>
       </c>
       <c r="C89" t="n">
-        <v>70.6328697813302</v>
+        <v>71.2</v>
       </c>
       <c r="D89" t="n">
-        <v>1.07301728225268</v>
+        <v>1.12415714285714</v>
       </c>
       <c r="E89" t="n">
-        <v>85.3426795423753</v>
+        <v>86.77</v>
       </c>
       <c r="F89" t="n">
-        <v>2.52642407757816</v>
+        <v>2.60485196666667</v>
       </c>
       <c r="G89" t="n">
-        <v>5.24628489649482</v>
+        <v>4.935</v>
       </c>
       <c r="H89" t="n">
-        <v>285.612848212375</v>
+        <v>305.3556625</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>0.0583716373372396</v>
+        <v>0.0338070518014382</v>
       </c>
       <c r="K89" t="n">
         <v>289.162188217023</v>
@@ -4298,7 +4298,7 @@
         <v>303.83333432955</v>
       </c>
       <c r="N89" t="n">
-        <v>302.284537807084</v>
+        <v>295.0324878</v>
       </c>
     </row>
     <row r="90">
@@ -4309,28 +4309,28 @@
         <v>5</v>
       </c>
       <c r="C90" t="n">
-        <v>75.917902377611</v>
+        <v>70.53</v>
       </c>
       <c r="D90" t="n">
-        <v>1.17790371938399</v>
+        <v>1.11841111111111</v>
       </c>
       <c r="E90" t="n">
-        <v>90.0587376790568</v>
+        <v>82.32</v>
       </c>
       <c r="F90" t="n">
-        <v>2.53216834780135</v>
+        <v>2.58504503333333</v>
       </c>
       <c r="G90" t="n">
-        <v>4.49263863413483</v>
+        <v>4.464</v>
       </c>
       <c r="H90" t="n">
-        <v>320.092753704257</v>
+        <v>295.96278</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>0.100383515892192</v>
+        <v>0.0574830680060513</v>
       </c>
       <c r="K90" t="n">
         <v>272.507225929219</v>
@@ -4342,7 +4342,7 @@
         <v>292.189924306379</v>
       </c>
       <c r="N90" t="n">
-        <v>287.96071767581</v>
+        <v>278.94993139</v>
       </c>
     </row>
     <row r="91">
@@ -4353,28 +4353,28 @@
         <v>6</v>
       </c>
       <c r="C91" t="n">
-        <v>60.3081637138221</v>
+        <v>63.3</v>
       </c>
       <c r="D91" t="n">
-        <v>1.20383170085926</v>
+        <v>1.12829</v>
       </c>
       <c r="E91" t="n">
-        <v>72.8499368026904</v>
+        <v>72.49</v>
       </c>
       <c r="F91" t="n">
-        <v>2.58402462911389</v>
+        <v>2.5652381</v>
       </c>
       <c r="G91" t="n">
-        <v>3.6304364211699</v>
+        <v>3.6325</v>
       </c>
       <c r="H91" t="n">
-        <v>287.630922650644</v>
+        <v>279.560475</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>0.152228434264454</v>
+        <v>0.12168337459006</v>
       </c>
       <c r="K91" t="n">
         <v>239.579767619908</v>
@@ -4386,7 +4386,7 @@
         <v>270.226153088507</v>
       </c>
       <c r="N91" t="n">
-        <v>243.845317649496</v>
+        <v>245.542613</v>
       </c>
     </row>
     <row r="92">
@@ -4397,28 +4397,28 @@
         <v>7</v>
       </c>
       <c r="C92" t="n">
-        <v>62.7046469062567</v>
+        <v>64</v>
       </c>
       <c r="D92" t="n">
-        <v>1.0771419672523</v>
+        <v>1.12252272727273</v>
       </c>
       <c r="E92" t="n">
-        <v>74.7743100126646</v>
+        <v>72.08</v>
       </c>
       <c r="F92" t="n">
-        <v>2.63292189583239</v>
+        <v>2.5109587</v>
       </c>
       <c r="G92" t="n">
-        <v>3.4542306636367</v>
+        <v>3.65</v>
       </c>
       <c r="H92" t="n">
-        <v>263.969421605509</v>
+        <v>246.6103875</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>0.0842215676630034</v>
+        <v>0.00166512329088331</v>
       </c>
       <c r="K92" t="n">
         <v>240.62639562057</v>
@@ -4430,7 +4430,7 @@
         <v>244.026236465756</v>
       </c>
       <c r="N92" t="n">
-        <v>241.737503102797</v>
+        <v>246.1997508</v>
       </c>
     </row>
     <row r="93">
@@ -4441,28 +4441,28 @@
         <v>8</v>
       </c>
       <c r="C93" t="n">
-        <v>57.450229835452</v>
+        <v>59.25</v>
       </c>
       <c r="D93" t="n">
-        <v>1.18893714519188</v>
+        <v>1.11258695652174</v>
       </c>
       <c r="E93" t="n">
-        <v>65.107541951146</v>
+        <v>65.55</v>
       </c>
       <c r="F93" t="n">
-        <v>2.60660993234001</v>
+        <v>2.4566793</v>
       </c>
       <c r="G93" t="n">
-        <v>3.44290038224794</v>
+        <v>3.634</v>
       </c>
       <c r="H93" t="n">
-        <v>229.028010794479</v>
+        <v>234.160145</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>0.0132846794720072</v>
+        <v>0.0193551294136753</v>
       </c>
       <c r="K93" t="n">
         <v>236.734341432474</v>
@@ -4474,7 +4474,7 @@
         <v>230.922761269925</v>
       </c>
       <c r="N93" t="n">
-        <v>232.070574507995</v>
+        <v>238.69234491</v>
       </c>
     </row>
     <row r="94">
@@ -4485,28 +4485,28 @@
         <v>9</v>
       </c>
       <c r="C94" t="n">
-        <v>63.8993306314182</v>
+        <v>62.33</v>
       </c>
       <c r="D94" t="n">
-        <v>1.14889547048461</v>
+        <v>1.10152</v>
       </c>
       <c r="E94" t="n">
-        <v>63.1187734377361</v>
+        <v>65.95</v>
       </c>
       <c r="F94" t="n">
-        <v>2.6392296831611</v>
+        <v>2.4023999</v>
       </c>
       <c r="G94" t="n">
-        <v>3.7912614487682</v>
+        <v>4.1125</v>
       </c>
       <c r="H94" t="n">
-        <v>221.956026653186</v>
+        <v>235.53129375</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>0.100944802940574</v>
+        <v>0.0781472223369892</v>
       </c>
       <c r="K94" t="n">
         <v>254.303409184915</v>
@@ -4518,7 +4518,7 @@
         <v>234.997088644343</v>
       </c>
       <c r="N94" t="n">
-        <v>244.361334025165</v>
+        <v>253.93741013</v>
       </c>
     </row>
     <row r="95">
@@ -4529,28 +4529,28 @@
         <v>10</v>
       </c>
       <c r="C95" t="n">
-        <v>65.0371867492888</v>
+        <v>59.37</v>
       </c>
       <c r="D95" t="n">
-        <v>1.16951791453445</v>
+        <v>1.10387826086957</v>
       </c>
       <c r="E95" t="n">
-        <v>70.2338976825587</v>
+        <v>69.2</v>
       </c>
       <c r="F95" t="n">
-        <v>2.43897581676617</v>
+        <v>2.42049303333333</v>
       </c>
       <c r="G95" t="n">
-        <v>4.64308930469677</v>
+        <v>4.912</v>
       </c>
       <c r="H95" t="n">
-        <v>247.499372821374</v>
+        <v>226.25415</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>0.102284708579454</v>
+        <v>0.219750643026879</v>
       </c>
       <c r="K95" t="n">
         <v>280.336574631707</v>
@@ -4562,7 +4562,7 @@
         <v>232.481171724159</v>
       </c>
       <c r="N95" t="n">
-        <v>272.814774044006</v>
+        <v>275.97364495</v>
       </c>
     </row>
     <row r="96">
@@ -4573,28 +4573,28 @@
         <v>11</v>
       </c>
       <c r="C96" t="n">
-        <v>59.0449453943912</v>
+        <v>62.74</v>
       </c>
       <c r="D96" t="n">
-        <v>1.08260011858957</v>
+        <v>1.10502</v>
       </c>
       <c r="E96" t="n">
-        <v>62.8190672783735</v>
+        <v>66.99</v>
       </c>
       <c r="F96" t="n">
-        <v>2.24115163331267</v>
+        <v>2.43858616666667</v>
       </c>
       <c r="G96" t="n">
-        <v>5.15105426699901</v>
+        <v>5.11</v>
       </c>
       <c r="H96" t="n">
-        <v>209.202111617016</v>
+        <v>229.890105</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>0.33023993003993</v>
+        <v>0.227091322351608</v>
       </c>
       <c r="K96" t="n">
         <v>288.009710663165</v>
@@ -4606,7 +4606,7 @@
         <v>235.992378081136</v>
       </c>
       <c r="N96" t="n">
-        <v>278.289002321625</v>
+        <v>282.09615294</v>
       </c>
     </row>
     <row r="97">
@@ -4617,28 +4617,28 @@
         <v>12</v>
       </c>
       <c r="C97" t="n">
-        <v>70.3967566039762</v>
+        <v>65.85</v>
       </c>
       <c r="D97" t="n">
-        <v>1.03313739674672</v>
+        <v>1.11061428571429</v>
       </c>
       <c r="E97" t="n">
-        <v>67.7623729150761</v>
+        <v>66.18</v>
       </c>
       <c r="F97" t="n">
-        <v>2.48832867890211</v>
+        <v>2.4566793</v>
       </c>
       <c r="G97" t="n">
-        <v>4.72935742692836</v>
+        <v>4.86</v>
       </c>
       <c r="H97" t="n">
-        <v>208.600731570235</v>
+        <v>224.708083333333</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>0.327715150121033</v>
+        <v>0.231368842835725</v>
       </c>
       <c r="K97" t="n">
         <v>281.060445891629</v>
@@ -4650,7 +4650,7 @@
         <v>230.705778681778</v>
       </c>
       <c r="N97" t="n">
-        <v>276.962351632132</v>
+        <v>276.69853255</v>
       </c>
     </row>
     <row r="98">
@@ -4661,28 +4661,28 @@
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>68.6980096399784</v>
+        <v>63.6</v>
       </c>
       <c r="D98" t="n">
-        <v>1.21450731541067</v>
+        <v>1.11056842105263</v>
       </c>
       <c r="E98" t="n">
-        <v>74.4207408072464</v>
+        <v>69.66</v>
       </c>
       <c r="F98" t="n">
-        <v>1.18851241556498</v>
+        <v>1.29954037702048</v>
       </c>
       <c r="G98" t="n">
-        <v>3.92203652253142</v>
+        <v>3.762</v>
       </c>
       <c r="H98" t="n">
-        <v>246.79149297848</v>
+        <v>256.9306</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>0.0455582497798555</v>
+        <v>0.0367514103808577</v>
       </c>
       <c r="K98" t="n">
         <v>244.742878868814</v>
@@ -4694,7 +4694,7 @@
         <v>251.765318462415</v>
       </c>
       <c r="N98" t="n">
-        <v>258.034881459137</v>
+        <v>247.48803808</v>
       </c>
     </row>
     <row r="99">
@@ -4705,28 +4705,28 @@
         <v>2</v>
       </c>
       <c r="C99" t="n">
-        <v>49.944587924052</v>
+        <v>55</v>
       </c>
       <c r="D99" t="n">
-        <v>1.09377688471144</v>
+        <v>1.09178947368421</v>
       </c>
       <c r="E99" t="n">
-        <v>66.6676132727936</v>
+        <v>67.64</v>
       </c>
       <c r="F99" t="n">
-        <v>0.153778161372486</v>
+        <v>0.14240145404096</v>
       </c>
       <c r="G99" t="n">
-        <v>2.95095248481794</v>
+        <v>2.9275</v>
       </c>
       <c r="H99" t="n">
-        <v>285.298982275948</v>
+        <v>266.43094375</v>
       </c>
       <c r="I99" t="n">
-        <v>0.153778161372486</v>
+        <v>0.14240145404096</v>
       </c>
       <c r="J99" t="n">
-        <v>0.246655313043655</v>
+        <v>0.181572724132949</v>
       </c>
       <c r="K99" t="n">
         <v>213.124559677219</v>
@@ -4738,7 +4738,7 @@
         <v>253.156446158533</v>
       </c>
       <c r="N99" t="n">
-        <v>214.928472491638</v>
+        <v>218.0543515</v>
       </c>
     </row>
     <row r="100">
@@ -4749,28 +4749,28 @@
         <v>3</v>
       </c>
       <c r="C100" t="n">
-        <v>35.8204161269637</v>
+        <v>32.98</v>
       </c>
       <c r="D100" t="n">
-        <v>1.18928785527261</v>
+        <v>1.10631</v>
       </c>
       <c r="E100" t="n">
-        <v>70.2645528646177</v>
+        <v>66.74</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.98093070687356</v>
+        <v>-1.01473746893856</v>
       </c>
       <c r="G100" t="n">
-        <v>2.63467661722004</v>
+        <v>2.82</v>
       </c>
       <c r="H100" t="n">
-        <v>239.221057831732</v>
+        <v>218.870075</v>
       </c>
       <c r="I100" t="n">
-        <v>-0.98093070687356</v>
+        <v>-1.01473746893856</v>
       </c>
       <c r="J100" t="n">
-        <v>0.165059918746559</v>
+        <v>0.0825198923151099</v>
       </c>
       <c r="K100" t="n">
         <v>199.383052758369</v>
@@ -4782,7 +4782,7 @@
         <v>211.446287735679</v>
       </c>
       <c r="N100" t="n">
-        <v>199.73524946356</v>
+        <v>200.80893998</v>
       </c>
     </row>
     <row r="101">
@@ -4793,28 +4793,28 @@
         <v>4</v>
       </c>
       <c r="C101" t="n">
-        <v>25.5757164418632</v>
+        <v>23.34</v>
       </c>
       <c r="D101" t="n">
-        <v>0.987887656123235</v>
+        <v>1.08867142857143</v>
       </c>
       <c r="E101" t="n">
-        <v>60.447715083214</v>
+        <v>58.55</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.68366897757253</v>
+        <v>-3.89216450359739</v>
       </c>
       <c r="G101" t="n">
-        <v>2.37134135396816</v>
+        <v>2.216</v>
       </c>
       <c r="H101" t="n">
-        <v>176.761493615955</v>
+        <v>165.01195</v>
       </c>
       <c r="I101" t="n">
-        <v>-3.68366897757253</v>
+        <v>-3.89216450359739</v>
       </c>
       <c r="J101" t="n">
-        <v>0.018182119343652</v>
+        <v>0.0492776588604642</v>
       </c>
       <c r="K101" t="n">
         <v>173.102574790849</v>
@@ -4826,7 +4826,7 @@
         <v>161.159538589988</v>
       </c>
       <c r="N101" t="n">
-        <v>179.975392188242</v>
+        <v>173.14335258</v>
       </c>
     </row>
     <row r="102">
@@ -4837,28 +4837,28 @@
         <v>5</v>
       </c>
       <c r="C102" t="n">
-        <v>28.6606166342441</v>
+        <v>31.02</v>
       </c>
       <c r="D102" t="n">
-        <v>1.07888230868088</v>
+        <v>1.08883181818182</v>
       </c>
       <c r="E102" t="n">
-        <v>57.3373941212641</v>
+        <v>52.49</v>
       </c>
       <c r="F102" t="n">
-        <v>-7.12064038635344</v>
+        <v>-6.76959153825622</v>
       </c>
       <c r="G102" t="n">
-        <v>1.44276073642145</v>
+        <v>1.6025</v>
       </c>
       <c r="H102" t="n">
-        <v>148.819927323294</v>
+        <v>161.55253</v>
       </c>
       <c r="I102" t="n">
-        <v>-7.12064038635344</v>
+        <v>-6.76959153825622</v>
       </c>
       <c r="J102" t="n">
-        <v>0.0386969683132403</v>
+        <v>0.0259074697251723</v>
       </c>
       <c r="K102" t="n">
         <v>154.235456685953</v>
@@ -4870,7 +4870,7 @@
         <v>154.096725428487</v>
       </c>
       <c r="N102" t="n">
-        <v>154.578807335302</v>
+        <v>157.36711272</v>
       </c>
     </row>
     <row r="103">
@@ -4881,28 +4881,28 @@
         <v>6</v>
       </c>
       <c r="C103" t="n">
-        <v>41.3548821754209</v>
+        <v>39.93</v>
       </c>
       <c r="D103" t="n">
-        <v>1.05087643907143</v>
+        <v>1.12609047619048</v>
       </c>
       <c r="E103" t="n">
-        <v>53.2878981742756</v>
+        <v>52.21</v>
       </c>
       <c r="F103" t="n">
-        <v>-8.91924180192224</v>
+        <v>-9.64701857291505</v>
       </c>
       <c r="G103" t="n">
-        <v>1.66435530511464</v>
+        <v>1.6725</v>
       </c>
       <c r="H103" t="n">
-        <v>170.745321845679</v>
+        <v>173.4710625</v>
       </c>
       <c r="I103" t="n">
-        <v>-8.91924180192224</v>
+        <v>-9.64701857291505</v>
       </c>
       <c r="J103" t="n">
-        <v>0.0277412742788268</v>
+        <v>0.0507690829990736</v>
       </c>
       <c r="K103" t="n">
         <v>159.209478374736</v>
@@ -4914,7 +4914,7 @@
         <v>165.100499865677</v>
       </c>
       <c r="N103" t="n">
-        <v>166.008629040531</v>
+        <v>164.66409573</v>
       </c>
     </row>
     <row r="104">
@@ -4925,28 +4925,28 @@
         <v>7</v>
       </c>
       <c r="C104" t="n">
-        <v>38.5511582200457</v>
+        <v>42.81</v>
       </c>
       <c r="D104" t="n">
-        <v>1.13573674703457</v>
+        <v>1.14287826086957</v>
       </c>
       <c r="E104" t="n">
-        <v>50.4213852595352</v>
+        <v>51.56</v>
       </c>
       <c r="F104" t="n">
-        <v>-6.32022548974088</v>
+        <v>-6.76959153825622</v>
       </c>
       <c r="G104" t="n">
-        <v>1.95956169957407</v>
+        <v>1.796</v>
       </c>
       <c r="H104" t="n">
-        <v>181.38980780365</v>
+        <v>191.14311</v>
       </c>
       <c r="I104" t="n">
-        <v>-6.32022548974088</v>
+        <v>-6.76959153825622</v>
       </c>
       <c r="J104" t="n">
-        <v>0.0599214398511658</v>
+        <v>0.11361429376136</v>
       </c>
       <c r="K104" t="n">
         <v>163.675663200106</v>
@@ -4958,7 +4958,7 @@
         <v>179.974588420542</v>
       </c>
       <c r="N104" t="n">
-        <v>170.520669345729</v>
+        <v>169.42652055</v>
       </c>
     </row>
     <row r="105">
@@ -4969,28 +4969,28 @@
         <v>8</v>
       </c>
       <c r="C105" t="n">
-        <v>41.9518028020039</v>
+        <v>44.26</v>
       </c>
       <c r="D105" t="n">
-        <v>1.24063263366411</v>
+        <v>1.18269047619048</v>
       </c>
       <c r="E105" t="n">
-        <v>50.9588300813716</v>
+        <v>50.14</v>
       </c>
       <c r="F105" t="n">
-        <v>-3.6492306852301</v>
+        <v>-3.89216450359739</v>
       </c>
       <c r="G105" t="n">
-        <v>2.57713883810118</v>
+        <v>2.64</v>
       </c>
       <c r="H105" t="n">
-        <v>225.575739357192</v>
+        <v>223.1313625</v>
       </c>
       <c r="I105" t="n">
-        <v>-3.6492306852301</v>
+        <v>-3.89216450359739</v>
       </c>
       <c r="J105" t="n">
-        <v>0.158369263045473</v>
+        <v>0.13730463210881</v>
       </c>
       <c r="K105" t="n">
         <v>191.083352173552</v>
@@ -5002,7 +5002,7 @@
         <v>209.39798348267</v>
       </c>
       <c r="N105" t="n">
-        <v>189.851475754256</v>
+        <v>192.49439286</v>
       </c>
     </row>
     <row r="106">
@@ -5013,28 +5013,28 @@
         <v>9</v>
       </c>
       <c r="C106" t="n">
-        <v>41.24238683978</v>
+        <v>41.09</v>
       </c>
       <c r="D106" t="n">
-        <v>1.24222622327331</v>
+        <v>1.18105652173913</v>
       </c>
       <c r="E106" t="n">
-        <v>51.083232963765</v>
+        <v>54.6</v>
       </c>
       <c r="F106" t="n">
         <v>-3</v>
       </c>
       <c r="G106" t="n">
-        <v>3.39622396475387</v>
+        <v>3.74333333333333</v>
       </c>
       <c r="H106" t="n">
-        <v>238.1854048711</v>
+        <v>241.47715</v>
       </c>
       <c r="I106" t="n">
         <v>-3</v>
       </c>
       <c r="J106" t="n">
-        <v>0.110516086807056</v>
+        <v>0.0746111917559629</v>
       </c>
       <c r="K106" t="n">
         <v>226.974146137199</v>
@@ -5046,7 +5046,7 @@
         <v>230.857247584313</v>
       </c>
       <c r="N106" t="n">
-        <v>211.862085990192</v>
+        <v>223.460252056667</v>
       </c>
     </row>
     <row r="107">
@@ -5057,19 +5057,19 @@
         <v>10</v>
       </c>
       <c r="C107" t="n">
-        <v>41.24238683978</v>
+        <v>41.09</v>
       </c>
       <c r="D107" t="n">
-        <v>1.24222622327331</v>
+        <v>1.18105652173913</v>
       </c>
       <c r="E107" t="n">
-        <v>51.083232963765</v>
+        <v>54.6</v>
       </c>
       <c r="F107" t="n">
         <v>-2</v>
       </c>
       <c r="G107" t="n">
-        <v>3.39622396475387</v>
+        <v>3.74333333333333</v>
       </c>
       <c r="H107"/>
       <c r="I107" t="n">
@@ -5086,7 +5086,7 @@
         <v>224.454596507918</v>
       </c>
       <c r="N107" t="n">
-        <v>211.862085990192</v>
+        <v>223.460252056667</v>
       </c>
     </row>
     <row r="108">
@@ -5097,19 +5097,19 @@
         <v>11</v>
       </c>
       <c r="C108" t="n">
-        <v>41.24238683978</v>
+        <v>41.09</v>
       </c>
       <c r="D108" t="n">
-        <v>1.24222622327331</v>
+        <v>1.18105652173913</v>
       </c>
       <c r="E108" t="n">
-        <v>51.083232963765</v>
+        <v>54.6</v>
       </c>
       <c r="F108" t="n">
         <v>-2</v>
       </c>
       <c r="G108" t="n">
-        <v>3.39622396475387</v>
+        <v>3.74333333333333</v>
       </c>
       <c r="H108"/>
       <c r="I108" t="n">
@@ -5126,7 +5126,7 @@
         <v>219.371549355299</v>
       </c>
       <c r="N108" t="n">
-        <v>211.862085990192</v>
+        <v>223.460252056667</v>
       </c>
     </row>
     <row r="109">
@@ -5137,19 +5137,19 @@
         <v>12</v>
       </c>
       <c r="C109" t="n">
-        <v>41.24238683978</v>
+        <v>41.09</v>
       </c>
       <c r="D109" t="n">
-        <v>1.24222622327331</v>
+        <v>1.18105652173913</v>
       </c>
       <c r="E109" t="n">
-        <v>51.083232963765</v>
+        <v>54.6</v>
       </c>
       <c r="F109" t="n">
         <v>-2</v>
       </c>
       <c r="G109" t="n">
-        <v>3.39622396475387</v>
+        <v>3.74333333333333</v>
       </c>
       <c r="H109"/>
       <c r="I109" t="n">
@@ -5166,7 +5166,7 @@
         <v>215.338369770789</v>
       </c>
       <c r="N109" t="n">
-        <v>211.862085990192</v>
+        <v>223.460252056667</v>
       </c>
     </row>
     <row r="110">

--- a/1.Data/tempdata.xlsx
+++ b/1.Data/tempdata.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">year</t>
   </si>
@@ -41,10 +41,19 @@
     <t xml:space="preserve">gdp_less_1</t>
   </si>
   <si>
-    <t xml:space="preserve">model</t>
+    <t xml:space="preserve">err</t>
   </si>
   <si>
-    <t xml:space="preserve">err</t>
+    <t xml:space="preserve">Algorithm 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithm 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithm 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithm 1</t>
   </si>
 </sst>
 </file>
@@ -410,6 +419,15 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -419,31 +437,40 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>111.15619047619</v>
+        <v>111.370873235031</v>
       </c>
       <c r="D2" t="n">
-        <v>1.28945340920919</v>
+        <v>1.37644289076506</v>
       </c>
       <c r="E2" t="n">
-        <v>116.46</v>
+        <v>123.069767808923</v>
       </c>
       <c r="F2" t="n">
-        <v>1.94361731025613</v>
+        <v>2.05403644639639</v>
       </c>
       <c r="G2" t="n">
-        <v>8.2425</v>
+        <v>8.21656081887824</v>
       </c>
       <c r="H2" t="n">
-        <v>359.6271375</v>
+        <v>376.745437902663</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>428.989241494285</v>
+        <v>0.148177402081191</v>
       </c>
       <c r="K2" t="n">
-        <v>0.192872274535415</v>
+        <v>405.333867241373</v>
+      </c>
+      <c r="L2" t="n">
+        <v>399.003871899436</v>
+      </c>
+      <c r="M2" t="n">
+        <v>381.556622489238</v>
+      </c>
+      <c r="N2" t="n">
+        <v>432.57059813702</v>
       </c>
     </row>
     <row r="3">
@@ -454,31 +481,40 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>119.702380952381</v>
+        <v>125.668559254674</v>
       </c>
       <c r="D3" t="n">
-        <v>1.32124992060122</v>
+        <v>1.28186950310027</v>
       </c>
       <c r="E3" t="n">
-        <v>117.02</v>
+        <v>122.864472490235</v>
       </c>
       <c r="F3" t="n">
-        <v>1.88481087516663</v>
+        <v>1.96257446540429</v>
       </c>
       <c r="G3" t="n">
-        <v>9.1</v>
+        <v>8.83052816250362</v>
       </c>
       <c r="H3" t="n">
-        <v>376.22136875</v>
+        <v>376.827087698649</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>458.099651878571</v>
+        <v>0.21577447058742</v>
       </c>
       <c r="K3" t="n">
-        <v>0.217633260440822</v>
+        <v>437.320386195379</v>
+      </c>
+      <c r="L3" t="n">
+        <v>418.604749915531</v>
+      </c>
+      <c r="M3" t="n">
+        <v>400.478833417286</v>
+      </c>
+      <c r="N3" t="n">
+        <v>458.136753049824</v>
       </c>
     </row>
     <row r="4">
@@ -489,31 +525,40 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>124.928636363636</v>
+        <v>118.398860087051</v>
       </c>
       <c r="D4" t="n">
-        <v>1.32179594236881</v>
+        <v>1.22039718368561</v>
       </c>
       <c r="E4" t="n">
-        <v>107.46</v>
+        <v>106.008016270199</v>
       </c>
       <c r="F4" t="n">
-        <v>1.82600444007713</v>
+        <v>1.89709927354809</v>
       </c>
       <c r="G4" t="n">
-        <v>9.48</v>
+        <v>9.46182370198891</v>
       </c>
       <c r="H4" t="n">
-        <v>386.14925</v>
+        <v>378.901320691738</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>465.731020969545</v>
+        <v>0.214686291783081</v>
       </c>
       <c r="K4" t="n">
-        <v>0.206090704486789</v>
+        <v>449.995702795078</v>
+      </c>
+      <c r="L4" t="n">
+        <v>433.234004644509</v>
+      </c>
+      <c r="M4" t="n">
+        <v>407.412185206578</v>
+      </c>
+      <c r="N4" t="n">
+        <v>460.246240182759</v>
       </c>
     </row>
     <row r="5">
@@ -524,31 +569,40 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>120.4635</v>
+        <v>121.322217430153</v>
       </c>
       <c r="D5" t="n">
-        <v>1.31618096674676</v>
+        <v>1.23622503909414</v>
       </c>
       <c r="E5" t="n">
-        <v>103.59</v>
+        <v>97.0997106329282</v>
       </c>
       <c r="F5" t="n">
-        <v>1.74378085286223</v>
+        <v>1.81673791471238</v>
       </c>
       <c r="G5" t="n">
-        <v>9.4775</v>
+        <v>10.3952170906577</v>
       </c>
       <c r="H5" t="n">
-        <v>403.1772375</v>
+        <v>405.961700639677</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>460.4426859485</v>
+        <v>0.187223533299493</v>
       </c>
       <c r="K5" t="n">
-        <v>0.14203542046071</v>
+        <v>447.186398463372</v>
+      </c>
+      <c r="L5" t="n">
+        <v>442.789084890856</v>
+      </c>
+      <c r="M5" t="n">
+        <v>418.87571377923</v>
+      </c>
+      <c r="N5" t="n">
+        <v>481.967284617708</v>
       </c>
     </row>
     <row r="6">
@@ -559,31 +613,40 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>110.521739130435</v>
+        <v>119.544369436967</v>
       </c>
       <c r="D6" t="n">
-        <v>1.28042617397904</v>
+        <v>1.39543544893587</v>
       </c>
       <c r="E6" t="n">
-        <v>95.83</v>
+        <v>93.9650173833598</v>
       </c>
       <c r="F6" t="n">
-        <v>1.66155726564733</v>
+        <v>1.63110889144954</v>
       </c>
       <c r="G6" t="n">
-        <v>9.246</v>
+        <v>8.80687358103544</v>
       </c>
       <c r="H6" t="n">
-        <v>403.75115625</v>
+        <v>440.62942093395</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>443.034804970435</v>
+        <v>0.0116466153726908</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0972966841390561</v>
+        <v>433.799001208146</v>
+      </c>
+      <c r="L6" t="n">
+        <v>444.933992605201</v>
+      </c>
+      <c r="M6" t="n">
+        <v>413.875147542657</v>
+      </c>
+      <c r="N6" t="n">
+        <v>435.497579546441</v>
       </c>
     </row>
     <row r="7">
@@ -594,31 +657,40 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>95.5890476190476</v>
+        <v>103.111743829611</v>
       </c>
       <c r="D7" t="n">
-        <v>1.25212240064324</v>
+        <v>1.33095483463274</v>
       </c>
       <c r="E7" t="n">
-        <v>87.19</v>
+        <v>88.9056631866414</v>
       </c>
       <c r="F7" t="n">
-        <v>1.57933367843243</v>
+        <v>1.55123636041482</v>
       </c>
       <c r="G7" t="n">
-        <v>8.6375</v>
+        <v>7.8713428494829</v>
       </c>
       <c r="H7" t="n">
-        <v>372.22662</v>
+        <v>348.696962356721</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>411.660120998571</v>
+        <v>0.137103568096055</v>
       </c>
       <c r="K7" t="n">
-        <v>0.105939497284131</v>
+        <v>405.455594010189</v>
+      </c>
+      <c r="L7" t="n">
+        <v>438.26148130886</v>
+      </c>
+      <c r="M7" t="n">
+        <v>380.414994516049</v>
+      </c>
+      <c r="N7" t="n">
+        <v>396.504560080083</v>
       </c>
     </row>
     <row r="8">
@@ -629,31 +701,40 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>103.140909090909</v>
+        <v>94.7483903348989</v>
       </c>
       <c r="D8" t="n">
-        <v>1.23035702971676</v>
+        <v>1.20178220605928</v>
       </c>
       <c r="E8" t="n">
-        <v>88.24</v>
+        <v>80.7015787023269</v>
       </c>
       <c r="F8" t="n">
-        <v>1.55752684787293</v>
+        <v>1.54848087970002</v>
       </c>
       <c r="G8" t="n">
-        <v>8.73</v>
+        <v>8.70999835627712</v>
       </c>
       <c r="H8" t="n">
-        <v>351.068475</v>
+        <v>369.252506658475</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>419.560363513636</v>
+        <v>0.107741302732789</v>
       </c>
       <c r="K8" t="n">
-        <v>0.195095525206689</v>
+        <v>412.445830354208</v>
+      </c>
+      <c r="L8" t="n">
+        <v>434.834428605101</v>
+      </c>
+      <c r="M8" t="n">
+        <v>365.46307179293</v>
+      </c>
+      <c r="N8" t="n">
+        <v>409.036252763207</v>
       </c>
     </row>
     <row r="9">
@@ -664,31 +745,40 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>113.34</v>
+        <v>104.571437823052</v>
       </c>
       <c r="D9" t="n">
-        <v>1.23815485795614</v>
+        <v>1.21741554436037</v>
       </c>
       <c r="E9" t="n">
-        <v>91</v>
+        <v>89.9695677244104</v>
       </c>
       <c r="F9" t="n">
-        <v>1.53572001731344</v>
+        <v>1.40975611684775</v>
       </c>
       <c r="G9" t="n">
-        <v>8.85</v>
+        <v>8.33443062588572</v>
       </c>
       <c r="H9" t="n">
-        <v>357.85056</v>
+        <v>345.666957670224</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>430.93917474</v>
+        <v>0.188238512794463</v>
       </c>
       <c r="K9" t="n">
-        <v>0.204243399088156</v>
+        <v>421.58711812997</v>
+      </c>
+      <c r="L9" t="n">
+        <v>435.135548458475</v>
+      </c>
+      <c r="M9" t="n">
+        <v>373.886651971657</v>
+      </c>
+      <c r="N9" t="n">
+        <v>410.734791704254</v>
       </c>
     </row>
     <row r="10">
@@ -699,31 +789,40 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>113.3825</v>
+        <v>116.348233962812</v>
       </c>
       <c r="D10" t="n">
-        <v>1.28417168834087</v>
+        <v>1.23725110578774</v>
       </c>
       <c r="E10" t="n">
-        <v>88.96</v>
+        <v>89.3274700337052</v>
       </c>
       <c r="F10" t="n">
-        <v>1.51391318675394</v>
+        <v>1.53938665220507</v>
       </c>
       <c r="G10" t="n">
-        <v>9.58</v>
+        <v>8.94076798828412</v>
       </c>
       <c r="H10" t="n">
-        <v>382.12528125</v>
+        <v>371.521726563412</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>449.6246142575</v>
+        <v>0.16882681839958</v>
       </c>
       <c r="K10" t="n">
-        <v>0.176641892906687</v>
+        <v>444.797971176248</v>
+      </c>
+      <c r="L10" t="n">
+        <v>438.316753859564</v>
+      </c>
+      <c r="M10" t="n">
+        <v>396.141419925867</v>
+      </c>
+      <c r="N10" t="n">
+        <v>434.244557625432</v>
       </c>
     </row>
     <row r="11">
@@ -734,31 +833,40 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>111.97347826087</v>
+        <v>111.015691746014</v>
       </c>
       <c r="D11" t="n">
-        <v>1.29644086060586</v>
+        <v>1.26709233384617</v>
       </c>
       <c r="E11" t="n">
-        <v>81.85</v>
+        <v>87.6665758427815</v>
       </c>
       <c r="F11" t="n">
-        <v>1.38704508985128</v>
+        <v>1.51182125115636</v>
       </c>
       <c r="G11" t="n">
-        <v>10.1125</v>
+        <v>9.44357603481039</v>
       </c>
       <c r="H11" t="n">
-        <v>410.8926625</v>
+        <v>389.724295284869</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>458.82117499087</v>
+        <v>0.13825976205849</v>
       </c>
       <c r="K11" t="n">
-        <v>0.116644848801285</v>
+        <v>460.004755860796</v>
+      </c>
+      <c r="L11" t="n">
+        <v>440.679239067443</v>
+      </c>
+      <c r="M11" t="n">
+        <v>418.860442956491</v>
+      </c>
+      <c r="N11" t="n">
+        <v>443.607483619368</v>
       </c>
     </row>
     <row r="12">
@@ -769,31 +877,40 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>109.711818181818</v>
+        <v>106.041745612469</v>
       </c>
       <c r="D12" t="n">
-        <v>1.28342852071292</v>
+        <v>1.35479657928551</v>
       </c>
       <c r="E12" t="n">
-        <v>85.89</v>
+        <v>89.978491292357</v>
       </c>
       <c r="F12" t="n">
-        <v>1.26017699294861</v>
+        <v>1.17914113190113</v>
       </c>
       <c r="G12" t="n">
-        <v>10.29</v>
+        <v>9.6599282190674</v>
       </c>
       <c r="H12" t="n">
-        <v>427.02757</v>
+        <v>454.856786950607</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>464.798648557273</v>
+        <v>0.0153670639356719</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0884511474452869</v>
+        <v>466.06447209836</v>
+      </c>
+      <c r="L12" t="n">
+        <v>444.66487985013</v>
+      </c>
+      <c r="M12" t="n">
+        <v>433.803517843588</v>
+      </c>
+      <c r="N12" t="n">
+        <v>447.866973623963</v>
       </c>
     </row>
     <row r="13">
@@ -804,31 +921,40 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>109.6765</v>
+        <v>113.694805145724</v>
       </c>
       <c r="D13" t="n">
-        <v>1.3110953849636</v>
+        <v>1.34237385324434</v>
       </c>
       <c r="E13" t="n">
-        <v>92.88</v>
+        <v>91.449509160284</v>
       </c>
       <c r="F13" t="n">
-        <v>1.13330889604595</v>
+        <v>1.0225951976864</v>
       </c>
       <c r="G13" t="n">
-        <v>10.5625</v>
+        <v>10.2143610463623</v>
       </c>
       <c r="H13" t="n">
-        <v>431.716616666667</v>
+        <v>406.157130153769</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>476.6155863915</v>
+        <v>0.154020917684248</v>
       </c>
       <c r="K13" t="n">
-        <v>0.10400102287353</v>
+        <v>476.482669798385</v>
+      </c>
+      <c r="L13" t="n">
+        <v>451.841530051201</v>
+      </c>
+      <c r="M13" t="n">
+        <v>441.539802640819</v>
+      </c>
+      <c r="N13" t="n">
+        <v>468.713824064053</v>
       </c>
     </row>
     <row r="14">
@@ -839,31 +965,40 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>112.973636363636</v>
+        <v>116.220838361996</v>
       </c>
       <c r="D14" t="n">
-        <v>1.33242974109691</v>
+        <v>1.37215041853538</v>
       </c>
       <c r="E14" t="n">
-        <v>92.77</v>
+        <v>96.3418589343033</v>
       </c>
       <c r="F14" t="n">
-        <v>1.14321460248121</v>
+        <v>1.21117368309197</v>
       </c>
       <c r="G14" t="n">
-        <v>10.36</v>
+        <v>9.41894401018321</v>
       </c>
       <c r="H14" t="n">
-        <v>423.9896875</v>
+        <v>419.094909761481</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>473.072460764545</v>
+        <v>0.0776505617886258</v>
       </c>
       <c r="K14" t="n">
-        <v>0.115764073305545</v>
+        <v>471.05741190093</v>
+      </c>
+      <c r="L14" t="n">
+        <v>456.927465175358</v>
+      </c>
+      <c r="M14" t="n">
+        <v>434.768347267991</v>
+      </c>
+      <c r="N14" t="n">
+        <v>451.637864947213</v>
       </c>
     </row>
     <row r="15">
@@ -874,31 +1009,40 @@
         <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>116.5195</v>
+        <v>124.281899567633</v>
       </c>
       <c r="D15" t="n">
-        <v>1.33865507742874</v>
+        <v>1.25092995770731</v>
       </c>
       <c r="E15" t="n">
-        <v>94.94</v>
+        <v>104.075591012143</v>
       </c>
       <c r="F15" t="n">
-        <v>1.15312030891647</v>
+        <v>1.19156442260057</v>
       </c>
       <c r="G15" t="n">
-        <v>10.08</v>
+        <v>10.2085712968558</v>
       </c>
       <c r="H15" t="n">
-        <v>446.5117625</v>
+        <v>434.135552723485</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>469.0010552645</v>
+        <v>0.112790598163414</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0503666300716994</v>
+        <v>463.901818068824</v>
+      </c>
+      <c r="L15" t="n">
+        <v>460.846467374375</v>
+      </c>
+      <c r="M15" t="n">
+        <v>452.559662533833</v>
+      </c>
+      <c r="N15" t="n">
+        <v>483.101961399171</v>
       </c>
     </row>
     <row r="16">
@@ -909,31 +1053,40 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>109.24</v>
+        <v>118.529676671486</v>
       </c>
       <c r="D16" t="n">
-        <v>1.2965747351266</v>
+        <v>1.17969748882147</v>
       </c>
       <c r="E16" t="n">
-        <v>90.98</v>
+        <v>86.7127679638471</v>
       </c>
       <c r="F16" t="n">
-        <v>1.16302601535173</v>
+        <v>1.0741066274455</v>
       </c>
       <c r="G16" t="n">
-        <v>10.1725</v>
+        <v>9.45417537085991</v>
       </c>
       <c r="H16" t="n">
-        <v>441.01218</v>
+        <v>402.048937614277</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>464.49479434</v>
+        <v>0.114259560759568</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0532470879602465</v>
+        <v>463.342863026497</v>
+      </c>
+      <c r="L16" t="n">
+        <v>461.944666011089</v>
+      </c>
+      <c r="M16" t="n">
+        <v>446.164370264788</v>
+      </c>
+      <c r="N16" t="n">
+        <v>447.986872629935</v>
       </c>
     </row>
     <row r="17">
@@ -944,31 +1097,40 @@
         <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>102.875454545455</v>
+        <v>107.037615480886</v>
       </c>
       <c r="D17" t="n">
-        <v>1.30080003462069</v>
+        <v>1.33014506310706</v>
       </c>
       <c r="E17" t="n">
-        <v>87.76</v>
+        <v>92.0904179349989</v>
       </c>
       <c r="F17" t="n">
-        <v>1.26114546310179</v>
+        <v>1.28417040849347</v>
       </c>
       <c r="G17" t="n">
-        <v>10.345</v>
+        <v>9.74977300747111</v>
       </c>
       <c r="H17" t="n">
-        <v>458.29545</v>
+        <v>499.18809497616</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>463.210228211819</v>
+        <v>0.093987380391332</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0107240388527063</v>
+        <v>465.48805385514</v>
+      </c>
+      <c r="L17" t="n">
+        <v>461.612040133293</v>
+      </c>
+      <c r="M17" t="n">
+        <v>458.70869872202</v>
+      </c>
+      <c r="N17" t="n">
+        <v>452.270713606811</v>
       </c>
     </row>
     <row r="18">
@@ -979,31 +1141,40 @@
         <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>103.026956521739</v>
+        <v>93.3559608814247</v>
       </c>
       <c r="D18" t="n">
-        <v>1.29599812388292</v>
+        <v>1.27507403429307</v>
       </c>
       <c r="E18" t="n">
-        <v>87.71</v>
+        <v>115</v>
       </c>
       <c r="F18" t="n">
-        <v>1.35926491085185</v>
+        <v>1.43796124716444</v>
       </c>
       <c r="G18" t="n">
-        <v>10.036</v>
+        <v>10.9912576424653</v>
       </c>
       <c r="H18" t="n">
-        <v>454.97385</v>
+        <v>478.667950910275</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>454.832317101739</v>
+        <v>0.027957698206035</v>
       </c>
       <c r="K18" t="n">
-        <v>0.000311079193366814</v>
+        <v>455.481109671395</v>
+      </c>
+      <c r="L18" t="n">
+        <v>459.774059305578</v>
+      </c>
+      <c r="M18" t="n">
+        <v>454.492669480659</v>
+      </c>
+      <c r="N18" t="n">
+        <v>492.050405022726</v>
       </c>
     </row>
     <row r="19">
@@ -1014,31 +1185,40 @@
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>103.11</v>
+        <v>95.2042173520261</v>
       </c>
       <c r="D19" t="n">
-        <v>1.3193602052329</v>
+        <v>1.32262921569386</v>
       </c>
       <c r="E19" t="n">
-        <v>82.7543194620071</v>
+        <v>90.1478279335203</v>
       </c>
       <c r="F19" t="n">
-        <v>1.45738435860191</v>
+        <v>1.58578929028086</v>
       </c>
       <c r="G19" t="n">
-        <v>10.07</v>
+        <v>9.97632119217562</v>
       </c>
       <c r="H19" t="n">
-        <v>452.44875</v>
+        <v>430.061626976912</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>452.696997914932</v>
+        <v>0.0460189416880215</v>
       </c>
       <c r="K19" t="n">
-        <v>0.000548676319542585</v>
+        <v>455.281030437977</v>
+      </c>
+      <c r="L19" t="n">
+        <v>456.627196705224</v>
+      </c>
+      <c r="M19" t="n">
+        <v>450.799130130747</v>
+      </c>
+      <c r="N19" t="n">
+        <v>449.852607911018</v>
       </c>
     </row>
     <row r="20">
@@ -1049,31 +1229,40 @@
         <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>107.716086956522</v>
+        <v>100.707484305537</v>
       </c>
       <c r="D20" t="n">
-        <v>1.30772257149181</v>
+        <v>1.30402678192316</v>
       </c>
       <c r="E20" t="n">
-        <v>77.2592108288309</v>
+        <v>75.7372286908652</v>
       </c>
       <c r="F20" t="n">
-        <v>1.59183744744634</v>
+        <v>1.66511578795511</v>
       </c>
       <c r="G20" t="n">
-        <v>9.985</v>
+        <v>10.0718301793165</v>
       </c>
       <c r="H20" t="n">
-        <v>478.17549375</v>
+        <v>440.488109604262</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>449.794637547258</v>
+        <v>0.014409881116096</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0593523854185227</v>
+        <v>453.426805305791</v>
+      </c>
+      <c r="L20" t="n">
+        <v>452.242490482544</v>
+      </c>
+      <c r="M20" t="n">
+        <v>469.386464176504</v>
+      </c>
+      <c r="N20" t="n">
+        <v>446.835490896713</v>
       </c>
     </row>
     <row r="21">
@@ -1084,31 +1273,40 @@
         <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>110.964545454545</v>
+        <v>117.087931608069</v>
       </c>
       <c r="D21" t="n">
-        <v>1.33140411733142</v>
+        <v>1.41627839527551</v>
       </c>
       <c r="E21" t="n">
-        <v>76.96</v>
+        <v>80.2846986846775</v>
       </c>
       <c r="F21" t="n">
-        <v>1.72629053629078</v>
+        <v>1.69373796781152</v>
       </c>
       <c r="G21" t="n">
-        <v>10.044</v>
+        <v>9.98871042247955</v>
       </c>
       <c r="H21" t="n">
-        <v>485.5538</v>
+        <v>462.52391548571</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>453.245621588182</v>
+        <v>0.0105433301765431</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0665388231166525</v>
+        <v>456.581680429644</v>
+      </c>
+      <c r="L21" t="n">
+        <v>449.37712651188</v>
+      </c>
+      <c r="M21" t="n">
+        <v>475.879833967917</v>
+      </c>
+      <c r="N21" t="n">
+        <v>457.647373130197</v>
       </c>
     </row>
     <row r="22">
@@ -1119,31 +1317,40 @@
         <v>9</v>
       </c>
       <c r="C22" t="n">
-        <v>111.621428571429</v>
+        <v>107.131214829431</v>
       </c>
       <c r="D22" t="n">
-        <v>1.33403484674122</v>
+        <v>1.40801094987813</v>
       </c>
       <c r="E22" t="n">
-        <v>77.6125</v>
+        <v>71.7031714751414</v>
       </c>
       <c r="F22" t="n">
-        <v>1.86074362513521</v>
+        <v>1.68870169603023</v>
       </c>
       <c r="G22" t="n">
-        <v>10.3275</v>
+        <v>10.6841016711979</v>
       </c>
       <c r="H22" t="n">
-        <v>495.4801875</v>
+        <v>464.644431392019</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>461.810293007143</v>
+        <v>0.000837831755456042</v>
       </c>
       <c r="K22" t="n">
-        <v>0.067954068280191</v>
+        <v>466.481139832568</v>
+      </c>
+      <c r="L22" t="n">
+        <v>448.862789422667</v>
+      </c>
+      <c r="M22" t="n">
+        <v>485.54270251812</v>
+      </c>
+      <c r="N22" t="n">
+        <v>465.033725251635</v>
       </c>
     </row>
     <row r="23">
@@ -1154,31 +1361,40 @@
         <v>10</v>
       </c>
       <c r="C23" t="n">
-        <v>109.478695652174</v>
+        <v>106.684920360375</v>
       </c>
       <c r="D23" t="n">
-        <v>1.36296071657827</v>
+        <v>1.32563792126991</v>
       </c>
       <c r="E23" t="n">
-        <v>79.4125</v>
+        <v>115</v>
       </c>
       <c r="F23" t="n">
-        <v>2.08044982554345</v>
+        <v>2.22606210740248</v>
       </c>
       <c r="G23" t="n">
-        <v>10.738</v>
+        <v>10.6523223561835</v>
       </c>
       <c r="H23" t="n">
-        <v>518.0301125</v>
+        <v>557.538147367645</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>472.818484842174</v>
+        <v>0.119144795722073</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0872760609217017</v>
+        <v>479.328246986678</v>
+      </c>
+      <c r="L23" t="n">
+        <v>450.916478600967</v>
+      </c>
+      <c r="M23" t="n">
+        <v>505.946477589003</v>
+      </c>
+      <c r="N23" t="n">
+        <v>491.110378692264</v>
       </c>
     </row>
     <row r="24">
@@ -1189,31 +1405,40 @@
         <v>11</v>
       </c>
       <c r="C24" t="n">
-        <v>108.07619047619</v>
+        <v>111.30587207353</v>
       </c>
       <c r="D24" t="n">
-        <v>1.35066091003443</v>
+        <v>1.41936134759957</v>
       </c>
       <c r="E24" t="n">
-        <v>82.25</v>
+        <v>250</v>
       </c>
       <c r="F24" t="n">
-        <v>2.30015602595169</v>
+        <v>2.20988844000371</v>
       </c>
       <c r="G24" t="n">
-        <v>10.91</v>
+        <v>11.6510116429203</v>
       </c>
       <c r="H24" t="n">
-        <v>530.197715</v>
+        <v>520.901897414127</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>478.425837714285</v>
+        <v>0.163670939628434</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0976463606330604</v>
+        <v>485.357733502365</v>
+      </c>
+      <c r="L24" t="n">
+        <v>454.288171481088</v>
+      </c>
+      <c r="M24" t="n">
+        <v>517.364869619763</v>
+      </c>
+      <c r="N24" t="n">
+        <v>606.158400418131</v>
       </c>
     </row>
     <row r="25">
@@ -1224,31 +1449,40 @@
         <v>12</v>
       </c>
       <c r="C25" t="n">
-        <v>110.674</v>
+        <v>112.576742696324</v>
       </c>
       <c r="D25" t="n">
-        <v>1.36951377232217</v>
+        <v>1.24979793757064</v>
       </c>
       <c r="E25" t="n">
-        <v>84.3375</v>
+        <v>250</v>
       </c>
       <c r="F25" t="n">
-        <v>2.51986222635993</v>
+        <v>2.53835282094663</v>
       </c>
       <c r="G25" t="n">
-        <v>11.2866666666667</v>
+        <v>11.9027976013012</v>
       </c>
       <c r="H25" t="n">
-        <v>537.705316666667</v>
+        <v>492.982649492692</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>491.649189447334</v>
+        <v>0.245134413632572</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0856530999262626</v>
+        <v>499.394501502267</v>
+      </c>
+      <c r="L25" t="n">
+        <v>460.011343979765</v>
+      </c>
+      <c r="M25" t="n">
+        <v>526.378599683</v>
+      </c>
+      <c r="N25" t="n">
+        <v>613.829662207115</v>
       </c>
     </row>
     <row r="26">
@@ -1259,31 +1493,40 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>107.42</v>
+        <v>114.184355004434</v>
       </c>
       <c r="D26" t="n">
-        <v>1.36332324021673</v>
+        <v>1.33852335158658</v>
       </c>
       <c r="E26" t="n">
-        <v>81.61</v>
+        <v>250</v>
       </c>
       <c r="F26" t="n">
-        <v>2.59157382160382</v>
+        <v>2.82369372427273</v>
       </c>
       <c r="G26" t="n">
-        <v>10.714</v>
+        <v>11.6036174321903</v>
       </c>
       <c r="H26" t="n">
-        <v>532.24483</v>
+        <v>580.764021240732</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>472.25971658</v>
+        <v>0.0445898713791575</v>
       </c>
       <c r="K26" t="n">
-        <v>0.11270210632201</v>
+        <v>478.629878584809</v>
+      </c>
+      <c r="L26" t="n">
+        <v>460.177041560771</v>
+      </c>
+      <c r="M26" t="n">
+        <v>517.646500920238</v>
+      </c>
+      <c r="N26" t="n">
+        <v>606.660214249498</v>
       </c>
     </row>
     <row r="27">
@@ -1294,31 +1537,40 @@
         <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>108.81</v>
+        <v>111.47765318131</v>
       </c>
       <c r="D27" t="n">
-        <v>1.36301698520082</v>
+        <v>1.26173581544375</v>
       </c>
       <c r="E27" t="n">
-        <v>76.29</v>
+        <v>250</v>
       </c>
       <c r="F27" t="n">
-        <v>2.66328541684771</v>
+        <v>2.5514104617153</v>
       </c>
       <c r="G27" t="n">
-        <v>9.6975</v>
+        <v>8.78179310372332</v>
       </c>
       <c r="H27" t="n">
-        <v>541.933384375</v>
+        <v>580.713306057532</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>442.01425321</v>
+        <v>0.0909688585694348</v>
       </c>
       <c r="K27" t="n">
-        <v>0.184375301551563</v>
+        <v>444.577077581569</v>
+      </c>
+      <c r="L27" t="n">
+        <v>453.324844306887</v>
+      </c>
+      <c r="M27" t="n">
+        <v>518.37075418948</v>
+      </c>
+      <c r="N27" t="n">
+        <v>527.886479449395</v>
       </c>
     </row>
     <row r="28">
@@ -1329,31 +1581,40 @@
         <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>107.4</v>
+        <v>110.541252662363</v>
       </c>
       <c r="D28" t="n">
-        <v>1.38211007087117</v>
+        <v>1.32086989692509</v>
       </c>
       <c r="E28" t="n">
-        <v>73.34</v>
+        <v>250</v>
       </c>
       <c r="F28" t="n">
-        <v>2.73499701209159</v>
+        <v>2.94190680009661</v>
       </c>
       <c r="G28" t="n">
-        <v>9.4575</v>
+        <v>8.61076802340976</v>
       </c>
       <c r="H28" t="n">
-        <v>524.04735625</v>
+        <v>542.213225305451</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>432.7232771</v>
+        <v>0.036116966483525</v>
       </c>
       <c r="K28" t="n">
-        <v>0.174266844514779</v>
+        <v>435.28256541332</v>
+      </c>
+      <c r="L28" t="n">
+        <v>445.342993928216</v>
+      </c>
+      <c r="M28" t="n">
+        <v>501.610311937055</v>
+      </c>
+      <c r="N28" t="n">
+        <v>522.63012842017</v>
       </c>
     </row>
     <row r="29">
@@ -1364,31 +1625,40 @@
         <v>4</v>
       </c>
       <c r="C29" t="n">
-        <v>107.79</v>
+        <v>101.226118124344</v>
       </c>
       <c r="D29" t="n">
-        <v>1.380527404527</v>
+        <v>1.33310148185806</v>
       </c>
       <c r="E29" t="n">
-        <v>72.82</v>
+        <v>250</v>
       </c>
       <c r="F29" t="n">
-        <v>2.78222737076019</v>
+        <v>2.59100045713935</v>
       </c>
       <c r="G29" t="n">
-        <v>8.5025</v>
+        <v>9.04957533496211</v>
       </c>
       <c r="H29" t="n">
-        <v>469.051525</v>
+        <v>449.012086248905</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>406.55176099</v>
+        <v>0.177704278630055</v>
       </c>
       <c r="K29" t="n">
-        <v>0.133247118235038</v>
+        <v>403.992823302102</v>
+      </c>
+      <c r="L29" t="n">
+        <v>433.989696086981</v>
+      </c>
+      <c r="M29" t="n">
+        <v>452.852366822834</v>
+      </c>
+      <c r="N29" t="n">
+        <v>528.803455131943</v>
       </c>
     </row>
     <row r="30">
@@ -1399,31 +1669,40 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>109.68</v>
+        <v>120.195686869361</v>
       </c>
       <c r="D30" t="n">
-        <v>1.37171596763391</v>
+        <v>1.32915260317857</v>
       </c>
       <c r="E30" t="n">
-        <v>73.69</v>
+        <v>67.6778091547936</v>
       </c>
       <c r="F30" t="n">
-        <v>2.82945772942879</v>
+        <v>2.6769915984286</v>
       </c>
       <c r="G30" t="n">
-        <v>7.914</v>
+        <v>7.98490409018341</v>
       </c>
       <c r="H30" t="n">
-        <v>402.2864</v>
+        <v>398.094709841987</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>392.20215624</v>
+        <v>0.0029463310930179</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0250673245727422</v>
+        <v>385.887877305231</v>
+      </c>
+      <c r="L30" t="n">
+        <v>422.54000880632</v>
+      </c>
+      <c r="M30" t="n">
+        <v>397.316647919078</v>
+      </c>
+      <c r="N30" t="n">
+        <v>396.921791020414</v>
       </c>
     </row>
     <row r="31">
@@ -1434,31 +1713,40 @@
         <v>6</v>
       </c>
       <c r="C31" t="n">
-        <v>111.87</v>
+        <v>106.130183344508</v>
       </c>
       <c r="D31" t="n">
-        <v>1.3603501180353</v>
+        <v>1.30845874203917</v>
       </c>
       <c r="E31" t="n">
-        <v>71.48</v>
+        <v>69.5623162000198</v>
       </c>
       <c r="F31" t="n">
-        <v>2.87668808809739</v>
+        <v>2.89467348003955</v>
       </c>
       <c r="G31" t="n">
-        <v>7.0625</v>
+        <v>7.40745188685541</v>
       </c>
       <c r="H31" t="n">
-        <v>371.900175</v>
+        <v>335.173310126367</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>368.91876987</v>
+        <v>0.114509558150956</v>
       </c>
       <c r="K31" t="n">
-        <v>0.00801668116988652</v>
+        <v>358.524268070312</v>
+      </c>
+      <c r="L31" t="n">
+        <v>408.560372884546</v>
+      </c>
+      <c r="M31" t="n">
+        <v>368.270972064444</v>
+      </c>
+      <c r="N31" t="n">
+        <v>373.553857772931</v>
       </c>
     </row>
     <row r="32">
@@ -1469,31 +1757,40 @@
         <v>7</v>
       </c>
       <c r="C32" t="n">
-        <v>106.98</v>
+        <v>107.968795742235</v>
       </c>
       <c r="D32" t="n">
-        <v>1.35586095956524</v>
+        <v>1.40446453981644</v>
       </c>
       <c r="E32" t="n">
-        <v>68.75</v>
+        <v>66.0739673298667</v>
       </c>
       <c r="F32" t="n">
-        <v>2.93572125913781</v>
+        <v>2.80483450006397</v>
       </c>
       <c r="G32" t="n">
-        <v>6.594</v>
+        <v>6.38824295206564</v>
       </c>
       <c r="H32" t="n">
-        <v>365.4538375</v>
+        <v>367.219216555255</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>351.35222534</v>
+        <v>0.061416093877448</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0385865756848155</v>
+        <v>340.481365555983</v>
+      </c>
+      <c r="L32" t="n">
+        <v>393.354160398142</v>
+      </c>
+      <c r="M32" t="n">
+        <v>359.058303726963</v>
+      </c>
+      <c r="N32" t="n">
+        <v>344.666046677695</v>
       </c>
     </row>
     <row r="33">
@@ -1504,31 +1801,40 @@
         <v>8</v>
       </c>
       <c r="C33" t="n">
-        <v>101.92</v>
+        <v>96.2223967651725</v>
       </c>
       <c r="D33" t="n">
-        <v>1.33248659575698</v>
+        <v>1.25320596347076</v>
       </c>
       <c r="E33" t="n">
-        <v>68.94</v>
+        <v>70.8030936834086</v>
       </c>
       <c r="F33" t="n">
-        <v>2.99475443017823</v>
+        <v>2.83817070467087</v>
       </c>
       <c r="G33" t="n">
-        <v>7.0125</v>
+        <v>7.48802334453037</v>
       </c>
       <c r="H33" t="n">
-        <v>375.93203</v>
+        <v>347.788392437664</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>359.74595302</v>
+        <v>0.0648757932495045</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0430558603373061</v>
+        <v>352.574017844779</v>
+      </c>
+      <c r="L33" t="n">
+        <v>382.747043617776</v>
+      </c>
+      <c r="M33" t="n">
+        <v>368.885876587974</v>
+      </c>
+      <c r="N33" t="n">
+        <v>370.351440280027</v>
       </c>
     </row>
     <row r="34">
@@ -1539,31 +1845,40 @@
         <v>9</v>
       </c>
       <c r="C34" t="n">
-        <v>97.34</v>
+        <v>90.2452426451016</v>
       </c>
       <c r="D34" t="n">
-        <v>1.29240465259052</v>
+        <v>1.27229757145856</v>
       </c>
       <c r="E34" t="n">
-        <v>65.94</v>
+        <v>72.3445792614687</v>
       </c>
       <c r="F34" t="n">
-        <v>3.05378760121864</v>
+        <v>3.2800294799695</v>
       </c>
       <c r="G34" t="n">
-        <v>8.205</v>
+        <v>8.6509841539585</v>
       </c>
       <c r="H34" t="n">
-        <v>406.48823125</v>
+        <v>396.492279550554</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>387.57705334</v>
+        <v>0.00723054963767544</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0465233097938552</v>
+        <v>389.867896348568</v>
+      </c>
+      <c r="L34" t="n">
+        <v>378.590543288056</v>
+      </c>
+      <c r="M34" t="n">
+        <v>397.479195848267</v>
+      </c>
+      <c r="N34" t="n">
+        <v>399.359136658799</v>
       </c>
     </row>
     <row r="35">
@@ -1574,31 +1889,40 @@
         <v>10</v>
       </c>
       <c r="C35" t="n">
-        <v>87.27</v>
+        <v>93.5124215825088</v>
       </c>
       <c r="D35" t="n">
-        <v>1.26853045960041</v>
+        <v>1.14561351694903</v>
       </c>
       <c r="E35" t="n">
-        <v>63.71</v>
+        <v>63.6024343082551</v>
       </c>
       <c r="F35" t="n">
-        <v>3.06789932798895</v>
+        <v>2.87344186272498</v>
       </c>
       <c r="G35" t="n">
-        <v>8.5</v>
+        <v>8.70218992535956</v>
       </c>
       <c r="H35" t="n">
-        <v>411.50738</v>
+        <v>373.047890557975</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>387.94870657</v>
+        <v>0.065011539575573</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0572496984865739</v>
+        <v>395.099321610278</v>
+      </c>
+      <c r="L35" t="n">
+        <v>374.555905386433</v>
+      </c>
+      <c r="M35" t="n">
+        <v>400.744767559433</v>
+      </c>
+      <c r="N35" t="n">
+        <v>397.300308258569</v>
       </c>
     </row>
     <row r="36">
@@ -1609,31 +1933,40 @@
         <v>11</v>
       </c>
       <c r="C36" t="n">
-        <v>78.44</v>
+        <v>76.0557472702004</v>
       </c>
       <c r="D36" t="n">
-        <v>1.24813654669757</v>
+        <v>1.35917052099265</v>
       </c>
       <c r="E36" t="n">
-        <v>62.55</v>
+        <v>58.8726557369228</v>
       </c>
       <c r="F36" t="n">
-        <v>3.08201105475925</v>
+        <v>3.26804474644017</v>
       </c>
       <c r="G36" t="n">
-        <v>8.425</v>
+        <v>7.84983649956528</v>
       </c>
       <c r="H36" t="n">
-        <v>387.9138375</v>
+        <v>394.586367329821</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>379.65965184</v>
+        <v>0.0872782312216847</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0212783996394559</v>
+        <v>388.878601407687</v>
+      </c>
+      <c r="L36" t="n">
+        <v>369.311644506379</v>
+      </c>
+      <c r="M36" t="n">
+        <v>379.939307367785</v>
+      </c>
+      <c r="N36" t="n">
+        <v>360.147567125084</v>
       </c>
     </row>
     <row r="37">
@@ -1644,31 +1977,40 @@
         <v>12</v>
       </c>
       <c r="C37" t="n">
-        <v>62.33</v>
+        <v>60.7702781271567</v>
       </c>
       <c r="D37" t="n">
-        <v>1.23279999081493</v>
+        <v>1.25009331968815</v>
       </c>
       <c r="E37" t="n">
-        <v>62.44</v>
+        <v>67.3586185220592</v>
       </c>
       <c r="F37" t="n">
-        <v>3.09612278152956</v>
+        <v>3.21027131943203</v>
       </c>
       <c r="G37" t="n">
-        <v>8.3625</v>
+        <v>7.7017351335485</v>
       </c>
       <c r="H37" t="n">
-        <v>375.1706875</v>
+        <v>369.930036949854</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>367.82873253</v>
+        <v>0.0487453952234058</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0195696391392517</v>
+        <v>380.049402788686</v>
+      </c>
+      <c r="L37" t="n">
+        <v>362.574206839266</v>
+      </c>
+      <c r="M37" t="n">
+        <v>367.235701829456</v>
+      </c>
+      <c r="N37" t="n">
+        <v>351.897651093724</v>
       </c>
     </row>
     <row r="38">
@@ -1679,31 +2021,40 @@
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>48.07</v>
+        <v>50.1761184792262</v>
       </c>
       <c r="D38" t="n">
-        <v>1.15716241302786</v>
+        <v>1.20672947142261</v>
       </c>
       <c r="E38" t="n">
-        <v>62.1</v>
+        <v>57.8891421150835</v>
       </c>
       <c r="F38" t="n">
-        <v>3.20483027333727</v>
+        <v>3.05224299236885</v>
       </c>
       <c r="G38" t="n">
-        <v>6.8075</v>
+        <v>6.33948375178012</v>
       </c>
       <c r="H38" t="n">
-        <v>320.0692625</v>
+        <v>294.525276055759</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>316.23682307</v>
+        <v>0.025782057302103</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0119737815498605</v>
+        <v>323.387796734259</v>
+      </c>
+      <c r="L38" t="n">
+        <v>347.231372313176</v>
+      </c>
+      <c r="M38" t="n">
+        <v>313.414145624192</v>
+      </c>
+      <c r="N38" t="n">
+        <v>302.118743599946</v>
       </c>
     </row>
     <row r="39">
@@ -1714,31 +2065,40 @@
         <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>57.93</v>
+        <v>58.9301653079996</v>
       </c>
       <c r="D39" t="n">
-        <v>1.13603677322678</v>
+        <v>1.15603506353802</v>
       </c>
       <c r="E39" t="n">
-        <v>61.4</v>
+        <v>63.0466661153827</v>
       </c>
       <c r="F39" t="n">
-        <v>3.31353776514498</v>
+        <v>3.20354214531507</v>
       </c>
       <c r="G39" t="n">
-        <v>7.2775</v>
+        <v>7.52357755467272</v>
       </c>
       <c r="H39" t="n">
-        <v>332.076975</v>
+        <v>300.37385841296</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>334.78952833</v>
+        <v>0.142480446600843</v>
       </c>
       <c r="K39" t="n">
-        <v>0.00816844748119006</v>
+        <v>343.559469433644</v>
+      </c>
+      <c r="L39" t="n">
+        <v>338.468979257864</v>
+      </c>
+      <c r="M39" t="n">
+        <v>326.412036301202</v>
+      </c>
+      <c r="N39" t="n">
+        <v>343.171259906857</v>
       </c>
     </row>
     <row r="40">
@@ -1749,31 +2109,40 @@
         <v>3</v>
       </c>
       <c r="C40" t="n">
-        <v>55.79</v>
+        <v>53.4566583761936</v>
       </c>
       <c r="D40" t="n">
-        <v>1.08116510558968</v>
+        <v>1.00128915828963</v>
       </c>
       <c r="E40" t="n">
-        <v>60.115</v>
+        <v>63.0520380038039</v>
       </c>
       <c r="F40" t="n">
-        <v>3.42224525695269</v>
+        <v>3.11885314889673</v>
       </c>
       <c r="G40" t="n">
-        <v>6.9075</v>
+        <v>6.91350911979843</v>
       </c>
       <c r="H40" t="n">
-        <v>335.977275</v>
+        <v>351.094025308229</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>322.53859539</v>
+        <v>0.0797531358866844</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0399987755421851</v>
+        <v>330.939424998388</v>
+      </c>
+      <c r="L40" t="n">
+        <v>328.822915838192</v>
+      </c>
+      <c r="M40" t="n">
+        <v>326.840498756134</v>
+      </c>
+      <c r="N40" t="n">
+        <v>323.093175798819</v>
       </c>
     </row>
     <row r="41">
@@ -1784,31 +2153,40 @@
         <v>4</v>
       </c>
       <c r="C41" t="n">
-        <v>59.39</v>
+        <v>60.2410947331805</v>
       </c>
       <c r="D41" t="n">
-        <v>1.0775772178982</v>
+        <v>1.07033990666561</v>
       </c>
       <c r="E41" t="n">
-        <v>57.8142857142857</v>
+        <v>52.1118641924419</v>
       </c>
       <c r="F41" t="n">
-        <v>3.4125454996046</v>
+        <v>3.28511710830109</v>
       </c>
       <c r="G41" t="n">
-        <v>6.79</v>
+        <v>6.30110770662641</v>
       </c>
       <c r="H41" t="n">
-        <v>343.3527375</v>
+        <v>362.658404726578</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>320.129022175714</v>
+        <v>0.162518907230597</v>
       </c>
       <c r="K41" t="n">
-        <v>0.067638066594083</v>
+        <v>328.368324933841</v>
+      </c>
+      <c r="L41" t="n">
+        <v>320.159223171843</v>
+      </c>
+      <c r="M41" t="n">
+        <v>331.719249435281</v>
+      </c>
+      <c r="N41" t="n">
+        <v>303.719557092423</v>
       </c>
     </row>
     <row r="42">
@@ -1819,31 +2197,40 @@
         <v>5</v>
       </c>
       <c r="C42" t="n">
-        <v>64.56</v>
+        <v>67.1737257209569</v>
       </c>
       <c r="D42" t="n">
-        <v>1.11585237283569</v>
+        <v>1.0869088753992</v>
       </c>
       <c r="E42" t="n">
-        <v>60.3973684210526</v>
+        <v>61.6926914008747</v>
       </c>
       <c r="F42" t="n">
-        <v>3.4028457422565</v>
+        <v>3.08975257702715</v>
       </c>
       <c r="G42" t="n">
-        <v>6.695</v>
+        <v>6.14805870410567</v>
       </c>
       <c r="H42" t="n">
-        <v>356.2384025</v>
+        <v>321.384779926098</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>322.384677328421</v>
+        <v>0.0357681125906201</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0950310941605431</v>
+        <v>327.929800645496</v>
+      </c>
+      <c r="L42" t="n">
+        <v>314.4465468709</v>
+      </c>
+      <c r="M42" t="n">
+        <v>343.151390626351</v>
+      </c>
+      <c r="N42" t="n">
+        <v>309.88945293279</v>
       </c>
     </row>
     <row r="43">
@@ -1854,31 +2241,40 @@
         <v>6</v>
       </c>
       <c r="C43" t="n">
-        <v>62.34</v>
+        <v>59.1972867734833</v>
       </c>
       <c r="D43" t="n">
-        <v>1.12218492742573</v>
+        <v>1.12888130534415</v>
       </c>
       <c r="E43" t="n">
-        <v>58.8409090909091</v>
+        <v>52.9976652765424</v>
       </c>
       <c r="F43" t="n">
-        <v>3.39314598490841</v>
+        <v>3.2391550396</v>
       </c>
       <c r="G43" t="n">
-        <v>6.655</v>
+        <v>7.07412545087305</v>
       </c>
       <c r="H43" t="n">
-        <v>347.42600625</v>
+        <v>371.834428377458</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>318.92782194</v>
+        <v>0.126649530508997</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0820266295479714</v>
+        <v>325.411920126019</v>
+      </c>
+      <c r="L43" t="n">
+        <v>308.79550163989</v>
+      </c>
+      <c r="M43" t="n">
+        <v>335.034186878297</v>
+      </c>
+      <c r="N43" t="n">
+        <v>324.741772596372</v>
       </c>
     </row>
     <row r="44">
@@ -1889,31 +2285,40 @@
         <v>7</v>
       </c>
       <c r="C44" t="n">
-        <v>55.87</v>
+        <v>53.5491868939116</v>
       </c>
       <c r="D44" t="n">
-        <v>1.10162166009412</v>
+        <v>1.02646430842088</v>
       </c>
       <c r="E44" t="n">
-        <v>59.1304347826087</v>
+        <v>60.4890209086563</v>
       </c>
       <c r="F44" t="n">
-        <v>3.31252350373562</v>
+        <v>3.31943245090617</v>
       </c>
       <c r="G44" t="n">
-        <v>6.698</v>
+        <v>6.21351379060158</v>
       </c>
       <c r="H44" t="n">
-        <v>323.31087</v>
+        <v>341.70630112349</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>316.246507263913</v>
+        <v>0.114978389819172</v>
       </c>
       <c r="K44" t="n">
-        <v>0.021850062560801</v>
+        <v>324.500253417169</v>
+      </c>
+      <c r="L44" t="n">
+        <v>303.728813053792</v>
+      </c>
+      <c r="M44" t="n">
+        <v>315.277340170777</v>
+      </c>
+      <c r="N44" t="n">
+        <v>302.417460829246</v>
       </c>
     </row>
     <row r="45">
@@ -1924,31 +2329,40 @@
         <v>8</v>
       </c>
       <c r="C45" t="n">
-        <v>46.99</v>
+        <v>51.5608173541026</v>
       </c>
       <c r="D45" t="n">
-        <v>1.11267142857143</v>
+        <v>1.16522944228874</v>
       </c>
       <c r="E45" t="n">
-        <v>58.5725</v>
+        <v>55.8717450698548</v>
       </c>
       <c r="F45" t="n">
-        <v>3.23190102256283</v>
+        <v>3.16460215820541</v>
       </c>
       <c r="G45" t="n">
-        <v>6.455</v>
+        <v>6.93368893303443</v>
       </c>
       <c r="H45" t="n">
-        <v>308.22225</v>
+        <v>307.540316692786</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>303.71550519</v>
+        <v>0.033836928432583</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0146217374313501</v>
+        <v>312.511898546172</v>
+      </c>
+      <c r="L45" t="n">
+        <v>297.032818325366</v>
+      </c>
+      <c r="M45" t="n">
+        <v>300.607827731559</v>
+      </c>
+      <c r="N45" t="n">
+        <v>317.946536378854</v>
       </c>
     </row>
     <row r="46">
@@ -1959,31 +2373,40 @@
         <v>9</v>
       </c>
       <c r="C46" t="n">
-        <v>47.24</v>
+        <v>45.3546631662808</v>
       </c>
       <c r="D46" t="n">
-        <v>1.12366363636364</v>
+        <v>1.19963797540496</v>
       </c>
       <c r="E46" t="n">
-        <v>54.7454545454545</v>
+        <v>58.1168260125773</v>
       </c>
       <c r="F46" t="n">
-        <v>3.15127854139004</v>
+        <v>3.4232642995638</v>
       </c>
       <c r="G46" t="n">
-        <v>6.3</v>
+        <v>6.26872433199082</v>
       </c>
       <c r="H46" t="n">
-        <v>285.14254375</v>
+        <v>299.536942046434</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>297.23106764</v>
+        <v>0.00740180911714916</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0423946694555641</v>
+        <v>306.676056606673</v>
+      </c>
+      <c r="L46" t="n">
+        <v>289.498912701191</v>
+      </c>
+      <c r="M46" t="n">
+        <v>280.03892833304</v>
+      </c>
+      <c r="N46" t="n">
+        <v>297.319826777872</v>
       </c>
     </row>
     <row r="47">
@@ -1994,31 +2417,40 @@
         <v>10</v>
       </c>
       <c r="C47" t="n">
-        <v>48.12</v>
+        <v>48.3514836018495</v>
       </c>
       <c r="D47" t="n">
-        <v>1.1234347826087</v>
+        <v>1.04147464352519</v>
       </c>
       <c r="E47" t="n">
-        <v>52.3136363636364</v>
+        <v>55.5612019503377</v>
       </c>
       <c r="F47" t="n">
-        <v>3.10259243930964</v>
+        <v>3.30039091359426</v>
       </c>
       <c r="G47" t="n">
-        <v>6.052</v>
+        <v>5.90464670622796</v>
       </c>
       <c r="H47" t="n">
-        <v>271.17467</v>
+        <v>280.789497195933</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>289.4765798</v>
+        <v>0.0243891177633873</v>
       </c>
       <c r="K47" t="n">
-        <v>0.0674912218018002</v>
+        <v>298.506743702141</v>
+      </c>
+      <c r="L47" t="n">
+        <v>281.43580819418</v>
+      </c>
+      <c r="M47" t="n">
+        <v>266.856914398108</v>
+      </c>
+      <c r="N47" t="n">
+        <v>287.637705309767</v>
       </c>
     </row>
     <row r="48">
@@ -2029,31 +2461,40 @@
         <v>11</v>
       </c>
       <c r="C48" t="n">
-        <v>44.42</v>
+        <v>42.7916662903009</v>
       </c>
       <c r="D48" t="n">
-        <v>1.076025</v>
+        <v>1.05615479262235</v>
       </c>
       <c r="E48" t="n">
-        <v>52.5714285714286</v>
+        <v>52.5558147039797</v>
       </c>
       <c r="F48" t="n">
-        <v>3.05390633722925</v>
+        <v>2.94467848861614</v>
       </c>
       <c r="G48" t="n">
-        <v>5.525</v>
+        <v>5.89102142975549</v>
       </c>
       <c r="H48" t="n">
-        <v>243.513975</v>
+        <v>242.736392421372</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>272.933273048571</v>
+        <v>0.161366398845489</v>
       </c>
       <c r="K48" t="n">
-        <v>0.120811538839081</v>
+        <v>280.278053045814</v>
+      </c>
+      <c r="L48" t="n">
+        <v>271.919780124286</v>
+      </c>
+      <c r="M48" t="n">
+        <v>241.748908252217</v>
+      </c>
+      <c r="N48" t="n">
+        <v>281.905889935154</v>
       </c>
     </row>
     <row r="49">
@@ -2064,31 +2505,40 @@
         <v>12</v>
       </c>
       <c r="C49" t="n">
-        <v>37.72</v>
+        <v>34.9504866494183</v>
       </c>
       <c r="D49" t="n">
-        <v>1.08697826086957</v>
+        <v>1.00523459342575</v>
       </c>
       <c r="E49" t="n">
-        <v>52.1275</v>
+        <v>51.1777756731156</v>
       </c>
       <c r="F49" t="n">
-        <v>3.00522023514886</v>
+        <v>2.98350080743639</v>
       </c>
       <c r="G49" t="n">
-        <v>5.25</v>
+        <v>5.46895584646845</v>
       </c>
       <c r="H49" t="n">
-        <v>236.62155</v>
+        <v>218.089095952221</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>260.96036382</v>
+        <v>0.213338978079111</v>
       </c>
       <c r="K49" t="n">
-        <v>0.102859666923828</v>
+        <v>268.211656206139</v>
+      </c>
+      <c r="L49" t="n">
+        <v>261.861614894288</v>
+      </c>
+      <c r="M49" t="n">
+        <v>233.778099708263</v>
+      </c>
+      <c r="N49" t="n">
+        <v>264.616000812865</v>
       </c>
     </row>
     <row r="50">
@@ -2099,31 +2549,40 @@
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>30.8</v>
+        <v>27.7948773665912</v>
       </c>
       <c r="D50" t="n">
-        <v>1.08774375</v>
+        <v>1.09086653230613</v>
       </c>
       <c r="E50" t="n">
-        <v>49.815625</v>
+        <v>49.9917347310115</v>
       </c>
       <c r="F50" t="n">
-        <v>2.91231896905698</v>
+        <v>2.96800728540912</v>
       </c>
       <c r="G50" t="n">
-        <v>4.415</v>
+        <v>4.09100423798244</v>
       </c>
       <c r="H50" t="n">
-        <v>198.1587125</v>
+        <v>209.88233986988</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>232.378005775</v>
+        <v>0.0566040791477744</v>
       </c>
       <c r="K50" t="n">
-        <v>0.172686291928749</v>
+        <v>237.216934626237</v>
+      </c>
+      <c r="L50" t="n">
+        <v>247.796519556538</v>
+      </c>
+      <c r="M50" t="n">
+        <v>197.114051328394</v>
+      </c>
+      <c r="N50" t="n">
+        <v>221.762536447595</v>
       </c>
     </row>
     <row r="51">
@@ -2134,31 +2593,40 @@
         <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>33.2</v>
+        <v>31.482672838252</v>
       </c>
       <c r="D51" t="n">
-        <v>1.11146315789474</v>
+        <v>1.03879688775974</v>
       </c>
       <c r="E51" t="n">
-        <v>50.7075</v>
+        <v>52.0822784893925</v>
       </c>
       <c r="F51" t="n">
-        <v>2.8194177029651</v>
+        <v>2.82395041691959</v>
       </c>
       <c r="G51" t="n">
-        <v>4.0175</v>
+        <v>4.1894139706234</v>
       </c>
       <c r="H51" t="n">
-        <v>164.7498</v>
+        <v>158.723163971371</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>223.5780446</v>
+        <v>0.436884554460833</v>
       </c>
       <c r="K51" t="n">
-        <v>0.357076273233716</v>
+        <v>225.290224055046</v>
+      </c>
+      <c r="L51" t="n">
+        <v>235.239176971568</v>
+      </c>
+      <c r="M51" t="n">
+        <v>169.166634478541</v>
+      </c>
+      <c r="N51" t="n">
+        <v>228.066862745617</v>
       </c>
     </row>
     <row r="52">
@@ -2169,31 +2637,40 @@
         <v>3</v>
       </c>
       <c r="C52" t="n">
-        <v>39.07</v>
+        <v>35.891105809838</v>
       </c>
       <c r="D52" t="n">
-        <v>1.11022380952381</v>
+        <v>1.16948578939472</v>
       </c>
       <c r="E52" t="n">
-        <v>52.19</v>
+        <v>51.4514453602261</v>
       </c>
       <c r="F52" t="n">
-        <v>2.72651643687323</v>
+        <v>2.47086503282294</v>
       </c>
       <c r="G52" t="n">
-        <v>3.904</v>
+        <v>3.61745992614627</v>
       </c>
       <c r="H52" t="n">
-        <v>181.8716625</v>
+        <v>168.733017748838</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>225.07320613</v>
+        <v>0.273001387525879</v>
       </c>
       <c r="K52" t="n">
-        <v>0.237538619464701</v>
+        <v>224.694717508937</v>
+      </c>
+      <c r="L52" t="n">
+        <v>226.01446353517</v>
+      </c>
+      <c r="M52" t="n">
+        <v>183.554901176787</v>
+      </c>
+      <c r="N52" t="n">
+        <v>214.7973657157</v>
       </c>
     </row>
     <row r="53">
@@ -2204,31 +2681,40 @@
         <v>4</v>
       </c>
       <c r="C53" t="n">
-        <v>42.25</v>
+        <v>42.3872372215148</v>
       </c>
       <c r="D53" t="n">
-        <v>1.13380909090909</v>
+        <v>1.11506156515128</v>
       </c>
       <c r="E53" t="n">
-        <v>50.91</v>
+        <v>49.3460971960123</v>
       </c>
       <c r="F53" t="n">
-        <v>2.82657984635832</v>
+        <v>2.842016832005</v>
       </c>
       <c r="G53" t="n">
-        <v>3.9425</v>
+        <v>3.75308359955647</v>
       </c>
       <c r="H53" t="n">
-        <v>199.705155</v>
+        <v>207.051576478658</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>227.30478005</v>
+        <v>0.0684911570063473</v>
       </c>
       <c r="K53" t="n">
-        <v>0.13820186589575</v>
+        <v>226.992919232127</v>
+      </c>
+      <c r="L53" t="n">
+        <v>218.809991420133</v>
+      </c>
+      <c r="M53" t="n">
+        <v>197.878124208103</v>
+      </c>
+      <c r="N53" t="n">
+        <v>221.232778511669</v>
       </c>
     </row>
     <row r="54">
@@ -2239,31 +2725,40 @@
         <v>5</v>
       </c>
       <c r="C54" t="n">
-        <v>47.13</v>
+        <v>51.2366841626465</v>
       </c>
       <c r="D54" t="n">
-        <v>1.12945</v>
+        <v>1.20511587838196</v>
       </c>
       <c r="E54" t="n">
-        <v>51.48</v>
+        <v>55.2201928159632</v>
       </c>
       <c r="F54" t="n">
-        <v>2.92664325584342</v>
+        <v>2.75352200605064</v>
       </c>
       <c r="G54" t="n">
-        <v>4.28</v>
+        <v>4.42846579699032</v>
       </c>
       <c r="H54" t="n">
-        <v>227.51163125</v>
+        <v>224.752264495298</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>239.92840343</v>
+        <v>0.107436181751048</v>
       </c>
       <c r="K54" t="n">
-        <v>0.0545764280787733</v>
+        <v>240.684655651832</v>
+      </c>
+      <c r="L54" t="n">
+        <v>215.653883442158</v>
+      </c>
+      <c r="M54" t="n">
+        <v>222.576968108135</v>
+      </c>
+      <c r="N54" t="n">
+        <v>248.898789632574</v>
       </c>
     </row>
     <row r="55">
@@ -2274,31 +2769,40 @@
         <v>6</v>
       </c>
       <c r="C55" t="n">
-        <v>48.48</v>
+        <v>51.1862718372121</v>
       </c>
       <c r="D55" t="n">
-        <v>1.12375238095238</v>
+        <v>1.13711387631491</v>
       </c>
       <c r="E55" t="n">
-        <v>53.17</v>
+        <v>57.1602416382115</v>
       </c>
       <c r="F55" t="n">
-        <v>3.02670666532852</v>
+        <v>2.72521868226104</v>
       </c>
       <c r="G55" t="n">
-        <v>4.706</v>
+        <v>4.87510820174711</v>
       </c>
       <c r="H55" t="n">
-        <v>228.0944125</v>
+        <v>208.542452220878</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>253.47070192</v>
+        <v>0.257720846834233</v>
       </c>
       <c r="K55" t="n">
-        <v>0.111253446070276</v>
+        <v>256.030186655775</v>
+      </c>
+      <c r="L55" t="n">
+        <v>216.108633429785</v>
+      </c>
+      <c r="M55" t="n">
+        <v>226.006404096697</v>
+      </c>
+      <c r="N55" t="n">
+        <v>262.28818960813</v>
       </c>
     </row>
     <row r="56">
@@ -2309,31 +2813,40 @@
         <v>7</v>
       </c>
       <c r="C56" t="n">
-        <v>45.07</v>
+        <v>46.424867977235</v>
       </c>
       <c r="D56" t="n">
-        <v>1.1066</v>
+        <v>1.19115695076605</v>
       </c>
       <c r="E56" t="n">
-        <v>62.29</v>
+        <v>66.4375399116627</v>
       </c>
       <c r="F56" t="n">
-        <v>2.93841155121377</v>
+        <v>2.66462598305366</v>
       </c>
       <c r="G56" t="n">
-        <v>4.665</v>
+        <v>4.23821874457318</v>
       </c>
       <c r="H56" t="n">
-        <v>220.50038</v>
+        <v>203.279365082228</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>255.95676777</v>
+        <v>0.218774354646297</v>
       </c>
       <c r="K56" t="n">
-        <v>0.160799667420074</v>
+        <v>255.756666345269</v>
+      </c>
+      <c r="L56" t="n">
+        <v>219.21302921969</v>
+      </c>
+      <c r="M56" t="n">
+        <v>222.707133061825</v>
+      </c>
+      <c r="N56" t="n">
+        <v>247.751676991001</v>
       </c>
     </row>
     <row r="57">
@@ -2344,31 +2857,40 @@
         <v>8</v>
       </c>
       <c r="C57" t="n">
-        <v>46.14</v>
+        <v>44.6048139182953</v>
       </c>
       <c r="D57" t="n">
-        <v>1.12108181818182</v>
+        <v>1.09641842582332</v>
       </c>
       <c r="E57" t="n">
-        <v>67.3739130434783</v>
+        <v>60.9065308803709</v>
       </c>
       <c r="F57" t="n">
-        <v>2.85011643709902</v>
+        <v>2.61237176114273</v>
       </c>
       <c r="G57" t="n">
-        <v>4.165</v>
+        <v>4.54845016826643</v>
       </c>
       <c r="H57" t="n">
-        <v>218.345125</v>
+        <v>228.037195738149</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>246.162507705217</v>
+        <v>0.103384688782088</v>
       </c>
       <c r="K57" t="n">
-        <v>0.127400979093156</v>
+        <v>240.972438400394</v>
+      </c>
+      <c r="L57" t="n">
+        <v>221.190421330319</v>
+      </c>
+      <c r="M57" t="n">
+        <v>220.499910750953</v>
+      </c>
+      <c r="N57" t="n">
+        <v>251.612750250278</v>
       </c>
     </row>
     <row r="58">
@@ -2379,31 +2901,40 @@
         <v>9</v>
       </c>
       <c r="C58" t="n">
-        <v>46.19</v>
+        <v>46.0046477265973</v>
       </c>
       <c r="D58" t="n">
-        <v>1.12092272727273</v>
+        <v>1.13034598821604</v>
       </c>
       <c r="E58" t="n">
-        <v>72.9</v>
+        <v>66.5433226484573</v>
       </c>
       <c r="F58" t="n">
-        <v>2.76182132298427</v>
+        <v>2.608855834177</v>
       </c>
       <c r="G58" t="n">
-        <v>4.11</v>
+        <v>4.2053621001821</v>
       </c>
       <c r="H58" t="n">
-        <v>234.95507</v>
+        <v>233.045110933384</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>248.16584749</v>
+        <v>0.0584147036400358</v>
       </c>
       <c r="K58" t="n">
-        <v>0.0562268245158533</v>
+        <v>240.699476447214</v>
+      </c>
+      <c r="L58" t="n">
+        <v>224.556246842377</v>
+      </c>
+      <c r="M58" t="n">
+        <v>235.507496199191</v>
+      </c>
+      <c r="N58" t="n">
+        <v>246.658372023317</v>
       </c>
     </row>
     <row r="59">
@@ -2414,31 +2945,40 @@
         <v>10</v>
       </c>
       <c r="C59" t="n">
-        <v>49.73</v>
+        <v>52.0294817635044</v>
       </c>
       <c r="D59" t="n">
-        <v>1.10388571428571</v>
+        <v>0.995798048048381</v>
       </c>
       <c r="E59" t="n">
-        <v>93.17</v>
+        <v>93.81398149624</v>
       </c>
       <c r="F59" t="n">
-        <v>2.84000203845094</v>
+        <v>2.6010676470985</v>
       </c>
       <c r="G59" t="n">
-        <v>5.2525</v>
+        <v>5.57974305899325</v>
       </c>
       <c r="H59" t="n">
-        <v>235.83091875</v>
+        <v>258.294879486284</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>294.33011233</v>
+        <v>0.181244985522576</v>
       </c>
       <c r="K59" t="n">
-        <v>0.248055657375503</v>
+        <v>285.247438251147</v>
+      </c>
+      <c r="L59" t="n">
+        <v>241.123287524751</v>
+      </c>
+      <c r="M59" t="n">
+        <v>250.093494246859</v>
+      </c>
+      <c r="N59" t="n">
+        <v>305.109531179331</v>
       </c>
     </row>
     <row r="60">
@@ -2449,31 +2989,40 @@
         <v>11</v>
       </c>
       <c r="C60" t="n">
-        <v>46.44</v>
+        <v>43.9726989548374</v>
       </c>
       <c r="D60" t="n">
-        <v>1.08137619047619</v>
+        <v>1.08171172611141</v>
       </c>
       <c r="E60" t="n">
-        <v>100.01</v>
+        <v>98.8286167717218</v>
       </c>
       <c r="F60" t="n">
-        <v>2.9181827539176</v>
+        <v>2.72110480394643</v>
       </c>
       <c r="G60" t="n">
-        <v>5.655</v>
+        <v>5.17060054513835</v>
       </c>
       <c r="H60" t="n">
-        <v>268.24530625</v>
+        <v>283.508077765638</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>307.57269464</v>
+        <v>0.0301560524702047</v>
       </c>
       <c r="K60" t="n">
-        <v>0.146609791387543</v>
+        <v>299.187373451483</v>
+      </c>
+      <c r="L60" t="n">
+        <v>258.455718244085</v>
+      </c>
+      <c r="M60" t="n">
+        <v>280.034183324868</v>
+      </c>
+      <c r="N60" t="n">
+        <v>292.057562234465</v>
       </c>
     </row>
     <row r="61">
@@ -2484,31 +3033,40 @@
         <v>12</v>
       </c>
       <c r="C61" t="n">
-        <v>54.07</v>
+        <v>58.6199245509873</v>
       </c>
       <c r="D61" t="n">
-        <v>1.05502608695652</v>
+        <v>1.0961773304037</v>
       </c>
       <c r="E61" t="n">
-        <v>86.32</v>
+        <v>92.5585444716029</v>
       </c>
       <c r="F61" t="n">
-        <v>2.99636346938427</v>
+        <v>2.96289815007277</v>
       </c>
       <c r="G61" t="n">
-        <v>5.3625</v>
+        <v>5.80231812982704</v>
       </c>
       <c r="H61" t="n">
-        <v>316.81850625</v>
+        <v>310.379694631009</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>295.73664447</v>
+        <v>0.013318437071562</v>
       </c>
       <c r="K61" t="n">
-        <v>0.066542393717886</v>
+        <v>290.12803058834</v>
+      </c>
+      <c r="L61" t="n">
+        <v>266.630202820056</v>
+      </c>
+      <c r="M61" t="n">
+        <v>313.064039272931</v>
+      </c>
+      <c r="N61" t="n">
+        <v>314.513467062243</v>
       </c>
     </row>
     <row r="62">
@@ -2519,31 +3077,40 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>54.89</v>
+        <v>50.7776338823382</v>
       </c>
       <c r="D62" t="n">
-        <v>1.06598125</v>
+        <v>1.0912906179784</v>
       </c>
       <c r="E62" t="n">
-        <v>83.73</v>
+        <v>86.0252461062265</v>
       </c>
       <c r="F62" t="n">
-        <v>3.01905396279001</v>
+        <v>2.75248853407125</v>
       </c>
       <c r="G62" t="n">
-        <v>6.1125</v>
+        <v>5.92943654558156</v>
       </c>
       <c r="H62" t="n">
-        <v>351.2602375</v>
+        <v>320.779373172467</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>315.10785709</v>
+        <v>0.0367720601037886</v>
       </c>
       <c r="K62" t="n">
-        <v>0.102921926681212</v>
+        <v>314.726416816129</v>
+      </c>
+      <c r="L62" t="n">
+        <v>276.063610408331</v>
+      </c>
+      <c r="M62" t="n">
+        <v>343.395849326813</v>
+      </c>
+      <c r="N62" t="n">
+        <v>308.983654782113</v>
       </c>
     </row>
     <row r="63">
@@ -2554,31 +3121,40 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>55.49</v>
+        <v>53.324006136253</v>
       </c>
       <c r="D63" t="n">
-        <v>1.06586111111111</v>
+        <v>1.08828196939185</v>
       </c>
       <c r="E63" t="n">
-        <v>80.41</v>
+        <v>74.4793666116898</v>
       </c>
       <c r="F63" t="n">
-        <v>3.04174445619575</v>
+        <v>3.12664137042295</v>
       </c>
       <c r="G63" t="n">
-        <v>6.2475</v>
+        <v>6.76693639129819</v>
       </c>
       <c r="H63" t="n">
-        <v>412.69965</v>
+        <v>379.569851041436</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>317.08266789</v>
+        <v>0.140628609160303</v>
       </c>
       <c r="K63" t="n">
-        <v>0.231686608190727</v>
+        <v>318.871097867055</v>
+      </c>
+      <c r="L63" t="n">
+        <v>283.071284628594</v>
+      </c>
+      <c r="M63" t="n">
+        <v>391.779859515208</v>
+      </c>
+      <c r="N63" t="n">
+        <v>326.191470810296</v>
       </c>
     </row>
     <row r="64">
@@ -2589,31 +3165,40 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>51.97</v>
+        <v>51.2663501171251</v>
       </c>
       <c r="D64" t="n">
-        <v>1.06896363636364</v>
+        <v>1.15525998692029</v>
       </c>
       <c r="E64" t="n">
-        <v>80.55</v>
+        <v>80.9091786169913</v>
       </c>
       <c r="F64" t="n">
-        <v>3.06443494960149</v>
+        <v>3.15773607809287</v>
       </c>
       <c r="G64" t="n">
-        <v>5.08</v>
+        <v>5.42805432211794</v>
       </c>
       <c r="H64" t="n">
-        <v>401.897885</v>
+        <v>428.492133888839</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>283.08094587</v>
+        <v>0.317664228320815</v>
       </c>
       <c r="K64" t="n">
-        <v>0.295639622811152</v>
+        <v>278.977562826584</v>
+      </c>
+      <c r="L64" t="n">
+        <v>282.279854236746</v>
+      </c>
+      <c r="M64" t="n">
+        <v>376.819116525086</v>
+      </c>
+      <c r="N64" t="n">
+        <v>292.375510835502</v>
       </c>
     </row>
     <row r="65">
@@ -2624,31 +3209,40 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>52.98</v>
+        <v>55.2409463340947</v>
       </c>
       <c r="D65" t="n">
-        <v>1.0713380952381</v>
+        <v>1.04378503874453</v>
       </c>
       <c r="E65" t="n">
-        <v>84.6421052631579</v>
+        <v>78.3374950324872</v>
       </c>
       <c r="F65" t="n">
-        <v>3.01574387630643</v>
+        <v>2.83204024283003</v>
       </c>
       <c r="G65" t="n">
-        <v>4.99</v>
+        <v>4.63993922928674</v>
       </c>
       <c r="H65" t="n">
-        <v>327.4513125</v>
+        <v>322.965616970571</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>283.825698485263</v>
+        <v>0.158703017074588</v>
       </c>
       <c r="K65" t="n">
-        <v>0.133227787916522</v>
+        <v>277.621598418856</v>
+      </c>
+      <c r="L65" t="n">
+        <v>282.854969461184</v>
+      </c>
+      <c r="M65" t="n">
+        <v>318.7936930075</v>
+      </c>
+      <c r="N65" t="n">
+        <v>271.709999145986</v>
       </c>
     </row>
     <row r="66">
@@ -2659,31 +3253,40 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>50.87</v>
+        <v>48.7216141597168</v>
       </c>
       <c r="D66" t="n">
-        <v>1.10552631578947</v>
+        <v>1.13393343468749</v>
       </c>
       <c r="E66" t="n">
-        <v>74.52</v>
+        <v>72.1666495964695</v>
       </c>
       <c r="F66" t="n">
-        <v>2.96705280301138</v>
+        <v>2.78596477703719</v>
       </c>
       <c r="G66" t="n">
-        <v>5.1925</v>
+        <v>5.27011971288978</v>
       </c>
       <c r="H66" t="n">
-        <v>307.4268</v>
+        <v>322.85471277409</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>281.67619047</v>
+        <v>0.129713732388789</v>
       </c>
       <c r="K66" t="n">
-        <v>0.0837617589943362</v>
+        <v>280.773303107501</v>
+      </c>
+      <c r="L66" t="n">
+        <v>280.234284177985</v>
+      </c>
+      <c r="M66" t="n">
+        <v>299.783801920249</v>
+      </c>
+      <c r="N66" t="n">
+        <v>280.976022960852</v>
       </c>
     </row>
     <row r="67">
@@ -2694,31 +3297,40 @@
         <v>6</v>
       </c>
       <c r="C67" t="n">
-        <v>46.89</v>
+        <v>46.838127799626</v>
       </c>
       <c r="D67" t="n">
-        <v>1.12217619047619</v>
+        <v>1.21003910679679</v>
       </c>
       <c r="E67" t="n">
-        <v>80.9522727272727</v>
+        <v>82.1718972276918</v>
       </c>
       <c r="F67" t="n">
-        <v>2.91836172971633</v>
+        <v>3.0549115879135</v>
       </c>
       <c r="G67" t="n">
-        <v>4.918</v>
+        <v>4.92672306221891</v>
       </c>
       <c r="H67" t="n">
-        <v>300.83554</v>
+        <v>329.346716824666</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>275.73800211</v>
+        <v>0.159819257188718</v>
       </c>
       <c r="K67" t="n">
-        <v>0.0834261068024076</v>
+        <v>271.512662976207</v>
+      </c>
+      <c r="L67" t="n">
+        <v>278.621546416818</v>
+      </c>
+      <c r="M67" t="n">
+        <v>295.012047546525</v>
+      </c>
+      <c r="N67" t="n">
+        <v>276.710769184205</v>
       </c>
     </row>
     <row r="68">
@@ -2729,31 +3341,40 @@
         <v>7</v>
       </c>
       <c r="C68" t="n">
-        <v>48.69</v>
+        <v>47.2564372066394</v>
       </c>
       <c r="D68" t="n">
-        <v>1.1496</v>
+        <v>1.10686428075839</v>
       </c>
       <c r="E68" t="n">
-        <v>87.5309523809524</v>
+        <v>84.7717190372283</v>
       </c>
       <c r="F68" t="n">
-        <v>3.06588456875344</v>
+        <v>3.26014706728554</v>
       </c>
       <c r="G68" t="n">
-        <v>4.9825</v>
+        <v>5.26312846536154</v>
       </c>
       <c r="H68" t="n">
-        <v>298.4081</v>
+        <v>322.600799656586</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>282.759774509048</v>
+        <v>0.107887605707124</v>
       </c>
       <c r="K68" t="n">
-        <v>0.0524393456174695</v>
+        <v>275.924872434025</v>
+      </c>
+      <c r="L68" t="n">
+        <v>280.372582390887</v>
+      </c>
+      <c r="M68" t="n">
+        <v>296.114900803902</v>
+      </c>
+      <c r="N68" t="n">
+        <v>287.796171782433</v>
       </c>
     </row>
     <row r="69">
@@ -2764,31 +3385,40 @@
         <v>8</v>
       </c>
       <c r="C69" t="n">
-        <v>51.37</v>
+        <v>47.008254436553</v>
       </c>
       <c r="D69" t="n">
-        <v>1.18050869565217</v>
+        <v>1.18587741027581</v>
       </c>
       <c r="E69" t="n">
-        <v>95.89</v>
+        <v>93.1835466277837</v>
       </c>
       <c r="F69" t="n">
-        <v>3.21340740779054</v>
+        <v>2.98745051723486</v>
       </c>
       <c r="G69" t="n">
-        <v>5.544</v>
+        <v>5.30977865133136</v>
       </c>
       <c r="H69" t="n">
-        <v>305.06503125</v>
+        <v>308.028606051936</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>305.02685703</v>
+        <v>0.0448787955167167</v>
       </c>
       <c r="K69" t="n">
-        <v>0.000125134696178142</v>
+        <v>297.53695142606</v>
+      </c>
+      <c r="L69" t="n">
+        <v>288.111373204185</v>
+      </c>
+      <c r="M69" t="n">
+        <v>307.75685575324</v>
+      </c>
+      <c r="N69" t="n">
+        <v>294.204653227632</v>
       </c>
     </row>
     <row r="70">
@@ -2799,31 +3429,40 @@
         <v>9</v>
       </c>
       <c r="C70" t="n">
-        <v>55.16</v>
+        <v>57.4255633399039</v>
       </c>
       <c r="D70" t="n">
-        <v>1.19133636363636</v>
+        <v>1.23690575274889</v>
       </c>
       <c r="E70" t="n">
-        <v>96.8690476190476</v>
+        <v>92.6540540891633</v>
       </c>
       <c r="F70" t="n">
-        <v>3.36093024682764</v>
+        <v>3.22117989792373</v>
       </c>
       <c r="G70" t="n">
-        <v>5.935</v>
+        <v>5.35801946328604</v>
       </c>
       <c r="H70" t="n">
-        <v>318.439145</v>
+        <v>328.992959156169</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>318.688864540952</v>
+        <v>0.0829861733582574</v>
       </c>
       <c r="K70" t="n">
-        <v>0.000784198629073751</v>
+        <v>312.478449168285</v>
+      </c>
+      <c r="L70" t="n">
+        <v>297.120343819498</v>
+      </c>
+      <c r="M70" t="n">
+        <v>321.24932809965</v>
+      </c>
+      <c r="N70" t="n">
+        <v>301.691092413989</v>
       </c>
     </row>
     <row r="71">
@@ -2834,31 +3473,40 @@
         <v>10</v>
       </c>
       <c r="C71" t="n">
-        <v>57.62</v>
+        <v>58.5945432061022</v>
       </c>
       <c r="D71" t="n">
-        <v>1.17605238095238</v>
+        <v>1.19516431314448</v>
       </c>
       <c r="E71" t="n">
-        <v>97.1409090909091</v>
+        <v>93.6486126083005</v>
       </c>
       <c r="F71" t="n">
-        <v>3.36131575384284</v>
+        <v>3.5074025980663</v>
       </c>
       <c r="G71" t="n">
-        <v>6.175</v>
+        <v>5.95346835363307</v>
       </c>
       <c r="H71" t="n">
-        <v>296.457925</v>
+        <v>273.271991563444</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>326.95125082</v>
+        <v>0.168476954554508</v>
       </c>
       <c r="K71" t="n">
-        <v>0.10285886545283</v>
+        <v>321.973339056664</v>
+      </c>
+      <c r="L71" t="n">
+        <v>305.923719785139</v>
+      </c>
+      <c r="M71" t="n">
+        <v>305.39669480651</v>
+      </c>
+      <c r="N71" t="n">
+        <v>319.312024467098</v>
       </c>
     </row>
     <row r="72">
@@ -2869,31 +3517,40 @@
         <v>11</v>
       </c>
       <c r="C72" t="n">
-        <v>62.57</v>
+        <v>60.4819708168539</v>
       </c>
       <c r="D72" t="n">
-        <v>1.17319047619048</v>
+        <v>1.18776461182112</v>
       </c>
       <c r="E72" t="n">
-        <v>96.6272727272727</v>
+        <v>104.52002361094</v>
       </c>
       <c r="F72" t="n">
-        <v>3.36170126085804</v>
+        <v>3.42369890587663</v>
       </c>
       <c r="G72" t="n">
-        <v>6.56</v>
+        <v>6.06955562412739</v>
       </c>
       <c r="H72" t="n">
-        <v>326.98085</v>
+        <v>347.746700273023</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>340.23478367</v>
+        <v>0.0496051270874744</v>
       </c>
       <c r="K72" t="n">
-        <v>0.0405342810442875</v>
+        <v>337.028211770118</v>
+      </c>
+      <c r="L72" t="n">
+        <v>315.343799059014</v>
+      </c>
+      <c r="M72" t="n">
+        <v>332.096996997861</v>
+      </c>
+      <c r="N72" t="n">
+        <v>330.49668101173</v>
       </c>
     </row>
     <row r="73">
@@ -2904,31 +3561,40 @@
         <v>12</v>
       </c>
       <c r="C73" t="n">
-        <v>64.21</v>
+        <v>64.3689077621843</v>
       </c>
       <c r="D73" t="n">
-        <v>1.18380909090909</v>
+        <v>1.29312124870263</v>
       </c>
       <c r="E73" t="n">
-        <v>102.155</v>
+        <v>100.876382954359</v>
       </c>
       <c r="F73" t="n">
-        <v>3.36208676787324</v>
+        <v>3.1860259840624</v>
       </c>
       <c r="G73" t="n">
-        <v>7.46333333333333</v>
+        <v>7.00903347667586</v>
       </c>
       <c r="H73" t="n">
-        <v>367.56368125</v>
+        <v>359.01313341012</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>369.410512976667</v>
+        <v>0.0075696557258792</v>
       </c>
       <c r="K73" t="n">
-        <v>0.00502452179275692</v>
+        <v>369.033829312493</v>
+      </c>
+      <c r="L73" t="n">
+        <v>329.709468681721</v>
+      </c>
+      <c r="M73" t="n">
+        <v>371.255966927199</v>
+      </c>
+      <c r="N73" t="n">
+        <v>356.295527589136</v>
       </c>
     </row>
     <row r="74">
@@ -2939,31 +3605,40 @@
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>68.99</v>
+        <v>72.5333802026096</v>
       </c>
       <c r="D74" t="n">
-        <v>1.22171875</v>
+        <v>1.18919136543819</v>
       </c>
       <c r="E74" t="n">
-        <v>106.776086956522</v>
+        <v>112.740151621966</v>
       </c>
       <c r="F74" t="n">
-        <v>3.35272444524883</v>
+        <v>3.19443602667359</v>
       </c>
       <c r="G74" t="n">
-        <v>6.7625</v>
+        <v>7.24532767633849</v>
       </c>
       <c r="H74" t="n">
-        <v>431.8401</v>
+        <v>426.148754222649</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>356.154485824783</v>
+        <v>0.119308857576634</v>
       </c>
       <c r="K74" t="n">
-        <v>0.175263052632716</v>
+        <v>348.92482066583</v>
+      </c>
+      <c r="L74" t="n">
+        <v>339.956680838056</v>
+      </c>
+      <c r="M74" t="n">
+        <v>421.21251506788</v>
+      </c>
+      <c r="N74" t="n">
+        <v>375.305433198639</v>
       </c>
     </row>
     <row r="75">
@@ -2974,31 +3649,40 @@
         <v>2</v>
       </c>
       <c r="C75" t="n">
-        <v>65.42</v>
+        <v>63.8556863333629</v>
       </c>
       <c r="D75" t="n">
-        <v>1.23760526315789</v>
+        <v>1.31797049288671</v>
       </c>
       <c r="E75" t="n">
-        <v>104.705</v>
+        <v>99.9372619650443</v>
       </c>
       <c r="F75" t="n">
-        <v>3.34336212262442</v>
+        <v>3.6733775011357</v>
       </c>
       <c r="G75" t="n">
-        <v>6.5925</v>
+        <v>7.23967604961013</v>
       </c>
       <c r="H75" t="n">
-        <v>412.355775</v>
+        <v>424.554849501109</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>347.98026212</v>
+        <v>0.148083556975482</v>
       </c>
       <c r="K75" t="n">
-        <v>0.156116433388134</v>
+        <v>341.301017548558</v>
+      </c>
+      <c r="L75" t="n">
+        <v>345.966427316259</v>
+      </c>
+      <c r="M75" t="n">
+        <v>403.567645654752</v>
+      </c>
+      <c r="N75" t="n">
+        <v>361.685257255795</v>
       </c>
     </row>
     <row r="76">
@@ -3009,31 +3693,40 @@
         <v>3</v>
       </c>
       <c r="C76" t="n">
-        <v>66.45</v>
+        <v>65.373471398293</v>
       </c>
       <c r="D76" t="n">
-        <v>1.23292857142857</v>
+        <v>1.15424208784958</v>
       </c>
       <c r="E76" t="n">
-        <v>95.85</v>
+        <v>93.3764931200235</v>
       </c>
       <c r="F76" t="n">
-        <v>3.33399980000001</v>
+        <v>3.47241411996926</v>
       </c>
       <c r="G76" t="n">
-        <v>6.784</v>
+        <v>7.08662975150943</v>
       </c>
       <c r="H76" t="n">
-        <v>389.85887</v>
+        <v>412.674896671851</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>348.28667811</v>
+        <v>0.1413905352792</v>
       </c>
       <c r="K76" t="n">
-        <v>0.106633951639987</v>
+        <v>346.254582082701</v>
+      </c>
+      <c r="L76" t="n">
+        <v>348.510709653008</v>
+      </c>
+      <c r="M76" t="n">
+        <v>383.431839588428</v>
+      </c>
+      <c r="N76" t="n">
+        <v>354.326572135129</v>
       </c>
     </row>
     <row r="77">
@@ -3044,31 +3737,40 @@
         <v>4</v>
       </c>
       <c r="C77" t="n">
-        <v>71.63</v>
+        <v>67.2779141358836</v>
       </c>
       <c r="D77" t="n">
-        <v>1.2284</v>
+        <v>1.14578707043536</v>
       </c>
       <c r="E77" t="n">
-        <v>94.2075</v>
+        <v>92.3099650921348</v>
       </c>
       <c r="F77" t="n">
-        <v>3.28533936666667</v>
+        <v>3.20364603381958</v>
       </c>
       <c r="G77" t="n">
-        <v>6.8425</v>
+        <v>6.46477575362858</v>
       </c>
       <c r="H77" t="n">
-        <v>388.99829375</v>
+        <v>374.190632104746</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>352.08489333</v>
+        <v>0.0970986397273873</v>
       </c>
       <c r="K77" t="n">
-        <v>0.0948934764318616</v>
+        <v>350.375040432532</v>
+      </c>
+      <c r="L77" t="n">
+        <v>350.900427146589</v>
+      </c>
+      <c r="M77" t="n">
+        <v>383.112628161597</v>
+      </c>
+      <c r="N77" t="n">
+        <v>337.857230728644</v>
       </c>
     </row>
     <row r="78">
@@ -3079,31 +3781,40 @@
         <v>5</v>
       </c>
       <c r="C78" t="n">
-        <v>76.65</v>
+        <v>82.2792452439736</v>
       </c>
       <c r="D78" t="n">
-        <v>1.18135263157895</v>
+        <v>1.16988294403314</v>
       </c>
       <c r="E78" t="n">
-        <v>105.445454545455</v>
+        <v>105.247598625089</v>
       </c>
       <c r="F78" t="n">
-        <v>3.23667893333334</v>
+        <v>3.44739571359912</v>
       </c>
       <c r="G78" t="n">
-        <v>7.414</v>
+        <v>6.72908922933843</v>
       </c>
       <c r="H78" t="n">
-        <v>387.2764875</v>
+        <v>415.701674959321</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>377.89570951</v>
+        <v>0.127800705554757</v>
       </c>
       <c r="K78" t="n">
-        <v>0.0242224309834964</v>
+        <v>374.934567045424</v>
+      </c>
+      <c r="L78" t="n">
+        <v>360.590146464617</v>
+      </c>
+      <c r="M78" t="n">
+        <v>389.531190810064</v>
+      </c>
+      <c r="N78" t="n">
+        <v>362.574707599226</v>
       </c>
     </row>
     <row r="79">
@@ -3114,31 +3825,40 @@
         <v>6</v>
       </c>
       <c r="C79" t="n">
-        <v>75.19</v>
+        <v>77.1239900071029</v>
       </c>
       <c r="D79" t="n">
-        <v>1.16736666666667</v>
+        <v>1.07983374161137</v>
       </c>
       <c r="E79" t="n">
-        <v>114.75</v>
+        <v>116.998452922585</v>
       </c>
       <c r="F79" t="n">
-        <v>3.1880185</v>
+        <v>2.94118688518302</v>
       </c>
       <c r="G79" t="n">
-        <v>7.4725</v>
+        <v>6.87856452923908</v>
       </c>
       <c r="H79" t="n">
-        <v>433.77583</v>
+        <v>476.722019844141</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>384.43289199</v>
+        <v>0.222127444398568</v>
       </c>
       <c r="K79" t="n">
-        <v>0.113752160903017</v>
+        <v>378.847562469259</v>
+      </c>
+      <c r="L79" t="n">
+        <v>371.87963741472</v>
+      </c>
+      <c r="M79" t="n">
+        <v>430.106671680424</v>
+      </c>
+      <c r="N79" t="n">
+        <v>370.828975887639</v>
       </c>
     </row>
     <row r="80">
@@ -3149,31 +3869,40 @@
         <v>7</v>
       </c>
       <c r="C80" t="n">
-        <v>74.44</v>
+        <v>69.7856498772036</v>
       </c>
       <c r="D80" t="n">
-        <v>1.16839047619048</v>
+        <v>1.10292075336079</v>
       </c>
       <c r="E80" t="n">
-        <v>119.57</v>
+        <v>128.978417284873</v>
       </c>
       <c r="F80" t="n">
-        <v>3.101458</v>
+        <v>3.27240218329084</v>
       </c>
       <c r="G80" t="n">
-        <v>7.6075</v>
+        <v>8.25926126809313</v>
       </c>
       <c r="H80" t="n">
-        <v>408.3903125</v>
+        <v>424.866984502597</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>390.68325934</v>
+        <v>0.0314653793410081</v>
       </c>
       <c r="K80" t="n">
-        <v>0.0433581615871459</v>
+        <v>384.34897862091</v>
+      </c>
+      <c r="L80" t="n">
+        <v>383.241752411331</v>
+      </c>
+      <c r="M80" t="n">
+        <v>412.289897165309</v>
+      </c>
+      <c r="N80" t="n">
+        <v>411.498383665753</v>
       </c>
     </row>
     <row r="81">
@@ -3184,31 +3913,40 @@
         <v>8</v>
       </c>
       <c r="C81" t="n">
-        <v>73.13</v>
+        <v>74.0856755586872</v>
       </c>
       <c r="D81" t="n">
-        <v>1.15482173913043</v>
+        <v>1.21975711824709</v>
       </c>
       <c r="E81" t="n">
-        <v>117.34</v>
+        <v>125.928468557118</v>
       </c>
       <c r="F81" t="n">
-        <v>3.0148975</v>
+        <v>3.21314313303534</v>
       </c>
       <c r="G81" t="n">
-        <v>7.91</v>
+        <v>8.16513148011593</v>
       </c>
       <c r="H81" t="n">
-        <v>408.34485</v>
+        <v>369.261200638779</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>396.72700423</v>
+        <v>0.109493833941238</v>
       </c>
       <c r="K81" t="n">
-        <v>0.0284510647556838</v>
+        <v>393.603621842905</v>
+      </c>
+      <c r="L81" t="n">
+        <v>392.782377351132</v>
+      </c>
+      <c r="M81" t="n">
+        <v>412.75457482011</v>
+      </c>
+      <c r="N81" t="n">
+        <v>409.693025222463</v>
       </c>
     </row>
     <row r="82">
@@ -3219,31 +3957,40 @@
         <v>9</v>
       </c>
       <c r="C82" t="n">
-        <v>78.86</v>
+        <v>81.3062870516153</v>
       </c>
       <c r="D82" t="n">
-        <v>1.16611428571429</v>
+        <v>1.26566894641208</v>
       </c>
       <c r="E82" t="n">
-        <v>114.16</v>
+        <v>115.230512838457</v>
       </c>
       <c r="F82" t="n">
-        <v>2.928337</v>
+        <v>3.03241388175666</v>
       </c>
       <c r="G82" t="n">
-        <v>9.475</v>
+        <v>8.56438874974148</v>
       </c>
       <c r="H82" t="n">
-        <v>430.7602375</v>
+        <v>395.749952632202</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>441.05518406</v>
+        <v>0.057181802594418</v>
       </c>
       <c r="K82" t="n">
-        <v>0.023899482040749</v>
+        <v>447.145211418397</v>
+      </c>
+      <c r="L82" t="n">
+        <v>407.884492997543</v>
+      </c>
+      <c r="M82" t="n">
+        <v>438.099940300937</v>
+      </c>
+      <c r="N82" t="n">
+        <v>418.379648300367</v>
       </c>
     </row>
     <row r="83">
@@ -3254,31 +4001,40 @@
         <v>10</v>
       </c>
       <c r="C83" t="n">
-        <v>80.47</v>
+        <v>74.8192236289354</v>
       </c>
       <c r="D83" t="n">
-        <v>1.14980454545455</v>
+        <v>1.09625778127134</v>
       </c>
       <c r="E83" t="n">
-        <v>108.73</v>
+        <v>112.55801784057</v>
       </c>
       <c r="F83" t="n">
-        <v>2.8434903</v>
+        <v>2.64386123981133</v>
       </c>
       <c r="G83" t="n">
-        <v>9.0525</v>
+        <v>8.70786034717143</v>
       </c>
       <c r="H83" t="n">
-        <v>418.818425</v>
+        <v>397.595883162489</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>427.10430207</v>
+        <v>0.0477218412134246</v>
       </c>
       <c r="K83" t="n">
-        <v>0.0197839363681291</v>
+        <v>433.000501571815</v>
+      </c>
+      <c r="L83" t="n">
+        <v>415.914621082354</v>
+      </c>
+      <c r="M83" t="n">
+        <v>424.613732747522</v>
+      </c>
+      <c r="N83" t="n">
+        <v>416.569890765881</v>
       </c>
     </row>
     <row r="84">
@@ -3289,31 +4045,40 @@
         <v>11</v>
       </c>
       <c r="C84" t="n">
-        <v>65.17</v>
+        <v>65.6587031786232</v>
       </c>
       <c r="D84" t="n">
-        <v>1.13665238095238</v>
+        <v>1.07598167980487</v>
       </c>
       <c r="E84" t="n">
-        <v>100.73</v>
+        <v>101.477471195458</v>
       </c>
       <c r="F84" t="n">
-        <v>2.7586436</v>
+        <v>2.89936744555654</v>
       </c>
       <c r="G84" t="n">
-        <v>8.214</v>
+        <v>7.67810724662868</v>
       </c>
       <c r="H84" t="n">
-        <v>382.87915</v>
+        <v>407.100295454123</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>389.61981803</v>
+        <v>0.0769947939460305</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01760521049527</v>
+        <v>396.987498492534</v>
+      </c>
+      <c r="L84" t="n">
+        <v>412.941933838518</v>
+      </c>
+      <c r="M84" t="n">
+        <v>386.658685342711</v>
+      </c>
+      <c r="N84" t="n">
+        <v>375.755692090265</v>
       </c>
     </row>
     <row r="85">
@@ -3324,31 +4089,40 @@
         <v>12</v>
       </c>
       <c r="C85" t="n">
-        <v>56.46</v>
+        <v>61.4123403983396</v>
       </c>
       <c r="D85" t="n">
-        <v>1.13835909090909</v>
+        <v>1.18561667196894</v>
       </c>
       <c r="E85" t="n">
-        <v>101.37</v>
+        <v>99.3940983375195</v>
       </c>
       <c r="F85" t="n">
-        <v>2.6737969</v>
+        <v>2.79419575944114</v>
       </c>
       <c r="G85" t="n">
-        <v>8.01666666666667</v>
+        <v>7.2590217075528</v>
       </c>
       <c r="H85" t="n">
-        <v>326.58625</v>
+        <v>317.277646887728</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>379.195615593333</v>
+        <v>0.135747482163435</v>
       </c>
       <c r="K85" t="n">
-        <v>0.161088734119496</v>
+        <v>386.95745447996</v>
+      </c>
+      <c r="L85" t="n">
+        <v>408.617757727763</v>
+      </c>
+      <c r="M85" t="n">
+        <v>339.912580444385</v>
+      </c>
+      <c r="N85" t="n">
+        <v>360.347288599477</v>
       </c>
     </row>
     <row r="86">
@@ -3359,31 +4133,40 @@
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>59.27</v>
+        <v>64.1660495270183</v>
       </c>
       <c r="D86" t="n">
-        <v>1.14274166666667</v>
+        <v>1.22097444173925</v>
       </c>
       <c r="E86" t="n">
-        <v>98.56</v>
+        <v>91.5993996567726</v>
       </c>
       <c r="F86" t="n">
-        <v>2.65741756666667</v>
+        <v>2.69646259753338</v>
       </c>
       <c r="G86" t="n">
-        <v>7.426</v>
+        <v>7.65649928380232</v>
       </c>
       <c r="H86" t="n">
-        <v>314.21551875</v>
+        <v>329.473230750766</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>363.04716881</v>
+        <v>0.11700396272376</v>
       </c>
       <c r="K86" t="n">
-        <v>0.15540814232938</v>
+        <v>368.17050433094</v>
+      </c>
+      <c r="L86" t="n">
+        <v>401.490553091027</v>
+      </c>
+      <c r="M86" t="n">
+        <v>326.383481116375</v>
+      </c>
+      <c r="N86" t="n">
+        <v>368.022904360005</v>
       </c>
     </row>
     <row r="87">
@@ -3394,31 +4177,40 @@
         <v>2</v>
       </c>
       <c r="C87" t="n">
-        <v>64.13</v>
+        <v>67.2781029804055</v>
       </c>
       <c r="D87" t="n">
-        <v>1.135505</v>
+        <v>1.13232481962183</v>
       </c>
       <c r="E87" t="n">
-        <v>95.42</v>
+        <v>90.7459114849195</v>
       </c>
       <c r="F87" t="n">
-        <v>2.64103823333333</v>
+        <v>2.77019822325471</v>
       </c>
       <c r="G87" t="n">
-        <v>5.9925</v>
+        <v>5.79934547124908</v>
       </c>
       <c r="H87" t="n">
-        <v>315.5239</v>
+        <v>327.695308857986</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>324.94677833</v>
+        <v>0.027461770428944</v>
       </c>
       <c r="K87" t="n">
-        <v>0.0298642300313858</v>
+        <v>322.508363018435</v>
+      </c>
+      <c r="L87" t="n">
+        <v>388.008740893581</v>
+      </c>
+      <c r="M87" t="n">
+        <v>319.613079154369</v>
+      </c>
+      <c r="N87" t="n">
+        <v>318.696215515486</v>
       </c>
     </row>
     <row r="88">
@@ -3429,31 +4221,40 @@
         <v>3</v>
       </c>
       <c r="C88" t="n">
-        <v>66.41</v>
+        <v>72.896336543947</v>
       </c>
       <c r="D88" t="n">
-        <v>1.13176666666667</v>
+        <v>1.04693488500867</v>
       </c>
       <c r="E88" t="n">
-        <v>93.12</v>
+        <v>97.7682083355188</v>
       </c>
       <c r="F88" t="n">
-        <v>2.6246589</v>
+        <v>2.72746438529561</v>
       </c>
       <c r="G88" t="n">
-        <v>5.2675</v>
+        <v>5.01956995643955</v>
       </c>
       <c r="H88" t="n">
-        <v>318.64856</v>
+        <v>302.393893010965</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>305.11860441</v>
+        <v>0.00966536832672693</v>
       </c>
       <c r="K88" t="n">
-        <v>0.0424604322392041</v>
+        <v>299.264022460352</v>
+      </c>
+      <c r="L88" t="n">
+        <v>373.03287021944</v>
+      </c>
+      <c r="M88" t="n">
+        <v>317.84943222349</v>
+      </c>
+      <c r="N88" t="n">
+        <v>305.316641366669</v>
       </c>
     </row>
     <row r="89">
@@ -3464,31 +4265,40 @@
         <v>4</v>
       </c>
       <c r="C89" t="n">
-        <v>71.2</v>
+        <v>70.6328697813302</v>
       </c>
       <c r="D89" t="n">
-        <v>1.12415714285714</v>
+        <v>1.07301728225268</v>
       </c>
       <c r="E89" t="n">
-        <v>86.77</v>
+        <v>85.3426795423753</v>
       </c>
       <c r="F89" t="n">
-        <v>2.60485196666667</v>
+        <v>2.52642407757816</v>
       </c>
       <c r="G89" t="n">
-        <v>4.935</v>
+        <v>5.24628489649482</v>
       </c>
       <c r="H89" t="n">
-        <v>305.3556625</v>
+        <v>285.612848212375</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>295.0324878</v>
+        <v>0.0583716373372396</v>
       </c>
       <c r="K89" t="n">
-        <v>0.0338070518014382</v>
+        <v>289.162188217023</v>
+      </c>
+      <c r="L89" t="n">
+        <v>357.677787267969</v>
+      </c>
+      <c r="M89" t="n">
+        <v>303.83333432955</v>
+      </c>
+      <c r="N89" t="n">
+        <v>302.284537807084</v>
       </c>
     </row>
     <row r="90">
@@ -3499,31 +4309,40 @@
         <v>5</v>
       </c>
       <c r="C90" t="n">
-        <v>70.53</v>
+        <v>75.917902377611</v>
       </c>
       <c r="D90" t="n">
-        <v>1.11841111111111</v>
+        <v>1.17790371938399</v>
       </c>
       <c r="E90" t="n">
-        <v>82.32</v>
+        <v>90.0587376790568</v>
       </c>
       <c r="F90" t="n">
-        <v>2.58504503333333</v>
+        <v>2.53216834780135</v>
       </c>
       <c r="G90" t="n">
-        <v>4.464</v>
+        <v>4.49263863413483</v>
       </c>
       <c r="H90" t="n">
-        <v>295.96278</v>
+        <v>320.092753704257</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>278.94993139</v>
+        <v>0.100383515892192</v>
       </c>
       <c r="K90" t="n">
-        <v>0.0574830680060513</v>
+        <v>272.507225929219</v>
+      </c>
+      <c r="L90" t="n">
+        <v>341.290809470113</v>
+      </c>
+      <c r="M90" t="n">
+        <v>292.189924306379</v>
+      </c>
+      <c r="N90" t="n">
+        <v>287.96071767581</v>
       </c>
     </row>
     <row r="91">
@@ -3534,31 +4353,40 @@
         <v>6</v>
       </c>
       <c r="C91" t="n">
-        <v>63.3</v>
+        <v>60.3081637138221</v>
       </c>
       <c r="D91" t="n">
-        <v>1.12829</v>
+        <v>1.20383170085926</v>
       </c>
       <c r="E91" t="n">
-        <v>72.49</v>
+        <v>72.8499368026904</v>
       </c>
       <c r="F91" t="n">
-        <v>2.5652381</v>
+        <v>2.58402462911389</v>
       </c>
       <c r="G91" t="n">
-        <v>3.6325</v>
+        <v>3.6304364211699</v>
       </c>
       <c r="H91" t="n">
-        <v>279.560475</v>
+        <v>287.630922650644</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>245.542613</v>
+        <v>0.152228434264454</v>
       </c>
       <c r="K91" t="n">
-        <v>0.12168337459006</v>
+        <v>239.579767619908</v>
+      </c>
+      <c r="L91" t="n">
+        <v>319.339232679913</v>
+      </c>
+      <c r="M91" t="n">
+        <v>270.226153088507</v>
+      </c>
+      <c r="N91" t="n">
+        <v>243.845317649496</v>
       </c>
     </row>
     <row r="92">
@@ -3569,31 +4397,40 @@
         <v>7</v>
       </c>
       <c r="C92" t="n">
-        <v>64</v>
+        <v>62.7046469062567</v>
       </c>
       <c r="D92" t="n">
-        <v>1.12252272727273</v>
+        <v>1.0771419672523</v>
       </c>
       <c r="E92" t="n">
-        <v>72.08</v>
+        <v>74.7743100126646</v>
       </c>
       <c r="F92" t="n">
-        <v>2.5109587</v>
+        <v>2.63292189583239</v>
       </c>
       <c r="G92" t="n">
-        <v>3.65</v>
+        <v>3.4542306636367</v>
       </c>
       <c r="H92" t="n">
-        <v>246.6103875</v>
+        <v>263.969421605509</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>246.1997508</v>
+        <v>0.0842215676630034</v>
       </c>
       <c r="K92" t="n">
-        <v>0.00166512329088331</v>
+        <v>240.62639562057</v>
+      </c>
+      <c r="L92" t="n">
+        <v>301.889806987011</v>
+      </c>
+      <c r="M92" t="n">
+        <v>244.026236465756</v>
+      </c>
+      <c r="N92" t="n">
+        <v>241.737503102797</v>
       </c>
     </row>
     <row r="93">
@@ -3604,31 +4441,40 @@
         <v>8</v>
       </c>
       <c r="C93" t="n">
-        <v>59.25</v>
+        <v>57.450229835452</v>
       </c>
       <c r="D93" t="n">
-        <v>1.11258695652174</v>
+        <v>1.18893714519188</v>
       </c>
       <c r="E93" t="n">
-        <v>65.55</v>
+        <v>65.107541951146</v>
       </c>
       <c r="F93" t="n">
-        <v>2.4566793</v>
+        <v>2.60660993234001</v>
       </c>
       <c r="G93" t="n">
-        <v>3.634</v>
+        <v>3.44290038224794</v>
       </c>
       <c r="H93" t="n">
-        <v>234.160145</v>
+        <v>229.028010794479</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>238.69234491</v>
+        <v>0.0132846794720072</v>
       </c>
       <c r="K93" t="n">
-        <v>0.0193551294136753</v>
+        <v>236.734341432474</v>
+      </c>
+      <c r="L93" t="n">
+        <v>284.808947185175</v>
+      </c>
+      <c r="M93" t="n">
+        <v>230.922761269925</v>
+      </c>
+      <c r="N93" t="n">
+        <v>232.070574507995</v>
       </c>
     </row>
     <row r="94">
@@ -3639,31 +4485,40 @@
         <v>9</v>
       </c>
       <c r="C94" t="n">
-        <v>62.33</v>
+        <v>63.8993306314182</v>
       </c>
       <c r="D94" t="n">
-        <v>1.10152</v>
+        <v>1.14889547048461</v>
       </c>
       <c r="E94" t="n">
-        <v>65.95</v>
+        <v>63.1187734377361</v>
       </c>
       <c r="F94" t="n">
-        <v>2.4023999</v>
+        <v>2.6392296831611</v>
       </c>
       <c r="G94" t="n">
-        <v>4.1125</v>
+        <v>3.7912614487682</v>
       </c>
       <c r="H94" t="n">
-        <v>235.53129375</v>
+        <v>221.956026653186</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>253.93741013</v>
+        <v>0.100944802940574</v>
       </c>
       <c r="K94" t="n">
-        <v>0.0781472223369892</v>
+        <v>254.303409184915</v>
+      </c>
+      <c r="L94" t="n">
+        <v>274.202729332318</v>
+      </c>
+      <c r="M94" t="n">
+        <v>234.997088644343</v>
+      </c>
+      <c r="N94" t="n">
+        <v>244.361334025165</v>
       </c>
     </row>
     <row r="95">
@@ -3674,31 +4529,40 @@
         <v>10</v>
       </c>
       <c r="C95" t="n">
-        <v>59.37</v>
+        <v>65.0371867492888</v>
       </c>
       <c r="D95" t="n">
-        <v>1.10387826086957</v>
+        <v>1.16951791453445</v>
       </c>
       <c r="E95" t="n">
-        <v>69.2</v>
+        <v>70.2338976825587</v>
       </c>
       <c r="F95" t="n">
-        <v>2.42049303333333</v>
+        <v>2.43897581676617</v>
       </c>
       <c r="G95" t="n">
-        <v>4.912</v>
+        <v>4.64308930469677</v>
       </c>
       <c r="H95" t="n">
-        <v>226.25415</v>
+        <v>247.499372821374</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>275.97364495</v>
+        <v>0.102284708579454</v>
       </c>
       <c r="K95" t="n">
-        <v>0.219750643026879</v>
+        <v>280.336574631707</v>
+      </c>
+      <c r="L95" t="n">
+        <v>270.629391934809</v>
+      </c>
+      <c r="M95" t="n">
+        <v>232.481171724159</v>
+      </c>
+      <c r="N95" t="n">
+        <v>272.814774044006</v>
       </c>
     </row>
     <row r="96">
@@ -3709,31 +4573,40 @@
         <v>11</v>
       </c>
       <c r="C96" t="n">
-        <v>62.74</v>
+        <v>59.0449453943912</v>
       </c>
       <c r="D96" t="n">
-        <v>1.10502</v>
+        <v>1.08260011858957</v>
       </c>
       <c r="E96" t="n">
-        <v>66.99</v>
+        <v>62.8190672783735</v>
       </c>
       <c r="F96" t="n">
-        <v>2.43858616666667</v>
+        <v>2.24115163331267</v>
       </c>
       <c r="G96" t="n">
-        <v>5.11</v>
+        <v>5.15105426699901</v>
       </c>
       <c r="H96" t="n">
-        <v>229.890105</v>
+        <v>209.202111617016</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>282.09615294</v>
+        <v>0.33023993003993</v>
       </c>
       <c r="K96" t="n">
-        <v>0.227091322351608</v>
+        <v>288.009710663165</v>
+      </c>
+      <c r="L96" t="n">
+        <v>268.404835569035</v>
+      </c>
+      <c r="M96" t="n">
+        <v>235.992378081136</v>
+      </c>
+      <c r="N96" t="n">
+        <v>278.289002321625</v>
       </c>
     </row>
     <row r="97">
@@ -3744,31 +4617,40 @@
         <v>12</v>
       </c>
       <c r="C97" t="n">
-        <v>65.85</v>
+        <v>70.3967566039762</v>
       </c>
       <c r="D97" t="n">
-        <v>1.11061428571429</v>
+        <v>1.03313739674672</v>
       </c>
       <c r="E97" t="n">
-        <v>66.18</v>
+        <v>67.7623729150761</v>
       </c>
       <c r="F97" t="n">
-        <v>2.4566793</v>
+        <v>2.48832867890211</v>
       </c>
       <c r="G97" t="n">
-        <v>4.86</v>
+        <v>4.72935742692836</v>
       </c>
       <c r="H97" t="n">
-        <v>224.708083333333</v>
+        <v>208.600731570235</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>276.69853255</v>
+        <v>0.327715150121033</v>
       </c>
       <c r="K97" t="n">
-        <v>0.231368842835725</v>
+        <v>281.060445891629</v>
+      </c>
+      <c r="L97" t="n">
+        <v>265.471215974429</v>
+      </c>
+      <c r="M97" t="n">
+        <v>230.705778681778</v>
+      </c>
+      <c r="N97" t="n">
+        <v>276.962351632132</v>
       </c>
     </row>
     <row r="98">
@@ -3779,31 +4661,40 @@
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>63.6</v>
+        <v>68.6980096399784</v>
       </c>
       <c r="D98" t="n">
-        <v>1.11056842105263</v>
+        <v>1.21450731541067</v>
       </c>
       <c r="E98" t="n">
-        <v>69.66</v>
+        <v>74.4207408072464</v>
       </c>
       <c r="F98" t="n">
-        <v>1.29954037702048</v>
+        <v>1.18851241556498</v>
       </c>
       <c r="G98" t="n">
-        <v>3.762</v>
+        <v>3.92203652253142</v>
       </c>
       <c r="H98" t="n">
-        <v>256.9306</v>
+        <v>246.79149297848</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>247.48803808</v>
+        <v>0.0455582497798555</v>
       </c>
       <c r="K98" t="n">
-        <v>0.0367514103808577</v>
+        <v>244.742878868814</v>
+      </c>
+      <c r="L98" t="n">
+        <v>258.560291399339</v>
+      </c>
+      <c r="M98" t="n">
+        <v>251.765318462415</v>
+      </c>
+      <c r="N98" t="n">
+        <v>258.034881459137</v>
       </c>
     </row>
     <row r="99">
@@ -3814,31 +4705,40 @@
         <v>2</v>
       </c>
       <c r="C99" t="n">
-        <v>55</v>
+        <v>49.944587924052</v>
       </c>
       <c r="D99" t="n">
-        <v>1.09178947368421</v>
+        <v>1.09377688471144</v>
       </c>
       <c r="E99" t="n">
-        <v>67.64</v>
+        <v>66.6676132727936</v>
       </c>
       <c r="F99" t="n">
-        <v>0.14240145404096</v>
+        <v>0.153778161372486</v>
       </c>
       <c r="G99" t="n">
-        <v>2.9275</v>
+        <v>2.95095248481794</v>
       </c>
       <c r="H99" t="n">
-        <v>266.43094375</v>
+        <v>285.298982275948</v>
       </c>
       <c r="I99" t="n">
-        <v>0.14240145404096</v>
+        <v>0.153778161372486</v>
       </c>
       <c r="J99" t="n">
-        <v>218.0543515</v>
+        <v>0.246655313043655</v>
       </c>
       <c r="K99" t="n">
-        <v>0.181572724132949</v>
+        <v>213.124559677219</v>
+      </c>
+      <c r="L99" t="n">
+        <v>246.894500858738</v>
+      </c>
+      <c r="M99" t="n">
+        <v>253.156446158533</v>
+      </c>
+      <c r="N99" t="n">
+        <v>214.928472491638</v>
       </c>
     </row>
     <row r="100">
@@ -3849,31 +4749,40 @@
         <v>3</v>
       </c>
       <c r="C100" t="n">
-        <v>32.98</v>
+        <v>35.8204161269637</v>
       </c>
       <c r="D100" t="n">
-        <v>1.10631</v>
+        <v>1.18928785527261</v>
       </c>
       <c r="E100" t="n">
-        <v>66.74</v>
+        <v>70.2645528646177</v>
       </c>
       <c r="F100" t="n">
-        <v>-1.01473746893856</v>
+        <v>-0.98093070687356</v>
       </c>
       <c r="G100" t="n">
-        <v>2.82</v>
+        <v>2.63467661722004</v>
       </c>
       <c r="H100" t="n">
-        <v>218.870075</v>
+        <v>239.221057831732</v>
       </c>
       <c r="I100" t="n">
-        <v>-1.01473746893856</v>
+        <v>-0.98093070687356</v>
       </c>
       <c r="J100" t="n">
-        <v>200.80893998</v>
+        <v>0.165059918746559</v>
       </c>
       <c r="K100" t="n">
-        <v>0.0825198923151099</v>
+        <v>199.383052758369</v>
+      </c>
+      <c r="L100" t="n">
+        <v>233.742714112083</v>
+      </c>
+      <c r="M100" t="n">
+        <v>211.446287735679</v>
+      </c>
+      <c r="N100" t="n">
+        <v>199.73524946356</v>
       </c>
     </row>
     <row r="101">
@@ -3884,31 +4793,40 @@
         <v>4</v>
       </c>
       <c r="C101" t="n">
-        <v>23.34</v>
+        <v>25.5757164418632</v>
       </c>
       <c r="D101" t="n">
-        <v>1.08867142857143</v>
+        <v>0.987887656123235</v>
       </c>
       <c r="E101" t="n">
-        <v>58.55</v>
+        <v>60.447715083214</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.89216450359739</v>
+        <v>-3.68366897757253</v>
       </c>
       <c r="G101" t="n">
-        <v>2.216</v>
+        <v>2.37134135396816</v>
       </c>
       <c r="H101" t="n">
-        <v>165.01195</v>
+        <v>176.761493615955</v>
       </c>
       <c r="I101" t="n">
-        <v>-3.89216450359739</v>
+        <v>-3.68366897757253</v>
       </c>
       <c r="J101" t="n">
-        <v>173.14335258</v>
+        <v>0.018182119343652</v>
       </c>
       <c r="K101" t="n">
-        <v>0.0492776588604642</v>
+        <v>173.102574790849</v>
+      </c>
+      <c r="L101" t="n">
+        <v>215.842208256213</v>
+      </c>
+      <c r="M101" t="n">
+        <v>161.159538589988</v>
+      </c>
+      <c r="N101" t="n">
+        <v>179.975392188242</v>
       </c>
     </row>
     <row r="102">
@@ -3919,31 +4837,40 @@
         <v>5</v>
       </c>
       <c r="C102" t="n">
-        <v>31.02</v>
+        <v>28.6606166342441</v>
       </c>
       <c r="D102" t="n">
-        <v>1.08883181818182</v>
+        <v>1.07888230868088</v>
       </c>
       <c r="E102" t="n">
-        <v>52.49</v>
+        <v>57.3373941212641</v>
       </c>
       <c r="F102" t="n">
-        <v>-6.76959153825622</v>
+        <v>-7.12064038635344</v>
       </c>
       <c r="G102" t="n">
-        <v>1.6025</v>
+        <v>1.44276073642145</v>
       </c>
       <c r="H102" t="n">
-        <v>161.55253</v>
+        <v>148.819927323294</v>
       </c>
       <c r="I102" t="n">
-        <v>-6.76959153825622</v>
+        <v>-7.12064038635344</v>
       </c>
       <c r="J102" t="n">
-        <v>157.36711272</v>
+        <v>0.0386969683132403</v>
       </c>
       <c r="K102" t="n">
-        <v>0.0259074697251723</v>
+        <v>154.235456685953</v>
+      </c>
+      <c r="L102" t="n">
+        <v>197.289967650107</v>
+      </c>
+      <c r="M102" t="n">
+        <v>154.096725428487</v>
+      </c>
+      <c r="N102" t="n">
+        <v>154.578807335302</v>
       </c>
     </row>
     <row r="103">
@@ -3954,31 +4881,40 @@
         <v>6</v>
       </c>
       <c r="C103" t="n">
-        <v>39.93</v>
+        <v>41.3548821754209</v>
       </c>
       <c r="D103" t="n">
-        <v>1.12609047619048</v>
+        <v>1.05087643907143</v>
       </c>
       <c r="E103" t="n">
-        <v>52.21</v>
+        <v>53.2878981742756</v>
       </c>
       <c r="F103" t="n">
-        <v>-9.64701857291505</v>
+        <v>-8.91924180192224</v>
       </c>
       <c r="G103" t="n">
-        <v>1.6725</v>
+        <v>1.66435530511464</v>
       </c>
       <c r="H103" t="n">
-        <v>173.4710625</v>
+        <v>170.745321845679</v>
       </c>
       <c r="I103" t="n">
-        <v>-9.64701857291505</v>
+        <v>-8.91924180192224</v>
       </c>
       <c r="J103" t="n">
-        <v>164.66409573</v>
+        <v>0.0277412742788268</v>
       </c>
       <c r="K103" t="n">
-        <v>0.0507690829990736</v>
+        <v>159.209478374736</v>
+      </c>
+      <c r="L103" t="n">
+        <v>184.050984979016</v>
+      </c>
+      <c r="M103" t="n">
+        <v>165.100499865677</v>
+      </c>
+      <c r="N103" t="n">
+        <v>166.008629040531</v>
       </c>
     </row>
     <row r="104">
@@ -3989,31 +4925,40 @@
         <v>7</v>
       </c>
       <c r="C104" t="n">
-        <v>42.81</v>
+        <v>38.5511582200457</v>
       </c>
       <c r="D104" t="n">
-        <v>1.14287826086957</v>
+        <v>1.13573674703457</v>
       </c>
       <c r="E104" t="n">
-        <v>51.56</v>
+        <v>50.4213852595352</v>
       </c>
       <c r="F104" t="n">
-        <v>-6.76959153825622</v>
+        <v>-6.32022548974088</v>
       </c>
       <c r="G104" t="n">
-        <v>1.796</v>
+        <v>1.95956169957407</v>
       </c>
       <c r="H104" t="n">
-        <v>191.14311</v>
+        <v>181.38980780365</v>
       </c>
       <c r="I104" t="n">
-        <v>-6.76959153825622</v>
+        <v>-6.32022548974088</v>
       </c>
       <c r="J104" t="n">
-        <v>169.42652055</v>
+        <v>0.0599214398511658</v>
       </c>
       <c r="K104" t="n">
-        <v>0.11361429376136</v>
+        <v>163.675663200106</v>
+      </c>
+      <c r="L104" t="n">
+        <v>174.332044870151</v>
+      </c>
+      <c r="M104" t="n">
+        <v>179.974588420542</v>
+      </c>
+      <c r="N104" t="n">
+        <v>170.520669345729</v>
       </c>
     </row>
     <row r="105">
@@ -4024,31 +4969,40 @@
         <v>8</v>
       </c>
       <c r="C105" t="n">
-        <v>44.26</v>
+        <v>41.9518028020039</v>
       </c>
       <c r="D105" t="n">
-        <v>1.18269047619048</v>
+        <v>1.24063263366411</v>
       </c>
       <c r="E105" t="n">
-        <v>50.14</v>
+        <v>50.9588300813716</v>
       </c>
       <c r="F105" t="n">
-        <v>-3.89216450359739</v>
+        <v>-3.6492306852301</v>
       </c>
       <c r="G105" t="n">
-        <v>2.64</v>
+        <v>2.57713883810118</v>
       </c>
       <c r="H105" t="n">
-        <v>223.1313625</v>
+        <v>225.575739357192</v>
       </c>
       <c r="I105" t="n">
-        <v>-3.89216450359739</v>
+        <v>-3.6492306852301</v>
       </c>
       <c r="J105" t="n">
-        <v>192.49439286</v>
+        <v>0.158369263045473</v>
       </c>
       <c r="K105" t="n">
-        <v>0.13730463210881</v>
+        <v>191.083352173552</v>
+      </c>
+      <c r="L105" t="n">
+        <v>170.572910018644</v>
+      </c>
+      <c r="M105" t="n">
+        <v>209.39798348267</v>
+      </c>
+      <c r="N105" t="n">
+        <v>189.851475754256</v>
       </c>
     </row>
     <row r="106">
@@ -4059,31 +5013,40 @@
         <v>9</v>
       </c>
       <c r="C106" t="n">
-        <v>41.09</v>
+        <v>41.24238683978</v>
       </c>
       <c r="D106" t="n">
-        <v>1.18105652173913</v>
+        <v>1.24222622327331</v>
       </c>
       <c r="E106" t="n">
-        <v>54.6</v>
+        <v>51.083232963765</v>
       </c>
       <c r="F106" t="n">
         <v>-3</v>
       </c>
       <c r="G106" t="n">
-        <v>3.74333333333333</v>
+        <v>3.39622396475387</v>
       </c>
       <c r="H106" t="n">
-        <v>241.47715</v>
+        <v>238.1854048711</v>
       </c>
       <c r="I106" t="n">
         <v>-3</v>
       </c>
       <c r="J106" t="n">
-        <v>223.460252056667</v>
+        <v>0.110516086807056</v>
       </c>
       <c r="K106" t="n">
-        <v>0.0746111917559629</v>
+        <v>226.974146137199</v>
+      </c>
+      <c r="L106" t="n">
+        <v>174.445345535436</v>
+      </c>
+      <c r="M106" t="n">
+        <v>230.857247584313</v>
+      </c>
+      <c r="N106" t="n">
+        <v>211.862085990192</v>
       </c>
     </row>
     <row r="107">
@@ -4094,28 +5057,37 @@
         <v>10</v>
       </c>
       <c r="C107" t="n">
-        <v>41.09</v>
+        <v>41.24238683978</v>
       </c>
       <c r="D107" t="n">
-        <v>1.18105652173913</v>
+        <v>1.24222622327331</v>
       </c>
       <c r="E107" t="n">
-        <v>54.6</v>
+        <v>51.083232963765</v>
       </c>
       <c r="F107" t="n">
         <v>-2</v>
       </c>
       <c r="G107" t="n">
-        <v>3.74333333333333</v>
+        <v>3.39622396475387</v>
       </c>
       <c r="H107"/>
       <c r="I107" t="n">
         <v>-2</v>
       </c>
-      <c r="J107" t="n">
-        <v>223.460252056667</v>
-      </c>
-      <c r="K107"/>
+      <c r="J107"/>
+      <c r="K107" t="n">
+        <v>229.163996408124</v>
+      </c>
+      <c r="L107" t="n">
+        <v>179.572898409062</v>
+      </c>
+      <c r="M107" t="n">
+        <v>224.454596507918</v>
+      </c>
+      <c r="N107" t="n">
+        <v>211.862085990192</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -4125,28 +5097,37 @@
         <v>11</v>
       </c>
       <c r="C108" t="n">
-        <v>41.09</v>
+        <v>41.24238683978</v>
       </c>
       <c r="D108" t="n">
-        <v>1.18105652173913</v>
+        <v>1.24222622327331</v>
       </c>
       <c r="E108" t="n">
-        <v>54.6</v>
+        <v>51.083232963765</v>
       </c>
       <c r="F108" t="n">
         <v>-2</v>
       </c>
       <c r="G108" t="n">
-        <v>3.74333333333333</v>
+        <v>3.39622396475387</v>
       </c>
       <c r="H108"/>
       <c r="I108" t="n">
         <v>-2</v>
       </c>
-      <c r="J108" t="n">
-        <v>223.460252056667</v>
-      </c>
-      <c r="K108"/>
+      <c r="J108"/>
+      <c r="K108" t="n">
+        <v>229.010591690114</v>
+      </c>
+      <c r="L108" t="n">
+        <v>183.663360993</v>
+      </c>
+      <c r="M108" t="n">
+        <v>219.371549355299</v>
+      </c>
+      <c r="N108" t="n">
+        <v>211.862085990192</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -4156,28 +5137,37 @@
         <v>12</v>
       </c>
       <c r="C109" t="n">
-        <v>41.09</v>
+        <v>41.24238683978</v>
       </c>
       <c r="D109" t="n">
-        <v>1.18105652173913</v>
+        <v>1.24222622327331</v>
       </c>
       <c r="E109" t="n">
-        <v>54.6</v>
+        <v>51.083232963765</v>
       </c>
       <c r="F109" t="n">
         <v>-2</v>
       </c>
       <c r="G109" t="n">
-        <v>3.74333333333333</v>
+        <v>3.39622396475387</v>
       </c>
       <c r="H109"/>
       <c r="I109" t="n">
         <v>-2</v>
       </c>
-      <c r="J109" t="n">
-        <v>223.460252056667</v>
-      </c>
-      <c r="K109"/>
+      <c r="J109"/>
+      <c r="K109" t="n">
+        <v>228.857444967703</v>
+      </c>
+      <c r="L109" t="n">
+        <v>186.928688984893</v>
+      </c>
+      <c r="M109" t="n">
+        <v>215.338369770789</v>
+      </c>
+      <c r="N109" t="n">
+        <v>211.862085990192</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -4205,10 +5195,19 @@
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
+      <c r="J110"/>
+      <c r="K110" t="n">
+        <v>227.612277443282</v>
+      </c>
+      <c r="L110" t="n">
+        <v>191.043830950561</v>
+      </c>
+      <c r="M110" t="n">
+        <v>213.646768802448</v>
+      </c>
+      <c r="N110" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K110"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -4236,10 +5235,19 @@
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
+      <c r="J111"/>
+      <c r="K111" t="n">
+        <v>227.612277443282</v>
+      </c>
+      <c r="L111" t="n">
+        <v>194.317866262773</v>
+      </c>
+      <c r="M111" t="n">
+        <v>212.300919412384</v>
+      </c>
+      <c r="N111" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K111"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -4267,10 +5275,19 @@
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
+      <c r="J112"/>
+      <c r="K112" t="n">
+        <v>227.612277443282</v>
+      </c>
+      <c r="L112" t="n">
+        <v>196.922711324022</v>
+      </c>
+      <c r="M112" t="n">
+        <v>211.23015236115</v>
+      </c>
+      <c r="N112" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K112"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -4298,10 +5315,19 @@
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
+      <c r="J113"/>
+      <c r="K113" t="n">
+        <v>227.612277443282</v>
+      </c>
+      <c r="L113" t="n">
+        <v>198.995144009096</v>
+      </c>
+      <c r="M113" t="n">
+        <v>210.378242714741</v>
+      </c>
+      <c r="N113" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K113"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -4329,10 +5355,19 @@
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
+      <c r="J114"/>
+      <c r="K114" t="n">
+        <v>227.612277443282</v>
+      </c>
+      <c r="L114" t="n">
+        <v>200.643985737941</v>
+      </c>
+      <c r="M114" t="n">
+        <v>209.700457528125</v>
+      </c>
+      <c r="N114" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K114"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -4360,10 +5395,19 @@
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
+      <c r="J115"/>
+      <c r="K115" t="n">
+        <v>227.612277443282</v>
+      </c>
+      <c r="L115" t="n">
+        <v>201.955815582336</v>
+      </c>
+      <c r="M115" t="n">
+        <v>209.161206961901</v>
+      </c>
+      <c r="N115" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K115"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -4391,10 +5435,19 @@
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
+      <c r="J116"/>
+      <c r="K116" t="n">
+        <v>227.612277443282</v>
+      </c>
+      <c r="L116" t="n">
+        <v>202.999516448551</v>
+      </c>
+      <c r="M116" t="n">
+        <v>208.732175494536</v>
+      </c>
+      <c r="N116" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K116"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -4422,10 +5475,19 @@
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J117"/>
+      <c r="K117" t="n">
+        <v>227.612277443282</v>
+      </c>
+      <c r="L117" t="n">
+        <v>203.829892051599</v>
+      </c>
+      <c r="M117" t="n">
+        <v>208.390835101927</v>
+      </c>
+      <c r="N117" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K117"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -4453,10 +5515,19 @@
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J118"/>
+      <c r="K118" t="n">
+        <v>227.612277443282</v>
+      </c>
+      <c r="L118" t="n">
+        <v>204.490544604892</v>
+      </c>
+      <c r="M118" t="n">
+        <v>208.119262332819</v>
+      </c>
+      <c r="N118" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K118"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -4484,10 +5555,19 @@
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
+      <c r="J119"/>
+      <c r="K119" t="n">
+        <v>227.76238883792</v>
+      </c>
+      <c r="L119" t="n">
+        <v>205.005453149507</v>
+      </c>
+      <c r="M119" t="n">
+        <v>207.892485985409</v>
+      </c>
+      <c r="N119" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K119"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -4515,10 +5595,19 @@
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
+      <c r="J120"/>
+      <c r="K120" t="n">
+        <v>227.912748137663</v>
+      </c>
+      <c r="L120" t="n">
+        <v>205.404389067014</v>
+      </c>
+      <c r="M120" t="n">
+        <v>207.70133229063</v>
+      </c>
+      <c r="N120" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K120"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -4546,10 +5635,19 @@
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
+      <c r="J121"/>
+      <c r="K121" t="n">
+        <v>228.063355801169</v>
+      </c>
+      <c r="L121" t="n">
+        <v>205.711038641066</v>
+      </c>
+      <c r="M121" t="n">
+        <v>207.538502501852</v>
+      </c>
+      <c r="N121" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K121"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -4577,10 +5675,19 @@
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
+      <c r="J122"/>
+      <c r="K122" t="n">
+        <v>269.726019718482</v>
+      </c>
+      <c r="L122" t="n">
+        <v>214.371215901152</v>
+      </c>
+      <c r="M122" t="n">
+        <v>215.825158744904</v>
+      </c>
+      <c r="N122" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K122"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -4608,10 +5715,19 @@
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
+      <c r="J123"/>
+      <c r="K123" t="n">
+        <v>269.877125256161</v>
+      </c>
+      <c r="L123" t="n">
+        <v>221.250530503641</v>
+      </c>
+      <c r="M123" t="n">
+        <v>222.407297451681</v>
+      </c>
+      <c r="N123" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K123"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -4639,10 +5755,19 @@
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
+      <c r="J124"/>
+      <c r="K124" t="n">
+        <v>270.028480380693</v>
+      </c>
+      <c r="L124" t="n">
+        <v>226.712960691601</v>
+      </c>
+      <c r="M124" t="n">
+        <v>227.633292448678</v>
+      </c>
+      <c r="N124" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K124"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -4670,10 +5795,19 @@
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
+      <c r="J125"/>
+      <c r="K125" t="n">
+        <v>270.180085474293</v>
+      </c>
+      <c r="L125" t="n">
+        <v>231.04809003673</v>
+      </c>
+      <c r="M125" t="n">
+        <v>231.780312326206</v>
+      </c>
+      <c r="N125" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K125"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -4701,10 +5835,19 @@
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
+      <c r="J126"/>
+      <c r="K126" t="n">
+        <v>270.331940919178</v>
+      </c>
+      <c r="L126" t="n">
+        <v>234.4863131974</v>
+      </c>
+      <c r="M126" t="n">
+        <v>235.068874297876</v>
+      </c>
+      <c r="N126" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K126"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -4732,10 +5875,19 @@
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
+      <c r="J127"/>
+      <c r="K127" t="n">
+        <v>270.484047174007</v>
+      </c>
+      <c r="L127" t="n">
+        <v>237.210933719122</v>
+      </c>
+      <c r="M127" t="n">
+        <v>237.674423346064</v>
+      </c>
+      <c r="N127" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K127"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -4763,10 +5915,19 @@
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
+      <c r="J128"/>
+      <c r="K128" t="n">
+        <v>270.636404697437</v>
+      </c>
+      <c r="L128" t="n">
+        <v>239.367789133426</v>
+      </c>
+      <c r="M128" t="n">
+        <v>239.736544675303</v>
+      </c>
+      <c r="N128" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K128"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -4794,10 +5955,19 @@
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
+      <c r="J129"/>
+      <c r="K129" t="n">
+        <v>270.789013795243</v>
+      </c>
+      <c r="L129" t="n">
+        <v>241.072908763791</v>
+      </c>
+      <c r="M129" t="n">
+        <v>241.366293214619</v>
+      </c>
+      <c r="N129" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K129"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -4825,10 +5995,19 @@
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
+      <c r="J130"/>
+      <c r="K130" t="n">
+        <v>270.941874926082</v>
+      </c>
+      <c r="L130" t="n">
+        <v>242.418606306999</v>
+      </c>
+      <c r="M130" t="n">
+        <v>242.652024998281</v>
+      </c>
+      <c r="N130" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K130"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -4856,10 +6035,19 @@
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
+      <c r="J131"/>
+      <c r="K131" t="n">
+        <v>271.094988548613</v>
+      </c>
+      <c r="L131" t="n">
+        <v>243.478327143773</v>
+      </c>
+      <c r="M131" t="n">
+        <v>243.664036663436</v>
+      </c>
+      <c r="N131" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K131"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -4887,10 +6075,19 @@
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
+      <c r="J132"/>
+      <c r="K132" t="n">
+        <v>271.248355045053</v>
+      </c>
+      <c r="L132" t="n">
+        <v>244.310504897977</v>
+      </c>
+      <c r="M132" t="n">
+        <v>244.458256671856</v>
+      </c>
+      <c r="N132" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K132"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -4918,10 +6115,19 @@
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
+      <c r="J133"/>
+      <c r="K133" t="n">
+        <v>271.40197487406</v>
+      </c>
+      <c r="L133" t="n">
+        <v>244.961629730794</v>
+      </c>
+      <c r="M133" t="n">
+        <v>245.079182060496</v>
+      </c>
+      <c r="N133" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K133"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -4949,10 +6155,19 @@
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
+      <c r="J134"/>
+      <c r="K134" t="n">
+        <v>278.091898234862</v>
+      </c>
+      <c r="L134" t="n">
+        <v>248.093567903955</v>
+      </c>
+      <c r="M134" t="n">
+        <v>248.187093347715</v>
+      </c>
+      <c r="N134" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K134"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -4980,10 +6195,19 @@
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
+      <c r="J135"/>
+      <c r="K135" t="n">
+        <v>278.24602587565</v>
+      </c>
+      <c r="L135" t="n">
+        <v>250.57436174274</v>
+      </c>
+      <c r="M135" t="n">
+        <v>250.648771230437</v>
+      </c>
+      <c r="N135" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K135"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -5011,10 +6235,19 @@
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
+      <c r="J136"/>
+      <c r="K136" t="n">
+        <v>278.400408072095</v>
+      </c>
+      <c r="L136" t="n">
+        <v>252.537082497184</v>
+      </c>
+      <c r="M136" t="n">
+        <v>252.596283198476</v>
+      </c>
+      <c r="N136" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K136"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -5042,10 +6275,19 @@
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
+      <c r="J137"/>
+      <c r="K137" t="n">
+        <v>278.555045282856</v>
+      </c>
+      <c r="L137" t="n">
+        <v>254.087602538302</v>
+      </c>
+      <c r="M137" t="n">
+        <v>254.134703024301</v>
+      </c>
+      <c r="N137" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K137"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -5073,10 +6315,19 @@
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
+      <c r="J138"/>
+      <c r="K138" t="n">
+        <v>278.709937813706</v>
+      </c>
+      <c r="L138" t="n">
+        <v>255.310154632399</v>
+      </c>
+      <c r="M138" t="n">
+        <v>255.347628103708</v>
+      </c>
+      <c r="N138" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K138"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -5104,10 +6355,19 @@
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
+      <c r="J139"/>
+      <c r="K139" t="n">
+        <v>278.865086276189</v>
+      </c>
+      <c r="L139" t="n">
+        <v>256.2717549053</v>
+      </c>
+      <c r="M139" t="n">
+        <v>256.301569057365</v>
+      </c>
+      <c r="N139" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K139"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -5135,10 +6395,19 @@
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
+      <c r="J140"/>
+      <c r="K140" t="n">
+        <v>279.020490899636</v>
+      </c>
+      <c r="L140" t="n">
+        <v>257.025721832267</v>
+      </c>
+      <c r="M140" t="n">
+        <v>257.049442177149</v>
+      </c>
+      <c r="N140" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K140"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -5166,10 +6435,19 @@
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
+      <c r="J141"/>
+      <c r="K141" t="n">
+        <v>279.176152142705</v>
+      </c>
+      <c r="L141" t="n">
+        <v>257.614475926997</v>
+      </c>
+      <c r="M141" t="n">
+        <v>257.633347996883</v>
+      </c>
+      <c r="N141" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K141"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -5197,10 +6475,19 @@
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
+      <c r="J142"/>
+      <c r="K142" t="n">
+        <v>279.332070540498</v>
+      </c>
+      <c r="L142" t="n">
+        <v>258.071767204399</v>
+      </c>
+      <c r="M142" t="n">
+        <v>258.086781953279</v>
+      </c>
+      <c r="N142" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K142"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -5228,10 +6515,19 @@
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
+      <c r="J143"/>
+      <c r="K143" t="n">
+        <v>279.488246475231</v>
+      </c>
+      <c r="L143" t="n">
+        <v>258.424447381687</v>
+      </c>
+      <c r="M143" t="n">
+        <v>258.436393219387</v>
+      </c>
+      <c r="N143" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K143"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -5259,10 +6555,19 @@
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
+      <c r="J144"/>
+      <c r="K144" t="n">
+        <v>279.644680329119</v>
+      </c>
+      <c r="L144" t="n">
+        <v>258.693879842883</v>
+      </c>
+      <c r="M144" t="n">
+        <v>258.703384033696</v>
+      </c>
+      <c r="N144" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K144"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -5290,10 +6595,19 @@
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
+      <c r="J145"/>
+      <c r="K145" t="n">
+        <v>279.801372484378</v>
+      </c>
+      <c r="L145" t="n">
+        <v>258.897061416294</v>
+      </c>
+      <c r="M145" t="n">
+        <v>258.904623016015</v>
+      </c>
+      <c r="N145" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K145"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -5321,10 +6635,19 @@
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
+      <c r="J146"/>
+      <c r="K146" t="n">
+        <v>288.045351132758</v>
+      </c>
+      <c r="L146" t="n">
+        <v>260.740487872349</v>
+      </c>
+      <c r="M146" t="n">
+        <v>260.746503933206</v>
+      </c>
+      <c r="N146" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K146"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -5352,10 +6675,19 @@
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
+      <c r="J147"/>
+      <c r="K147" t="n">
+        <v>288.202561343179</v>
+      </c>
+      <c r="L147" t="n">
+        <v>262.195912951332</v>
+      </c>
+      <c r="M147" t="n">
+        <v>262.200699370817</v>
+      </c>
+      <c r="N147" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K147"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -5383,10 +6715,19 @@
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
+      <c r="J148"/>
+      <c r="K148" t="n">
+        <v>288.360031230948</v>
+      </c>
+      <c r="L148" t="n">
+        <v>263.342622931104</v>
+      </c>
+      <c r="M148" t="n">
+        <v>263.346431039437</v>
+      </c>
+      <c r="N148" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K148"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -5414,10 +6755,19 @@
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
+      <c r="J149"/>
+      <c r="K149" t="n">
+        <v>288.517761101837</v>
+      </c>
+      <c r="L149" t="n">
+        <v>264.243698499008</v>
+      </c>
+      <c r="M149" t="n">
+        <v>264.246728256246</v>
+      </c>
+      <c r="N149" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K149"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -5445,10 +6795,19 @@
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
+      <c r="J150"/>
+      <c r="K150" t="n">
+        <v>288.675751567391</v>
+      </c>
+      <c r="L150" t="n">
+        <v>264.94932704105</v>
+      </c>
+      <c r="M150" t="n">
+        <v>264.951737536792</v>
+      </c>
+      <c r="N150" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K150"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -5476,10 +6835,19 @@
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
+      <c r="J151"/>
+      <c r="K151" t="n">
+        <v>288.834002933384</v>
+      </c>
+      <c r="L151" t="n">
+        <v>265.499437965646</v>
+      </c>
+      <c r="M151" t="n">
+        <v>265.501355772673</v>
+      </c>
+      <c r="N151" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K151"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -5507,10 +6875,19 @@
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
+      <c r="J152"/>
+      <c r="K152" t="n">
+        <v>288.992515658472</v>
+      </c>
+      <c r="L152" t="n">
+        <v>265.925799352623</v>
+      </c>
+      <c r="M152" t="n">
+        <v>265.927325173112</v>
+      </c>
+      <c r="N152" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K152"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -5538,10 +6915,19 @@
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
+      <c r="J153"/>
+      <c r="K153" t="n">
+        <v>289.151290201317</v>
+      </c>
+      <c r="L153" t="n">
+        <v>266.253686072531</v>
+      </c>
+      <c r="M153" t="n">
+        <v>266.254900025829</v>
+      </c>
+      <c r="N153" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K153"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -5569,10 +6955,19 @@
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
+      <c r="J154"/>
+      <c r="K154" t="n">
+        <v>289.310326944133</v>
+      </c>
+      <c r="L154" t="n">
+        <v>266.503206959317</v>
+      </c>
+      <c r="M154" t="n">
+        <v>266.504172788928</v>
+      </c>
+      <c r="N154" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K154"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -5600,10 +6995,19 @@
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
+      <c r="J155"/>
+      <c r="K155" t="n">
+        <v>289.469626345579</v>
+      </c>
+      <c r="L155" t="n">
+        <v>266.690360707147</v>
+      </c>
+      <c r="M155" t="n">
+        <v>266.691129127843</v>
+      </c>
+      <c r="N155" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K155"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -5631,10 +7035,19 @@
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
+      <c r="J156"/>
+      <c r="K156" t="n">
+        <v>289.629188864314</v>
+      </c>
+      <c r="L156" t="n">
+        <v>266.827875954645</v>
+      </c>
+      <c r="M156" t="n">
+        <v>266.828487315447</v>
+      </c>
+      <c r="N156" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K156"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -5662,10 +7075,19 @@
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
+      <c r="J157"/>
+      <c r="K157" t="n">
+        <v>289.789014882553</v>
+      </c>
+      <c r="L157" t="n">
+        <v>266.925879667161</v>
+      </c>
+      <c r="M157" t="n">
+        <v>266.926366070029</v>
+      </c>
+      <c r="N157" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K157"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -5693,10 +7115,19 @@
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
+      <c r="J158"/>
+      <c r="K158" t="n">
+        <v>255.299599399891</v>
+      </c>
+      <c r="L158" t="n">
+        <v>261.734300915537</v>
+      </c>
+      <c r="M158" t="n">
+        <v>261.734687901012</v>
+      </c>
+      <c r="N158" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K158"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -5724,10 +7155,19 @@
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
+      <c r="J159"/>
+      <c r="K159" t="n">
+        <v>255.459953793117</v>
+      </c>
+      <c r="L159" t="n">
+        <v>257.592403008519</v>
+      </c>
+      <c r="M159" t="n">
+        <v>257.59271089683</v>
+      </c>
+      <c r="N159" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K159"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -5755,10 +7195,19 @@
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
+      <c r="J160"/>
+      <c r="K160" t="n">
+        <v>255.620573061823</v>
+      </c>
+      <c r="L160" t="n">
+        <v>254.285619516418</v>
+      </c>
+      <c r="M160" t="n">
+        <v>254.28586447448</v>
+      </c>
+      <c r="N160" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K160"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -5786,10 +7235,19 @@
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
+      <c r="J161"/>
+      <c r="K161" t="n">
+        <v>255.781457588227</v>
+      </c>
+      <c r="L161" t="n">
+        <v>251.643239881563</v>
+      </c>
+      <c r="M161" t="n">
+        <v>251.643434771886</v>
+      </c>
+      <c r="N161" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K161"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -5817,10 +7275,19 @@
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
+      <c r="J162"/>
+      <c r="K162" t="n">
+        <v>255.942607830986</v>
+      </c>
+      <c r="L162" t="n">
+        <v>249.529445574894</v>
+      </c>
+      <c r="M162" t="n">
+        <v>249.529600630978</v>
+      </c>
+      <c r="N162" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K162"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -5848,10 +7315,19 @@
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
+      <c r="J163"/>
+      <c r="K163" t="n">
+        <v>256.104024172317</v>
+      </c>
+      <c r="L163" t="n">
+        <v>247.836178411262</v>
+      </c>
+      <c r="M163" t="n">
+        <v>247.836301774952</v>
+      </c>
+      <c r="N163" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K163"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -5879,10 +7355,19 @@
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
+      <c r="J164"/>
+      <c r="K164" t="n">
+        <v>256.265707147321</v>
+      </c>
+      <c r="L164" t="n">
+        <v>246.477466515575</v>
+      </c>
+      <c r="M164" t="n">
+        <v>246.477564664577</v>
+      </c>
+      <c r="N164" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K164"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -5910,10 +7395,19 @@
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
+      <c r="J165"/>
+      <c r="K165" t="n">
+        <v>256.427657214657</v>
+      </c>
+      <c r="L165" t="n">
+        <v>245.384910038702</v>
+      </c>
+      <c r="M165" t="n">
+        <v>245.384988126724</v>
+      </c>
+      <c r="N165" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K165"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -5941,10 +7435,19 @@
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
+      <c r="J166"/>
+      <c r="K166" t="n">
+        <v>256.589874680098</v>
+      </c>
+      <c r="L166" t="n">
+        <v>244.504089567401</v>
+      </c>
+      <c r="M166" t="n">
+        <v>244.50415169477</v>
+      </c>
+      <c r="N166" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K166"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -5972,10 +7475,19 @@
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
+      <c r="J167"/>
+      <c r="K167" t="n">
+        <v>256.752360078746</v>
+      </c>
+      <c r="L167" t="n">
+        <v>243.791708603219</v>
+      </c>
+      <c r="M167" t="n">
+        <v>243.791758032181</v>
+      </c>
+      <c r="N167" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K167"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -6003,10 +7515,19 @@
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
+      <c r="J168"/>
+      <c r="K168" t="n">
+        <v>256.91511386926</v>
+      </c>
+      <c r="L168" t="n">
+        <v>243.213320120828</v>
+      </c>
+      <c r="M168" t="n">
+        <v>243.213359446852</v>
+      </c>
+      <c r="N168" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K168"/>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -6034,10 +7555,19 @@
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
+      <c r="J169"/>
+      <c r="K169" t="n">
+        <v>257.078136433855</v>
+      </c>
+      <c r="L169" t="n">
+        <v>242.741517802176</v>
+      </c>
+      <c r="M169" t="n">
+        <v>242.741549090231</v>
+      </c>
+      <c r="N169" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K169"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -6065,10 +7595,19 @@
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
+      <c r="J170"/>
+      <c r="K170" t="n">
+        <v>260.761257896831</v>
+      </c>
+      <c r="L170" t="n">
+        <v>242.964306698474</v>
+      </c>
+      <c r="M170" t="n">
+        <v>242.964331591466</v>
+      </c>
+      <c r="N170" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K170"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -6096,10 +7635,19 @@
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
+      <c r="J171"/>
+      <c r="K171" t="n">
+        <v>260.924819385565</v>
+      </c>
+      <c r="L171" t="n">
+        <v>243.129888169693</v>
+      </c>
+      <c r="M171" t="n">
+        <v>243.129907974729</v>
+      </c>
+      <c r="N171" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K171"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -6127,10 +7675,19 @@
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
+      <c r="J172"/>
+      <c r="K172" t="n">
+        <v>261.088651024358</v>
+      </c>
+      <c r="L172" t="n">
+        <v>243.249935742682</v>
+      </c>
+      <c r="M172" t="n">
+        <v>243.249951499705</v>
+      </c>
+      <c r="N172" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K172"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -6158,10 +7715,19 @@
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
+      <c r="J173"/>
+      <c r="K173" t="n">
+        <v>261.252753271866</v>
+      </c>
+      <c r="L173" t="n">
+        <v>243.333736923136</v>
+      </c>
+      <c r="M173" t="n">
+        <v>243.333749459533</v>
+      </c>
+      <c r="N173" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K173"/>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -6189,10 +7755,19 @@
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
+      <c r="J174"/>
+      <c r="K174" t="n">
+        <v>261.417126510308</v>
+      </c>
+      <c r="L174" t="n">
+        <v>243.388680887331</v>
+      </c>
+      <c r="M174" t="n">
+        <v>243.388690861374</v>
+      </c>
+      <c r="N174" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K174"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -6220,10 +7795,19 @@
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
+      <c r="J175"/>
+      <c r="K175" t="n">
+        <v>261.58177119834</v>
+      </c>
+      <c r="L175" t="n">
+        <v>243.420646482113</v>
+      </c>
+      <c r="M175" t="n">
+        <v>243.42065441753</v>
+      </c>
+      <c r="N175" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K175"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -6251,10 +7835,19 @@
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
+      <c r="J176"/>
+      <c r="K176" t="n">
+        <v>261.746687871066</v>
+      </c>
+      <c r="L176" t="n">
+        <v>243.434310920372</v>
+      </c>
+      <c r="M176" t="n">
+        <v>243.434317233845</v>
+      </c>
+      <c r="N176" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K176"/>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -6282,10 +7875,19 @@
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
+      <c r="J177"/>
+      <c r="K177" t="n">
+        <v>261.911876910701</v>
+      </c>
+      <c r="L177" t="n">
+        <v>243.433395397652</v>
+      </c>
+      <c r="M177" t="n">
+        <v>243.433400420694</v>
+      </c>
+      <c r="N177" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K177"/>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -6313,10 +7915,19 @@
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
+      <c r="J178"/>
+      <c r="K178" t="n">
+        <v>262.07733869946</v>
+      </c>
+      <c r="L178" t="n">
+        <v>243.420860495499</v>
+      </c>
+      <c r="M178" t="n">
+        <v>243.420864491866</v>
+      </c>
+      <c r="N178" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K178"/>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -6344,10 +7955,19 @@
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
+      <c r="J179"/>
+      <c r="K179" t="n">
+        <v>262.243073848889</v>
+      </c>
+      <c r="L179" t="n">
+        <v>243.399061629363</v>
+      </c>
+      <c r="M179" t="n">
+        <v>243.399064808901</v>
+      </c>
+      <c r="N179" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K179"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -6375,10 +7995,19 @@
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
+      <c r="J180"/>
+      <c r="K180" t="n">
+        <v>262.409082664761</v>
+      </c>
+      <c r="L180" t="n">
+        <v>243.369872762194</v>
+      </c>
+      <c r="M180" t="n">
+        <v>243.369875291856</v>
+      </c>
+      <c r="N180" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K180"/>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -6406,10 +8035,19 @@
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
+      <c r="J181"/>
+      <c r="K181" t="n">
+        <v>262.575365682177</v>
+      </c>
+      <c r="L181" t="n">
+        <v>243.334784793648</v>
+      </c>
+      <c r="M181" t="n">
+        <v>243.334786806264</v>
+      </c>
+      <c r="N181" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K181"/>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -6437,10 +8075,19 @@
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
+      <c r="J182"/>
+      <c r="K182" t="n">
+        <v>266.33918926104</v>
+      </c>
+      <c r="L182" t="n">
+        <v>243.918209412175</v>
+      </c>
+      <c r="M182" t="n">
+        <v>243.918211013427</v>
+      </c>
+      <c r="N182" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K182"/>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -6468,10 +8115,19 @@
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
+      <c r="J183"/>
+      <c r="K183" t="n">
+        <v>266.506021981078</v>
+      </c>
+      <c r="L183" t="n">
+        <v>244.370481731429</v>
+      </c>
+      <c r="M183" t="n">
+        <v>244.370483005396</v>
+      </c>
+      <c r="N183" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K183"/>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -6499,10 +8155,19 @@
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
+      <c r="J184"/>
+      <c r="K184" t="n">
+        <v>266.673130202194</v>
+      </c>
+      <c r="L184" t="n">
+        <v>244.718388719044</v>
+      </c>
+      <c r="M184" t="n">
+        <v>244.718389732621</v>
+      </c>
+      <c r="N184" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K184"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -6530,10 +8195,19 @@
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
+      <c r="J185"/>
+      <c r="K185" t="n">
+        <v>266.840514459489</v>
+      </c>
+      <c r="L185" t="n">
+        <v>244.983242232924</v>
+      </c>
+      <c r="M185" t="n">
+        <v>244.983243039333</v>
+      </c>
+      <c r="N185" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K185"/>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -6561,10 +8235,19 @@
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
+      <c r="J186"/>
+      <c r="K186" t="n">
+        <v>267.008175211623</v>
+      </c>
+      <c r="L186" t="n">
+        <v>245.181998101383</v>
+      </c>
+      <c r="M186" t="n">
+        <v>245.181998742967</v>
+      </c>
+      <c r="N186" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K186"/>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -6592,10 +8275,19 @@
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
+      <c r="J187"/>
+      <c r="K187" t="n">
+        <v>267.176112840811</v>
+      </c>
+      <c r="L187" t="n">
+        <v>245.328146471028</v>
+      </c>
+      <c r="M187" t="n">
+        <v>245.328146981476</v>
+      </c>
+      <c r="N187" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K187"/>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -6623,10 +8315,19 @@
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
+      <c r="J188"/>
+      <c r="K188" t="n">
+        <v>267.344327805712</v>
+      </c>
+      <c r="L188" t="n">
+        <v>245.432420162753</v>
+      </c>
+      <c r="M188" t="n">
+        <v>245.432420568869</v>
+      </c>
+      <c r="N188" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K188"/>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -6654,10 +8355,19 @@
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
+      <c r="J189"/>
+      <c r="K189" t="n">
+        <v>267.512820564985</v>
+      </c>
+      <c r="L189" t="n">
+        <v>245.503358250112</v>
+      </c>
+      <c r="M189" t="n">
+        <v>245.503358573222</v>
+      </c>
+      <c r="N189" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K189"/>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -6685,10 +8395,19 @@
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
+      <c r="J190"/>
+      <c r="K190" t="n">
+        <v>267.681591653731</v>
+      </c>
+      <c r="L190" t="n">
+        <v>245.547754440702</v>
+      </c>
+      <c r="M190" t="n">
+        <v>245.54775469777</v>
+      </c>
+      <c r="N190" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K190"/>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -6716,10 +8435,19 @@
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
+      <c r="J191"/>
+      <c r="K191" t="n">
+        <v>267.850641454168</v>
+      </c>
+      <c r="L191" t="n">
+        <v>245.571013827837</v>
+      </c>
+      <c r="M191" t="n">
+        <v>245.571014032362</v>
+      </c>
+      <c r="N191" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K191"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -6747,10 +8475,19 @@
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
+      <c r="J192"/>
+      <c r="K192" t="n">
+        <v>268.019970501396</v>
+      </c>
+      <c r="L192" t="n">
+        <v>245.577436702835</v>
+      </c>
+      <c r="M192" t="n">
+        <v>245.577436865556</v>
+      </c>
+      <c r="N192" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K192"/>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -6778,10 +8515,19 @@
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
+      <c r="J193"/>
+      <c r="K193" t="n">
+        <v>268.189579177631</v>
+      </c>
+      <c r="L193" t="n">
+        <v>245.570444379832</v>
+      </c>
+      <c r="M193" t="n">
+        <v>245.570444509294</v>
+      </c>
+      <c r="N193" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K193"/>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -6809,10 +8555,19 @@
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
+      <c r="J194"/>
+      <c r="K194" t="n">
+        <v>272.035873683941</v>
+      </c>
+      <c r="L194" t="n">
+        <v>246.189695359039</v>
+      </c>
+      <c r="M194" t="n">
+        <v>246.18969546204</v>
+      </c>
+      <c r="N194" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K194"/>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -6840,10 +8595,19 @@
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
+      <c r="J195"/>
+      <c r="K195" t="n">
+        <v>272.206043070611</v>
+      </c>
+      <c r="L195" t="n">
+        <v>246.670233290344</v>
+      </c>
+      <c r="M195" t="n">
+        <v>246.670233372292</v>
+      </c>
+      <c r="N195" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K195"/>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -6871,10 +8635,19 @@
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
+      <c r="J196"/>
+      <c r="K196" t="n">
+        <v>272.376493538707</v>
+      </c>
+      <c r="L196" t="n">
+        <v>247.040390108102</v>
+      </c>
+      <c r="M196" t="n">
+        <v>247.040390173301</v>
+      </c>
+      <c r="N196" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K196"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -6902,10 +8675,19 @@
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
+      <c r="J197"/>
+      <c r="K197" t="n">
+        <v>272.547225470446</v>
+      </c>
+      <c r="L197" t="n">
+        <v>247.322706867299</v>
+      </c>
+      <c r="M197" t="n">
+        <v>247.322706919172</v>
+      </c>
+      <c r="N197" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K197"/>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -6933,10 +8715,19 @@
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
+      <c r="J198"/>
+      <c r="K198" t="n">
+        <v>272.71823940093</v>
+      </c>
+      <c r="L198" t="n">
+        <v>247.535117348465</v>
+      </c>
+      <c r="M198" t="n">
+        <v>247.535117389735</v>
+      </c>
+      <c r="N198" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K198"/>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -6964,10 +8755,19 @@
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
+      <c r="J199"/>
+      <c r="K199" t="n">
+        <v>272.889535788817</v>
+      </c>
+      <c r="L199" t="n">
+        <v>247.691889758273</v>
+      </c>
+      <c r="M199" t="n">
+        <v>247.691889791108</v>
+      </c>
+      <c r="N199" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K199"/>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -6995,10 +8795,19 @@
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
+      <c r="J200"/>
+      <c r="K200" t="n">
+        <v>273.061115016323</v>
+      </c>
+      <c r="L200" t="n">
+        <v>247.804375953029</v>
+      </c>
+      <c r="M200" t="n">
+        <v>247.804375979153</v>
+      </c>
+      <c r="N200" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K200"/>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -7026,10 +8835,19 @@
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
+      <c r="J201"/>
+      <c r="K201" t="n">
+        <v>273.232977694994</v>
+      </c>
+      <c r="L201" t="n">
+        <v>247.881607504214</v>
+      </c>
+      <c r="M201" t="n">
+        <v>247.881607524998</v>
+      </c>
+      <c r="N201" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K201"/>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -7057,10 +8875,19 @@
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
+      <c r="J202"/>
+      <c r="K202" t="n">
+        <v>273.405124207045</v>
+      </c>
+      <c r="L202" t="n">
+        <v>247.930769965079</v>
+      </c>
+      <c r="M202" t="n">
+        <v>247.930769981615</v>
+      </c>
+      <c r="N202" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K202"/>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -7088,10 +8915,19 @@
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
+      <c r="J203"/>
+      <c r="K203" t="n">
+        <v>273.577555011134</v>
+      </c>
+      <c r="L203" t="n">
+        <v>247.957580178591</v>
+      </c>
+      <c r="M203" t="n">
+        <v>247.957580191747</v>
+      </c>
+      <c r="N203" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K203"/>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -7119,10 +8955,19 @@
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
+      <c r="J204"/>
+      <c r="K204" t="n">
+        <v>273.750270565921</v>
+      </c>
+      <c r="L204" t="n">
+        <v>247.96658647169</v>
+      </c>
+      <c r="M204" t="n">
+        <v>247.966586482157</v>
+      </c>
+      <c r="N204" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K204"/>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -7150,10 +8995,19 @@
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
+      <c r="J205"/>
+      <c r="K205" t="n">
+        <v>273.923271406508</v>
+      </c>
+      <c r="L205" t="n">
+        <v>247.961407486458</v>
+      </c>
+      <c r="M205" t="n">
+        <v>247.961407494785</v>
+      </c>
+      <c r="N205" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K205"/>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -7181,10 +9035,19 @@
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
+      <c r="J206"/>
+      <c r="K206" t="n">
+        <v>277.85384467052</v>
+      </c>
+      <c r="L206" t="n">
+        <v>248.59587132365</v>
+      </c>
+      <c r="M206" t="n">
+        <v>248.595871330275</v>
+      </c>
+      <c r="N206" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K206"/>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -7212,10 +9075,19 @@
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
+      <c r="J207"/>
+      <c r="K207" t="n">
+        <v>278.027417458683</v>
+      </c>
+      <c r="L207" t="n">
+        <v>249.088269860322</v>
+      </c>
+      <c r="M207" t="n">
+        <v>249.088269865593</v>
+      </c>
+      <c r="N207" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K207"/>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -7243,10 +9115,19 @@
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
+      <c r="J208"/>
+      <c r="K208" t="n">
+        <v>278.201276908622</v>
+      </c>
+      <c r="L208" t="n">
+        <v>249.467619809974</v>
+      </c>
+      <c r="M208" t="n">
+        <v>249.467619814168</v>
+      </c>
+      <c r="N208" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K208"/>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -7274,10 +9155,19 @@
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
+      <c r="J209"/>
+      <c r="K209" t="n">
+        <v>278.375423478996</v>
+      </c>
+      <c r="L209" t="n">
+        <v>249.757007037143</v>
+      </c>
+      <c r="M209" t="n">
+        <v>249.75700704048</v>
+      </c>
+      <c r="N209" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K209"/>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -7305,10 +9195,19 @@
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
+      <c r="J210"/>
+      <c r="K210" t="n">
+        <v>278.549857704906</v>
+      </c>
+      <c r="L210" t="n">
+        <v>249.974798776594</v>
+      </c>
+      <c r="M210" t="n">
+        <v>249.974798779249</v>
+      </c>
+      <c r="N210" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K210"/>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -7336,10 +9235,19 @@
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
+      <c r="J211"/>
+      <c r="K211" t="n">
+        <v>278.72457996857</v>
+      </c>
+      <c r="L211" t="n">
+        <v>250.135608099634</v>
+      </c>
+      <c r="M211" t="n">
+        <v>250.135608101746</v>
+      </c>
+      <c r="N211" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K211"/>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -7367,10 +9275,19 @@
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
+      <c r="J212"/>
+      <c r="K212" t="n">
+        <v>278.899590881531</v>
+      </c>
+      <c r="L212" t="n">
+        <v>250.25106122288</v>
+      </c>
+      <c r="M212" t="n">
+        <v>250.25106122456</v>
+      </c>
+      <c r="N212" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K212"/>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -7398,10 +9315,19 @@
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
+      <c r="J213"/>
+      <c r="K213" t="n">
+        <v>279.074890749563</v>
+      </c>
+      <c r="L213" t="n">
+        <v>250.33040802259</v>
+      </c>
+      <c r="M213" t="n">
+        <v>250.330408023927</v>
+      </c>
+      <c r="N213" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K213"/>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -7429,10 +9355,19 @@
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
+      <c r="J214"/>
+      <c r="K214" t="n">
+        <v>279.25048018421</v>
+      </c>
+      <c r="L214" t="n">
+        <v>250.381007720435</v>
+      </c>
+      <c r="M214" t="n">
+        <v>250.381007721499</v>
+      </c>
+      <c r="N214" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K214"/>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -7460,10 +9395,19 @@
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
+      <c r="J215"/>
+      <c r="K215" t="n">
+        <v>279.426359644132</v>
+      </c>
+      <c r="L215" t="n">
+        <v>250.408715331173</v>
+      </c>
+      <c r="M215" t="n">
+        <v>250.40871533202</v>
+      </c>
+      <c r="N215" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K215"/>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -7491,10 +9435,19 @@
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
+      <c r="J216"/>
+      <c r="K216" t="n">
+        <v>279.602529511544</v>
+      </c>
+      <c r="L216" t="n">
+        <v>250.418189117631</v>
+      </c>
+      <c r="M216" t="n">
+        <v>250.418189118304</v>
+      </c>
+      <c r="N216" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K216"/>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -7522,10 +9475,19 @@
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
+      <c r="J217"/>
+      <c r="K217" t="n">
+        <v>279.778990397991</v>
+      </c>
+      <c r="L217" t="n">
+        <v>250.413135182182</v>
+      </c>
+      <c r="M217" t="n">
+        <v>250.413135182718</v>
+      </c>
+      <c r="N217" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K217"/>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -7553,10 +9515,19 @@
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
+      <c r="J218"/>
+      <c r="K218" t="n">
+        <v>283.795689677151</v>
+      </c>
+      <c r="L218" t="n">
+        <v>251.061772096345</v>
+      </c>
+      <c r="M218" t="n">
+        <v>251.061772096771</v>
+      </c>
+      <c r="N218" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K218"/>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -7584,10 +9555,19 @@
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
+      <c r="J219"/>
+      <c r="K219" t="n">
+        <v>283.972733901202</v>
+      </c>
+      <c r="L219" t="n">
+        <v>251.565199126857</v>
+      </c>
+      <c r="M219" t="n">
+        <v>251.565199127196</v>
+      </c>
+      <c r="N219" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K219"/>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -7615,10 +9595,19 @@
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
+      <c r="J220"/>
+      <c r="K220" t="n">
+        <v>284.150070520264</v>
+      </c>
+      <c r="L220" t="n">
+        <v>251.953075309241</v>
+      </c>
+      <c r="M220" t="n">
+        <v>251.953075309511</v>
+      </c>
+      <c r="N220" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K220"/>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -7646,10 +9635,19 @@
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
+      <c r="J221"/>
+      <c r="K221" t="n">
+        <v>284.32770006944</v>
+      </c>
+      <c r="L221" t="n">
+        <v>252.248997538408</v>
+      </c>
+      <c r="M221" t="n">
+        <v>252.248997538622</v>
+      </c>
+      <c r="N221" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K221"/>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -7677,10 +9675,19 @@
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
+      <c r="J222"/>
+      <c r="K222" t="n">
+        <v>284.505622930946</v>
+      </c>
+      <c r="L222" t="n">
+        <v>252.47173963932</v>
+      </c>
+      <c r="M222" t="n">
+        <v>252.471739639491</v>
+      </c>
+      <c r="N222" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K222"/>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -7708,10 +9715,19 @@
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
+      <c r="J223"/>
+      <c r="K223" t="n">
+        <v>284.683839639882</v>
+      </c>
+      <c r="L223" t="n">
+        <v>252.636238158339</v>
+      </c>
+      <c r="M223" t="n">
+        <v>252.636238158475</v>
+      </c>
+      <c r="N223" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K223"/>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -7739,10 +9755,19 @@
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
+      <c r="J224"/>
+      <c r="K224" t="n">
+        <v>284.862350731353</v>
+      </c>
+      <c r="L224" t="n">
+        <v>252.754376676519</v>
+      </c>
+      <c r="M224" t="n">
+        <v>252.754376676627</v>
+      </c>
+      <c r="N224" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K224"/>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -7770,10 +9795,19 @@
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
+      <c r="J225"/>
+      <c r="K225" t="n">
+        <v>285.041156664015</v>
+      </c>
+      <c r="L225" t="n">
+        <v>252.83560982013</v>
+      </c>
+      <c r="M225" t="n">
+        <v>252.835609820216</v>
+      </c>
+      <c r="N225" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K225"/>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -7801,10 +9835,19 @@
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
+      <c r="J226"/>
+      <c r="K226" t="n">
+        <v>285.220257896528</v>
+      </c>
+      <c r="L226" t="n">
+        <v>252.887459722271</v>
+      </c>
+      <c r="M226" t="n">
+        <v>252.88745972234</v>
+      </c>
+      <c r="N226" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K226"/>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -7832,10 +9875,19 @@
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
+      <c r="J227"/>
+      <c r="K227" t="n">
+        <v>285.399654887552</v>
+      </c>
+      <c r="L227" t="n">
+        <v>252.915911011158</v>
+      </c>
+      <c r="M227" t="n">
+        <v>252.915911011212</v>
+      </c>
+      <c r="N227" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K227"/>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -7863,10 +9915,19 @@
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
+      <c r="J228"/>
+      <c r="K228" t="n">
+        <v>285.579348172187</v>
+      </c>
+      <c r="L228" t="n">
+        <v>252.925725060066</v>
+      </c>
+      <c r="M228" t="n">
+        <v>252.925725060109</v>
+      </c>
+      <c r="N228" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K228"/>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -7894,10 +9955,19 @@
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
+      <c r="J229"/>
+      <c r="K229" t="n">
+        <v>285.759338285536</v>
+      </c>
+      <c r="L229" t="n">
+        <v>252.920690012208</v>
+      </c>
+      <c r="M229" t="n">
+        <v>252.920690012242</v>
+      </c>
+      <c r="N229" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K229"/>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -7925,10 +9995,19 @@
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="n">
+      <c r="J230"/>
+      <c r="K230" t="n">
+        <v>289.86405141166</v>
+      </c>
+      <c r="L230" t="n">
+        <v>253.583725647722</v>
+      </c>
+      <c r="M230" t="n">
+        <v>253.583725647749</v>
+      </c>
+      <c r="N230" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K230"/>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -7956,10 +10035,19 @@
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="n">
+      <c r="J231"/>
+      <c r="K231" t="n">
+        <v>290.044636558414</v>
+      </c>
+      <c r="L231" t="n">
+        <v>254.098355738074</v>
+      </c>
+      <c r="M231" t="n">
+        <v>254.098355738096</v>
+      </c>
+      <c r="N231" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K231"/>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -7987,10 +10075,19 @@
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="n">
+      <c r="J232"/>
+      <c r="K232" t="n">
+        <v>290.225519909857</v>
+      </c>
+      <c r="L232" t="n">
+        <v>254.494892075426</v>
+      </c>
+      <c r="M232" t="n">
+        <v>254.494892075443</v>
+      </c>
+      <c r="N232" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K232"/>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -8018,10 +10115,19 @@
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
+      <c r="J233"/>
+      <c r="K233" t="n">
+        <v>290.406702001093</v>
+      </c>
+      <c r="L233" t="n">
+        <v>254.797450892366</v>
+      </c>
+      <c r="M233" t="n">
+        <v>254.79745089238</v>
+      </c>
+      <c r="N233" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K233"/>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -8049,10 +10155,19 @@
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
+      <c r="J234"/>
+      <c r="K234" t="n">
+        <v>290.588183367224</v>
+      </c>
+      <c r="L234" t="n">
+        <v>255.025219191587</v>
+      </c>
+      <c r="M234" t="n">
+        <v>255.025219191598</v>
+      </c>
+      <c r="N234" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K234"/>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -8080,10 +10195,19 @@
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
+      <c r="J235"/>
+      <c r="K235" t="n">
+        <v>290.769964466907</v>
+      </c>
+      <c r="L235" t="n">
+        <v>255.193462251952</v>
+      </c>
+      <c r="M235" t="n">
+        <v>255.193462251961</v>
+      </c>
+      <c r="N235" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K235"/>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -8111,10 +10235,19 @@
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
+      <c r="J236"/>
+      <c r="K236" t="n">
+        <v>290.952045758803</v>
+      </c>
+      <c r="L236" t="n">
+        <v>255.314325201817</v>
+      </c>
+      <c r="M236" t="n">
+        <v>255.314325201824</v>
+      </c>
+      <c r="N236" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K236"/>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -8142,10 +10275,19 @@
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="n">
+      <c r="J237"/>
+      <c r="K237" t="n">
+        <v>291.134427778012</v>
+      </c>
+      <c r="L237" t="n">
+        <v>255.397470750831</v>
+      </c>
+      <c r="M237" t="n">
+        <v>255.397470750837</v>
+      </c>
+      <c r="N237" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K237"/>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -8173,10 +10315,19 @@
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
+      <c r="J238"/>
+      <c r="K238" t="n">
+        <v>291.317110983194</v>
+      </c>
+      <c r="L238" t="n">
+        <v>255.450586584666</v>
+      </c>
+      <c r="M238" t="n">
+        <v>255.45058658467</v>
+      </c>
+      <c r="N238" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K238"/>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -8204,10 +10355,19 @@
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="n">
+      <c r="J239"/>
+      <c r="K239" t="n">
+        <v>291.500095985895</v>
+      </c>
+      <c r="L239" t="n">
+        <v>255.479789035393</v>
+      </c>
+      <c r="M239" t="n">
+        <v>255.479789035396</v>
+      </c>
+      <c r="N239" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K239"/>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -8235,10 +10395,19 @@
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="n">
+      <c r="J240"/>
+      <c r="K240" t="n">
+        <v>291.683383091886</v>
+      </c>
+      <c r="L240" t="n">
+        <v>255.489944277149</v>
+      </c>
+      <c r="M240" t="n">
+        <v>255.489944277152</v>
+      </c>
+      <c r="N240" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K240"/>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -8266,10 +10435,19 @@
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="n">
+      <c r="J241"/>
+      <c r="K241" t="n">
+        <v>291.866972989155</v>
+      </c>
+      <c r="L241" t="n">
+        <v>255.484923822526</v>
+      </c>
+      <c r="M241" t="n">
+        <v>255.484923822529</v>
+      </c>
+      <c r="N241" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K241"/>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -8297,10 +10475,19 @@
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="n">
+      <c r="J242"/>
+      <c r="K242" t="n">
+        <v>296.061629333094</v>
+      </c>
+      <c r="L242" t="n">
+        <v>256.162671710323</v>
+      </c>
+      <c r="M242" t="n">
+        <v>256.162671710325</v>
+      </c>
+      <c r="N242" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K242"/>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -8328,10 +10515,19 @@
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="n">
+      <c r="J243"/>
+      <c r="K243" t="n">
+        <v>296.245826112454</v>
+      </c>
+      <c r="L243" t="n">
+        <v>256.68874926239</v>
+      </c>
+      <c r="M243" t="n">
+        <v>256.688749262392</v>
+      </c>
+      <c r="N243" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K243"/>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -8359,10 +10555,19 @@
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="n">
+      <c r="J244"/>
+      <c r="K244" t="n">
+        <v>296.430327135513</v>
+      </c>
+      <c r="L244" t="n">
+        <v>257.094135140664</v>
+      </c>
+      <c r="M244" t="n">
+        <v>257.094135140665</v>
+      </c>
+      <c r="N244" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K244"/>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -8390,10 +10595,19 @@
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="n">
+      <c r="J245"/>
+      <c r="K245" t="n">
+        <v>296.615132937373</v>
+      </c>
+      <c r="L245" t="n">
+        <v>257.403476143924</v>
+      </c>
+      <c r="M245" t="n">
+        <v>257.403476143925</v>
+      </c>
+      <c r="N245" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K245"/>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -8421,10 +10635,19 @@
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="n">
+      <c r="J246"/>
+      <c r="K246" t="n">
+        <v>296.800243900249</v>
+      </c>
+      <c r="L246" t="n">
+        <v>257.636381407892</v>
+      </c>
+      <c r="M246" t="n">
+        <v>257.636381407892</v>
+      </c>
+      <c r="N246" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K246"/>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -8452,10 +10675,19 @@
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="n">
+      <c r="J247"/>
+      <c r="K247" t="n">
+        <v>296.985660559242</v>
+      </c>
+      <c r="L247" t="n">
+        <v>257.808452057921</v>
+      </c>
+      <c r="M247" t="n">
+        <v>257.808452057921</v>
+      </c>
+      <c r="N247" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K247"/>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -8483,10 +10715,19 @@
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="n">
+      <c r="J248"/>
+      <c r="K248" t="n">
+        <v>297.171383525899</v>
+      </c>
+      <c r="L248" t="n">
+        <v>257.932100413241</v>
+      </c>
+      <c r="M248" t="n">
+        <v>257.932100413242</v>
+      </c>
+      <c r="N248" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K248"/>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -8514,10 +10755,19 @@
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="n">
+      <c r="J249"/>
+      <c r="K249" t="n">
+        <v>297.357413182435</v>
+      </c>
+      <c r="L249" t="n">
+        <v>258.017201773314</v>
+      </c>
+      <c r="M249" t="n">
+        <v>258.017201773314</v>
+      </c>
+      <c r="N249" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K249"/>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -8545,10 +10795,19 @@
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="n">
+      <c r="J250"/>
+      <c r="K250" t="n">
+        <v>297.543750063952</v>
+      </c>
+      <c r="L250" t="n">
+        <v>258.071612956273</v>
+      </c>
+      <c r="M250" t="n">
+        <v>258.071612956273</v>
+      </c>
+      <c r="N250" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K250"/>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -8576,10 +10835,19 @@
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="n">
+      <c r="J251"/>
+      <c r="K251" t="n">
+        <v>297.730394705552</v>
+      </c>
+      <c r="L251" t="n">
+        <v>258.101584862601</v>
+      </c>
+      <c r="M251" t="n">
+        <v>258.101584862601</v>
+      </c>
+      <c r="N251" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K251"/>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -8607,10 +10875,19 @@
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="n">
+      <c r="J252"/>
+      <c r="K252" t="n">
+        <v>297.917347642337</v>
+      </c>
+      <c r="L252" t="n">
+        <v>258.112090713622</v>
+      </c>
+      <c r="M252" t="n">
+        <v>258.112090713622</v>
+      </c>
+      <c r="N252" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K252"/>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -8638,10 +10915,19 @@
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="n">
+      <c r="J253"/>
+      <c r="K253" t="n">
+        <v>298.104609332965</v>
+      </c>
+      <c r="L253" t="n">
+        <v>258.107087205776</v>
+      </c>
+      <c r="M253" t="n">
+        <v>258.107087205776</v>
+      </c>
+      <c r="N253" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K253"/>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -8669,10 +10955,19 @@
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="n">
+      <c r="J254"/>
+      <c r="K254" t="n">
+        <v>302.391180280168</v>
+      </c>
+      <c r="L254" t="n">
+        <v>258.799873147409</v>
+      </c>
+      <c r="M254" t="n">
+        <v>258.799873147409</v>
+      </c>
+      <c r="N254" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K254"/>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -8700,10 +10995,19 @@
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="n">
+      <c r="J255"/>
+      <c r="K255" t="n">
+        <v>302.579061007347</v>
+      </c>
+      <c r="L255" t="n">
+        <v>259.337652211109</v>
+      </c>
+      <c r="M255" t="n">
+        <v>259.337652211109</v>
+      </c>
+      <c r="N255" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K255"/>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -8731,10 +11035,19 @@
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="n">
+      <c r="J256"/>
+      <c r="K256" t="n">
+        <v>302.767252017232</v>
+      </c>
+      <c r="L256" t="n">
+        <v>259.752084594127</v>
+      </c>
+      <c r="M256" t="n">
+        <v>259.752084594127</v>
+      </c>
+      <c r="N256" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K256"/>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -8762,10 +11075,19 @@
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="n">
+      <c r="J257"/>
+      <c r="K257" t="n">
+        <v>302.955753921369</v>
+      </c>
+      <c r="L257" t="n">
+        <v>260.068359323986</v>
+      </c>
+      <c r="M257" t="n">
+        <v>260.068359323986</v>
+      </c>
+      <c r="N257" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K257"/>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -8793,10 +11115,19 @@
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="n">
+      <c r="J258"/>
+      <c r="K258" t="n">
+        <v>303.144567101973</v>
+      </c>
+      <c r="L258" t="n">
+        <v>260.306516937327</v>
+      </c>
+      <c r="M258" t="n">
+        <v>260.306516937327</v>
+      </c>
+      <c r="N258" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K258"/>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -8824,10 +11155,19 @@
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="n">
+      <c r="J259"/>
+      <c r="K259" t="n">
+        <v>303.333692094147</v>
+      </c>
+      <c r="L259" t="n">
+        <v>260.482501785054</v>
+      </c>
+      <c r="M259" t="n">
+        <v>260.482501785054</v>
+      </c>
+      <c r="N259" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K259"/>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -8855,10 +11195,19 @@
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="n">
+      <c r="J260"/>
+      <c r="K260" t="n">
+        <v>303.523129509435</v>
+      </c>
+      <c r="L260" t="n">
+        <v>260.608999259009</v>
+      </c>
+      <c r="M260" t="n">
+        <v>260.608999259009</v>
+      </c>
+      <c r="N260" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K260"/>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -8886,10 +11235,19 @@
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="n">
+      <c r="J261"/>
+      <c r="K261" t="n">
+        <v>303.712879806497</v>
+      </c>
+      <c r="L261" t="n">
+        <v>260.696101911649</v>
+      </c>
+      <c r="M261" t="n">
+        <v>260.696101911649</v>
+      </c>
+      <c r="N261" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K261"/>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -8917,10 +11275,19 @@
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="n">
+      <c r="J262"/>
+      <c r="K262" t="n">
+        <v>303.90294344399</v>
+      </c>
+      <c r="L262" t="n">
+        <v>260.751839414547</v>
+      </c>
+      <c r="M262" t="n">
+        <v>260.751839414547</v>
+      </c>
+      <c r="N262" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K262"/>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -8948,10 +11315,19 @@
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="n">
+      <c r="J263"/>
+      <c r="K263" t="n">
+        <v>304.093320957018</v>
+      </c>
+      <c r="L263" t="n">
+        <v>260.782600191569</v>
+      </c>
+      <c r="M263" t="n">
+        <v>260.782600191569</v>
+      </c>
+      <c r="N263" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K263"/>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -8979,10 +11355,19 @@
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="n">
+      <c r="J264"/>
+      <c r="K264" t="n">
+        <v>304.284012957125</v>
+      </c>
+      <c r="L264" t="n">
+        <v>260.793466873141</v>
+      </c>
+      <c r="M264" t="n">
+        <v>260.793466873141</v>
+      </c>
+      <c r="N264" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K264"/>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -9010,10 +11395,19 @@
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="n">
+      <c r="J265"/>
+      <c r="K265" t="n">
+        <v>304.475019826527</v>
+      </c>
+      <c r="L265" t="n">
+        <v>260.788483207788</v>
+      </c>
+      <c r="M265" t="n">
+        <v>260.788483207788</v>
+      </c>
+      <c r="N265" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K265"/>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -9041,10 +11435,19 @@
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="n">
+      <c r="J266"/>
+      <c r="K266" t="n">
+        <v>308.855520231831</v>
+      </c>
+      <c r="L266" t="n">
+        <v>261.496640572941</v>
+      </c>
+      <c r="M266" t="n">
+        <v>261.496640572941</v>
+      </c>
+      <c r="N266" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K266"/>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -9072,10 +11475,19 @@
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="n">
+      <c r="J267"/>
+      <c r="K267" t="n">
+        <v>309.047158598015</v>
+      </c>
+      <c r="L267" t="n">
+        <v>262.046381121266</v>
+      </c>
+      <c r="M267" t="n">
+        <v>262.046381121266</v>
+      </c>
+      <c r="N267" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K267"/>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -9103,10 +11515,19 @@
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="n">
+      <c r="J268"/>
+      <c r="K268" t="n">
+        <v>309.2391134388</v>
+      </c>
+      <c r="L268" t="n">
+        <v>262.470061576199</v>
+      </c>
+      <c r="M268" t="n">
+        <v>262.470061576199</v>
+      </c>
+      <c r="N268" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K268"/>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -9134,10 +11555,19 @@
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="n">
+      <c r="J269"/>
+      <c r="K269" t="n">
+        <v>309.431385365731</v>
+      </c>
+      <c r="L269" t="n">
+        <v>262.793425126296</v>
+      </c>
+      <c r="M269" t="n">
+        <v>262.793425126296</v>
+      </c>
+      <c r="N269" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K269"/>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -9165,10 +11595,19 @@
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="n">
+      <c r="J270"/>
+      <c r="K270" t="n">
+        <v>309.623974837467</v>
+      </c>
+      <c r="L270" t="n">
+        <v>263.036953197081</v>
+      </c>
+      <c r="M270" t="n">
+        <v>263.036953197081</v>
+      </c>
+      <c r="N270" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K270"/>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -9196,10 +11635,19 @@
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="n">
+      <c r="J271"/>
+      <c r="K271" t="n">
+        <v>309.816882312667</v>
+      </c>
+      <c r="L271" t="n">
+        <v>263.216940919148</v>
+      </c>
+      <c r="M271" t="n">
+        <v>263.216940919148</v>
+      </c>
+      <c r="N271" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K271"/>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -9227,10 +11675,19 @@
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="n">
+      <c r="J272"/>
+      <c r="K272" t="n">
+        <v>310.010108479318</v>
+      </c>
+      <c r="L272" t="n">
+        <v>263.346352761622</v>
+      </c>
+      <c r="M272" t="n">
+        <v>263.346352761622</v>
+      </c>
+      <c r="N272" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K272"/>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -9258,10 +11715,19 @@
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="n">
+      <c r="J273"/>
+      <c r="K273" t="n">
+        <v>310.203653719638</v>
+      </c>
+      <c r="L273" t="n">
+        <v>263.435503318225</v>
+      </c>
+      <c r="M273" t="n">
+        <v>263.435503318225</v>
+      </c>
+      <c r="N273" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K273"/>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -9289,10 +11755,19 @@
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="n">
+      <c r="J274"/>
+      <c r="K274" t="n">
+        <v>310.39751864517</v>
+      </c>
+      <c r="L274" t="n">
+        <v>263.492598907183</v>
+      </c>
+      <c r="M274" t="n">
+        <v>263.492598907183</v>
+      </c>
+      <c r="N274" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K274"/>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -9320,10 +11795,19 @@
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="n">
+      <c r="J275"/>
+      <c r="K275" t="n">
+        <v>310.591703714574</v>
+      </c>
+      <c r="L275" t="n">
+        <v>263.524168499109</v>
+      </c>
+      <c r="M275" t="n">
+        <v>263.524168499109</v>
+      </c>
+      <c r="N275" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K275"/>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -9351,10 +11835,19 @@
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="n">
+      <c r="J276"/>
+      <c r="K276" t="n">
+        <v>310.786209539394</v>
+      </c>
+      <c r="L276" t="n">
+        <v>263.535406544391</v>
+      </c>
+      <c r="M276" t="n">
+        <v>263.535406544391</v>
+      </c>
+      <c r="N276" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K276"/>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -9382,10 +11875,19 @@
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="n">
+      <c r="J277"/>
+      <c r="K277" t="n">
+        <v>310.98103657829</v>
+      </c>
+      <c r="L277" t="n">
+        <v>263.530445750833</v>
+      </c>
+      <c r="M277" t="n">
+        <v>263.530445750833</v>
+      </c>
+      <c r="N277" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K277"/>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -9413,10 +11915,19 @@
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="n">
+      <c r="J278"/>
+      <c r="K278" t="n">
+        <v>315.457525316372</v>
+      </c>
+      <c r="L278" t="n">
+        <v>264.254315306822</v>
+      </c>
+      <c r="M278" t="n">
+        <v>264.254315306822</v>
+      </c>
+      <c r="N278" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K278"/>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -9444,10 +11955,19 @@
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="n">
+      <c r="J279"/>
+      <c r="K279" t="n">
+        <v>315.652996465168</v>
+      </c>
+      <c r="L279" t="n">
+        <v>264.816283094734</v>
+      </c>
+      <c r="M279" t="n">
+        <v>264.816283094734</v>
+      </c>
+      <c r="N279" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K279"/>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -9475,10 +11995,19 @@
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="n">
+      <c r="J280"/>
+      <c r="K280" t="n">
+        <v>315.848790433346</v>
+      </c>
+      <c r="L280" t="n">
+        <v>265.249417685289</v>
+      </c>
+      <c r="M280" t="n">
+        <v>265.249417685289</v>
+      </c>
+      <c r="N280" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K280"/>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -9506,10 +12035,19 @@
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="n">
+      <c r="J281"/>
+      <c r="K281" t="n">
+        <v>316.044907756007</v>
+      </c>
+      <c r="L281" t="n">
+        <v>265.580028623102</v>
+      </c>
+      <c r="M281" t="n">
+        <v>265.580028623102</v>
+      </c>
+      <c r="N281" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K281"/>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -9537,10 +12075,19 @@
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="n">
+      <c r="J282"/>
+      <c r="K282" t="n">
+        <v>316.241348968254</v>
+      </c>
+      <c r="L282" t="n">
+        <v>265.82904792503</v>
+      </c>
+      <c r="M282" t="n">
+        <v>265.82904792503</v>
+      </c>
+      <c r="N282" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K282"/>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -9568,10 +12115,19 @@
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="n">
+      <c r="J283"/>
+      <c r="K283" t="n">
+        <v>316.438114681632</v>
+      </c>
+      <c r="L283" t="n">
+        <v>266.013129204324</v>
+      </c>
+      <c r="M283" t="n">
+        <v>266.013129204324</v>
+      </c>
+      <c r="N283" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K283"/>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -9599,10 +12155,19 @@
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="n">
+      <c r="J284"/>
+      <c r="K284" t="n">
+        <v>316.635205354799</v>
+      </c>
+      <c r="L284" t="n">
+        <v>266.145522157747</v>
+      </c>
+      <c r="M284" t="n">
+        <v>266.145522157747</v>
+      </c>
+      <c r="N284" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K284"/>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -9630,10 +12195,19 @@
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="n">
+      <c r="J285"/>
+      <c r="K285" t="n">
+        <v>316.832621522858</v>
+      </c>
+      <c r="L285" t="n">
+        <v>266.236768297187</v>
+      </c>
+      <c r="M285" t="n">
+        <v>266.236768297187</v>
+      </c>
+      <c r="N285" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K285"/>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -9661,10 +12235,19 @@
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="n">
+      <c r="J286"/>
+      <c r="K286" t="n">
+        <v>317.03036372091</v>
+      </c>
+      <c r="L286" t="n">
+        <v>266.295254483981</v>
+      </c>
+      <c r="M286" t="n">
+        <v>266.295254483981</v>
+      </c>
+      <c r="N286" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K286"/>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -9692,10 +12275,19 @@
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="n">
+      <c r="J287"/>
+      <c r="K287" t="n">
+        <v>317.228432484058</v>
+      </c>
+      <c r="L287" t="n">
+        <v>266.327653324633</v>
+      </c>
+      <c r="M287" t="n">
+        <v>266.327653324633</v>
+      </c>
+      <c r="N287" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K287"/>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -9723,10 +12315,19 @@
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="n">
+      <c r="J288"/>
+      <c r="K288" t="n">
+        <v>317.426828423846</v>
+      </c>
+      <c r="L288" t="n">
+        <v>266.339273547233</v>
+      </c>
+      <c r="M288" t="n">
+        <v>266.339273547233</v>
+      </c>
+      <c r="N288" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K288"/>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -9754,10 +12355,19 @@
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="n">
+      <c r="J289"/>
+      <c r="K289" t="n">
+        <v>317.625552075376</v>
+      </c>
+      <c r="L289" t="n">
+        <v>266.334338774259</v>
+      </c>
+      <c r="M289" t="n">
+        <v>266.334338774259</v>
+      </c>
+      <c r="N289" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K289"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.Data/tempdata.xlsx
+++ b/1.Data/tempdata.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">year</t>
   </si>
@@ -41,19 +41,10 @@
     <t xml:space="preserve">gdp_less_1</t>
   </si>
   <si>
-    <t xml:space="preserve">err</t>
+    <t xml:space="preserve">model</t>
   </si>
   <si>
-    <t xml:space="preserve">Algorithm 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algorithm 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algorithm 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algorithm 1</t>
+    <t xml:space="preserve">err</t>
   </si>
 </sst>
 </file>
@@ -419,15 +410,6 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -458,19 +440,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>432.57059813702</v>
+      </c>
+      <c r="K2" t="n">
         <v>0.148177402081191</v>
-      </c>
-      <c r="K2" t="n">
-        <v>405.333867241373</v>
-      </c>
-      <c r="L2" t="n">
-        <v>399.003871899436</v>
-      </c>
-      <c r="M2" t="n">
-        <v>381.556622489238</v>
-      </c>
-      <c r="N2" t="n">
-        <v>432.57059813702</v>
       </c>
     </row>
     <row r="3">
@@ -502,19 +475,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>458.136753049824</v>
+      </c>
+      <c r="K3" t="n">
         <v>0.21577447058742</v>
-      </c>
-      <c r="K3" t="n">
-        <v>437.320386195379</v>
-      </c>
-      <c r="L3" t="n">
-        <v>418.604749915531</v>
-      </c>
-      <c r="M3" t="n">
-        <v>400.478833417286</v>
-      </c>
-      <c r="N3" t="n">
-        <v>458.136753049824</v>
       </c>
     </row>
     <row r="4">
@@ -546,19 +510,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>460.246240182759</v>
+      </c>
+      <c r="K4" t="n">
         <v>0.214686291783081</v>
-      </c>
-      <c r="K4" t="n">
-        <v>449.995702795078</v>
-      </c>
-      <c r="L4" t="n">
-        <v>433.234004644509</v>
-      </c>
-      <c r="M4" t="n">
-        <v>407.412185206578</v>
-      </c>
-      <c r="N4" t="n">
-        <v>460.246240182759</v>
       </c>
     </row>
     <row r="5">
@@ -590,19 +545,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>481.967284617708</v>
+      </c>
+      <c r="K5" t="n">
         <v>0.187223533299493</v>
-      </c>
-      <c r="K5" t="n">
-        <v>447.186398463372</v>
-      </c>
-      <c r="L5" t="n">
-        <v>442.789084890856</v>
-      </c>
-      <c r="M5" t="n">
-        <v>418.87571377923</v>
-      </c>
-      <c r="N5" t="n">
-        <v>481.967284617708</v>
       </c>
     </row>
     <row r="6">
@@ -634,19 +580,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
+        <v>435.497579546441</v>
+      </c>
+      <c r="K6" t="n">
         <v>0.0116466153726908</v>
-      </c>
-      <c r="K6" t="n">
-        <v>433.799001208146</v>
-      </c>
-      <c r="L6" t="n">
-        <v>444.933992605201</v>
-      </c>
-      <c r="M6" t="n">
-        <v>413.875147542657</v>
-      </c>
-      <c r="N6" t="n">
-        <v>435.497579546441</v>
       </c>
     </row>
     <row r="7">
@@ -678,19 +615,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
+        <v>396.504560080083</v>
+      </c>
+      <c r="K7" t="n">
         <v>0.137103568096055</v>
-      </c>
-      <c r="K7" t="n">
-        <v>405.455594010189</v>
-      </c>
-      <c r="L7" t="n">
-        <v>438.26148130886</v>
-      </c>
-      <c r="M7" t="n">
-        <v>380.414994516049</v>
-      </c>
-      <c r="N7" t="n">
-        <v>396.504560080083</v>
       </c>
     </row>
     <row r="8">
@@ -722,19 +650,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>409.036252763207</v>
+      </c>
+      <c r="K8" t="n">
         <v>0.107741302732789</v>
-      </c>
-      <c r="K8" t="n">
-        <v>412.445830354208</v>
-      </c>
-      <c r="L8" t="n">
-        <v>434.834428605101</v>
-      </c>
-      <c r="M8" t="n">
-        <v>365.46307179293</v>
-      </c>
-      <c r="N8" t="n">
-        <v>409.036252763207</v>
       </c>
     </row>
     <row r="9">
@@ -766,19 +685,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
+        <v>410.734791704254</v>
+      </c>
+      <c r="K9" t="n">
         <v>0.188238512794463</v>
-      </c>
-      <c r="K9" t="n">
-        <v>421.58711812997</v>
-      </c>
-      <c r="L9" t="n">
-        <v>435.135548458475</v>
-      </c>
-      <c r="M9" t="n">
-        <v>373.886651971657</v>
-      </c>
-      <c r="N9" t="n">
-        <v>410.734791704254</v>
       </c>
     </row>
     <row r="10">
@@ -810,19 +720,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>434.244557625432</v>
+      </c>
+      <c r="K10" t="n">
         <v>0.16882681839958</v>
-      </c>
-      <c r="K10" t="n">
-        <v>444.797971176248</v>
-      </c>
-      <c r="L10" t="n">
-        <v>438.316753859564</v>
-      </c>
-      <c r="M10" t="n">
-        <v>396.141419925867</v>
-      </c>
-      <c r="N10" t="n">
-        <v>434.244557625432</v>
       </c>
     </row>
     <row r="11">
@@ -854,19 +755,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>443.607483619368</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.13825976205849</v>
-      </c>
-      <c r="K11" t="n">
-        <v>460.004755860796</v>
-      </c>
-      <c r="L11" t="n">
-        <v>440.679239067443</v>
-      </c>
-      <c r="M11" t="n">
-        <v>418.860442956491</v>
-      </c>
-      <c r="N11" t="n">
-        <v>443.607483619368</v>
       </c>
     </row>
     <row r="12">
@@ -898,19 +790,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
+        <v>447.866973623963</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.0153670639356719</v>
-      </c>
-      <c r="K12" t="n">
-        <v>466.06447209836</v>
-      </c>
-      <c r="L12" t="n">
-        <v>444.66487985013</v>
-      </c>
-      <c r="M12" t="n">
-        <v>433.803517843588</v>
-      </c>
-      <c r="N12" t="n">
-        <v>447.866973623963</v>
       </c>
     </row>
     <row r="13">
@@ -942,19 +825,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
+        <v>468.713824064053</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.154020917684248</v>
-      </c>
-      <c r="K13" t="n">
-        <v>476.482669798385</v>
-      </c>
-      <c r="L13" t="n">
-        <v>451.841530051201</v>
-      </c>
-      <c r="M13" t="n">
-        <v>441.539802640819</v>
-      </c>
-      <c r="N13" t="n">
-        <v>468.713824064053</v>
       </c>
     </row>
     <row r="14">
@@ -986,19 +860,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
+        <v>451.637864947213</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.0776505617886258</v>
-      </c>
-      <c r="K14" t="n">
-        <v>471.05741190093</v>
-      </c>
-      <c r="L14" t="n">
-        <v>456.927465175358</v>
-      </c>
-      <c r="M14" t="n">
-        <v>434.768347267991</v>
-      </c>
-      <c r="N14" t="n">
-        <v>451.637864947213</v>
       </c>
     </row>
     <row r="15">
@@ -1030,19 +895,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
+        <v>483.101961399171</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.112790598163414</v>
-      </c>
-      <c r="K15" t="n">
-        <v>463.901818068824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>460.846467374375</v>
-      </c>
-      <c r="M15" t="n">
-        <v>452.559662533833</v>
-      </c>
-      <c r="N15" t="n">
-        <v>483.101961399171</v>
       </c>
     </row>
     <row r="16">
@@ -1074,19 +930,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
+        <v>447.986872629935</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.114259560759568</v>
-      </c>
-      <c r="K16" t="n">
-        <v>463.342863026497</v>
-      </c>
-      <c r="L16" t="n">
-        <v>461.944666011089</v>
-      </c>
-      <c r="M16" t="n">
-        <v>446.164370264788</v>
-      </c>
-      <c r="N16" t="n">
-        <v>447.986872629935</v>
       </c>
     </row>
     <row r="17">
@@ -1118,19 +965,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
+        <v>452.270713606811</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.093987380391332</v>
-      </c>
-      <c r="K17" t="n">
-        <v>465.48805385514</v>
-      </c>
-      <c r="L17" t="n">
-        <v>461.612040133293</v>
-      </c>
-      <c r="M17" t="n">
-        <v>458.70869872202</v>
-      </c>
-      <c r="N17" t="n">
-        <v>452.270713606811</v>
       </c>
     </row>
     <row r="18">
@@ -1162,19 +1000,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
+        <v>492.050405022726</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.027957698206035</v>
-      </c>
-      <c r="K18" t="n">
-        <v>455.481109671395</v>
-      </c>
-      <c r="L18" t="n">
-        <v>459.774059305578</v>
-      </c>
-      <c r="M18" t="n">
-        <v>454.492669480659</v>
-      </c>
-      <c r="N18" t="n">
-        <v>492.050405022726</v>
       </c>
     </row>
     <row r="19">
@@ -1206,19 +1035,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
+        <v>449.852607911018</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.0460189416880215</v>
-      </c>
-      <c r="K19" t="n">
-        <v>455.281030437977</v>
-      </c>
-      <c r="L19" t="n">
-        <v>456.627196705224</v>
-      </c>
-      <c r="M19" t="n">
-        <v>450.799130130747</v>
-      </c>
-      <c r="N19" t="n">
-        <v>449.852607911018</v>
       </c>
     </row>
     <row r="20">
@@ -1250,19 +1070,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
+        <v>446.835490896713</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.014409881116096</v>
-      </c>
-      <c r="K20" t="n">
-        <v>453.426805305791</v>
-      </c>
-      <c r="L20" t="n">
-        <v>452.242490482544</v>
-      </c>
-      <c r="M20" t="n">
-        <v>469.386464176504</v>
-      </c>
-      <c r="N20" t="n">
-        <v>446.835490896713</v>
       </c>
     </row>
     <row r="21">
@@ -1294,19 +1105,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
+        <v>457.647373130197</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.0105433301765431</v>
-      </c>
-      <c r="K21" t="n">
-        <v>456.581680429644</v>
-      </c>
-      <c r="L21" t="n">
-        <v>449.37712651188</v>
-      </c>
-      <c r="M21" t="n">
-        <v>475.879833967917</v>
-      </c>
-      <c r="N21" t="n">
-        <v>457.647373130197</v>
       </c>
     </row>
     <row r="22">
@@ -1338,19 +1140,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
+        <v>465.033725251635</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.000837831755456042</v>
-      </c>
-      <c r="K22" t="n">
-        <v>466.481139832568</v>
-      </c>
-      <c r="L22" t="n">
-        <v>448.862789422667</v>
-      </c>
-      <c r="M22" t="n">
-        <v>485.54270251812</v>
-      </c>
-      <c r="N22" t="n">
-        <v>465.033725251635</v>
       </c>
     </row>
     <row r="23">
@@ -1382,19 +1175,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
+        <v>491.110378692264</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.119144795722073</v>
-      </c>
-      <c r="K23" t="n">
-        <v>479.328246986678</v>
-      </c>
-      <c r="L23" t="n">
-        <v>450.916478600967</v>
-      </c>
-      <c r="M23" t="n">
-        <v>505.946477589003</v>
-      </c>
-      <c r="N23" t="n">
-        <v>491.110378692264</v>
       </c>
     </row>
     <row r="24">
@@ -1426,19 +1210,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
+        <v>606.158400418131</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.163670939628434</v>
-      </c>
-      <c r="K24" t="n">
-        <v>485.357733502365</v>
-      </c>
-      <c r="L24" t="n">
-        <v>454.288171481088</v>
-      </c>
-      <c r="M24" t="n">
-        <v>517.364869619763</v>
-      </c>
-      <c r="N24" t="n">
-        <v>606.158400418131</v>
       </c>
     </row>
     <row r="25">
@@ -1470,19 +1245,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
+        <v>613.829662207115</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.245134413632572</v>
-      </c>
-      <c r="K25" t="n">
-        <v>499.394501502267</v>
-      </c>
-      <c r="L25" t="n">
-        <v>460.011343979765</v>
-      </c>
-      <c r="M25" t="n">
-        <v>526.378599683</v>
-      </c>
-      <c r="N25" t="n">
-        <v>613.829662207115</v>
       </c>
     </row>
     <row r="26">
@@ -1514,19 +1280,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
+        <v>606.660214249498</v>
+      </c>
+      <c r="K26" t="n">
         <v>0.0445898713791575</v>
-      </c>
-      <c r="K26" t="n">
-        <v>478.629878584809</v>
-      </c>
-      <c r="L26" t="n">
-        <v>460.177041560771</v>
-      </c>
-      <c r="M26" t="n">
-        <v>517.646500920238</v>
-      </c>
-      <c r="N26" t="n">
-        <v>606.660214249498</v>
       </c>
     </row>
     <row r="27">
@@ -1558,19 +1315,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
+        <v>527.886479449395</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.0909688585694348</v>
-      </c>
-      <c r="K27" t="n">
-        <v>444.577077581569</v>
-      </c>
-      <c r="L27" t="n">
-        <v>453.324844306887</v>
-      </c>
-      <c r="M27" t="n">
-        <v>518.37075418948</v>
-      </c>
-      <c r="N27" t="n">
-        <v>527.886479449395</v>
       </c>
     </row>
     <row r="28">
@@ -1602,19 +1350,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
+        <v>522.63012842017</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.036116966483525</v>
-      </c>
-      <c r="K28" t="n">
-        <v>435.28256541332</v>
-      </c>
-      <c r="L28" t="n">
-        <v>445.342993928216</v>
-      </c>
-      <c r="M28" t="n">
-        <v>501.610311937055</v>
-      </c>
-      <c r="N28" t="n">
-        <v>522.63012842017</v>
       </c>
     </row>
     <row r="29">
@@ -1646,19 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
+        <v>528.803455131943</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.177704278630055</v>
-      </c>
-      <c r="K29" t="n">
-        <v>403.992823302102</v>
-      </c>
-      <c r="L29" t="n">
-        <v>433.989696086981</v>
-      </c>
-      <c r="M29" t="n">
-        <v>452.852366822834</v>
-      </c>
-      <c r="N29" t="n">
-        <v>528.803455131943</v>
       </c>
     </row>
     <row r="30">
@@ -1690,19 +1420,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
+        <v>396.921791020414</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.0029463310930179</v>
-      </c>
-      <c r="K30" t="n">
-        <v>385.887877305231</v>
-      </c>
-      <c r="L30" t="n">
-        <v>422.54000880632</v>
-      </c>
-      <c r="M30" t="n">
-        <v>397.316647919078</v>
-      </c>
-      <c r="N30" t="n">
-        <v>396.921791020414</v>
       </c>
     </row>
     <row r="31">
@@ -1734,19 +1455,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
+        <v>373.553857772931</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.114509558150956</v>
-      </c>
-      <c r="K31" t="n">
-        <v>358.524268070312</v>
-      </c>
-      <c r="L31" t="n">
-        <v>408.560372884546</v>
-      </c>
-      <c r="M31" t="n">
-        <v>368.270972064444</v>
-      </c>
-      <c r="N31" t="n">
-        <v>373.553857772931</v>
       </c>
     </row>
     <row r="32">
@@ -1778,19 +1490,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
+        <v>344.666046677695</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.061416093877448</v>
-      </c>
-      <c r="K32" t="n">
-        <v>340.481365555983</v>
-      </c>
-      <c r="L32" t="n">
-        <v>393.354160398142</v>
-      </c>
-      <c r="M32" t="n">
-        <v>359.058303726963</v>
-      </c>
-      <c r="N32" t="n">
-        <v>344.666046677695</v>
       </c>
     </row>
     <row r="33">
@@ -1822,19 +1525,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
+        <v>370.351440280027</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.0648757932495045</v>
-      </c>
-      <c r="K33" t="n">
-        <v>352.574017844779</v>
-      </c>
-      <c r="L33" t="n">
-        <v>382.747043617776</v>
-      </c>
-      <c r="M33" t="n">
-        <v>368.885876587974</v>
-      </c>
-      <c r="N33" t="n">
-        <v>370.351440280027</v>
       </c>
     </row>
     <row r="34">
@@ -1866,19 +1560,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
+        <v>399.359136658799</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.00723054963767544</v>
-      </c>
-      <c r="K34" t="n">
-        <v>389.867896348568</v>
-      </c>
-      <c r="L34" t="n">
-        <v>378.590543288056</v>
-      </c>
-      <c r="M34" t="n">
-        <v>397.479195848267</v>
-      </c>
-      <c r="N34" t="n">
-        <v>399.359136658799</v>
       </c>
     </row>
     <row r="35">
@@ -1910,19 +1595,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
+        <v>397.300308258569</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.065011539575573</v>
-      </c>
-      <c r="K35" t="n">
-        <v>395.099321610278</v>
-      </c>
-      <c r="L35" t="n">
-        <v>374.555905386433</v>
-      </c>
-      <c r="M35" t="n">
-        <v>400.744767559433</v>
-      </c>
-      <c r="N35" t="n">
-        <v>397.300308258569</v>
       </c>
     </row>
     <row r="36">
@@ -1954,19 +1630,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
+        <v>360.147567125084</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.0872782312216847</v>
-      </c>
-      <c r="K36" t="n">
-        <v>388.878601407687</v>
-      </c>
-      <c r="L36" t="n">
-        <v>369.311644506379</v>
-      </c>
-      <c r="M36" t="n">
-        <v>379.939307367785</v>
-      </c>
-      <c r="N36" t="n">
-        <v>360.147567125084</v>
       </c>
     </row>
     <row r="37">
@@ -1998,19 +1665,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
+        <v>351.897651093724</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.0487453952234058</v>
-      </c>
-      <c r="K37" t="n">
-        <v>380.049402788686</v>
-      </c>
-      <c r="L37" t="n">
-        <v>362.574206839266</v>
-      </c>
-      <c r="M37" t="n">
-        <v>367.235701829456</v>
-      </c>
-      <c r="N37" t="n">
-        <v>351.897651093724</v>
       </c>
     </row>
     <row r="38">
@@ -2042,19 +1700,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
+        <v>302.118743599946</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.025782057302103</v>
-      </c>
-      <c r="K38" t="n">
-        <v>323.387796734259</v>
-      </c>
-      <c r="L38" t="n">
-        <v>347.231372313176</v>
-      </c>
-      <c r="M38" t="n">
-        <v>313.414145624192</v>
-      </c>
-      <c r="N38" t="n">
-        <v>302.118743599946</v>
       </c>
     </row>
     <row r="39">
@@ -2086,19 +1735,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
+        <v>343.171259906857</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.142480446600843</v>
-      </c>
-      <c r="K39" t="n">
-        <v>343.559469433644</v>
-      </c>
-      <c r="L39" t="n">
-        <v>338.468979257864</v>
-      </c>
-      <c r="M39" t="n">
-        <v>326.412036301202</v>
-      </c>
-      <c r="N39" t="n">
-        <v>343.171259906857</v>
       </c>
     </row>
     <row r="40">
@@ -2130,19 +1770,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
+        <v>323.093175798819</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.0797531358866844</v>
-      </c>
-      <c r="K40" t="n">
-        <v>330.939424998388</v>
-      </c>
-      <c r="L40" t="n">
-        <v>328.822915838192</v>
-      </c>
-      <c r="M40" t="n">
-        <v>326.840498756134</v>
-      </c>
-      <c r="N40" t="n">
-        <v>323.093175798819</v>
       </c>
     </row>
     <row r="41">
@@ -2174,19 +1805,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
+        <v>303.719557092423</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.162518907230597</v>
-      </c>
-      <c r="K41" t="n">
-        <v>328.368324933841</v>
-      </c>
-      <c r="L41" t="n">
-        <v>320.159223171843</v>
-      </c>
-      <c r="M41" t="n">
-        <v>331.719249435281</v>
-      </c>
-      <c r="N41" t="n">
-        <v>303.719557092423</v>
       </c>
     </row>
     <row r="42">
@@ -2218,19 +1840,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
+        <v>309.88945293279</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.0357681125906201</v>
-      </c>
-      <c r="K42" t="n">
-        <v>327.929800645496</v>
-      </c>
-      <c r="L42" t="n">
-        <v>314.4465468709</v>
-      </c>
-      <c r="M42" t="n">
-        <v>343.151390626351</v>
-      </c>
-      <c r="N42" t="n">
-        <v>309.88945293279</v>
       </c>
     </row>
     <row r="43">
@@ -2262,19 +1875,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
+        <v>324.741772596372</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.126649530508997</v>
-      </c>
-      <c r="K43" t="n">
-        <v>325.411920126019</v>
-      </c>
-      <c r="L43" t="n">
-        <v>308.79550163989</v>
-      </c>
-      <c r="M43" t="n">
-        <v>335.034186878297</v>
-      </c>
-      <c r="N43" t="n">
-        <v>324.741772596372</v>
       </c>
     </row>
     <row r="44">
@@ -2306,19 +1910,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
+        <v>302.417460829246</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.114978389819172</v>
-      </c>
-      <c r="K44" t="n">
-        <v>324.500253417169</v>
-      </c>
-      <c r="L44" t="n">
-        <v>303.728813053792</v>
-      </c>
-      <c r="M44" t="n">
-        <v>315.277340170777</v>
-      </c>
-      <c r="N44" t="n">
-        <v>302.417460829246</v>
       </c>
     </row>
     <row r="45">
@@ -2350,19 +1945,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
+        <v>317.946536378854</v>
+      </c>
+      <c r="K45" t="n">
         <v>0.033836928432583</v>
-      </c>
-      <c r="K45" t="n">
-        <v>312.511898546172</v>
-      </c>
-      <c r="L45" t="n">
-        <v>297.032818325366</v>
-      </c>
-      <c r="M45" t="n">
-        <v>300.607827731559</v>
-      </c>
-      <c r="N45" t="n">
-        <v>317.946536378854</v>
       </c>
     </row>
     <row r="46">
@@ -2394,19 +1980,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
+        <v>297.319826777872</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.00740180911714916</v>
-      </c>
-      <c r="K46" t="n">
-        <v>306.676056606673</v>
-      </c>
-      <c r="L46" t="n">
-        <v>289.498912701191</v>
-      </c>
-      <c r="M46" t="n">
-        <v>280.03892833304</v>
-      </c>
-      <c r="N46" t="n">
-        <v>297.319826777872</v>
       </c>
     </row>
     <row r="47">
@@ -2438,19 +2015,10 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
+        <v>287.637705309767</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.0243891177633873</v>
-      </c>
-      <c r="K47" t="n">
-        <v>298.506743702141</v>
-      </c>
-      <c r="L47" t="n">
-        <v>281.43580819418</v>
-      </c>
-      <c r="M47" t="n">
-        <v>266.856914398108</v>
-      </c>
-      <c r="N47" t="n">
-        <v>287.637705309767</v>
       </c>
     </row>
     <row r="48">
@@ -2482,19 +2050,10 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
+        <v>281.905889935154</v>
+      </c>
+      <c r="K48" t="n">
         <v>0.161366398845489</v>
-      </c>
-      <c r="K48" t="n">
-        <v>280.278053045814</v>
-      </c>
-      <c r="L48" t="n">
-        <v>271.919780124286</v>
-      </c>
-      <c r="M48" t="n">
-        <v>241.748908252217</v>
-      </c>
-      <c r="N48" t="n">
-        <v>281.905889935154</v>
       </c>
     </row>
     <row r="49">
@@ -2526,19 +2085,10 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
+        <v>264.616000812865</v>
+      </c>
+      <c r="K49" t="n">
         <v>0.213338978079111</v>
-      </c>
-      <c r="K49" t="n">
-        <v>268.211656206139</v>
-      </c>
-      <c r="L49" t="n">
-        <v>261.861614894288</v>
-      </c>
-      <c r="M49" t="n">
-        <v>233.778099708263</v>
-      </c>
-      <c r="N49" t="n">
-        <v>264.616000812865</v>
       </c>
     </row>
     <row r="50">
@@ -2570,19 +2120,10 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
+        <v>221.762536447595</v>
+      </c>
+      <c r="K50" t="n">
         <v>0.0566040791477744</v>
-      </c>
-      <c r="K50" t="n">
-        <v>237.216934626237</v>
-      </c>
-      <c r="L50" t="n">
-        <v>247.796519556538</v>
-      </c>
-      <c r="M50" t="n">
-        <v>197.114051328394</v>
-      </c>
-      <c r="N50" t="n">
-        <v>221.762536447595</v>
       </c>
     </row>
     <row r="51">
@@ -2614,19 +2155,10 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
+        <v>228.066862745617</v>
+      </c>
+      <c r="K51" t="n">
         <v>0.436884554460833</v>
-      </c>
-      <c r="K51" t="n">
-        <v>225.290224055046</v>
-      </c>
-      <c r="L51" t="n">
-        <v>235.239176971568</v>
-      </c>
-      <c r="M51" t="n">
-        <v>169.166634478541</v>
-      </c>
-      <c r="N51" t="n">
-        <v>228.066862745617</v>
       </c>
     </row>
     <row r="52">
@@ -2658,19 +2190,10 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
+        <v>214.7973657157</v>
+      </c>
+      <c r="K52" t="n">
         <v>0.273001387525879</v>
-      </c>
-      <c r="K52" t="n">
-        <v>224.694717508937</v>
-      </c>
-      <c r="L52" t="n">
-        <v>226.01446353517</v>
-      </c>
-      <c r="M52" t="n">
-        <v>183.554901176787</v>
-      </c>
-      <c r="N52" t="n">
-        <v>214.7973657157</v>
       </c>
     </row>
     <row r="53">
@@ -2702,19 +2225,10 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
+        <v>221.232778511669</v>
+      </c>
+      <c r="K53" t="n">
         <v>0.0684911570063473</v>
-      </c>
-      <c r="K53" t="n">
-        <v>226.992919232127</v>
-      </c>
-      <c r="L53" t="n">
-        <v>218.809991420133</v>
-      </c>
-      <c r="M53" t="n">
-        <v>197.878124208103</v>
-      </c>
-      <c r="N53" t="n">
-        <v>221.232778511669</v>
       </c>
     </row>
     <row r="54">
@@ -2746,19 +2260,10 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
+        <v>248.898789632574</v>
+      </c>
+      <c r="K54" t="n">
         <v>0.107436181751048</v>
-      </c>
-      <c r="K54" t="n">
-        <v>240.684655651832</v>
-      </c>
-      <c r="L54" t="n">
-        <v>215.653883442158</v>
-      </c>
-      <c r="M54" t="n">
-        <v>222.576968108135</v>
-      </c>
-      <c r="N54" t="n">
-        <v>248.898789632574</v>
       </c>
     </row>
     <row r="55">
@@ -2790,19 +2295,10 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
+        <v>262.28818960813</v>
+      </c>
+      <c r="K55" t="n">
         <v>0.257720846834233</v>
-      </c>
-      <c r="K55" t="n">
-        <v>256.030186655775</v>
-      </c>
-      <c r="L55" t="n">
-        <v>216.108633429785</v>
-      </c>
-      <c r="M55" t="n">
-        <v>226.006404096697</v>
-      </c>
-      <c r="N55" t="n">
-        <v>262.28818960813</v>
       </c>
     </row>
     <row r="56">
@@ -2834,19 +2330,10 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
+        <v>247.751676991001</v>
+      </c>
+      <c r="K56" t="n">
         <v>0.218774354646297</v>
-      </c>
-      <c r="K56" t="n">
-        <v>255.756666345269</v>
-      </c>
-      <c r="L56" t="n">
-        <v>219.21302921969</v>
-      </c>
-      <c r="M56" t="n">
-        <v>222.707133061825</v>
-      </c>
-      <c r="N56" t="n">
-        <v>247.751676991001</v>
       </c>
     </row>
     <row r="57">
@@ -2878,19 +2365,10 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
+        <v>251.612750250278</v>
+      </c>
+      <c r="K57" t="n">
         <v>0.103384688782088</v>
-      </c>
-      <c r="K57" t="n">
-        <v>240.972438400394</v>
-      </c>
-      <c r="L57" t="n">
-        <v>221.190421330319</v>
-      </c>
-      <c r="M57" t="n">
-        <v>220.499910750953</v>
-      </c>
-      <c r="N57" t="n">
-        <v>251.612750250278</v>
       </c>
     </row>
     <row r="58">
@@ -2922,19 +2400,10 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
+        <v>246.658372023317</v>
+      </c>
+      <c r="K58" t="n">
         <v>0.0584147036400358</v>
-      </c>
-      <c r="K58" t="n">
-        <v>240.699476447214</v>
-      </c>
-      <c r="L58" t="n">
-        <v>224.556246842377</v>
-      </c>
-      <c r="M58" t="n">
-        <v>235.507496199191</v>
-      </c>
-      <c r="N58" t="n">
-        <v>246.658372023317</v>
       </c>
     </row>
     <row r="59">
@@ -2966,19 +2435,10 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
+        <v>305.109531179331</v>
+      </c>
+      <c r="K59" t="n">
         <v>0.181244985522576</v>
-      </c>
-      <c r="K59" t="n">
-        <v>285.247438251147</v>
-      </c>
-      <c r="L59" t="n">
-        <v>241.123287524751</v>
-      </c>
-      <c r="M59" t="n">
-        <v>250.093494246859</v>
-      </c>
-      <c r="N59" t="n">
-        <v>305.109531179331</v>
       </c>
     </row>
     <row r="60">
@@ -3010,19 +2470,10 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
+        <v>292.057562234465</v>
+      </c>
+      <c r="K60" t="n">
         <v>0.0301560524702047</v>
-      </c>
-      <c r="K60" t="n">
-        <v>299.187373451483</v>
-      </c>
-      <c r="L60" t="n">
-        <v>258.455718244085</v>
-      </c>
-      <c r="M60" t="n">
-        <v>280.034183324868</v>
-      </c>
-      <c r="N60" t="n">
-        <v>292.057562234465</v>
       </c>
     </row>
     <row r="61">
@@ -3054,19 +2505,10 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
+        <v>314.513467062243</v>
+      </c>
+      <c r="K61" t="n">
         <v>0.013318437071562</v>
-      </c>
-      <c r="K61" t="n">
-        <v>290.12803058834</v>
-      </c>
-      <c r="L61" t="n">
-        <v>266.630202820056</v>
-      </c>
-      <c r="M61" t="n">
-        <v>313.064039272931</v>
-      </c>
-      <c r="N61" t="n">
-        <v>314.513467062243</v>
       </c>
     </row>
     <row r="62">
@@ -3098,19 +2540,10 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
+        <v>308.983654782113</v>
+      </c>
+      <c r="K62" t="n">
         <v>0.0367720601037886</v>
-      </c>
-      <c r="K62" t="n">
-        <v>314.726416816129</v>
-      </c>
-      <c r="L62" t="n">
-        <v>276.063610408331</v>
-      </c>
-      <c r="M62" t="n">
-        <v>343.395849326813</v>
-      </c>
-      <c r="N62" t="n">
-        <v>308.983654782113</v>
       </c>
     </row>
     <row r="63">
@@ -3142,19 +2575,10 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
+        <v>326.191470810296</v>
+      </c>
+      <c r="K63" t="n">
         <v>0.140628609160303</v>
-      </c>
-      <c r="K63" t="n">
-        <v>318.871097867055</v>
-      </c>
-      <c r="L63" t="n">
-        <v>283.071284628594</v>
-      </c>
-      <c r="M63" t="n">
-        <v>391.779859515208</v>
-      </c>
-      <c r="N63" t="n">
-        <v>326.191470810296</v>
       </c>
     </row>
     <row r="64">
@@ -3186,19 +2610,10 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
+        <v>292.375510835502</v>
+      </c>
+      <c r="K64" t="n">
         <v>0.317664228320815</v>
-      </c>
-      <c r="K64" t="n">
-        <v>278.977562826584</v>
-      </c>
-      <c r="L64" t="n">
-        <v>282.279854236746</v>
-      </c>
-      <c r="M64" t="n">
-        <v>376.819116525086</v>
-      </c>
-      <c r="N64" t="n">
-        <v>292.375510835502</v>
       </c>
     </row>
     <row r="65">
@@ -3230,19 +2645,10 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
+        <v>271.709999145986</v>
+      </c>
+      <c r="K65" t="n">
         <v>0.158703017074588</v>
-      </c>
-      <c r="K65" t="n">
-        <v>277.621598418856</v>
-      </c>
-      <c r="L65" t="n">
-        <v>282.854969461184</v>
-      </c>
-      <c r="M65" t="n">
-        <v>318.7936930075</v>
-      </c>
-      <c r="N65" t="n">
-        <v>271.709999145986</v>
       </c>
     </row>
     <row r="66">
@@ -3274,19 +2680,10 @@
         <v>0</v>
       </c>
       <c r="J66" t="n">
+        <v>280.976022960852</v>
+      </c>
+      <c r="K66" t="n">
         <v>0.129713732388789</v>
-      </c>
-      <c r="K66" t="n">
-        <v>280.773303107501</v>
-      </c>
-      <c r="L66" t="n">
-        <v>280.234284177985</v>
-      </c>
-      <c r="M66" t="n">
-        <v>299.783801920249</v>
-      </c>
-      <c r="N66" t="n">
-        <v>280.976022960852</v>
       </c>
     </row>
     <row r="67">
@@ -3318,19 +2715,10 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
+        <v>276.710769184205</v>
+      </c>
+      <c r="K67" t="n">
         <v>0.159819257188718</v>
-      </c>
-      <c r="K67" t="n">
-        <v>271.512662976207</v>
-      </c>
-      <c r="L67" t="n">
-        <v>278.621546416818</v>
-      </c>
-      <c r="M67" t="n">
-        <v>295.012047546525</v>
-      </c>
-      <c r="N67" t="n">
-        <v>276.710769184205</v>
       </c>
     </row>
     <row r="68">
@@ -3362,19 +2750,10 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
+        <v>287.796171782433</v>
+      </c>
+      <c r="K68" t="n">
         <v>0.107887605707124</v>
-      </c>
-      <c r="K68" t="n">
-        <v>275.924872434025</v>
-      </c>
-      <c r="L68" t="n">
-        <v>280.372582390887</v>
-      </c>
-      <c r="M68" t="n">
-        <v>296.114900803902</v>
-      </c>
-      <c r="N68" t="n">
-        <v>287.796171782433</v>
       </c>
     </row>
     <row r="69">
@@ -3406,19 +2785,10 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
+        <v>294.204653227632</v>
+      </c>
+      <c r="K69" t="n">
         <v>0.0448787955167167</v>
-      </c>
-      <c r="K69" t="n">
-        <v>297.53695142606</v>
-      </c>
-      <c r="L69" t="n">
-        <v>288.111373204185</v>
-      </c>
-      <c r="M69" t="n">
-        <v>307.75685575324</v>
-      </c>
-      <c r="N69" t="n">
-        <v>294.204653227632</v>
       </c>
     </row>
     <row r="70">
@@ -3450,19 +2820,10 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
+        <v>301.691092413989</v>
+      </c>
+      <c r="K70" t="n">
         <v>0.0829861733582574</v>
-      </c>
-      <c r="K70" t="n">
-        <v>312.478449168285</v>
-      </c>
-      <c r="L70" t="n">
-        <v>297.120343819498</v>
-      </c>
-      <c r="M70" t="n">
-        <v>321.24932809965</v>
-      </c>
-      <c r="N70" t="n">
-        <v>301.691092413989</v>
       </c>
     </row>
     <row r="71">
@@ -3494,19 +2855,10 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
+        <v>319.312024467098</v>
+      </c>
+      <c r="K71" t="n">
         <v>0.168476954554508</v>
-      </c>
-      <c r="K71" t="n">
-        <v>321.973339056664</v>
-      </c>
-      <c r="L71" t="n">
-        <v>305.923719785139</v>
-      </c>
-      <c r="M71" t="n">
-        <v>305.39669480651</v>
-      </c>
-      <c r="N71" t="n">
-        <v>319.312024467098</v>
       </c>
     </row>
     <row r="72">
@@ -3538,19 +2890,10 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
+        <v>330.49668101173</v>
+      </c>
+      <c r="K72" t="n">
         <v>0.0496051270874744</v>
-      </c>
-      <c r="K72" t="n">
-        <v>337.028211770118</v>
-      </c>
-      <c r="L72" t="n">
-        <v>315.343799059014</v>
-      </c>
-      <c r="M72" t="n">
-        <v>332.096996997861</v>
-      </c>
-      <c r="N72" t="n">
-        <v>330.49668101173</v>
       </c>
     </row>
     <row r="73">
@@ -3582,19 +2925,10 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
+        <v>356.295527589136</v>
+      </c>
+      <c r="K73" t="n">
         <v>0.0075696557258792</v>
-      </c>
-      <c r="K73" t="n">
-        <v>369.033829312493</v>
-      </c>
-      <c r="L73" t="n">
-        <v>329.709468681721</v>
-      </c>
-      <c r="M73" t="n">
-        <v>371.255966927199</v>
-      </c>
-      <c r="N73" t="n">
-        <v>356.295527589136</v>
       </c>
     </row>
     <row r="74">
@@ -3626,19 +2960,10 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
+        <v>375.305433198639</v>
+      </c>
+      <c r="K74" t="n">
         <v>0.119308857576634</v>
-      </c>
-      <c r="K74" t="n">
-        <v>348.92482066583</v>
-      </c>
-      <c r="L74" t="n">
-        <v>339.956680838056</v>
-      </c>
-      <c r="M74" t="n">
-        <v>421.21251506788</v>
-      </c>
-      <c r="N74" t="n">
-        <v>375.305433198639</v>
       </c>
     </row>
     <row r="75">
@@ -3670,19 +2995,10 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
+        <v>361.685257255795</v>
+      </c>
+      <c r="K75" t="n">
         <v>0.148083556975482</v>
-      </c>
-      <c r="K75" t="n">
-        <v>341.301017548558</v>
-      </c>
-      <c r="L75" t="n">
-        <v>345.966427316259</v>
-      </c>
-      <c r="M75" t="n">
-        <v>403.567645654752</v>
-      </c>
-      <c r="N75" t="n">
-        <v>361.685257255795</v>
       </c>
     </row>
     <row r="76">
@@ -3714,19 +3030,10 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
+        <v>354.326572135129</v>
+      </c>
+      <c r="K76" t="n">
         <v>0.1413905352792</v>
-      </c>
-      <c r="K76" t="n">
-        <v>346.254582082701</v>
-      </c>
-      <c r="L76" t="n">
-        <v>348.510709653008</v>
-      </c>
-      <c r="M76" t="n">
-        <v>383.431839588428</v>
-      </c>
-      <c r="N76" t="n">
-        <v>354.326572135129</v>
       </c>
     </row>
     <row r="77">
@@ -3758,19 +3065,10 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
+        <v>337.857230728644</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.0970986397273873</v>
-      </c>
-      <c r="K77" t="n">
-        <v>350.375040432532</v>
-      </c>
-      <c r="L77" t="n">
-        <v>350.900427146589</v>
-      </c>
-      <c r="M77" t="n">
-        <v>383.112628161597</v>
-      </c>
-      <c r="N77" t="n">
-        <v>337.857230728644</v>
       </c>
     </row>
     <row r="78">
@@ -3802,19 +3100,10 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
+        <v>362.574707599226</v>
+      </c>
+      <c r="K78" t="n">
         <v>0.127800705554757</v>
-      </c>
-      <c r="K78" t="n">
-        <v>374.934567045424</v>
-      </c>
-      <c r="L78" t="n">
-        <v>360.590146464617</v>
-      </c>
-      <c r="M78" t="n">
-        <v>389.531190810064</v>
-      </c>
-      <c r="N78" t="n">
-        <v>362.574707599226</v>
       </c>
     </row>
     <row r="79">
@@ -3846,19 +3135,10 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
+        <v>370.828975887639</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.222127444398568</v>
-      </c>
-      <c r="K79" t="n">
-        <v>378.847562469259</v>
-      </c>
-      <c r="L79" t="n">
-        <v>371.87963741472</v>
-      </c>
-      <c r="M79" t="n">
-        <v>430.106671680424</v>
-      </c>
-      <c r="N79" t="n">
-        <v>370.828975887639</v>
       </c>
     </row>
     <row r="80">
@@ -3890,19 +3170,10 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
+        <v>411.498383665753</v>
+      </c>
+      <c r="K80" t="n">
         <v>0.0314653793410081</v>
-      </c>
-      <c r="K80" t="n">
-        <v>384.34897862091</v>
-      </c>
-      <c r="L80" t="n">
-        <v>383.241752411331</v>
-      </c>
-      <c r="M80" t="n">
-        <v>412.289897165309</v>
-      </c>
-      <c r="N80" t="n">
-        <v>411.498383665753</v>
       </c>
     </row>
     <row r="81">
@@ -3934,19 +3205,10 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
+        <v>409.693025222463</v>
+      </c>
+      <c r="K81" t="n">
         <v>0.109493833941238</v>
-      </c>
-      <c r="K81" t="n">
-        <v>393.603621842905</v>
-      </c>
-      <c r="L81" t="n">
-        <v>392.782377351132</v>
-      </c>
-      <c r="M81" t="n">
-        <v>412.75457482011</v>
-      </c>
-      <c r="N81" t="n">
-        <v>409.693025222463</v>
       </c>
     </row>
     <row r="82">
@@ -3978,19 +3240,10 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
+        <v>418.379648300367</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.057181802594418</v>
-      </c>
-      <c r="K82" t="n">
-        <v>447.145211418397</v>
-      </c>
-      <c r="L82" t="n">
-        <v>407.884492997543</v>
-      </c>
-      <c r="M82" t="n">
-        <v>438.099940300937</v>
-      </c>
-      <c r="N82" t="n">
-        <v>418.379648300367</v>
       </c>
     </row>
     <row r="83">
@@ -4022,19 +3275,10 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
+        <v>416.569890765881</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.0477218412134246</v>
-      </c>
-      <c r="K83" t="n">
-        <v>433.000501571815</v>
-      </c>
-      <c r="L83" t="n">
-        <v>415.914621082354</v>
-      </c>
-      <c r="M83" t="n">
-        <v>424.613732747522</v>
-      </c>
-      <c r="N83" t="n">
-        <v>416.569890765881</v>
       </c>
     </row>
     <row r="84">
@@ -4066,19 +3310,10 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
+        <v>375.755692090265</v>
+      </c>
+      <c r="K84" t="n">
         <v>0.0769947939460305</v>
-      </c>
-      <c r="K84" t="n">
-        <v>396.987498492534</v>
-      </c>
-      <c r="L84" t="n">
-        <v>412.941933838518</v>
-      </c>
-      <c r="M84" t="n">
-        <v>386.658685342711</v>
-      </c>
-      <c r="N84" t="n">
-        <v>375.755692090265</v>
       </c>
     </row>
     <row r="85">
@@ -4110,19 +3345,10 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
+        <v>360.347288599477</v>
+      </c>
+      <c r="K85" t="n">
         <v>0.135747482163435</v>
-      </c>
-      <c r="K85" t="n">
-        <v>386.95745447996</v>
-      </c>
-      <c r="L85" t="n">
-        <v>408.617757727763</v>
-      </c>
-      <c r="M85" t="n">
-        <v>339.912580444385</v>
-      </c>
-      <c r="N85" t="n">
-        <v>360.347288599477</v>
       </c>
     </row>
     <row r="86">
@@ -4154,19 +3380,10 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
+        <v>368.022904360005</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.11700396272376</v>
-      </c>
-      <c r="K86" t="n">
-        <v>368.17050433094</v>
-      </c>
-      <c r="L86" t="n">
-        <v>401.490553091027</v>
-      </c>
-      <c r="M86" t="n">
-        <v>326.383481116375</v>
-      </c>
-      <c r="N86" t="n">
-        <v>368.022904360005</v>
       </c>
     </row>
     <row r="87">
@@ -4198,19 +3415,10 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
+        <v>318.696215515486</v>
+      </c>
+      <c r="K87" t="n">
         <v>0.027461770428944</v>
-      </c>
-      <c r="K87" t="n">
-        <v>322.508363018435</v>
-      </c>
-      <c r="L87" t="n">
-        <v>388.008740893581</v>
-      </c>
-      <c r="M87" t="n">
-        <v>319.613079154369</v>
-      </c>
-      <c r="N87" t="n">
-        <v>318.696215515486</v>
       </c>
     </row>
     <row r="88">
@@ -4242,19 +3450,10 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
+        <v>305.316641366669</v>
+      </c>
+      <c r="K88" t="n">
         <v>0.00966536832672693</v>
-      </c>
-      <c r="K88" t="n">
-        <v>299.264022460352</v>
-      </c>
-      <c r="L88" t="n">
-        <v>373.03287021944</v>
-      </c>
-      <c r="M88" t="n">
-        <v>317.84943222349</v>
-      </c>
-      <c r="N88" t="n">
-        <v>305.316641366669</v>
       </c>
     </row>
     <row r="89">
@@ -4286,19 +3485,10 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
+        <v>302.284537807084</v>
+      </c>
+      <c r="K89" t="n">
         <v>0.0583716373372396</v>
-      </c>
-      <c r="K89" t="n">
-        <v>289.162188217023</v>
-      </c>
-      <c r="L89" t="n">
-        <v>357.677787267969</v>
-      </c>
-      <c r="M89" t="n">
-        <v>303.83333432955</v>
-      </c>
-      <c r="N89" t="n">
-        <v>302.284537807084</v>
       </c>
     </row>
     <row r="90">
@@ -4330,19 +3520,10 @@
         <v>0</v>
       </c>
       <c r="J90" t="n">
+        <v>287.96071767581</v>
+      </c>
+      <c r="K90" t="n">
         <v>0.100383515892192</v>
-      </c>
-      <c r="K90" t="n">
-        <v>272.507225929219</v>
-      </c>
-      <c r="L90" t="n">
-        <v>341.290809470113</v>
-      </c>
-      <c r="M90" t="n">
-        <v>292.189924306379</v>
-      </c>
-      <c r="N90" t="n">
-        <v>287.96071767581</v>
       </c>
     </row>
     <row r="91">
@@ -4374,19 +3555,10 @@
         <v>0</v>
       </c>
       <c r="J91" t="n">
+        <v>243.845317649496</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.152228434264454</v>
-      </c>
-      <c r="K91" t="n">
-        <v>239.579767619908</v>
-      </c>
-      <c r="L91" t="n">
-        <v>319.339232679913</v>
-      </c>
-      <c r="M91" t="n">
-        <v>270.226153088507</v>
-      </c>
-      <c r="N91" t="n">
-        <v>243.845317649496</v>
       </c>
     </row>
     <row r="92">
@@ -4418,19 +3590,10 @@
         <v>0</v>
       </c>
       <c r="J92" t="n">
+        <v>241.737503102797</v>
+      </c>
+      <c r="K92" t="n">
         <v>0.0842215676630034</v>
-      </c>
-      <c r="K92" t="n">
-        <v>240.62639562057</v>
-      </c>
-      <c r="L92" t="n">
-        <v>301.889806987011</v>
-      </c>
-      <c r="M92" t="n">
-        <v>244.026236465756</v>
-      </c>
-      <c r="N92" t="n">
-        <v>241.737503102797</v>
       </c>
     </row>
     <row r="93">
@@ -4462,19 +3625,10 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
+        <v>232.070574507995</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.0132846794720072</v>
-      </c>
-      <c r="K93" t="n">
-        <v>236.734341432474</v>
-      </c>
-      <c r="L93" t="n">
-        <v>284.808947185175</v>
-      </c>
-      <c r="M93" t="n">
-        <v>230.922761269925</v>
-      </c>
-      <c r="N93" t="n">
-        <v>232.070574507995</v>
       </c>
     </row>
     <row r="94">
@@ -4506,19 +3660,10 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
+        <v>244.361334025165</v>
+      </c>
+      <c r="K94" t="n">
         <v>0.100944802940574</v>
-      </c>
-      <c r="K94" t="n">
-        <v>254.303409184915</v>
-      </c>
-      <c r="L94" t="n">
-        <v>274.202729332318</v>
-      </c>
-      <c r="M94" t="n">
-        <v>234.997088644343</v>
-      </c>
-      <c r="N94" t="n">
-        <v>244.361334025165</v>
       </c>
     </row>
     <row r="95">
@@ -4550,19 +3695,10 @@
         <v>0</v>
       </c>
       <c r="J95" t="n">
+        <v>272.814774044006</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.102284708579454</v>
-      </c>
-      <c r="K95" t="n">
-        <v>280.336574631707</v>
-      </c>
-      <c r="L95" t="n">
-        <v>270.629391934809</v>
-      </c>
-      <c r="M95" t="n">
-        <v>232.481171724159</v>
-      </c>
-      <c r="N95" t="n">
-        <v>272.814774044006</v>
       </c>
     </row>
     <row r="96">
@@ -4594,19 +3730,10 @@
         <v>0</v>
       </c>
       <c r="J96" t="n">
+        <v>278.289002321625</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.33023993003993</v>
-      </c>
-      <c r="K96" t="n">
-        <v>288.009710663165</v>
-      </c>
-      <c r="L96" t="n">
-        <v>268.404835569035</v>
-      </c>
-      <c r="M96" t="n">
-        <v>235.992378081136</v>
-      </c>
-      <c r="N96" t="n">
-        <v>278.289002321625</v>
       </c>
     </row>
     <row r="97">
@@ -4638,19 +3765,10 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
+        <v>276.962351632132</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.327715150121033</v>
-      </c>
-      <c r="K97" t="n">
-        <v>281.060445891629</v>
-      </c>
-      <c r="L97" t="n">
-        <v>265.471215974429</v>
-      </c>
-      <c r="M97" t="n">
-        <v>230.705778681778</v>
-      </c>
-      <c r="N97" t="n">
-        <v>276.962351632132</v>
       </c>
     </row>
     <row r="98">
@@ -4682,19 +3800,10 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
+        <v>258.034881459137</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.0455582497798555</v>
-      </c>
-      <c r="K98" t="n">
-        <v>244.742878868814</v>
-      </c>
-      <c r="L98" t="n">
-        <v>258.560291399339</v>
-      </c>
-      <c r="M98" t="n">
-        <v>251.765318462415</v>
-      </c>
-      <c r="N98" t="n">
-        <v>258.034881459137</v>
       </c>
     </row>
     <row r="99">
@@ -4726,19 +3835,10 @@
         <v>0.153778161372486</v>
       </c>
       <c r="J99" t="n">
+        <v>214.928472491638</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.246655313043655</v>
-      </c>
-      <c r="K99" t="n">
-        <v>213.124559677219</v>
-      </c>
-      <c r="L99" t="n">
-        <v>246.894500858738</v>
-      </c>
-      <c r="M99" t="n">
-        <v>253.156446158533</v>
-      </c>
-      <c r="N99" t="n">
-        <v>214.928472491638</v>
       </c>
     </row>
     <row r="100">
@@ -4770,19 +3870,10 @@
         <v>-0.98093070687356</v>
       </c>
       <c r="J100" t="n">
+        <v>199.73524946356</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.165059918746559</v>
-      </c>
-      <c r="K100" t="n">
-        <v>199.383052758369</v>
-      </c>
-      <c r="L100" t="n">
-        <v>233.742714112083</v>
-      </c>
-      <c r="M100" t="n">
-        <v>211.446287735679</v>
-      </c>
-      <c r="N100" t="n">
-        <v>199.73524946356</v>
       </c>
     </row>
     <row r="101">
@@ -4814,19 +3905,10 @@
         <v>-3.68366897757253</v>
       </c>
       <c r="J101" t="n">
+        <v>179.975392188242</v>
+      </c>
+      <c r="K101" t="n">
         <v>0.018182119343652</v>
-      </c>
-      <c r="K101" t="n">
-        <v>173.102574790849</v>
-      </c>
-      <c r="L101" t="n">
-        <v>215.842208256213</v>
-      </c>
-      <c r="M101" t="n">
-        <v>161.159538589988</v>
-      </c>
-      <c r="N101" t="n">
-        <v>179.975392188242</v>
       </c>
     </row>
     <row r="102">
@@ -4858,19 +3940,10 @@
         <v>-7.12064038635344</v>
       </c>
       <c r="J102" t="n">
+        <v>154.578807335302</v>
+      </c>
+      <c r="K102" t="n">
         <v>0.0386969683132403</v>
-      </c>
-      <c r="K102" t="n">
-        <v>154.235456685953</v>
-      </c>
-      <c r="L102" t="n">
-        <v>197.289967650107</v>
-      </c>
-      <c r="M102" t="n">
-        <v>154.096725428487</v>
-      </c>
-      <c r="N102" t="n">
-        <v>154.578807335302</v>
       </c>
     </row>
     <row r="103">
@@ -4902,19 +3975,10 @@
         <v>-8.91924180192224</v>
       </c>
       <c r="J103" t="n">
+        <v>166.008629040531</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.0277412742788268</v>
-      </c>
-      <c r="K103" t="n">
-        <v>159.209478374736</v>
-      </c>
-      <c r="L103" t="n">
-        <v>184.050984979016</v>
-      </c>
-      <c r="M103" t="n">
-        <v>165.100499865677</v>
-      </c>
-      <c r="N103" t="n">
-        <v>166.008629040531</v>
       </c>
     </row>
     <row r="104">
@@ -4946,19 +4010,10 @@
         <v>-6.32022548974088</v>
       </c>
       <c r="J104" t="n">
+        <v>170.520669345729</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.0599214398511658</v>
-      </c>
-      <c r="K104" t="n">
-        <v>163.675663200106</v>
-      </c>
-      <c r="L104" t="n">
-        <v>174.332044870151</v>
-      </c>
-      <c r="M104" t="n">
-        <v>179.974588420542</v>
-      </c>
-      <c r="N104" t="n">
-        <v>170.520669345729</v>
       </c>
     </row>
     <row r="105">
@@ -4990,19 +4045,10 @@
         <v>-3.6492306852301</v>
       </c>
       <c r="J105" t="n">
+        <v>189.851475754256</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.158369263045473</v>
-      </c>
-      <c r="K105" t="n">
-        <v>191.083352173552</v>
-      </c>
-      <c r="L105" t="n">
-        <v>170.572910018644</v>
-      </c>
-      <c r="M105" t="n">
-        <v>209.39798348267</v>
-      </c>
-      <c r="N105" t="n">
-        <v>189.851475754256</v>
       </c>
     </row>
     <row r="106">
@@ -5034,19 +4080,10 @@
         <v>-3</v>
       </c>
       <c r="J106" t="n">
+        <v>211.862085990192</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.110516086807056</v>
-      </c>
-      <c r="K106" t="n">
-        <v>226.974146137199</v>
-      </c>
-      <c r="L106" t="n">
-        <v>174.445345535436</v>
-      </c>
-      <c r="M106" t="n">
-        <v>230.857247584313</v>
-      </c>
-      <c r="N106" t="n">
-        <v>211.862085990192</v>
       </c>
     </row>
     <row r="107">
@@ -5075,19 +4112,10 @@
       <c r="I107" t="n">
         <v>-2</v>
       </c>
-      <c r="J107"/>
-      <c r="K107" t="n">
-        <v>229.163996408124</v>
-      </c>
-      <c r="L107" t="n">
-        <v>179.572898409062</v>
-      </c>
-      <c r="M107" t="n">
-        <v>224.454596507918</v>
-      </c>
-      <c r="N107" t="n">
+      <c r="J107" t="n">
         <v>211.862085990192</v>
       </c>
+      <c r="K107"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -5115,19 +4143,10 @@
       <c r="I108" t="n">
         <v>-2</v>
       </c>
-      <c r="J108"/>
-      <c r="K108" t="n">
-        <v>229.010591690114</v>
-      </c>
-      <c r="L108" t="n">
-        <v>183.663360993</v>
-      </c>
-      <c r="M108" t="n">
-        <v>219.371549355299</v>
-      </c>
-      <c r="N108" t="n">
+      <c r="J108" t="n">
         <v>211.862085990192</v>
       </c>
+      <c r="K108"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -5155,19 +4174,10 @@
       <c r="I109" t="n">
         <v>-2</v>
       </c>
-      <c r="J109"/>
-      <c r="K109" t="n">
-        <v>228.857444967703</v>
-      </c>
-      <c r="L109" t="n">
-        <v>186.928688984893</v>
-      </c>
-      <c r="M109" t="n">
-        <v>215.338369770789</v>
-      </c>
-      <c r="N109" t="n">
+      <c r="J109" t="n">
         <v>211.862085990192</v>
       </c>
+      <c r="K109"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -5195,19 +4205,10 @@
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110"/>
-      <c r="K110" t="n">
-        <v>227.612277443282</v>
-      </c>
-      <c r="L110" t="n">
-        <v>191.043830950561</v>
-      </c>
-      <c r="M110" t="n">
-        <v>213.646768802448</v>
-      </c>
-      <c r="N110" t="n">
+      <c r="J110" t="n">
         <v>229.462141119045</v>
       </c>
+      <c r="K110"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -5235,19 +4236,10 @@
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111"/>
-      <c r="K111" t="n">
-        <v>227.612277443282</v>
-      </c>
-      <c r="L111" t="n">
-        <v>194.317866262773</v>
-      </c>
-      <c r="M111" t="n">
-        <v>212.300919412384</v>
-      </c>
-      <c r="N111" t="n">
+      <c r="J111" t="n">
         <v>229.462141119045</v>
       </c>
+      <c r="K111"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -5275,19 +4267,10 @@
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112"/>
-      <c r="K112" t="n">
-        <v>227.612277443282</v>
-      </c>
-      <c r="L112" t="n">
-        <v>196.922711324022</v>
-      </c>
-      <c r="M112" t="n">
-        <v>211.23015236115</v>
-      </c>
-      <c r="N112" t="n">
+      <c r="J112" t="n">
         <v>229.462141119045</v>
       </c>
+      <c r="K112"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -5315,19 +4298,10 @@
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113"/>
-      <c r="K113" t="n">
-        <v>227.612277443282</v>
-      </c>
-      <c r="L113" t="n">
-        <v>198.995144009096</v>
-      </c>
-      <c r="M113" t="n">
-        <v>210.378242714741</v>
-      </c>
-      <c r="N113" t="n">
+      <c r="J113" t="n">
         <v>229.462141119045</v>
       </c>
+      <c r="K113"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -5355,19 +4329,10 @@
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114"/>
-      <c r="K114" t="n">
-        <v>227.612277443282</v>
-      </c>
-      <c r="L114" t="n">
-        <v>200.643985737941</v>
-      </c>
-      <c r="M114" t="n">
-        <v>209.700457528125</v>
-      </c>
-      <c r="N114" t="n">
+      <c r="J114" t="n">
         <v>229.462141119045</v>
       </c>
+      <c r="K114"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -5395,19 +4360,10 @@
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115"/>
-      <c r="K115" t="n">
-        <v>227.612277443282</v>
-      </c>
-      <c r="L115" t="n">
-        <v>201.955815582336</v>
-      </c>
-      <c r="M115" t="n">
-        <v>209.161206961901</v>
-      </c>
-      <c r="N115" t="n">
+      <c r="J115" t="n">
         <v>229.462141119045</v>
       </c>
+      <c r="K115"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -5435,19 +4391,10 @@
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116"/>
-      <c r="K116" t="n">
-        <v>227.612277443282</v>
-      </c>
-      <c r="L116" t="n">
-        <v>202.999516448551</v>
-      </c>
-      <c r="M116" t="n">
-        <v>208.732175494536</v>
-      </c>
-      <c r="N116" t="n">
+      <c r="J116" t="n">
         <v>229.462141119045</v>
       </c>
+      <c r="K116"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -5475,19 +4422,10 @@
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117"/>
-      <c r="K117" t="n">
-        <v>227.612277443282</v>
-      </c>
-      <c r="L117" t="n">
-        <v>203.829892051599</v>
-      </c>
-      <c r="M117" t="n">
-        <v>208.390835101927</v>
-      </c>
-      <c r="N117" t="n">
+      <c r="J117" t="n">
         <v>229.462141119045</v>
       </c>
+      <c r="K117"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -5515,19 +4453,10 @@
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118"/>
-      <c r="K118" t="n">
-        <v>227.612277443282</v>
-      </c>
-      <c r="L118" t="n">
-        <v>204.490544604892</v>
-      </c>
-      <c r="M118" t="n">
-        <v>208.119262332819</v>
-      </c>
-      <c r="N118" t="n">
+      <c r="J118" t="n">
         <v>229.462141119045</v>
       </c>
+      <c r="K118"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -5555,19 +4484,10 @@
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119"/>
-      <c r="K119" t="n">
-        <v>227.76238883792</v>
-      </c>
-      <c r="L119" t="n">
-        <v>205.005453149507</v>
-      </c>
-      <c r="M119" t="n">
-        <v>207.892485985409</v>
-      </c>
-      <c r="N119" t="n">
+      <c r="J119" t="n">
         <v>229.462141119045</v>
       </c>
+      <c r="K119"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -5595,19 +4515,10 @@
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120"/>
-      <c r="K120" t="n">
-        <v>227.912748137663</v>
-      </c>
-      <c r="L120" t="n">
-        <v>205.404389067014</v>
-      </c>
-      <c r="M120" t="n">
-        <v>207.70133229063</v>
-      </c>
-      <c r="N120" t="n">
+      <c r="J120" t="n">
         <v>229.462141119045</v>
       </c>
+      <c r="K120"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -5635,19 +4546,10 @@
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121"/>
-      <c r="K121" t="n">
-        <v>228.063355801169</v>
-      </c>
-      <c r="L121" t="n">
-        <v>205.711038641066</v>
-      </c>
-      <c r="M121" t="n">
-        <v>207.538502501852</v>
-      </c>
-      <c r="N121" t="n">
+      <c r="J121" t="n">
         <v>229.462141119045</v>
       </c>
+      <c r="K121"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -5675,19 +4577,10 @@
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122"/>
-      <c r="K122" t="n">
-        <v>269.726019718482</v>
-      </c>
-      <c r="L122" t="n">
-        <v>214.371215901152</v>
-      </c>
-      <c r="M122" t="n">
-        <v>215.825158744904</v>
-      </c>
-      <c r="N122" t="n">
+      <c r="J122" t="n">
         <v>266.543925775684</v>
       </c>
+      <c r="K122"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -5715,19 +4608,10 @@
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123"/>
-      <c r="K123" t="n">
-        <v>269.877125256161</v>
-      </c>
-      <c r="L123" t="n">
-        <v>221.250530503641</v>
-      </c>
-      <c r="M123" t="n">
-        <v>222.407297451681</v>
-      </c>
-      <c r="N123" t="n">
+      <c r="J123" t="n">
         <v>266.543925775684</v>
       </c>
+      <c r="K123"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -5755,19 +4639,10 @@
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124"/>
-      <c r="K124" t="n">
-        <v>270.028480380693</v>
-      </c>
-      <c r="L124" t="n">
-        <v>226.712960691601</v>
-      </c>
-      <c r="M124" t="n">
-        <v>227.633292448678</v>
-      </c>
-      <c r="N124" t="n">
+      <c r="J124" t="n">
         <v>266.543925775684</v>
       </c>
+      <c r="K124"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -5795,19 +4670,10 @@
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125"/>
-      <c r="K125" t="n">
-        <v>270.180085474293</v>
-      </c>
-      <c r="L125" t="n">
-        <v>231.04809003673</v>
-      </c>
-      <c r="M125" t="n">
-        <v>231.780312326206</v>
-      </c>
-      <c r="N125" t="n">
+      <c r="J125" t="n">
         <v>266.543925775684</v>
       </c>
+      <c r="K125"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -5835,19 +4701,10 @@
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126"/>
-      <c r="K126" t="n">
-        <v>270.331940919178</v>
-      </c>
-      <c r="L126" t="n">
-        <v>234.4863131974</v>
-      </c>
-      <c r="M126" t="n">
-        <v>235.068874297876</v>
-      </c>
-      <c r="N126" t="n">
+      <c r="J126" t="n">
         <v>266.543925775684</v>
       </c>
+      <c r="K126"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -5875,19 +4732,10 @@
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127"/>
-      <c r="K127" t="n">
-        <v>270.484047174007</v>
-      </c>
-      <c r="L127" t="n">
-        <v>237.210933719122</v>
-      </c>
-      <c r="M127" t="n">
-        <v>237.674423346064</v>
-      </c>
-      <c r="N127" t="n">
+      <c r="J127" t="n">
         <v>266.543925775684</v>
       </c>
+      <c r="K127"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -5915,19 +4763,10 @@
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128"/>
-      <c r="K128" t="n">
-        <v>270.636404697437</v>
-      </c>
-      <c r="L128" t="n">
-        <v>239.367789133426</v>
-      </c>
-      <c r="M128" t="n">
-        <v>239.736544675303</v>
-      </c>
-      <c r="N128" t="n">
+      <c r="J128" t="n">
         <v>266.543925775684</v>
       </c>
+      <c r="K128"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -5955,19 +4794,10 @@
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129"/>
-      <c r="K129" t="n">
-        <v>270.789013795243</v>
-      </c>
-      <c r="L129" t="n">
-        <v>241.072908763791</v>
-      </c>
-      <c r="M129" t="n">
-        <v>241.366293214619</v>
-      </c>
-      <c r="N129" t="n">
+      <c r="J129" t="n">
         <v>266.543925775684</v>
       </c>
+      <c r="K129"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -5995,19 +4825,10 @@
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130"/>
-      <c r="K130" t="n">
-        <v>270.941874926082</v>
-      </c>
-      <c r="L130" t="n">
-        <v>242.418606306999</v>
-      </c>
-      <c r="M130" t="n">
-        <v>242.652024998281</v>
-      </c>
-      <c r="N130" t="n">
+      <c r="J130" t="n">
         <v>266.543925775684</v>
       </c>
+      <c r="K130"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -6035,19 +4856,10 @@
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131"/>
-      <c r="K131" t="n">
-        <v>271.094988548613</v>
-      </c>
-      <c r="L131" t="n">
-        <v>243.478327143773</v>
-      </c>
-      <c r="M131" t="n">
-        <v>243.664036663436</v>
-      </c>
-      <c r="N131" t="n">
+      <c r="J131" t="n">
         <v>266.543925775684</v>
       </c>
+      <c r="K131"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -6075,19 +4887,10 @@
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132"/>
-      <c r="K132" t="n">
-        <v>271.248355045053</v>
-      </c>
-      <c r="L132" t="n">
-        <v>244.310504897977</v>
-      </c>
-      <c r="M132" t="n">
-        <v>244.458256671856</v>
-      </c>
-      <c r="N132" t="n">
+      <c r="J132" t="n">
         <v>266.543925775684</v>
       </c>
+      <c r="K132"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -6115,19 +4918,10 @@
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133"/>
-      <c r="K133" t="n">
-        <v>271.40197487406</v>
-      </c>
-      <c r="L133" t="n">
-        <v>244.961629730794</v>
-      </c>
-      <c r="M133" t="n">
-        <v>245.079182060496</v>
-      </c>
-      <c r="N133" t="n">
+      <c r="J133" t="n">
         <v>266.543925775684</v>
       </c>
+      <c r="K133"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -6155,19 +4949,10 @@
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134"/>
-      <c r="K134" t="n">
-        <v>278.091898234862</v>
-      </c>
-      <c r="L134" t="n">
-        <v>248.093567903955</v>
-      </c>
-      <c r="M134" t="n">
-        <v>248.187093347715</v>
-      </c>
-      <c r="N134" t="n">
+      <c r="J134" t="n">
         <v>274.146581578167</v>
       </c>
+      <c r="K134"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -6195,19 +4980,10 @@
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135"/>
-      <c r="K135" t="n">
-        <v>278.24602587565</v>
-      </c>
-      <c r="L135" t="n">
-        <v>250.57436174274</v>
-      </c>
-      <c r="M135" t="n">
-        <v>250.648771230437</v>
-      </c>
-      <c r="N135" t="n">
+      <c r="J135" t="n">
         <v>274.146581578167</v>
       </c>
+      <c r="K135"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -6235,19 +5011,10 @@
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136"/>
-      <c r="K136" t="n">
-        <v>278.400408072095</v>
-      </c>
-      <c r="L136" t="n">
-        <v>252.537082497184</v>
-      </c>
-      <c r="M136" t="n">
-        <v>252.596283198476</v>
-      </c>
-      <c r="N136" t="n">
+      <c r="J136" t="n">
         <v>274.146581578167</v>
       </c>
+      <c r="K136"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -6275,19 +5042,10 @@
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137"/>
-      <c r="K137" t="n">
-        <v>278.555045282856</v>
-      </c>
-      <c r="L137" t="n">
-        <v>254.087602538302</v>
-      </c>
-      <c r="M137" t="n">
-        <v>254.134703024301</v>
-      </c>
-      <c r="N137" t="n">
+      <c r="J137" t="n">
         <v>274.146581578167</v>
       </c>
+      <c r="K137"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -6315,19 +5073,10 @@
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138"/>
-      <c r="K138" t="n">
-        <v>278.709937813706</v>
-      </c>
-      <c r="L138" t="n">
-        <v>255.310154632399</v>
-      </c>
-      <c r="M138" t="n">
-        <v>255.347628103708</v>
-      </c>
-      <c r="N138" t="n">
+      <c r="J138" t="n">
         <v>274.146581578167</v>
       </c>
+      <c r="K138"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -6355,19 +5104,10 @@
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139"/>
-      <c r="K139" t="n">
-        <v>278.865086276189</v>
-      </c>
-      <c r="L139" t="n">
-        <v>256.2717549053</v>
-      </c>
-      <c r="M139" t="n">
-        <v>256.301569057365</v>
-      </c>
-      <c r="N139" t="n">
+      <c r="J139" t="n">
         <v>274.146581578167</v>
       </c>
+      <c r="K139"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -6395,19 +5135,10 @@
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140"/>
-      <c r="K140" t="n">
-        <v>279.020490899636</v>
-      </c>
-      <c r="L140" t="n">
-        <v>257.025721832267</v>
-      </c>
-      <c r="M140" t="n">
-        <v>257.049442177149</v>
-      </c>
-      <c r="N140" t="n">
+      <c r="J140" t="n">
         <v>274.146581578167</v>
       </c>
+      <c r="K140"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -6435,19 +5166,10 @@
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141"/>
-      <c r="K141" t="n">
-        <v>279.176152142705</v>
-      </c>
-      <c r="L141" t="n">
-        <v>257.614475926997</v>
-      </c>
-      <c r="M141" t="n">
-        <v>257.633347996883</v>
-      </c>
-      <c r="N141" t="n">
+      <c r="J141" t="n">
         <v>274.146581578167</v>
       </c>
+      <c r="K141"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -6475,19 +5197,10 @@
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142"/>
-      <c r="K142" t="n">
-        <v>279.332070540498</v>
-      </c>
-      <c r="L142" t="n">
-        <v>258.071767204399</v>
-      </c>
-      <c r="M142" t="n">
-        <v>258.086781953279</v>
-      </c>
-      <c r="N142" t="n">
+      <c r="J142" t="n">
         <v>274.146581578167</v>
       </c>
+      <c r="K142"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -6515,19 +5228,10 @@
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143"/>
-      <c r="K143" t="n">
-        <v>279.488246475231</v>
-      </c>
-      <c r="L143" t="n">
-        <v>258.424447381687</v>
-      </c>
-      <c r="M143" t="n">
-        <v>258.436393219387</v>
-      </c>
-      <c r="N143" t="n">
+      <c r="J143" t="n">
         <v>274.146581578167</v>
       </c>
+      <c r="K143"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -6555,19 +5259,10 @@
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144"/>
-      <c r="K144" t="n">
-        <v>279.644680329119</v>
-      </c>
-      <c r="L144" t="n">
-        <v>258.693879842883</v>
-      </c>
-      <c r="M144" t="n">
-        <v>258.703384033696</v>
-      </c>
-      <c r="N144" t="n">
+      <c r="J144" t="n">
         <v>274.146581578167</v>
       </c>
+      <c r="K144"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -6595,19 +5290,10 @@
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145"/>
-      <c r="K145" t="n">
-        <v>279.801372484378</v>
-      </c>
-      <c r="L145" t="n">
-        <v>258.897061416294</v>
-      </c>
-      <c r="M145" t="n">
-        <v>258.904623016015</v>
-      </c>
-      <c r="N145" t="n">
+      <c r="J145" t="n">
         <v>274.146581578167</v>
       </c>
+      <c r="K145"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -6635,19 +5321,10 @@
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146"/>
-      <c r="K146" t="n">
-        <v>288.045351132758</v>
-      </c>
-      <c r="L146" t="n">
-        <v>260.740487872349</v>
-      </c>
-      <c r="M146" t="n">
-        <v>260.746503933206</v>
-      </c>
-      <c r="N146" t="n">
+      <c r="J146" t="n">
         <v>281.40706346754</v>
       </c>
+      <c r="K146"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -6675,19 +5352,10 @@
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147"/>
-      <c r="K147" t="n">
-        <v>288.202561343179</v>
-      </c>
-      <c r="L147" t="n">
-        <v>262.195912951332</v>
-      </c>
-      <c r="M147" t="n">
-        <v>262.200699370817</v>
-      </c>
-      <c r="N147" t="n">
+      <c r="J147" t="n">
         <v>281.40706346754</v>
       </c>
+      <c r="K147"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -6715,19 +5383,10 @@
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148"/>
-      <c r="K148" t="n">
-        <v>288.360031230948</v>
-      </c>
-      <c r="L148" t="n">
-        <v>263.342622931104</v>
-      </c>
-      <c r="M148" t="n">
-        <v>263.346431039437</v>
-      </c>
-      <c r="N148" t="n">
+      <c r="J148" t="n">
         <v>281.40706346754</v>
       </c>
+      <c r="K148"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -6755,19 +5414,10 @@
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149"/>
-      <c r="K149" t="n">
-        <v>288.517761101837</v>
-      </c>
-      <c r="L149" t="n">
-        <v>264.243698499008</v>
-      </c>
-      <c r="M149" t="n">
-        <v>264.246728256246</v>
-      </c>
-      <c r="N149" t="n">
+      <c r="J149" t="n">
         <v>281.40706346754</v>
       </c>
+      <c r="K149"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -6795,19 +5445,10 @@
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150"/>
-      <c r="K150" t="n">
-        <v>288.675751567391</v>
-      </c>
-      <c r="L150" t="n">
-        <v>264.94932704105</v>
-      </c>
-      <c r="M150" t="n">
-        <v>264.951737536792</v>
-      </c>
-      <c r="N150" t="n">
+      <c r="J150" t="n">
         <v>281.40706346754</v>
       </c>
+      <c r="K150"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -6835,19 +5476,10 @@
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151"/>
-      <c r="K151" t="n">
-        <v>288.834002933384</v>
-      </c>
-      <c r="L151" t="n">
-        <v>265.499437965646</v>
-      </c>
-      <c r="M151" t="n">
-        <v>265.501355772673</v>
-      </c>
-      <c r="N151" t="n">
+      <c r="J151" t="n">
         <v>281.40706346754</v>
       </c>
+      <c r="K151"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -6875,19 +5507,10 @@
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152"/>
-      <c r="K152" t="n">
-        <v>288.992515658472</v>
-      </c>
-      <c r="L152" t="n">
-        <v>265.925799352623</v>
-      </c>
-      <c r="M152" t="n">
-        <v>265.927325173112</v>
-      </c>
-      <c r="N152" t="n">
+      <c r="J152" t="n">
         <v>281.40706346754</v>
       </c>
+      <c r="K152"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -6915,19 +5538,10 @@
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153"/>
-      <c r="K153" t="n">
-        <v>289.151290201317</v>
-      </c>
-      <c r="L153" t="n">
-        <v>266.253686072531</v>
-      </c>
-      <c r="M153" t="n">
-        <v>266.254900025829</v>
-      </c>
-      <c r="N153" t="n">
+      <c r="J153" t="n">
         <v>281.40706346754</v>
       </c>
+      <c r="K153"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -6955,19 +5569,10 @@
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154"/>
-      <c r="K154" t="n">
-        <v>289.310326944133</v>
-      </c>
-      <c r="L154" t="n">
-        <v>266.503206959317</v>
-      </c>
-      <c r="M154" t="n">
-        <v>266.504172788928</v>
-      </c>
-      <c r="N154" t="n">
+      <c r="J154" t="n">
         <v>281.40706346754</v>
       </c>
+      <c r="K154"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -6995,19 +5600,10 @@
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155"/>
-      <c r="K155" t="n">
-        <v>289.469626345579</v>
-      </c>
-      <c r="L155" t="n">
-        <v>266.690360707147</v>
-      </c>
-      <c r="M155" t="n">
-        <v>266.691129127843</v>
-      </c>
-      <c r="N155" t="n">
+      <c r="J155" t="n">
         <v>281.40706346754</v>
       </c>
+      <c r="K155"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -7035,19 +5631,10 @@
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156"/>
-      <c r="K156" t="n">
-        <v>289.629188864314</v>
-      </c>
-      <c r="L156" t="n">
-        <v>266.827875954645</v>
-      </c>
-      <c r="M156" t="n">
-        <v>266.828487315447</v>
-      </c>
-      <c r="N156" t="n">
+      <c r="J156" t="n">
         <v>281.40706346754</v>
       </c>
+      <c r="K156"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -7075,19 +5662,10 @@
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157"/>
-      <c r="K157" t="n">
-        <v>289.789014882553</v>
-      </c>
-      <c r="L157" t="n">
-        <v>266.925879667161</v>
-      </c>
-      <c r="M157" t="n">
-        <v>266.926366070029</v>
-      </c>
-      <c r="N157" t="n">
+      <c r="J157" t="n">
         <v>281.40706346754</v>
       </c>
+      <c r="K157"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -7115,19 +5693,10 @@
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158"/>
-      <c r="K158" t="n">
-        <v>255.299599399891</v>
-      </c>
-      <c r="L158" t="n">
-        <v>261.734300915537</v>
-      </c>
-      <c r="M158" t="n">
-        <v>261.734687901012</v>
-      </c>
-      <c r="N158" t="n">
+      <c r="J158" t="n">
         <v>253.000576098195</v>
       </c>
+      <c r="K158"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -7155,19 +5724,10 @@
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159"/>
-      <c r="K159" t="n">
-        <v>255.459953793117</v>
-      </c>
-      <c r="L159" t="n">
-        <v>257.592403008519</v>
-      </c>
-      <c r="M159" t="n">
-        <v>257.59271089683</v>
-      </c>
-      <c r="N159" t="n">
+      <c r="J159" t="n">
         <v>253.000576098195</v>
       </c>
+      <c r="K159"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -7195,19 +5755,10 @@
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160"/>
-      <c r="K160" t="n">
-        <v>255.620573061823</v>
-      </c>
-      <c r="L160" t="n">
-        <v>254.285619516418</v>
-      </c>
-      <c r="M160" t="n">
-        <v>254.28586447448</v>
-      </c>
-      <c r="N160" t="n">
+      <c r="J160" t="n">
         <v>253.000576098195</v>
       </c>
+      <c r="K160"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -7235,19 +5786,10 @@
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161"/>
-      <c r="K161" t="n">
-        <v>255.781457588227</v>
-      </c>
-      <c r="L161" t="n">
-        <v>251.643239881563</v>
-      </c>
-      <c r="M161" t="n">
-        <v>251.643434771886</v>
-      </c>
-      <c r="N161" t="n">
+      <c r="J161" t="n">
         <v>253.000576098195</v>
       </c>
+      <c r="K161"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -7275,19 +5817,10 @@
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162"/>
-      <c r="K162" t="n">
-        <v>255.942607830986</v>
-      </c>
-      <c r="L162" t="n">
-        <v>249.529445574894</v>
-      </c>
-      <c r="M162" t="n">
-        <v>249.529600630978</v>
-      </c>
-      <c r="N162" t="n">
+      <c r="J162" t="n">
         <v>253.000576098195</v>
       </c>
+      <c r="K162"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -7315,19 +5848,10 @@
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163"/>
-      <c r="K163" t="n">
-        <v>256.104024172317</v>
-      </c>
-      <c r="L163" t="n">
-        <v>247.836178411262</v>
-      </c>
-      <c r="M163" t="n">
-        <v>247.836301774952</v>
-      </c>
-      <c r="N163" t="n">
+      <c r="J163" t="n">
         <v>253.000576098195</v>
       </c>
+      <c r="K163"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -7355,19 +5879,10 @@
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164"/>
-      <c r="K164" t="n">
-        <v>256.265707147321</v>
-      </c>
-      <c r="L164" t="n">
-        <v>246.477466515575</v>
-      </c>
-      <c r="M164" t="n">
-        <v>246.477564664577</v>
-      </c>
-      <c r="N164" t="n">
+      <c r="J164" t="n">
         <v>253.000576098195</v>
       </c>
+      <c r="K164"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -7395,19 +5910,10 @@
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165"/>
-      <c r="K165" t="n">
-        <v>256.427657214657</v>
-      </c>
-      <c r="L165" t="n">
-        <v>245.384910038702</v>
-      </c>
-      <c r="M165" t="n">
-        <v>245.384988126724</v>
-      </c>
-      <c r="N165" t="n">
+      <c r="J165" t="n">
         <v>253.000576098195</v>
       </c>
+      <c r="K165"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -7435,19 +5941,10 @@
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166"/>
-      <c r="K166" t="n">
-        <v>256.589874680098</v>
-      </c>
-      <c r="L166" t="n">
-        <v>244.504089567401</v>
-      </c>
-      <c r="M166" t="n">
-        <v>244.50415169477</v>
-      </c>
-      <c r="N166" t="n">
+      <c r="J166" t="n">
         <v>253.000576098195</v>
       </c>
+      <c r="K166"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -7475,19 +5972,10 @@
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167"/>
-      <c r="K167" t="n">
-        <v>256.752360078746</v>
-      </c>
-      <c r="L167" t="n">
-        <v>243.791708603219</v>
-      </c>
-      <c r="M167" t="n">
-        <v>243.791758032181</v>
-      </c>
-      <c r="N167" t="n">
+      <c r="J167" t="n">
         <v>253.000576098195</v>
       </c>
+      <c r="K167"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -7515,19 +6003,10 @@
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168"/>
-      <c r="K168" t="n">
-        <v>256.91511386926</v>
-      </c>
-      <c r="L168" t="n">
-        <v>243.213320120828</v>
-      </c>
-      <c r="M168" t="n">
-        <v>243.213359446852</v>
-      </c>
-      <c r="N168" t="n">
+      <c r="J168" t="n">
         <v>253.000576098195</v>
       </c>
+      <c r="K168"/>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -7555,19 +6034,10 @@
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169"/>
-      <c r="K169" t="n">
-        <v>257.078136433855</v>
-      </c>
-      <c r="L169" t="n">
-        <v>242.741517802176</v>
-      </c>
-      <c r="M169" t="n">
-        <v>242.741549090231</v>
-      </c>
-      <c r="N169" t="n">
+      <c r="J169" t="n">
         <v>253.000576098195</v>
       </c>
+      <c r="K169"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -7595,19 +6065,10 @@
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170"/>
-      <c r="K170" t="n">
-        <v>260.761257896831</v>
-      </c>
-      <c r="L170" t="n">
-        <v>242.964306698474</v>
-      </c>
-      <c r="M170" t="n">
-        <v>242.964331591466</v>
-      </c>
-      <c r="N170" t="n">
+      <c r="J170" t="n">
         <v>256.173825740355</v>
       </c>
+      <c r="K170"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -7635,19 +6096,10 @@
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171"/>
-      <c r="K171" t="n">
-        <v>260.924819385565</v>
-      </c>
-      <c r="L171" t="n">
-        <v>243.129888169693</v>
-      </c>
-      <c r="M171" t="n">
-        <v>243.129907974729</v>
-      </c>
-      <c r="N171" t="n">
+      <c r="J171" t="n">
         <v>256.173825740355</v>
       </c>
+      <c r="K171"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -7675,19 +6127,10 @@
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172"/>
-      <c r="K172" t="n">
-        <v>261.088651024358</v>
-      </c>
-      <c r="L172" t="n">
-        <v>243.249935742682</v>
-      </c>
-      <c r="M172" t="n">
-        <v>243.249951499705</v>
-      </c>
-      <c r="N172" t="n">
+      <c r="J172" t="n">
         <v>256.173825740355</v>
       </c>
+      <c r="K172"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -7715,19 +6158,10 @@
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173"/>
-      <c r="K173" t="n">
-        <v>261.252753271866</v>
-      </c>
-      <c r="L173" t="n">
-        <v>243.333736923136</v>
-      </c>
-      <c r="M173" t="n">
-        <v>243.333749459533</v>
-      </c>
-      <c r="N173" t="n">
+      <c r="J173" t="n">
         <v>256.173825740355</v>
       </c>
+      <c r="K173"/>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -7755,19 +6189,10 @@
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174"/>
-      <c r="K174" t="n">
-        <v>261.417126510308</v>
-      </c>
-      <c r="L174" t="n">
-        <v>243.388680887331</v>
-      </c>
-      <c r="M174" t="n">
-        <v>243.388690861374</v>
-      </c>
-      <c r="N174" t="n">
+      <c r="J174" t="n">
         <v>256.173825740355</v>
       </c>
+      <c r="K174"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -7795,19 +6220,10 @@
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175"/>
-      <c r="K175" t="n">
-        <v>261.58177119834</v>
-      </c>
-      <c r="L175" t="n">
-        <v>243.420646482113</v>
-      </c>
-      <c r="M175" t="n">
-        <v>243.42065441753</v>
-      </c>
-      <c r="N175" t="n">
+      <c r="J175" t="n">
         <v>256.173825740355</v>
       </c>
+      <c r="K175"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -7835,19 +6251,10 @@
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176"/>
-      <c r="K176" t="n">
-        <v>261.746687871066</v>
-      </c>
-      <c r="L176" t="n">
-        <v>243.434310920372</v>
-      </c>
-      <c r="M176" t="n">
-        <v>243.434317233845</v>
-      </c>
-      <c r="N176" t="n">
+      <c r="J176" t="n">
         <v>256.173825740355</v>
       </c>
+      <c r="K176"/>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -7875,19 +6282,10 @@
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177"/>
-      <c r="K177" t="n">
-        <v>261.911876910701</v>
-      </c>
-      <c r="L177" t="n">
-        <v>243.433395397652</v>
-      </c>
-      <c r="M177" t="n">
-        <v>243.433400420694</v>
-      </c>
-      <c r="N177" t="n">
+      <c r="J177" t="n">
         <v>256.173825740355</v>
       </c>
+      <c r="K177"/>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -7915,19 +6313,10 @@
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178"/>
-      <c r="K178" t="n">
-        <v>262.07733869946</v>
-      </c>
-      <c r="L178" t="n">
-        <v>243.420860495499</v>
-      </c>
-      <c r="M178" t="n">
-        <v>243.420864491866</v>
-      </c>
-      <c r="N178" t="n">
+      <c r="J178" t="n">
         <v>256.173825740355</v>
       </c>
+      <c r="K178"/>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -7955,19 +6344,10 @@
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179"/>
-      <c r="K179" t="n">
-        <v>262.243073848889</v>
-      </c>
-      <c r="L179" t="n">
-        <v>243.399061629363</v>
-      </c>
-      <c r="M179" t="n">
-        <v>243.399064808901</v>
-      </c>
-      <c r="N179" t="n">
+      <c r="J179" t="n">
         <v>256.173825740355</v>
       </c>
+      <c r="K179"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -7995,19 +6375,10 @@
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180"/>
-      <c r="K180" t="n">
-        <v>262.409082664761</v>
-      </c>
-      <c r="L180" t="n">
-        <v>243.369872762194</v>
-      </c>
-      <c r="M180" t="n">
-        <v>243.369875291856</v>
-      </c>
-      <c r="N180" t="n">
+      <c r="J180" t="n">
         <v>256.173825740355</v>
       </c>
+      <c r="K180"/>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -8035,19 +6406,10 @@
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181"/>
-      <c r="K181" t="n">
-        <v>262.575365682177</v>
-      </c>
-      <c r="L181" t="n">
-        <v>243.334784793648</v>
-      </c>
-      <c r="M181" t="n">
-        <v>243.334786806264</v>
-      </c>
-      <c r="N181" t="n">
+      <c r="J181" t="n">
         <v>256.173825740355</v>
       </c>
+      <c r="K181"/>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -8075,19 +6437,10 @@
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182"/>
-      <c r="K182" t="n">
-        <v>266.33918926104</v>
-      </c>
-      <c r="L182" t="n">
-        <v>243.918209412175</v>
-      </c>
-      <c r="M182" t="n">
-        <v>243.918211013427</v>
-      </c>
-      <c r="N182" t="n">
+      <c r="J182" t="n">
         <v>259.416886874643</v>
       </c>
+      <c r="K182"/>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -8115,19 +6468,10 @@
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183"/>
-      <c r="K183" t="n">
-        <v>266.506021981078</v>
-      </c>
-      <c r="L183" t="n">
-        <v>244.370481731429</v>
-      </c>
-      <c r="M183" t="n">
-        <v>244.370483005396</v>
-      </c>
-      <c r="N183" t="n">
+      <c r="J183" t="n">
         <v>259.416886874643</v>
       </c>
+      <c r="K183"/>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -8155,19 +6499,10 @@
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184"/>
-      <c r="K184" t="n">
-        <v>266.673130202194</v>
-      </c>
-      <c r="L184" t="n">
-        <v>244.718388719044</v>
-      </c>
-      <c r="M184" t="n">
-        <v>244.718389732621</v>
-      </c>
-      <c r="N184" t="n">
+      <c r="J184" t="n">
         <v>259.416886874643</v>
       </c>
+      <c r="K184"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -8195,19 +6530,10 @@
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185"/>
-      <c r="K185" t="n">
-        <v>266.840514459489</v>
-      </c>
-      <c r="L185" t="n">
-        <v>244.983242232924</v>
-      </c>
-      <c r="M185" t="n">
-        <v>244.983243039333</v>
-      </c>
-      <c r="N185" t="n">
+      <c r="J185" t="n">
         <v>259.416886874643</v>
       </c>
+      <c r="K185"/>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -8235,19 +6561,10 @@
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186"/>
-      <c r="K186" t="n">
-        <v>267.008175211623</v>
-      </c>
-      <c r="L186" t="n">
-        <v>245.181998101383</v>
-      </c>
-      <c r="M186" t="n">
-        <v>245.181998742967</v>
-      </c>
-      <c r="N186" t="n">
+      <c r="J186" t="n">
         <v>259.416886874643</v>
       </c>
+      <c r="K186"/>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -8275,19 +6592,10 @@
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187"/>
-      <c r="K187" t="n">
-        <v>267.176112840811</v>
-      </c>
-      <c r="L187" t="n">
-        <v>245.328146471028</v>
-      </c>
-      <c r="M187" t="n">
-        <v>245.328146981476</v>
-      </c>
-      <c r="N187" t="n">
+      <c r="J187" t="n">
         <v>259.416886874643</v>
       </c>
+      <c r="K187"/>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -8315,19 +6623,10 @@
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188"/>
-      <c r="K188" t="n">
-        <v>267.344327805712</v>
-      </c>
-      <c r="L188" t="n">
-        <v>245.432420162753</v>
-      </c>
-      <c r="M188" t="n">
-        <v>245.432420568869</v>
-      </c>
-      <c r="N188" t="n">
+      <c r="J188" t="n">
         <v>259.416886874643</v>
       </c>
+      <c r="K188"/>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -8355,19 +6654,10 @@
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189"/>
-      <c r="K189" t="n">
-        <v>267.512820564985</v>
-      </c>
-      <c r="L189" t="n">
-        <v>245.503358250112</v>
-      </c>
-      <c r="M189" t="n">
-        <v>245.503358573222</v>
-      </c>
-      <c r="N189" t="n">
+      <c r="J189" t="n">
         <v>259.416886874643</v>
       </c>
+      <c r="K189"/>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -8395,19 +6685,10 @@
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190"/>
-      <c r="K190" t="n">
-        <v>267.681591653731</v>
-      </c>
-      <c r="L190" t="n">
-        <v>245.547754440702</v>
-      </c>
-      <c r="M190" t="n">
-        <v>245.54775469777</v>
-      </c>
-      <c r="N190" t="n">
+      <c r="J190" t="n">
         <v>259.416886874643</v>
       </c>
+      <c r="K190"/>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -8435,19 +6716,10 @@
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191"/>
-      <c r="K191" t="n">
-        <v>267.850641454168</v>
-      </c>
-      <c r="L191" t="n">
-        <v>245.571013827837</v>
-      </c>
-      <c r="M191" t="n">
-        <v>245.571014032362</v>
-      </c>
-      <c r="N191" t="n">
+      <c r="J191" t="n">
         <v>259.416886874643</v>
       </c>
+      <c r="K191"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -8475,19 +6747,10 @@
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192"/>
-      <c r="K192" t="n">
-        <v>268.019970501396</v>
-      </c>
-      <c r="L192" t="n">
-        <v>245.577436702835</v>
-      </c>
-      <c r="M192" t="n">
-        <v>245.577436865556</v>
-      </c>
-      <c r="N192" t="n">
+      <c r="J192" t="n">
         <v>259.416886874643</v>
       </c>
+      <c r="K192"/>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -8515,19 +6778,10 @@
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193"/>
-      <c r="K193" t="n">
-        <v>268.189579177631</v>
-      </c>
-      <c r="L193" t="n">
-        <v>245.570444379832</v>
-      </c>
-      <c r="M193" t="n">
-        <v>245.570444509294</v>
-      </c>
-      <c r="N193" t="n">
+      <c r="J193" t="n">
         <v>259.416886874643</v>
       </c>
+      <c r="K193"/>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -8555,19 +6809,10 @@
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194"/>
-      <c r="K194" t="n">
-        <v>272.035873683941</v>
-      </c>
-      <c r="L194" t="n">
-        <v>246.189695359039</v>
-      </c>
-      <c r="M194" t="n">
-        <v>246.18969546204</v>
-      </c>
-      <c r="N194" t="n">
+      <c r="J194" t="n">
         <v>262.731295353885</v>
       </c>
+      <c r="K194"/>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -8595,19 +6840,10 @@
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195"/>
-      <c r="K195" t="n">
-        <v>272.206043070611</v>
-      </c>
-      <c r="L195" t="n">
-        <v>246.670233290344</v>
-      </c>
-      <c r="M195" t="n">
-        <v>246.670233372292</v>
-      </c>
-      <c r="N195" t="n">
+      <c r="J195" t="n">
         <v>262.731295353885</v>
       </c>
+      <c r="K195"/>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -8635,19 +6871,10 @@
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196"/>
-      <c r="K196" t="n">
-        <v>272.376493538707</v>
-      </c>
-      <c r="L196" t="n">
-        <v>247.040390108102</v>
-      </c>
-      <c r="M196" t="n">
-        <v>247.040390173301</v>
-      </c>
-      <c r="N196" t="n">
+      <c r="J196" t="n">
         <v>262.731295353885</v>
       </c>
+      <c r="K196"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -8675,19 +6902,10 @@
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197"/>
-      <c r="K197" t="n">
-        <v>272.547225470446</v>
-      </c>
-      <c r="L197" t="n">
-        <v>247.322706867299</v>
-      </c>
-      <c r="M197" t="n">
-        <v>247.322706919172</v>
-      </c>
-      <c r="N197" t="n">
+      <c r="J197" t="n">
         <v>262.731295353885</v>
       </c>
+      <c r="K197"/>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -8715,19 +6933,10 @@
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198"/>
-      <c r="K198" t="n">
-        <v>272.71823940093</v>
-      </c>
-      <c r="L198" t="n">
-        <v>247.535117348465</v>
-      </c>
-      <c r="M198" t="n">
-        <v>247.535117389735</v>
-      </c>
-      <c r="N198" t="n">
+      <c r="J198" t="n">
         <v>262.731295353885</v>
       </c>
+      <c r="K198"/>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -8755,19 +6964,10 @@
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199"/>
-      <c r="K199" t="n">
-        <v>272.889535788817</v>
-      </c>
-      <c r="L199" t="n">
-        <v>247.691889758273</v>
-      </c>
-      <c r="M199" t="n">
-        <v>247.691889791108</v>
-      </c>
-      <c r="N199" t="n">
+      <c r="J199" t="n">
         <v>262.731295353885</v>
       </c>
+      <c r="K199"/>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -8795,19 +6995,10 @@
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200"/>
-      <c r="K200" t="n">
-        <v>273.061115016323</v>
-      </c>
-      <c r="L200" t="n">
-        <v>247.804375953029</v>
-      </c>
-      <c r="M200" t="n">
-        <v>247.804375979153</v>
-      </c>
-      <c r="N200" t="n">
+      <c r="J200" t="n">
         <v>262.731295353885</v>
       </c>
+      <c r="K200"/>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -8835,19 +7026,10 @@
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201"/>
-      <c r="K201" t="n">
-        <v>273.232977694994</v>
-      </c>
-      <c r="L201" t="n">
-        <v>247.881607504214</v>
-      </c>
-      <c r="M201" t="n">
-        <v>247.881607524998</v>
-      </c>
-      <c r="N201" t="n">
+      <c r="J201" t="n">
         <v>262.731295353885</v>
       </c>
+      <c r="K201"/>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -8875,19 +7057,10 @@
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202"/>
-      <c r="K202" t="n">
-        <v>273.405124207045</v>
-      </c>
-      <c r="L202" t="n">
-        <v>247.930769965079</v>
-      </c>
-      <c r="M202" t="n">
-        <v>247.930769981615</v>
-      </c>
-      <c r="N202" t="n">
+      <c r="J202" t="n">
         <v>262.731295353885</v>
       </c>
+      <c r="K202"/>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -8915,19 +7088,10 @@
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203"/>
-      <c r="K203" t="n">
-        <v>273.577555011134</v>
-      </c>
-      <c r="L203" t="n">
-        <v>247.957580178591</v>
-      </c>
-      <c r="M203" t="n">
-        <v>247.957580191747</v>
-      </c>
-      <c r="N203" t="n">
+      <c r="J203" t="n">
         <v>262.731295353885</v>
       </c>
+      <c r="K203"/>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -8955,19 +7119,10 @@
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204"/>
-      <c r="K204" t="n">
-        <v>273.750270565921</v>
-      </c>
-      <c r="L204" t="n">
-        <v>247.96658647169</v>
-      </c>
-      <c r="M204" t="n">
-        <v>247.966586482157</v>
-      </c>
-      <c r="N204" t="n">
+      <c r="J204" t="n">
         <v>262.731295353885</v>
       </c>
+      <c r="K204"/>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -8995,19 +7150,10 @@
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205"/>
-      <c r="K205" t="n">
-        <v>273.923271406508</v>
-      </c>
-      <c r="L205" t="n">
-        <v>247.961407486458</v>
-      </c>
-      <c r="M205" t="n">
-        <v>247.961407494785</v>
-      </c>
-      <c r="N205" t="n">
+      <c r="J205" t="n">
         <v>262.731295353885</v>
       </c>
+      <c r="K205"/>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -9035,19 +7181,10 @@
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206"/>
-      <c r="K206" t="n">
-        <v>277.85384467052</v>
-      </c>
-      <c r="L206" t="n">
-        <v>248.59587132365</v>
-      </c>
-      <c r="M206" t="n">
-        <v>248.595871330275</v>
-      </c>
-      <c r="N206" t="n">
+      <c r="J206" t="n">
         <v>266.11862081967</v>
       </c>
+      <c r="K206"/>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -9075,19 +7212,10 @@
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207"/>
-      <c r="K207" t="n">
-        <v>278.027417458683</v>
-      </c>
-      <c r="L207" t="n">
-        <v>249.088269860322</v>
-      </c>
-      <c r="M207" t="n">
-        <v>249.088269865593</v>
-      </c>
-      <c r="N207" t="n">
+      <c r="J207" t="n">
         <v>266.11862081967</v>
       </c>
+      <c r="K207"/>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -9115,19 +7243,10 @@
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208"/>
-      <c r="K208" t="n">
-        <v>278.201276908622</v>
-      </c>
-      <c r="L208" t="n">
-        <v>249.467619809974</v>
-      </c>
-      <c r="M208" t="n">
-        <v>249.467619814168</v>
-      </c>
-      <c r="N208" t="n">
+      <c r="J208" t="n">
         <v>266.11862081967</v>
       </c>
+      <c r="K208"/>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -9155,19 +7274,10 @@
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209"/>
-      <c r="K209" t="n">
-        <v>278.375423478996</v>
-      </c>
-      <c r="L209" t="n">
-        <v>249.757007037143</v>
-      </c>
-      <c r="M209" t="n">
-        <v>249.75700704048</v>
-      </c>
-      <c r="N209" t="n">
+      <c r="J209" t="n">
         <v>266.11862081967</v>
       </c>
+      <c r="K209"/>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -9195,19 +7305,10 @@
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210"/>
-      <c r="K210" t="n">
-        <v>278.549857704906</v>
-      </c>
-      <c r="L210" t="n">
-        <v>249.974798776594</v>
-      </c>
-      <c r="M210" t="n">
-        <v>249.974798779249</v>
-      </c>
-      <c r="N210" t="n">
+      <c r="J210" t="n">
         <v>266.11862081967</v>
       </c>
+      <c r="K210"/>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -9235,19 +7336,10 @@
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211"/>
-      <c r="K211" t="n">
-        <v>278.72457996857</v>
-      </c>
-      <c r="L211" t="n">
-        <v>250.135608099634</v>
-      </c>
-      <c r="M211" t="n">
-        <v>250.135608101746</v>
-      </c>
-      <c r="N211" t="n">
+      <c r="J211" t="n">
         <v>266.11862081967</v>
       </c>
+      <c r="K211"/>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -9275,19 +7367,10 @@
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212"/>
-      <c r="K212" t="n">
-        <v>278.899590881531</v>
-      </c>
-      <c r="L212" t="n">
-        <v>250.25106122288</v>
-      </c>
-      <c r="M212" t="n">
-        <v>250.25106122456</v>
-      </c>
-      <c r="N212" t="n">
+      <c r="J212" t="n">
         <v>266.11862081967</v>
       </c>
+      <c r="K212"/>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -9315,19 +7398,10 @@
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213"/>
-      <c r="K213" t="n">
-        <v>279.074890749563</v>
-      </c>
-      <c r="L213" t="n">
-        <v>250.33040802259</v>
-      </c>
-      <c r="M213" t="n">
-        <v>250.330408023927</v>
-      </c>
-      <c r="N213" t="n">
+      <c r="J213" t="n">
         <v>266.11862081967</v>
       </c>
+      <c r="K213"/>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -9355,19 +7429,10 @@
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214"/>
-      <c r="K214" t="n">
-        <v>279.25048018421</v>
-      </c>
-      <c r="L214" t="n">
-        <v>250.381007720435</v>
-      </c>
-      <c r="M214" t="n">
-        <v>250.381007721499</v>
-      </c>
-      <c r="N214" t="n">
+      <c r="J214" t="n">
         <v>266.11862081967</v>
       </c>
+      <c r="K214"/>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -9395,19 +7460,10 @@
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215"/>
-      <c r="K215" t="n">
-        <v>279.426359644132</v>
-      </c>
-      <c r="L215" t="n">
-        <v>250.408715331173</v>
-      </c>
-      <c r="M215" t="n">
-        <v>250.40871533202</v>
-      </c>
-      <c r="N215" t="n">
+      <c r="J215" t="n">
         <v>266.11862081967</v>
       </c>
+      <c r="K215"/>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -9435,19 +7491,10 @@
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216"/>
-      <c r="K216" t="n">
-        <v>279.602529511544</v>
-      </c>
-      <c r="L216" t="n">
-        <v>250.418189117631</v>
-      </c>
-      <c r="M216" t="n">
-        <v>250.418189118304</v>
-      </c>
-      <c r="N216" t="n">
+      <c r="J216" t="n">
         <v>266.11862081967</v>
       </c>
+      <c r="K216"/>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -9475,19 +7522,10 @@
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217"/>
-      <c r="K217" t="n">
-        <v>279.778990397991</v>
-      </c>
-      <c r="L217" t="n">
-        <v>250.413135182182</v>
-      </c>
-      <c r="M217" t="n">
-        <v>250.413135182718</v>
-      </c>
-      <c r="N217" t="n">
+      <c r="J217" t="n">
         <v>266.11862081967</v>
       </c>
+      <c r="K217"/>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -9515,19 +7553,10 @@
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218"/>
-      <c r="K218" t="n">
-        <v>283.795689677151</v>
-      </c>
-      <c r="L218" t="n">
-        <v>251.061772096345</v>
-      </c>
-      <c r="M218" t="n">
-        <v>251.061772096771</v>
-      </c>
-      <c r="N218" t="n">
+      <c r="J218" t="n">
         <v>269.580467445703</v>
       </c>
+      <c r="K218"/>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -9555,19 +7584,10 @@
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219"/>
-      <c r="K219" t="n">
-        <v>283.972733901202</v>
-      </c>
-      <c r="L219" t="n">
-        <v>251.565199126857</v>
-      </c>
-      <c r="M219" t="n">
-        <v>251.565199127196</v>
-      </c>
-      <c r="N219" t="n">
+      <c r="J219" t="n">
         <v>269.580467445703</v>
       </c>
+      <c r="K219"/>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -9595,19 +7615,10 @@
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220"/>
-      <c r="K220" t="n">
-        <v>284.150070520264</v>
-      </c>
-      <c r="L220" t="n">
-        <v>251.953075309241</v>
-      </c>
-      <c r="M220" t="n">
-        <v>251.953075309511</v>
-      </c>
-      <c r="N220" t="n">
+      <c r="J220" t="n">
         <v>269.580467445703</v>
       </c>
+      <c r="K220"/>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -9635,19 +7646,10 @@
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221"/>
-      <c r="K221" t="n">
-        <v>284.32770006944</v>
-      </c>
-      <c r="L221" t="n">
-        <v>252.248997538408</v>
-      </c>
-      <c r="M221" t="n">
-        <v>252.248997538622</v>
-      </c>
-      <c r="N221" t="n">
+      <c r="J221" t="n">
         <v>269.580467445703</v>
       </c>
+      <c r="K221"/>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -9675,19 +7677,10 @@
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222"/>
-      <c r="K222" t="n">
-        <v>284.505622930946</v>
-      </c>
-      <c r="L222" t="n">
-        <v>252.47173963932</v>
-      </c>
-      <c r="M222" t="n">
-        <v>252.471739639491</v>
-      </c>
-      <c r="N222" t="n">
+      <c r="J222" t="n">
         <v>269.580467445703</v>
       </c>
+      <c r="K222"/>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -9715,19 +7708,10 @@
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223"/>
-      <c r="K223" t="n">
-        <v>284.683839639882</v>
-      </c>
-      <c r="L223" t="n">
-        <v>252.636238158339</v>
-      </c>
-      <c r="M223" t="n">
-        <v>252.636238158475</v>
-      </c>
-      <c r="N223" t="n">
+      <c r="J223" t="n">
         <v>269.580467445703</v>
       </c>
+      <c r="K223"/>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -9755,19 +7739,10 @@
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224"/>
-      <c r="K224" t="n">
-        <v>284.862350731353</v>
-      </c>
-      <c r="L224" t="n">
-        <v>252.754376676519</v>
-      </c>
-      <c r="M224" t="n">
-        <v>252.754376676627</v>
-      </c>
-      <c r="N224" t="n">
+      <c r="J224" t="n">
         <v>269.580467445703</v>
       </c>
+      <c r="K224"/>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -9795,19 +7770,10 @@
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225"/>
-      <c r="K225" t="n">
-        <v>285.041156664015</v>
-      </c>
-      <c r="L225" t="n">
-        <v>252.83560982013</v>
-      </c>
-      <c r="M225" t="n">
-        <v>252.835609820216</v>
-      </c>
-      <c r="N225" t="n">
+      <c r="J225" t="n">
         <v>269.580467445703</v>
       </c>
+      <c r="K225"/>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -9835,19 +7801,10 @@
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226"/>
-      <c r="K226" t="n">
-        <v>285.220257896528</v>
-      </c>
-      <c r="L226" t="n">
-        <v>252.887459722271</v>
-      </c>
-      <c r="M226" t="n">
-        <v>252.88745972234</v>
-      </c>
-      <c r="N226" t="n">
+      <c r="J226" t="n">
         <v>269.580467445703</v>
       </c>
+      <c r="K226"/>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -9875,19 +7832,10 @@
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227"/>
-      <c r="K227" t="n">
-        <v>285.399654887552</v>
-      </c>
-      <c r="L227" t="n">
-        <v>252.915911011158</v>
-      </c>
-      <c r="M227" t="n">
-        <v>252.915911011212</v>
-      </c>
-      <c r="N227" t="n">
+      <c r="J227" t="n">
         <v>269.580467445703</v>
       </c>
+      <c r="K227"/>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -9915,19 +7863,10 @@
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228"/>
-      <c r="K228" t="n">
-        <v>285.579348172187</v>
-      </c>
-      <c r="L228" t="n">
-        <v>252.925725060066</v>
-      </c>
-      <c r="M228" t="n">
-        <v>252.925725060109</v>
-      </c>
-      <c r="N228" t="n">
+      <c r="J228" t="n">
         <v>269.580467445703</v>
       </c>
+      <c r="K228"/>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -9955,19 +7894,10 @@
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229"/>
-      <c r="K229" t="n">
-        <v>285.759338285536</v>
-      </c>
-      <c r="L229" t="n">
-        <v>252.920690012208</v>
-      </c>
-      <c r="M229" t="n">
-        <v>252.920690012242</v>
-      </c>
-      <c r="N229" t="n">
+      <c r="J229" t="n">
         <v>269.580467445703</v>
       </c>
+      <c r="K229"/>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -9995,19 +7925,10 @@
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230"/>
-      <c r="K230" t="n">
-        <v>289.86405141166</v>
-      </c>
-      <c r="L230" t="n">
-        <v>253.583725647722</v>
-      </c>
-      <c r="M230" t="n">
-        <v>253.583725647749</v>
-      </c>
-      <c r="N230" t="n">
+      <c r="J230" t="n">
         <v>273.118474697509</v>
       </c>
+      <c r="K230"/>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -10035,19 +7956,10 @@
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231"/>
-      <c r="K231" t="n">
-        <v>290.044636558414</v>
-      </c>
-      <c r="L231" t="n">
-        <v>254.098355738074</v>
-      </c>
-      <c r="M231" t="n">
-        <v>254.098355738096</v>
-      </c>
-      <c r="N231" t="n">
+      <c r="J231" t="n">
         <v>273.118474697509</v>
       </c>
+      <c r="K231"/>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -10075,19 +7987,10 @@
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232"/>
-      <c r="K232" t="n">
-        <v>290.225519909857</v>
-      </c>
-      <c r="L232" t="n">
-        <v>254.494892075426</v>
-      </c>
-      <c r="M232" t="n">
-        <v>254.494892075443</v>
-      </c>
-      <c r="N232" t="n">
+      <c r="J232" t="n">
         <v>273.118474697509</v>
       </c>
+      <c r="K232"/>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -10115,19 +8018,10 @@
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233"/>
-      <c r="K233" t="n">
-        <v>290.406702001093</v>
-      </c>
-      <c r="L233" t="n">
-        <v>254.797450892366</v>
-      </c>
-      <c r="M233" t="n">
-        <v>254.79745089238</v>
-      </c>
-      <c r="N233" t="n">
+      <c r="J233" t="n">
         <v>273.118474697509</v>
       </c>
+      <c r="K233"/>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -10155,19 +8049,10 @@
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234"/>
-      <c r="K234" t="n">
-        <v>290.588183367224</v>
-      </c>
-      <c r="L234" t="n">
-        <v>255.025219191587</v>
-      </c>
-      <c r="M234" t="n">
-        <v>255.025219191598</v>
-      </c>
-      <c r="N234" t="n">
+      <c r="J234" t="n">
         <v>273.118474697509</v>
       </c>
+      <c r="K234"/>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -10195,19 +8080,10 @@
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235"/>
-      <c r="K235" t="n">
-        <v>290.769964466907</v>
-      </c>
-      <c r="L235" t="n">
-        <v>255.193462251952</v>
-      </c>
-      <c r="M235" t="n">
-        <v>255.193462251961</v>
-      </c>
-      <c r="N235" t="n">
+      <c r="J235" t="n">
         <v>273.118474697509</v>
       </c>
+      <c r="K235"/>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -10235,19 +8111,10 @@
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236"/>
-      <c r="K236" t="n">
-        <v>290.952045758803</v>
-      </c>
-      <c r="L236" t="n">
-        <v>255.314325201817</v>
-      </c>
-      <c r="M236" t="n">
-        <v>255.314325201824</v>
-      </c>
-      <c r="N236" t="n">
+      <c r="J236" t="n">
         <v>273.118474697509</v>
       </c>
+      <c r="K236"/>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -10275,19 +8142,10 @@
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237"/>
-      <c r="K237" t="n">
-        <v>291.134427778012</v>
-      </c>
-      <c r="L237" t="n">
-        <v>255.397470750831</v>
-      </c>
-      <c r="M237" t="n">
-        <v>255.397470750837</v>
-      </c>
-      <c r="N237" t="n">
+      <c r="J237" t="n">
         <v>273.118474697509</v>
       </c>
+      <c r="K237"/>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -10315,19 +8173,10 @@
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238"/>
-      <c r="K238" t="n">
-        <v>291.317110983194</v>
-      </c>
-      <c r="L238" t="n">
-        <v>255.450586584666</v>
-      </c>
-      <c r="M238" t="n">
-        <v>255.45058658467</v>
-      </c>
-      <c r="N238" t="n">
+      <c r="J238" t="n">
         <v>273.118474697509</v>
       </c>
+      <c r="K238"/>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -10355,19 +8204,10 @@
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239"/>
-      <c r="K239" t="n">
-        <v>291.500095985895</v>
-      </c>
-      <c r="L239" t="n">
-        <v>255.479789035393</v>
-      </c>
-      <c r="M239" t="n">
-        <v>255.479789035396</v>
-      </c>
-      <c r="N239" t="n">
+      <c r="J239" t="n">
         <v>273.118474697509</v>
       </c>
+      <c r="K239"/>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -10395,19 +8235,10 @@
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240"/>
-      <c r="K240" t="n">
-        <v>291.683383091886</v>
-      </c>
-      <c r="L240" t="n">
-        <v>255.489944277149</v>
-      </c>
-      <c r="M240" t="n">
-        <v>255.489944277152</v>
-      </c>
-      <c r="N240" t="n">
+      <c r="J240" t="n">
         <v>273.118474697509</v>
       </c>
+      <c r="K240"/>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -10435,19 +8266,10 @@
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241"/>
-      <c r="K241" t="n">
-        <v>291.866972989155</v>
-      </c>
-      <c r="L241" t="n">
-        <v>255.484923822526</v>
-      </c>
-      <c r="M241" t="n">
-        <v>255.484923822529</v>
-      </c>
-      <c r="N241" t="n">
+      <c r="J241" t="n">
         <v>273.118474697509</v>
       </c>
+      <c r="K241"/>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -10475,19 +8297,10 @@
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242"/>
-      <c r="K242" t="n">
-        <v>296.061629333094</v>
-      </c>
-      <c r="L242" t="n">
-        <v>256.162671710323</v>
-      </c>
-      <c r="M242" t="n">
-        <v>256.162671710325</v>
-      </c>
-      <c r="N242" t="n">
+      <c r="J242" t="n">
         <v>276.734318108854</v>
       </c>
+      <c r="K242"/>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -10515,19 +8328,10 @@
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243"/>
-      <c r="K243" t="n">
-        <v>296.245826112454</v>
-      </c>
-      <c r="L243" t="n">
-        <v>256.68874926239</v>
-      </c>
-      <c r="M243" t="n">
-        <v>256.688749262392</v>
-      </c>
-      <c r="N243" t="n">
+      <c r="J243" t="n">
         <v>276.734318108854</v>
       </c>
+      <c r="K243"/>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -10555,19 +8359,10 @@
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244"/>
-      <c r="K244" t="n">
-        <v>296.430327135513</v>
-      </c>
-      <c r="L244" t="n">
-        <v>257.094135140664</v>
-      </c>
-      <c r="M244" t="n">
-        <v>257.094135140665</v>
-      </c>
-      <c r="N244" t="n">
+      <c r="J244" t="n">
         <v>276.734318108854</v>
       </c>
+      <c r="K244"/>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -10595,19 +8390,10 @@
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245"/>
-      <c r="K245" t="n">
-        <v>296.615132937373</v>
-      </c>
-      <c r="L245" t="n">
-        <v>257.403476143924</v>
-      </c>
-      <c r="M245" t="n">
-        <v>257.403476143925</v>
-      </c>
-      <c r="N245" t="n">
+      <c r="J245" t="n">
         <v>276.734318108854</v>
       </c>
+      <c r="K245"/>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -10635,19 +8421,10 @@
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246"/>
-      <c r="K246" t="n">
-        <v>296.800243900249</v>
-      </c>
-      <c r="L246" t="n">
-        <v>257.636381407892</v>
-      </c>
-      <c r="M246" t="n">
-        <v>257.636381407892</v>
-      </c>
-      <c r="N246" t="n">
+      <c r="J246" t="n">
         <v>276.734318108854</v>
       </c>
+      <c r="K246"/>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -10675,19 +8452,10 @@
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247"/>
-      <c r="K247" t="n">
-        <v>296.985660559242</v>
-      </c>
-      <c r="L247" t="n">
-        <v>257.808452057921</v>
-      </c>
-      <c r="M247" t="n">
-        <v>257.808452057921</v>
-      </c>
-      <c r="N247" t="n">
+      <c r="J247" t="n">
         <v>276.734318108854</v>
       </c>
+      <c r="K247"/>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -10715,19 +8483,10 @@
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248"/>
-      <c r="K248" t="n">
-        <v>297.171383525899</v>
-      </c>
-      <c r="L248" t="n">
-        <v>257.932100413241</v>
-      </c>
-      <c r="M248" t="n">
-        <v>257.932100413242</v>
-      </c>
-      <c r="N248" t="n">
+      <c r="J248" t="n">
         <v>276.734318108854</v>
       </c>
+      <c r="K248"/>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -10755,19 +8514,10 @@
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249"/>
-      <c r="K249" t="n">
-        <v>297.357413182435</v>
-      </c>
-      <c r="L249" t="n">
-        <v>258.017201773314</v>
-      </c>
-      <c r="M249" t="n">
-        <v>258.017201773314</v>
-      </c>
-      <c r="N249" t="n">
+      <c r="J249" t="n">
         <v>276.734318108854</v>
       </c>
+      <c r="K249"/>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -10795,19 +8545,10 @@
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250"/>
-      <c r="K250" t="n">
-        <v>297.543750063952</v>
-      </c>
-      <c r="L250" t="n">
-        <v>258.071612956273</v>
-      </c>
-      <c r="M250" t="n">
-        <v>258.071612956273</v>
-      </c>
-      <c r="N250" t="n">
+      <c r="J250" t="n">
         <v>276.734318108854</v>
       </c>
+      <c r="K250"/>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -10835,19 +8576,10 @@
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251"/>
-      <c r="K251" t="n">
-        <v>297.730394705552</v>
-      </c>
-      <c r="L251" t="n">
-        <v>258.101584862601</v>
-      </c>
-      <c r="M251" t="n">
-        <v>258.101584862601</v>
-      </c>
-      <c r="N251" t="n">
+      <c r="J251" t="n">
         <v>276.734318108854</v>
       </c>
+      <c r="K251"/>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -10875,19 +8607,10 @@
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252"/>
-      <c r="K252" t="n">
-        <v>297.917347642337</v>
-      </c>
-      <c r="L252" t="n">
-        <v>258.112090713622</v>
-      </c>
-      <c r="M252" t="n">
-        <v>258.112090713622</v>
-      </c>
-      <c r="N252" t="n">
+      <c r="J252" t="n">
         <v>276.734318108854</v>
       </c>
+      <c r="K252"/>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -10915,19 +8638,10 @@
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253"/>
-      <c r="K253" t="n">
-        <v>298.104609332965</v>
-      </c>
-      <c r="L253" t="n">
-        <v>258.107087205776</v>
-      </c>
-      <c r="M253" t="n">
-        <v>258.107087205776</v>
-      </c>
-      <c r="N253" t="n">
+      <c r="J253" t="n">
         <v>276.734318108854</v>
       </c>
+      <c r="K253"/>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -10955,19 +8669,10 @@
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254"/>
-      <c r="K254" t="n">
-        <v>302.391180280168</v>
-      </c>
-      <c r="L254" t="n">
-        <v>258.799873147409</v>
-      </c>
-      <c r="M254" t="n">
-        <v>258.799873147409</v>
-      </c>
-      <c r="N254" t="n">
+      <c r="J254" t="n">
         <v>280.429710075249</v>
       </c>
+      <c r="K254"/>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -10995,19 +8700,10 @@
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255"/>
-      <c r="K255" t="n">
-        <v>302.579061007347</v>
-      </c>
-      <c r="L255" t="n">
-        <v>259.337652211109</v>
-      </c>
-      <c r="M255" t="n">
-        <v>259.337652211109</v>
-      </c>
-      <c r="N255" t="n">
+      <c r="J255" t="n">
         <v>280.429710075249</v>
       </c>
+      <c r="K255"/>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -11035,19 +8731,10 @@
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256"/>
-      <c r="K256" t="n">
-        <v>302.767252017232</v>
-      </c>
-      <c r="L256" t="n">
-        <v>259.752084594127</v>
-      </c>
-      <c r="M256" t="n">
-        <v>259.752084594127</v>
-      </c>
-      <c r="N256" t="n">
+      <c r="J256" t="n">
         <v>280.429710075249</v>
       </c>
+      <c r="K256"/>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -11075,19 +8762,10 @@
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257"/>
-      <c r="K257" t="n">
-        <v>302.955753921369</v>
-      </c>
-      <c r="L257" t="n">
-        <v>260.068359323986</v>
-      </c>
-      <c r="M257" t="n">
-        <v>260.068359323986</v>
-      </c>
-      <c r="N257" t="n">
+      <c r="J257" t="n">
         <v>280.429710075249</v>
       </c>
+      <c r="K257"/>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -11115,19 +8793,10 @@
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258"/>
-      <c r="K258" t="n">
-        <v>303.144567101973</v>
-      </c>
-      <c r="L258" t="n">
-        <v>260.306516937327</v>
-      </c>
-      <c r="M258" t="n">
-        <v>260.306516937327</v>
-      </c>
-      <c r="N258" t="n">
+      <c r="J258" t="n">
         <v>280.429710075249</v>
       </c>
+      <c r="K258"/>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -11155,19 +8824,10 @@
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259"/>
-      <c r="K259" t="n">
-        <v>303.333692094147</v>
-      </c>
-      <c r="L259" t="n">
-        <v>260.482501785054</v>
-      </c>
-      <c r="M259" t="n">
-        <v>260.482501785054</v>
-      </c>
-      <c r="N259" t="n">
+      <c r="J259" t="n">
         <v>280.429710075249</v>
       </c>
+      <c r="K259"/>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -11195,19 +8855,10 @@
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260"/>
-      <c r="K260" t="n">
-        <v>303.523129509435</v>
-      </c>
-      <c r="L260" t="n">
-        <v>260.608999259009</v>
-      </c>
-      <c r="M260" t="n">
-        <v>260.608999259009</v>
-      </c>
-      <c r="N260" t="n">
+      <c r="J260" t="n">
         <v>280.429710075249</v>
       </c>
+      <c r="K260"/>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -11235,19 +8886,10 @@
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261"/>
-      <c r="K261" t="n">
-        <v>303.712879806497</v>
-      </c>
-      <c r="L261" t="n">
-        <v>260.696101911649</v>
-      </c>
-      <c r="M261" t="n">
-        <v>260.696101911649</v>
-      </c>
-      <c r="N261" t="n">
+      <c r="J261" t="n">
         <v>280.429710075249</v>
       </c>
+      <c r="K261"/>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -11275,19 +8917,10 @@
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262"/>
-      <c r="K262" t="n">
-        <v>303.90294344399</v>
-      </c>
-      <c r="L262" t="n">
-        <v>260.751839414547</v>
-      </c>
-      <c r="M262" t="n">
-        <v>260.751839414547</v>
-      </c>
-      <c r="N262" t="n">
+      <c r="J262" t="n">
         <v>280.429710075249</v>
       </c>
+      <c r="K262"/>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -11315,19 +8948,10 @@
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263"/>
-      <c r="K263" t="n">
-        <v>304.093320957018</v>
-      </c>
-      <c r="L263" t="n">
-        <v>260.782600191569</v>
-      </c>
-      <c r="M263" t="n">
-        <v>260.782600191569</v>
-      </c>
-      <c r="N263" t="n">
+      <c r="J263" t="n">
         <v>280.429710075249</v>
       </c>
+      <c r="K263"/>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -11355,19 +8979,10 @@
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264"/>
-      <c r="K264" t="n">
-        <v>304.284012957125</v>
-      </c>
-      <c r="L264" t="n">
-        <v>260.793466873141</v>
-      </c>
-      <c r="M264" t="n">
-        <v>260.793466873141</v>
-      </c>
-      <c r="N264" t="n">
+      <c r="J264" t="n">
         <v>280.429710075249</v>
       </c>
+      <c r="K264"/>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -11395,19 +9010,10 @@
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265"/>
-      <c r="K265" t="n">
-        <v>304.475019826527</v>
-      </c>
-      <c r="L265" t="n">
-        <v>260.788483207788</v>
-      </c>
-      <c r="M265" t="n">
-        <v>260.788483207788</v>
-      </c>
-      <c r="N265" t="n">
+      <c r="J265" t="n">
         <v>280.429710075249</v>
       </c>
+      <c r="K265"/>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -11435,19 +9041,10 @@
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266"/>
-      <c r="K266" t="n">
-        <v>308.855520231831</v>
-      </c>
-      <c r="L266" t="n">
-        <v>261.496640572941</v>
-      </c>
-      <c r="M266" t="n">
-        <v>261.496640572941</v>
-      </c>
-      <c r="N266" t="n">
+      <c r="J266" t="n">
         <v>284.206400664904</v>
       </c>
+      <c r="K266"/>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -11475,19 +9072,10 @@
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267"/>
-      <c r="K267" t="n">
-        <v>309.047158598015</v>
-      </c>
-      <c r="L267" t="n">
-        <v>262.046381121266</v>
-      </c>
-      <c r="M267" t="n">
-        <v>262.046381121266</v>
-      </c>
-      <c r="N267" t="n">
+      <c r="J267" t="n">
         <v>284.206400664904</v>
       </c>
+      <c r="K267"/>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -11515,19 +9103,10 @@
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268"/>
-      <c r="K268" t="n">
-        <v>309.2391134388</v>
-      </c>
-      <c r="L268" t="n">
-        <v>262.470061576199</v>
-      </c>
-      <c r="M268" t="n">
-        <v>262.470061576199</v>
-      </c>
-      <c r="N268" t="n">
+      <c r="J268" t="n">
         <v>284.206400664904</v>
       </c>
+      <c r="K268"/>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -11555,19 +9134,10 @@
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269"/>
-      <c r="K269" t="n">
-        <v>309.431385365731</v>
-      </c>
-      <c r="L269" t="n">
-        <v>262.793425126296</v>
-      </c>
-      <c r="M269" t="n">
-        <v>262.793425126296</v>
-      </c>
-      <c r="N269" t="n">
+      <c r="J269" t="n">
         <v>284.206400664904</v>
       </c>
+      <c r="K269"/>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -11595,19 +9165,10 @@
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270"/>
-      <c r="K270" t="n">
-        <v>309.623974837467</v>
-      </c>
-      <c r="L270" t="n">
-        <v>263.036953197081</v>
-      </c>
-      <c r="M270" t="n">
-        <v>263.036953197081</v>
-      </c>
-      <c r="N270" t="n">
+      <c r="J270" t="n">
         <v>284.206400664904</v>
       </c>
+      <c r="K270"/>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -11635,19 +9196,10 @@
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271"/>
-      <c r="K271" t="n">
-        <v>309.816882312667</v>
-      </c>
-      <c r="L271" t="n">
-        <v>263.216940919148</v>
-      </c>
-      <c r="M271" t="n">
-        <v>263.216940919148</v>
-      </c>
-      <c r="N271" t="n">
+      <c r="J271" t="n">
         <v>284.206400664904</v>
       </c>
+      <c r="K271"/>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -11675,19 +9227,10 @@
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272"/>
-      <c r="K272" t="n">
-        <v>310.010108479318</v>
-      </c>
-      <c r="L272" t="n">
-        <v>263.346352761622</v>
-      </c>
-      <c r="M272" t="n">
-        <v>263.346352761622</v>
-      </c>
-      <c r="N272" t="n">
+      <c r="J272" t="n">
         <v>284.206400664904</v>
       </c>
+      <c r="K272"/>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -11715,19 +9258,10 @@
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273"/>
-      <c r="K273" t="n">
-        <v>310.203653719638</v>
-      </c>
-      <c r="L273" t="n">
-        <v>263.435503318225</v>
-      </c>
-      <c r="M273" t="n">
-        <v>263.435503318225</v>
-      </c>
-      <c r="N273" t="n">
+      <c r="J273" t="n">
         <v>284.206400664904</v>
       </c>
+      <c r="K273"/>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -11755,19 +9289,10 @@
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274"/>
-      <c r="K274" t="n">
-        <v>310.39751864517</v>
-      </c>
-      <c r="L274" t="n">
-        <v>263.492598907183</v>
-      </c>
-      <c r="M274" t="n">
-        <v>263.492598907183</v>
-      </c>
-      <c r="N274" t="n">
+      <c r="J274" t="n">
         <v>284.206400664904</v>
       </c>
+      <c r="K274"/>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -11795,19 +9320,10 @@
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275"/>
-      <c r="K275" t="n">
-        <v>310.591703714574</v>
-      </c>
-      <c r="L275" t="n">
-        <v>263.524168499109</v>
-      </c>
-      <c r="M275" t="n">
-        <v>263.524168499109</v>
-      </c>
-      <c r="N275" t="n">
+      <c r="J275" t="n">
         <v>284.206400664904</v>
       </c>
+      <c r="K275"/>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -11835,19 +9351,10 @@
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276"/>
-      <c r="K276" t="n">
-        <v>310.786209539394</v>
-      </c>
-      <c r="L276" t="n">
-        <v>263.535406544391</v>
-      </c>
-      <c r="M276" t="n">
-        <v>263.535406544391</v>
-      </c>
-      <c r="N276" t="n">
+      <c r="J276" t="n">
         <v>284.206400664904</v>
       </c>
+      <c r="K276"/>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -11875,19 +9382,10 @@
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277"/>
-      <c r="K277" t="n">
-        <v>310.98103657829</v>
-      </c>
-      <c r="L277" t="n">
-        <v>263.530445750833</v>
-      </c>
-      <c r="M277" t="n">
-        <v>263.530445750833</v>
-      </c>
-      <c r="N277" t="n">
+      <c r="J277" t="n">
         <v>284.206400664904</v>
       </c>
+      <c r="K277"/>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -11915,19 +9413,10 @@
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278"/>
-      <c r="K278" t="n">
-        <v>315.457525316372</v>
-      </c>
-      <c r="L278" t="n">
-        <v>264.254315306822</v>
-      </c>
-      <c r="M278" t="n">
-        <v>264.254315306822</v>
-      </c>
-      <c r="N278" t="n">
+      <c r="J278" t="n">
         <v>288.066178447532</v>
       </c>
+      <c r="K278"/>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -11955,19 +9444,10 @@
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279"/>
-      <c r="K279" t="n">
-        <v>315.652996465168</v>
-      </c>
-      <c r="L279" t="n">
-        <v>264.816283094734</v>
-      </c>
-      <c r="M279" t="n">
-        <v>264.816283094734</v>
-      </c>
-      <c r="N279" t="n">
+      <c r="J279" t="n">
         <v>288.066178447532</v>
       </c>
+      <c r="K279"/>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -11995,19 +9475,10 @@
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280"/>
-      <c r="K280" t="n">
-        <v>315.848790433346</v>
-      </c>
-      <c r="L280" t="n">
-        <v>265.249417685289</v>
-      </c>
-      <c r="M280" t="n">
-        <v>265.249417685289</v>
-      </c>
-      <c r="N280" t="n">
+      <c r="J280" t="n">
         <v>288.066178447532</v>
       </c>
+      <c r="K280"/>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -12035,19 +9506,10 @@
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281"/>
-      <c r="K281" t="n">
-        <v>316.044907756007</v>
-      </c>
-      <c r="L281" t="n">
-        <v>265.580028623102</v>
-      </c>
-      <c r="M281" t="n">
-        <v>265.580028623102</v>
-      </c>
-      <c r="N281" t="n">
+      <c r="J281" t="n">
         <v>288.066178447532</v>
       </c>
+      <c r="K281"/>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -12075,19 +9537,10 @@
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282"/>
-      <c r="K282" t="n">
-        <v>316.241348968254</v>
-      </c>
-      <c r="L282" t="n">
-        <v>265.82904792503</v>
-      </c>
-      <c r="M282" t="n">
-        <v>265.82904792503</v>
-      </c>
-      <c r="N282" t="n">
+      <c r="J282" t="n">
         <v>288.066178447532</v>
       </c>
+      <c r="K282"/>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -12115,19 +9568,10 @@
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283"/>
-      <c r="K283" t="n">
-        <v>316.438114681632</v>
-      </c>
-      <c r="L283" t="n">
-        <v>266.013129204324</v>
-      </c>
-      <c r="M283" t="n">
-        <v>266.013129204324</v>
-      </c>
-      <c r="N283" t="n">
+      <c r="J283" t="n">
         <v>288.066178447532</v>
       </c>
+      <c r="K283"/>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -12155,19 +9599,10 @@
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284"/>
-      <c r="K284" t="n">
-        <v>316.635205354799</v>
-      </c>
-      <c r="L284" t="n">
-        <v>266.145522157747</v>
-      </c>
-      <c r="M284" t="n">
-        <v>266.145522157747</v>
-      </c>
-      <c r="N284" t="n">
+      <c r="J284" t="n">
         <v>288.066178447532</v>
       </c>
+      <c r="K284"/>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -12195,19 +9630,10 @@
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285"/>
-      <c r="K285" t="n">
-        <v>316.832621522858</v>
-      </c>
-      <c r="L285" t="n">
-        <v>266.236768297187</v>
-      </c>
-      <c r="M285" t="n">
-        <v>266.236768297187</v>
-      </c>
-      <c r="N285" t="n">
+      <c r="J285" t="n">
         <v>288.066178447532</v>
       </c>
+      <c r="K285"/>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -12235,19 +9661,10 @@
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286"/>
-      <c r="K286" t="n">
-        <v>317.03036372091</v>
-      </c>
-      <c r="L286" t="n">
-        <v>266.295254483981</v>
-      </c>
-      <c r="M286" t="n">
-        <v>266.295254483981</v>
-      </c>
-      <c r="N286" t="n">
+      <c r="J286" t="n">
         <v>288.066178447532</v>
       </c>
+      <c r="K286"/>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -12275,19 +9692,10 @@
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287"/>
-      <c r="K287" t="n">
-        <v>317.228432484058</v>
-      </c>
-      <c r="L287" t="n">
-        <v>266.327653324633</v>
-      </c>
-      <c r="M287" t="n">
-        <v>266.327653324633</v>
-      </c>
-      <c r="N287" t="n">
+      <c r="J287" t="n">
         <v>288.066178447532</v>
       </c>
+      <c r="K287"/>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -12315,19 +9723,10 @@
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288"/>
-      <c r="K288" t="n">
-        <v>317.426828423846</v>
-      </c>
-      <c r="L288" t="n">
-        <v>266.339273547233</v>
-      </c>
-      <c r="M288" t="n">
-        <v>266.339273547233</v>
-      </c>
-      <c r="N288" t="n">
+      <c r="J288" t="n">
         <v>288.066178447532</v>
       </c>
+      <c r="K288"/>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -12355,19 +9754,10 @@
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289"/>
-      <c r="K289" t="n">
-        <v>317.625552075376</v>
-      </c>
-      <c r="L289" t="n">
-        <v>266.334338774259</v>
-      </c>
-      <c r="M289" t="n">
-        <v>266.334338774259</v>
-      </c>
-      <c r="N289" t="n">
+      <c r="J289" t="n">
         <v>288.066178447532</v>
       </c>
+      <c r="K289"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.Data/tempdata.xlsx
+++ b/1.Data/tempdata.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">year</t>
   </si>
@@ -41,10 +41,19 @@
     <t xml:space="preserve">gdp_less_1</t>
   </si>
   <si>
-    <t xml:space="preserve">model</t>
+    <t xml:space="preserve">err</t>
   </si>
   <si>
-    <t xml:space="preserve">err</t>
+    <t xml:space="preserve">Algorithm 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithm 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithm 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithm 1</t>
   </si>
 </sst>
 </file>
@@ -410,6 +419,15 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -419,31 +437,40 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>111.370873235031</v>
+        <v>111.15619047619</v>
       </c>
       <c r="D2" t="n">
-        <v>1.37644289076506</v>
+        <v>1.28945340920919</v>
       </c>
       <c r="E2" t="n">
-        <v>123.069767808923</v>
+        <v>116.46</v>
       </c>
       <c r="F2" t="n">
-        <v>2.05403644639639</v>
+        <v>1.94361731025613</v>
       </c>
       <c r="G2" t="n">
-        <v>8.21656081887824</v>
+        <v>8.2425</v>
       </c>
       <c r="H2" t="n">
-        <v>376.745437902663</v>
+        <v>359.6271375</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>432.57059813702</v>
+        <v>0.192872274535415</v>
       </c>
       <c r="K2" t="n">
-        <v>0.148177402081191</v>
+        <v>405.333867241373</v>
+      </c>
+      <c r="L2" t="n">
+        <v>399.003871899436</v>
+      </c>
+      <c r="M2" t="n">
+        <v>381.556622489238</v>
+      </c>
+      <c r="N2" t="n">
+        <v>428.989241494285</v>
       </c>
     </row>
     <row r="3">
@@ -454,31 +481,40 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>125.668559254674</v>
+        <v>119.702380952381</v>
       </c>
       <c r="D3" t="n">
-        <v>1.28186950310027</v>
+        <v>1.32124992060122</v>
       </c>
       <c r="E3" t="n">
-        <v>122.864472490235</v>
+        <v>117.02</v>
       </c>
       <c r="F3" t="n">
-        <v>1.96257446540429</v>
+        <v>1.88481087516663</v>
       </c>
       <c r="G3" t="n">
-        <v>8.83052816250362</v>
+        <v>9.1</v>
       </c>
       <c r="H3" t="n">
-        <v>376.827087698649</v>
+        <v>376.22136875</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>458.136753049824</v>
+        <v>0.217633260440822</v>
       </c>
       <c r="K3" t="n">
-        <v>0.21577447058742</v>
+        <v>437.320386195379</v>
+      </c>
+      <c r="L3" t="n">
+        <v>418.604749915531</v>
+      </c>
+      <c r="M3" t="n">
+        <v>400.478833417286</v>
+      </c>
+      <c r="N3" t="n">
+        <v>458.099651878571</v>
       </c>
     </row>
     <row r="4">
@@ -489,31 +525,40 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>118.398860087051</v>
+        <v>124.928636363636</v>
       </c>
       <c r="D4" t="n">
-        <v>1.22039718368561</v>
+        <v>1.32179594236881</v>
       </c>
       <c r="E4" t="n">
-        <v>106.008016270199</v>
+        <v>107.46</v>
       </c>
       <c r="F4" t="n">
-        <v>1.89709927354809</v>
+        <v>1.82600444007713</v>
       </c>
       <c r="G4" t="n">
-        <v>9.46182370198891</v>
+        <v>9.48</v>
       </c>
       <c r="H4" t="n">
-        <v>378.901320691738</v>
+        <v>386.14925</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>460.246240182759</v>
+        <v>0.206090704486789</v>
       </c>
       <c r="K4" t="n">
-        <v>0.214686291783081</v>
+        <v>449.995702795078</v>
+      </c>
+      <c r="L4" t="n">
+        <v>433.234004644509</v>
+      </c>
+      <c r="M4" t="n">
+        <v>407.412185206578</v>
+      </c>
+      <c r="N4" t="n">
+        <v>465.731020969545</v>
       </c>
     </row>
     <row r="5">
@@ -524,31 +569,40 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>121.322217430153</v>
+        <v>120.4635</v>
       </c>
       <c r="D5" t="n">
-        <v>1.23622503909414</v>
+        <v>1.31618096674676</v>
       </c>
       <c r="E5" t="n">
-        <v>97.0997106329282</v>
+        <v>103.59</v>
       </c>
       <c r="F5" t="n">
-        <v>1.81673791471238</v>
+        <v>1.74378085286223</v>
       </c>
       <c r="G5" t="n">
-        <v>10.3952170906577</v>
+        <v>9.4775</v>
       </c>
       <c r="H5" t="n">
-        <v>405.961700639677</v>
+        <v>403.1772375</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>481.967284617708</v>
+        <v>0.14203542046071</v>
       </c>
       <c r="K5" t="n">
-        <v>0.187223533299493</v>
+        <v>447.186398463372</v>
+      </c>
+      <c r="L5" t="n">
+        <v>442.789084890856</v>
+      </c>
+      <c r="M5" t="n">
+        <v>418.87571377923</v>
+      </c>
+      <c r="N5" t="n">
+        <v>460.4426859485</v>
       </c>
     </row>
     <row r="6">
@@ -559,31 +613,40 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>119.544369436967</v>
+        <v>110.521739130435</v>
       </c>
       <c r="D6" t="n">
-        <v>1.39543544893587</v>
+        <v>1.28042617397904</v>
       </c>
       <c r="E6" t="n">
-        <v>93.9650173833598</v>
+        <v>95.83</v>
       </c>
       <c r="F6" t="n">
-        <v>1.63110889144954</v>
+        <v>1.66155726564733</v>
       </c>
       <c r="G6" t="n">
-        <v>8.80687358103544</v>
+        <v>9.246</v>
       </c>
       <c r="H6" t="n">
-        <v>440.62942093395</v>
+        <v>403.75115625</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>435.497579546441</v>
+        <v>0.0972966841390561</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0116466153726908</v>
+        <v>433.799001208146</v>
+      </c>
+      <c r="L6" t="n">
+        <v>444.933992605201</v>
+      </c>
+      <c r="M6" t="n">
+        <v>413.875147542657</v>
+      </c>
+      <c r="N6" t="n">
+        <v>443.034804970435</v>
       </c>
     </row>
     <row r="7">
@@ -594,31 +657,40 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>103.111743829611</v>
+        <v>95.5890476190476</v>
       </c>
       <c r="D7" t="n">
-        <v>1.33095483463274</v>
+        <v>1.25212240064324</v>
       </c>
       <c r="E7" t="n">
-        <v>88.9056631866414</v>
+        <v>87.19</v>
       </c>
       <c r="F7" t="n">
-        <v>1.55123636041482</v>
+        <v>1.57933367843243</v>
       </c>
       <c r="G7" t="n">
-        <v>7.8713428494829</v>
+        <v>8.6375</v>
       </c>
       <c r="H7" t="n">
-        <v>348.696962356721</v>
+        <v>372.22662</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>396.504560080083</v>
+        <v>0.105939497284131</v>
       </c>
       <c r="K7" t="n">
-        <v>0.137103568096055</v>
+        <v>405.455594010189</v>
+      </c>
+      <c r="L7" t="n">
+        <v>438.26148130886</v>
+      </c>
+      <c r="M7" t="n">
+        <v>380.414994516049</v>
+      </c>
+      <c r="N7" t="n">
+        <v>411.660120998571</v>
       </c>
     </row>
     <row r="8">
@@ -629,31 +701,40 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>94.7483903348989</v>
+        <v>103.140909090909</v>
       </c>
       <c r="D8" t="n">
-        <v>1.20178220605928</v>
+        <v>1.23035702971676</v>
       </c>
       <c r="E8" t="n">
-        <v>80.7015787023269</v>
+        <v>88.24</v>
       </c>
       <c r="F8" t="n">
-        <v>1.54848087970002</v>
+        <v>1.55752684787293</v>
       </c>
       <c r="G8" t="n">
-        <v>8.70999835627712</v>
+        <v>8.73</v>
       </c>
       <c r="H8" t="n">
-        <v>369.252506658475</v>
+        <v>351.068475</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>409.036252763207</v>
+        <v>0.195095525206689</v>
       </c>
       <c r="K8" t="n">
-        <v>0.107741302732789</v>
+        <v>412.445830354208</v>
+      </c>
+      <c r="L8" t="n">
+        <v>434.834428605101</v>
+      </c>
+      <c r="M8" t="n">
+        <v>365.46307179293</v>
+      </c>
+      <c r="N8" t="n">
+        <v>419.560363513636</v>
       </c>
     </row>
     <row r="9">
@@ -664,31 +745,40 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>104.571437823052</v>
+        <v>113.34</v>
       </c>
       <c r="D9" t="n">
-        <v>1.21741554436037</v>
+        <v>1.23815485795614</v>
       </c>
       <c r="E9" t="n">
-        <v>89.9695677244104</v>
+        <v>91</v>
       </c>
       <c r="F9" t="n">
-        <v>1.40975611684775</v>
+        <v>1.53572001731344</v>
       </c>
       <c r="G9" t="n">
-        <v>8.33443062588572</v>
+        <v>8.85</v>
       </c>
       <c r="H9" t="n">
-        <v>345.666957670224</v>
+        <v>357.85056</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>410.734791704254</v>
+        <v>0.204243399088156</v>
       </c>
       <c r="K9" t="n">
-        <v>0.188238512794463</v>
+        <v>421.58711812997</v>
+      </c>
+      <c r="L9" t="n">
+        <v>435.135548458475</v>
+      </c>
+      <c r="M9" t="n">
+        <v>373.886651971657</v>
+      </c>
+      <c r="N9" t="n">
+        <v>430.93917474</v>
       </c>
     </row>
     <row r="10">
@@ -699,31 +789,40 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>116.348233962812</v>
+        <v>113.3825</v>
       </c>
       <c r="D10" t="n">
-        <v>1.23725110578774</v>
+        <v>1.28417168834087</v>
       </c>
       <c r="E10" t="n">
-        <v>89.3274700337052</v>
+        <v>88.96</v>
       </c>
       <c r="F10" t="n">
-        <v>1.53938665220507</v>
+        <v>1.51391318675394</v>
       </c>
       <c r="G10" t="n">
-        <v>8.94076798828412</v>
+        <v>9.58</v>
       </c>
       <c r="H10" t="n">
-        <v>371.521726563412</v>
+        <v>382.12528125</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>434.244557625432</v>
+        <v>0.176641892906687</v>
       </c>
       <c r="K10" t="n">
-        <v>0.16882681839958</v>
+        <v>444.797971176248</v>
+      </c>
+      <c r="L10" t="n">
+        <v>438.316753859564</v>
+      </c>
+      <c r="M10" t="n">
+        <v>396.141419925867</v>
+      </c>
+      <c r="N10" t="n">
+        <v>449.6246142575</v>
       </c>
     </row>
     <row r="11">
@@ -734,31 +833,40 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>111.015691746014</v>
+        <v>111.97347826087</v>
       </c>
       <c r="D11" t="n">
-        <v>1.26709233384617</v>
+        <v>1.29644086060586</v>
       </c>
       <c r="E11" t="n">
-        <v>87.6665758427815</v>
+        <v>81.85</v>
       </c>
       <c r="F11" t="n">
-        <v>1.51182125115636</v>
+        <v>1.38704508985128</v>
       </c>
       <c r="G11" t="n">
-        <v>9.44357603481039</v>
+        <v>10.1125</v>
       </c>
       <c r="H11" t="n">
-        <v>389.724295284869</v>
+        <v>410.8926625</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>443.607483619368</v>
+        <v>0.116644848801285</v>
       </c>
       <c r="K11" t="n">
-        <v>0.13825976205849</v>
+        <v>460.004755860796</v>
+      </c>
+      <c r="L11" t="n">
+        <v>440.679239067443</v>
+      </c>
+      <c r="M11" t="n">
+        <v>418.860442956491</v>
+      </c>
+      <c r="N11" t="n">
+        <v>458.82117499087</v>
       </c>
     </row>
     <row r="12">
@@ -769,31 +877,40 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>106.041745612469</v>
+        <v>109.711818181818</v>
       </c>
       <c r="D12" t="n">
-        <v>1.35479657928551</v>
+        <v>1.28342852071292</v>
       </c>
       <c r="E12" t="n">
-        <v>89.978491292357</v>
+        <v>85.89</v>
       </c>
       <c r="F12" t="n">
-        <v>1.17914113190113</v>
+        <v>1.26017699294861</v>
       </c>
       <c r="G12" t="n">
-        <v>9.6599282190674</v>
+        <v>10.29</v>
       </c>
       <c r="H12" t="n">
-        <v>454.856786950607</v>
+        <v>427.02757</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>447.866973623963</v>
+        <v>0.0884511474452869</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0153670639356719</v>
+        <v>466.06447209836</v>
+      </c>
+      <c r="L12" t="n">
+        <v>444.66487985013</v>
+      </c>
+      <c r="M12" t="n">
+        <v>433.803517843588</v>
+      </c>
+      <c r="N12" t="n">
+        <v>464.798648557273</v>
       </c>
     </row>
     <row r="13">
@@ -804,31 +921,40 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>113.694805145724</v>
+        <v>109.6765</v>
       </c>
       <c r="D13" t="n">
-        <v>1.34237385324434</v>
+        <v>1.3110953849636</v>
       </c>
       <c r="E13" t="n">
-        <v>91.449509160284</v>
+        <v>92.88</v>
       </c>
       <c r="F13" t="n">
-        <v>1.0225951976864</v>
+        <v>1.13330889604595</v>
       </c>
       <c r="G13" t="n">
-        <v>10.2143610463623</v>
+        <v>10.5625</v>
       </c>
       <c r="H13" t="n">
-        <v>406.157130153769</v>
+        <v>431.716616666667</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>468.713824064053</v>
+        <v>0.10400102287353</v>
       </c>
       <c r="K13" t="n">
-        <v>0.154020917684248</v>
+        <v>476.482669798385</v>
+      </c>
+      <c r="L13" t="n">
+        <v>451.841530051201</v>
+      </c>
+      <c r="M13" t="n">
+        <v>441.539802640819</v>
+      </c>
+      <c r="N13" t="n">
+        <v>476.6155863915</v>
       </c>
     </row>
     <row r="14">
@@ -839,31 +965,40 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>116.220838361996</v>
+        <v>112.973636363636</v>
       </c>
       <c r="D14" t="n">
-        <v>1.37215041853538</v>
+        <v>1.33242974109691</v>
       </c>
       <c r="E14" t="n">
-        <v>96.3418589343033</v>
+        <v>92.77</v>
       </c>
       <c r="F14" t="n">
-        <v>1.21117368309197</v>
+        <v>1.14321460248121</v>
       </c>
       <c r="G14" t="n">
-        <v>9.41894401018321</v>
+        <v>10.36</v>
       </c>
       <c r="H14" t="n">
-        <v>419.094909761481</v>
+        <v>423.9896875</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>451.637864947213</v>
+        <v>0.115764073305545</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0776505617886258</v>
+        <v>471.05741190093</v>
+      </c>
+      <c r="L14" t="n">
+        <v>456.927465175358</v>
+      </c>
+      <c r="M14" t="n">
+        <v>434.768347267991</v>
+      </c>
+      <c r="N14" t="n">
+        <v>473.072460764545</v>
       </c>
     </row>
     <row r="15">
@@ -874,31 +1009,40 @@
         <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>124.281899567633</v>
+        <v>116.5195</v>
       </c>
       <c r="D15" t="n">
-        <v>1.25092995770731</v>
+        <v>1.33865507742874</v>
       </c>
       <c r="E15" t="n">
-        <v>104.075591012143</v>
+        <v>94.94</v>
       </c>
       <c r="F15" t="n">
-        <v>1.19156442260057</v>
+        <v>1.15312030891647</v>
       </c>
       <c r="G15" t="n">
-        <v>10.2085712968558</v>
+        <v>10.08</v>
       </c>
       <c r="H15" t="n">
-        <v>434.135552723485</v>
+        <v>446.5117625</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>483.101961399171</v>
+        <v>0.0503666300716994</v>
       </c>
       <c r="K15" t="n">
-        <v>0.112790598163414</v>
+        <v>463.901818068824</v>
+      </c>
+      <c r="L15" t="n">
+        <v>460.846467374375</v>
+      </c>
+      <c r="M15" t="n">
+        <v>452.559662533833</v>
+      </c>
+      <c r="N15" t="n">
+        <v>469.0010552645</v>
       </c>
     </row>
     <row r="16">
@@ -909,31 +1053,40 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>118.529676671486</v>
+        <v>109.24</v>
       </c>
       <c r="D16" t="n">
-        <v>1.17969748882147</v>
+        <v>1.2965747351266</v>
       </c>
       <c r="E16" t="n">
-        <v>86.7127679638471</v>
+        <v>90.98</v>
       </c>
       <c r="F16" t="n">
-        <v>1.0741066274455</v>
+        <v>1.16302601535173</v>
       </c>
       <c r="G16" t="n">
-        <v>9.45417537085991</v>
+        <v>10.1725</v>
       </c>
       <c r="H16" t="n">
-        <v>402.048937614277</v>
+        <v>441.01218</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>447.986872629935</v>
+        <v>0.0532470879602465</v>
       </c>
       <c r="K16" t="n">
-        <v>0.114259560759568</v>
+        <v>463.342863026497</v>
+      </c>
+      <c r="L16" t="n">
+        <v>461.944666011089</v>
+      </c>
+      <c r="M16" t="n">
+        <v>446.164370264788</v>
+      </c>
+      <c r="N16" t="n">
+        <v>464.49479434</v>
       </c>
     </row>
     <row r="17">
@@ -944,31 +1097,40 @@
         <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>107.037615480886</v>
+        <v>102.875454545455</v>
       </c>
       <c r="D17" t="n">
-        <v>1.33014506310706</v>
+        <v>1.30080003462069</v>
       </c>
       <c r="E17" t="n">
-        <v>92.0904179349989</v>
+        <v>87.76</v>
       </c>
       <c r="F17" t="n">
-        <v>1.28417040849347</v>
+        <v>1.26114546310179</v>
       </c>
       <c r="G17" t="n">
-        <v>9.74977300747111</v>
+        <v>10.345</v>
       </c>
       <c r="H17" t="n">
-        <v>499.18809497616</v>
+        <v>458.29545</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>452.270713606811</v>
+        <v>0.0107240388527063</v>
       </c>
       <c r="K17" t="n">
-        <v>0.093987380391332</v>
+        <v>465.48805385514</v>
+      </c>
+      <c r="L17" t="n">
+        <v>461.612040133293</v>
+      </c>
+      <c r="M17" t="n">
+        <v>458.70869872202</v>
+      </c>
+      <c r="N17" t="n">
+        <v>463.210228211819</v>
       </c>
     </row>
     <row r="18">
@@ -979,31 +1141,40 @@
         <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>93.3559608814247</v>
+        <v>103.026956521739</v>
       </c>
       <c r="D18" t="n">
-        <v>1.27507403429307</v>
+        <v>1.29599812388292</v>
       </c>
       <c r="E18" t="n">
-        <v>115</v>
+        <v>87.71</v>
       </c>
       <c r="F18" t="n">
-        <v>1.43796124716444</v>
+        <v>1.35926491085185</v>
       </c>
       <c r="G18" t="n">
-        <v>10.9912576424653</v>
+        <v>10.036</v>
       </c>
       <c r="H18" t="n">
-        <v>478.667950910275</v>
+        <v>454.97385</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>492.050405022726</v>
+        <v>0.000311079193366814</v>
       </c>
       <c r="K18" t="n">
-        <v>0.027957698206035</v>
+        <v>455.481109671395</v>
+      </c>
+      <c r="L18" t="n">
+        <v>459.774059305578</v>
+      </c>
+      <c r="M18" t="n">
+        <v>454.492669480659</v>
+      </c>
+      <c r="N18" t="n">
+        <v>454.832317101739</v>
       </c>
     </row>
     <row r="19">
@@ -1014,31 +1185,40 @@
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>95.2042173520261</v>
+        <v>103.11</v>
       </c>
       <c r="D19" t="n">
-        <v>1.32262921569386</v>
+        <v>1.3193602052329</v>
       </c>
       <c r="E19" t="n">
-        <v>90.1478279335203</v>
+        <v>82.7543194620071</v>
       </c>
       <c r="F19" t="n">
-        <v>1.58578929028086</v>
+        <v>1.45738435860191</v>
       </c>
       <c r="G19" t="n">
-        <v>9.97632119217562</v>
+        <v>10.07</v>
       </c>
       <c r="H19" t="n">
-        <v>430.061626976912</v>
+        <v>452.44875</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>449.852607911018</v>
+        <v>0.000548676319542585</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0460189416880215</v>
+        <v>455.281030437977</v>
+      </c>
+      <c r="L19" t="n">
+        <v>456.627196705224</v>
+      </c>
+      <c r="M19" t="n">
+        <v>450.799130130747</v>
+      </c>
+      <c r="N19" t="n">
+        <v>452.696997914932</v>
       </c>
     </row>
     <row r="20">
@@ -1049,31 +1229,40 @@
         <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>100.707484305537</v>
+        <v>107.716086956522</v>
       </c>
       <c r="D20" t="n">
-        <v>1.30402678192316</v>
+        <v>1.30772257149181</v>
       </c>
       <c r="E20" t="n">
-        <v>75.7372286908652</v>
+        <v>77.2592108288309</v>
       </c>
       <c r="F20" t="n">
-        <v>1.66511578795511</v>
+        <v>1.59183744744634</v>
       </c>
       <c r="G20" t="n">
-        <v>10.0718301793165</v>
+        <v>9.985</v>
       </c>
       <c r="H20" t="n">
-        <v>440.488109604262</v>
+        <v>478.17549375</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>446.835490896713</v>
+        <v>0.0593523854185227</v>
       </c>
       <c r="K20" t="n">
-        <v>0.014409881116096</v>
+        <v>453.426805305791</v>
+      </c>
+      <c r="L20" t="n">
+        <v>452.242490482544</v>
+      </c>
+      <c r="M20" t="n">
+        <v>469.386464176504</v>
+      </c>
+      <c r="N20" t="n">
+        <v>449.794637547258</v>
       </c>
     </row>
     <row r="21">
@@ -1084,31 +1273,40 @@
         <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>117.087931608069</v>
+        <v>110.964545454545</v>
       </c>
       <c r="D21" t="n">
-        <v>1.41627839527551</v>
+        <v>1.33140411733142</v>
       </c>
       <c r="E21" t="n">
-        <v>80.2846986846775</v>
+        <v>76.96</v>
       </c>
       <c r="F21" t="n">
-        <v>1.69373796781152</v>
+        <v>1.72629053629078</v>
       </c>
       <c r="G21" t="n">
-        <v>9.98871042247955</v>
+        <v>10.044</v>
       </c>
       <c r="H21" t="n">
-        <v>462.52391548571</v>
+        <v>485.5538</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>457.647373130197</v>
+        <v>0.0665388231166525</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0105433301765431</v>
+        <v>456.581680429644</v>
+      </c>
+      <c r="L21" t="n">
+        <v>449.37712651188</v>
+      </c>
+      <c r="M21" t="n">
+        <v>475.879833967917</v>
+      </c>
+      <c r="N21" t="n">
+        <v>453.245621588182</v>
       </c>
     </row>
     <row r="22">
@@ -1119,31 +1317,40 @@
         <v>9</v>
       </c>
       <c r="C22" t="n">
-        <v>107.131214829431</v>
+        <v>111.621428571429</v>
       </c>
       <c r="D22" t="n">
-        <v>1.40801094987813</v>
+        <v>1.33403484674122</v>
       </c>
       <c r="E22" t="n">
-        <v>71.7031714751414</v>
+        <v>77.6125</v>
       </c>
       <c r="F22" t="n">
-        <v>1.68870169603023</v>
+        <v>1.86074362513521</v>
       </c>
       <c r="G22" t="n">
-        <v>10.6841016711979</v>
+        <v>10.3275</v>
       </c>
       <c r="H22" t="n">
-        <v>464.644431392019</v>
+        <v>495.4801875</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>465.033725251635</v>
+        <v>0.067954068280191</v>
       </c>
       <c r="K22" t="n">
-        <v>0.000837831755456042</v>
+        <v>466.481139832568</v>
+      </c>
+      <c r="L22" t="n">
+        <v>448.862789422667</v>
+      </c>
+      <c r="M22" t="n">
+        <v>485.54270251812</v>
+      </c>
+      <c r="N22" t="n">
+        <v>461.810293007143</v>
       </c>
     </row>
     <row r="23">
@@ -1154,31 +1361,40 @@
         <v>10</v>
       </c>
       <c r="C23" t="n">
-        <v>106.684920360375</v>
+        <v>109.478695652174</v>
       </c>
       <c r="D23" t="n">
-        <v>1.32563792126991</v>
+        <v>1.36296071657827</v>
       </c>
       <c r="E23" t="n">
-        <v>115</v>
+        <v>79.4125</v>
       </c>
       <c r="F23" t="n">
-        <v>2.22606210740248</v>
+        <v>2.08044982554345</v>
       </c>
       <c r="G23" t="n">
-        <v>10.6523223561835</v>
+        <v>10.738</v>
       </c>
       <c r="H23" t="n">
-        <v>557.538147367645</v>
+        <v>518.0301125</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>491.110378692264</v>
+        <v>0.0872760609217017</v>
       </c>
       <c r="K23" t="n">
-        <v>0.119144795722073</v>
+        <v>479.328246986678</v>
+      </c>
+      <c r="L23" t="n">
+        <v>450.916478600967</v>
+      </c>
+      <c r="M23" t="n">
+        <v>505.946477589003</v>
+      </c>
+      <c r="N23" t="n">
+        <v>472.818484842174</v>
       </c>
     </row>
     <row r="24">
@@ -1189,31 +1405,40 @@
         <v>11</v>
       </c>
       <c r="C24" t="n">
-        <v>111.30587207353</v>
+        <v>108.07619047619</v>
       </c>
       <c r="D24" t="n">
-        <v>1.41936134759957</v>
+        <v>1.35066091003443</v>
       </c>
       <c r="E24" t="n">
-        <v>250</v>
+        <v>82.25</v>
       </c>
       <c r="F24" t="n">
-        <v>2.20988844000371</v>
+        <v>2.30015602595169</v>
       </c>
       <c r="G24" t="n">
-        <v>11.6510116429203</v>
+        <v>10.91</v>
       </c>
       <c r="H24" t="n">
-        <v>520.901897414127</v>
+        <v>530.197715</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>606.158400418131</v>
+        <v>0.0976463606330604</v>
       </c>
       <c r="K24" t="n">
-        <v>0.163670939628434</v>
+        <v>485.357733502365</v>
+      </c>
+      <c r="L24" t="n">
+        <v>454.288171481088</v>
+      </c>
+      <c r="M24" t="n">
+        <v>517.364869619763</v>
+      </c>
+      <c r="N24" t="n">
+        <v>478.425837714285</v>
       </c>
     </row>
     <row r="25">
@@ -1224,31 +1449,40 @@
         <v>12</v>
       </c>
       <c r="C25" t="n">
-        <v>112.576742696324</v>
+        <v>110.674</v>
       </c>
       <c r="D25" t="n">
-        <v>1.24979793757064</v>
+        <v>1.36951377232217</v>
       </c>
       <c r="E25" t="n">
-        <v>250</v>
+        <v>84.3375</v>
       </c>
       <c r="F25" t="n">
-        <v>2.53835282094663</v>
+        <v>2.51986222635993</v>
       </c>
       <c r="G25" t="n">
-        <v>11.9027976013012</v>
+        <v>11.2866666666667</v>
       </c>
       <c r="H25" t="n">
-        <v>492.982649492692</v>
+        <v>537.705316666667</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>613.829662207115</v>
+        <v>0.0856530999262626</v>
       </c>
       <c r="K25" t="n">
-        <v>0.245134413632572</v>
+        <v>499.394501502267</v>
+      </c>
+      <c r="L25" t="n">
+        <v>460.011343979765</v>
+      </c>
+      <c r="M25" t="n">
+        <v>526.378599683</v>
+      </c>
+      <c r="N25" t="n">
+        <v>491.649189447334</v>
       </c>
     </row>
     <row r="26">
@@ -1259,31 +1493,40 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>114.184355004434</v>
+        <v>107.42</v>
       </c>
       <c r="D26" t="n">
-        <v>1.33852335158658</v>
+        <v>1.36332324021673</v>
       </c>
       <c r="E26" t="n">
-        <v>250</v>
+        <v>81.61</v>
       </c>
       <c r="F26" t="n">
-        <v>2.82369372427273</v>
+        <v>2.59157382160382</v>
       </c>
       <c r="G26" t="n">
-        <v>11.6036174321903</v>
+        <v>10.714</v>
       </c>
       <c r="H26" t="n">
-        <v>580.764021240732</v>
+        <v>532.24483</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>606.660214249498</v>
+        <v>0.11270210632201</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0445898713791575</v>
+        <v>478.629878584809</v>
+      </c>
+      <c r="L26" t="n">
+        <v>460.177041560771</v>
+      </c>
+      <c r="M26" t="n">
+        <v>517.646500920238</v>
+      </c>
+      <c r="N26" t="n">
+        <v>472.25971658</v>
       </c>
     </row>
     <row r="27">
@@ -1294,31 +1537,40 @@
         <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>111.47765318131</v>
+        <v>108.81</v>
       </c>
       <c r="D27" t="n">
-        <v>1.26173581544375</v>
+        <v>1.36301698520082</v>
       </c>
       <c r="E27" t="n">
-        <v>250</v>
+        <v>76.29</v>
       </c>
       <c r="F27" t="n">
-        <v>2.5514104617153</v>
+        <v>2.66328541684771</v>
       </c>
       <c r="G27" t="n">
-        <v>8.78179310372332</v>
+        <v>9.6975</v>
       </c>
       <c r="H27" t="n">
-        <v>580.713306057532</v>
+        <v>541.933384375</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>527.886479449395</v>
+        <v>0.184375301551563</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0909688585694348</v>
+        <v>444.577077581569</v>
+      </c>
+      <c r="L27" t="n">
+        <v>453.324844306887</v>
+      </c>
+      <c r="M27" t="n">
+        <v>518.37075418948</v>
+      </c>
+      <c r="N27" t="n">
+        <v>442.01425321</v>
       </c>
     </row>
     <row r="28">
@@ -1329,31 +1581,40 @@
         <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>110.541252662363</v>
+        <v>107.4</v>
       </c>
       <c r="D28" t="n">
-        <v>1.32086989692509</v>
+        <v>1.38211007087117</v>
       </c>
       <c r="E28" t="n">
-        <v>250</v>
+        <v>73.34</v>
       </c>
       <c r="F28" t="n">
-        <v>2.94190680009661</v>
+        <v>2.73499701209159</v>
       </c>
       <c r="G28" t="n">
-        <v>8.61076802340976</v>
+        <v>9.4575</v>
       </c>
       <c r="H28" t="n">
-        <v>542.213225305451</v>
+        <v>524.04735625</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>522.63012842017</v>
+        <v>0.174266844514779</v>
       </c>
       <c r="K28" t="n">
-        <v>0.036116966483525</v>
+        <v>435.28256541332</v>
+      </c>
+      <c r="L28" t="n">
+        <v>445.342993928216</v>
+      </c>
+      <c r="M28" t="n">
+        <v>501.610311937055</v>
+      </c>
+      <c r="N28" t="n">
+        <v>432.7232771</v>
       </c>
     </row>
     <row r="29">
@@ -1364,31 +1625,40 @@
         <v>4</v>
       </c>
       <c r="C29" t="n">
-        <v>101.226118124344</v>
+        <v>107.79</v>
       </c>
       <c r="D29" t="n">
-        <v>1.33310148185806</v>
+        <v>1.380527404527</v>
       </c>
       <c r="E29" t="n">
-        <v>250</v>
+        <v>72.82</v>
       </c>
       <c r="F29" t="n">
-        <v>2.59100045713935</v>
+        <v>2.78222737076019</v>
       </c>
       <c r="G29" t="n">
-        <v>9.04957533496211</v>
+        <v>8.5025</v>
       </c>
       <c r="H29" t="n">
-        <v>449.012086248905</v>
+        <v>469.051525</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>528.803455131943</v>
+        <v>0.133247118235038</v>
       </c>
       <c r="K29" t="n">
-        <v>0.177704278630055</v>
+        <v>403.992823302102</v>
+      </c>
+      <c r="L29" t="n">
+        <v>433.989696086981</v>
+      </c>
+      <c r="M29" t="n">
+        <v>452.852366822834</v>
+      </c>
+      <c r="N29" t="n">
+        <v>406.55176099</v>
       </c>
     </row>
     <row r="30">
@@ -1399,31 +1669,40 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>120.195686869361</v>
+        <v>109.68</v>
       </c>
       <c r="D30" t="n">
-        <v>1.32915260317857</v>
+        <v>1.37171596763391</v>
       </c>
       <c r="E30" t="n">
-        <v>67.6778091547936</v>
+        <v>73.69</v>
       </c>
       <c r="F30" t="n">
-        <v>2.6769915984286</v>
+        <v>2.82945772942879</v>
       </c>
       <c r="G30" t="n">
-        <v>7.98490409018341</v>
+        <v>7.914</v>
       </c>
       <c r="H30" t="n">
-        <v>398.094709841987</v>
+        <v>402.2864</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>396.921791020414</v>
+        <v>0.0250673245727422</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0029463310930179</v>
+        <v>385.887877305231</v>
+      </c>
+      <c r="L30" t="n">
+        <v>422.54000880632</v>
+      </c>
+      <c r="M30" t="n">
+        <v>397.316647919078</v>
+      </c>
+      <c r="N30" t="n">
+        <v>392.20215624</v>
       </c>
     </row>
     <row r="31">
@@ -1434,31 +1713,40 @@
         <v>6</v>
       </c>
       <c r="C31" t="n">
-        <v>106.130183344508</v>
+        <v>111.87</v>
       </c>
       <c r="D31" t="n">
-        <v>1.30845874203917</v>
+        <v>1.3603501180353</v>
       </c>
       <c r="E31" t="n">
-        <v>69.5623162000198</v>
+        <v>71.48</v>
       </c>
       <c r="F31" t="n">
-        <v>2.89467348003955</v>
+        <v>2.87668808809739</v>
       </c>
       <c r="G31" t="n">
-        <v>7.40745188685541</v>
+        <v>7.0625</v>
       </c>
       <c r="H31" t="n">
-        <v>335.173310126367</v>
+        <v>371.900175</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>373.553857772931</v>
+        <v>0.00801668116988652</v>
       </c>
       <c r="K31" t="n">
-        <v>0.114509558150956</v>
+        <v>358.524268070312</v>
+      </c>
+      <c r="L31" t="n">
+        <v>408.560372884546</v>
+      </c>
+      <c r="M31" t="n">
+        <v>368.270972064444</v>
+      </c>
+      <c r="N31" t="n">
+        <v>368.91876987</v>
       </c>
     </row>
     <row r="32">
@@ -1469,31 +1757,40 @@
         <v>7</v>
       </c>
       <c r="C32" t="n">
-        <v>107.968795742235</v>
+        <v>106.98</v>
       </c>
       <c r="D32" t="n">
-        <v>1.40446453981644</v>
+        <v>1.35586095956524</v>
       </c>
       <c r="E32" t="n">
-        <v>66.0739673298667</v>
+        <v>68.75</v>
       </c>
       <c r="F32" t="n">
-        <v>2.80483450006397</v>
+        <v>2.93572125913781</v>
       </c>
       <c r="G32" t="n">
-        <v>6.38824295206564</v>
+        <v>6.594</v>
       </c>
       <c r="H32" t="n">
-        <v>367.219216555255</v>
+        <v>365.4538375</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>344.666046677695</v>
+        <v>0.0385865756848155</v>
       </c>
       <c r="K32" t="n">
-        <v>0.061416093877448</v>
+        <v>340.481365555983</v>
+      </c>
+      <c r="L32" t="n">
+        <v>393.354160398142</v>
+      </c>
+      <c r="M32" t="n">
+        <v>359.058303726963</v>
+      </c>
+      <c r="N32" t="n">
+        <v>351.35222534</v>
       </c>
     </row>
     <row r="33">
@@ -1504,31 +1801,40 @@
         <v>8</v>
       </c>
       <c r="C33" t="n">
-        <v>96.2223967651725</v>
+        <v>101.92</v>
       </c>
       <c r="D33" t="n">
-        <v>1.25320596347076</v>
+        <v>1.33248659575698</v>
       </c>
       <c r="E33" t="n">
-        <v>70.8030936834086</v>
+        <v>68.94</v>
       </c>
       <c r="F33" t="n">
-        <v>2.83817070467087</v>
+        <v>2.99475443017823</v>
       </c>
       <c r="G33" t="n">
-        <v>7.48802334453037</v>
+        <v>7.0125</v>
       </c>
       <c r="H33" t="n">
-        <v>347.788392437664</v>
+        <v>375.93203</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>370.351440280027</v>
+        <v>0.0430558603373061</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0648757932495045</v>
+        <v>352.574017844779</v>
+      </c>
+      <c r="L33" t="n">
+        <v>382.747043617776</v>
+      </c>
+      <c r="M33" t="n">
+        <v>368.885876587974</v>
+      </c>
+      <c r="N33" t="n">
+        <v>359.74595302</v>
       </c>
     </row>
     <row r="34">
@@ -1539,31 +1845,40 @@
         <v>9</v>
       </c>
       <c r="C34" t="n">
-        <v>90.2452426451016</v>
+        <v>97.34</v>
       </c>
       <c r="D34" t="n">
-        <v>1.27229757145856</v>
+        <v>1.29240465259052</v>
       </c>
       <c r="E34" t="n">
-        <v>72.3445792614687</v>
+        <v>65.94</v>
       </c>
       <c r="F34" t="n">
-        <v>3.2800294799695</v>
+        <v>3.05378760121864</v>
       </c>
       <c r="G34" t="n">
-        <v>8.6509841539585</v>
+        <v>8.205</v>
       </c>
       <c r="H34" t="n">
-        <v>396.492279550554</v>
+        <v>406.48823125</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>399.359136658799</v>
+        <v>0.0465233097938552</v>
       </c>
       <c r="K34" t="n">
-        <v>0.00723054963767544</v>
+        <v>389.867896348568</v>
+      </c>
+      <c r="L34" t="n">
+        <v>378.590543288056</v>
+      </c>
+      <c r="M34" t="n">
+        <v>397.479195848267</v>
+      </c>
+      <c r="N34" t="n">
+        <v>387.57705334</v>
       </c>
     </row>
     <row r="35">
@@ -1574,31 +1889,40 @@
         <v>10</v>
       </c>
       <c r="C35" t="n">
-        <v>93.5124215825088</v>
+        <v>87.27</v>
       </c>
       <c r="D35" t="n">
-        <v>1.14561351694903</v>
+        <v>1.26853045960041</v>
       </c>
       <c r="E35" t="n">
-        <v>63.6024343082551</v>
+        <v>63.71</v>
       </c>
       <c r="F35" t="n">
-        <v>2.87344186272498</v>
+        <v>3.06789932798895</v>
       </c>
       <c r="G35" t="n">
-        <v>8.70218992535956</v>
+        <v>8.5</v>
       </c>
       <c r="H35" t="n">
-        <v>373.047890557975</v>
+        <v>411.50738</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>397.300308258569</v>
+        <v>0.0572496984865739</v>
       </c>
       <c r="K35" t="n">
-        <v>0.065011539575573</v>
+        <v>395.099321610278</v>
+      </c>
+      <c r="L35" t="n">
+        <v>374.555905386433</v>
+      </c>
+      <c r="M35" t="n">
+        <v>400.744767559433</v>
+      </c>
+      <c r="N35" t="n">
+        <v>387.94870657</v>
       </c>
     </row>
     <row r="36">
@@ -1609,31 +1933,40 @@
         <v>11</v>
       </c>
       <c r="C36" t="n">
-        <v>76.0557472702004</v>
+        <v>78.44</v>
       </c>
       <c r="D36" t="n">
-        <v>1.35917052099265</v>
+        <v>1.24813654669757</v>
       </c>
       <c r="E36" t="n">
-        <v>58.8726557369228</v>
+        <v>62.55</v>
       </c>
       <c r="F36" t="n">
-        <v>3.26804474644017</v>
+        <v>3.08201105475925</v>
       </c>
       <c r="G36" t="n">
-        <v>7.84983649956528</v>
+        <v>8.425</v>
       </c>
       <c r="H36" t="n">
-        <v>394.586367329821</v>
+        <v>387.9138375</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>360.147567125084</v>
+        <v>0.0212783996394559</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0872782312216847</v>
+        <v>388.878601407687</v>
+      </c>
+      <c r="L36" t="n">
+        <v>369.311644506379</v>
+      </c>
+      <c r="M36" t="n">
+        <v>379.939307367785</v>
+      </c>
+      <c r="N36" t="n">
+        <v>379.65965184</v>
       </c>
     </row>
     <row r="37">
@@ -1644,31 +1977,40 @@
         <v>12</v>
       </c>
       <c r="C37" t="n">
-        <v>60.7702781271567</v>
+        <v>62.33</v>
       </c>
       <c r="D37" t="n">
-        <v>1.25009331968815</v>
+        <v>1.23279999081493</v>
       </c>
       <c r="E37" t="n">
-        <v>67.3586185220592</v>
+        <v>62.44</v>
       </c>
       <c r="F37" t="n">
-        <v>3.21027131943203</v>
+        <v>3.09612278152956</v>
       </c>
       <c r="G37" t="n">
-        <v>7.7017351335485</v>
+        <v>8.3625</v>
       </c>
       <c r="H37" t="n">
-        <v>369.930036949854</v>
+        <v>375.1706875</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>351.897651093724</v>
+        <v>0.0195696391392517</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0487453952234058</v>
+        <v>380.049402788686</v>
+      </c>
+      <c r="L37" t="n">
+        <v>362.574206839266</v>
+      </c>
+      <c r="M37" t="n">
+        <v>367.235701829456</v>
+      </c>
+      <c r="N37" t="n">
+        <v>367.82873253</v>
       </c>
     </row>
     <row r="38">
@@ -1679,31 +2021,40 @@
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>50.1761184792262</v>
+        <v>48.07</v>
       </c>
       <c r="D38" t="n">
-        <v>1.20672947142261</v>
+        <v>1.15716241302786</v>
       </c>
       <c r="E38" t="n">
-        <v>57.8891421150835</v>
+        <v>62.1</v>
       </c>
       <c r="F38" t="n">
-        <v>3.05224299236885</v>
+        <v>3.20483027333727</v>
       </c>
       <c r="G38" t="n">
-        <v>6.33948375178012</v>
+        <v>6.8075</v>
       </c>
       <c r="H38" t="n">
-        <v>294.525276055759</v>
+        <v>320.0692625</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>302.118743599946</v>
+        <v>0.0119737815498605</v>
       </c>
       <c r="K38" t="n">
-        <v>0.025782057302103</v>
+        <v>323.387796734259</v>
+      </c>
+      <c r="L38" t="n">
+        <v>347.231372313176</v>
+      </c>
+      <c r="M38" t="n">
+        <v>313.414145624192</v>
+      </c>
+      <c r="N38" t="n">
+        <v>316.23682307</v>
       </c>
     </row>
     <row r="39">
@@ -1714,31 +2065,40 @@
         <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>58.9301653079996</v>
+        <v>57.93</v>
       </c>
       <c r="D39" t="n">
-        <v>1.15603506353802</v>
+        <v>1.13603677322678</v>
       </c>
       <c r="E39" t="n">
-        <v>63.0466661153827</v>
+        <v>61.4</v>
       </c>
       <c r="F39" t="n">
-        <v>3.20354214531507</v>
+        <v>3.31353776514498</v>
       </c>
       <c r="G39" t="n">
-        <v>7.52357755467272</v>
+        <v>7.2775</v>
       </c>
       <c r="H39" t="n">
-        <v>300.37385841296</v>
+        <v>332.076975</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>343.171259906857</v>
+        <v>0.00816844748119006</v>
       </c>
       <c r="K39" t="n">
-        <v>0.142480446600843</v>
+        <v>343.559469433644</v>
+      </c>
+      <c r="L39" t="n">
+        <v>338.468979257864</v>
+      </c>
+      <c r="M39" t="n">
+        <v>326.412036301202</v>
+      </c>
+      <c r="N39" t="n">
+        <v>334.78952833</v>
       </c>
     </row>
     <row r="40">
@@ -1749,31 +2109,40 @@
         <v>3</v>
       </c>
       <c r="C40" t="n">
-        <v>53.4566583761936</v>
+        <v>55.79</v>
       </c>
       <c r="D40" t="n">
-        <v>1.00128915828963</v>
+        <v>1.08116510558968</v>
       </c>
       <c r="E40" t="n">
-        <v>63.0520380038039</v>
+        <v>60.115</v>
       </c>
       <c r="F40" t="n">
-        <v>3.11885314889673</v>
+        <v>3.42224525695269</v>
       </c>
       <c r="G40" t="n">
-        <v>6.91350911979843</v>
+        <v>6.9075</v>
       </c>
       <c r="H40" t="n">
-        <v>351.094025308229</v>
+        <v>335.977275</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>323.093175798819</v>
+        <v>0.0399987755421851</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0797531358866844</v>
+        <v>330.939424998388</v>
+      </c>
+      <c r="L40" t="n">
+        <v>328.822915838192</v>
+      </c>
+      <c r="M40" t="n">
+        <v>326.840498756134</v>
+      </c>
+      <c r="N40" t="n">
+        <v>322.53859539</v>
       </c>
     </row>
     <row r="41">
@@ -1784,31 +2153,40 @@
         <v>4</v>
       </c>
       <c r="C41" t="n">
-        <v>60.2410947331805</v>
+        <v>59.39</v>
       </c>
       <c r="D41" t="n">
-        <v>1.07033990666561</v>
+        <v>1.0775772178982</v>
       </c>
       <c r="E41" t="n">
-        <v>52.1118641924419</v>
+        <v>57.8142857142857</v>
       </c>
       <c r="F41" t="n">
-        <v>3.28511710830109</v>
+        <v>3.4125454996046</v>
       </c>
       <c r="G41" t="n">
-        <v>6.30110770662641</v>
+        <v>6.79</v>
       </c>
       <c r="H41" t="n">
-        <v>362.658404726578</v>
+        <v>343.3527375</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>303.719557092423</v>
+        <v>0.067638066594083</v>
       </c>
       <c r="K41" t="n">
-        <v>0.162518907230597</v>
+        <v>328.368324933841</v>
+      </c>
+      <c r="L41" t="n">
+        <v>320.159223171843</v>
+      </c>
+      <c r="M41" t="n">
+        <v>331.719249435281</v>
+      </c>
+      <c r="N41" t="n">
+        <v>320.129022175714</v>
       </c>
     </row>
     <row r="42">
@@ -1819,31 +2197,40 @@
         <v>5</v>
       </c>
       <c r="C42" t="n">
-        <v>67.1737257209569</v>
+        <v>64.56</v>
       </c>
       <c r="D42" t="n">
-        <v>1.0869088753992</v>
+        <v>1.11585237283569</v>
       </c>
       <c r="E42" t="n">
-        <v>61.6926914008747</v>
+        <v>60.3973684210526</v>
       </c>
       <c r="F42" t="n">
-        <v>3.08975257702715</v>
+        <v>3.4028457422565</v>
       </c>
       <c r="G42" t="n">
-        <v>6.14805870410567</v>
+        <v>6.695</v>
       </c>
       <c r="H42" t="n">
-        <v>321.384779926098</v>
+        <v>356.2384025</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>309.88945293279</v>
+        <v>0.0950310941605431</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0357681125906201</v>
+        <v>327.929800645496</v>
+      </c>
+      <c r="L42" t="n">
+        <v>314.4465468709</v>
+      </c>
+      <c r="M42" t="n">
+        <v>343.151390626351</v>
+      </c>
+      <c r="N42" t="n">
+        <v>322.384677328421</v>
       </c>
     </row>
     <row r="43">
@@ -1854,31 +2241,40 @@
         <v>6</v>
       </c>
       <c r="C43" t="n">
-        <v>59.1972867734833</v>
+        <v>62.34</v>
       </c>
       <c r="D43" t="n">
-        <v>1.12888130534415</v>
+        <v>1.12218492742573</v>
       </c>
       <c r="E43" t="n">
-        <v>52.9976652765424</v>
+        <v>58.8409090909091</v>
       </c>
       <c r="F43" t="n">
-        <v>3.2391550396</v>
+        <v>3.39314598490841</v>
       </c>
       <c r="G43" t="n">
-        <v>7.07412545087305</v>
+        <v>6.655</v>
       </c>
       <c r="H43" t="n">
-        <v>371.834428377458</v>
+        <v>347.42600625</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>324.741772596372</v>
+        <v>0.0820266295479714</v>
       </c>
       <c r="K43" t="n">
-        <v>0.126649530508997</v>
+        <v>325.411920126019</v>
+      </c>
+      <c r="L43" t="n">
+        <v>308.79550163989</v>
+      </c>
+      <c r="M43" t="n">
+        <v>335.034186878297</v>
+      </c>
+      <c r="N43" t="n">
+        <v>318.92782194</v>
       </c>
     </row>
     <row r="44">
@@ -1889,31 +2285,40 @@
         <v>7</v>
       </c>
       <c r="C44" t="n">
-        <v>53.5491868939116</v>
+        <v>55.87</v>
       </c>
       <c r="D44" t="n">
-        <v>1.02646430842088</v>
+        <v>1.10162166009412</v>
       </c>
       <c r="E44" t="n">
-        <v>60.4890209086563</v>
+        <v>59.1304347826087</v>
       </c>
       <c r="F44" t="n">
-        <v>3.31943245090617</v>
+        <v>3.31252350373562</v>
       </c>
       <c r="G44" t="n">
-        <v>6.21351379060158</v>
+        <v>6.698</v>
       </c>
       <c r="H44" t="n">
-        <v>341.70630112349</v>
+        <v>323.31087</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>302.417460829246</v>
+        <v>0.021850062560801</v>
       </c>
       <c r="K44" t="n">
-        <v>0.114978389819172</v>
+        <v>324.500253417169</v>
+      </c>
+      <c r="L44" t="n">
+        <v>303.728813053792</v>
+      </c>
+      <c r="M44" t="n">
+        <v>315.277340170777</v>
+      </c>
+      <c r="N44" t="n">
+        <v>316.246507263913</v>
       </c>
     </row>
     <row r="45">
@@ -1924,31 +2329,40 @@
         <v>8</v>
       </c>
       <c r="C45" t="n">
-        <v>51.5608173541026</v>
+        <v>46.99</v>
       </c>
       <c r="D45" t="n">
-        <v>1.16522944228874</v>
+        <v>1.11267142857143</v>
       </c>
       <c r="E45" t="n">
-        <v>55.8717450698548</v>
+        <v>58.5725</v>
       </c>
       <c r="F45" t="n">
-        <v>3.16460215820541</v>
+        <v>3.23190102256283</v>
       </c>
       <c r="G45" t="n">
-        <v>6.93368893303443</v>
+        <v>6.455</v>
       </c>
       <c r="H45" t="n">
-        <v>307.540316692786</v>
+        <v>308.22225</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>317.946536378854</v>
+        <v>0.0146217374313501</v>
       </c>
       <c r="K45" t="n">
-        <v>0.033836928432583</v>
+        <v>312.511898546172</v>
+      </c>
+      <c r="L45" t="n">
+        <v>297.032818325366</v>
+      </c>
+      <c r="M45" t="n">
+        <v>300.607827731559</v>
+      </c>
+      <c r="N45" t="n">
+        <v>303.71550519</v>
       </c>
     </row>
     <row r="46">
@@ -1959,31 +2373,40 @@
         <v>9</v>
       </c>
       <c r="C46" t="n">
-        <v>45.3546631662808</v>
+        <v>47.24</v>
       </c>
       <c r="D46" t="n">
-        <v>1.19963797540496</v>
+        <v>1.12366363636364</v>
       </c>
       <c r="E46" t="n">
-        <v>58.1168260125773</v>
+        <v>54.7454545454545</v>
       </c>
       <c r="F46" t="n">
-        <v>3.4232642995638</v>
+        <v>3.15127854139004</v>
       </c>
       <c r="G46" t="n">
-        <v>6.26872433199082</v>
+        <v>6.3</v>
       </c>
       <c r="H46" t="n">
-        <v>299.536942046434</v>
+        <v>285.14254375</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>297.319826777872</v>
+        <v>0.0423946694555641</v>
       </c>
       <c r="K46" t="n">
-        <v>0.00740180911714916</v>
+        <v>306.676056606673</v>
+      </c>
+      <c r="L46" t="n">
+        <v>289.498912701191</v>
+      </c>
+      <c r="M46" t="n">
+        <v>280.03892833304</v>
+      </c>
+      <c r="N46" t="n">
+        <v>297.23106764</v>
       </c>
     </row>
     <row r="47">
@@ -1994,31 +2417,40 @@
         <v>10</v>
       </c>
       <c r="C47" t="n">
-        <v>48.3514836018495</v>
+        <v>48.12</v>
       </c>
       <c r="D47" t="n">
-        <v>1.04147464352519</v>
+        <v>1.1234347826087</v>
       </c>
       <c r="E47" t="n">
-        <v>55.5612019503377</v>
+        <v>52.3136363636364</v>
       </c>
       <c r="F47" t="n">
-        <v>3.30039091359426</v>
+        <v>3.10259243930964</v>
       </c>
       <c r="G47" t="n">
-        <v>5.90464670622796</v>
+        <v>6.052</v>
       </c>
       <c r="H47" t="n">
-        <v>280.789497195933</v>
+        <v>271.17467</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>287.637705309767</v>
+        <v>0.0674912218018002</v>
       </c>
       <c r="K47" t="n">
-        <v>0.0243891177633873</v>
+        <v>298.506743702141</v>
+      </c>
+      <c r="L47" t="n">
+        <v>281.43580819418</v>
+      </c>
+      <c r="M47" t="n">
+        <v>266.856914398108</v>
+      </c>
+      <c r="N47" t="n">
+        <v>289.4765798</v>
       </c>
     </row>
     <row r="48">
@@ -2029,31 +2461,40 @@
         <v>11</v>
       </c>
       <c r="C48" t="n">
-        <v>42.7916662903009</v>
+        <v>44.42</v>
       </c>
       <c r="D48" t="n">
-        <v>1.05615479262235</v>
+        <v>1.076025</v>
       </c>
       <c r="E48" t="n">
-        <v>52.5558147039797</v>
+        <v>52.5714285714286</v>
       </c>
       <c r="F48" t="n">
-        <v>2.94467848861614</v>
+        <v>3.05390633722925</v>
       </c>
       <c r="G48" t="n">
-        <v>5.89102142975549</v>
+        <v>5.525</v>
       </c>
       <c r="H48" t="n">
-        <v>242.736392421372</v>
+        <v>243.513975</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>281.905889935154</v>
+        <v>0.120811538839081</v>
       </c>
       <c r="K48" t="n">
-        <v>0.161366398845489</v>
+        <v>280.278053045814</v>
+      </c>
+      <c r="L48" t="n">
+        <v>271.919780124286</v>
+      </c>
+      <c r="M48" t="n">
+        <v>241.748908252217</v>
+      </c>
+      <c r="N48" t="n">
+        <v>272.933273048571</v>
       </c>
     </row>
     <row r="49">
@@ -2064,31 +2505,40 @@
         <v>12</v>
       </c>
       <c r="C49" t="n">
-        <v>34.9504866494183</v>
+        <v>37.72</v>
       </c>
       <c r="D49" t="n">
-        <v>1.00523459342575</v>
+        <v>1.08697826086957</v>
       </c>
       <c r="E49" t="n">
-        <v>51.1777756731156</v>
+        <v>52.1275</v>
       </c>
       <c r="F49" t="n">
-        <v>2.98350080743639</v>
+        <v>3.00522023514886</v>
       </c>
       <c r="G49" t="n">
-        <v>5.46895584646845</v>
+        <v>5.25</v>
       </c>
       <c r="H49" t="n">
-        <v>218.089095952221</v>
+        <v>236.62155</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>264.616000812865</v>
+        <v>0.102859666923828</v>
       </c>
       <c r="K49" t="n">
-        <v>0.213338978079111</v>
+        <v>268.211656206139</v>
+      </c>
+      <c r="L49" t="n">
+        <v>261.861614894288</v>
+      </c>
+      <c r="M49" t="n">
+        <v>233.778099708263</v>
+      </c>
+      <c r="N49" t="n">
+        <v>260.96036382</v>
       </c>
     </row>
     <row r="50">
@@ -2099,31 +2549,40 @@
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>27.7948773665912</v>
+        <v>30.8</v>
       </c>
       <c r="D50" t="n">
-        <v>1.09086653230613</v>
+        <v>1.08774375</v>
       </c>
       <c r="E50" t="n">
-        <v>49.9917347310115</v>
+        <v>49.815625</v>
       </c>
       <c r="F50" t="n">
-        <v>2.96800728540912</v>
+        <v>2.91231896905698</v>
       </c>
       <c r="G50" t="n">
-        <v>4.09100423798244</v>
+        <v>4.415</v>
       </c>
       <c r="H50" t="n">
-        <v>209.88233986988</v>
+        <v>198.1587125</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>221.762536447595</v>
+        <v>0.172686291928749</v>
       </c>
       <c r="K50" t="n">
-        <v>0.0566040791477744</v>
+        <v>237.216934626237</v>
+      </c>
+      <c r="L50" t="n">
+        <v>247.796519556538</v>
+      </c>
+      <c r="M50" t="n">
+        <v>197.114051328394</v>
+      </c>
+      <c r="N50" t="n">
+        <v>232.378005775</v>
       </c>
     </row>
     <row r="51">
@@ -2134,31 +2593,40 @@
         <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>31.482672838252</v>
+        <v>33.2</v>
       </c>
       <c r="D51" t="n">
-        <v>1.03879688775974</v>
+        <v>1.11146315789474</v>
       </c>
       <c r="E51" t="n">
-        <v>52.0822784893925</v>
+        <v>50.7075</v>
       </c>
       <c r="F51" t="n">
-        <v>2.82395041691959</v>
+        <v>2.8194177029651</v>
       </c>
       <c r="G51" t="n">
-        <v>4.1894139706234</v>
+        <v>4.0175</v>
       </c>
       <c r="H51" t="n">
-        <v>158.723163971371</v>
+        <v>164.7498</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>228.066862745617</v>
+        <v>0.357076273233716</v>
       </c>
       <c r="K51" t="n">
-        <v>0.436884554460833</v>
+        <v>225.290224055046</v>
+      </c>
+      <c r="L51" t="n">
+        <v>235.239176971568</v>
+      </c>
+      <c r="M51" t="n">
+        <v>169.166634478541</v>
+      </c>
+      <c r="N51" t="n">
+        <v>223.5780446</v>
       </c>
     </row>
     <row r="52">
@@ -2169,31 +2637,40 @@
         <v>3</v>
       </c>
       <c r="C52" t="n">
-        <v>35.891105809838</v>
+        <v>39.07</v>
       </c>
       <c r="D52" t="n">
-        <v>1.16948578939472</v>
+        <v>1.11022380952381</v>
       </c>
       <c r="E52" t="n">
-        <v>51.4514453602261</v>
+        <v>52.19</v>
       </c>
       <c r="F52" t="n">
-        <v>2.47086503282294</v>
+        <v>2.72651643687323</v>
       </c>
       <c r="G52" t="n">
-        <v>3.61745992614627</v>
+        <v>3.904</v>
       </c>
       <c r="H52" t="n">
-        <v>168.733017748838</v>
+        <v>181.8716625</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>214.7973657157</v>
+        <v>0.237538619464701</v>
       </c>
       <c r="K52" t="n">
-        <v>0.273001387525879</v>
+        <v>224.694717508937</v>
+      </c>
+      <c r="L52" t="n">
+        <v>226.01446353517</v>
+      </c>
+      <c r="M52" t="n">
+        <v>183.554901176787</v>
+      </c>
+      <c r="N52" t="n">
+        <v>225.07320613</v>
       </c>
     </row>
     <row r="53">
@@ -2204,31 +2681,40 @@
         <v>4</v>
       </c>
       <c r="C53" t="n">
-        <v>42.3872372215148</v>
+        <v>42.25</v>
       </c>
       <c r="D53" t="n">
-        <v>1.11506156515128</v>
+        <v>1.13380909090909</v>
       </c>
       <c r="E53" t="n">
-        <v>49.3460971960123</v>
+        <v>50.91</v>
       </c>
       <c r="F53" t="n">
-        <v>2.842016832005</v>
+        <v>2.82657984635832</v>
       </c>
       <c r="G53" t="n">
-        <v>3.75308359955647</v>
+        <v>3.9425</v>
       </c>
       <c r="H53" t="n">
-        <v>207.051576478658</v>
+        <v>199.705155</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>221.232778511669</v>
+        <v>0.13820186589575</v>
       </c>
       <c r="K53" t="n">
-        <v>0.0684911570063473</v>
+        <v>226.992919232127</v>
+      </c>
+      <c r="L53" t="n">
+        <v>218.809991420133</v>
+      </c>
+      <c r="M53" t="n">
+        <v>197.878124208103</v>
+      </c>
+      <c r="N53" t="n">
+        <v>227.30478005</v>
       </c>
     </row>
     <row r="54">
@@ -2239,31 +2725,40 @@
         <v>5</v>
       </c>
       <c r="C54" t="n">
-        <v>51.2366841626465</v>
+        <v>47.13</v>
       </c>
       <c r="D54" t="n">
-        <v>1.20511587838196</v>
+        <v>1.12945</v>
       </c>
       <c r="E54" t="n">
-        <v>55.2201928159632</v>
+        <v>51.48</v>
       </c>
       <c r="F54" t="n">
-        <v>2.75352200605064</v>
+        <v>2.92664325584342</v>
       </c>
       <c r="G54" t="n">
-        <v>4.42846579699032</v>
+        <v>4.28</v>
       </c>
       <c r="H54" t="n">
-        <v>224.752264495298</v>
+        <v>227.51163125</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>248.898789632574</v>
+        <v>0.0545764280787733</v>
       </c>
       <c r="K54" t="n">
-        <v>0.107436181751048</v>
+        <v>240.684655651832</v>
+      </c>
+      <c r="L54" t="n">
+        <v>215.653883442158</v>
+      </c>
+      <c r="M54" t="n">
+        <v>222.576968108135</v>
+      </c>
+      <c r="N54" t="n">
+        <v>239.92840343</v>
       </c>
     </row>
     <row r="55">
@@ -2274,31 +2769,40 @@
         <v>6</v>
       </c>
       <c r="C55" t="n">
-        <v>51.1862718372121</v>
+        <v>48.48</v>
       </c>
       <c r="D55" t="n">
-        <v>1.13711387631491</v>
+        <v>1.12375238095238</v>
       </c>
       <c r="E55" t="n">
-        <v>57.1602416382115</v>
+        <v>53.17</v>
       </c>
       <c r="F55" t="n">
-        <v>2.72521868226104</v>
+        <v>3.02670666532852</v>
       </c>
       <c r="G55" t="n">
-        <v>4.87510820174711</v>
+        <v>4.706</v>
       </c>
       <c r="H55" t="n">
-        <v>208.542452220878</v>
+        <v>228.0944125</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>262.28818960813</v>
+        <v>0.111253446070276</v>
       </c>
       <c r="K55" t="n">
-        <v>0.257720846834233</v>
+        <v>256.030186655775</v>
+      </c>
+      <c r="L55" t="n">
+        <v>216.108633429785</v>
+      </c>
+      <c r="M55" t="n">
+        <v>226.006404096697</v>
+      </c>
+      <c r="N55" t="n">
+        <v>253.47070192</v>
       </c>
     </row>
     <row r="56">
@@ -2309,31 +2813,40 @@
         <v>7</v>
       </c>
       <c r="C56" t="n">
-        <v>46.424867977235</v>
+        <v>45.07</v>
       </c>
       <c r="D56" t="n">
-        <v>1.19115695076605</v>
+        <v>1.1066</v>
       </c>
       <c r="E56" t="n">
-        <v>66.4375399116627</v>
+        <v>62.29</v>
       </c>
       <c r="F56" t="n">
-        <v>2.66462598305366</v>
+        <v>2.93841155121377</v>
       </c>
       <c r="G56" t="n">
-        <v>4.23821874457318</v>
+        <v>4.665</v>
       </c>
       <c r="H56" t="n">
-        <v>203.279365082228</v>
+        <v>220.50038</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>247.751676991001</v>
+        <v>0.160799667420074</v>
       </c>
       <c r="K56" t="n">
-        <v>0.218774354646297</v>
+        <v>255.756666345269</v>
+      </c>
+      <c r="L56" t="n">
+        <v>219.21302921969</v>
+      </c>
+      <c r="M56" t="n">
+        <v>222.707133061825</v>
+      </c>
+      <c r="N56" t="n">
+        <v>255.95676777</v>
       </c>
     </row>
     <row r="57">
@@ -2344,31 +2857,40 @@
         <v>8</v>
       </c>
       <c r="C57" t="n">
-        <v>44.6048139182953</v>
+        <v>46.14</v>
       </c>
       <c r="D57" t="n">
-        <v>1.09641842582332</v>
+        <v>1.12108181818182</v>
       </c>
       <c r="E57" t="n">
-        <v>60.9065308803709</v>
+        <v>67.3739130434783</v>
       </c>
       <c r="F57" t="n">
-        <v>2.61237176114273</v>
+        <v>2.85011643709902</v>
       </c>
       <c r="G57" t="n">
-        <v>4.54845016826643</v>
+        <v>4.165</v>
       </c>
       <c r="H57" t="n">
-        <v>228.037195738149</v>
+        <v>218.345125</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>251.612750250278</v>
+        <v>0.127400979093156</v>
       </c>
       <c r="K57" t="n">
-        <v>0.103384688782088</v>
+        <v>240.972438400394</v>
+      </c>
+      <c r="L57" t="n">
+        <v>221.190421330319</v>
+      </c>
+      <c r="M57" t="n">
+        <v>220.499910750953</v>
+      </c>
+      <c r="N57" t="n">
+        <v>246.162507705217</v>
       </c>
     </row>
     <row r="58">
@@ -2379,31 +2901,40 @@
         <v>9</v>
       </c>
       <c r="C58" t="n">
-        <v>46.0046477265973</v>
+        <v>46.19</v>
       </c>
       <c r="D58" t="n">
-        <v>1.13034598821604</v>
+        <v>1.12092272727273</v>
       </c>
       <c r="E58" t="n">
-        <v>66.5433226484573</v>
+        <v>72.9</v>
       </c>
       <c r="F58" t="n">
-        <v>2.608855834177</v>
+        <v>2.76182132298427</v>
       </c>
       <c r="G58" t="n">
-        <v>4.2053621001821</v>
+        <v>4.11</v>
       </c>
       <c r="H58" t="n">
-        <v>233.045110933384</v>
+        <v>234.95507</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>246.658372023317</v>
+        <v>0.0562268245158533</v>
       </c>
       <c r="K58" t="n">
-        <v>0.0584147036400358</v>
+        <v>240.699476447214</v>
+      </c>
+      <c r="L58" t="n">
+        <v>224.556246842377</v>
+      </c>
+      <c r="M58" t="n">
+        <v>235.507496199191</v>
+      </c>
+      <c r="N58" t="n">
+        <v>248.16584749</v>
       </c>
     </row>
     <row r="59">
@@ -2414,31 +2945,40 @@
         <v>10</v>
       </c>
       <c r="C59" t="n">
-        <v>52.0294817635044</v>
+        <v>49.73</v>
       </c>
       <c r="D59" t="n">
-        <v>0.995798048048381</v>
+        <v>1.10388571428571</v>
       </c>
       <c r="E59" t="n">
-        <v>93.81398149624</v>
+        <v>93.17</v>
       </c>
       <c r="F59" t="n">
-        <v>2.6010676470985</v>
+        <v>2.84000203845094</v>
       </c>
       <c r="G59" t="n">
-        <v>5.57974305899325</v>
+        <v>5.2525</v>
       </c>
       <c r="H59" t="n">
-        <v>258.294879486284</v>
+        <v>235.83091875</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>305.109531179331</v>
+        <v>0.248055657375503</v>
       </c>
       <c r="K59" t="n">
-        <v>0.181244985522576</v>
+        <v>285.247438251147</v>
+      </c>
+      <c r="L59" t="n">
+        <v>241.123287524751</v>
+      </c>
+      <c r="M59" t="n">
+        <v>250.093494246859</v>
+      </c>
+      <c r="N59" t="n">
+        <v>294.33011233</v>
       </c>
     </row>
     <row r="60">
@@ -2449,31 +2989,40 @@
         <v>11</v>
       </c>
       <c r="C60" t="n">
-        <v>43.9726989548374</v>
+        <v>46.44</v>
       </c>
       <c r="D60" t="n">
-        <v>1.08171172611141</v>
+        <v>1.08137619047619</v>
       </c>
       <c r="E60" t="n">
-        <v>98.8286167717218</v>
+        <v>100.01</v>
       </c>
       <c r="F60" t="n">
-        <v>2.72110480394643</v>
+        <v>2.9181827539176</v>
       </c>
       <c r="G60" t="n">
-        <v>5.17060054513835</v>
+        <v>5.655</v>
       </c>
       <c r="H60" t="n">
-        <v>283.508077765638</v>
+        <v>268.24530625</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>292.057562234465</v>
+        <v>0.146609791387543</v>
       </c>
       <c r="K60" t="n">
-        <v>0.0301560524702047</v>
+        <v>299.187373451483</v>
+      </c>
+      <c r="L60" t="n">
+        <v>258.455718244085</v>
+      </c>
+      <c r="M60" t="n">
+        <v>280.034183324868</v>
+      </c>
+      <c r="N60" t="n">
+        <v>307.57269464</v>
       </c>
     </row>
     <row r="61">
@@ -2484,31 +3033,40 @@
         <v>12</v>
       </c>
       <c r="C61" t="n">
-        <v>58.6199245509873</v>
+        <v>54.07</v>
       </c>
       <c r="D61" t="n">
-        <v>1.0961773304037</v>
+        <v>1.05502608695652</v>
       </c>
       <c r="E61" t="n">
-        <v>92.5585444716029</v>
+        <v>86.32</v>
       </c>
       <c r="F61" t="n">
-        <v>2.96289815007277</v>
+        <v>2.99636346938427</v>
       </c>
       <c r="G61" t="n">
-        <v>5.80231812982704</v>
+        <v>5.3625</v>
       </c>
       <c r="H61" t="n">
-        <v>310.379694631009</v>
+        <v>316.81850625</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>314.513467062243</v>
+        <v>0.066542393717886</v>
       </c>
       <c r="K61" t="n">
-        <v>0.013318437071562</v>
+        <v>290.12803058834</v>
+      </c>
+      <c r="L61" t="n">
+        <v>266.630202820056</v>
+      </c>
+      <c r="M61" t="n">
+        <v>313.064039272931</v>
+      </c>
+      <c r="N61" t="n">
+        <v>295.73664447</v>
       </c>
     </row>
     <row r="62">
@@ -2519,31 +3077,40 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>50.7776338823382</v>
+        <v>54.89</v>
       </c>
       <c r="D62" t="n">
-        <v>1.0912906179784</v>
+        <v>1.06598125</v>
       </c>
       <c r="E62" t="n">
-        <v>86.0252461062265</v>
+        <v>83.73</v>
       </c>
       <c r="F62" t="n">
-        <v>2.75248853407125</v>
+        <v>3.01905396279001</v>
       </c>
       <c r="G62" t="n">
-        <v>5.92943654558156</v>
+        <v>6.1125</v>
       </c>
       <c r="H62" t="n">
-        <v>320.779373172467</v>
+        <v>351.2602375</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>308.983654782113</v>
+        <v>0.102921926681212</v>
       </c>
       <c r="K62" t="n">
-        <v>0.0367720601037886</v>
+        <v>314.726416816129</v>
+      </c>
+      <c r="L62" t="n">
+        <v>276.063610408331</v>
+      </c>
+      <c r="M62" t="n">
+        <v>343.395849326813</v>
+      </c>
+      <c r="N62" t="n">
+        <v>315.10785709</v>
       </c>
     </row>
     <row r="63">
@@ -2554,31 +3121,40 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>53.324006136253</v>
+        <v>55.49</v>
       </c>
       <c r="D63" t="n">
-        <v>1.08828196939185</v>
+        <v>1.06586111111111</v>
       </c>
       <c r="E63" t="n">
-        <v>74.4793666116898</v>
+        <v>80.41</v>
       </c>
       <c r="F63" t="n">
-        <v>3.12664137042295</v>
+        <v>3.04174445619575</v>
       </c>
       <c r="G63" t="n">
-        <v>6.76693639129819</v>
+        <v>6.2475</v>
       </c>
       <c r="H63" t="n">
-        <v>379.569851041436</v>
+        <v>412.69965</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>326.191470810296</v>
+        <v>0.231686608190727</v>
       </c>
       <c r="K63" t="n">
-        <v>0.140628609160303</v>
+        <v>318.871097867055</v>
+      </c>
+      <c r="L63" t="n">
+        <v>283.071284628594</v>
+      </c>
+      <c r="M63" t="n">
+        <v>391.779859515208</v>
+      </c>
+      <c r="N63" t="n">
+        <v>317.08266789</v>
       </c>
     </row>
     <row r="64">
@@ -2589,31 +3165,40 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>51.2663501171251</v>
+        <v>51.97</v>
       </c>
       <c r="D64" t="n">
-        <v>1.15525998692029</v>
+        <v>1.06896363636364</v>
       </c>
       <c r="E64" t="n">
-        <v>80.9091786169913</v>
+        <v>80.55</v>
       </c>
       <c r="F64" t="n">
-        <v>3.15773607809287</v>
+        <v>3.06443494960149</v>
       </c>
       <c r="G64" t="n">
-        <v>5.42805432211794</v>
+        <v>5.08</v>
       </c>
       <c r="H64" t="n">
-        <v>428.492133888839</v>
+        <v>401.897885</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>292.375510835502</v>
+        <v>0.295639622811152</v>
       </c>
       <c r="K64" t="n">
-        <v>0.317664228320815</v>
+        <v>278.977562826584</v>
+      </c>
+      <c r="L64" t="n">
+        <v>282.279854236746</v>
+      </c>
+      <c r="M64" t="n">
+        <v>376.819116525086</v>
+      </c>
+      <c r="N64" t="n">
+        <v>283.08094587</v>
       </c>
     </row>
     <row r="65">
@@ -2624,31 +3209,40 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>55.2409463340947</v>
+        <v>52.98</v>
       </c>
       <c r="D65" t="n">
-        <v>1.04378503874453</v>
+        <v>1.0713380952381</v>
       </c>
       <c r="E65" t="n">
-        <v>78.3374950324872</v>
+        <v>84.6421052631579</v>
       </c>
       <c r="F65" t="n">
-        <v>2.83204024283003</v>
+        <v>3.01574387630643</v>
       </c>
       <c r="G65" t="n">
-        <v>4.63993922928674</v>
+        <v>4.99</v>
       </c>
       <c r="H65" t="n">
-        <v>322.965616970571</v>
+        <v>327.4513125</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>271.709999145986</v>
+        <v>0.133227787916522</v>
       </c>
       <c r="K65" t="n">
-        <v>0.158703017074588</v>
+        <v>277.621598418856</v>
+      </c>
+      <c r="L65" t="n">
+        <v>282.854969461184</v>
+      </c>
+      <c r="M65" t="n">
+        <v>318.7936930075</v>
+      </c>
+      <c r="N65" t="n">
+        <v>283.825698485263</v>
       </c>
     </row>
     <row r="66">
@@ -2659,31 +3253,40 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>48.7216141597168</v>
+        <v>50.87</v>
       </c>
       <c r="D66" t="n">
-        <v>1.13393343468749</v>
+        <v>1.10552631578947</v>
       </c>
       <c r="E66" t="n">
-        <v>72.1666495964695</v>
+        <v>74.52</v>
       </c>
       <c r="F66" t="n">
-        <v>2.78596477703719</v>
+        <v>2.96705280301138</v>
       </c>
       <c r="G66" t="n">
-        <v>5.27011971288978</v>
+        <v>5.1925</v>
       </c>
       <c r="H66" t="n">
-        <v>322.85471277409</v>
+        <v>307.4268</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>280.976022960852</v>
+        <v>0.0837617589943362</v>
       </c>
       <c r="K66" t="n">
-        <v>0.129713732388789</v>
+        <v>280.773303107501</v>
+      </c>
+      <c r="L66" t="n">
+        <v>280.234284177985</v>
+      </c>
+      <c r="M66" t="n">
+        <v>299.783801920249</v>
+      </c>
+      <c r="N66" t="n">
+        <v>281.67619047</v>
       </c>
     </row>
     <row r="67">
@@ -2694,31 +3297,40 @@
         <v>6</v>
       </c>
       <c r="C67" t="n">
-        <v>46.838127799626</v>
+        <v>46.89</v>
       </c>
       <c r="D67" t="n">
-        <v>1.21003910679679</v>
+        <v>1.12217619047619</v>
       </c>
       <c r="E67" t="n">
-        <v>82.1718972276918</v>
+        <v>80.9522727272727</v>
       </c>
       <c r="F67" t="n">
-        <v>3.0549115879135</v>
+        <v>2.91836172971633</v>
       </c>
       <c r="G67" t="n">
-        <v>4.92672306221891</v>
+        <v>4.918</v>
       </c>
       <c r="H67" t="n">
-        <v>329.346716824666</v>
+        <v>300.83554</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>276.710769184205</v>
+        <v>0.0834261068024076</v>
       </c>
       <c r="K67" t="n">
-        <v>0.159819257188718</v>
+        <v>271.512662976207</v>
+      </c>
+      <c r="L67" t="n">
+        <v>278.621546416818</v>
+      </c>
+      <c r="M67" t="n">
+        <v>295.012047546525</v>
+      </c>
+      <c r="N67" t="n">
+        <v>275.73800211</v>
       </c>
     </row>
     <row r="68">
@@ -2729,31 +3341,40 @@
         <v>7</v>
       </c>
       <c r="C68" t="n">
-        <v>47.2564372066394</v>
+        <v>48.69</v>
       </c>
       <c r="D68" t="n">
-        <v>1.10686428075839</v>
+        <v>1.1496</v>
       </c>
       <c r="E68" t="n">
-        <v>84.7717190372283</v>
+        <v>87.5309523809524</v>
       </c>
       <c r="F68" t="n">
-        <v>3.26014706728554</v>
+        <v>3.06588456875344</v>
       </c>
       <c r="G68" t="n">
-        <v>5.26312846536154</v>
+        <v>4.9825</v>
       </c>
       <c r="H68" t="n">
-        <v>322.600799656586</v>
+        <v>298.4081</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>287.796171782433</v>
+        <v>0.0524393456174695</v>
       </c>
       <c r="K68" t="n">
-        <v>0.107887605707124</v>
+        <v>275.924872434025</v>
+      </c>
+      <c r="L68" t="n">
+        <v>280.372582390887</v>
+      </c>
+      <c r="M68" t="n">
+        <v>296.114900803902</v>
+      </c>
+      <c r="N68" t="n">
+        <v>282.759774509048</v>
       </c>
     </row>
     <row r="69">
@@ -2764,31 +3385,40 @@
         <v>8</v>
       </c>
       <c r="C69" t="n">
-        <v>47.008254436553</v>
+        <v>51.37</v>
       </c>
       <c r="D69" t="n">
-        <v>1.18587741027581</v>
+        <v>1.18050869565217</v>
       </c>
       <c r="E69" t="n">
-        <v>93.1835466277837</v>
+        <v>95.89</v>
       </c>
       <c r="F69" t="n">
-        <v>2.98745051723486</v>
+        <v>3.21340740779054</v>
       </c>
       <c r="G69" t="n">
-        <v>5.30977865133136</v>
+        <v>5.544</v>
       </c>
       <c r="H69" t="n">
-        <v>308.028606051936</v>
+        <v>305.06503125</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>294.204653227632</v>
+        <v>0.000125134696178142</v>
       </c>
       <c r="K69" t="n">
-        <v>0.0448787955167167</v>
+        <v>297.53695142606</v>
+      </c>
+      <c r="L69" t="n">
+        <v>288.111373204185</v>
+      </c>
+      <c r="M69" t="n">
+        <v>307.75685575324</v>
+      </c>
+      <c r="N69" t="n">
+        <v>305.02685703</v>
       </c>
     </row>
     <row r="70">
@@ -2799,31 +3429,40 @@
         <v>9</v>
       </c>
       <c r="C70" t="n">
-        <v>57.4255633399039</v>
+        <v>55.16</v>
       </c>
       <c r="D70" t="n">
-        <v>1.23690575274889</v>
+        <v>1.19133636363636</v>
       </c>
       <c r="E70" t="n">
-        <v>92.6540540891633</v>
+        <v>96.8690476190476</v>
       </c>
       <c r="F70" t="n">
-        <v>3.22117989792373</v>
+        <v>3.36093024682764</v>
       </c>
       <c r="G70" t="n">
-        <v>5.35801946328604</v>
+        <v>5.935</v>
       </c>
       <c r="H70" t="n">
-        <v>328.992959156169</v>
+        <v>318.439145</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>301.691092413989</v>
+        <v>0.000784198629073751</v>
       </c>
       <c r="K70" t="n">
-        <v>0.0829861733582574</v>
+        <v>312.478449168285</v>
+      </c>
+      <c r="L70" t="n">
+        <v>297.120343819498</v>
+      </c>
+      <c r="M70" t="n">
+        <v>321.24932809965</v>
+      </c>
+      <c r="N70" t="n">
+        <v>318.688864540952</v>
       </c>
     </row>
     <row r="71">
@@ -2834,31 +3473,40 @@
         <v>10</v>
       </c>
       <c r="C71" t="n">
-        <v>58.5945432061022</v>
+        <v>57.62</v>
       </c>
       <c r="D71" t="n">
-        <v>1.19516431314448</v>
+        <v>1.17605238095238</v>
       </c>
       <c r="E71" t="n">
-        <v>93.6486126083005</v>
+        <v>97.1409090909091</v>
       </c>
       <c r="F71" t="n">
-        <v>3.5074025980663</v>
+        <v>3.36131575384284</v>
       </c>
       <c r="G71" t="n">
-        <v>5.95346835363307</v>
+        <v>6.175</v>
       </c>
       <c r="H71" t="n">
-        <v>273.271991563444</v>
+        <v>296.457925</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>319.312024467098</v>
+        <v>0.10285886545283</v>
       </c>
       <c r="K71" t="n">
-        <v>0.168476954554508</v>
+        <v>321.973339056664</v>
+      </c>
+      <c r="L71" t="n">
+        <v>305.923719785139</v>
+      </c>
+      <c r="M71" t="n">
+        <v>305.39669480651</v>
+      </c>
+      <c r="N71" t="n">
+        <v>326.95125082</v>
       </c>
     </row>
     <row r="72">
@@ -2869,31 +3517,40 @@
         <v>11</v>
       </c>
       <c r="C72" t="n">
-        <v>60.4819708168539</v>
+        <v>62.57</v>
       </c>
       <c r="D72" t="n">
-        <v>1.18776461182112</v>
+        <v>1.17319047619048</v>
       </c>
       <c r="E72" t="n">
-        <v>104.52002361094</v>
+        <v>96.6272727272727</v>
       </c>
       <c r="F72" t="n">
-        <v>3.42369890587663</v>
+        <v>3.36170126085804</v>
       </c>
       <c r="G72" t="n">
-        <v>6.06955562412739</v>
+        <v>6.56</v>
       </c>
       <c r="H72" t="n">
-        <v>347.746700273023</v>
+        <v>326.98085</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>330.49668101173</v>
+        <v>0.0405342810442875</v>
       </c>
       <c r="K72" t="n">
-        <v>0.0496051270874744</v>
+        <v>337.028211770118</v>
+      </c>
+      <c r="L72" t="n">
+        <v>315.343799059014</v>
+      </c>
+      <c r="M72" t="n">
+        <v>332.096996997861</v>
+      </c>
+      <c r="N72" t="n">
+        <v>340.23478367</v>
       </c>
     </row>
     <row r="73">
@@ -2904,31 +3561,40 @@
         <v>12</v>
       </c>
       <c r="C73" t="n">
-        <v>64.3689077621843</v>
+        <v>64.21</v>
       </c>
       <c r="D73" t="n">
-        <v>1.29312124870263</v>
+        <v>1.18380909090909</v>
       </c>
       <c r="E73" t="n">
-        <v>100.876382954359</v>
+        <v>102.155</v>
       </c>
       <c r="F73" t="n">
-        <v>3.1860259840624</v>
+        <v>3.36208676787324</v>
       </c>
       <c r="G73" t="n">
-        <v>7.00903347667586</v>
+        <v>7.46333333333333</v>
       </c>
       <c r="H73" t="n">
-        <v>359.01313341012</v>
+        <v>367.56368125</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>356.295527589136</v>
+        <v>0.00502452179275692</v>
       </c>
       <c r="K73" t="n">
-        <v>0.0075696557258792</v>
+        <v>369.033829312493</v>
+      </c>
+      <c r="L73" t="n">
+        <v>329.709468681721</v>
+      </c>
+      <c r="M73" t="n">
+        <v>371.255966927199</v>
+      </c>
+      <c r="N73" t="n">
+        <v>369.410512976667</v>
       </c>
     </row>
     <row r="74">
@@ -2939,31 +3605,40 @@
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>72.5333802026096</v>
+        <v>68.99</v>
       </c>
       <c r="D74" t="n">
-        <v>1.18919136543819</v>
+        <v>1.22171875</v>
       </c>
       <c r="E74" t="n">
-        <v>112.740151621966</v>
+        <v>106.776086956522</v>
       </c>
       <c r="F74" t="n">
-        <v>3.19443602667359</v>
+        <v>3.35272444524883</v>
       </c>
       <c r="G74" t="n">
-        <v>7.24532767633849</v>
+        <v>6.7625</v>
       </c>
       <c r="H74" t="n">
-        <v>426.148754222649</v>
+        <v>431.8401</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>375.305433198639</v>
+        <v>0.175263052632716</v>
       </c>
       <c r="K74" t="n">
-        <v>0.119308857576634</v>
+        <v>348.92482066583</v>
+      </c>
+      <c r="L74" t="n">
+        <v>339.956680838056</v>
+      </c>
+      <c r="M74" t="n">
+        <v>421.21251506788</v>
+      </c>
+      <c r="N74" t="n">
+        <v>356.154485824783</v>
       </c>
     </row>
     <row r="75">
@@ -2974,31 +3649,40 @@
         <v>2</v>
       </c>
       <c r="C75" t="n">
-        <v>63.8556863333629</v>
+        <v>65.42</v>
       </c>
       <c r="D75" t="n">
-        <v>1.31797049288671</v>
+        <v>1.23760526315789</v>
       </c>
       <c r="E75" t="n">
-        <v>99.9372619650443</v>
+        <v>104.705</v>
       </c>
       <c r="F75" t="n">
-        <v>3.6733775011357</v>
+        <v>3.34336212262442</v>
       </c>
       <c r="G75" t="n">
-        <v>7.23967604961013</v>
+        <v>6.5925</v>
       </c>
       <c r="H75" t="n">
-        <v>424.554849501109</v>
+        <v>412.355775</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>361.685257255795</v>
+        <v>0.156116433388134</v>
       </c>
       <c r="K75" t="n">
-        <v>0.148083556975482</v>
+        <v>341.301017548558</v>
+      </c>
+      <c r="L75" t="n">
+        <v>345.966427316259</v>
+      </c>
+      <c r="M75" t="n">
+        <v>403.567645654752</v>
+      </c>
+      <c r="N75" t="n">
+        <v>347.98026212</v>
       </c>
     </row>
     <row r="76">
@@ -3009,31 +3693,40 @@
         <v>3</v>
       </c>
       <c r="C76" t="n">
-        <v>65.373471398293</v>
+        <v>66.45</v>
       </c>
       <c r="D76" t="n">
-        <v>1.15424208784958</v>
+        <v>1.23292857142857</v>
       </c>
       <c r="E76" t="n">
-        <v>93.3764931200235</v>
+        <v>95.85</v>
       </c>
       <c r="F76" t="n">
-        <v>3.47241411996926</v>
+        <v>3.33399980000001</v>
       </c>
       <c r="G76" t="n">
-        <v>7.08662975150943</v>
+        <v>6.784</v>
       </c>
       <c r="H76" t="n">
-        <v>412.674896671851</v>
+        <v>389.85887</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>354.326572135129</v>
+        <v>0.106633951639987</v>
       </c>
       <c r="K76" t="n">
-        <v>0.1413905352792</v>
+        <v>346.254582082701</v>
+      </c>
+      <c r="L76" t="n">
+        <v>348.510709653008</v>
+      </c>
+      <c r="M76" t="n">
+        <v>383.431839588428</v>
+      </c>
+      <c r="N76" t="n">
+        <v>348.28667811</v>
       </c>
     </row>
     <row r="77">
@@ -3044,31 +3737,40 @@
         <v>4</v>
       </c>
       <c r="C77" t="n">
-        <v>67.2779141358836</v>
+        <v>71.63</v>
       </c>
       <c r="D77" t="n">
-        <v>1.14578707043536</v>
+        <v>1.2284</v>
       </c>
       <c r="E77" t="n">
-        <v>92.3099650921348</v>
+        <v>94.2075</v>
       </c>
       <c r="F77" t="n">
-        <v>3.20364603381958</v>
+        <v>3.28533936666667</v>
       </c>
       <c r="G77" t="n">
-        <v>6.46477575362858</v>
+        <v>6.8425</v>
       </c>
       <c r="H77" t="n">
-        <v>374.190632104746</v>
+        <v>388.99829375</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>337.857230728644</v>
+        <v>0.0948934764318616</v>
       </c>
       <c r="K77" t="n">
-        <v>0.0970986397273873</v>
+        <v>350.375040432532</v>
+      </c>
+      <c r="L77" t="n">
+        <v>350.900427146589</v>
+      </c>
+      <c r="M77" t="n">
+        <v>383.112628161597</v>
+      </c>
+      <c r="N77" t="n">
+        <v>352.08489333</v>
       </c>
     </row>
     <row r="78">
@@ -3079,31 +3781,40 @@
         <v>5</v>
       </c>
       <c r="C78" t="n">
-        <v>82.2792452439736</v>
+        <v>76.65</v>
       </c>
       <c r="D78" t="n">
-        <v>1.16988294403314</v>
+        <v>1.18135263157895</v>
       </c>
       <c r="E78" t="n">
-        <v>105.247598625089</v>
+        <v>105.445454545455</v>
       </c>
       <c r="F78" t="n">
-        <v>3.44739571359912</v>
+        <v>3.23667893333334</v>
       </c>
       <c r="G78" t="n">
-        <v>6.72908922933843</v>
+        <v>7.414</v>
       </c>
       <c r="H78" t="n">
-        <v>415.701674959321</v>
+        <v>387.2764875</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>362.574707599226</v>
+        <v>0.0242224309834964</v>
       </c>
       <c r="K78" t="n">
-        <v>0.127800705554757</v>
+        <v>374.934567045424</v>
+      </c>
+      <c r="L78" t="n">
+        <v>360.590146464617</v>
+      </c>
+      <c r="M78" t="n">
+        <v>389.531190810064</v>
+      </c>
+      <c r="N78" t="n">
+        <v>377.89570951</v>
       </c>
     </row>
     <row r="79">
@@ -3114,31 +3825,40 @@
         <v>6</v>
       </c>
       <c r="C79" t="n">
-        <v>77.1239900071029</v>
+        <v>75.19</v>
       </c>
       <c r="D79" t="n">
-        <v>1.07983374161137</v>
+        <v>1.16736666666667</v>
       </c>
       <c r="E79" t="n">
-        <v>116.998452922585</v>
+        <v>114.75</v>
       </c>
       <c r="F79" t="n">
-        <v>2.94118688518302</v>
+        <v>3.1880185</v>
       </c>
       <c r="G79" t="n">
-        <v>6.87856452923908</v>
+        <v>7.4725</v>
       </c>
       <c r="H79" t="n">
-        <v>476.722019844141</v>
+        <v>433.77583</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>370.828975887639</v>
+        <v>0.113752160903017</v>
       </c>
       <c r="K79" t="n">
-        <v>0.222127444398568</v>
+        <v>378.847562469259</v>
+      </c>
+      <c r="L79" t="n">
+        <v>371.87963741472</v>
+      </c>
+      <c r="M79" t="n">
+        <v>430.106671680424</v>
+      </c>
+      <c r="N79" t="n">
+        <v>384.43289199</v>
       </c>
     </row>
     <row r="80">
@@ -3149,31 +3869,40 @@
         <v>7</v>
       </c>
       <c r="C80" t="n">
-        <v>69.7856498772036</v>
+        <v>74.44</v>
       </c>
       <c r="D80" t="n">
-        <v>1.10292075336079</v>
+        <v>1.16839047619048</v>
       </c>
       <c r="E80" t="n">
-        <v>128.978417284873</v>
+        <v>119.57</v>
       </c>
       <c r="F80" t="n">
-        <v>3.27240218329084</v>
+        <v>3.101458</v>
       </c>
       <c r="G80" t="n">
-        <v>8.25926126809313</v>
+        <v>7.6075</v>
       </c>
       <c r="H80" t="n">
-        <v>424.866984502597</v>
+        <v>408.3903125</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>411.498383665753</v>
+        <v>0.0433581615871459</v>
       </c>
       <c r="K80" t="n">
-        <v>0.0314653793410081</v>
+        <v>384.34897862091</v>
+      </c>
+      <c r="L80" t="n">
+        <v>383.241752411331</v>
+      </c>
+      <c r="M80" t="n">
+        <v>412.289897165309</v>
+      </c>
+      <c r="N80" t="n">
+        <v>390.68325934</v>
       </c>
     </row>
     <row r="81">
@@ -3184,31 +3913,40 @@
         <v>8</v>
       </c>
       <c r="C81" t="n">
-        <v>74.0856755586872</v>
+        <v>73.13</v>
       </c>
       <c r="D81" t="n">
-        <v>1.21975711824709</v>
+        <v>1.15482173913043</v>
       </c>
       <c r="E81" t="n">
-        <v>125.928468557118</v>
+        <v>117.34</v>
       </c>
       <c r="F81" t="n">
-        <v>3.21314313303534</v>
+        <v>3.0148975</v>
       </c>
       <c r="G81" t="n">
-        <v>8.16513148011593</v>
+        <v>7.91</v>
       </c>
       <c r="H81" t="n">
-        <v>369.261200638779</v>
+        <v>408.34485</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>409.693025222463</v>
+        <v>0.0284510647556838</v>
       </c>
       <c r="K81" t="n">
-        <v>0.109493833941238</v>
+        <v>393.603621842905</v>
+      </c>
+      <c r="L81" t="n">
+        <v>392.782377351132</v>
+      </c>
+      <c r="M81" t="n">
+        <v>412.75457482011</v>
+      </c>
+      <c r="N81" t="n">
+        <v>396.72700423</v>
       </c>
     </row>
     <row r="82">
@@ -3219,31 +3957,40 @@
         <v>9</v>
       </c>
       <c r="C82" t="n">
-        <v>81.3062870516153</v>
+        <v>78.86</v>
       </c>
       <c r="D82" t="n">
-        <v>1.26566894641208</v>
+        <v>1.16611428571429</v>
       </c>
       <c r="E82" t="n">
-        <v>115.230512838457</v>
+        <v>114.16</v>
       </c>
       <c r="F82" t="n">
-        <v>3.03241388175666</v>
+        <v>2.928337</v>
       </c>
       <c r="G82" t="n">
-        <v>8.56438874974148</v>
+        <v>9.475</v>
       </c>
       <c r="H82" t="n">
-        <v>395.749952632202</v>
+        <v>430.7602375</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>418.379648300367</v>
+        <v>0.023899482040749</v>
       </c>
       <c r="K82" t="n">
-        <v>0.057181802594418</v>
+        <v>447.145211418397</v>
+      </c>
+      <c r="L82" t="n">
+        <v>407.884492997543</v>
+      </c>
+      <c r="M82" t="n">
+        <v>438.099940300937</v>
+      </c>
+      <c r="N82" t="n">
+        <v>441.05518406</v>
       </c>
     </row>
     <row r="83">
@@ -3254,31 +4001,40 @@
         <v>10</v>
       </c>
       <c r="C83" t="n">
-        <v>74.8192236289354</v>
+        <v>80.47</v>
       </c>
       <c r="D83" t="n">
-        <v>1.09625778127134</v>
+        <v>1.14980454545455</v>
       </c>
       <c r="E83" t="n">
-        <v>112.55801784057</v>
+        <v>108.73</v>
       </c>
       <c r="F83" t="n">
-        <v>2.64386123981133</v>
+        <v>2.8434903</v>
       </c>
       <c r="G83" t="n">
-        <v>8.70786034717143</v>
+        <v>9.0525</v>
       </c>
       <c r="H83" t="n">
-        <v>397.595883162489</v>
+        <v>418.818425</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>416.569890765881</v>
+        <v>0.0197839363681291</v>
       </c>
       <c r="K83" t="n">
-        <v>0.0477218412134246</v>
+        <v>433.000501571815</v>
+      </c>
+      <c r="L83" t="n">
+        <v>415.914621082354</v>
+      </c>
+      <c r="M83" t="n">
+        <v>424.613732747522</v>
+      </c>
+      <c r="N83" t="n">
+        <v>427.10430207</v>
       </c>
     </row>
     <row r="84">
@@ -3289,31 +4045,40 @@
         <v>11</v>
       </c>
       <c r="C84" t="n">
-        <v>65.6587031786232</v>
+        <v>65.17</v>
       </c>
       <c r="D84" t="n">
-        <v>1.07598167980487</v>
+        <v>1.13665238095238</v>
       </c>
       <c r="E84" t="n">
-        <v>101.477471195458</v>
+        <v>100.73</v>
       </c>
       <c r="F84" t="n">
-        <v>2.89936744555654</v>
+        <v>2.7586436</v>
       </c>
       <c r="G84" t="n">
-        <v>7.67810724662868</v>
+        <v>8.214</v>
       </c>
       <c r="H84" t="n">
-        <v>407.100295454123</v>
+        <v>382.87915</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>375.755692090265</v>
+        <v>0.01760521049527</v>
       </c>
       <c r="K84" t="n">
-        <v>0.0769947939460305</v>
+        <v>396.987498492534</v>
+      </c>
+      <c r="L84" t="n">
+        <v>412.941933838518</v>
+      </c>
+      <c r="M84" t="n">
+        <v>386.658685342711</v>
+      </c>
+      <c r="N84" t="n">
+        <v>389.61981803</v>
       </c>
     </row>
     <row r="85">
@@ -3324,31 +4089,40 @@
         <v>12</v>
       </c>
       <c r="C85" t="n">
-        <v>61.4123403983396</v>
+        <v>56.46</v>
       </c>
       <c r="D85" t="n">
-        <v>1.18561667196894</v>
+        <v>1.13835909090909</v>
       </c>
       <c r="E85" t="n">
-        <v>99.3940983375195</v>
+        <v>101.37</v>
       </c>
       <c r="F85" t="n">
-        <v>2.79419575944114</v>
+        <v>2.6737969</v>
       </c>
       <c r="G85" t="n">
-        <v>7.2590217075528</v>
+        <v>8.01666666666667</v>
       </c>
       <c r="H85" t="n">
-        <v>317.277646887728</v>
+        <v>326.58625</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>360.347288599477</v>
+        <v>0.161088734119496</v>
       </c>
       <c r="K85" t="n">
-        <v>0.135747482163435</v>
+        <v>386.95745447996</v>
+      </c>
+      <c r="L85" t="n">
+        <v>408.617757727763</v>
+      </c>
+      <c r="M85" t="n">
+        <v>339.912580444385</v>
+      </c>
+      <c r="N85" t="n">
+        <v>379.195615593333</v>
       </c>
     </row>
     <row r="86">
@@ -3359,31 +4133,40 @@
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>64.1660495270183</v>
+        <v>59.27</v>
       </c>
       <c r="D86" t="n">
-        <v>1.22097444173925</v>
+        <v>1.14274166666667</v>
       </c>
       <c r="E86" t="n">
-        <v>91.5993996567726</v>
+        <v>98.56</v>
       </c>
       <c r="F86" t="n">
-        <v>2.69646259753338</v>
+        <v>2.65741756666667</v>
       </c>
       <c r="G86" t="n">
-        <v>7.65649928380232</v>
+        <v>7.426</v>
       </c>
       <c r="H86" t="n">
-        <v>329.473230750766</v>
+        <v>314.21551875</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>368.022904360005</v>
+        <v>0.15540814232938</v>
       </c>
       <c r="K86" t="n">
-        <v>0.11700396272376</v>
+        <v>368.17050433094</v>
+      </c>
+      <c r="L86" t="n">
+        <v>401.490553091027</v>
+      </c>
+      <c r="M86" t="n">
+        <v>326.383481116375</v>
+      </c>
+      <c r="N86" t="n">
+        <v>363.04716881</v>
       </c>
     </row>
     <row r="87">
@@ -3394,31 +4177,40 @@
         <v>2</v>
       </c>
       <c r="C87" t="n">
-        <v>67.2781029804055</v>
+        <v>64.13</v>
       </c>
       <c r="D87" t="n">
-        <v>1.13232481962183</v>
+        <v>1.135505</v>
       </c>
       <c r="E87" t="n">
-        <v>90.7459114849195</v>
+        <v>95.42</v>
       </c>
       <c r="F87" t="n">
-        <v>2.77019822325471</v>
+        <v>2.64103823333333</v>
       </c>
       <c r="G87" t="n">
-        <v>5.79934547124908</v>
+        <v>5.9925</v>
       </c>
       <c r="H87" t="n">
-        <v>327.695308857986</v>
+        <v>315.5239</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>318.696215515486</v>
+        <v>0.0298642300313858</v>
       </c>
       <c r="K87" t="n">
-        <v>0.027461770428944</v>
+        <v>322.508363018435</v>
+      </c>
+      <c r="L87" t="n">
+        <v>388.008740893581</v>
+      </c>
+      <c r="M87" t="n">
+        <v>319.613079154369</v>
+      </c>
+      <c r="N87" t="n">
+        <v>324.94677833</v>
       </c>
     </row>
     <row r="88">
@@ -3429,31 +4221,40 @@
         <v>3</v>
       </c>
       <c r="C88" t="n">
-        <v>72.896336543947</v>
+        <v>66.41</v>
       </c>
       <c r="D88" t="n">
-        <v>1.04693488500867</v>
+        <v>1.13176666666667</v>
       </c>
       <c r="E88" t="n">
-        <v>97.7682083355188</v>
+        <v>93.12</v>
       </c>
       <c r="F88" t="n">
-        <v>2.72746438529561</v>
+        <v>2.6246589</v>
       </c>
       <c r="G88" t="n">
-        <v>5.01956995643955</v>
+        <v>5.2675</v>
       </c>
       <c r="H88" t="n">
-        <v>302.393893010965</v>
+        <v>318.64856</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>305.316641366669</v>
+        <v>0.0424604322392041</v>
       </c>
       <c r="K88" t="n">
-        <v>0.00966536832672693</v>
+        <v>299.264022460352</v>
+      </c>
+      <c r="L88" t="n">
+        <v>373.03287021944</v>
+      </c>
+      <c r="M88" t="n">
+        <v>317.84943222349</v>
+      </c>
+      <c r="N88" t="n">
+        <v>305.11860441</v>
       </c>
     </row>
     <row r="89">
@@ -3464,31 +4265,40 @@
         <v>4</v>
       </c>
       <c r="C89" t="n">
-        <v>70.6328697813302</v>
+        <v>71.2</v>
       </c>
       <c r="D89" t="n">
-        <v>1.07301728225268</v>
+        <v>1.12415714285714</v>
       </c>
       <c r="E89" t="n">
-        <v>85.3426795423753</v>
+        <v>86.77</v>
       </c>
       <c r="F89" t="n">
-        <v>2.52642407757816</v>
+        <v>2.60485196666667</v>
       </c>
       <c r="G89" t="n">
-        <v>5.24628489649482</v>
+        <v>4.935</v>
       </c>
       <c r="H89" t="n">
-        <v>285.612848212375</v>
+        <v>305.3556625</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>302.284537807084</v>
+        <v>0.0338070518014382</v>
       </c>
       <c r="K89" t="n">
-        <v>0.0583716373372396</v>
+        <v>289.162188217023</v>
+      </c>
+      <c r="L89" t="n">
+        <v>357.677787267969</v>
+      </c>
+      <c r="M89" t="n">
+        <v>303.83333432955</v>
+      </c>
+      <c r="N89" t="n">
+        <v>295.0324878</v>
       </c>
     </row>
     <row r="90">
@@ -3499,31 +4309,40 @@
         <v>5</v>
       </c>
       <c r="C90" t="n">
-        <v>75.917902377611</v>
+        <v>70.53</v>
       </c>
       <c r="D90" t="n">
-        <v>1.17790371938399</v>
+        <v>1.11841111111111</v>
       </c>
       <c r="E90" t="n">
-        <v>90.0587376790568</v>
+        <v>82.32</v>
       </c>
       <c r="F90" t="n">
-        <v>2.53216834780135</v>
+        <v>2.58504503333333</v>
       </c>
       <c r="G90" t="n">
-        <v>4.49263863413483</v>
+        <v>4.464</v>
       </c>
       <c r="H90" t="n">
-        <v>320.092753704257</v>
+        <v>295.96278</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>287.96071767581</v>
+        <v>0.0574830680060513</v>
       </c>
       <c r="K90" t="n">
-        <v>0.100383515892192</v>
+        <v>272.507225929219</v>
+      </c>
+      <c r="L90" t="n">
+        <v>341.290809470113</v>
+      </c>
+      <c r="M90" t="n">
+        <v>292.189924306379</v>
+      </c>
+      <c r="N90" t="n">
+        <v>278.94993139</v>
       </c>
     </row>
     <row r="91">
@@ -3534,31 +4353,40 @@
         <v>6</v>
       </c>
       <c r="C91" t="n">
-        <v>60.3081637138221</v>
+        <v>63.3</v>
       </c>
       <c r="D91" t="n">
-        <v>1.20383170085926</v>
+        <v>1.12829</v>
       </c>
       <c r="E91" t="n">
-        <v>72.8499368026904</v>
+        <v>72.49</v>
       </c>
       <c r="F91" t="n">
-        <v>2.58402462911389</v>
+        <v>2.5652381</v>
       </c>
       <c r="G91" t="n">
-        <v>3.6304364211699</v>
+        <v>3.6325</v>
       </c>
       <c r="H91" t="n">
-        <v>287.630922650644</v>
+        <v>279.560475</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>243.845317649496</v>
+        <v>0.12168337459006</v>
       </c>
       <c r="K91" t="n">
-        <v>0.152228434264454</v>
+        <v>239.579767619908</v>
+      </c>
+      <c r="L91" t="n">
+        <v>319.339232679913</v>
+      </c>
+      <c r="M91" t="n">
+        <v>270.226153088507</v>
+      </c>
+      <c r="N91" t="n">
+        <v>245.542613</v>
       </c>
     </row>
     <row r="92">
@@ -3569,31 +4397,40 @@
         <v>7</v>
       </c>
       <c r="C92" t="n">
-        <v>62.7046469062567</v>
+        <v>64</v>
       </c>
       <c r="D92" t="n">
-        <v>1.0771419672523</v>
+        <v>1.12252272727273</v>
       </c>
       <c r="E92" t="n">
-        <v>74.7743100126646</v>
+        <v>72.08</v>
       </c>
       <c r="F92" t="n">
-        <v>2.63292189583239</v>
+        <v>2.5109587</v>
       </c>
       <c r="G92" t="n">
-        <v>3.4542306636367</v>
+        <v>3.65</v>
       </c>
       <c r="H92" t="n">
-        <v>263.969421605509</v>
+        <v>246.6103875</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>241.737503102797</v>
+        <v>0.00166512329088331</v>
       </c>
       <c r="K92" t="n">
-        <v>0.0842215676630034</v>
+        <v>240.62639562057</v>
+      </c>
+      <c r="L92" t="n">
+        <v>301.889806987011</v>
+      </c>
+      <c r="M92" t="n">
+        <v>244.026236465756</v>
+      </c>
+      <c r="N92" t="n">
+        <v>246.1997508</v>
       </c>
     </row>
     <row r="93">
@@ -3604,31 +4441,40 @@
         <v>8</v>
       </c>
       <c r="C93" t="n">
-        <v>57.450229835452</v>
+        <v>59.25</v>
       </c>
       <c r="D93" t="n">
-        <v>1.18893714519188</v>
+        <v>1.11258695652174</v>
       </c>
       <c r="E93" t="n">
-        <v>65.107541951146</v>
+        <v>65.55</v>
       </c>
       <c r="F93" t="n">
-        <v>2.60660993234001</v>
+        <v>2.4566793</v>
       </c>
       <c r="G93" t="n">
-        <v>3.44290038224794</v>
+        <v>3.634</v>
       </c>
       <c r="H93" t="n">
-        <v>229.028010794479</v>
+        <v>234.160145</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>232.070574507995</v>
+        <v>0.0193551294136753</v>
       </c>
       <c r="K93" t="n">
-        <v>0.0132846794720072</v>
+        <v>236.734341432474</v>
+      </c>
+      <c r="L93" t="n">
+        <v>284.808947185175</v>
+      </c>
+      <c r="M93" t="n">
+        <v>230.922761269925</v>
+      </c>
+      <c r="N93" t="n">
+        <v>238.69234491</v>
       </c>
     </row>
     <row r="94">
@@ -3639,31 +4485,40 @@
         <v>9</v>
       </c>
       <c r="C94" t="n">
-        <v>63.8993306314182</v>
+        <v>62.33</v>
       </c>
       <c r="D94" t="n">
-        <v>1.14889547048461</v>
+        <v>1.10152</v>
       </c>
       <c r="E94" t="n">
-        <v>63.1187734377361</v>
+        <v>65.95</v>
       </c>
       <c r="F94" t="n">
-        <v>2.6392296831611</v>
+        <v>2.4023999</v>
       </c>
       <c r="G94" t="n">
-        <v>3.7912614487682</v>
+        <v>4.1125</v>
       </c>
       <c r="H94" t="n">
-        <v>221.956026653186</v>
+        <v>235.53129375</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>244.361334025165</v>
+        <v>0.0781472223369892</v>
       </c>
       <c r="K94" t="n">
-        <v>0.100944802940574</v>
+        <v>254.303409184915</v>
+      </c>
+      <c r="L94" t="n">
+        <v>274.202729332318</v>
+      </c>
+      <c r="M94" t="n">
+        <v>234.997088644343</v>
+      </c>
+      <c r="N94" t="n">
+        <v>253.93741013</v>
       </c>
     </row>
     <row r="95">
@@ -3674,31 +4529,40 @@
         <v>10</v>
       </c>
       <c r="C95" t="n">
-        <v>65.0371867492888</v>
+        <v>59.37</v>
       </c>
       <c r="D95" t="n">
-        <v>1.16951791453445</v>
+        <v>1.10387826086957</v>
       </c>
       <c r="E95" t="n">
-        <v>70.2338976825587</v>
+        <v>69.2</v>
       </c>
       <c r="F95" t="n">
-        <v>2.43897581676617</v>
+        <v>2.42049303333333</v>
       </c>
       <c r="G95" t="n">
-        <v>4.64308930469677</v>
+        <v>4.912</v>
       </c>
       <c r="H95" t="n">
-        <v>247.499372821374</v>
+        <v>226.25415</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>272.814774044006</v>
+        <v>0.219750643026879</v>
       </c>
       <c r="K95" t="n">
-        <v>0.102284708579454</v>
+        <v>280.336574631707</v>
+      </c>
+      <c r="L95" t="n">
+        <v>270.629391934809</v>
+      </c>
+      <c r="M95" t="n">
+        <v>232.481171724159</v>
+      </c>
+      <c r="N95" t="n">
+        <v>275.97364495</v>
       </c>
     </row>
     <row r="96">
@@ -3709,31 +4573,40 @@
         <v>11</v>
       </c>
       <c r="C96" t="n">
-        <v>59.0449453943912</v>
+        <v>62.74</v>
       </c>
       <c r="D96" t="n">
-        <v>1.08260011858957</v>
+        <v>1.10502</v>
       </c>
       <c r="E96" t="n">
-        <v>62.8190672783735</v>
+        <v>66.99</v>
       </c>
       <c r="F96" t="n">
-        <v>2.24115163331267</v>
+        <v>2.43858616666667</v>
       </c>
       <c r="G96" t="n">
-        <v>5.15105426699901</v>
+        <v>5.11</v>
       </c>
       <c r="H96" t="n">
-        <v>209.202111617016</v>
+        <v>229.890105</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>278.289002321625</v>
+        <v>0.227091322351608</v>
       </c>
       <c r="K96" t="n">
-        <v>0.33023993003993</v>
+        <v>288.009710663165</v>
+      </c>
+      <c r="L96" t="n">
+        <v>268.404835569035</v>
+      </c>
+      <c r="M96" t="n">
+        <v>235.992378081136</v>
+      </c>
+      <c r="N96" t="n">
+        <v>282.09615294</v>
       </c>
     </row>
     <row r="97">
@@ -3744,31 +4617,40 @@
         <v>12</v>
       </c>
       <c r="C97" t="n">
-        <v>70.3967566039762</v>
+        <v>65.85</v>
       </c>
       <c r="D97" t="n">
-        <v>1.03313739674672</v>
+        <v>1.11061428571429</v>
       </c>
       <c r="E97" t="n">
-        <v>67.7623729150761</v>
+        <v>66.18</v>
       </c>
       <c r="F97" t="n">
-        <v>2.48832867890211</v>
+        <v>2.4566793</v>
       </c>
       <c r="G97" t="n">
-        <v>4.72935742692836</v>
+        <v>4.86</v>
       </c>
       <c r="H97" t="n">
-        <v>208.600731570235</v>
+        <v>224.708083333333</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>276.962351632132</v>
+        <v>0.231368842835725</v>
       </c>
       <c r="K97" t="n">
-        <v>0.327715150121033</v>
+        <v>281.060445891629</v>
+      </c>
+      <c r="L97" t="n">
+        <v>265.471215974429</v>
+      </c>
+      <c r="M97" t="n">
+        <v>230.705778681778</v>
+      </c>
+      <c r="N97" t="n">
+        <v>276.69853255</v>
       </c>
     </row>
     <row r="98">
@@ -3779,31 +4661,40 @@
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>68.6980096399784</v>
+        <v>63.6</v>
       </c>
       <c r="D98" t="n">
-        <v>1.21450731541067</v>
+        <v>1.11056842105263</v>
       </c>
       <c r="E98" t="n">
-        <v>74.4207408072464</v>
+        <v>69.66</v>
       </c>
       <c r="F98" t="n">
-        <v>1.18851241556498</v>
+        <v>1.29954037702048</v>
       </c>
       <c r="G98" t="n">
-        <v>3.92203652253142</v>
+        <v>3.762</v>
       </c>
       <c r="H98" t="n">
-        <v>246.79149297848</v>
+        <v>256.9306</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>258.034881459137</v>
+        <v>0.0367514103808577</v>
       </c>
       <c r="K98" t="n">
-        <v>0.0455582497798555</v>
+        <v>244.742878868814</v>
+      </c>
+      <c r="L98" t="n">
+        <v>258.560291399339</v>
+      </c>
+      <c r="M98" t="n">
+        <v>251.765318462415</v>
+      </c>
+      <c r="N98" t="n">
+        <v>247.48803808</v>
       </c>
     </row>
     <row r="99">
@@ -3814,31 +4705,40 @@
         <v>2</v>
       </c>
       <c r="C99" t="n">
-        <v>49.944587924052</v>
+        <v>55</v>
       </c>
       <c r="D99" t="n">
-        <v>1.09377688471144</v>
+        <v>1.09178947368421</v>
       </c>
       <c r="E99" t="n">
-        <v>66.6676132727936</v>
+        <v>67.64</v>
       </c>
       <c r="F99" t="n">
-        <v>0.153778161372486</v>
+        <v>0.14240145404096</v>
       </c>
       <c r="G99" t="n">
-        <v>2.95095248481794</v>
+        <v>2.9275</v>
       </c>
       <c r="H99" t="n">
-        <v>285.298982275948</v>
+        <v>266.43094375</v>
       </c>
       <c r="I99" t="n">
-        <v>0.153778161372486</v>
+        <v>0.14240145404096</v>
       </c>
       <c r="J99" t="n">
-        <v>214.928472491638</v>
+        <v>0.181572724132949</v>
       </c>
       <c r="K99" t="n">
-        <v>0.246655313043655</v>
+        <v>213.124559677219</v>
+      </c>
+      <c r="L99" t="n">
+        <v>246.894500858738</v>
+      </c>
+      <c r="M99" t="n">
+        <v>253.156446158533</v>
+      </c>
+      <c r="N99" t="n">
+        <v>218.0543515</v>
       </c>
     </row>
     <row r="100">
@@ -3849,31 +4749,40 @@
         <v>3</v>
       </c>
       <c r="C100" t="n">
-        <v>35.8204161269637</v>
+        <v>32.98</v>
       </c>
       <c r="D100" t="n">
-        <v>1.18928785527261</v>
+        <v>1.10631</v>
       </c>
       <c r="E100" t="n">
-        <v>70.2645528646177</v>
+        <v>66.74</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.98093070687356</v>
+        <v>-1.01473746893856</v>
       </c>
       <c r="G100" t="n">
-        <v>2.63467661722004</v>
+        <v>2.82</v>
       </c>
       <c r="H100" t="n">
-        <v>239.221057831732</v>
+        <v>218.870075</v>
       </c>
       <c r="I100" t="n">
-        <v>-0.98093070687356</v>
+        <v>-1.01473746893856</v>
       </c>
       <c r="J100" t="n">
-        <v>199.73524946356</v>
+        <v>0.0825198923151099</v>
       </c>
       <c r="K100" t="n">
-        <v>0.165059918746559</v>
+        <v>199.383052758369</v>
+      </c>
+      <c r="L100" t="n">
+        <v>233.742714112083</v>
+      </c>
+      <c r="M100" t="n">
+        <v>211.446287735679</v>
+      </c>
+      <c r="N100" t="n">
+        <v>200.80893998</v>
       </c>
     </row>
     <row r="101">
@@ -3884,31 +4793,40 @@
         <v>4</v>
       </c>
       <c r="C101" t="n">
-        <v>25.5757164418632</v>
+        <v>23.34</v>
       </c>
       <c r="D101" t="n">
-        <v>0.987887656123235</v>
+        <v>1.08867142857143</v>
       </c>
       <c r="E101" t="n">
-        <v>60.447715083214</v>
+        <v>58.55</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.68366897757253</v>
+        <v>-3.89216450359739</v>
       </c>
       <c r="G101" t="n">
-        <v>2.37134135396816</v>
+        <v>2.216</v>
       </c>
       <c r="H101" t="n">
-        <v>176.761493615955</v>
+        <v>165.01195</v>
       </c>
       <c r="I101" t="n">
-        <v>-3.68366897757253</v>
+        <v>-3.89216450359739</v>
       </c>
       <c r="J101" t="n">
-        <v>179.975392188242</v>
+        <v>0.0492776588604642</v>
       </c>
       <c r="K101" t="n">
-        <v>0.018182119343652</v>
+        <v>173.102574790849</v>
+      </c>
+      <c r="L101" t="n">
+        <v>215.842208256213</v>
+      </c>
+      <c r="M101" t="n">
+        <v>161.159538589988</v>
+      </c>
+      <c r="N101" t="n">
+        <v>173.14335258</v>
       </c>
     </row>
     <row r="102">
@@ -3919,31 +4837,40 @@
         <v>5</v>
       </c>
       <c r="C102" t="n">
-        <v>28.6606166342441</v>
+        <v>31.02</v>
       </c>
       <c r="D102" t="n">
-        <v>1.07888230868088</v>
+        <v>1.08883181818182</v>
       </c>
       <c r="E102" t="n">
-        <v>57.3373941212641</v>
+        <v>52.49</v>
       </c>
       <c r="F102" t="n">
-        <v>-7.12064038635344</v>
+        <v>-6.76959153825622</v>
       </c>
       <c r="G102" t="n">
-        <v>1.44276073642145</v>
+        <v>1.6025</v>
       </c>
       <c r="H102" t="n">
-        <v>148.819927323294</v>
+        <v>161.55253</v>
       </c>
       <c r="I102" t="n">
-        <v>-7.12064038635344</v>
+        <v>-6.76959153825622</v>
       </c>
       <c r="J102" t="n">
-        <v>154.578807335302</v>
+        <v>0.0259074697251723</v>
       </c>
       <c r="K102" t="n">
-        <v>0.0386969683132403</v>
+        <v>154.235456685953</v>
+      </c>
+      <c r="L102" t="n">
+        <v>197.289967650107</v>
+      </c>
+      <c r="M102" t="n">
+        <v>154.096725428487</v>
+      </c>
+      <c r="N102" t="n">
+        <v>157.36711272</v>
       </c>
     </row>
     <row r="103">
@@ -3954,31 +4881,40 @@
         <v>6</v>
       </c>
       <c r="C103" t="n">
-        <v>41.3548821754209</v>
+        <v>39.93</v>
       </c>
       <c r="D103" t="n">
-        <v>1.05087643907143</v>
+        <v>1.12609047619048</v>
       </c>
       <c r="E103" t="n">
-        <v>53.2878981742756</v>
+        <v>52.21</v>
       </c>
       <c r="F103" t="n">
-        <v>-8.91924180192224</v>
+        <v>-9.64701857291505</v>
       </c>
       <c r="G103" t="n">
-        <v>1.66435530511464</v>
+        <v>1.6725</v>
       </c>
       <c r="H103" t="n">
-        <v>170.745321845679</v>
+        <v>173.4710625</v>
       </c>
       <c r="I103" t="n">
-        <v>-8.91924180192224</v>
+        <v>-9.64701857291505</v>
       </c>
       <c r="J103" t="n">
-        <v>166.008629040531</v>
+        <v>0.0507690829990736</v>
       </c>
       <c r="K103" t="n">
-        <v>0.0277412742788268</v>
+        <v>159.209478374736</v>
+      </c>
+      <c r="L103" t="n">
+        <v>184.050984979016</v>
+      </c>
+      <c r="M103" t="n">
+        <v>165.100499865677</v>
+      </c>
+      <c r="N103" t="n">
+        <v>164.66409573</v>
       </c>
     </row>
     <row r="104">
@@ -3989,31 +4925,40 @@
         <v>7</v>
       </c>
       <c r="C104" t="n">
-        <v>38.5511582200457</v>
+        <v>42.81</v>
       </c>
       <c r="D104" t="n">
-        <v>1.13573674703457</v>
+        <v>1.14287826086957</v>
       </c>
       <c r="E104" t="n">
-        <v>50.4213852595352</v>
+        <v>51.56</v>
       </c>
       <c r="F104" t="n">
-        <v>-6.32022548974088</v>
+        <v>-6.76959153825622</v>
       </c>
       <c r="G104" t="n">
-        <v>1.95956169957407</v>
+        <v>1.796</v>
       </c>
       <c r="H104" t="n">
-        <v>181.38980780365</v>
+        <v>191.14311</v>
       </c>
       <c r="I104" t="n">
-        <v>-6.32022548974088</v>
+        <v>-6.76959153825622</v>
       </c>
       <c r="J104" t="n">
-        <v>170.520669345729</v>
+        <v>0.11361429376136</v>
       </c>
       <c r="K104" t="n">
-        <v>0.0599214398511658</v>
+        <v>163.675663200106</v>
+      </c>
+      <c r="L104" t="n">
+        <v>174.332044870151</v>
+      </c>
+      <c r="M104" t="n">
+        <v>179.974588420542</v>
+      </c>
+      <c r="N104" t="n">
+        <v>169.42652055</v>
       </c>
     </row>
     <row r="105">
@@ -4024,31 +4969,40 @@
         <v>8</v>
       </c>
       <c r="C105" t="n">
-        <v>41.9518028020039</v>
+        <v>44.26</v>
       </c>
       <c r="D105" t="n">
-        <v>1.24063263366411</v>
+        <v>1.18269047619048</v>
       </c>
       <c r="E105" t="n">
-        <v>50.9588300813716</v>
+        <v>50.14</v>
       </c>
       <c r="F105" t="n">
-        <v>-3.6492306852301</v>
+        <v>-3.89216450359739</v>
       </c>
       <c r="G105" t="n">
-        <v>2.57713883810118</v>
+        <v>2.64</v>
       </c>
       <c r="H105" t="n">
-        <v>225.575739357192</v>
+        <v>223.1313625</v>
       </c>
       <c r="I105" t="n">
-        <v>-3.6492306852301</v>
+        <v>-3.89216450359739</v>
       </c>
       <c r="J105" t="n">
-        <v>189.851475754256</v>
+        <v>0.13730463210881</v>
       </c>
       <c r="K105" t="n">
-        <v>0.158369263045473</v>
+        <v>191.083352173552</v>
+      </c>
+      <c r="L105" t="n">
+        <v>170.572910018644</v>
+      </c>
+      <c r="M105" t="n">
+        <v>209.39798348267</v>
+      </c>
+      <c r="N105" t="n">
+        <v>192.49439286</v>
       </c>
     </row>
     <row r="106">
@@ -4059,31 +5013,40 @@
         <v>9</v>
       </c>
       <c r="C106" t="n">
-        <v>41.24238683978</v>
+        <v>41.09</v>
       </c>
       <c r="D106" t="n">
-        <v>1.24222622327331</v>
+        <v>1.18105652173913</v>
       </c>
       <c r="E106" t="n">
-        <v>51.083232963765</v>
+        <v>54.6</v>
       </c>
       <c r="F106" t="n">
         <v>-3</v>
       </c>
       <c r="G106" t="n">
-        <v>3.39622396475387</v>
+        <v>3.74333333333333</v>
       </c>
       <c r="H106" t="n">
-        <v>238.1854048711</v>
+        <v>241.47715</v>
       </c>
       <c r="I106" t="n">
         <v>-3</v>
       </c>
       <c r="J106" t="n">
-        <v>211.862085990192</v>
+        <v>0.0746111917559629</v>
       </c>
       <c r="K106" t="n">
-        <v>0.110516086807056</v>
+        <v>226.974146137199</v>
+      </c>
+      <c r="L106" t="n">
+        <v>174.445345535436</v>
+      </c>
+      <c r="M106" t="n">
+        <v>230.857247584313</v>
+      </c>
+      <c r="N106" t="n">
+        <v>223.460252056667</v>
       </c>
     </row>
     <row r="107">
@@ -4094,28 +5057,37 @@
         <v>10</v>
       </c>
       <c r="C107" t="n">
-        <v>41.24238683978</v>
+        <v>41.09</v>
       </c>
       <c r="D107" t="n">
-        <v>1.24222622327331</v>
+        <v>1.18105652173913</v>
       </c>
       <c r="E107" t="n">
-        <v>51.083232963765</v>
+        <v>54.6</v>
       </c>
       <c r="F107" t="n">
         <v>-2</v>
       </c>
       <c r="G107" t="n">
-        <v>3.39622396475387</v>
+        <v>3.74333333333333</v>
       </c>
       <c r="H107"/>
       <c r="I107" t="n">
         <v>-2</v>
       </c>
-      <c r="J107" t="n">
-        <v>211.862085990192</v>
-      </c>
-      <c r="K107"/>
+      <c r="J107"/>
+      <c r="K107" t="n">
+        <v>229.163996408124</v>
+      </c>
+      <c r="L107" t="n">
+        <v>179.572898409062</v>
+      </c>
+      <c r="M107" t="n">
+        <v>224.454596507918</v>
+      </c>
+      <c r="N107" t="n">
+        <v>223.460252056667</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -4125,28 +5097,37 @@
         <v>11</v>
       </c>
       <c r="C108" t="n">
-        <v>41.24238683978</v>
+        <v>41.09</v>
       </c>
       <c r="D108" t="n">
-        <v>1.24222622327331</v>
+        <v>1.18105652173913</v>
       </c>
       <c r="E108" t="n">
-        <v>51.083232963765</v>
+        <v>54.6</v>
       </c>
       <c r="F108" t="n">
         <v>-2</v>
       </c>
       <c r="G108" t="n">
-        <v>3.39622396475387</v>
+        <v>3.74333333333333</v>
       </c>
       <c r="H108"/>
       <c r="I108" t="n">
         <v>-2</v>
       </c>
-      <c r="J108" t="n">
-        <v>211.862085990192</v>
-      </c>
-      <c r="K108"/>
+      <c r="J108"/>
+      <c r="K108" t="n">
+        <v>229.010591690114</v>
+      </c>
+      <c r="L108" t="n">
+        <v>183.663360993</v>
+      </c>
+      <c r="M108" t="n">
+        <v>219.371549355299</v>
+      </c>
+      <c r="N108" t="n">
+        <v>223.460252056667</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -4156,28 +5137,37 @@
         <v>12</v>
       </c>
       <c r="C109" t="n">
-        <v>41.24238683978</v>
+        <v>41.09</v>
       </c>
       <c r="D109" t="n">
-        <v>1.24222622327331</v>
+        <v>1.18105652173913</v>
       </c>
       <c r="E109" t="n">
-        <v>51.083232963765</v>
+        <v>54.6</v>
       </c>
       <c r="F109" t="n">
         <v>-2</v>
       </c>
       <c r="G109" t="n">
-        <v>3.39622396475387</v>
+        <v>3.74333333333333</v>
       </c>
       <c r="H109"/>
       <c r="I109" t="n">
         <v>-2</v>
       </c>
-      <c r="J109" t="n">
-        <v>211.862085990192</v>
-      </c>
-      <c r="K109"/>
+      <c r="J109"/>
+      <c r="K109" t="n">
+        <v>228.857444967703</v>
+      </c>
+      <c r="L109" t="n">
+        <v>186.928688984893</v>
+      </c>
+      <c r="M109" t="n">
+        <v>215.338369770789</v>
+      </c>
+      <c r="N109" t="n">
+        <v>223.460252056667</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -4205,10 +5195,19 @@
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
+      <c r="J110"/>
+      <c r="K110" t="n">
+        <v>227.612277443282</v>
+      </c>
+      <c r="L110" t="n">
+        <v>191.043830950561</v>
+      </c>
+      <c r="M110" t="n">
+        <v>213.646768802448</v>
+      </c>
+      <c r="N110" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K110"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -4236,10 +5235,19 @@
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
+      <c r="J111"/>
+      <c r="K111" t="n">
+        <v>227.612277443282</v>
+      </c>
+      <c r="L111" t="n">
+        <v>194.317866262773</v>
+      </c>
+      <c r="M111" t="n">
+        <v>212.300919412384</v>
+      </c>
+      <c r="N111" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K111"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -4267,10 +5275,19 @@
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
+      <c r="J112"/>
+      <c r="K112" t="n">
+        <v>227.612277443282</v>
+      </c>
+      <c r="L112" t="n">
+        <v>196.922711324022</v>
+      </c>
+      <c r="M112" t="n">
+        <v>211.23015236115</v>
+      </c>
+      <c r="N112" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K112"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -4298,10 +5315,19 @@
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
+      <c r="J113"/>
+      <c r="K113" t="n">
+        <v>227.612277443282</v>
+      </c>
+      <c r="L113" t="n">
+        <v>198.995144009096</v>
+      </c>
+      <c r="M113" t="n">
+        <v>210.378242714741</v>
+      </c>
+      <c r="N113" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K113"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -4329,10 +5355,19 @@
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
+      <c r="J114"/>
+      <c r="K114" t="n">
+        <v>227.612277443282</v>
+      </c>
+      <c r="L114" t="n">
+        <v>200.643985737941</v>
+      </c>
+      <c r="M114" t="n">
+        <v>209.700457528125</v>
+      </c>
+      <c r="N114" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K114"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -4360,10 +5395,19 @@
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
+      <c r="J115"/>
+      <c r="K115" t="n">
+        <v>227.612277443282</v>
+      </c>
+      <c r="L115" t="n">
+        <v>201.955815582336</v>
+      </c>
+      <c r="M115" t="n">
+        <v>209.161206961901</v>
+      </c>
+      <c r="N115" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K115"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -4391,10 +5435,19 @@
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
+      <c r="J116"/>
+      <c r="K116" t="n">
+        <v>227.612277443282</v>
+      </c>
+      <c r="L116" t="n">
+        <v>202.999516448551</v>
+      </c>
+      <c r="M116" t="n">
+        <v>208.732175494536</v>
+      </c>
+      <c r="N116" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K116"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -4422,10 +5475,19 @@
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J117"/>
+      <c r="K117" t="n">
+        <v>227.612277443282</v>
+      </c>
+      <c r="L117" t="n">
+        <v>203.829892051599</v>
+      </c>
+      <c r="M117" t="n">
+        <v>208.390835101927</v>
+      </c>
+      <c r="N117" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K117"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -4453,10 +5515,19 @@
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J118"/>
+      <c r="K118" t="n">
+        <v>227.612277443282</v>
+      </c>
+      <c r="L118" t="n">
+        <v>204.490544604892</v>
+      </c>
+      <c r="M118" t="n">
+        <v>208.119262332819</v>
+      </c>
+      <c r="N118" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K118"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -4484,10 +5555,19 @@
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
+      <c r="J119"/>
+      <c r="K119" t="n">
+        <v>227.76238883792</v>
+      </c>
+      <c r="L119" t="n">
+        <v>205.005453149507</v>
+      </c>
+      <c r="M119" t="n">
+        <v>207.892485985409</v>
+      </c>
+      <c r="N119" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K119"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -4515,10 +5595,19 @@
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
+      <c r="J120"/>
+      <c r="K120" t="n">
+        <v>227.912748137663</v>
+      </c>
+      <c r="L120" t="n">
+        <v>205.404389067014</v>
+      </c>
+      <c r="M120" t="n">
+        <v>207.70133229063</v>
+      </c>
+      <c r="N120" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K120"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -4546,10 +5635,19 @@
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
+      <c r="J121"/>
+      <c r="K121" t="n">
+        <v>228.063355801169</v>
+      </c>
+      <c r="L121" t="n">
+        <v>205.711038641066</v>
+      </c>
+      <c r="M121" t="n">
+        <v>207.538502501852</v>
+      </c>
+      <c r="N121" t="n">
         <v>229.462141119045</v>
       </c>
-      <c r="K121"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -4577,10 +5675,19 @@
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
+      <c r="J122"/>
+      <c r="K122" t="n">
+        <v>269.726019718482</v>
+      </c>
+      <c r="L122" t="n">
+        <v>214.371215901152</v>
+      </c>
+      <c r="M122" t="n">
+        <v>215.825158744904</v>
+      </c>
+      <c r="N122" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K122"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -4608,10 +5715,19 @@
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
+      <c r="J123"/>
+      <c r="K123" t="n">
+        <v>269.877125256161</v>
+      </c>
+      <c r="L123" t="n">
+        <v>221.250530503641</v>
+      </c>
+      <c r="M123" t="n">
+        <v>222.407297451681</v>
+      </c>
+      <c r="N123" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K123"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -4639,10 +5755,19 @@
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
+      <c r="J124"/>
+      <c r="K124" t="n">
+        <v>270.028480380693</v>
+      </c>
+      <c r="L124" t="n">
+        <v>226.712960691601</v>
+      </c>
+      <c r="M124" t="n">
+        <v>227.633292448678</v>
+      </c>
+      <c r="N124" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K124"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -4670,10 +5795,19 @@
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
+      <c r="J125"/>
+      <c r="K125" t="n">
+        <v>270.180085474293</v>
+      </c>
+      <c r="L125" t="n">
+        <v>231.04809003673</v>
+      </c>
+      <c r="M125" t="n">
+        <v>231.780312326206</v>
+      </c>
+      <c r="N125" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K125"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -4701,10 +5835,19 @@
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
+      <c r="J126"/>
+      <c r="K126" t="n">
+        <v>270.331940919178</v>
+      </c>
+      <c r="L126" t="n">
+        <v>234.4863131974</v>
+      </c>
+      <c r="M126" t="n">
+        <v>235.068874297876</v>
+      </c>
+      <c r="N126" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K126"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -4732,10 +5875,19 @@
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
+      <c r="J127"/>
+      <c r="K127" t="n">
+        <v>270.484047174007</v>
+      </c>
+      <c r="L127" t="n">
+        <v>237.210933719122</v>
+      </c>
+      <c r="M127" t="n">
+        <v>237.674423346064</v>
+      </c>
+      <c r="N127" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K127"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -4763,10 +5915,19 @@
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
+      <c r="J128"/>
+      <c r="K128" t="n">
+        <v>270.636404697437</v>
+      </c>
+      <c r="L128" t="n">
+        <v>239.367789133426</v>
+      </c>
+      <c r="M128" t="n">
+        <v>239.736544675303</v>
+      </c>
+      <c r="N128" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K128"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -4794,10 +5955,19 @@
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
+      <c r="J129"/>
+      <c r="K129" t="n">
+        <v>270.789013795243</v>
+      </c>
+      <c r="L129" t="n">
+        <v>241.072908763791</v>
+      </c>
+      <c r="M129" t="n">
+        <v>241.366293214619</v>
+      </c>
+      <c r="N129" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K129"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -4825,10 +5995,19 @@
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
+      <c r="J130"/>
+      <c r="K130" t="n">
+        <v>270.941874926082</v>
+      </c>
+      <c r="L130" t="n">
+        <v>242.418606306999</v>
+      </c>
+      <c r="M130" t="n">
+        <v>242.652024998281</v>
+      </c>
+      <c r="N130" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K130"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -4856,10 +6035,19 @@
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
+      <c r="J131"/>
+      <c r="K131" t="n">
+        <v>271.094988548613</v>
+      </c>
+      <c r="L131" t="n">
+        <v>243.478327143773</v>
+      </c>
+      <c r="M131" t="n">
+        <v>243.664036663436</v>
+      </c>
+      <c r="N131" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K131"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -4887,10 +6075,19 @@
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
+      <c r="J132"/>
+      <c r="K132" t="n">
+        <v>271.248355045053</v>
+      </c>
+      <c r="L132" t="n">
+        <v>244.310504897977</v>
+      </c>
+      <c r="M132" t="n">
+        <v>244.458256671856</v>
+      </c>
+      <c r="N132" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K132"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -4918,10 +6115,19 @@
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
+      <c r="J133"/>
+      <c r="K133" t="n">
+        <v>271.40197487406</v>
+      </c>
+      <c r="L133" t="n">
+        <v>244.961629730794</v>
+      </c>
+      <c r="M133" t="n">
+        <v>245.079182060496</v>
+      </c>
+      <c r="N133" t="n">
         <v>266.543925775684</v>
       </c>
-      <c r="K133"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -4949,10 +6155,19 @@
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
+      <c r="J134"/>
+      <c r="K134" t="n">
+        <v>278.091898234862</v>
+      </c>
+      <c r="L134" t="n">
+        <v>248.093567903955</v>
+      </c>
+      <c r="M134" t="n">
+        <v>248.187093347715</v>
+      </c>
+      <c r="N134" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K134"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -4980,10 +6195,19 @@
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
+      <c r="J135"/>
+      <c r="K135" t="n">
+        <v>278.24602587565</v>
+      </c>
+      <c r="L135" t="n">
+        <v>250.57436174274</v>
+      </c>
+      <c r="M135" t="n">
+        <v>250.648771230437</v>
+      </c>
+      <c r="N135" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K135"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -5011,10 +6235,19 @@
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
+      <c r="J136"/>
+      <c r="K136" t="n">
+        <v>278.400408072095</v>
+      </c>
+      <c r="L136" t="n">
+        <v>252.537082497184</v>
+      </c>
+      <c r="M136" t="n">
+        <v>252.596283198476</v>
+      </c>
+      <c r="N136" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K136"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -5042,10 +6275,19 @@
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
+      <c r="J137"/>
+      <c r="K137" t="n">
+        <v>278.555045282856</v>
+      </c>
+      <c r="L137" t="n">
+        <v>254.087602538302</v>
+      </c>
+      <c r="M137" t="n">
+        <v>254.134703024301</v>
+      </c>
+      <c r="N137" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K137"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -5073,10 +6315,19 @@
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
+      <c r="J138"/>
+      <c r="K138" t="n">
+        <v>278.709937813706</v>
+      </c>
+      <c r="L138" t="n">
+        <v>255.310154632399</v>
+      </c>
+      <c r="M138" t="n">
+        <v>255.347628103708</v>
+      </c>
+      <c r="N138" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K138"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -5104,10 +6355,19 @@
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
+      <c r="J139"/>
+      <c r="K139" t="n">
+        <v>278.865086276189</v>
+      </c>
+      <c r="L139" t="n">
+        <v>256.2717549053</v>
+      </c>
+      <c r="M139" t="n">
+        <v>256.301569057365</v>
+      </c>
+      <c r="N139" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K139"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -5135,10 +6395,19 @@
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
+      <c r="J140"/>
+      <c r="K140" t="n">
+        <v>279.020490899636</v>
+      </c>
+      <c r="L140" t="n">
+        <v>257.025721832267</v>
+      </c>
+      <c r="M140" t="n">
+        <v>257.049442177149</v>
+      </c>
+      <c r="N140" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K140"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -5166,10 +6435,19 @@
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
+      <c r="J141"/>
+      <c r="K141" t="n">
+        <v>279.176152142705</v>
+      </c>
+      <c r="L141" t="n">
+        <v>257.614475926997</v>
+      </c>
+      <c r="M141" t="n">
+        <v>257.633347996883</v>
+      </c>
+      <c r="N141" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K141"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -5197,10 +6475,19 @@
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
+      <c r="J142"/>
+      <c r="K142" t="n">
+        <v>279.332070540498</v>
+      </c>
+      <c r="L142" t="n">
+        <v>258.071767204399</v>
+      </c>
+      <c r="M142" t="n">
+        <v>258.086781953279</v>
+      </c>
+      <c r="N142" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K142"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -5228,10 +6515,19 @@
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
+      <c r="J143"/>
+      <c r="K143" t="n">
+        <v>279.488246475231</v>
+      </c>
+      <c r="L143" t="n">
+        <v>258.424447381687</v>
+      </c>
+      <c r="M143" t="n">
+        <v>258.436393219387</v>
+      </c>
+      <c r="N143" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K143"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -5259,10 +6555,19 @@
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
+      <c r="J144"/>
+      <c r="K144" t="n">
+        <v>279.644680329119</v>
+      </c>
+      <c r="L144" t="n">
+        <v>258.693879842883</v>
+      </c>
+      <c r="M144" t="n">
+        <v>258.703384033696</v>
+      </c>
+      <c r="N144" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K144"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -5290,10 +6595,19 @@
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
+      <c r="J145"/>
+      <c r="K145" t="n">
+        <v>279.801372484378</v>
+      </c>
+      <c r="L145" t="n">
+        <v>258.897061416294</v>
+      </c>
+      <c r="M145" t="n">
+        <v>258.904623016015</v>
+      </c>
+      <c r="N145" t="n">
         <v>274.146581578167</v>
       </c>
-      <c r="K145"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -5321,10 +6635,19 @@
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
+      <c r="J146"/>
+      <c r="K146" t="n">
+        <v>288.045351132758</v>
+      </c>
+      <c r="L146" t="n">
+        <v>260.740487872349</v>
+      </c>
+      <c r="M146" t="n">
+        <v>260.746503933206</v>
+      </c>
+      <c r="N146" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K146"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -5352,10 +6675,19 @@
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
+      <c r="J147"/>
+      <c r="K147" t="n">
+        <v>288.202561343179</v>
+      </c>
+      <c r="L147" t="n">
+        <v>262.195912951332</v>
+      </c>
+      <c r="M147" t="n">
+        <v>262.200699370817</v>
+      </c>
+      <c r="N147" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K147"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -5383,10 +6715,19 @@
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
+      <c r="J148"/>
+      <c r="K148" t="n">
+        <v>288.360031230948</v>
+      </c>
+      <c r="L148" t="n">
+        <v>263.342622931104</v>
+      </c>
+      <c r="M148" t="n">
+        <v>263.346431039437</v>
+      </c>
+      <c r="N148" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K148"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -5414,10 +6755,19 @@
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
+      <c r="J149"/>
+      <c r="K149" t="n">
+        <v>288.517761101837</v>
+      </c>
+      <c r="L149" t="n">
+        <v>264.243698499008</v>
+      </c>
+      <c r="M149" t="n">
+        <v>264.246728256246</v>
+      </c>
+      <c r="N149" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K149"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -5445,10 +6795,19 @@
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
+      <c r="J150"/>
+      <c r="K150" t="n">
+        <v>288.675751567391</v>
+      </c>
+      <c r="L150" t="n">
+        <v>264.94932704105</v>
+      </c>
+      <c r="M150" t="n">
+        <v>264.951737536792</v>
+      </c>
+      <c r="N150" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K150"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -5476,10 +6835,19 @@
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
+      <c r="J151"/>
+      <c r="K151" t="n">
+        <v>288.834002933384</v>
+      </c>
+      <c r="L151" t="n">
+        <v>265.499437965646</v>
+      </c>
+      <c r="M151" t="n">
+        <v>265.501355772673</v>
+      </c>
+      <c r="N151" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K151"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -5507,10 +6875,19 @@
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
+      <c r="J152"/>
+      <c r="K152" t="n">
+        <v>288.992515658472</v>
+      </c>
+      <c r="L152" t="n">
+        <v>265.925799352623</v>
+      </c>
+      <c r="M152" t="n">
+        <v>265.927325173112</v>
+      </c>
+      <c r="N152" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K152"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -5538,10 +6915,19 @@
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
+      <c r="J153"/>
+      <c r="K153" t="n">
+        <v>289.151290201317</v>
+      </c>
+      <c r="L153" t="n">
+        <v>266.253686072531</v>
+      </c>
+      <c r="M153" t="n">
+        <v>266.254900025829</v>
+      </c>
+      <c r="N153" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K153"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -5569,10 +6955,19 @@
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
+      <c r="J154"/>
+      <c r="K154" t="n">
+        <v>289.310326944133</v>
+      </c>
+      <c r="L154" t="n">
+        <v>266.503206959317</v>
+      </c>
+      <c r="M154" t="n">
+        <v>266.504172788928</v>
+      </c>
+      <c r="N154" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K154"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -5600,10 +6995,19 @@
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
+      <c r="J155"/>
+      <c r="K155" t="n">
+        <v>289.469626345579</v>
+      </c>
+      <c r="L155" t="n">
+        <v>266.690360707147</v>
+      </c>
+      <c r="M155" t="n">
+        <v>266.691129127843</v>
+      </c>
+      <c r="N155" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K155"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -5631,10 +7035,19 @@
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
+      <c r="J156"/>
+      <c r="K156" t="n">
+        <v>289.629188864314</v>
+      </c>
+      <c r="L156" t="n">
+        <v>266.827875954645</v>
+      </c>
+      <c r="M156" t="n">
+        <v>266.828487315447</v>
+      </c>
+      <c r="N156" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K156"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -5662,10 +7075,19 @@
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
+      <c r="J157"/>
+      <c r="K157" t="n">
+        <v>289.789014882553</v>
+      </c>
+      <c r="L157" t="n">
+        <v>266.925879667161</v>
+      </c>
+      <c r="M157" t="n">
+        <v>266.926366070029</v>
+      </c>
+      <c r="N157" t="n">
         <v>281.40706346754</v>
       </c>
-      <c r="K157"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -5693,10 +7115,19 @@
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
+      <c r="J158"/>
+      <c r="K158" t="n">
+        <v>255.299599399891</v>
+      </c>
+      <c r="L158" t="n">
+        <v>261.734300915537</v>
+      </c>
+      <c r="M158" t="n">
+        <v>261.734687901012</v>
+      </c>
+      <c r="N158" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K158"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -5724,10 +7155,19 @@
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
+      <c r="J159"/>
+      <c r="K159" t="n">
+        <v>255.459953793117</v>
+      </c>
+      <c r="L159" t="n">
+        <v>257.592403008519</v>
+      </c>
+      <c r="M159" t="n">
+        <v>257.59271089683</v>
+      </c>
+      <c r="N159" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K159"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -5755,10 +7195,19 @@
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
+      <c r="J160"/>
+      <c r="K160" t="n">
+        <v>255.620573061823</v>
+      </c>
+      <c r="L160" t="n">
+        <v>254.285619516418</v>
+      </c>
+      <c r="M160" t="n">
+        <v>254.28586447448</v>
+      </c>
+      <c r="N160" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K160"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -5786,10 +7235,19 @@
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
+      <c r="J161"/>
+      <c r="K161" t="n">
+        <v>255.781457588227</v>
+      </c>
+      <c r="L161" t="n">
+        <v>251.643239881563</v>
+      </c>
+      <c r="M161" t="n">
+        <v>251.643434771886</v>
+      </c>
+      <c r="N161" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K161"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -5817,10 +7275,19 @@
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
+      <c r="J162"/>
+      <c r="K162" t="n">
+        <v>255.942607830986</v>
+      </c>
+      <c r="L162" t="n">
+        <v>249.529445574894</v>
+      </c>
+      <c r="M162" t="n">
+        <v>249.529600630978</v>
+      </c>
+      <c r="N162" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K162"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -5848,10 +7315,19 @@
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
+      <c r="J163"/>
+      <c r="K163" t="n">
+        <v>256.104024172317</v>
+      </c>
+      <c r="L163" t="n">
+        <v>247.836178411262</v>
+      </c>
+      <c r="M163" t="n">
+        <v>247.836301774952</v>
+      </c>
+      <c r="N163" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K163"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -5879,10 +7355,19 @@
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
+      <c r="J164"/>
+      <c r="K164" t="n">
+        <v>256.265707147321</v>
+      </c>
+      <c r="L164" t="n">
+        <v>246.477466515575</v>
+      </c>
+      <c r="M164" t="n">
+        <v>246.477564664577</v>
+      </c>
+      <c r="N164" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K164"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -5910,10 +7395,19 @@
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
+      <c r="J165"/>
+      <c r="K165" t="n">
+        <v>256.427657214657</v>
+      </c>
+      <c r="L165" t="n">
+        <v>245.384910038702</v>
+      </c>
+      <c r="M165" t="n">
+        <v>245.384988126724</v>
+      </c>
+      <c r="N165" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K165"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -5941,10 +7435,19 @@
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
+      <c r="J166"/>
+      <c r="K166" t="n">
+        <v>256.589874680098</v>
+      </c>
+      <c r="L166" t="n">
+        <v>244.504089567401</v>
+      </c>
+      <c r="M166" t="n">
+        <v>244.50415169477</v>
+      </c>
+      <c r="N166" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K166"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -5972,10 +7475,19 @@
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
+      <c r="J167"/>
+      <c r="K167" t="n">
+        <v>256.752360078746</v>
+      </c>
+      <c r="L167" t="n">
+        <v>243.791708603219</v>
+      </c>
+      <c r="M167" t="n">
+        <v>243.791758032181</v>
+      </c>
+      <c r="N167" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K167"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -6003,10 +7515,19 @@
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
+      <c r="J168"/>
+      <c r="K168" t="n">
+        <v>256.91511386926</v>
+      </c>
+      <c r="L168" t="n">
+        <v>243.213320120828</v>
+      </c>
+      <c r="M168" t="n">
+        <v>243.213359446852</v>
+      </c>
+      <c r="N168" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K168"/>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -6034,10 +7555,19 @@
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
+      <c r="J169"/>
+      <c r="K169" t="n">
+        <v>257.078136433855</v>
+      </c>
+      <c r="L169" t="n">
+        <v>242.741517802176</v>
+      </c>
+      <c r="M169" t="n">
+        <v>242.741549090231</v>
+      </c>
+      <c r="N169" t="n">
         <v>253.000576098195</v>
       </c>
-      <c r="K169"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -6065,10 +7595,19 @@
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
+      <c r="J170"/>
+      <c r="K170" t="n">
+        <v>260.761257896831</v>
+      </c>
+      <c r="L170" t="n">
+        <v>242.964306698474</v>
+      </c>
+      <c r="M170" t="n">
+        <v>242.964331591466</v>
+      </c>
+      <c r="N170" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K170"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -6096,10 +7635,19 @@
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
+      <c r="J171"/>
+      <c r="K171" t="n">
+        <v>260.924819385565</v>
+      </c>
+      <c r="L171" t="n">
+        <v>243.129888169693</v>
+      </c>
+      <c r="M171" t="n">
+        <v>243.129907974729</v>
+      </c>
+      <c r="N171" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K171"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -6127,10 +7675,19 @@
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
+      <c r="J172"/>
+      <c r="K172" t="n">
+        <v>261.088651024358</v>
+      </c>
+      <c r="L172" t="n">
+        <v>243.249935742682</v>
+      </c>
+      <c r="M172" t="n">
+        <v>243.249951499705</v>
+      </c>
+      <c r="N172" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K172"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -6158,10 +7715,19 @@
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
+      <c r="J173"/>
+      <c r="K173" t="n">
+        <v>261.252753271866</v>
+      </c>
+      <c r="L173" t="n">
+        <v>243.333736923136</v>
+      </c>
+      <c r="M173" t="n">
+        <v>243.333749459533</v>
+      </c>
+      <c r="N173" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K173"/>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -6189,10 +7755,19 @@
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
+      <c r="J174"/>
+      <c r="K174" t="n">
+        <v>261.417126510308</v>
+      </c>
+      <c r="L174" t="n">
+        <v>243.388680887331</v>
+      </c>
+      <c r="M174" t="n">
+        <v>243.388690861374</v>
+      </c>
+      <c r="N174" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K174"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -6220,10 +7795,19 @@
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
+      <c r="J175"/>
+      <c r="K175" t="n">
+        <v>261.58177119834</v>
+      </c>
+      <c r="L175" t="n">
+        <v>243.420646482113</v>
+      </c>
+      <c r="M175" t="n">
+        <v>243.42065441753</v>
+      </c>
+      <c r="N175" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K175"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -6251,10 +7835,19 @@
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
+      <c r="J176"/>
+      <c r="K176" t="n">
+        <v>261.746687871066</v>
+      </c>
+      <c r="L176" t="n">
+        <v>243.434310920372</v>
+      </c>
+      <c r="M176" t="n">
+        <v>243.434317233845</v>
+      </c>
+      <c r="N176" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K176"/>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -6282,10 +7875,19 @@
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
+      <c r="J177"/>
+      <c r="K177" t="n">
+        <v>261.911876910701</v>
+      </c>
+      <c r="L177" t="n">
+        <v>243.433395397652</v>
+      </c>
+      <c r="M177" t="n">
+        <v>243.433400420694</v>
+      </c>
+      <c r="N177" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K177"/>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -6313,10 +7915,19 @@
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
+      <c r="J178"/>
+      <c r="K178" t="n">
+        <v>262.07733869946</v>
+      </c>
+      <c r="L178" t="n">
+        <v>243.420860495499</v>
+      </c>
+      <c r="M178" t="n">
+        <v>243.420864491866</v>
+      </c>
+      <c r="N178" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K178"/>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -6344,10 +7955,19 @@
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
+      <c r="J179"/>
+      <c r="K179" t="n">
+        <v>262.243073848889</v>
+      </c>
+      <c r="L179" t="n">
+        <v>243.399061629363</v>
+      </c>
+      <c r="M179" t="n">
+        <v>243.399064808901</v>
+      </c>
+      <c r="N179" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K179"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -6375,10 +7995,19 @@
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
+      <c r="J180"/>
+      <c r="K180" t="n">
+        <v>262.409082664761</v>
+      </c>
+      <c r="L180" t="n">
+        <v>243.369872762194</v>
+      </c>
+      <c r="M180" t="n">
+        <v>243.369875291856</v>
+      </c>
+      <c r="N180" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K180"/>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -6406,10 +8035,19 @@
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
+      <c r="J181"/>
+      <c r="K181" t="n">
+        <v>262.575365682177</v>
+      </c>
+      <c r="L181" t="n">
+        <v>243.334784793648</v>
+      </c>
+      <c r="M181" t="n">
+        <v>243.334786806264</v>
+      </c>
+      <c r="N181" t="n">
         <v>256.173825740355</v>
       </c>
-      <c r="K181"/>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -6437,10 +8075,19 @@
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
+      <c r="J182"/>
+      <c r="K182" t="n">
+        <v>266.33918926104</v>
+      </c>
+      <c r="L182" t="n">
+        <v>243.918209412175</v>
+      </c>
+      <c r="M182" t="n">
+        <v>243.918211013427</v>
+      </c>
+      <c r="N182" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K182"/>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -6468,10 +8115,19 @@
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
+      <c r="J183"/>
+      <c r="K183" t="n">
+        <v>266.506021981078</v>
+      </c>
+      <c r="L183" t="n">
+        <v>244.370481731429</v>
+      </c>
+      <c r="M183" t="n">
+        <v>244.370483005396</v>
+      </c>
+      <c r="N183" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K183"/>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -6499,10 +8155,19 @@
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
+      <c r="J184"/>
+      <c r="K184" t="n">
+        <v>266.673130202194</v>
+      </c>
+      <c r="L184" t="n">
+        <v>244.718388719044</v>
+      </c>
+      <c r="M184" t="n">
+        <v>244.718389732621</v>
+      </c>
+      <c r="N184" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K184"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -6530,10 +8195,19 @@
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
+      <c r="J185"/>
+      <c r="K185" t="n">
+        <v>266.840514459489</v>
+      </c>
+      <c r="L185" t="n">
+        <v>244.983242232924</v>
+      </c>
+      <c r="M185" t="n">
+        <v>244.983243039333</v>
+      </c>
+      <c r="N185" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K185"/>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -6561,10 +8235,19 @@
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
+      <c r="J186"/>
+      <c r="K186" t="n">
+        <v>267.008175211623</v>
+      </c>
+      <c r="L186" t="n">
+        <v>245.181998101383</v>
+      </c>
+      <c r="M186" t="n">
+        <v>245.181998742967</v>
+      </c>
+      <c r="N186" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K186"/>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -6592,10 +8275,19 @@
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
+      <c r="J187"/>
+      <c r="K187" t="n">
+        <v>267.176112840811</v>
+      </c>
+      <c r="L187" t="n">
+        <v>245.328146471028</v>
+      </c>
+      <c r="M187" t="n">
+        <v>245.328146981476</v>
+      </c>
+      <c r="N187" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K187"/>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -6623,10 +8315,19 @@
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
+      <c r="J188"/>
+      <c r="K188" t="n">
+        <v>267.344327805712</v>
+      </c>
+      <c r="L188" t="n">
+        <v>245.432420162753</v>
+      </c>
+      <c r="M188" t="n">
+        <v>245.432420568869</v>
+      </c>
+      <c r="N188" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K188"/>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -6654,10 +8355,19 @@
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
+      <c r="J189"/>
+      <c r="K189" t="n">
+        <v>267.512820564985</v>
+      </c>
+      <c r="L189" t="n">
+        <v>245.503358250112</v>
+      </c>
+      <c r="M189" t="n">
+        <v>245.503358573222</v>
+      </c>
+      <c r="N189" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K189"/>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -6685,10 +8395,19 @@
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
+      <c r="J190"/>
+      <c r="K190" t="n">
+        <v>267.681591653731</v>
+      </c>
+      <c r="L190" t="n">
+        <v>245.547754440702</v>
+      </c>
+      <c r="M190" t="n">
+        <v>245.54775469777</v>
+      </c>
+      <c r="N190" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K190"/>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -6716,10 +8435,19 @@
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
+      <c r="J191"/>
+      <c r="K191" t="n">
+        <v>267.850641454168</v>
+      </c>
+      <c r="L191" t="n">
+        <v>245.571013827837</v>
+      </c>
+      <c r="M191" t="n">
+        <v>245.571014032362</v>
+      </c>
+      <c r="N191" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K191"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -6747,10 +8475,19 @@
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
+      <c r="J192"/>
+      <c r="K192" t="n">
+        <v>268.019970501396</v>
+      </c>
+      <c r="L192" t="n">
+        <v>245.577436702835</v>
+      </c>
+      <c r="M192" t="n">
+        <v>245.577436865556</v>
+      </c>
+      <c r="N192" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K192"/>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -6778,10 +8515,19 @@
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
+      <c r="J193"/>
+      <c r="K193" t="n">
+        <v>268.189579177631</v>
+      </c>
+      <c r="L193" t="n">
+        <v>245.570444379832</v>
+      </c>
+      <c r="M193" t="n">
+        <v>245.570444509294</v>
+      </c>
+      <c r="N193" t="n">
         <v>259.416886874643</v>
       </c>
-      <c r="K193"/>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -6809,10 +8555,19 @@
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
+      <c r="J194"/>
+      <c r="K194" t="n">
+        <v>272.035873683941</v>
+      </c>
+      <c r="L194" t="n">
+        <v>246.189695359039</v>
+      </c>
+      <c r="M194" t="n">
+        <v>246.18969546204</v>
+      </c>
+      <c r="N194" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K194"/>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -6840,10 +8595,19 @@
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
+      <c r="J195"/>
+      <c r="K195" t="n">
+        <v>272.206043070611</v>
+      </c>
+      <c r="L195" t="n">
+        <v>246.670233290344</v>
+      </c>
+      <c r="M195" t="n">
+        <v>246.670233372292</v>
+      </c>
+      <c r="N195" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K195"/>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -6871,10 +8635,19 @@
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
+      <c r="J196"/>
+      <c r="K196" t="n">
+        <v>272.376493538707</v>
+      </c>
+      <c r="L196" t="n">
+        <v>247.040390108102</v>
+      </c>
+      <c r="M196" t="n">
+        <v>247.040390173301</v>
+      </c>
+      <c r="N196" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K196"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -6902,10 +8675,19 @@
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
+      <c r="J197"/>
+      <c r="K197" t="n">
+        <v>272.547225470446</v>
+      </c>
+      <c r="L197" t="n">
+        <v>247.322706867299</v>
+      </c>
+      <c r="M197" t="n">
+        <v>247.322706919172</v>
+      </c>
+      <c r="N197" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K197"/>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -6933,10 +8715,19 @@
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
+      <c r="J198"/>
+      <c r="K198" t="n">
+        <v>272.71823940093</v>
+      </c>
+      <c r="L198" t="n">
+        <v>247.535117348465</v>
+      </c>
+      <c r="M198" t="n">
+        <v>247.535117389735</v>
+      </c>
+      <c r="N198" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K198"/>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -6964,10 +8755,19 @@
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
+      <c r="J199"/>
+      <c r="K199" t="n">
+        <v>272.889535788817</v>
+      </c>
+      <c r="L199" t="n">
+        <v>247.691889758273</v>
+      </c>
+      <c r="M199" t="n">
+        <v>247.691889791108</v>
+      </c>
+      <c r="N199" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K199"/>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -6995,10 +8795,19 @@
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
+      <c r="J200"/>
+      <c r="K200" t="n">
+        <v>273.061115016323</v>
+      </c>
+      <c r="L200" t="n">
+        <v>247.804375953029</v>
+      </c>
+      <c r="M200" t="n">
+        <v>247.804375979153</v>
+      </c>
+      <c r="N200" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K200"/>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -7026,10 +8835,19 @@
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
+      <c r="J201"/>
+      <c r="K201" t="n">
+        <v>273.232977694994</v>
+      </c>
+      <c r="L201" t="n">
+        <v>247.881607504214</v>
+      </c>
+      <c r="M201" t="n">
+        <v>247.881607524998</v>
+      </c>
+      <c r="N201" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K201"/>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -7057,10 +8875,19 @@
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
+      <c r="J202"/>
+      <c r="K202" t="n">
+        <v>273.405124207045</v>
+      </c>
+      <c r="L202" t="n">
+        <v>247.930769965079</v>
+      </c>
+      <c r="M202" t="n">
+        <v>247.930769981615</v>
+      </c>
+      <c r="N202" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K202"/>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -7088,10 +8915,19 @@
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
+      <c r="J203"/>
+      <c r="K203" t="n">
+        <v>273.577555011134</v>
+      </c>
+      <c r="L203" t="n">
+        <v>247.957580178591</v>
+      </c>
+      <c r="M203" t="n">
+        <v>247.957580191747</v>
+      </c>
+      <c r="N203" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K203"/>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -7119,10 +8955,19 @@
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
+      <c r="J204"/>
+      <c r="K204" t="n">
+        <v>273.750270565921</v>
+      </c>
+      <c r="L204" t="n">
+        <v>247.96658647169</v>
+      </c>
+      <c r="M204" t="n">
+        <v>247.966586482157</v>
+      </c>
+      <c r="N204" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K204"/>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -7150,10 +8995,19 @@
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
+      <c r="J205"/>
+      <c r="K205" t="n">
+        <v>273.923271406508</v>
+      </c>
+      <c r="L205" t="n">
+        <v>247.961407486458</v>
+      </c>
+      <c r="M205" t="n">
+        <v>247.961407494785</v>
+      </c>
+      <c r="N205" t="n">
         <v>262.731295353885</v>
       </c>
-      <c r="K205"/>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -7181,10 +9035,19 @@
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
+      <c r="J206"/>
+      <c r="K206" t="n">
+        <v>277.85384467052</v>
+      </c>
+      <c r="L206" t="n">
+        <v>248.59587132365</v>
+      </c>
+      <c r="M206" t="n">
+        <v>248.595871330275</v>
+      </c>
+      <c r="N206" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K206"/>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -7212,10 +9075,19 @@
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
+      <c r="J207"/>
+      <c r="K207" t="n">
+        <v>278.027417458683</v>
+      </c>
+      <c r="L207" t="n">
+        <v>249.088269860322</v>
+      </c>
+      <c r="M207" t="n">
+        <v>249.088269865593</v>
+      </c>
+      <c r="N207" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K207"/>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -7243,10 +9115,19 @@
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
+      <c r="J208"/>
+      <c r="K208" t="n">
+        <v>278.201276908622</v>
+      </c>
+      <c r="L208" t="n">
+        <v>249.467619809974</v>
+      </c>
+      <c r="M208" t="n">
+        <v>249.467619814168</v>
+      </c>
+      <c r="N208" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K208"/>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -7274,10 +9155,19 @@
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
+      <c r="J209"/>
+      <c r="K209" t="n">
+        <v>278.375423478996</v>
+      </c>
+      <c r="L209" t="n">
+        <v>249.757007037143</v>
+      </c>
+      <c r="M209" t="n">
+        <v>249.75700704048</v>
+      </c>
+      <c r="N209" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K209"/>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -7305,10 +9195,19 @@
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
+      <c r="J210"/>
+      <c r="K210" t="n">
+        <v>278.549857704906</v>
+      </c>
+      <c r="L210" t="n">
+        <v>249.974798776594</v>
+      </c>
+      <c r="M210" t="n">
+        <v>249.974798779249</v>
+      </c>
+      <c r="N210" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K210"/>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -7336,10 +9235,19 @@
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
+      <c r="J211"/>
+      <c r="K211" t="n">
+        <v>278.72457996857</v>
+      </c>
+      <c r="L211" t="n">
+        <v>250.135608099634</v>
+      </c>
+      <c r="M211" t="n">
+        <v>250.135608101746</v>
+      </c>
+      <c r="N211" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K211"/>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -7367,10 +9275,19 @@
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
+      <c r="J212"/>
+      <c r="K212" t="n">
+        <v>278.899590881531</v>
+      </c>
+      <c r="L212" t="n">
+        <v>250.25106122288</v>
+      </c>
+      <c r="M212" t="n">
+        <v>250.25106122456</v>
+      </c>
+      <c r="N212" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K212"/>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -7398,10 +9315,19 @@
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
+      <c r="J213"/>
+      <c r="K213" t="n">
+        <v>279.074890749563</v>
+      </c>
+      <c r="L213" t="n">
+        <v>250.33040802259</v>
+      </c>
+      <c r="M213" t="n">
+        <v>250.330408023927</v>
+      </c>
+      <c r="N213" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K213"/>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -7429,10 +9355,19 @@
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
+      <c r="J214"/>
+      <c r="K214" t="n">
+        <v>279.25048018421</v>
+      </c>
+      <c r="L214" t="n">
+        <v>250.381007720435</v>
+      </c>
+      <c r="M214" t="n">
+        <v>250.381007721499</v>
+      </c>
+      <c r="N214" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K214"/>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -7460,10 +9395,19 @@
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
+      <c r="J215"/>
+      <c r="K215" t="n">
+        <v>279.426359644132</v>
+      </c>
+      <c r="L215" t="n">
+        <v>250.408715331173</v>
+      </c>
+      <c r="M215" t="n">
+        <v>250.40871533202</v>
+      </c>
+      <c r="N215" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K215"/>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -7491,10 +9435,19 @@
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
+      <c r="J216"/>
+      <c r="K216" t="n">
+        <v>279.602529511544</v>
+      </c>
+      <c r="L216" t="n">
+        <v>250.418189117631</v>
+      </c>
+      <c r="M216" t="n">
+        <v>250.418189118304</v>
+      </c>
+      <c r="N216" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K216"/>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -7522,10 +9475,19 @@
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
+      <c r="J217"/>
+      <c r="K217" t="n">
+        <v>279.778990397991</v>
+      </c>
+      <c r="L217" t="n">
+        <v>250.413135182182</v>
+      </c>
+      <c r="M217" t="n">
+        <v>250.413135182718</v>
+      </c>
+      <c r="N217" t="n">
         <v>266.11862081967</v>
       </c>
-      <c r="K217"/>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -7553,10 +9515,19 @@
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
+      <c r="J218"/>
+      <c r="K218" t="n">
+        <v>283.795689677151</v>
+      </c>
+      <c r="L218" t="n">
+        <v>251.061772096345</v>
+      </c>
+      <c r="M218" t="n">
+        <v>251.061772096771</v>
+      </c>
+      <c r="N218" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K218"/>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -7584,10 +9555,19 @@
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
+      <c r="J219"/>
+      <c r="K219" t="n">
+        <v>283.972733901202</v>
+      </c>
+      <c r="L219" t="n">
+        <v>251.565199126857</v>
+      </c>
+      <c r="M219" t="n">
+        <v>251.565199127196</v>
+      </c>
+      <c r="N219" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K219"/>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -7615,10 +9595,19 @@
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
+      <c r="J220"/>
+      <c r="K220" t="n">
+        <v>284.150070520264</v>
+      </c>
+      <c r="L220" t="n">
+        <v>251.953075309241</v>
+      </c>
+      <c r="M220" t="n">
+        <v>251.953075309511</v>
+      </c>
+      <c r="N220" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K220"/>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -7646,10 +9635,19 @@
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
+      <c r="J221"/>
+      <c r="K221" t="n">
+        <v>284.32770006944</v>
+      </c>
+      <c r="L221" t="n">
+        <v>252.248997538408</v>
+      </c>
+      <c r="M221" t="n">
+        <v>252.248997538622</v>
+      </c>
+      <c r="N221" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K221"/>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -7677,10 +9675,19 @@
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
+      <c r="J222"/>
+      <c r="K222" t="n">
+        <v>284.505622930946</v>
+      </c>
+      <c r="L222" t="n">
+        <v>252.47173963932</v>
+      </c>
+      <c r="M222" t="n">
+        <v>252.471739639491</v>
+      </c>
+      <c r="N222" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K222"/>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -7708,10 +9715,19 @@
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
+      <c r="J223"/>
+      <c r="K223" t="n">
+        <v>284.683839639882</v>
+      </c>
+      <c r="L223" t="n">
+        <v>252.636238158339</v>
+      </c>
+      <c r="M223" t="n">
+        <v>252.636238158475</v>
+      </c>
+      <c r="N223" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K223"/>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -7739,10 +9755,19 @@
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
+      <c r="J224"/>
+      <c r="K224" t="n">
+        <v>284.862350731353</v>
+      </c>
+      <c r="L224" t="n">
+        <v>252.754376676519</v>
+      </c>
+      <c r="M224" t="n">
+        <v>252.754376676627</v>
+      </c>
+      <c r="N224" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K224"/>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -7770,10 +9795,19 @@
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
+      <c r="J225"/>
+      <c r="K225" t="n">
+        <v>285.041156664015</v>
+      </c>
+      <c r="L225" t="n">
+        <v>252.83560982013</v>
+      </c>
+      <c r="M225" t="n">
+        <v>252.835609820216</v>
+      </c>
+      <c r="N225" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K225"/>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -7801,10 +9835,19 @@
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
+      <c r="J226"/>
+      <c r="K226" t="n">
+        <v>285.220257896528</v>
+      </c>
+      <c r="L226" t="n">
+        <v>252.887459722271</v>
+      </c>
+      <c r="M226" t="n">
+        <v>252.88745972234</v>
+      </c>
+      <c r="N226" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K226"/>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -7832,10 +9875,19 @@
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
+      <c r="J227"/>
+      <c r="K227" t="n">
+        <v>285.399654887552</v>
+      </c>
+      <c r="L227" t="n">
+        <v>252.915911011158</v>
+      </c>
+      <c r="M227" t="n">
+        <v>252.915911011212</v>
+      </c>
+      <c r="N227" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K227"/>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -7863,10 +9915,19 @@
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
+      <c r="J228"/>
+      <c r="K228" t="n">
+        <v>285.579348172187</v>
+      </c>
+      <c r="L228" t="n">
+        <v>252.925725060066</v>
+      </c>
+      <c r="M228" t="n">
+        <v>252.925725060109</v>
+      </c>
+      <c r="N228" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K228"/>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -7894,10 +9955,19 @@
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
+      <c r="J229"/>
+      <c r="K229" t="n">
+        <v>285.759338285536</v>
+      </c>
+      <c r="L229" t="n">
+        <v>252.920690012208</v>
+      </c>
+      <c r="M229" t="n">
+        <v>252.920690012242</v>
+      </c>
+      <c r="N229" t="n">
         <v>269.580467445703</v>
       </c>
-      <c r="K229"/>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -7925,10 +9995,19 @@
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="n">
+      <c r="J230"/>
+      <c r="K230" t="n">
+        <v>289.86405141166</v>
+      </c>
+      <c r="L230" t="n">
+        <v>253.583725647722</v>
+      </c>
+      <c r="M230" t="n">
+        <v>253.583725647749</v>
+      </c>
+      <c r="N230" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K230"/>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -7956,10 +10035,19 @@
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="n">
+      <c r="J231"/>
+      <c r="K231" t="n">
+        <v>290.044636558414</v>
+      </c>
+      <c r="L231" t="n">
+        <v>254.098355738074</v>
+      </c>
+      <c r="M231" t="n">
+        <v>254.098355738096</v>
+      </c>
+      <c r="N231" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K231"/>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -7987,10 +10075,19 @@
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="n">
+      <c r="J232"/>
+      <c r="K232" t="n">
+        <v>290.225519909857</v>
+      </c>
+      <c r="L232" t="n">
+        <v>254.494892075426</v>
+      </c>
+      <c r="M232" t="n">
+        <v>254.494892075443</v>
+      </c>
+      <c r="N232" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K232"/>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -8018,10 +10115,19 @@
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
+      <c r="J233"/>
+      <c r="K233" t="n">
+        <v>290.406702001093</v>
+      </c>
+      <c r="L233" t="n">
+        <v>254.797450892366</v>
+      </c>
+      <c r="M233" t="n">
+        <v>254.79745089238</v>
+      </c>
+      <c r="N233" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K233"/>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -8049,10 +10155,19 @@
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
+      <c r="J234"/>
+      <c r="K234" t="n">
+        <v>290.588183367224</v>
+      </c>
+      <c r="L234" t="n">
+        <v>255.025219191587</v>
+      </c>
+      <c r="M234" t="n">
+        <v>255.025219191598</v>
+      </c>
+      <c r="N234" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K234"/>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -8080,10 +10195,19 @@
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
+      <c r="J235"/>
+      <c r="K235" t="n">
+        <v>290.769964466907</v>
+      </c>
+      <c r="L235" t="n">
+        <v>255.193462251952</v>
+      </c>
+      <c r="M235" t="n">
+        <v>255.193462251961</v>
+      </c>
+      <c r="N235" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K235"/>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -8111,10 +10235,19 @@
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
+      <c r="J236"/>
+      <c r="K236" t="n">
+        <v>290.952045758803</v>
+      </c>
+      <c r="L236" t="n">
+        <v>255.314325201817</v>
+      </c>
+      <c r="M236" t="n">
+        <v>255.314325201824</v>
+      </c>
+      <c r="N236" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K236"/>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -8142,10 +10275,19 @@
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="n">
+      <c r="J237"/>
+      <c r="K237" t="n">
+        <v>291.134427778012</v>
+      </c>
+      <c r="L237" t="n">
+        <v>255.397470750831</v>
+      </c>
+      <c r="M237" t="n">
+        <v>255.397470750837</v>
+      </c>
+      <c r="N237" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K237"/>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -8173,10 +10315,19 @@
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
+      <c r="J238"/>
+      <c r="K238" t="n">
+        <v>291.317110983194</v>
+      </c>
+      <c r="L238" t="n">
+        <v>255.450586584666</v>
+      </c>
+      <c r="M238" t="n">
+        <v>255.45058658467</v>
+      </c>
+      <c r="N238" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K238"/>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -8204,10 +10355,19 @@
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="n">
+      <c r="J239"/>
+      <c r="K239" t="n">
+        <v>291.500095985895</v>
+      </c>
+      <c r="L239" t="n">
+        <v>255.479789035393</v>
+      </c>
+      <c r="M239" t="n">
+        <v>255.479789035396</v>
+      </c>
+      <c r="N239" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K239"/>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -8235,10 +10395,19 @@
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="n">
+      <c r="J240"/>
+      <c r="K240" t="n">
+        <v>291.683383091886</v>
+      </c>
+      <c r="L240" t="n">
+        <v>255.489944277149</v>
+      </c>
+      <c r="M240" t="n">
+        <v>255.489944277152</v>
+      </c>
+      <c r="N240" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K240"/>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -8266,10 +10435,19 @@
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="n">
+      <c r="J241"/>
+      <c r="K241" t="n">
+        <v>291.866972989155</v>
+      </c>
+      <c r="L241" t="n">
+        <v>255.484923822526</v>
+      </c>
+      <c r="M241" t="n">
+        <v>255.484923822529</v>
+      </c>
+      <c r="N241" t="n">
         <v>273.118474697509</v>
       </c>
-      <c r="K241"/>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -8297,10 +10475,19 @@
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="n">
+      <c r="J242"/>
+      <c r="K242" t="n">
+        <v>296.061629333094</v>
+      </c>
+      <c r="L242" t="n">
+        <v>256.162671710323</v>
+      </c>
+      <c r="M242" t="n">
+        <v>256.162671710325</v>
+      </c>
+      <c r="N242" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K242"/>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -8328,10 +10515,19 @@
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="n">
+      <c r="J243"/>
+      <c r="K243" t="n">
+        <v>296.245826112454</v>
+      </c>
+      <c r="L243" t="n">
+        <v>256.68874926239</v>
+      </c>
+      <c r="M243" t="n">
+        <v>256.688749262392</v>
+      </c>
+      <c r="N243" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K243"/>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -8359,10 +10555,19 @@
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="n">
+      <c r="J244"/>
+      <c r="K244" t="n">
+        <v>296.430327135513</v>
+      </c>
+      <c r="L244" t="n">
+        <v>257.094135140664</v>
+      </c>
+      <c r="M244" t="n">
+        <v>257.094135140665</v>
+      </c>
+      <c r="N244" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K244"/>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -8390,10 +10595,19 @@
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="n">
+      <c r="J245"/>
+      <c r="K245" t="n">
+        <v>296.615132937373</v>
+      </c>
+      <c r="L245" t="n">
+        <v>257.403476143924</v>
+      </c>
+      <c r="M245" t="n">
+        <v>257.403476143925</v>
+      </c>
+      <c r="N245" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K245"/>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -8421,10 +10635,19 @@
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="n">
+      <c r="J246"/>
+      <c r="K246" t="n">
+        <v>296.800243900249</v>
+      </c>
+      <c r="L246" t="n">
+        <v>257.636381407892</v>
+      </c>
+      <c r="M246" t="n">
+        <v>257.636381407892</v>
+      </c>
+      <c r="N246" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K246"/>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -8452,10 +10675,19 @@
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="n">
+      <c r="J247"/>
+      <c r="K247" t="n">
+        <v>296.985660559242</v>
+      </c>
+      <c r="L247" t="n">
+        <v>257.808452057921</v>
+      </c>
+      <c r="M247" t="n">
+        <v>257.808452057921</v>
+      </c>
+      <c r="N247" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K247"/>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -8483,10 +10715,19 @@
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="n">
+      <c r="J248"/>
+      <c r="K248" t="n">
+        <v>297.171383525899</v>
+      </c>
+      <c r="L248" t="n">
+        <v>257.932100413241</v>
+      </c>
+      <c r="M248" t="n">
+        <v>257.932100413242</v>
+      </c>
+      <c r="N248" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K248"/>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -8514,10 +10755,19 @@
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="n">
+      <c r="J249"/>
+      <c r="K249" t="n">
+        <v>297.357413182435</v>
+      </c>
+      <c r="L249" t="n">
+        <v>258.017201773314</v>
+      </c>
+      <c r="M249" t="n">
+        <v>258.017201773314</v>
+      </c>
+      <c r="N249" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K249"/>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -8545,10 +10795,19 @@
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="n">
+      <c r="J250"/>
+      <c r="K250" t="n">
+        <v>297.543750063952</v>
+      </c>
+      <c r="L250" t="n">
+        <v>258.071612956273</v>
+      </c>
+      <c r="M250" t="n">
+        <v>258.071612956273</v>
+      </c>
+      <c r="N250" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K250"/>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -8576,10 +10835,19 @@
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="n">
+      <c r="J251"/>
+      <c r="K251" t="n">
+        <v>297.730394705552</v>
+      </c>
+      <c r="L251" t="n">
+        <v>258.101584862601</v>
+      </c>
+      <c r="M251" t="n">
+        <v>258.101584862601</v>
+      </c>
+      <c r="N251" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K251"/>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -8607,10 +10875,19 @@
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="n">
+      <c r="J252"/>
+      <c r="K252" t="n">
+        <v>297.917347642337</v>
+      </c>
+      <c r="L252" t="n">
+        <v>258.112090713622</v>
+      </c>
+      <c r="M252" t="n">
+        <v>258.112090713622</v>
+      </c>
+      <c r="N252" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K252"/>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -8638,10 +10915,19 @@
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="n">
+      <c r="J253"/>
+      <c r="K253" t="n">
+        <v>298.104609332965</v>
+      </c>
+      <c r="L253" t="n">
+        <v>258.107087205776</v>
+      </c>
+      <c r="M253" t="n">
+        <v>258.107087205776</v>
+      </c>
+      <c r="N253" t="n">
         <v>276.734318108854</v>
       </c>
-      <c r="K253"/>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -8669,10 +10955,19 @@
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="n">
+      <c r="J254"/>
+      <c r="K254" t="n">
+        <v>302.391180280168</v>
+      </c>
+      <c r="L254" t="n">
+        <v>258.799873147409</v>
+      </c>
+      <c r="M254" t="n">
+        <v>258.799873147409</v>
+      </c>
+      <c r="N254" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K254"/>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -8700,10 +10995,19 @@
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="n">
+      <c r="J255"/>
+      <c r="K255" t="n">
+        <v>302.579061007347</v>
+      </c>
+      <c r="L255" t="n">
+        <v>259.337652211109</v>
+      </c>
+      <c r="M255" t="n">
+        <v>259.337652211109</v>
+      </c>
+      <c r="N255" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K255"/>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -8731,10 +11035,19 @@
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="n">
+      <c r="J256"/>
+      <c r="K256" t="n">
+        <v>302.767252017232</v>
+      </c>
+      <c r="L256" t="n">
+        <v>259.752084594127</v>
+      </c>
+      <c r="M256" t="n">
+        <v>259.752084594127</v>
+      </c>
+      <c r="N256" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K256"/>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -8762,10 +11075,19 @@
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="n">
+      <c r="J257"/>
+      <c r="K257" t="n">
+        <v>302.955753921369</v>
+      </c>
+      <c r="L257" t="n">
+        <v>260.068359323986</v>
+      </c>
+      <c r="M257" t="n">
+        <v>260.068359323986</v>
+      </c>
+      <c r="N257" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K257"/>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -8793,10 +11115,19 @@
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="n">
+      <c r="J258"/>
+      <c r="K258" t="n">
+        <v>303.144567101973</v>
+      </c>
+      <c r="L258" t="n">
+        <v>260.306516937327</v>
+      </c>
+      <c r="M258" t="n">
+        <v>260.306516937327</v>
+      </c>
+      <c r="N258" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K258"/>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -8824,10 +11155,19 @@
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="n">
+      <c r="J259"/>
+      <c r="K259" t="n">
+        <v>303.333692094147</v>
+      </c>
+      <c r="L259" t="n">
+        <v>260.482501785054</v>
+      </c>
+      <c r="M259" t="n">
+        <v>260.482501785054</v>
+      </c>
+      <c r="N259" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K259"/>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -8855,10 +11195,19 @@
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="n">
+      <c r="J260"/>
+      <c r="K260" t="n">
+        <v>303.523129509435</v>
+      </c>
+      <c r="L260" t="n">
+        <v>260.608999259009</v>
+      </c>
+      <c r="M260" t="n">
+        <v>260.608999259009</v>
+      </c>
+      <c r="N260" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K260"/>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -8886,10 +11235,19 @@
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="n">
+      <c r="J261"/>
+      <c r="K261" t="n">
+        <v>303.712879806497</v>
+      </c>
+      <c r="L261" t="n">
+        <v>260.696101911649</v>
+      </c>
+      <c r="M261" t="n">
+        <v>260.696101911649</v>
+      </c>
+      <c r="N261" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K261"/>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -8917,10 +11275,19 @@
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="n">
+      <c r="J262"/>
+      <c r="K262" t="n">
+        <v>303.90294344399</v>
+      </c>
+      <c r="L262" t="n">
+        <v>260.751839414547</v>
+      </c>
+      <c r="M262" t="n">
+        <v>260.751839414547</v>
+      </c>
+      <c r="N262" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K262"/>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -8948,10 +11315,19 @@
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="n">
+      <c r="J263"/>
+      <c r="K263" t="n">
+        <v>304.093320957018</v>
+      </c>
+      <c r="L263" t="n">
+        <v>260.782600191569</v>
+      </c>
+      <c r="M263" t="n">
+        <v>260.782600191569</v>
+      </c>
+      <c r="N263" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K263"/>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -8979,10 +11355,19 @@
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="n">
+      <c r="J264"/>
+      <c r="K264" t="n">
+        <v>304.284012957125</v>
+      </c>
+      <c r="L264" t="n">
+        <v>260.793466873141</v>
+      </c>
+      <c r="M264" t="n">
+        <v>260.793466873141</v>
+      </c>
+      <c r="N264" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K264"/>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -9010,10 +11395,19 @@
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="n">
+      <c r="J265"/>
+      <c r="K265" t="n">
+        <v>304.475019826527</v>
+      </c>
+      <c r="L265" t="n">
+        <v>260.788483207788</v>
+      </c>
+      <c r="M265" t="n">
+        <v>260.788483207788</v>
+      </c>
+      <c r="N265" t="n">
         <v>280.429710075249</v>
       </c>
-      <c r="K265"/>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -9041,10 +11435,19 @@
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="n">
+      <c r="J266"/>
+      <c r="K266" t="n">
+        <v>308.855520231831</v>
+      </c>
+      <c r="L266" t="n">
+        <v>261.496640572941</v>
+      </c>
+      <c r="M266" t="n">
+        <v>261.496640572941</v>
+      </c>
+      <c r="N266" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K266"/>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -9072,10 +11475,19 @@
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="n">
+      <c r="J267"/>
+      <c r="K267" t="n">
+        <v>309.047158598015</v>
+      </c>
+      <c r="L267" t="n">
+        <v>262.046381121266</v>
+      </c>
+      <c r="M267" t="n">
+        <v>262.046381121266</v>
+      </c>
+      <c r="N267" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K267"/>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -9103,10 +11515,19 @@
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="n">
+      <c r="J268"/>
+      <c r="K268" t="n">
+        <v>309.2391134388</v>
+      </c>
+      <c r="L268" t="n">
+        <v>262.470061576199</v>
+      </c>
+      <c r="M268" t="n">
+        <v>262.470061576199</v>
+      </c>
+      <c r="N268" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K268"/>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -9134,10 +11555,19 @@
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="n">
+      <c r="J269"/>
+      <c r="K269" t="n">
+        <v>309.431385365731</v>
+      </c>
+      <c r="L269" t="n">
+        <v>262.793425126296</v>
+      </c>
+      <c r="M269" t="n">
+        <v>262.793425126296</v>
+      </c>
+      <c r="N269" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K269"/>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -9165,10 +11595,19 @@
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="n">
+      <c r="J270"/>
+      <c r="K270" t="n">
+        <v>309.623974837467</v>
+      </c>
+      <c r="L270" t="n">
+        <v>263.036953197081</v>
+      </c>
+      <c r="M270" t="n">
+        <v>263.036953197081</v>
+      </c>
+      <c r="N270" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K270"/>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -9196,10 +11635,19 @@
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="n">
+      <c r="J271"/>
+      <c r="K271" t="n">
+        <v>309.816882312667</v>
+      </c>
+      <c r="L271" t="n">
+        <v>263.216940919148</v>
+      </c>
+      <c r="M271" t="n">
+        <v>263.216940919148</v>
+      </c>
+      <c r="N271" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K271"/>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -9227,10 +11675,19 @@
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="n">
+      <c r="J272"/>
+      <c r="K272" t="n">
+        <v>310.010108479318</v>
+      </c>
+      <c r="L272" t="n">
+        <v>263.346352761622</v>
+      </c>
+      <c r="M272" t="n">
+        <v>263.346352761622</v>
+      </c>
+      <c r="N272" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K272"/>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -9258,10 +11715,19 @@
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="n">
+      <c r="J273"/>
+      <c r="K273" t="n">
+        <v>310.203653719638</v>
+      </c>
+      <c r="L273" t="n">
+        <v>263.435503318225</v>
+      </c>
+      <c r="M273" t="n">
+        <v>263.435503318225</v>
+      </c>
+      <c r="N273" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K273"/>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -9289,10 +11755,19 @@
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="n">
+      <c r="J274"/>
+      <c r="K274" t="n">
+        <v>310.39751864517</v>
+      </c>
+      <c r="L274" t="n">
+        <v>263.492598907183</v>
+      </c>
+      <c r="M274" t="n">
+        <v>263.492598907183</v>
+      </c>
+      <c r="N274" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K274"/>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -9320,10 +11795,19 @@
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="n">
+      <c r="J275"/>
+      <c r="K275" t="n">
+        <v>310.591703714574</v>
+      </c>
+      <c r="L275" t="n">
+        <v>263.524168499109</v>
+      </c>
+      <c r="M275" t="n">
+        <v>263.524168499109</v>
+      </c>
+      <c r="N275" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K275"/>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -9351,10 +11835,19 @@
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="n">
+      <c r="J276"/>
+      <c r="K276" t="n">
+        <v>310.786209539394</v>
+      </c>
+      <c r="L276" t="n">
+        <v>263.535406544391</v>
+      </c>
+      <c r="M276" t="n">
+        <v>263.535406544391</v>
+      </c>
+      <c r="N276" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K276"/>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -9382,10 +11875,19 @@
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="n">
+      <c r="J277"/>
+      <c r="K277" t="n">
+        <v>310.98103657829</v>
+      </c>
+      <c r="L277" t="n">
+        <v>263.530445750833</v>
+      </c>
+      <c r="M277" t="n">
+        <v>263.530445750833</v>
+      </c>
+      <c r="N277" t="n">
         <v>284.206400664904</v>
       </c>
-      <c r="K277"/>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -9413,10 +11915,19 @@
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="n">
+      <c r="J278"/>
+      <c r="K278" t="n">
+        <v>315.457525316372</v>
+      </c>
+      <c r="L278" t="n">
+        <v>264.254315306822</v>
+      </c>
+      <c r="M278" t="n">
+        <v>264.254315306822</v>
+      </c>
+      <c r="N278" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K278"/>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -9444,10 +11955,19 @@
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="n">
+      <c r="J279"/>
+      <c r="K279" t="n">
+        <v>315.652996465168</v>
+      </c>
+      <c r="L279" t="n">
+        <v>264.816283094734</v>
+      </c>
+      <c r="M279" t="n">
+        <v>264.816283094734</v>
+      </c>
+      <c r="N279" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K279"/>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -9475,10 +11995,19 @@
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="n">
+      <c r="J280"/>
+      <c r="K280" t="n">
+        <v>315.848790433346</v>
+      </c>
+      <c r="L280" t="n">
+        <v>265.249417685289</v>
+      </c>
+      <c r="M280" t="n">
+        <v>265.249417685289</v>
+      </c>
+      <c r="N280" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K280"/>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -9506,10 +12035,19 @@
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="n">
+      <c r="J281"/>
+      <c r="K281" t="n">
+        <v>316.044907756007</v>
+      </c>
+      <c r="L281" t="n">
+        <v>265.580028623102</v>
+      </c>
+      <c r="M281" t="n">
+        <v>265.580028623102</v>
+      </c>
+      <c r="N281" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K281"/>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -9537,10 +12075,19 @@
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="n">
+      <c r="J282"/>
+      <c r="K282" t="n">
+        <v>316.241348968254</v>
+      </c>
+      <c r="L282" t="n">
+        <v>265.82904792503</v>
+      </c>
+      <c r="M282" t="n">
+        <v>265.82904792503</v>
+      </c>
+      <c r="N282" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K282"/>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -9568,10 +12115,19 @@
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="n">
+      <c r="J283"/>
+      <c r="K283" t="n">
+        <v>316.438114681632</v>
+      </c>
+      <c r="L283" t="n">
+        <v>266.013129204324</v>
+      </c>
+      <c r="M283" t="n">
+        <v>266.013129204324</v>
+      </c>
+      <c r="N283" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K283"/>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -9599,10 +12155,19 @@
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="n">
+      <c r="J284"/>
+      <c r="K284" t="n">
+        <v>316.635205354799</v>
+      </c>
+      <c r="L284" t="n">
+        <v>266.145522157747</v>
+      </c>
+      <c r="M284" t="n">
+        <v>266.145522157747</v>
+      </c>
+      <c r="N284" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K284"/>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -9630,10 +12195,19 @@
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="n">
+      <c r="J285"/>
+      <c r="K285" t="n">
+        <v>316.832621522858</v>
+      </c>
+      <c r="L285" t="n">
+        <v>266.236768297187</v>
+      </c>
+      <c r="M285" t="n">
+        <v>266.236768297187</v>
+      </c>
+      <c r="N285" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K285"/>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -9661,10 +12235,19 @@
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="n">
+      <c r="J286"/>
+      <c r="K286" t="n">
+        <v>317.03036372091</v>
+      </c>
+      <c r="L286" t="n">
+        <v>266.295254483981</v>
+      </c>
+      <c r="M286" t="n">
+        <v>266.295254483981</v>
+      </c>
+      <c r="N286" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K286"/>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -9692,10 +12275,19 @@
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="n">
+      <c r="J287"/>
+      <c r="K287" t="n">
+        <v>317.228432484058</v>
+      </c>
+      <c r="L287" t="n">
+        <v>266.327653324633</v>
+      </c>
+      <c r="M287" t="n">
+        <v>266.327653324633</v>
+      </c>
+      <c r="N287" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K287"/>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -9723,10 +12315,19 @@
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="n">
+      <c r="J288"/>
+      <c r="K288" t="n">
+        <v>317.426828423846</v>
+      </c>
+      <c r="L288" t="n">
+        <v>266.339273547233</v>
+      </c>
+      <c r="M288" t="n">
+        <v>266.339273547233</v>
+      </c>
+      <c r="N288" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K288"/>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -9754,10 +12355,19 @@
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="n">
+      <c r="J289"/>
+      <c r="K289" t="n">
+        <v>317.625552075376</v>
+      </c>
+      <c r="L289" t="n">
+        <v>266.334338774259</v>
+      </c>
+      <c r="M289" t="n">
+        <v>266.334338774259</v>
+      </c>
+      <c r="N289" t="n">
         <v>288.066178447532</v>
       </c>
-      <c r="K289"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
